--- a/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.3DBアクセス処理.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.3DBアクセス処理.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6615F147-2104-4487-8DB8-F5A52F91CCF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="19425" windowHeight="11025"/>
+    <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="7.3.DBアクセス処理" sheetId="2" r:id="rId1"/>
@@ -15,7 +16,18 @@
     <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'7.3.DBアクセス処理'!$A$1:$AI$178</definedName>
     <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'7.3.DBアクセス処理'!$A$1:$AI$178</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -972,9 +984,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>アプリケーションでJDBCドライバーのロードなどを行う必要はなくなり、</t>
-  </si>
-  <si>
     <t>Nablarchアプリケーションフレームワーク(NAF)ではデータソースを設定できるため、</t>
     <rPh sb="37" eb="39">
       <t>セッテイ</t>
@@ -1369,13 +1378,17 @@
   </si>
   <si>
     <t>データベースサーバのホスト名およびポート番号</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>そうすることで、アプリケーションでJDBCドライバーのロードなどを行う必要はなくなり、</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
@@ -1832,9 +1845,9 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 3 2 3" xfId="3"/>
-    <cellStyle name="標準_画面標準" xfId="1"/>
-    <cellStyle name="標準_画面標準定義" xfId="2"/>
+    <cellStyle name="標準 3 2 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="標準_画面標準" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="標準_画面標準定義" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1846,6 +1859,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2157,7 +2173,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2615,7 +2631,7 @@
     </row>
     <row r="28" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F28" s="21" t="s">
-        <v>124</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2625,12 +2641,12 @@
     </row>
     <row r="30" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F30" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="31" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F31" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2646,7 +2662,7 @@
         <v>24</v>
       </c>
       <c r="G33" s="21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="34" spans="2:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2678,12 +2694,12 @@
     </row>
     <row r="38" spans="2:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F38" s="56" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="39" spans="2:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F39" s="56" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="40" spans="2:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2905,7 +2921,7 @@
       <c r="J50" s="24"/>
       <c r="K50" s="24"/>
       <c r="L50" s="23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M50" s="24"/>
       <c r="N50" s="24"/>
@@ -2941,7 +2957,7 @@
       <c r="J51" s="24"/>
       <c r="K51" s="24"/>
       <c r="L51" s="23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M51" s="24"/>
       <c r="N51" s="24"/>
@@ -3013,7 +3029,7 @@
       <c r="J53" s="24"/>
       <c r="K53" s="24"/>
       <c r="L53" s="23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M53" s="24"/>
       <c r="N53" s="24"/>
@@ -3049,7 +3065,7 @@
       <c r="J54" s="24"/>
       <c r="K54" s="24"/>
       <c r="L54" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M54" s="24"/>
       <c r="N54" s="24"/>
@@ -3085,7 +3101,7 @@
       <c r="J55" s="24"/>
       <c r="K55" s="24"/>
       <c r="L55" s="23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M55" s="24"/>
       <c r="N55" s="24"/>
@@ -4031,7 +4047,7 @@
       <c r="E83" s="18"/>
       <c r="F83" s="18"/>
       <c r="G83" s="18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H83" s="18"/>
       <c r="I83" s="18"/>
@@ -4335,12 +4351,12 @@
     </row>
     <row r="94" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G94" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="95" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G95" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="96" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4446,7 +4462,7 @@
       <c r="J101" s="29"/>
       <c r="K101" s="29"/>
       <c r="L101" s="28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M101" s="29"/>
       <c r="N101" s="29"/>
@@ -4481,7 +4497,7 @@
       <c r="J102" s="27"/>
       <c r="K102" s="27"/>
       <c r="L102" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M102" s="27"/>
       <c r="N102" s="27"/>
@@ -4591,12 +4607,12 @@
     </row>
     <row r="106" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G106" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="107" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G107" s="21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="108" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4773,7 +4789,7 @@
       <c r="J116" s="29"/>
       <c r="K116" s="29"/>
       <c r="L116" s="28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M116" s="29"/>
       <c r="N116" s="29"/>
@@ -4808,7 +4824,7 @@
       <c r="J117" s="24"/>
       <c r="K117" s="24"/>
       <c r="L117" s="23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M117" s="24"/>
       <c r="N117" s="24"/>
@@ -4959,7 +4975,7 @@
       <c r="L122" s="24"/>
       <c r="M122" s="25"/>
       <c r="N122" s="24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O122" s="24"/>
       <c r="P122" s="24"/>
@@ -4991,7 +5007,7 @@
       <c r="L123" s="24"/>
       <c r="M123" s="25"/>
       <c r="N123" s="24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O123" s="24"/>
       <c r="P123" s="24"/>
@@ -5023,7 +5039,7 @@
       <c r="L124" s="24"/>
       <c r="M124" s="25"/>
       <c r="N124" s="24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O124" s="24"/>
       <c r="P124" s="24"/>
@@ -5152,7 +5168,7 @@
       <c r="D128" s="20"/>
       <c r="E128" s="20"/>
       <c r="G128" s="21" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="129" spans="5:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5193,19 +5209,19 @@
     </row>
     <row r="130" spans="5:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G130" s="23" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H130" s="24"/>
       <c r="I130" s="24"/>
       <c r="J130" s="25"/>
       <c r="K130" s="24" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L130" s="24"/>
       <c r="M130" s="24"/>
       <c r="N130" s="25"/>
       <c r="O130" s="24" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="P130" s="24"/>
       <c r="Q130" s="24"/>
@@ -5233,13 +5249,13 @@
       <c r="I131" s="24"/>
       <c r="J131" s="25"/>
       <c r="K131" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L131" s="24"/>
       <c r="M131" s="24"/>
       <c r="N131" s="25"/>
       <c r="O131" s="24" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="P131" s="24"/>
       <c r="Q131" s="24"/>
@@ -5267,7 +5283,7 @@
       <c r="I132" s="27"/>
       <c r="J132" s="31"/>
       <c r="K132" s="27" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L132" s="27"/>
       <c r="M132" s="27"/>
@@ -5295,19 +5311,19 @@
     </row>
     <row r="133" spans="5:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G133" s="23" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H133" s="24"/>
       <c r="I133" s="24"/>
       <c r="J133" s="25"/>
       <c r="K133" s="24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L133" s="24"/>
       <c r="M133" s="24"/>
       <c r="N133" s="25"/>
       <c r="O133" s="24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="P133" s="24"/>
       <c r="Q133" s="24"/>
@@ -5335,13 +5351,13 @@
       <c r="I134" s="24"/>
       <c r="J134" s="25"/>
       <c r="K134" s="24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L134" s="24"/>
       <c r="M134" s="24"/>
       <c r="N134" s="25"/>
       <c r="O134" s="24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="P134" s="24"/>
       <c r="Q134" s="24"/>
@@ -5431,7 +5447,7 @@
         <v>7.3.4.4.3.</v>
       </c>
       <c r="G137" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H137" s="18"/>
       <c r="I137" s="18"/>
@@ -5499,7 +5515,7 @@
       <c r="E139" s="16"/>
       <c r="F139" s="18"/>
       <c r="G139" s="18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H139" s="18"/>
       <c r="I139" s="18"/>
@@ -5534,7 +5550,7 @@
       <c r="E140" s="16"/>
       <c r="F140" s="18"/>
       <c r="G140" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H140" s="18"/>
       <c r="I140" s="18"/>
@@ -5601,7 +5617,7 @@
       <c r="E142" s="16"/>
       <c r="F142" s="18"/>
       <c r="G142" s="18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H142" s="18"/>
       <c r="I142" s="18"/>
@@ -5636,7 +5652,7 @@
       <c r="E143" s="16"/>
       <c r="F143" s="18"/>
       <c r="G143" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H143" s="18"/>
       <c r="I143" s="18"/>
@@ -6006,7 +6022,7 @@
       <c r="J159" s="24"/>
       <c r="K159" s="24"/>
       <c r="L159" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M159" s="24"/>
       <c r="N159" s="24"/>
@@ -6041,7 +6057,7 @@
       <c r="J160" s="27"/>
       <c r="K160" s="27"/>
       <c r="L160" s="26" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M160" s="27"/>
       <c r="N160" s="27"/>
@@ -6472,7 +6488,7 @@
       <c r="W172" s="54"/>
       <c r="X172" s="55"/>
       <c r="Y172" s="54" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Z172" s="54"/>
       <c r="AA172" s="54"/>
@@ -6508,7 +6524,7 @@
       <c r="W173" s="42"/>
       <c r="X173" s="43"/>
       <c r="Y173" s="42" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Z173" s="42"/>
       <c r="AA173" s="42"/>
@@ -6548,7 +6564,7 @@
       <c r="W174" s="54"/>
       <c r="X174" s="55"/>
       <c r="Y174" s="53" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Z174" s="54"/>
       <c r="AA174" s="54"/>
@@ -6586,7 +6602,7 @@
       <c r="W175" s="42"/>
       <c r="X175" s="43"/>
       <c r="Y175" s="41" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Z175" s="42"/>
       <c r="AA175" s="42"/>
@@ -6748,7 +6764,7 @@
         <v>7.3.5.1.</v>
       </c>
       <c r="F180" s="17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G180" s="18"/>
       <c r="H180" s="18"/>
@@ -6785,7 +6801,7 @@
       <c r="D181" s="22"/>
       <c r="E181" s="17"/>
       <c r="F181" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G181" s="18"/>
       <c r="H181" s="18"/>

--- a/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.3DBアクセス処理.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.3DBアクセス処理.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6615F147-2104-4487-8DB8-F5A52F91CCF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC5602BF-DC15-4791-929E-9DE36FCD4833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,9 +12,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'7.3.DBアクセス処理'!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'7.3.DBアクセス処理'!$A$1:$AI$185</definedName>
-    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'7.3.DBアクセス処理'!$A$1:$AI$178</definedName>
-    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'7.3.DBアクセス処理'!$A$1:$AI$178</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'7.3.DBアクセス処理'!$A$1:$AI$189</definedName>
+    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'7.3.DBアクセス処理'!$A$1:$AI$182</definedName>
+    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'7.3.DBアクセス処理'!$A$1:$AI$182</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="173">
   <si>
     <t>工程</t>
     <rPh sb="0" eb="2">
@@ -984,16 +984,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Nablarchアプリケーションフレームワーク(NAF)ではデータソースを設定できるため、</t>
-    <rPh sb="37" eb="39">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>configファイルにデータソースの以下を設定することで実現できる。</t>
-  </si>
-  <si>
     <t>実行計画の作成が１度しか行われない為、毎回SQL文を構成する場合に比べて</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1382,6 +1372,58 @@
   </si>
   <si>
     <t>そうすることで、アプリケーションでJDBCドライバーのロードなどを行う必要はなくなり、</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Webでは、あらかじめTomcatにデータソースを定義しておき、JNDIルックアップして使用する。</t>
+    <rPh sb="25" eb="27">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一方バッチでは、アプリケーション内部でデータソースを作成して使用する。</t>
+    <rPh sb="0" eb="2">
+      <t>イッポウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ナイブ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>データソースは、Webとバッチそれぞれ異なる方法で管理する。</t>
+    <rPh sb="19" eb="20">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アプリケーション内部でデータソースを作成する場合は、configファイルにデータソースの以下を設定することで実現できる。</t>
+    <rPh sb="8" eb="10">
+      <t>ナイブ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>バアイ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2177,7 +2219,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI185"/>
+  <dimension ref="A1:AI189"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -2631,7 +2673,7 @@
     </row>
     <row r="28" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F28" s="21" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="29" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2639,348 +2681,216 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F30" s="21" t="s">
-        <v>124</v>
-      </c>
-    </row>
+    <row r="30" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="31" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F31" s="21" t="s">
-        <v>125</v>
+        <v>171</v>
       </c>
     </row>
     <row r="32" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F32" s="35" t="s">
+      <c r="F32" s="21" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="33" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F33" s="21" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="34" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F35" s="21" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="36" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F36" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="G32" s="21" t="s">
+      <c r="G36" s="21" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="2:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F33" s="35" t="s">
+    <row r="37" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F37" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="G33" s="21" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="34" spans="2:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F34" s="35" t="s">
+      <c r="G37" s="21" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="38" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F38" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="G34" s="21" t="s">
+      <c r="G38" s="21" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="2:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F35" s="35"/>
-    </row>
-    <row r="36" spans="2:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D36" s="22"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-    </row>
-    <row r="37" spans="2:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D37" s="22"/>
-      <c r="E37" s="22" t="str">
+    <row r="39" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F39" s="35"/>
+    </row>
+    <row r="40" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D40" s="22"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+    </row>
+    <row r="41" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D41" s="22"/>
+      <c r="E41" s="22" t="str">
         <f>$D$25&amp;"2."</f>
         <v>7.3.2.2.</v>
       </c>
-      <c r="F37" s="21" t="str">
+      <c r="F41" s="21" t="str">
         <f>$E$25&amp;"ユーザ"</f>
         <v>データベース接続ユーザ</v>
       </c>
     </row>
-    <row r="38" spans="2:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F38" s="56" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="39" spans="2:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F39" s="56" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="40" spans="2:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F40" s="35"/>
-    </row>
-    <row r="41" spans="2:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="2:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D42" s="22" t="str">
+    <row r="42" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F42" s="56" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="43" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F43" s="56" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="44" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F44" s="35"/>
+    </row>
+    <row r="45" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D46" s="22" t="str">
         <f>$C$7&amp;"3."</f>
         <v>7.3.3.</v>
       </c>
-      <c r="E42" s="17" t="s">
+      <c r="E46" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="17"/>
-      <c r="K42" s="17"/>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="17"/>
-      <c r="R42" s="17"/>
-      <c r="S42" s="17"/>
-      <c r="T42" s="17"/>
-      <c r="U42" s="17"/>
-      <c r="V42" s="17"/>
-      <c r="W42" s="17"/>
-      <c r="X42" s="17"/>
-      <c r="Y42" s="17"/>
-      <c r="Z42" s="17"/>
-      <c r="AA42" s="17"/>
-      <c r="AB42" s="17"/>
-      <c r="AC42" s="17"/>
-      <c r="AD42" s="17"/>
-      <c r="AE42" s="17"/>
-      <c r="AF42" s="17"/>
-      <c r="AG42" s="17"/>
-      <c r="AH42" s="17"/>
-      <c r="AI42" s="17"/>
-    </row>
-    <row r="43" spans="2:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E43" s="22" t="str">
-        <f>D42&amp;"1."</f>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="17"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="17"/>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="17"/>
+      <c r="O46" s="17"/>
+      <c r="P46" s="17"/>
+      <c r="Q46" s="17"/>
+      <c r="R46" s="17"/>
+      <c r="S46" s="17"/>
+      <c r="T46" s="17"/>
+      <c r="U46" s="17"/>
+      <c r="V46" s="17"/>
+      <c r="W46" s="17"/>
+      <c r="X46" s="17"/>
+      <c r="Y46" s="17"/>
+      <c r="Z46" s="17"/>
+      <c r="AA46" s="17"/>
+      <c r="AB46" s="17"/>
+      <c r="AC46" s="17"/>
+      <c r="AD46" s="17"/>
+      <c r="AE46" s="17"/>
+      <c r="AF46" s="17"/>
+      <c r="AG46" s="17"/>
+      <c r="AH46" s="17"/>
+      <c r="AI46" s="17"/>
+    </row>
+    <row r="47" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E47" s="22" t="str">
+        <f>D46&amp;"1."</f>
         <v>7.3.3.1.</v>
       </c>
-      <c r="F43" s="21" t="str">
-        <f>E42&amp;"方法"</f>
+      <c r="F47" s="21" t="str">
+        <f>E46&amp;"方法"</f>
         <v>SQL文の生成方法</v>
       </c>
     </row>
-    <row r="44" spans="2:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F44" s="21" t="str">
-        <f>E42&amp;"を行う機能には、以下の方法がある。"</f>
+    <row r="48" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F48" s="21" t="str">
+        <f>E46&amp;"を行う機能には、以下の方法がある。"</f>
         <v>SQL文の生成を行う機能には、以下の方法がある。</v>
       </c>
     </row>
-    <row r="45" spans="2:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" spans="2:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B46" s="20"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="20"/>
-      <c r="F46" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="G46" s="33"/>
-      <c r="H46" s="33"/>
-      <c r="I46" s="33"/>
-      <c r="J46" s="33"/>
-      <c r="K46" s="34"/>
-      <c r="L46" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="M46" s="33"/>
-      <c r="N46" s="33"/>
-      <c r="O46" s="33"/>
-      <c r="P46" s="33"/>
-      <c r="Q46" s="33"/>
-      <c r="R46" s="33"/>
-      <c r="S46" s="33"/>
-      <c r="T46" s="33"/>
-      <c r="U46" s="33"/>
-      <c r="V46" s="33"/>
-      <c r="W46" s="33"/>
-      <c r="X46" s="33"/>
-      <c r="Y46" s="33"/>
-      <c r="Z46" s="33"/>
-      <c r="AA46" s="33"/>
-      <c r="AB46" s="33"/>
-      <c r="AC46" s="33"/>
-      <c r="AD46" s="33"/>
-      <c r="AE46" s="33"/>
-      <c r="AF46" s="33"/>
-      <c r="AG46" s="33"/>
-      <c r="AH46" s="34"/>
-    </row>
-    <row r="47" spans="2:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B47" s="20"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
-      <c r="F47" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="G47" s="29"/>
-      <c r="H47" s="29"/>
-      <c r="I47" s="29"/>
-      <c r="J47" s="29"/>
-      <c r="K47" s="29"/>
-      <c r="L47" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="M47" s="29"/>
-      <c r="N47" s="29"/>
-      <c r="O47" s="29"/>
-      <c r="P47" s="29"/>
-      <c r="Q47" s="29"/>
-      <c r="R47" s="29"/>
-      <c r="S47" s="29"/>
-      <c r="T47" s="29"/>
-      <c r="U47" s="29"/>
-      <c r="V47" s="29"/>
-      <c r="W47" s="29"/>
-      <c r="X47" s="29"/>
-      <c r="Y47" s="29"/>
-      <c r="Z47" s="29"/>
-      <c r="AA47" s="29"/>
-      <c r="AB47" s="29"/>
-      <c r="AC47" s="29"/>
-      <c r="AD47" s="29"/>
-      <c r="AE47" s="29"/>
-      <c r="AF47" s="29"/>
-      <c r="AG47" s="29"/>
-      <c r="AH47" s="30"/>
-    </row>
-    <row r="48" spans="2:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B48" s="20"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20"/>
-      <c r="F48" s="23"/>
-      <c r="G48" s="24"/>
-      <c r="H48" s="24"/>
-      <c r="I48" s="24"/>
-      <c r="J48" s="24"/>
-      <c r="K48" s="24"/>
-      <c r="L48" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="M48" s="24"/>
-      <c r="N48" s="24"/>
-      <c r="O48" s="24"/>
-      <c r="P48" s="24"/>
-      <c r="Q48" s="24"/>
-      <c r="R48" s="24"/>
-      <c r="S48" s="24"/>
-      <c r="T48" s="24"/>
-      <c r="U48" s="24"/>
-      <c r="V48" s="24"/>
-      <c r="W48" s="24"/>
-      <c r="X48" s="24"/>
-      <c r="Y48" s="24"/>
-      <c r="Z48" s="24"/>
-      <c r="AA48" s="24"/>
-      <c r="AB48" s="24"/>
-      <c r="AC48" s="24"/>
-      <c r="AD48" s="24"/>
-      <c r="AE48" s="24"/>
-      <c r="AF48" s="24"/>
-      <c r="AG48" s="24"/>
-      <c r="AH48" s="25"/>
-    </row>
-    <row r="49" spans="2:34" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B49" s="20"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20"/>
-      <c r="F49" s="23"/>
-      <c r="G49" s="24"/>
-      <c r="H49" s="24"/>
-      <c r="I49" s="24"/>
-      <c r="J49" s="24"/>
-      <c r="K49" s="24"/>
-      <c r="L49" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="M49" s="24"/>
-      <c r="N49" s="24"/>
-      <c r="O49" s="24"/>
-      <c r="P49" s="24"/>
-      <c r="Q49" s="24"/>
-      <c r="R49" s="24"/>
-      <c r="S49" s="24"/>
-      <c r="T49" s="24"/>
-      <c r="U49" s="24"/>
-      <c r="V49" s="24"/>
-      <c r="W49" s="24"/>
-      <c r="X49" s="24"/>
-      <c r="Y49" s="24"/>
-      <c r="Z49" s="24"/>
-      <c r="AA49" s="24"/>
-      <c r="AB49" s="24"/>
-      <c r="AC49" s="24"/>
-      <c r="AD49" s="24"/>
-      <c r="AE49" s="24"/>
-      <c r="AF49" s="24"/>
-      <c r="AG49" s="24"/>
-      <c r="AH49" s="25"/>
-    </row>
+    <row r="49" spans="2:34" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="50" spans="2:34" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B50" s="20"/>
       <c r="C50" s="20"/>
       <c r="D50" s="20"/>
-      <c r="F50" s="23"/>
-      <c r="G50" s="24"/>
-      <c r="H50" s="24"/>
-      <c r="I50" s="24"/>
-      <c r="J50" s="24"/>
-      <c r="K50" s="24"/>
-      <c r="L50" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="M50" s="24"/>
-      <c r="N50" s="24"/>
-      <c r="O50" s="24"/>
-      <c r="P50" s="24"/>
-      <c r="Q50" s="24"/>
-      <c r="R50" s="24"/>
-      <c r="S50" s="24"/>
-      <c r="T50" s="24"/>
-      <c r="U50" s="24"/>
-      <c r="V50" s="24"/>
-      <c r="W50" s="24"/>
-      <c r="X50" s="24"/>
-      <c r="Y50" s="24"/>
-      <c r="Z50" s="24"/>
-      <c r="AA50" s="24"/>
-      <c r="AB50" s="24"/>
-      <c r="AC50" s="24"/>
-      <c r="AD50" s="24"/>
-      <c r="AE50" s="24"/>
-      <c r="AF50" s="24"/>
-      <c r="AG50" s="24"/>
-      <c r="AH50" s="25"/>
+      <c r="F50" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="G50" s="33"/>
+      <c r="H50" s="33"/>
+      <c r="I50" s="33"/>
+      <c r="J50" s="33"/>
+      <c r="K50" s="34"/>
+      <c r="L50" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="M50" s="33"/>
+      <c r="N50" s="33"/>
+      <c r="O50" s="33"/>
+      <c r="P50" s="33"/>
+      <c r="Q50" s="33"/>
+      <c r="R50" s="33"/>
+      <c r="S50" s="33"/>
+      <c r="T50" s="33"/>
+      <c r="U50" s="33"/>
+      <c r="V50" s="33"/>
+      <c r="W50" s="33"/>
+      <c r="X50" s="33"/>
+      <c r="Y50" s="33"/>
+      <c r="Z50" s="33"/>
+      <c r="AA50" s="33"/>
+      <c r="AB50" s="33"/>
+      <c r="AC50" s="33"/>
+      <c r="AD50" s="33"/>
+      <c r="AE50" s="33"/>
+      <c r="AF50" s="33"/>
+      <c r="AG50" s="33"/>
+      <c r="AH50" s="34"/>
     </row>
     <row r="51" spans="2:34" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B51" s="20"/>
       <c r="C51" s="20"/>
       <c r="D51" s="20"/>
-      <c r="F51" s="23"/>
-      <c r="G51" s="24"/>
-      <c r="H51" s="24"/>
-      <c r="I51" s="24"/>
-      <c r="J51" s="24"/>
-      <c r="K51" s="24"/>
-      <c r="L51" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="M51" s="24"/>
-      <c r="N51" s="24"/>
-      <c r="O51" s="24"/>
-      <c r="P51" s="24"/>
-      <c r="Q51" s="24"/>
-      <c r="R51" s="24"/>
-      <c r="S51" s="24"/>
-      <c r="T51" s="24"/>
-      <c r="U51" s="24"/>
-      <c r="V51" s="24"/>
-      <c r="W51" s="24"/>
-      <c r="X51" s="24"/>
-      <c r="Y51" s="24"/>
-      <c r="Z51" s="24"/>
-      <c r="AA51" s="24"/>
-      <c r="AB51" s="24"/>
-      <c r="AC51" s="24"/>
-      <c r="AD51" s="24"/>
-      <c r="AE51" s="24"/>
-      <c r="AF51" s="24"/>
-      <c r="AG51" s="24"/>
-      <c r="AH51" s="25"/>
+      <c r="F51" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="G51" s="29"/>
+      <c r="H51" s="29"/>
+      <c r="I51" s="29"/>
+      <c r="J51" s="29"/>
+      <c r="K51" s="29"/>
+      <c r="L51" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="M51" s="29"/>
+      <c r="N51" s="29"/>
+      <c r="O51" s="29"/>
+      <c r="P51" s="29"/>
+      <c r="Q51" s="29"/>
+      <c r="R51" s="29"/>
+      <c r="S51" s="29"/>
+      <c r="T51" s="29"/>
+      <c r="U51" s="29"/>
+      <c r="V51" s="29"/>
+      <c r="W51" s="29"/>
+      <c r="X51" s="29"/>
+      <c r="Y51" s="29"/>
+      <c r="Z51" s="29"/>
+      <c r="AA51" s="29"/>
+      <c r="AB51" s="29"/>
+      <c r="AC51" s="29"/>
+      <c r="AD51" s="29"/>
+      <c r="AE51" s="29"/>
+      <c r="AF51" s="29"/>
+      <c r="AG51" s="29"/>
+      <c r="AH51" s="30"/>
     </row>
     <row r="52" spans="2:34" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B52" s="20"/>
@@ -2993,7 +2903,7 @@
       <c r="J52" s="24"/>
       <c r="K52" s="24"/>
       <c r="L52" s="23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M52" s="24"/>
       <c r="N52" s="24"/>
@@ -3029,7 +2939,7 @@
       <c r="J53" s="24"/>
       <c r="K53" s="24"/>
       <c r="L53" s="23" t="s">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="M53" s="24"/>
       <c r="N53" s="24"/>
@@ -3065,7 +2975,7 @@
       <c r="J54" s="24"/>
       <c r="K54" s="24"/>
       <c r="L54" s="23" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="M54" s="24"/>
       <c r="N54" s="24"/>
@@ -3101,7 +3011,7 @@
       <c r="J55" s="24"/>
       <c r="K55" s="24"/>
       <c r="L55" s="23" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="M55" s="24"/>
       <c r="N55" s="24"/>
@@ -3130,39 +3040,37 @@
       <c r="B56" s="20"/>
       <c r="C56" s="20"/>
       <c r="D56" s="20"/>
-      <c r="F56" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="G56" s="29"/>
-      <c r="H56" s="29"/>
-      <c r="I56" s="29"/>
-      <c r="J56" s="29"/>
-      <c r="K56" s="29"/>
-      <c r="L56" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="M56" s="29"/>
-      <c r="N56" s="29"/>
-      <c r="O56" s="29"/>
-      <c r="P56" s="29"/>
-      <c r="Q56" s="29"/>
-      <c r="R56" s="29"/>
-      <c r="S56" s="29"/>
-      <c r="T56" s="29"/>
-      <c r="U56" s="29"/>
-      <c r="V56" s="29"/>
-      <c r="W56" s="29"/>
-      <c r="X56" s="29"/>
-      <c r="Y56" s="29"/>
-      <c r="Z56" s="29"/>
-      <c r="AA56" s="29"/>
-      <c r="AB56" s="29"/>
-      <c r="AC56" s="29"/>
-      <c r="AD56" s="29"/>
-      <c r="AE56" s="29"/>
-      <c r="AF56" s="29"/>
-      <c r="AG56" s="29"/>
-      <c r="AH56" s="30"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="24"/>
+      <c r="H56" s="24"/>
+      <c r="I56" s="24"/>
+      <c r="J56" s="24"/>
+      <c r="K56" s="24"/>
+      <c r="L56" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="M56" s="24"/>
+      <c r="N56" s="24"/>
+      <c r="O56" s="24"/>
+      <c r="P56" s="24"/>
+      <c r="Q56" s="24"/>
+      <c r="R56" s="24"/>
+      <c r="S56" s="24"/>
+      <c r="T56" s="24"/>
+      <c r="U56" s="24"/>
+      <c r="V56" s="24"/>
+      <c r="W56" s="24"/>
+      <c r="X56" s="24"/>
+      <c r="Y56" s="24"/>
+      <c r="Z56" s="24"/>
+      <c r="AA56" s="24"/>
+      <c r="AB56" s="24"/>
+      <c r="AC56" s="24"/>
+      <c r="AD56" s="24"/>
+      <c r="AE56" s="24"/>
+      <c r="AF56" s="24"/>
+      <c r="AG56" s="24"/>
+      <c r="AH56" s="25"/>
     </row>
     <row r="57" spans="2:34" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B57" s="20"/>
@@ -3175,7 +3083,7 @@
       <c r="J57" s="24"/>
       <c r="K57" s="24"/>
       <c r="L57" s="23" t="s">
-        <v>35</v>
+        <v>126</v>
       </c>
       <c r="M57" s="24"/>
       <c r="N57" s="24"/>
@@ -3211,7 +3119,7 @@
       <c r="J58" s="24"/>
       <c r="K58" s="24"/>
       <c r="L58" s="23" t="s">
-        <v>36</v>
+        <v>128</v>
       </c>
       <c r="M58" s="24"/>
       <c r="N58" s="24"/>
@@ -3240,75 +3148,75 @@
       <c r="B59" s="20"/>
       <c r="C59" s="20"/>
       <c r="D59" s="20"/>
-      <c r="F59" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="G59" s="29"/>
-      <c r="H59" s="29"/>
-      <c r="I59" s="29"/>
-      <c r="J59" s="29"/>
-      <c r="K59" s="29"/>
-      <c r="L59" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="M59" s="29"/>
-      <c r="N59" s="29"/>
-      <c r="O59" s="29"/>
-      <c r="P59" s="29"/>
-      <c r="Q59" s="29"/>
-      <c r="R59" s="29"/>
-      <c r="S59" s="29"/>
-      <c r="T59" s="29"/>
-      <c r="U59" s="29"/>
-      <c r="V59" s="29"/>
-      <c r="W59" s="29"/>
-      <c r="X59" s="29"/>
-      <c r="Y59" s="29"/>
-      <c r="Z59" s="29"/>
-      <c r="AA59" s="29"/>
-      <c r="AB59" s="29"/>
-      <c r="AC59" s="29"/>
-      <c r="AD59" s="29"/>
-      <c r="AE59" s="29"/>
-      <c r="AF59" s="29"/>
-      <c r="AG59" s="29"/>
-      <c r="AH59" s="30"/>
+      <c r="F59" s="23"/>
+      <c r="G59" s="24"/>
+      <c r="H59" s="24"/>
+      <c r="I59" s="24"/>
+      <c r="J59" s="24"/>
+      <c r="K59" s="24"/>
+      <c r="L59" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="M59" s="24"/>
+      <c r="N59" s="24"/>
+      <c r="O59" s="24"/>
+      <c r="P59" s="24"/>
+      <c r="Q59" s="24"/>
+      <c r="R59" s="24"/>
+      <c r="S59" s="24"/>
+      <c r="T59" s="24"/>
+      <c r="U59" s="24"/>
+      <c r="V59" s="24"/>
+      <c r="W59" s="24"/>
+      <c r="X59" s="24"/>
+      <c r="Y59" s="24"/>
+      <c r="Z59" s="24"/>
+      <c r="AA59" s="24"/>
+      <c r="AB59" s="24"/>
+      <c r="AC59" s="24"/>
+      <c r="AD59" s="24"/>
+      <c r="AE59" s="24"/>
+      <c r="AF59" s="24"/>
+      <c r="AG59" s="24"/>
+      <c r="AH59" s="25"/>
     </row>
     <row r="60" spans="2:34" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B60" s="20"/>
       <c r="C60" s="20"/>
       <c r="D60" s="20"/>
-      <c r="F60" s="23"/>
-      <c r="G60" s="24"/>
-      <c r="H60" s="24"/>
-      <c r="I60" s="24"/>
-      <c r="J60" s="24"/>
-      <c r="K60" s="24"/>
-      <c r="L60" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="M60" s="24"/>
-      <c r="N60" s="24"/>
-      <c r="O60" s="24"/>
-      <c r="P60" s="24"/>
-      <c r="Q60" s="24"/>
-      <c r="R60" s="24"/>
-      <c r="S60" s="24"/>
-      <c r="T60" s="24"/>
-      <c r="U60" s="24"/>
-      <c r="V60" s="24"/>
-      <c r="W60" s="24"/>
-      <c r="X60" s="24"/>
-      <c r="Y60" s="24"/>
-      <c r="Z60" s="24"/>
-      <c r="AA60" s="24"/>
-      <c r="AB60" s="24"/>
-      <c r="AC60" s="24"/>
-      <c r="AD60" s="24"/>
-      <c r="AE60" s="24"/>
-      <c r="AF60" s="24"/>
-      <c r="AG60" s="24"/>
-      <c r="AH60" s="25"/>
+      <c r="F60" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G60" s="29"/>
+      <c r="H60" s="29"/>
+      <c r="I60" s="29"/>
+      <c r="J60" s="29"/>
+      <c r="K60" s="29"/>
+      <c r="L60" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="M60" s="29"/>
+      <c r="N60" s="29"/>
+      <c r="O60" s="29"/>
+      <c r="P60" s="29"/>
+      <c r="Q60" s="29"/>
+      <c r="R60" s="29"/>
+      <c r="S60" s="29"/>
+      <c r="T60" s="29"/>
+      <c r="U60" s="29"/>
+      <c r="V60" s="29"/>
+      <c r="W60" s="29"/>
+      <c r="X60" s="29"/>
+      <c r="Y60" s="29"/>
+      <c r="Z60" s="29"/>
+      <c r="AA60" s="29"/>
+      <c r="AB60" s="29"/>
+      <c r="AC60" s="29"/>
+      <c r="AD60" s="29"/>
+      <c r="AE60" s="29"/>
+      <c r="AF60" s="29"/>
+      <c r="AG60" s="29"/>
+      <c r="AH60" s="30"/>
     </row>
     <row r="61" spans="2:34" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B61" s="20"/>
@@ -3321,7 +3229,7 @@
       <c r="J61" s="24"/>
       <c r="K61" s="24"/>
       <c r="L61" s="23" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="M61" s="24"/>
       <c r="N61" s="24"/>
@@ -3350,170 +3258,199 @@
       <c r="B62" s="20"/>
       <c r="C62" s="20"/>
       <c r="D62" s="20"/>
-      <c r="F62" s="26"/>
-      <c r="G62" s="27"/>
-      <c r="H62" s="27"/>
-      <c r="I62" s="27"/>
-      <c r="J62" s="27"/>
-      <c r="K62" s="27"/>
-      <c r="L62" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="M62" s="27"/>
-      <c r="N62" s="27"/>
-      <c r="O62" s="27"/>
-      <c r="P62" s="27"/>
-      <c r="Q62" s="27"/>
-      <c r="R62" s="27"/>
-      <c r="S62" s="27"/>
-      <c r="T62" s="27"/>
-      <c r="U62" s="27"/>
-      <c r="V62" s="27"/>
-      <c r="W62" s="27"/>
-      <c r="X62" s="27"/>
-      <c r="Y62" s="27"/>
-      <c r="Z62" s="27"/>
-      <c r="AA62" s="27"/>
-      <c r="AB62" s="27"/>
-      <c r="AC62" s="27"/>
-      <c r="AD62" s="27"/>
-      <c r="AE62" s="27"/>
-      <c r="AF62" s="27"/>
-      <c r="AG62" s="27"/>
-      <c r="AH62" s="31"/>
+      <c r="F62" s="23"/>
+      <c r="G62" s="24"/>
+      <c r="H62" s="24"/>
+      <c r="I62" s="24"/>
+      <c r="J62" s="24"/>
+      <c r="K62" s="24"/>
+      <c r="L62" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="M62" s="24"/>
+      <c r="N62" s="24"/>
+      <c r="O62" s="24"/>
+      <c r="P62" s="24"/>
+      <c r="Q62" s="24"/>
+      <c r="R62" s="24"/>
+      <c r="S62" s="24"/>
+      <c r="T62" s="24"/>
+      <c r="U62" s="24"/>
+      <c r="V62" s="24"/>
+      <c r="W62" s="24"/>
+      <c r="X62" s="24"/>
+      <c r="Y62" s="24"/>
+      <c r="Z62" s="24"/>
+      <c r="AA62" s="24"/>
+      <c r="AB62" s="24"/>
+      <c r="AC62" s="24"/>
+      <c r="AD62" s="24"/>
+      <c r="AE62" s="24"/>
+      <c r="AF62" s="24"/>
+      <c r="AG62" s="24"/>
+      <c r="AH62" s="25"/>
     </row>
     <row r="63" spans="2:34" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B63" s="20"/>
       <c r="C63" s="20"/>
       <c r="D63" s="20"/>
-      <c r="F63" s="24"/>
-      <c r="G63" s="24"/>
-      <c r="H63" s="24"/>
-      <c r="I63" s="24"/>
-      <c r="J63" s="24"/>
-      <c r="K63" s="24"/>
-      <c r="L63" s="24"/>
-      <c r="M63" s="24"/>
-      <c r="N63" s="24"/>
-      <c r="O63" s="24"/>
-      <c r="P63" s="24"/>
-      <c r="Q63" s="24"/>
-      <c r="R63" s="24"/>
-      <c r="S63" s="24"/>
-      <c r="T63" s="24"/>
-      <c r="U63" s="24"/>
-      <c r="V63" s="24"/>
-      <c r="W63" s="24"/>
-      <c r="X63" s="24"/>
-      <c r="Y63" s="24"/>
-      <c r="Z63" s="24"/>
-      <c r="AA63" s="24"/>
-      <c r="AB63" s="24"/>
-      <c r="AC63" s="24"/>
-      <c r="AD63" s="24"/>
-      <c r="AE63" s="24"/>
-      <c r="AF63" s="24"/>
-      <c r="AG63" s="24"/>
-      <c r="AH63" s="24"/>
+      <c r="F63" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="G63" s="29"/>
+      <c r="H63" s="29"/>
+      <c r="I63" s="29"/>
+      <c r="J63" s="29"/>
+      <c r="K63" s="29"/>
+      <c r="L63" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="M63" s="29"/>
+      <c r="N63" s="29"/>
+      <c r="O63" s="29"/>
+      <c r="P63" s="29"/>
+      <c r="Q63" s="29"/>
+      <c r="R63" s="29"/>
+      <c r="S63" s="29"/>
+      <c r="T63" s="29"/>
+      <c r="U63" s="29"/>
+      <c r="V63" s="29"/>
+      <c r="W63" s="29"/>
+      <c r="X63" s="29"/>
+      <c r="Y63" s="29"/>
+      <c r="Z63" s="29"/>
+      <c r="AA63" s="29"/>
+      <c r="AB63" s="29"/>
+      <c r="AC63" s="29"/>
+      <c r="AD63" s="29"/>
+      <c r="AE63" s="29"/>
+      <c r="AF63" s="29"/>
+      <c r="AG63" s="29"/>
+      <c r="AH63" s="30"/>
     </row>
     <row r="64" spans="2:34" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B64" s="20"/>
       <c r="C64" s="20"/>
       <c r="D64" s="20"/>
-      <c r="F64" s="21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="65" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F65" s="32" t="str">
-        <f>F46</f>
-        <v>方法</v>
-      </c>
-      <c r="G65" s="33"/>
-      <c r="H65" s="33"/>
-      <c r="I65" s="33"/>
-      <c r="J65" s="33"/>
-      <c r="K65" s="34"/>
-      <c r="L65" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="M65" s="33"/>
-      <c r="N65" s="33"/>
-      <c r="O65" s="34"/>
-      <c r="P65" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q65" s="33"/>
-      <c r="R65" s="33"/>
-      <c r="S65" s="33"/>
-      <c r="T65" s="33"/>
-      <c r="U65" s="33"/>
-      <c r="V65" s="33"/>
-      <c r="W65" s="33"/>
-      <c r="X65" s="33"/>
-      <c r="Y65" s="33"/>
-      <c r="Z65" s="33"/>
-      <c r="AA65" s="33"/>
-      <c r="AB65" s="33"/>
-      <c r="AC65" s="33"/>
-      <c r="AD65" s="33"/>
-      <c r="AE65" s="33"/>
-      <c r="AF65" s="33"/>
-      <c r="AG65" s="33"/>
-      <c r="AH65" s="34"/>
-    </row>
-    <row r="66" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F66" s="23" t="str">
-        <f>F47</f>
-        <v>プリペアードステートメント</v>
-      </c>
-      <c r="G66" s="24"/>
-      <c r="H66" s="24"/>
-      <c r="I66" s="24"/>
-      <c r="J66" s="24"/>
-      <c r="K66" s="25"/>
-      <c r="L66" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="M66" s="24"/>
-      <c r="N66" s="24"/>
-      <c r="O66" s="25"/>
-      <c r="P66" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q66" s="24"/>
-      <c r="R66" s="24"/>
-      <c r="S66" s="24"/>
-      <c r="T66" s="24"/>
-      <c r="U66" s="24"/>
-      <c r="V66" s="24"/>
-      <c r="W66" s="24"/>
-      <c r="X66" s="24"/>
-      <c r="Y66" s="24"/>
-      <c r="Z66" s="24"/>
-      <c r="AA66" s="24"/>
-      <c r="AB66" s="24"/>
-      <c r="AC66" s="24"/>
-      <c r="AD66" s="24"/>
-      <c r="AE66" s="24"/>
-      <c r="AF66" s="24"/>
-      <c r="AG66" s="24"/>
-      <c r="AH66" s="25"/>
-    </row>
-    <row r="67" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F67" s="23"/>
+      <c r="F64" s="23"/>
+      <c r="G64" s="24"/>
+      <c r="H64" s="24"/>
+      <c r="I64" s="24"/>
+      <c r="J64" s="24"/>
+      <c r="K64" s="24"/>
+      <c r="L64" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="M64" s="24"/>
+      <c r="N64" s="24"/>
+      <c r="O64" s="24"/>
+      <c r="P64" s="24"/>
+      <c r="Q64" s="24"/>
+      <c r="R64" s="24"/>
+      <c r="S64" s="24"/>
+      <c r="T64" s="24"/>
+      <c r="U64" s="24"/>
+      <c r="V64" s="24"/>
+      <c r="W64" s="24"/>
+      <c r="X64" s="24"/>
+      <c r="Y64" s="24"/>
+      <c r="Z64" s="24"/>
+      <c r="AA64" s="24"/>
+      <c r="AB64" s="24"/>
+      <c r="AC64" s="24"/>
+      <c r="AD64" s="24"/>
+      <c r="AE64" s="24"/>
+      <c r="AF64" s="24"/>
+      <c r="AG64" s="24"/>
+      <c r="AH64" s="25"/>
+    </row>
+    <row r="65" spans="2:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B65" s="20"/>
+      <c r="C65" s="20"/>
+      <c r="D65" s="20"/>
+      <c r="F65" s="23"/>
+      <c r="G65" s="24"/>
+      <c r="H65" s="24"/>
+      <c r="I65" s="24"/>
+      <c r="J65" s="24"/>
+      <c r="K65" s="24"/>
+      <c r="L65" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="M65" s="24"/>
+      <c r="N65" s="24"/>
+      <c r="O65" s="24"/>
+      <c r="P65" s="24"/>
+      <c r="Q65" s="24"/>
+      <c r="R65" s="24"/>
+      <c r="S65" s="24"/>
+      <c r="T65" s="24"/>
+      <c r="U65" s="24"/>
+      <c r="V65" s="24"/>
+      <c r="W65" s="24"/>
+      <c r="X65" s="24"/>
+      <c r="Y65" s="24"/>
+      <c r="Z65" s="24"/>
+      <c r="AA65" s="24"/>
+      <c r="AB65" s="24"/>
+      <c r="AC65" s="24"/>
+      <c r="AD65" s="24"/>
+      <c r="AE65" s="24"/>
+      <c r="AF65" s="24"/>
+      <c r="AG65" s="24"/>
+      <c r="AH65" s="25"/>
+    </row>
+    <row r="66" spans="2:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B66" s="20"/>
+      <c r="C66" s="20"/>
+      <c r="D66" s="20"/>
+      <c r="F66" s="26"/>
+      <c r="G66" s="27"/>
+      <c r="H66" s="27"/>
+      <c r="I66" s="27"/>
+      <c r="J66" s="27"/>
+      <c r="K66" s="27"/>
+      <c r="L66" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="M66" s="27"/>
+      <c r="N66" s="27"/>
+      <c r="O66" s="27"/>
+      <c r="P66" s="27"/>
+      <c r="Q66" s="27"/>
+      <c r="R66" s="27"/>
+      <c r="S66" s="27"/>
+      <c r="T66" s="27"/>
+      <c r="U66" s="27"/>
+      <c r="V66" s="27"/>
+      <c r="W66" s="27"/>
+      <c r="X66" s="27"/>
+      <c r="Y66" s="27"/>
+      <c r="Z66" s="27"/>
+      <c r="AA66" s="27"/>
+      <c r="AB66" s="27"/>
+      <c r="AC66" s="27"/>
+      <c r="AD66" s="27"/>
+      <c r="AE66" s="27"/>
+      <c r="AF66" s="27"/>
+      <c r="AG66" s="27"/>
+      <c r="AH66" s="31"/>
+    </row>
+    <row r="67" spans="2:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B67" s="20"/>
+      <c r="C67" s="20"/>
+      <c r="D67" s="20"/>
+      <c r="F67" s="24"/>
       <c r="G67" s="24"/>
       <c r="H67" s="24"/>
       <c r="I67" s="24"/>
       <c r="J67" s="24"/>
-      <c r="K67" s="25"/>
+      <c r="K67" s="24"/>
       <c r="L67" s="24"/>
       <c r="M67" s="24"/>
       <c r="N67" s="24"/>
-      <c r="O67" s="25"/>
-      <c r="P67" s="24" t="s">
-        <v>34</v>
-      </c>
+      <c r="O67" s="24"/>
+      <c r="P67" s="24"/>
       <c r="Q67" s="24"/>
       <c r="R67" s="24"/>
       <c r="S67" s="24"/>
@@ -3531,344 +3468,339 @@
       <c r="AE67" s="24"/>
       <c r="AF67" s="24"/>
       <c r="AG67" s="24"/>
-      <c r="AH67" s="25"/>
-    </row>
-    <row r="68" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F68" s="28" t="str">
-        <f>F56</f>
+      <c r="AH67" s="24"/>
+    </row>
+    <row r="68" spans="2:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B68" s="20"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="20"/>
+      <c r="F68" s="21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" spans="2:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F69" s="32" t="str">
+        <f>F50</f>
+        <v>方法</v>
+      </c>
+      <c r="G69" s="33"/>
+      <c r="H69" s="33"/>
+      <c r="I69" s="33"/>
+      <c r="J69" s="33"/>
+      <c r="K69" s="34"/>
+      <c r="L69" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="M69" s="33"/>
+      <c r="N69" s="33"/>
+      <c r="O69" s="34"/>
+      <c r="P69" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q69" s="33"/>
+      <c r="R69" s="33"/>
+      <c r="S69" s="33"/>
+      <c r="T69" s="33"/>
+      <c r="U69" s="33"/>
+      <c r="V69" s="33"/>
+      <c r="W69" s="33"/>
+      <c r="X69" s="33"/>
+      <c r="Y69" s="33"/>
+      <c r="Z69" s="33"/>
+      <c r="AA69" s="33"/>
+      <c r="AB69" s="33"/>
+      <c r="AC69" s="33"/>
+      <c r="AD69" s="33"/>
+      <c r="AE69" s="33"/>
+      <c r="AF69" s="33"/>
+      <c r="AG69" s="33"/>
+      <c r="AH69" s="34"/>
+    </row>
+    <row r="70" spans="2:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F70" s="23" t="str">
+        <f>F51</f>
+        <v>プリペアードステートメント</v>
+      </c>
+      <c r="G70" s="24"/>
+      <c r="H70" s="24"/>
+      <c r="I70" s="24"/>
+      <c r="J70" s="24"/>
+      <c r="K70" s="25"/>
+      <c r="L70" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="M70" s="24"/>
+      <c r="N70" s="24"/>
+      <c r="O70" s="25"/>
+      <c r="P70" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q70" s="24"/>
+      <c r="R70" s="24"/>
+      <c r="S70" s="24"/>
+      <c r="T70" s="24"/>
+      <c r="U70" s="24"/>
+      <c r="V70" s="24"/>
+      <c r="W70" s="24"/>
+      <c r="X70" s="24"/>
+      <c r="Y70" s="24"/>
+      <c r="Z70" s="24"/>
+      <c r="AA70" s="24"/>
+      <c r="AB70" s="24"/>
+      <c r="AC70" s="24"/>
+      <c r="AD70" s="24"/>
+      <c r="AE70" s="24"/>
+      <c r="AF70" s="24"/>
+      <c r="AG70" s="24"/>
+      <c r="AH70" s="25"/>
+    </row>
+    <row r="71" spans="2:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F71" s="23"/>
+      <c r="G71" s="24"/>
+      <c r="H71" s="24"/>
+      <c r="I71" s="24"/>
+      <c r="J71" s="24"/>
+      <c r="K71" s="25"/>
+      <c r="L71" s="24"/>
+      <c r="M71" s="24"/>
+      <c r="N71" s="24"/>
+      <c r="O71" s="25"/>
+      <c r="P71" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q71" s="24"/>
+      <c r="R71" s="24"/>
+      <c r="S71" s="24"/>
+      <c r="T71" s="24"/>
+      <c r="U71" s="24"/>
+      <c r="V71" s="24"/>
+      <c r="W71" s="24"/>
+      <c r="X71" s="24"/>
+      <c r="Y71" s="24"/>
+      <c r="Z71" s="24"/>
+      <c r="AA71" s="24"/>
+      <c r="AB71" s="24"/>
+      <c r="AC71" s="24"/>
+      <c r="AD71" s="24"/>
+      <c r="AE71" s="24"/>
+      <c r="AF71" s="24"/>
+      <c r="AG71" s="24"/>
+      <c r="AH71" s="25"/>
+    </row>
+    <row r="72" spans="2:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F72" s="28" t="str">
+        <f>F60</f>
         <v>動的SQLステートメント</v>
       </c>
-      <c r="G68" s="29"/>
-      <c r="H68" s="29"/>
-      <c r="I68" s="29"/>
-      <c r="J68" s="29"/>
-      <c r="K68" s="30"/>
-      <c r="L68" s="29" t="s">
+      <c r="G72" s="29"/>
+      <c r="H72" s="29"/>
+      <c r="I72" s="29"/>
+      <c r="J72" s="29"/>
+      <c r="K72" s="30"/>
+      <c r="L72" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="M68" s="29"/>
-      <c r="N68" s="29"/>
-      <c r="O68" s="30"/>
-      <c r="P68" s="29" t="s">
+      <c r="M72" s="29"/>
+      <c r="N72" s="29"/>
+      <c r="O72" s="30"/>
+      <c r="P72" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="Q68" s="29"/>
-      <c r="R68" s="29"/>
-      <c r="S68" s="29"/>
-      <c r="T68" s="29"/>
-      <c r="U68" s="29"/>
-      <c r="V68" s="29"/>
-      <c r="W68" s="29"/>
-      <c r="X68" s="29"/>
-      <c r="Y68" s="29"/>
-      <c r="Z68" s="29"/>
-      <c r="AA68" s="29"/>
-      <c r="AB68" s="29"/>
-      <c r="AC68" s="29"/>
-      <c r="AD68" s="29"/>
-      <c r="AE68" s="29"/>
-      <c r="AF68" s="29"/>
-      <c r="AG68" s="29"/>
-      <c r="AH68" s="30"/>
-    </row>
-    <row r="69" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F69" s="23"/>
-      <c r="G69" s="24"/>
-      <c r="H69" s="24"/>
-      <c r="I69" s="24"/>
-      <c r="J69" s="24"/>
-      <c r="K69" s="25"/>
-      <c r="L69" s="24"/>
-      <c r="M69" s="24"/>
-      <c r="N69" s="24"/>
-      <c r="O69" s="25"/>
-      <c r="P69" s="24" t="s">
+      <c r="Q72" s="29"/>
+      <c r="R72" s="29"/>
+      <c r="S72" s="29"/>
+      <c r="T72" s="29"/>
+      <c r="U72" s="29"/>
+      <c r="V72" s="29"/>
+      <c r="W72" s="29"/>
+      <c r="X72" s="29"/>
+      <c r="Y72" s="29"/>
+      <c r="Z72" s="29"/>
+      <c r="AA72" s="29"/>
+      <c r="AB72" s="29"/>
+      <c r="AC72" s="29"/>
+      <c r="AD72" s="29"/>
+      <c r="AE72" s="29"/>
+      <c r="AF72" s="29"/>
+      <c r="AG72" s="29"/>
+      <c r="AH72" s="30"/>
+    </row>
+    <row r="73" spans="2:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F73" s="23"/>
+      <c r="G73" s="24"/>
+      <c r="H73" s="24"/>
+      <c r="I73" s="24"/>
+      <c r="J73" s="24"/>
+      <c r="K73" s="25"/>
+      <c r="L73" s="24"/>
+      <c r="M73" s="24"/>
+      <c r="N73" s="24"/>
+      <c r="O73" s="25"/>
+      <c r="P73" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="Q69" s="24"/>
-      <c r="R69" s="24"/>
-      <c r="S69" s="24"/>
-      <c r="T69" s="24"/>
-      <c r="U69" s="24"/>
-      <c r="V69" s="24"/>
-      <c r="W69" s="24"/>
-      <c r="X69" s="24"/>
-      <c r="Y69" s="24"/>
-      <c r="Z69" s="24"/>
-      <c r="AA69" s="24"/>
-      <c r="AB69" s="24"/>
-      <c r="AC69" s="24"/>
-      <c r="AD69" s="24"/>
-      <c r="AE69" s="24"/>
-      <c r="AF69" s="24"/>
-      <c r="AG69" s="24"/>
-      <c r="AH69" s="25"/>
-    </row>
-    <row r="70" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F70" s="26"/>
-      <c r="G70" s="27"/>
-      <c r="H70" s="27"/>
-      <c r="I70" s="27"/>
-      <c r="J70" s="27"/>
-      <c r="K70" s="31"/>
-      <c r="L70" s="27"/>
-      <c r="M70" s="27"/>
-      <c r="N70" s="27"/>
-      <c r="O70" s="31"/>
-      <c r="P70" s="27" t="s">
+      <c r="Q73" s="24"/>
+      <c r="R73" s="24"/>
+      <c r="S73" s="24"/>
+      <c r="T73" s="24"/>
+      <c r="U73" s="24"/>
+      <c r="V73" s="24"/>
+      <c r="W73" s="24"/>
+      <c r="X73" s="24"/>
+      <c r="Y73" s="24"/>
+      <c r="Z73" s="24"/>
+      <c r="AA73" s="24"/>
+      <c r="AB73" s="24"/>
+      <c r="AC73" s="24"/>
+      <c r="AD73" s="24"/>
+      <c r="AE73" s="24"/>
+      <c r="AF73" s="24"/>
+      <c r="AG73" s="24"/>
+      <c r="AH73" s="25"/>
+    </row>
+    <row r="74" spans="2:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F74" s="26"/>
+      <c r="G74" s="27"/>
+      <c r="H74" s="27"/>
+      <c r="I74" s="27"/>
+      <c r="J74" s="27"/>
+      <c r="K74" s="31"/>
+      <c r="L74" s="27"/>
+      <c r="M74" s="27"/>
+      <c r="N74" s="27"/>
+      <c r="O74" s="31"/>
+      <c r="P74" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="Q70" s="27"/>
-      <c r="R70" s="27"/>
-      <c r="S70" s="27"/>
-      <c r="T70" s="27"/>
-      <c r="U70" s="27"/>
-      <c r="V70" s="27"/>
-      <c r="W70" s="27"/>
-      <c r="X70" s="27"/>
-      <c r="Y70" s="27"/>
-      <c r="Z70" s="27"/>
-      <c r="AA70" s="27"/>
-      <c r="AB70" s="27"/>
-      <c r="AC70" s="27"/>
-      <c r="AD70" s="27"/>
-      <c r="AE70" s="27"/>
-      <c r="AF70" s="27"/>
-      <c r="AG70" s="27"/>
-      <c r="AH70" s="31"/>
-    </row>
-    <row r="71" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F71" s="28" t="str">
-        <f>F59</f>
+      <c r="Q74" s="27"/>
+      <c r="R74" s="27"/>
+      <c r="S74" s="27"/>
+      <c r="T74" s="27"/>
+      <c r="U74" s="27"/>
+      <c r="V74" s="27"/>
+      <c r="W74" s="27"/>
+      <c r="X74" s="27"/>
+      <c r="Y74" s="27"/>
+      <c r="Z74" s="27"/>
+      <c r="AA74" s="27"/>
+      <c r="AB74" s="27"/>
+      <c r="AC74" s="27"/>
+      <c r="AD74" s="27"/>
+      <c r="AE74" s="27"/>
+      <c r="AF74" s="27"/>
+      <c r="AG74" s="27"/>
+      <c r="AH74" s="31"/>
+    </row>
+    <row r="75" spans="2:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F75" s="28" t="str">
+        <f>F63</f>
         <v>LIKE条件を含むクエリ</v>
       </c>
-      <c r="G71" s="29"/>
-      <c r="H71" s="29"/>
-      <c r="I71" s="29"/>
-      <c r="J71" s="29"/>
-      <c r="K71" s="30"/>
-      <c r="L71" s="29" t="s">
+      <c r="G75" s="29"/>
+      <c r="H75" s="29"/>
+      <c r="I75" s="29"/>
+      <c r="J75" s="29"/>
+      <c r="K75" s="30"/>
+      <c r="L75" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="M71" s="29"/>
-      <c r="N71" s="29"/>
-      <c r="O71" s="30"/>
-      <c r="P71" s="44" t="s">
+      <c r="M75" s="29"/>
+      <c r="N75" s="29"/>
+      <c r="O75" s="30"/>
+      <c r="P75" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="Q71" s="29"/>
-      <c r="R71" s="29"/>
-      <c r="S71" s="29"/>
-      <c r="T71" s="29"/>
-      <c r="U71" s="29"/>
-      <c r="V71" s="29"/>
-      <c r="W71" s="29"/>
-      <c r="X71" s="29"/>
-      <c r="Y71" s="29"/>
-      <c r="Z71" s="29"/>
-      <c r="AA71" s="29"/>
-      <c r="AB71" s="29"/>
-      <c r="AC71" s="29"/>
-      <c r="AD71" s="29"/>
-      <c r="AE71" s="29"/>
-      <c r="AF71" s="29"/>
-      <c r="AG71" s="29"/>
-      <c r="AH71" s="30"/>
-    </row>
-    <row r="72" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F72" s="26"/>
-      <c r="G72" s="27"/>
-      <c r="H72" s="27"/>
-      <c r="I72" s="27"/>
-      <c r="J72" s="27"/>
-      <c r="K72" s="31"/>
-      <c r="L72" s="27"/>
-      <c r="M72" s="27"/>
-      <c r="N72" s="27"/>
-      <c r="O72" s="31"/>
-      <c r="P72" s="48" t="s">
+      <c r="Q75" s="29"/>
+      <c r="R75" s="29"/>
+      <c r="S75" s="29"/>
+      <c r="T75" s="29"/>
+      <c r="U75" s="29"/>
+      <c r="V75" s="29"/>
+      <c r="W75" s="29"/>
+      <c r="X75" s="29"/>
+      <c r="Y75" s="29"/>
+      <c r="Z75" s="29"/>
+      <c r="AA75" s="29"/>
+      <c r="AB75" s="29"/>
+      <c r="AC75" s="29"/>
+      <c r="AD75" s="29"/>
+      <c r="AE75" s="29"/>
+      <c r="AF75" s="29"/>
+      <c r="AG75" s="29"/>
+      <c r="AH75" s="30"/>
+    </row>
+    <row r="76" spans="2:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F76" s="26"/>
+      <c r="G76" s="27"/>
+      <c r="H76" s="27"/>
+      <c r="I76" s="27"/>
+      <c r="J76" s="27"/>
+      <c r="K76" s="31"/>
+      <c r="L76" s="27"/>
+      <c r="M76" s="27"/>
+      <c r="N76" s="27"/>
+      <c r="O76" s="31"/>
+      <c r="P76" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="Q72" s="27"/>
-      <c r="R72" s="27"/>
-      <c r="S72" s="27"/>
-      <c r="T72" s="27"/>
-      <c r="U72" s="27"/>
-      <c r="V72" s="27"/>
-      <c r="W72" s="27"/>
-      <c r="X72" s="27"/>
-      <c r="Y72" s="27"/>
-      <c r="Z72" s="27"/>
-      <c r="AA72" s="27"/>
-      <c r="AB72" s="27"/>
-      <c r="AC72" s="27"/>
-      <c r="AD72" s="27"/>
-      <c r="AE72" s="27"/>
-      <c r="AF72" s="27"/>
-      <c r="AG72" s="27"/>
-      <c r="AH72" s="31"/>
-    </row>
-    <row r="73" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D73" s="16"/>
-      <c r="E73" s="18"/>
-      <c r="F73" s="18"/>
-      <c r="G73" s="18"/>
-      <c r="H73" s="18"/>
-      <c r="I73" s="18"/>
-      <c r="J73" s="18"/>
-      <c r="K73" s="18"/>
-      <c r="L73" s="18"/>
-      <c r="M73" s="18"/>
-      <c r="N73" s="18"/>
-      <c r="O73" s="18"/>
-      <c r="P73" s="18"/>
-      <c r="Q73" s="18"/>
-      <c r="R73" s="18"/>
-      <c r="S73" s="18"/>
-      <c r="T73" s="18"/>
-      <c r="U73" s="18"/>
-      <c r="V73" s="18"/>
-      <c r="W73" s="18"/>
-      <c r="X73" s="18"/>
-      <c r="Y73" s="18"/>
-      <c r="Z73" s="18"/>
-      <c r="AA73" s="18"/>
-      <c r="AB73" s="18"/>
-      <c r="AC73" s="18"/>
-      <c r="AD73" s="18"/>
-      <c r="AE73" s="18"/>
-      <c r="AF73" s="18"/>
-      <c r="AG73" s="18"/>
-      <c r="AH73" s="18"/>
-      <c r="AI73" s="18"/>
-    </row>
-    <row r="74" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D74" s="16"/>
-      <c r="E74" s="18"/>
-      <c r="F74" s="18"/>
-      <c r="G74" s="18"/>
-      <c r="H74" s="18"/>
-      <c r="I74" s="18"/>
-      <c r="J74" s="18"/>
-      <c r="K74" s="18"/>
-      <c r="L74" s="18"/>
-      <c r="M74" s="18"/>
-      <c r="N74" s="18"/>
-      <c r="O74" s="18"/>
-      <c r="P74" s="18"/>
-      <c r="Q74" s="18"/>
-      <c r="R74" s="18"/>
-      <c r="S74" s="18"/>
-      <c r="T74" s="18"/>
-      <c r="U74" s="18"/>
-      <c r="V74" s="18"/>
-      <c r="W74" s="18"/>
-      <c r="X74" s="18"/>
-      <c r="Y74" s="18"/>
-      <c r="Z74" s="18"/>
-      <c r="AA74" s="18"/>
-      <c r="AB74" s="18"/>
-      <c r="AC74" s="18"/>
-      <c r="AD74" s="18"/>
-      <c r="AE74" s="18"/>
-      <c r="AF74" s="18"/>
-      <c r="AG74" s="18"/>
-      <c r="AH74" s="18"/>
-      <c r="AI74" s="18"/>
-    </row>
-    <row r="75" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D75" s="22" t="str">
-        <f>$C$7&amp;"4."</f>
-        <v>7.3.4.</v>
-      </c>
-      <c r="E75" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="F75" s="17"/>
-      <c r="G75" s="17"/>
-      <c r="H75" s="17"/>
-      <c r="I75" s="17"/>
-      <c r="J75" s="17"/>
-      <c r="K75" s="17"/>
-      <c r="L75" s="17"/>
-      <c r="M75" s="17"/>
-      <c r="N75" s="17"/>
-      <c r="O75" s="17"/>
-      <c r="P75" s="17"/>
-      <c r="Q75" s="17"/>
-      <c r="R75" s="17"/>
-      <c r="S75" s="17"/>
-      <c r="T75" s="17"/>
-      <c r="U75" s="17"/>
-      <c r="V75" s="17"/>
-      <c r="W75" s="17"/>
-      <c r="X75" s="17"/>
-      <c r="Y75" s="17"/>
-      <c r="Z75" s="17"/>
-      <c r="AA75" s="17"/>
-      <c r="AB75" s="17"/>
-      <c r="AC75" s="17"/>
-      <c r="AD75" s="17"/>
-      <c r="AE75" s="17"/>
-      <c r="AF75" s="17"/>
-      <c r="AG75" s="17"/>
-      <c r="AH75" s="17"/>
-      <c r="AI75" s="17"/>
-    </row>
-    <row r="76" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E76" s="22" t="str">
-        <f>D75&amp;"1."</f>
-        <v>7.3.4.1.</v>
-      </c>
-      <c r="F76" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="G76" s="17"/>
-      <c r="H76" s="17"/>
-      <c r="I76" s="17"/>
-      <c r="J76" s="17"/>
-      <c r="K76" s="17"/>
-      <c r="L76" s="17"/>
-      <c r="M76" s="17"/>
-      <c r="N76" s="17"/>
-      <c r="O76" s="17"/>
-      <c r="P76" s="17"/>
-      <c r="Q76" s="17"/>
-      <c r="R76" s="17"/>
-      <c r="S76" s="17"/>
-      <c r="T76" s="17"/>
-      <c r="U76" s="17"/>
-      <c r="V76" s="17"/>
-      <c r="W76" s="17"/>
-      <c r="X76" s="17"/>
-      <c r="Y76" s="17"/>
-      <c r="Z76" s="17"/>
-      <c r="AA76" s="17"/>
-      <c r="AB76" s="17"/>
-      <c r="AC76" s="17"/>
-      <c r="AD76" s="17"/>
-      <c r="AE76" s="17"/>
-      <c r="AF76" s="17"/>
-      <c r="AG76" s="17"/>
-      <c r="AH76" s="17"/>
-      <c r="AI76" s="17"/>
-    </row>
-    <row r="77" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F77" s="22" t="str">
-        <f>E76&amp;"1."</f>
-        <v>7.3.4.1.1.</v>
-      </c>
-      <c r="G77" s="20" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="78" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q76" s="27"/>
+      <c r="R76" s="27"/>
+      <c r="S76" s="27"/>
+      <c r="T76" s="27"/>
+      <c r="U76" s="27"/>
+      <c r="V76" s="27"/>
+      <c r="W76" s="27"/>
+      <c r="X76" s="27"/>
+      <c r="Y76" s="27"/>
+      <c r="Z76" s="27"/>
+      <c r="AA76" s="27"/>
+      <c r="AB76" s="27"/>
+      <c r="AC76" s="27"/>
+      <c r="AD76" s="27"/>
+      <c r="AE76" s="27"/>
+      <c r="AF76" s="27"/>
+      <c r="AG76" s="27"/>
+      <c r="AH76" s="31"/>
+    </row>
+    <row r="77" spans="2:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D77" s="16"/>
+      <c r="E77" s="18"/>
+      <c r="F77" s="18"/>
+      <c r="G77" s="18"/>
+      <c r="H77" s="18"/>
+      <c r="I77" s="18"/>
+      <c r="J77" s="18"/>
+      <c r="K77" s="18"/>
+      <c r="L77" s="18"/>
+      <c r="M77" s="18"/>
+      <c r="N77" s="18"/>
+      <c r="O77" s="18"/>
+      <c r="P77" s="18"/>
+      <c r="Q77" s="18"/>
+      <c r="R77" s="18"/>
+      <c r="S77" s="18"/>
+      <c r="T77" s="18"/>
+      <c r="U77" s="18"/>
+      <c r="V77" s="18"/>
+      <c r="W77" s="18"/>
+      <c r="X77" s="18"/>
+      <c r="Y77" s="18"/>
+      <c r="Z77" s="18"/>
+      <c r="AA77" s="18"/>
+      <c r="AB77" s="18"/>
+      <c r="AC77" s="18"/>
+      <c r="AD77" s="18"/>
+      <c r="AE77" s="18"/>
+      <c r="AF77" s="18"/>
+      <c r="AG77" s="18"/>
+      <c r="AH77" s="18"/>
+      <c r="AI77" s="18"/>
+    </row>
+    <row r="78" spans="2:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D78" s="16"/>
       <c r="E78" s="18"/>
       <c r="F78" s="18"/>
-      <c r="G78" s="18" t="s">
-        <v>51</v>
-      </c>
+      <c r="G78" s="18"/>
       <c r="H78" s="18"/>
       <c r="I78" s="18"/>
       <c r="J78" s="18"/>
@@ -3896,122 +3828,100 @@
       <c r="AF78" s="18"/>
       <c r="AG78" s="18"/>
       <c r="AH78" s="18"/>
-      <c r="AI78" s="16"/>
-    </row>
-    <row r="79" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D79" s="16"/>
-      <c r="E79" s="18"/>
-      <c r="F79" s="18"/>
-      <c r="G79" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="H79" s="18"/>
-      <c r="I79" s="18"/>
-      <c r="J79" s="18"/>
-      <c r="K79" s="18"/>
-      <c r="L79" s="18"/>
-      <c r="M79" s="18"/>
-      <c r="N79" s="18"/>
-      <c r="O79" s="18"/>
-      <c r="P79" s="18"/>
-      <c r="Q79" s="18"/>
-      <c r="R79" s="18"/>
-      <c r="S79" s="18"/>
-      <c r="T79" s="18"/>
-      <c r="U79" s="18"/>
-      <c r="V79" s="18"/>
-      <c r="W79" s="18"/>
-      <c r="X79" s="18"/>
-      <c r="Y79" s="18"/>
-      <c r="Z79" s="18"/>
-      <c r="AA79" s="18"/>
-      <c r="AB79" s="18"/>
-      <c r="AC79" s="18"/>
-      <c r="AD79" s="18"/>
-      <c r="AE79" s="18"/>
-      <c r="AF79" s="18"/>
-      <c r="AG79" s="18"/>
-      <c r="AH79" s="18"/>
-      <c r="AI79" s="16"/>
-    </row>
-    <row r="80" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D80" s="16"/>
-      <c r="E80" s="19"/>
-      <c r="F80" s="18"/>
-      <c r="G80" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="H80" s="18"/>
-      <c r="I80" s="18"/>
-      <c r="J80" s="18"/>
-      <c r="K80" s="18"/>
-      <c r="L80" s="18"/>
-      <c r="M80" s="18"/>
-      <c r="N80" s="18"/>
-      <c r="O80" s="18"/>
-      <c r="P80" s="18"/>
-      <c r="Q80" s="18"/>
-      <c r="R80" s="18"/>
-      <c r="S80" s="18"/>
-      <c r="T80" s="18"/>
-      <c r="U80" s="18"/>
-      <c r="V80" s="18"/>
-      <c r="W80" s="18"/>
-      <c r="X80" s="18"/>
-      <c r="Y80" s="18"/>
-      <c r="Z80" s="18"/>
-      <c r="AA80" s="18"/>
-      <c r="AB80" s="18"/>
-      <c r="AC80" s="18"/>
-      <c r="AD80" s="18"/>
-      <c r="AE80" s="18"/>
-      <c r="AF80" s="18"/>
-      <c r="AG80" s="18"/>
-      <c r="AH80" s="18"/>
-      <c r="AI80" s="16"/>
+      <c r="AI78" s="18"/>
+    </row>
+    <row r="79" spans="2:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D79" s="22" t="str">
+        <f>$C$7&amp;"4."</f>
+        <v>7.3.4.</v>
+      </c>
+      <c r="E79" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F79" s="17"/>
+      <c r="G79" s="17"/>
+      <c r="H79" s="17"/>
+      <c r="I79" s="17"/>
+      <c r="J79" s="17"/>
+      <c r="K79" s="17"/>
+      <c r="L79" s="17"/>
+      <c r="M79" s="17"/>
+      <c r="N79" s="17"/>
+      <c r="O79" s="17"/>
+      <c r="P79" s="17"/>
+      <c r="Q79" s="17"/>
+      <c r="R79" s="17"/>
+      <c r="S79" s="17"/>
+      <c r="T79" s="17"/>
+      <c r="U79" s="17"/>
+      <c r="V79" s="17"/>
+      <c r="W79" s="17"/>
+      <c r="X79" s="17"/>
+      <c r="Y79" s="17"/>
+      <c r="Z79" s="17"/>
+      <c r="AA79" s="17"/>
+      <c r="AB79" s="17"/>
+      <c r="AC79" s="17"/>
+      <c r="AD79" s="17"/>
+      <c r="AE79" s="17"/>
+      <c r="AF79" s="17"/>
+      <c r="AG79" s="17"/>
+      <c r="AH79" s="17"/>
+      <c r="AI79" s="17"/>
+    </row>
+    <row r="80" spans="2:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E80" s="22" t="str">
+        <f>D79&amp;"1."</f>
+        <v>7.3.4.1.</v>
+      </c>
+      <c r="F80" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="G80" s="17"/>
+      <c r="H80" s="17"/>
+      <c r="I80" s="17"/>
+      <c r="J80" s="17"/>
+      <c r="K80" s="17"/>
+      <c r="L80" s="17"/>
+      <c r="M80" s="17"/>
+      <c r="N80" s="17"/>
+      <c r="O80" s="17"/>
+      <c r="P80" s="17"/>
+      <c r="Q80" s="17"/>
+      <c r="R80" s="17"/>
+      <c r="S80" s="17"/>
+      <c r="T80" s="17"/>
+      <c r="U80" s="17"/>
+      <c r="V80" s="17"/>
+      <c r="W80" s="17"/>
+      <c r="X80" s="17"/>
+      <c r="Y80" s="17"/>
+      <c r="Z80" s="17"/>
+      <c r="AA80" s="17"/>
+      <c r="AB80" s="17"/>
+      <c r="AC80" s="17"/>
+      <c r="AD80" s="17"/>
+      <c r="AE80" s="17"/>
+      <c r="AF80" s="17"/>
+      <c r="AG80" s="17"/>
+      <c r="AH80" s="17"/>
+      <c r="AI80" s="17"/>
     </row>
     <row r="81" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D81" s="16"/>
-      <c r="E81" s="19"/>
-      <c r="F81" s="18"/>
-      <c r="G81" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="H81" s="18"/>
-      <c r="I81" s="18"/>
-      <c r="J81" s="18"/>
-      <c r="K81" s="18"/>
-      <c r="L81" s="18"/>
-      <c r="M81" s="18"/>
-      <c r="N81" s="18"/>
-      <c r="O81" s="18"/>
-      <c r="P81" s="18"/>
-      <c r="Q81" s="18"/>
-      <c r="R81" s="18"/>
-      <c r="S81" s="18"/>
-      <c r="T81" s="18"/>
-      <c r="U81" s="18"/>
-      <c r="V81" s="18"/>
-      <c r="W81" s="18"/>
-      <c r="X81" s="18"/>
-      <c r="Y81" s="18"/>
-      <c r="Z81" s="18"/>
-      <c r="AA81" s="18"/>
-      <c r="AB81" s="18"/>
-      <c r="AC81" s="18"/>
-      <c r="AD81" s="18"/>
-      <c r="AE81" s="18"/>
-      <c r="AF81" s="18"/>
-      <c r="AG81" s="18"/>
-      <c r="AH81" s="18"/>
-      <c r="AI81" s="16"/>
-    </row>
-    <row r="82" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F81" s="22" t="str">
+        <f>E80&amp;"1."</f>
+        <v>7.3.4.1.1.</v>
+      </c>
+      <c r="G81" s="20" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="82" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D82" s="16"/>
       <c r="E82" s="18"/>
       <c r="F82" s="18"/>
       <c r="G82" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H82" s="18"/>
       <c r="I82" s="18"/>
@@ -4042,12 +3952,12 @@
       <c r="AH82" s="18"/>
       <c r="AI82" s="16"/>
     </row>
-    <row r="83" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D83" s="16"/>
       <c r="E83" s="18"/>
       <c r="F83" s="18"/>
       <c r="G83" s="18" t="s">
-        <v>167</v>
+        <v>52</v>
       </c>
       <c r="H83" s="18"/>
       <c r="I83" s="18"/>
@@ -4078,11 +3988,13 @@
       <c r="AH83" s="18"/>
       <c r="AI83" s="16"/>
     </row>
-    <row r="84" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D84" s="16"/>
-      <c r="E84" s="18"/>
+      <c r="E84" s="19"/>
       <c r="F84" s="18"/>
-      <c r="G84" s="18"/>
+      <c r="G84" s="18" t="s">
+        <v>53</v>
+      </c>
       <c r="H84" s="18"/>
       <c r="I84" s="18"/>
       <c r="J84" s="18"/>
@@ -4113,787 +4025,789 @@
       <c r="AI84" s="16"/>
     </row>
     <row r="85" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E85" s="22" t="str">
-        <f>D75&amp;"2."</f>
+      <c r="D85" s="16"/>
+      <c r="E85" s="19"/>
+      <c r="F85" s="18"/>
+      <c r="G85" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="H85" s="18"/>
+      <c r="I85" s="18"/>
+      <c r="J85" s="18"/>
+      <c r="K85" s="18"/>
+      <c r="L85" s="18"/>
+      <c r="M85" s="18"/>
+      <c r="N85" s="18"/>
+      <c r="O85" s="18"/>
+      <c r="P85" s="18"/>
+      <c r="Q85" s="18"/>
+      <c r="R85" s="18"/>
+      <c r="S85" s="18"/>
+      <c r="T85" s="18"/>
+      <c r="U85" s="18"/>
+      <c r="V85" s="18"/>
+      <c r="W85" s="18"/>
+      <c r="X85" s="18"/>
+      <c r="Y85" s="18"/>
+      <c r="Z85" s="18"/>
+      <c r="AA85" s="18"/>
+      <c r="AB85" s="18"/>
+      <c r="AC85" s="18"/>
+      <c r="AD85" s="18"/>
+      <c r="AE85" s="18"/>
+      <c r="AF85" s="18"/>
+      <c r="AG85" s="18"/>
+      <c r="AH85" s="18"/>
+      <c r="AI85" s="16"/>
+    </row>
+    <row r="86" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D86" s="16"/>
+      <c r="E86" s="18"/>
+      <c r="F86" s="18"/>
+      <c r="G86" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="H86" s="18"/>
+      <c r="I86" s="18"/>
+      <c r="J86" s="18"/>
+      <c r="K86" s="18"/>
+      <c r="L86" s="18"/>
+      <c r="M86" s="18"/>
+      <c r="N86" s="18"/>
+      <c r="O86" s="18"/>
+      <c r="P86" s="18"/>
+      <c r="Q86" s="18"/>
+      <c r="R86" s="18"/>
+      <c r="S86" s="18"/>
+      <c r="T86" s="18"/>
+      <c r="U86" s="18"/>
+      <c r="V86" s="18"/>
+      <c r="W86" s="18"/>
+      <c r="X86" s="18"/>
+      <c r="Y86" s="18"/>
+      <c r="Z86" s="18"/>
+      <c r="AA86" s="18"/>
+      <c r="AB86" s="18"/>
+      <c r="AC86" s="18"/>
+      <c r="AD86" s="18"/>
+      <c r="AE86" s="18"/>
+      <c r="AF86" s="18"/>
+      <c r="AG86" s="18"/>
+      <c r="AH86" s="18"/>
+      <c r="AI86" s="16"/>
+    </row>
+    <row r="87" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D87" s="16"/>
+      <c r="E87" s="18"/>
+      <c r="F87" s="18"/>
+      <c r="G87" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="H87" s="18"/>
+      <c r="I87" s="18"/>
+      <c r="J87" s="18"/>
+      <c r="K87" s="18"/>
+      <c r="L87" s="18"/>
+      <c r="M87" s="18"/>
+      <c r="N87" s="18"/>
+      <c r="O87" s="18"/>
+      <c r="P87" s="18"/>
+      <c r="Q87" s="18"/>
+      <c r="R87" s="18"/>
+      <c r="S87" s="18"/>
+      <c r="T87" s="18"/>
+      <c r="U87" s="18"/>
+      <c r="V87" s="18"/>
+      <c r="W87" s="18"/>
+      <c r="X87" s="18"/>
+      <c r="Y87" s="18"/>
+      <c r="Z87" s="18"/>
+      <c r="AA87" s="18"/>
+      <c r="AB87" s="18"/>
+      <c r="AC87" s="18"/>
+      <c r="AD87" s="18"/>
+      <c r="AE87" s="18"/>
+      <c r="AF87" s="18"/>
+      <c r="AG87" s="18"/>
+      <c r="AH87" s="18"/>
+      <c r="AI87" s="16"/>
+    </row>
+    <row r="88" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D88" s="16"/>
+      <c r="E88" s="18"/>
+      <c r="F88" s="18"/>
+      <c r="G88" s="18"/>
+      <c r="H88" s="18"/>
+      <c r="I88" s="18"/>
+      <c r="J88" s="18"/>
+      <c r="K88" s="18"/>
+      <c r="L88" s="18"/>
+      <c r="M88" s="18"/>
+      <c r="N88" s="18"/>
+      <c r="O88" s="18"/>
+      <c r="P88" s="18"/>
+      <c r="Q88" s="18"/>
+      <c r="R88" s="18"/>
+      <c r="S88" s="18"/>
+      <c r="T88" s="18"/>
+      <c r="U88" s="18"/>
+      <c r="V88" s="18"/>
+      <c r="W88" s="18"/>
+      <c r="X88" s="18"/>
+      <c r="Y88" s="18"/>
+      <c r="Z88" s="18"/>
+      <c r="AA88" s="18"/>
+      <c r="AB88" s="18"/>
+      <c r="AC88" s="18"/>
+      <c r="AD88" s="18"/>
+      <c r="AE88" s="18"/>
+      <c r="AF88" s="18"/>
+      <c r="AG88" s="18"/>
+      <c r="AH88" s="18"/>
+      <c r="AI88" s="16"/>
+    </row>
+    <row r="89" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E89" s="22" t="str">
+        <f>D79&amp;"2."</f>
         <v>7.3.4.2.</v>
       </c>
-      <c r="F85" s="17" t="s">
+      <c r="F89" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="G85" s="17"/>
-      <c r="H85" s="17"/>
-      <c r="I85" s="17"/>
-      <c r="J85" s="17"/>
-      <c r="K85" s="17"/>
-      <c r="L85" s="17"/>
-      <c r="M85" s="17"/>
-      <c r="N85" s="17"/>
-      <c r="O85" s="17"/>
-      <c r="P85" s="17"/>
-      <c r="Q85" s="17"/>
-      <c r="R85" s="17"/>
-      <c r="S85" s="17"/>
-      <c r="T85" s="17"/>
-      <c r="U85" s="17"/>
-      <c r="V85" s="17"/>
-      <c r="W85" s="17"/>
-      <c r="X85" s="17"/>
-      <c r="Y85" s="17"/>
-      <c r="Z85" s="17"/>
-      <c r="AA85" s="17"/>
-      <c r="AB85" s="17"/>
-      <c r="AC85" s="17"/>
-      <c r="AD85" s="17"/>
-      <c r="AE85" s="17"/>
-      <c r="AF85" s="17"/>
-      <c r="AG85" s="17"/>
-      <c r="AH85" s="17"/>
-      <c r="AI85" s="17"/>
-    </row>
-    <row r="86" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F86" s="22" t="str">
-        <f>E85&amp;"1."</f>
+      <c r="G89" s="17"/>
+      <c r="H89" s="17"/>
+      <c r="I89" s="17"/>
+      <c r="J89" s="17"/>
+      <c r="K89" s="17"/>
+      <c r="L89" s="17"/>
+      <c r="M89" s="17"/>
+      <c r="N89" s="17"/>
+      <c r="O89" s="17"/>
+      <c r="P89" s="17"/>
+      <c r="Q89" s="17"/>
+      <c r="R89" s="17"/>
+      <c r="S89" s="17"/>
+      <c r="T89" s="17"/>
+      <c r="U89" s="17"/>
+      <c r="V89" s="17"/>
+      <c r="W89" s="17"/>
+      <c r="X89" s="17"/>
+      <c r="Y89" s="17"/>
+      <c r="Z89" s="17"/>
+      <c r="AA89" s="17"/>
+      <c r="AB89" s="17"/>
+      <c r="AC89" s="17"/>
+      <c r="AD89" s="17"/>
+      <c r="AE89" s="17"/>
+      <c r="AF89" s="17"/>
+      <c r="AG89" s="17"/>
+      <c r="AH89" s="17"/>
+      <c r="AI89" s="17"/>
+    </row>
+    <row r="90" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F90" s="22" t="str">
+        <f>E89&amp;"1."</f>
         <v>7.3.4.2.1.</v>
       </c>
-      <c r="G86" s="21" t="str">
-        <f>F85&amp;"方法"</f>
+      <c r="G90" s="21" t="str">
+        <f>F89&amp;"方法"</f>
         <v>トランザクション分離レベル方法</v>
       </c>
     </row>
-    <row r="87" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G87" s="32" t="s">
+    <row r="91" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G91" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="H87" s="33"/>
-      <c r="I87" s="33"/>
-      <c r="J87" s="34"/>
-      <c r="K87" s="33" t="s">
+      <c r="H91" s="33"/>
+      <c r="I91" s="33"/>
+      <c r="J91" s="34"/>
+      <c r="K91" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="L87" s="33"/>
-      <c r="M87" s="33"/>
-      <c r="N87" s="33"/>
-      <c r="O87" s="33"/>
-      <c r="P87" s="33"/>
-      <c r="Q87" s="33"/>
-      <c r="R87" s="33"/>
-      <c r="S87" s="33"/>
-      <c r="T87" s="33"/>
-      <c r="U87" s="33"/>
-      <c r="V87" s="33"/>
-      <c r="W87" s="33"/>
-      <c r="X87" s="33"/>
-      <c r="Y87" s="33"/>
-      <c r="Z87" s="33"/>
-      <c r="AA87" s="33"/>
-      <c r="AB87" s="33"/>
-      <c r="AC87" s="33"/>
-      <c r="AD87" s="33"/>
-      <c r="AE87" s="33"/>
-      <c r="AF87" s="33"/>
-      <c r="AG87" s="33"/>
-      <c r="AH87" s="34"/>
-    </row>
-    <row r="88" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G88" s="45" t="s">
+      <c r="L91" s="33"/>
+      <c r="M91" s="33"/>
+      <c r="N91" s="33"/>
+      <c r="O91" s="33"/>
+      <c r="P91" s="33"/>
+      <c r="Q91" s="33"/>
+      <c r="R91" s="33"/>
+      <c r="S91" s="33"/>
+      <c r="T91" s="33"/>
+      <c r="U91" s="33"/>
+      <c r="V91" s="33"/>
+      <c r="W91" s="33"/>
+      <c r="X91" s="33"/>
+      <c r="Y91" s="33"/>
+      <c r="Z91" s="33"/>
+      <c r="AA91" s="33"/>
+      <c r="AB91" s="33"/>
+      <c r="AC91" s="33"/>
+      <c r="AD91" s="33"/>
+      <c r="AE91" s="33"/>
+      <c r="AF91" s="33"/>
+      <c r="AG91" s="33"/>
+      <c r="AH91" s="34"/>
+    </row>
+    <row r="92" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G92" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="H88" s="46"/>
-      <c r="I88" s="46"/>
-      <c r="J88" s="47"/>
-      <c r="K88" s="46" t="s">
+      <c r="H92" s="46"/>
+      <c r="I92" s="46"/>
+      <c r="J92" s="47"/>
+      <c r="K92" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="L88" s="46"/>
-      <c r="M88" s="46"/>
-      <c r="N88" s="46"/>
-      <c r="O88" s="46"/>
-      <c r="P88" s="46"/>
-      <c r="Q88" s="46"/>
-      <c r="R88" s="46"/>
-      <c r="S88" s="46"/>
-      <c r="T88" s="46"/>
-      <c r="U88" s="46"/>
-      <c r="V88" s="46"/>
-      <c r="W88" s="46"/>
-      <c r="X88" s="46"/>
-      <c r="Y88" s="46"/>
-      <c r="Z88" s="46"/>
-      <c r="AA88" s="46"/>
-      <c r="AB88" s="46"/>
-      <c r="AC88" s="46"/>
-      <c r="AD88" s="46"/>
-      <c r="AE88" s="46"/>
-      <c r="AF88" s="46"/>
-      <c r="AG88" s="46"/>
-      <c r="AH88" s="47"/>
-    </row>
-    <row r="89" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C89" s="21"/>
-      <c r="E89" s="16"/>
-      <c r="F89" s="18"/>
-      <c r="G89" s="18"/>
-      <c r="H89" s="18"/>
-      <c r="I89" s="18"/>
-      <c r="J89" s="18"/>
-      <c r="K89" s="18"/>
-      <c r="L89" s="18"/>
-      <c r="M89" s="18"/>
-      <c r="N89" s="18"/>
-      <c r="O89" s="18"/>
-      <c r="P89" s="18"/>
-      <c r="Q89" s="18"/>
-      <c r="R89" s="18"/>
-      <c r="S89" s="18"/>
-      <c r="T89" s="18"/>
-      <c r="U89" s="18"/>
-      <c r="V89" s="18"/>
-      <c r="W89" s="18"/>
-      <c r="X89" s="18"/>
-      <c r="Y89" s="18"/>
-      <c r="Z89" s="18"/>
-      <c r="AA89" s="18"/>
-      <c r="AB89" s="18"/>
-      <c r="AC89" s="18"/>
-      <c r="AD89" s="18"/>
-      <c r="AE89" s="18"/>
-      <c r="AF89" s="18"/>
-      <c r="AG89" s="18"/>
-      <c r="AH89" s="18"/>
-      <c r="AI89" s="16"/>
-    </row>
-    <row r="90" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D90" s="16"/>
-      <c r="E90" s="18"/>
-      <c r="F90" s="18"/>
-      <c r="G90" s="18"/>
-      <c r="H90" s="18"/>
-      <c r="I90" s="18"/>
-      <c r="J90" s="18"/>
-      <c r="K90" s="18"/>
-      <c r="L90" s="18"/>
-      <c r="M90" s="18"/>
-      <c r="N90" s="18"/>
-      <c r="O90" s="18"/>
-      <c r="P90" s="18"/>
-      <c r="Q90" s="18"/>
-      <c r="R90" s="18"/>
-      <c r="S90" s="18"/>
-      <c r="T90" s="18"/>
-      <c r="U90" s="18"/>
-      <c r="V90" s="18"/>
-      <c r="W90" s="18"/>
-      <c r="X90" s="18"/>
-      <c r="Y90" s="18"/>
-      <c r="Z90" s="18"/>
-      <c r="AA90" s="18"/>
-      <c r="AB90" s="18"/>
-      <c r="AC90" s="18"/>
-      <c r="AD90" s="18"/>
-      <c r="AE90" s="18"/>
-      <c r="AF90" s="18"/>
-      <c r="AG90" s="18"/>
-      <c r="AH90" s="16"/>
-    </row>
-    <row r="91" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E91" s="22" t="str">
-        <f>D75&amp;"3."</f>
+      <c r="L92" s="46"/>
+      <c r="M92" s="46"/>
+      <c r="N92" s="46"/>
+      <c r="O92" s="46"/>
+      <c r="P92" s="46"/>
+      <c r="Q92" s="46"/>
+      <c r="R92" s="46"/>
+      <c r="S92" s="46"/>
+      <c r="T92" s="46"/>
+      <c r="U92" s="46"/>
+      <c r="V92" s="46"/>
+      <c r="W92" s="46"/>
+      <c r="X92" s="46"/>
+      <c r="Y92" s="46"/>
+      <c r="Z92" s="46"/>
+      <c r="AA92" s="46"/>
+      <c r="AB92" s="46"/>
+      <c r="AC92" s="46"/>
+      <c r="AD92" s="46"/>
+      <c r="AE92" s="46"/>
+      <c r="AF92" s="46"/>
+      <c r="AG92" s="46"/>
+      <c r="AH92" s="47"/>
+    </row>
+    <row r="93" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C93" s="21"/>
+      <c r="E93" s="16"/>
+      <c r="F93" s="18"/>
+      <c r="G93" s="18"/>
+      <c r="H93" s="18"/>
+      <c r="I93" s="18"/>
+      <c r="J93" s="18"/>
+      <c r="K93" s="18"/>
+      <c r="L93" s="18"/>
+      <c r="M93" s="18"/>
+      <c r="N93" s="18"/>
+      <c r="O93" s="18"/>
+      <c r="P93" s="18"/>
+      <c r="Q93" s="18"/>
+      <c r="R93" s="18"/>
+      <c r="S93" s="18"/>
+      <c r="T93" s="18"/>
+      <c r="U93" s="18"/>
+      <c r="V93" s="18"/>
+      <c r="W93" s="18"/>
+      <c r="X93" s="18"/>
+      <c r="Y93" s="18"/>
+      <c r="Z93" s="18"/>
+      <c r="AA93" s="18"/>
+      <c r="AB93" s="18"/>
+      <c r="AC93" s="18"/>
+      <c r="AD93" s="18"/>
+      <c r="AE93" s="18"/>
+      <c r="AF93" s="18"/>
+      <c r="AG93" s="18"/>
+      <c r="AH93" s="18"/>
+      <c r="AI93" s="16"/>
+    </row>
+    <row r="94" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D94" s="16"/>
+      <c r="E94" s="18"/>
+      <c r="F94" s="18"/>
+      <c r="G94" s="18"/>
+      <c r="H94" s="18"/>
+      <c r="I94" s="18"/>
+      <c r="J94" s="18"/>
+      <c r="K94" s="18"/>
+      <c r="L94" s="18"/>
+      <c r="M94" s="18"/>
+      <c r="N94" s="18"/>
+      <c r="O94" s="18"/>
+      <c r="P94" s="18"/>
+      <c r="Q94" s="18"/>
+      <c r="R94" s="18"/>
+      <c r="S94" s="18"/>
+      <c r="T94" s="18"/>
+      <c r="U94" s="18"/>
+      <c r="V94" s="18"/>
+      <c r="W94" s="18"/>
+      <c r="X94" s="18"/>
+      <c r="Y94" s="18"/>
+      <c r="Z94" s="18"/>
+      <c r="AA94" s="18"/>
+      <c r="AB94" s="18"/>
+      <c r="AC94" s="18"/>
+      <c r="AD94" s="18"/>
+      <c r="AE94" s="18"/>
+      <c r="AF94" s="18"/>
+      <c r="AG94" s="18"/>
+      <c r="AH94" s="16"/>
+    </row>
+    <row r="95" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E95" s="22" t="str">
+        <f>D79&amp;"3."</f>
         <v>7.3.4.3.</v>
       </c>
-      <c r="F91" s="17" t="s">
+      <c r="F95" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="G91" s="17"/>
-      <c r="H91" s="17"/>
-      <c r="I91" s="17"/>
-      <c r="J91" s="17"/>
-      <c r="K91" s="17"/>
-      <c r="L91" s="17"/>
-      <c r="M91" s="17"/>
-      <c r="N91" s="17"/>
-      <c r="O91" s="17"/>
-      <c r="P91" s="17"/>
-      <c r="Q91" s="17"/>
-      <c r="R91" s="17"/>
-      <c r="S91" s="17"/>
-      <c r="T91" s="17"/>
-      <c r="U91" s="17"/>
-      <c r="V91" s="17"/>
-      <c r="W91" s="17"/>
-      <c r="X91" s="17"/>
-      <c r="Y91" s="17"/>
-      <c r="Z91" s="17"/>
-      <c r="AA91" s="17"/>
-      <c r="AB91" s="17"/>
-      <c r="AC91" s="17"/>
-      <c r="AD91" s="17"/>
-      <c r="AE91" s="17"/>
-      <c r="AF91" s="17"/>
-      <c r="AG91" s="17"/>
-      <c r="AH91" s="17"/>
-      <c r="AI91" s="17"/>
-    </row>
-    <row r="92" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E92" s="22"/>
-      <c r="F92" s="22" t="str">
-        <f>E91&amp;"1."</f>
+      <c r="G95" s="17"/>
+      <c r="H95" s="17"/>
+      <c r="I95" s="17"/>
+      <c r="J95" s="17"/>
+      <c r="K95" s="17"/>
+      <c r="L95" s="17"/>
+      <c r="M95" s="17"/>
+      <c r="N95" s="17"/>
+      <c r="O95" s="17"/>
+      <c r="P95" s="17"/>
+      <c r="Q95" s="17"/>
+      <c r="R95" s="17"/>
+      <c r="S95" s="17"/>
+      <c r="T95" s="17"/>
+      <c r="U95" s="17"/>
+      <c r="V95" s="17"/>
+      <c r="W95" s="17"/>
+      <c r="X95" s="17"/>
+      <c r="Y95" s="17"/>
+      <c r="Z95" s="17"/>
+      <c r="AA95" s="17"/>
+      <c r="AB95" s="17"/>
+      <c r="AC95" s="17"/>
+      <c r="AD95" s="17"/>
+      <c r="AE95" s="17"/>
+      <c r="AF95" s="17"/>
+      <c r="AG95" s="17"/>
+      <c r="AH95" s="17"/>
+      <c r="AI95" s="17"/>
+    </row>
+    <row r="96" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E96" s="22"/>
+      <c r="F96" s="22" t="str">
+        <f>E95&amp;"1."</f>
         <v>7.3.4.3.1.</v>
       </c>
-      <c r="G92" s="21" t="str">
-        <f>F91&amp;"機能概要"</f>
+      <c r="G96" s="21" t="str">
+        <f>F95&amp;"機能概要"</f>
         <v>処理タイムアウト機能概要</v>
       </c>
     </row>
-    <row r="93" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G93" s="21" t="s">
+    <row r="97" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G97" s="21" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="94" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G94" s="21" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="95" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G95" s="21" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="96" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="97" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F97" s="22" t="str">
-        <f>E91&amp;"2."</f>
+    <row r="98" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G98" s="21" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="99" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G99" s="21" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="100" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F101" s="22" t="str">
+        <f>E95&amp;"2."</f>
         <v>7.3.4.3.2.</v>
       </c>
-      <c r="G97" s="21" t="str">
-        <f>F91&amp;"方法"</f>
+      <c r="G101" s="21" t="str">
+        <f>F95&amp;"方法"</f>
         <v>処理タイムアウト方法</v>
       </c>
     </row>
-    <row r="98" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G98" s="21" t="str">
-        <f>F91&amp;"を行う機能には、以下の方法がある。これらは原則全て使用される。"</f>
+    <row r="102" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G102" s="21" t="str">
+        <f>F95&amp;"を行う機能には、以下の方法がある。これらは原則全て使用される。"</f>
         <v>処理タイムアウトを行う機能には、以下の方法がある。これらは原則全て使用される。</v>
       </c>
     </row>
-    <row r="99" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C99" s="20"/>
-      <c r="D99" s="20"/>
-      <c r="E99" s="20"/>
-      <c r="G99" s="32" t="s">
+    <row r="103" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C103" s="20"/>
+      <c r="D103" s="20"/>
+      <c r="E103" s="20"/>
+      <c r="G103" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="H99" s="33"/>
-      <c r="I99" s="33"/>
-      <c r="J99" s="33"/>
-      <c r="K99" s="34"/>
-      <c r="L99" s="33" t="s">
+      <c r="H103" s="33"/>
+      <c r="I103" s="33"/>
+      <c r="J103" s="33"/>
+      <c r="K103" s="34"/>
+      <c r="L103" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="M99" s="33"/>
-      <c r="N99" s="33"/>
-      <c r="O99" s="33"/>
-      <c r="P99" s="33"/>
-      <c r="Q99" s="33"/>
-      <c r="R99" s="33"/>
-      <c r="S99" s="33"/>
-      <c r="T99" s="33"/>
-      <c r="U99" s="33"/>
-      <c r="V99" s="33"/>
-      <c r="W99" s="33"/>
-      <c r="X99" s="33"/>
-      <c r="Y99" s="33"/>
-      <c r="Z99" s="33"/>
-      <c r="AA99" s="33"/>
-      <c r="AB99" s="33"/>
-      <c r="AC99" s="33"/>
-      <c r="AD99" s="33"/>
-      <c r="AE99" s="33"/>
-      <c r="AF99" s="33"/>
-      <c r="AG99" s="33"/>
-      <c r="AH99" s="34"/>
-    </row>
-    <row r="100" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C100" s="20"/>
-      <c r="D100" s="20"/>
-      <c r="E100" s="20"/>
-      <c r="G100" s="28" t="s">
+      <c r="M103" s="33"/>
+      <c r="N103" s="33"/>
+      <c r="O103" s="33"/>
+      <c r="P103" s="33"/>
+      <c r="Q103" s="33"/>
+      <c r="R103" s="33"/>
+      <c r="S103" s="33"/>
+      <c r="T103" s="33"/>
+      <c r="U103" s="33"/>
+      <c r="V103" s="33"/>
+      <c r="W103" s="33"/>
+      <c r="X103" s="33"/>
+      <c r="Y103" s="33"/>
+      <c r="Z103" s="33"/>
+      <c r="AA103" s="33"/>
+      <c r="AB103" s="33"/>
+      <c r="AC103" s="33"/>
+      <c r="AD103" s="33"/>
+      <c r="AE103" s="33"/>
+      <c r="AF103" s="33"/>
+      <c r="AG103" s="33"/>
+      <c r="AH103" s="34"/>
+    </row>
+    <row r="104" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C104" s="20"/>
+      <c r="D104" s="20"/>
+      <c r="E104" s="20"/>
+      <c r="G104" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="H100" s="29"/>
-      <c r="I100" s="29"/>
-      <c r="J100" s="29"/>
-      <c r="K100" s="29"/>
-      <c r="L100" s="28" t="s">
+      <c r="H104" s="29"/>
+      <c r="I104" s="29"/>
+      <c r="J104" s="29"/>
+      <c r="K104" s="29"/>
+      <c r="L104" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="M100" s="29"/>
-      <c r="N100" s="29"/>
-      <c r="O100" s="29"/>
-      <c r="P100" s="29"/>
-      <c r="Q100" s="29"/>
-      <c r="R100" s="29"/>
-      <c r="S100" s="29"/>
-      <c r="T100" s="29"/>
-      <c r="U100" s="29"/>
-      <c r="V100" s="29"/>
-      <c r="W100" s="29"/>
-      <c r="X100" s="29"/>
-      <c r="Y100" s="29"/>
-      <c r="Z100" s="29"/>
-      <c r="AA100" s="29"/>
-      <c r="AB100" s="29"/>
-      <c r="AC100" s="29"/>
-      <c r="AD100" s="29"/>
-      <c r="AE100" s="29"/>
-      <c r="AF100" s="29"/>
-      <c r="AG100" s="29"/>
-      <c r="AH100" s="30"/>
-    </row>
-    <row r="101" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C101" s="20"/>
-      <c r="D101" s="20"/>
-      <c r="E101" s="20"/>
-      <c r="G101" s="28" t="s">
+      <c r="M104" s="29"/>
+      <c r="N104" s="29"/>
+      <c r="O104" s="29"/>
+      <c r="P104" s="29"/>
+      <c r="Q104" s="29"/>
+      <c r="R104" s="29"/>
+      <c r="S104" s="29"/>
+      <c r="T104" s="29"/>
+      <c r="U104" s="29"/>
+      <c r="V104" s="29"/>
+      <c r="W104" s="29"/>
+      <c r="X104" s="29"/>
+      <c r="Y104" s="29"/>
+      <c r="Z104" s="29"/>
+      <c r="AA104" s="29"/>
+      <c r="AB104" s="29"/>
+      <c r="AC104" s="29"/>
+      <c r="AD104" s="29"/>
+      <c r="AE104" s="29"/>
+      <c r="AF104" s="29"/>
+      <c r="AG104" s="29"/>
+      <c r="AH104" s="30"/>
+    </row>
+    <row r="105" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C105" s="20"/>
+      <c r="D105" s="20"/>
+      <c r="E105" s="20"/>
+      <c r="G105" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="H101" s="29"/>
-      <c r="I101" s="29"/>
-      <c r="J101" s="29"/>
-      <c r="K101" s="29"/>
-      <c r="L101" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="M101" s="29"/>
-      <c r="N101" s="29"/>
-      <c r="O101" s="29"/>
-      <c r="P101" s="29"/>
-      <c r="Q101" s="29"/>
-      <c r="R101" s="29"/>
-      <c r="S101" s="29"/>
-      <c r="T101" s="29"/>
-      <c r="U101" s="29"/>
-      <c r="V101" s="29"/>
-      <c r="W101" s="29"/>
-      <c r="X101" s="29"/>
-      <c r="Y101" s="29"/>
-      <c r="Z101" s="29"/>
-      <c r="AA101" s="29"/>
-      <c r="AB101" s="29"/>
-      <c r="AC101" s="29"/>
-      <c r="AD101" s="29"/>
-      <c r="AE101" s="29"/>
-      <c r="AF101" s="29"/>
-      <c r="AG101" s="29"/>
-      <c r="AH101" s="30"/>
-    </row>
-    <row r="102" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C102" s="20"/>
-      <c r="D102" s="20"/>
-      <c r="E102" s="20"/>
-      <c r="G102" s="26"/>
-      <c r="H102" s="27"/>
-      <c r="I102" s="27"/>
-      <c r="J102" s="27"/>
-      <c r="K102" s="27"/>
-      <c r="L102" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="M102" s="27"/>
-      <c r="N102" s="27"/>
-      <c r="O102" s="27"/>
-      <c r="P102" s="27"/>
-      <c r="Q102" s="27"/>
-      <c r="R102" s="27"/>
-      <c r="S102" s="27"/>
-      <c r="T102" s="27"/>
-      <c r="U102" s="27"/>
-      <c r="V102" s="27"/>
-      <c r="W102" s="27"/>
-      <c r="X102" s="27"/>
-      <c r="Y102" s="27"/>
-      <c r="Z102" s="27"/>
-      <c r="AA102" s="27"/>
-      <c r="AB102" s="27"/>
-      <c r="AC102" s="27"/>
-      <c r="AD102" s="27"/>
-      <c r="AE102" s="27"/>
-      <c r="AF102" s="27"/>
-      <c r="AG102" s="27"/>
-      <c r="AH102" s="31"/>
-    </row>
-    <row r="103" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D103" s="16"/>
-      <c r="E103" s="18"/>
-      <c r="F103" s="18"/>
-      <c r="G103" s="18"/>
-      <c r="H103" s="18"/>
-      <c r="I103" s="18"/>
-      <c r="J103" s="18"/>
-      <c r="K103" s="18"/>
-      <c r="L103" s="18"/>
-      <c r="M103" s="18"/>
-      <c r="N103" s="18"/>
-      <c r="O103" s="18"/>
-      <c r="P103" s="18"/>
-      <c r="Q103" s="18"/>
-      <c r="R103" s="18"/>
-      <c r="S103" s="18"/>
-      <c r="T103" s="18"/>
-      <c r="U103" s="18"/>
-      <c r="V103" s="18"/>
-      <c r="W103" s="18"/>
-      <c r="X103" s="18"/>
-      <c r="Y103" s="18"/>
-      <c r="Z103" s="18"/>
-      <c r="AA103" s="18"/>
-      <c r="AB103" s="18"/>
-      <c r="AC103" s="18"/>
-      <c r="AD103" s="18"/>
-      <c r="AE103" s="18"/>
-      <c r="AF103" s="18"/>
-      <c r="AG103" s="18"/>
-      <c r="AH103" s="18"/>
-      <c r="AI103" s="18"/>
-    </row>
-    <row r="104" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E104" s="22" t="str">
-        <f>D75&amp;"4."</f>
+      <c r="H105" s="29"/>
+      <c r="I105" s="29"/>
+      <c r="J105" s="29"/>
+      <c r="K105" s="29"/>
+      <c r="L105" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="M105" s="29"/>
+      <c r="N105" s="29"/>
+      <c r="O105" s="29"/>
+      <c r="P105" s="29"/>
+      <c r="Q105" s="29"/>
+      <c r="R105" s="29"/>
+      <c r="S105" s="29"/>
+      <c r="T105" s="29"/>
+      <c r="U105" s="29"/>
+      <c r="V105" s="29"/>
+      <c r="W105" s="29"/>
+      <c r="X105" s="29"/>
+      <c r="Y105" s="29"/>
+      <c r="Z105" s="29"/>
+      <c r="AA105" s="29"/>
+      <c r="AB105" s="29"/>
+      <c r="AC105" s="29"/>
+      <c r="AD105" s="29"/>
+      <c r="AE105" s="29"/>
+      <c r="AF105" s="29"/>
+      <c r="AG105" s="29"/>
+      <c r="AH105" s="30"/>
+    </row>
+    <row r="106" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C106" s="20"/>
+      <c r="D106" s="20"/>
+      <c r="E106" s="20"/>
+      <c r="G106" s="26"/>
+      <c r="H106" s="27"/>
+      <c r="I106" s="27"/>
+      <c r="J106" s="27"/>
+      <c r="K106" s="27"/>
+      <c r="L106" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="M106" s="27"/>
+      <c r="N106" s="27"/>
+      <c r="O106" s="27"/>
+      <c r="P106" s="27"/>
+      <c r="Q106" s="27"/>
+      <c r="R106" s="27"/>
+      <c r="S106" s="27"/>
+      <c r="T106" s="27"/>
+      <c r="U106" s="27"/>
+      <c r="V106" s="27"/>
+      <c r="W106" s="27"/>
+      <c r="X106" s="27"/>
+      <c r="Y106" s="27"/>
+      <c r="Z106" s="27"/>
+      <c r="AA106" s="27"/>
+      <c r="AB106" s="27"/>
+      <c r="AC106" s="27"/>
+      <c r="AD106" s="27"/>
+      <c r="AE106" s="27"/>
+      <c r="AF106" s="27"/>
+      <c r="AG106" s="27"/>
+      <c r="AH106" s="31"/>
+    </row>
+    <row r="107" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D107" s="16"/>
+      <c r="E107" s="18"/>
+      <c r="F107" s="18"/>
+      <c r="G107" s="18"/>
+      <c r="H107" s="18"/>
+      <c r="I107" s="18"/>
+      <c r="J107" s="18"/>
+      <c r="K107" s="18"/>
+      <c r="L107" s="18"/>
+      <c r="M107" s="18"/>
+      <c r="N107" s="18"/>
+      <c r="O107" s="18"/>
+      <c r="P107" s="18"/>
+      <c r="Q107" s="18"/>
+      <c r="R107" s="18"/>
+      <c r="S107" s="18"/>
+      <c r="T107" s="18"/>
+      <c r="U107" s="18"/>
+      <c r="V107" s="18"/>
+      <c r="W107" s="18"/>
+      <c r="X107" s="18"/>
+      <c r="Y107" s="18"/>
+      <c r="Z107" s="18"/>
+      <c r="AA107" s="18"/>
+      <c r="AB107" s="18"/>
+      <c r="AC107" s="18"/>
+      <c r="AD107" s="18"/>
+      <c r="AE107" s="18"/>
+      <c r="AF107" s="18"/>
+      <c r="AG107" s="18"/>
+      <c r="AH107" s="18"/>
+      <c r="AI107" s="18"/>
+    </row>
+    <row r="108" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E108" s="22" t="str">
+        <f>D79&amp;"4."</f>
         <v>7.3.4.4.</v>
       </c>
-      <c r="F104" s="17" t="s">
+      <c r="F108" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="G104" s="17"/>
-      <c r="H104" s="17"/>
-      <c r="I104" s="17"/>
-      <c r="J104" s="17"/>
-      <c r="K104" s="17"/>
-      <c r="L104" s="17"/>
-      <c r="M104" s="17"/>
-      <c r="N104" s="17"/>
-      <c r="O104" s="17"/>
-      <c r="P104" s="17"/>
-      <c r="Q104" s="17"/>
-      <c r="R104" s="17"/>
-      <c r="S104" s="17"/>
-      <c r="T104" s="17"/>
-      <c r="U104" s="17"/>
-      <c r="V104" s="17"/>
-      <c r="W104" s="17"/>
-      <c r="X104" s="17"/>
-      <c r="Y104" s="17"/>
-      <c r="Z104" s="17"/>
-      <c r="AA104" s="17"/>
-      <c r="AB104" s="17"/>
-      <c r="AC104" s="17"/>
-      <c r="AD104" s="17"/>
-      <c r="AE104" s="17"/>
-      <c r="AF104" s="17"/>
-      <c r="AG104" s="17"/>
-      <c r="AH104" s="17"/>
-      <c r="AI104" s="17"/>
-    </row>
-    <row r="105" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E105" s="22"/>
-      <c r="F105" s="22" t="str">
-        <f>$E$104&amp;"1."</f>
+      <c r="G108" s="17"/>
+      <c r="H108" s="17"/>
+      <c r="I108" s="17"/>
+      <c r="J108" s="17"/>
+      <c r="K108" s="17"/>
+      <c r="L108" s="17"/>
+      <c r="M108" s="17"/>
+      <c r="N108" s="17"/>
+      <c r="O108" s="17"/>
+      <c r="P108" s="17"/>
+      <c r="Q108" s="17"/>
+      <c r="R108" s="17"/>
+      <c r="S108" s="17"/>
+      <c r="T108" s="17"/>
+      <c r="U108" s="17"/>
+      <c r="V108" s="17"/>
+      <c r="W108" s="17"/>
+      <c r="X108" s="17"/>
+      <c r="Y108" s="17"/>
+      <c r="Z108" s="17"/>
+      <c r="AA108" s="17"/>
+      <c r="AB108" s="17"/>
+      <c r="AC108" s="17"/>
+      <c r="AD108" s="17"/>
+      <c r="AE108" s="17"/>
+      <c r="AF108" s="17"/>
+      <c r="AG108" s="17"/>
+      <c r="AH108" s="17"/>
+      <c r="AI108" s="17"/>
+    </row>
+    <row r="109" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E109" s="22"/>
+      <c r="F109" s="22" t="str">
+        <f>$E$108&amp;"1."</f>
         <v>7.3.4.4.1.</v>
       </c>
-      <c r="G105" s="21" t="str">
-        <f>F104&amp;"機能概要"</f>
+      <c r="G109" s="21" t="str">
+        <f>F108&amp;"機能概要"</f>
         <v>排他制御機能概要</v>
       </c>
     </row>
-    <row r="106" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G106" s="21" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="107" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G107" s="21" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="108" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="109" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F109" s="22" t="str">
-        <f>$E$104&amp;"2."</f>
+    <row r="110" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G110" s="21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="111" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G111" s="21" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="112" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F113" s="22" t="str">
+        <f>$E$108&amp;"2."</f>
         <v>7.3.4.4.2.</v>
       </c>
-      <c r="G109" s="21" t="str">
-        <f>F104&amp;"方法"</f>
+      <c r="G113" s="21" t="str">
+        <f>F108&amp;"方法"</f>
         <v>排他制御方法</v>
       </c>
     </row>
-    <row r="110" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G110" s="21" t="str">
-        <f>F104&amp;"を行う機能には、以下の方法がある。"</f>
+    <row r="114" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G114" s="21" t="str">
+        <f>F108&amp;"を行う機能には、以下の方法がある。"</f>
         <v>排他制御を行う機能には、以下の方法がある。</v>
       </c>
     </row>
-    <row r="111" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="112" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C112" s="20"/>
-      <c r="D112" s="20"/>
-      <c r="E112" s="20"/>
-      <c r="G112" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="H112" s="33"/>
-      <c r="I112" s="33"/>
-      <c r="J112" s="33"/>
-      <c r="K112" s="34"/>
-      <c r="L112" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="M112" s="33"/>
-      <c r="N112" s="33"/>
-      <c r="O112" s="33"/>
-      <c r="P112" s="33"/>
-      <c r="Q112" s="33"/>
-      <c r="R112" s="33"/>
-      <c r="S112" s="33"/>
-      <c r="T112" s="33"/>
-      <c r="U112" s="33"/>
-      <c r="V112" s="33"/>
-      <c r="W112" s="33"/>
-      <c r="X112" s="33"/>
-      <c r="Y112" s="33"/>
-      <c r="Z112" s="33"/>
-      <c r="AA112" s="33"/>
-      <c r="AB112" s="33"/>
-      <c r="AC112" s="33"/>
-      <c r="AD112" s="33"/>
-      <c r="AE112" s="33"/>
-      <c r="AF112" s="33"/>
-      <c r="AG112" s="33"/>
-      <c r="AH112" s="34"/>
-    </row>
-    <row r="113" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C113" s="20"/>
-      <c r="D113" s="20"/>
-      <c r="E113" s="20"/>
-      <c r="G113" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="H113" s="29"/>
-      <c r="I113" s="29"/>
-      <c r="J113" s="29"/>
-      <c r="K113" s="29"/>
-      <c r="L113" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="M113" s="29"/>
-      <c r="N113" s="29"/>
-      <c r="O113" s="29"/>
-      <c r="P113" s="29"/>
-      <c r="Q113" s="29"/>
-      <c r="R113" s="29"/>
-      <c r="S113" s="29"/>
-      <c r="T113" s="29"/>
-      <c r="U113" s="29"/>
-      <c r="V113" s="29"/>
-      <c r="W113" s="29"/>
-      <c r="X113" s="29"/>
-      <c r="Y113" s="29"/>
-      <c r="Z113" s="29"/>
-      <c r="AA113" s="29"/>
-      <c r="AB113" s="29"/>
-      <c r="AC113" s="29"/>
-      <c r="AD113" s="29"/>
-      <c r="AE113" s="29"/>
-      <c r="AF113" s="29"/>
-      <c r="AG113" s="29"/>
-      <c r="AH113" s="30"/>
-    </row>
-    <row r="114" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C114" s="20"/>
-      <c r="D114" s="20"/>
-      <c r="E114" s="20"/>
-      <c r="G114" s="23"/>
-      <c r="H114" s="24"/>
-      <c r="I114" s="24"/>
-      <c r="J114" s="24"/>
-      <c r="K114" s="24"/>
-      <c r="L114" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="M114" s="24"/>
-      <c r="N114" s="24"/>
-      <c r="O114" s="24"/>
-      <c r="P114" s="24"/>
-      <c r="Q114" s="24"/>
-      <c r="R114" s="24"/>
-      <c r="S114" s="24"/>
-      <c r="T114" s="24"/>
-      <c r="U114" s="24"/>
-      <c r="V114" s="24"/>
-      <c r="W114" s="24"/>
-      <c r="X114" s="24"/>
-      <c r="Y114" s="24"/>
-      <c r="Z114" s="24"/>
-      <c r="AA114" s="24"/>
-      <c r="AB114" s="24"/>
-      <c r="AC114" s="24"/>
-      <c r="AD114" s="24"/>
-      <c r="AE114" s="24"/>
-      <c r="AF114" s="24"/>
-      <c r="AG114" s="24"/>
-      <c r="AH114" s="25"/>
-    </row>
-    <row r="115" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C115" s="20"/>
-      <c r="D115" s="20"/>
-      <c r="E115" s="20"/>
-      <c r="G115" s="23"/>
-      <c r="H115" s="24"/>
-      <c r="I115" s="24"/>
-      <c r="J115" s="24"/>
-      <c r="K115" s="24"/>
-      <c r="L115" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="M115" s="24"/>
-      <c r="N115" s="24"/>
-      <c r="O115" s="24"/>
-      <c r="P115" s="24"/>
-      <c r="Q115" s="24"/>
-      <c r="R115" s="24"/>
-      <c r="S115" s="24"/>
-      <c r="T115" s="24"/>
-      <c r="U115" s="24"/>
-      <c r="V115" s="24"/>
-      <c r="W115" s="24"/>
-      <c r="X115" s="24"/>
-      <c r="Y115" s="24"/>
-      <c r="Z115" s="24"/>
-      <c r="AA115" s="24"/>
-      <c r="AB115" s="24"/>
-      <c r="AC115" s="24"/>
-      <c r="AD115" s="24"/>
-      <c r="AE115" s="24"/>
-      <c r="AF115" s="24"/>
-      <c r="AG115" s="24"/>
-      <c r="AH115" s="25"/>
-    </row>
+    <row r="115" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="116" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C116" s="20"/>
       <c r="D116" s="20"/>
       <c r="E116" s="20"/>
-      <c r="G116" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="H116" s="29"/>
-      <c r="I116" s="29"/>
-      <c r="J116" s="29"/>
-      <c r="K116" s="29"/>
-      <c r="L116" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="M116" s="29"/>
-      <c r="N116" s="29"/>
-      <c r="O116" s="29"/>
-      <c r="P116" s="29"/>
-      <c r="Q116" s="29"/>
-      <c r="R116" s="29"/>
-      <c r="S116" s="29"/>
-      <c r="T116" s="29"/>
-      <c r="U116" s="29"/>
-      <c r="V116" s="29"/>
-      <c r="W116" s="29"/>
-      <c r="X116" s="29"/>
-      <c r="Y116" s="29"/>
-      <c r="Z116" s="29"/>
-      <c r="AA116" s="29"/>
-      <c r="AB116" s="29"/>
-      <c r="AC116" s="29"/>
-      <c r="AD116" s="29"/>
-      <c r="AE116" s="29"/>
-      <c r="AF116" s="29"/>
-      <c r="AG116" s="29"/>
-      <c r="AH116" s="30"/>
+      <c r="G116" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="H116" s="33"/>
+      <c r="I116" s="33"/>
+      <c r="J116" s="33"/>
+      <c r="K116" s="34"/>
+      <c r="L116" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="M116" s="33"/>
+      <c r="N116" s="33"/>
+      <c r="O116" s="33"/>
+      <c r="P116" s="33"/>
+      <c r="Q116" s="33"/>
+      <c r="R116" s="33"/>
+      <c r="S116" s="33"/>
+      <c r="T116" s="33"/>
+      <c r="U116" s="33"/>
+      <c r="V116" s="33"/>
+      <c r="W116" s="33"/>
+      <c r="X116" s="33"/>
+      <c r="Y116" s="33"/>
+      <c r="Z116" s="33"/>
+      <c r="AA116" s="33"/>
+      <c r="AB116" s="33"/>
+      <c r="AC116" s="33"/>
+      <c r="AD116" s="33"/>
+      <c r="AE116" s="33"/>
+      <c r="AF116" s="33"/>
+      <c r="AG116" s="33"/>
+      <c r="AH116" s="34"/>
     </row>
     <row r="117" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C117" s="20"/>
       <c r="D117" s="20"/>
       <c r="E117" s="20"/>
-      <c r="G117" s="23"/>
-      <c r="H117" s="24"/>
-      <c r="I117" s="24"/>
-      <c r="J117" s="24"/>
-      <c r="K117" s="24"/>
-      <c r="L117" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="M117" s="24"/>
-      <c r="N117" s="24"/>
-      <c r="O117" s="24"/>
-      <c r="P117" s="24"/>
-      <c r="Q117" s="24"/>
-      <c r="R117" s="24"/>
-      <c r="S117" s="24"/>
-      <c r="T117" s="24"/>
-      <c r="U117" s="24"/>
-      <c r="V117" s="24"/>
-      <c r="W117" s="24"/>
-      <c r="X117" s="24"/>
-      <c r="Y117" s="24"/>
-      <c r="Z117" s="24"/>
-      <c r="AA117" s="24"/>
-      <c r="AB117" s="24"/>
-      <c r="AC117" s="24"/>
-      <c r="AD117" s="24"/>
-      <c r="AE117" s="24"/>
-      <c r="AF117" s="24"/>
-      <c r="AG117" s="24"/>
-      <c r="AH117" s="25"/>
+      <c r="G117" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="H117" s="29"/>
+      <c r="I117" s="29"/>
+      <c r="J117" s="29"/>
+      <c r="K117" s="29"/>
+      <c r="L117" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="M117" s="29"/>
+      <c r="N117" s="29"/>
+      <c r="O117" s="29"/>
+      <c r="P117" s="29"/>
+      <c r="Q117" s="29"/>
+      <c r="R117" s="29"/>
+      <c r="S117" s="29"/>
+      <c r="T117" s="29"/>
+      <c r="U117" s="29"/>
+      <c r="V117" s="29"/>
+      <c r="W117" s="29"/>
+      <c r="X117" s="29"/>
+      <c r="Y117" s="29"/>
+      <c r="Z117" s="29"/>
+      <c r="AA117" s="29"/>
+      <c r="AB117" s="29"/>
+      <c r="AC117" s="29"/>
+      <c r="AD117" s="29"/>
+      <c r="AE117" s="29"/>
+      <c r="AF117" s="29"/>
+      <c r="AG117" s="29"/>
+      <c r="AH117" s="30"/>
     </row>
     <row r="118" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C118" s="20"/>
       <c r="D118" s="20"/>
       <c r="E118" s="20"/>
-      <c r="G118" s="26"/>
-      <c r="H118" s="27"/>
-      <c r="I118" s="27"/>
-      <c r="J118" s="27"/>
-      <c r="K118" s="27"/>
-      <c r="L118" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="M118" s="27"/>
-      <c r="N118" s="27"/>
-      <c r="O118" s="27"/>
-      <c r="P118" s="27"/>
-      <c r="Q118" s="27"/>
-      <c r="R118" s="27"/>
-      <c r="S118" s="27"/>
-      <c r="T118" s="27"/>
-      <c r="U118" s="27"/>
-      <c r="V118" s="27"/>
-      <c r="W118" s="27"/>
-      <c r="X118" s="27"/>
-      <c r="Y118" s="27"/>
-      <c r="Z118" s="27"/>
-      <c r="AA118" s="27"/>
-      <c r="AB118" s="27"/>
-      <c r="AC118" s="27"/>
-      <c r="AD118" s="27"/>
-      <c r="AE118" s="27"/>
-      <c r="AF118" s="27"/>
-      <c r="AG118" s="27"/>
-      <c r="AH118" s="31"/>
+      <c r="G118" s="23"/>
+      <c r="H118" s="24"/>
+      <c r="I118" s="24"/>
+      <c r="J118" s="24"/>
+      <c r="K118" s="24"/>
+      <c r="L118" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="M118" s="24"/>
+      <c r="N118" s="24"/>
+      <c r="O118" s="24"/>
+      <c r="P118" s="24"/>
+      <c r="Q118" s="24"/>
+      <c r="R118" s="24"/>
+      <c r="S118" s="24"/>
+      <c r="T118" s="24"/>
+      <c r="U118" s="24"/>
+      <c r="V118" s="24"/>
+      <c r="W118" s="24"/>
+      <c r="X118" s="24"/>
+      <c r="Y118" s="24"/>
+      <c r="Z118" s="24"/>
+      <c r="AA118" s="24"/>
+      <c r="AB118" s="24"/>
+      <c r="AC118" s="24"/>
+      <c r="AD118" s="24"/>
+      <c r="AE118" s="24"/>
+      <c r="AF118" s="24"/>
+      <c r="AG118" s="24"/>
+      <c r="AH118" s="25"/>
     </row>
     <row r="119" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C119" s="20"/>
       <c r="D119" s="20"/>
       <c r="E119" s="20"/>
-      <c r="G119" s="24"/>
+      <c r="G119" s="23"/>
       <c r="H119" s="24"/>
       <c r="I119" s="24"/>
       <c r="J119" s="24"/>
       <c r="K119" s="24"/>
-      <c r="L119" s="24"/>
+      <c r="L119" s="23" t="s">
+        <v>68</v>
+      </c>
       <c r="M119" s="24"/>
       <c r="N119" s="24"/>
       <c r="O119" s="24"/>
@@ -4915,100 +4829,127 @@
       <c r="AE119" s="24"/>
       <c r="AF119" s="24"/>
       <c r="AG119" s="24"/>
-      <c r="AH119" s="24"/>
-      <c r="AI119" s="24"/>
+      <c r="AH119" s="25"/>
     </row>
     <row r="120" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C120" s="20"/>
       <c r="D120" s="20"/>
       <c r="E120" s="20"/>
-      <c r="G120" s="21" t="s">
-        <v>16</v>
-      </c>
+      <c r="G120" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="H120" s="29"/>
+      <c r="I120" s="29"/>
+      <c r="J120" s="29"/>
+      <c r="K120" s="29"/>
+      <c r="L120" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="M120" s="29"/>
+      <c r="N120" s="29"/>
+      <c r="O120" s="29"/>
+      <c r="P120" s="29"/>
+      <c r="Q120" s="29"/>
+      <c r="R120" s="29"/>
+      <c r="S120" s="29"/>
+      <c r="T120" s="29"/>
+      <c r="U120" s="29"/>
+      <c r="V120" s="29"/>
+      <c r="W120" s="29"/>
+      <c r="X120" s="29"/>
+      <c r="Y120" s="29"/>
+      <c r="Z120" s="29"/>
+      <c r="AA120" s="29"/>
+      <c r="AB120" s="29"/>
+      <c r="AC120" s="29"/>
+      <c r="AD120" s="29"/>
+      <c r="AE120" s="29"/>
+      <c r="AF120" s="29"/>
+      <c r="AG120" s="29"/>
+      <c r="AH120" s="30"/>
     </row>
     <row r="121" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G121" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="H121" s="33"/>
-      <c r="I121" s="33"/>
-      <c r="J121" s="33"/>
-      <c r="K121" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="L121" s="33"/>
-      <c r="M121" s="34"/>
-      <c r="N121" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="O121" s="33"/>
-      <c r="P121" s="33"/>
-      <c r="Q121" s="33"/>
-      <c r="R121" s="33"/>
-      <c r="S121" s="33"/>
-      <c r="T121" s="33"/>
-      <c r="U121" s="33"/>
-      <c r="V121" s="33"/>
-      <c r="W121" s="33"/>
-      <c r="X121" s="33"/>
-      <c r="Y121" s="33"/>
-      <c r="Z121" s="33"/>
-      <c r="AA121" s="33"/>
-      <c r="AB121" s="33"/>
-      <c r="AC121" s="33"/>
-      <c r="AD121" s="33"/>
-      <c r="AE121" s="33"/>
-      <c r="AF121" s="33"/>
-      <c r="AG121" s="33"/>
-      <c r="AH121" s="34"/>
+      <c r="C121" s="20"/>
+      <c r="D121" s="20"/>
+      <c r="E121" s="20"/>
+      <c r="G121" s="23"/>
+      <c r="H121" s="24"/>
+      <c r="I121" s="24"/>
+      <c r="J121" s="24"/>
+      <c r="K121" s="24"/>
+      <c r="L121" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="M121" s="24"/>
+      <c r="N121" s="24"/>
+      <c r="O121" s="24"/>
+      <c r="P121" s="24"/>
+      <c r="Q121" s="24"/>
+      <c r="R121" s="24"/>
+      <c r="S121" s="24"/>
+      <c r="T121" s="24"/>
+      <c r="U121" s="24"/>
+      <c r="V121" s="24"/>
+      <c r="W121" s="24"/>
+      <c r="X121" s="24"/>
+      <c r="Y121" s="24"/>
+      <c r="Z121" s="24"/>
+      <c r="AA121" s="24"/>
+      <c r="AB121" s="24"/>
+      <c r="AC121" s="24"/>
+      <c r="AD121" s="24"/>
+      <c r="AE121" s="24"/>
+      <c r="AF121" s="24"/>
+      <c r="AG121" s="24"/>
+      <c r="AH121" s="25"/>
     </row>
     <row r="122" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G122" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="H122" s="24"/>
-      <c r="I122" s="24"/>
-      <c r="J122" s="24"/>
-      <c r="K122" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="L122" s="24"/>
-      <c r="M122" s="25"/>
-      <c r="N122" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="O122" s="24"/>
-      <c r="P122" s="24"/>
-      <c r="Q122" s="24"/>
-      <c r="R122" s="24"/>
-      <c r="S122" s="24"/>
-      <c r="T122" s="24"/>
-      <c r="U122" s="24"/>
-      <c r="V122" s="24"/>
-      <c r="W122" s="24"/>
-      <c r="X122" s="24"/>
-      <c r="Y122" s="24"/>
-      <c r="Z122" s="24"/>
-      <c r="AA122" s="24"/>
-      <c r="AB122" s="24"/>
-      <c r="AC122" s="24"/>
-      <c r="AD122" s="24"/>
-      <c r="AE122" s="24"/>
-      <c r="AF122" s="24"/>
-      <c r="AG122" s="24"/>
-      <c r="AH122" s="25"/>
+      <c r="C122" s="20"/>
+      <c r="D122" s="20"/>
+      <c r="E122" s="20"/>
+      <c r="G122" s="26"/>
+      <c r="H122" s="27"/>
+      <c r="I122" s="27"/>
+      <c r="J122" s="27"/>
+      <c r="K122" s="27"/>
+      <c r="L122" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="M122" s="27"/>
+      <c r="N122" s="27"/>
+      <c r="O122" s="27"/>
+      <c r="P122" s="27"/>
+      <c r="Q122" s="27"/>
+      <c r="R122" s="27"/>
+      <c r="S122" s="27"/>
+      <c r="T122" s="27"/>
+      <c r="U122" s="27"/>
+      <c r="V122" s="27"/>
+      <c r="W122" s="27"/>
+      <c r="X122" s="27"/>
+      <c r="Y122" s="27"/>
+      <c r="Z122" s="27"/>
+      <c r="AA122" s="27"/>
+      <c r="AB122" s="27"/>
+      <c r="AC122" s="27"/>
+      <c r="AD122" s="27"/>
+      <c r="AE122" s="27"/>
+      <c r="AF122" s="27"/>
+      <c r="AG122" s="27"/>
+      <c r="AH122" s="31"/>
     </row>
     <row r="123" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G123" s="23"/>
+      <c r="C123" s="20"/>
+      <c r="D123" s="20"/>
+      <c r="E123" s="20"/>
+      <c r="G123" s="24"/>
       <c r="H123" s="24"/>
       <c r="I123" s="24"/>
       <c r="J123" s="24"/>
-      <c r="K123" s="23"/>
+      <c r="K123" s="24"/>
       <c r="L123" s="24"/>
-      <c r="M123" s="25"/>
-      <c r="N123" s="24" t="s">
-        <v>147</v>
-      </c>
+      <c r="M123" s="24"/>
+      <c r="N123" s="24"/>
       <c r="O123" s="24"/>
       <c r="P123" s="24"/>
       <c r="Q123" s="24"/>
@@ -5028,336 +4969,313 @@
       <c r="AE123" s="24"/>
       <c r="AF123" s="24"/>
       <c r="AG123" s="24"/>
-      <c r="AH123" s="25"/>
+      <c r="AH123" s="24"/>
+      <c r="AI123" s="24"/>
     </row>
     <row r="124" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G124" s="23"/>
-      <c r="H124" s="24"/>
-      <c r="I124" s="24"/>
-      <c r="J124" s="24"/>
-      <c r="K124" s="23"/>
-      <c r="L124" s="24"/>
-      <c r="M124" s="25"/>
-      <c r="N124" s="24" t="s">
+      <c r="C124" s="20"/>
+      <c r="D124" s="20"/>
+      <c r="E124" s="20"/>
+      <c r="G124" s="21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="125" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G125" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="H125" s="33"/>
+      <c r="I125" s="33"/>
+      <c r="J125" s="33"/>
+      <c r="K125" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="L125" s="33"/>
+      <c r="M125" s="34"/>
+      <c r="N125" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="O125" s="33"/>
+      <c r="P125" s="33"/>
+      <c r="Q125" s="33"/>
+      <c r="R125" s="33"/>
+      <c r="S125" s="33"/>
+      <c r="T125" s="33"/>
+      <c r="U125" s="33"/>
+      <c r="V125" s="33"/>
+      <c r="W125" s="33"/>
+      <c r="X125" s="33"/>
+      <c r="Y125" s="33"/>
+      <c r="Z125" s="33"/>
+      <c r="AA125" s="33"/>
+      <c r="AB125" s="33"/>
+      <c r="AC125" s="33"/>
+      <c r="AD125" s="33"/>
+      <c r="AE125" s="33"/>
+      <c r="AF125" s="33"/>
+      <c r="AG125" s="33"/>
+      <c r="AH125" s="34"/>
+    </row>
+    <row r="126" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G126" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="H126" s="24"/>
+      <c r="I126" s="24"/>
+      <c r="J126" s="24"/>
+      <c r="K126" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="L126" s="24"/>
+      <c r="M126" s="25"/>
+      <c r="N126" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="O126" s="24"/>
+      <c r="P126" s="24"/>
+      <c r="Q126" s="24"/>
+      <c r="R126" s="24"/>
+      <c r="S126" s="24"/>
+      <c r="T126" s="24"/>
+      <c r="U126" s="24"/>
+      <c r="V126" s="24"/>
+      <c r="W126" s="24"/>
+      <c r="X126" s="24"/>
+      <c r="Y126" s="24"/>
+      <c r="Z126" s="24"/>
+      <c r="AA126" s="24"/>
+      <c r="AB126" s="24"/>
+      <c r="AC126" s="24"/>
+      <c r="AD126" s="24"/>
+      <c r="AE126" s="24"/>
+      <c r="AF126" s="24"/>
+      <c r="AG126" s="24"/>
+      <c r="AH126" s="25"/>
+    </row>
+    <row r="127" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G127" s="23"/>
+      <c r="H127" s="24"/>
+      <c r="I127" s="24"/>
+      <c r="J127" s="24"/>
+      <c r="K127" s="23"/>
+      <c r="L127" s="24"/>
+      <c r="M127" s="25"/>
+      <c r="N127" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="O127" s="24"/>
+      <c r="P127" s="24"/>
+      <c r="Q127" s="24"/>
+      <c r="R127" s="24"/>
+      <c r="S127" s="24"/>
+      <c r="T127" s="24"/>
+      <c r="U127" s="24"/>
+      <c r="V127" s="24"/>
+      <c r="W127" s="24"/>
+      <c r="X127" s="24"/>
+      <c r="Y127" s="24"/>
+      <c r="Z127" s="24"/>
+      <c r="AA127" s="24"/>
+      <c r="AB127" s="24"/>
+      <c r="AC127" s="24"/>
+      <c r="AD127" s="24"/>
+      <c r="AE127" s="24"/>
+      <c r="AF127" s="24"/>
+      <c r="AG127" s="24"/>
+      <c r="AH127" s="25"/>
+    </row>
+    <row r="128" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G128" s="23"/>
+      <c r="H128" s="24"/>
+      <c r="I128" s="24"/>
+      <c r="J128" s="24"/>
+      <c r="K128" s="23"/>
+      <c r="L128" s="24"/>
+      <c r="M128" s="25"/>
+      <c r="N128" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="O128" s="24"/>
+      <c r="P128" s="24"/>
+      <c r="Q128" s="24"/>
+      <c r="R128" s="24"/>
+      <c r="S128" s="24"/>
+      <c r="T128" s="24"/>
+      <c r="U128" s="24"/>
+      <c r="V128" s="24"/>
+      <c r="W128" s="24"/>
+      <c r="X128" s="24"/>
+      <c r="Y128" s="24"/>
+      <c r="Z128" s="24"/>
+      <c r="AA128" s="24"/>
+      <c r="AB128" s="24"/>
+      <c r="AC128" s="24"/>
+      <c r="AD128" s="24"/>
+      <c r="AE128" s="24"/>
+      <c r="AF128" s="24"/>
+      <c r="AG128" s="24"/>
+      <c r="AH128" s="25"/>
+    </row>
+    <row r="129" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G129" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="H129" s="29"/>
+      <c r="I129" s="29"/>
+      <c r="J129" s="29"/>
+      <c r="K129" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="L129" s="29"/>
+      <c r="M129" s="30"/>
+      <c r="N129" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="O129" s="29"/>
+      <c r="P129" s="29"/>
+      <c r="Q129" s="29"/>
+      <c r="R129" s="29"/>
+      <c r="S129" s="29"/>
+      <c r="T129" s="29"/>
+      <c r="U129" s="29"/>
+      <c r="V129" s="29"/>
+      <c r="W129" s="29"/>
+      <c r="X129" s="29"/>
+      <c r="Y129" s="29"/>
+      <c r="Z129" s="29"/>
+      <c r="AA129" s="29"/>
+      <c r="AB129" s="29"/>
+      <c r="AC129" s="29"/>
+      <c r="AD129" s="29"/>
+      <c r="AE129" s="29"/>
+      <c r="AF129" s="29"/>
+      <c r="AG129" s="29"/>
+      <c r="AH129" s="30"/>
+    </row>
+    <row r="130" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G130" s="26"/>
+      <c r="H130" s="27"/>
+      <c r="I130" s="27"/>
+      <c r="J130" s="27"/>
+      <c r="K130" s="26"/>
+      <c r="L130" s="27"/>
+      <c r="M130" s="31"/>
+      <c r="N130" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="O130" s="27"/>
+      <c r="P130" s="27"/>
+      <c r="Q130" s="27"/>
+      <c r="R130" s="27"/>
+      <c r="S130" s="27"/>
+      <c r="T130" s="27"/>
+      <c r="U130" s="27"/>
+      <c r="V130" s="27"/>
+      <c r="W130" s="27"/>
+      <c r="X130" s="27"/>
+      <c r="Y130" s="27"/>
+      <c r="Z130" s="27"/>
+      <c r="AA130" s="27"/>
+      <c r="AB130" s="27"/>
+      <c r="AC130" s="27"/>
+      <c r="AD130" s="27"/>
+      <c r="AE130" s="27"/>
+      <c r="AF130" s="27"/>
+      <c r="AG130" s="27"/>
+      <c r="AH130" s="31"/>
+    </row>
+    <row r="131" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E131" s="16"/>
+      <c r="F131" s="18"/>
+      <c r="G131" s="18"/>
+      <c r="H131" s="18"/>
+      <c r="I131" s="18"/>
+      <c r="J131" s="18"/>
+      <c r="K131" s="18"/>
+      <c r="L131" s="18"/>
+      <c r="M131" s="18"/>
+      <c r="N131" s="18"/>
+      <c r="O131" s="18"/>
+      <c r="P131" s="18"/>
+      <c r="Q131" s="18"/>
+      <c r="R131" s="18"/>
+      <c r="S131" s="18"/>
+      <c r="T131" s="18"/>
+      <c r="U131" s="18"/>
+      <c r="V131" s="18"/>
+      <c r="W131" s="18"/>
+      <c r="X131" s="18"/>
+      <c r="Y131" s="18"/>
+      <c r="Z131" s="18"/>
+      <c r="AA131" s="18"/>
+      <c r="AB131" s="18"/>
+      <c r="AC131" s="18"/>
+      <c r="AD131" s="18"/>
+      <c r="AE131" s="18"/>
+      <c r="AF131" s="18"/>
+      <c r="AG131" s="18"/>
+      <c r="AH131" s="18"/>
+      <c r="AI131" s="18"/>
+    </row>
+    <row r="132" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C132" s="20"/>
+      <c r="D132" s="20"/>
+      <c r="E132" s="20"/>
+      <c r="G132" s="21" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="133" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G133" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="H133" s="33"/>
+      <c r="I133" s="33"/>
+      <c r="J133" s="34"/>
+      <c r="K133" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="L133" s="33"/>
+      <c r="M133" s="33"/>
+      <c r="N133" s="34"/>
+      <c r="O133" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="P133" s="33"/>
+      <c r="Q133" s="33"/>
+      <c r="R133" s="33"/>
+      <c r="S133" s="33"/>
+      <c r="T133" s="33"/>
+      <c r="U133" s="33"/>
+      <c r="V133" s="33"/>
+      <c r="W133" s="33"/>
+      <c r="X133" s="33"/>
+      <c r="Y133" s="33"/>
+      <c r="Z133" s="33"/>
+      <c r="AA133" s="33"/>
+      <c r="AB133" s="33"/>
+      <c r="AC133" s="33"/>
+      <c r="AD133" s="33"/>
+      <c r="AE133" s="33"/>
+      <c r="AF133" s="33"/>
+      <c r="AG133" s="33"/>
+      <c r="AH133" s="34"/>
+    </row>
+    <row r="134" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G134" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="O124" s="24"/>
-      <c r="P124" s="24"/>
-      <c r="Q124" s="24"/>
-      <c r="R124" s="24"/>
-      <c r="S124" s="24"/>
-      <c r="T124" s="24"/>
-      <c r="U124" s="24"/>
-      <c r="V124" s="24"/>
-      <c r="W124" s="24"/>
-      <c r="X124" s="24"/>
-      <c r="Y124" s="24"/>
-      <c r="Z124" s="24"/>
-      <c r="AA124" s="24"/>
-      <c r="AB124" s="24"/>
-      <c r="AC124" s="24"/>
-      <c r="AD124" s="24"/>
-      <c r="AE124" s="24"/>
-      <c r="AF124" s="24"/>
-      <c r="AG124" s="24"/>
-      <c r="AH124" s="25"/>
-    </row>
-    <row r="125" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G125" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="H125" s="29"/>
-      <c r="I125" s="29"/>
-      <c r="J125" s="29"/>
-      <c r="K125" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="L125" s="29"/>
-      <c r="M125" s="30"/>
-      <c r="N125" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="O125" s="29"/>
-      <c r="P125" s="29"/>
-      <c r="Q125" s="29"/>
-      <c r="R125" s="29"/>
-      <c r="S125" s="29"/>
-      <c r="T125" s="29"/>
-      <c r="U125" s="29"/>
-      <c r="V125" s="29"/>
-      <c r="W125" s="29"/>
-      <c r="X125" s="29"/>
-      <c r="Y125" s="29"/>
-      <c r="Z125" s="29"/>
-      <c r="AA125" s="29"/>
-      <c r="AB125" s="29"/>
-      <c r="AC125" s="29"/>
-      <c r="AD125" s="29"/>
-      <c r="AE125" s="29"/>
-      <c r="AF125" s="29"/>
-      <c r="AG125" s="29"/>
-      <c r="AH125" s="30"/>
-    </row>
-    <row r="126" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G126" s="26"/>
-      <c r="H126" s="27"/>
-      <c r="I126" s="27"/>
-      <c r="J126" s="27"/>
-      <c r="K126" s="26"/>
-      <c r="L126" s="27"/>
-      <c r="M126" s="31"/>
-      <c r="N126" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="O126" s="27"/>
-      <c r="P126" s="27"/>
-      <c r="Q126" s="27"/>
-      <c r="R126" s="27"/>
-      <c r="S126" s="27"/>
-      <c r="T126" s="27"/>
-      <c r="U126" s="27"/>
-      <c r="V126" s="27"/>
-      <c r="W126" s="27"/>
-      <c r="X126" s="27"/>
-      <c r="Y126" s="27"/>
-      <c r="Z126" s="27"/>
-      <c r="AA126" s="27"/>
-      <c r="AB126" s="27"/>
-      <c r="AC126" s="27"/>
-      <c r="AD126" s="27"/>
-      <c r="AE126" s="27"/>
-      <c r="AF126" s="27"/>
-      <c r="AG126" s="27"/>
-      <c r="AH126" s="31"/>
-    </row>
-    <row r="127" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E127" s="16"/>
-      <c r="F127" s="18"/>
-      <c r="G127" s="18"/>
-      <c r="H127" s="18"/>
-      <c r="I127" s="18"/>
-      <c r="J127" s="18"/>
-      <c r="K127" s="18"/>
-      <c r="L127" s="18"/>
-      <c r="M127" s="18"/>
-      <c r="N127" s="18"/>
-      <c r="O127" s="18"/>
-      <c r="P127" s="18"/>
-      <c r="Q127" s="18"/>
-      <c r="R127" s="18"/>
-      <c r="S127" s="18"/>
-      <c r="T127" s="18"/>
-      <c r="U127" s="18"/>
-      <c r="V127" s="18"/>
-      <c r="W127" s="18"/>
-      <c r="X127" s="18"/>
-      <c r="Y127" s="18"/>
-      <c r="Z127" s="18"/>
-      <c r="AA127" s="18"/>
-      <c r="AB127" s="18"/>
-      <c r="AC127" s="18"/>
-      <c r="AD127" s="18"/>
-      <c r="AE127" s="18"/>
-      <c r="AF127" s="18"/>
-      <c r="AG127" s="18"/>
-      <c r="AH127" s="18"/>
-      <c r="AI127" s="18"/>
-    </row>
-    <row r="128" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C128" s="20"/>
-      <c r="D128" s="20"/>
-      <c r="E128" s="20"/>
-      <c r="G128" s="21" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="129" spans="5:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G129" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="H129" s="33"/>
-      <c r="I129" s="33"/>
-      <c r="J129" s="34"/>
-      <c r="K129" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="L129" s="33"/>
-      <c r="M129" s="33"/>
-      <c r="N129" s="34"/>
-      <c r="O129" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="P129" s="33"/>
-      <c r="Q129" s="33"/>
-      <c r="R129" s="33"/>
-      <c r="S129" s="33"/>
-      <c r="T129" s="33"/>
-      <c r="U129" s="33"/>
-      <c r="V129" s="33"/>
-      <c r="W129" s="33"/>
-      <c r="X129" s="33"/>
-      <c r="Y129" s="33"/>
-      <c r="Z129" s="33"/>
-      <c r="AA129" s="33"/>
-      <c r="AB129" s="33"/>
-      <c r="AC129" s="33"/>
-      <c r="AD129" s="33"/>
-      <c r="AE129" s="33"/>
-      <c r="AF129" s="33"/>
-      <c r="AG129" s="33"/>
-      <c r="AH129" s="34"/>
-    </row>
-    <row r="130" spans="5:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G130" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="H130" s="24"/>
-      <c r="I130" s="24"/>
-      <c r="J130" s="25"/>
-      <c r="K130" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="L130" s="24"/>
-      <c r="M130" s="24"/>
-      <c r="N130" s="25"/>
-      <c r="O130" s="24" t="s">
-        <v>151</v>
-      </c>
-      <c r="P130" s="24"/>
-      <c r="Q130" s="24"/>
-      <c r="R130" s="24"/>
-      <c r="S130" s="24"/>
-      <c r="T130" s="24"/>
-      <c r="U130" s="24"/>
-      <c r="V130" s="24"/>
-      <c r="W130" s="24"/>
-      <c r="X130" s="24"/>
-      <c r="Y130" s="24"/>
-      <c r="Z130" s="24"/>
-      <c r="AA130" s="24"/>
-      <c r="AB130" s="24"/>
-      <c r="AC130" s="24"/>
-      <c r="AD130" s="24"/>
-      <c r="AE130" s="24"/>
-      <c r="AF130" s="24"/>
-      <c r="AG130" s="24"/>
-      <c r="AH130" s="25"/>
-    </row>
-    <row r="131" spans="5:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G131" s="23"/>
-      <c r="H131" s="24"/>
-      <c r="I131" s="24"/>
-      <c r="J131" s="25"/>
-      <c r="K131" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="L131" s="24"/>
-      <c r="M131" s="24"/>
-      <c r="N131" s="25"/>
-      <c r="O131" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="P131" s="24"/>
-      <c r="Q131" s="24"/>
-      <c r="R131" s="24"/>
-      <c r="S131" s="24"/>
-      <c r="T131" s="24"/>
-      <c r="U131" s="24"/>
-      <c r="V131" s="24"/>
-      <c r="W131" s="24"/>
-      <c r="X131" s="24"/>
-      <c r="Y131" s="24"/>
-      <c r="Z131" s="24"/>
-      <c r="AA131" s="24"/>
-      <c r="AB131" s="24"/>
-      <c r="AC131" s="24"/>
-      <c r="AD131" s="24"/>
-      <c r="AE131" s="24"/>
-      <c r="AF131" s="24"/>
-      <c r="AG131" s="24"/>
-      <c r="AH131" s="25"/>
-    </row>
-    <row r="132" spans="5:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G132" s="26"/>
-      <c r="H132" s="27"/>
-      <c r="I132" s="27"/>
-      <c r="J132" s="31"/>
-      <c r="K132" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="L132" s="27"/>
-      <c r="M132" s="27"/>
-      <c r="N132" s="31"/>
-      <c r="O132" s="27"/>
-      <c r="P132" s="27"/>
-      <c r="Q132" s="27"/>
-      <c r="R132" s="27"/>
-      <c r="S132" s="27"/>
-      <c r="T132" s="27"/>
-      <c r="U132" s="27"/>
-      <c r="V132" s="27"/>
-      <c r="W132" s="27"/>
-      <c r="X132" s="27"/>
-      <c r="Y132" s="27"/>
-      <c r="Z132" s="27"/>
-      <c r="AA132" s="27"/>
-      <c r="AB132" s="27"/>
-      <c r="AC132" s="27"/>
-      <c r="AD132" s="27"/>
-      <c r="AE132" s="27"/>
-      <c r="AF132" s="27"/>
-      <c r="AG132" s="27"/>
-      <c r="AH132" s="31"/>
-    </row>
-    <row r="133" spans="5:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G133" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="H133" s="24"/>
-      <c r="I133" s="24"/>
-      <c r="J133" s="25"/>
-      <c r="K133" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="L133" s="24"/>
-      <c r="M133" s="24"/>
-      <c r="N133" s="25"/>
-      <c r="O133" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="P133" s="24"/>
-      <c r="Q133" s="24"/>
-      <c r="R133" s="24"/>
-      <c r="S133" s="24"/>
-      <c r="T133" s="24"/>
-      <c r="U133" s="24"/>
-      <c r="V133" s="24"/>
-      <c r="W133" s="24"/>
-      <c r="X133" s="24"/>
-      <c r="Y133" s="24"/>
-      <c r="Z133" s="24"/>
-      <c r="AA133" s="24"/>
-      <c r="AB133" s="24"/>
-      <c r="AC133" s="24"/>
-      <c r="AD133" s="24"/>
-      <c r="AE133" s="24"/>
-      <c r="AF133" s="24"/>
-      <c r="AG133" s="24"/>
-      <c r="AH133" s="25"/>
-    </row>
-    <row r="134" spans="5:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G134" s="23"/>
       <c r="H134" s="24"/>
       <c r="I134" s="24"/>
       <c r="J134" s="25"/>
       <c r="K134" s="24" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="L134" s="24"/>
       <c r="M134" s="24"/>
       <c r="N134" s="25"/>
       <c r="O134" s="24" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="P134" s="24"/>
       <c r="Q134" s="24"/>
@@ -5379,179 +5297,174 @@
       <c r="AG134" s="24"/>
       <c r="AH134" s="25"/>
     </row>
-    <row r="135" spans="5:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G135" s="26"/>
-      <c r="H135" s="27"/>
-      <c r="I135" s="27"/>
-      <c r="J135" s="31"/>
-      <c r="K135" s="27"/>
-      <c r="L135" s="27"/>
-      <c r="M135" s="27"/>
-      <c r="N135" s="31"/>
-      <c r="O135" s="27"/>
-      <c r="P135" s="27"/>
-      <c r="Q135" s="27"/>
-      <c r="R135" s="27"/>
-      <c r="S135" s="27"/>
-      <c r="T135" s="27"/>
-      <c r="U135" s="27"/>
-      <c r="V135" s="27"/>
-      <c r="W135" s="27"/>
-      <c r="X135" s="27"/>
-      <c r="Y135" s="27"/>
-      <c r="Z135" s="27"/>
-      <c r="AA135" s="27"/>
-      <c r="AB135" s="27"/>
-      <c r="AC135" s="27"/>
-      <c r="AD135" s="27"/>
-      <c r="AE135" s="27"/>
-      <c r="AF135" s="27"/>
-      <c r="AG135" s="27"/>
-      <c r="AH135" s="31"/>
-    </row>
-    <row r="136" spans="5:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E136" s="16"/>
-      <c r="H136" s="18"/>
-      <c r="I136" s="18"/>
-      <c r="J136" s="18"/>
-      <c r="K136" s="18"/>
-      <c r="L136" s="18"/>
-      <c r="M136" s="18"/>
-      <c r="N136" s="18"/>
-      <c r="O136" s="18"/>
-      <c r="P136" s="18"/>
-      <c r="Q136" s="18"/>
-      <c r="R136" s="18"/>
-      <c r="S136" s="18"/>
-      <c r="T136" s="18"/>
-      <c r="U136" s="18"/>
-      <c r="V136" s="18"/>
-      <c r="W136" s="18"/>
-      <c r="X136" s="18"/>
-      <c r="Y136" s="18"/>
-      <c r="Z136" s="18"/>
-      <c r="AA136" s="18"/>
-      <c r="AB136" s="18"/>
-      <c r="AC136" s="18"/>
-      <c r="AD136" s="18"/>
-      <c r="AE136" s="18"/>
-      <c r="AF136" s="18"/>
-      <c r="AG136" s="18"/>
-      <c r="AH136" s="18"/>
-      <c r="AI136" s="18"/>
-    </row>
-    <row r="137" spans="5:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E137" s="16"/>
-      <c r="F137" s="22" t="str">
-        <f>$E$104&amp;"3."</f>
-        <v>7.3.4.4.3.</v>
-      </c>
-      <c r="G137" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="H137" s="18"/>
-      <c r="I137" s="18"/>
-      <c r="J137" s="18"/>
-      <c r="K137" s="18"/>
-      <c r="L137" s="18"/>
-      <c r="M137" s="18"/>
-      <c r="N137" s="18"/>
-      <c r="O137" s="18"/>
-      <c r="P137" s="18"/>
-      <c r="Q137" s="18"/>
-      <c r="R137" s="18"/>
-      <c r="S137" s="18"/>
-      <c r="T137" s="18"/>
-      <c r="U137" s="18"/>
-      <c r="V137" s="18"/>
-      <c r="W137" s="18"/>
-      <c r="X137" s="18"/>
-      <c r="Y137" s="18"/>
-      <c r="Z137" s="18"/>
-      <c r="AA137" s="18"/>
-      <c r="AB137" s="18"/>
-      <c r="AC137" s="18"/>
-      <c r="AD137" s="18"/>
-      <c r="AE137" s="18"/>
-      <c r="AF137" s="18"/>
-      <c r="AG137" s="18"/>
-      <c r="AH137" s="18"/>
-      <c r="AI137" s="18"/>
-    </row>
-    <row r="138" spans="5:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E138" s="16"/>
-      <c r="F138" s="18"/>
-      <c r="G138" s="18"/>
-      <c r="H138" s="18"/>
-      <c r="I138" s="18"/>
-      <c r="J138" s="18"/>
-      <c r="K138" s="18"/>
-      <c r="L138" s="18"/>
-      <c r="M138" s="18"/>
-      <c r="N138" s="18"/>
-      <c r="O138" s="18"/>
-      <c r="P138" s="18"/>
-      <c r="Q138" s="18"/>
-      <c r="R138" s="18"/>
-      <c r="S138" s="18"/>
-      <c r="T138" s="18"/>
-      <c r="U138" s="18"/>
-      <c r="V138" s="18"/>
-      <c r="W138" s="18"/>
-      <c r="X138" s="18"/>
-      <c r="Y138" s="18"/>
-      <c r="Z138" s="18"/>
-      <c r="AA138" s="18"/>
-      <c r="AB138" s="18"/>
-      <c r="AC138" s="18"/>
-      <c r="AD138" s="18"/>
-      <c r="AE138" s="18"/>
-      <c r="AF138" s="18"/>
-      <c r="AG138" s="18"/>
-      <c r="AH138" s="18"/>
-      <c r="AI138" s="18"/>
-    </row>
-    <row r="139" spans="5:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E139" s="16"/>
-      <c r="F139" s="18"/>
-      <c r="G139" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="H139" s="18"/>
-      <c r="I139" s="18"/>
-      <c r="J139" s="18"/>
-      <c r="K139" s="18"/>
-      <c r="L139" s="18"/>
-      <c r="M139" s="18"/>
-      <c r="N139" s="18"/>
-      <c r="O139" s="18"/>
-      <c r="P139" s="18"/>
-      <c r="Q139" s="18"/>
-      <c r="R139" s="18"/>
-      <c r="S139" s="18"/>
-      <c r="T139" s="18"/>
-      <c r="U139" s="18"/>
-      <c r="V139" s="18"/>
-      <c r="W139" s="18"/>
-      <c r="X139" s="18"/>
-      <c r="Y139" s="18"/>
-      <c r="Z139" s="18"/>
-      <c r="AA139" s="18"/>
-      <c r="AB139" s="18"/>
-      <c r="AC139" s="18"/>
-      <c r="AD139" s="18"/>
-      <c r="AE139" s="18"/>
-      <c r="AF139" s="18"/>
-      <c r="AG139" s="18"/>
-      <c r="AH139" s="18"/>
-      <c r="AI139" s="18"/>
-    </row>
-    <row r="140" spans="5:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G135" s="23"/>
+      <c r="H135" s="24"/>
+      <c r="I135" s="24"/>
+      <c r="J135" s="25"/>
+      <c r="K135" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="L135" s="24"/>
+      <c r="M135" s="24"/>
+      <c r="N135" s="25"/>
+      <c r="O135" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="P135" s="24"/>
+      <c r="Q135" s="24"/>
+      <c r="R135" s="24"/>
+      <c r="S135" s="24"/>
+      <c r="T135" s="24"/>
+      <c r="U135" s="24"/>
+      <c r="V135" s="24"/>
+      <c r="W135" s="24"/>
+      <c r="X135" s="24"/>
+      <c r="Y135" s="24"/>
+      <c r="Z135" s="24"/>
+      <c r="AA135" s="24"/>
+      <c r="AB135" s="24"/>
+      <c r="AC135" s="24"/>
+      <c r="AD135" s="24"/>
+      <c r="AE135" s="24"/>
+      <c r="AF135" s="24"/>
+      <c r="AG135" s="24"/>
+      <c r="AH135" s="25"/>
+    </row>
+    <row r="136" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G136" s="26"/>
+      <c r="H136" s="27"/>
+      <c r="I136" s="27"/>
+      <c r="J136" s="31"/>
+      <c r="K136" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="L136" s="27"/>
+      <c r="M136" s="27"/>
+      <c r="N136" s="31"/>
+      <c r="O136" s="27"/>
+      <c r="P136" s="27"/>
+      <c r="Q136" s="27"/>
+      <c r="R136" s="27"/>
+      <c r="S136" s="27"/>
+      <c r="T136" s="27"/>
+      <c r="U136" s="27"/>
+      <c r="V136" s="27"/>
+      <c r="W136" s="27"/>
+      <c r="X136" s="27"/>
+      <c r="Y136" s="27"/>
+      <c r="Z136" s="27"/>
+      <c r="AA136" s="27"/>
+      <c r="AB136" s="27"/>
+      <c r="AC136" s="27"/>
+      <c r="AD136" s="27"/>
+      <c r="AE136" s="27"/>
+      <c r="AF136" s="27"/>
+      <c r="AG136" s="27"/>
+      <c r="AH136" s="31"/>
+    </row>
+    <row r="137" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G137" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="H137" s="24"/>
+      <c r="I137" s="24"/>
+      <c r="J137" s="25"/>
+      <c r="K137" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="L137" s="24"/>
+      <c r="M137" s="24"/>
+      <c r="N137" s="25"/>
+      <c r="O137" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="P137" s="24"/>
+      <c r="Q137" s="24"/>
+      <c r="R137" s="24"/>
+      <c r="S137" s="24"/>
+      <c r="T137" s="24"/>
+      <c r="U137" s="24"/>
+      <c r="V137" s="24"/>
+      <c r="W137" s="24"/>
+      <c r="X137" s="24"/>
+      <c r="Y137" s="24"/>
+      <c r="Z137" s="24"/>
+      <c r="AA137" s="24"/>
+      <c r="AB137" s="24"/>
+      <c r="AC137" s="24"/>
+      <c r="AD137" s="24"/>
+      <c r="AE137" s="24"/>
+      <c r="AF137" s="24"/>
+      <c r="AG137" s="24"/>
+      <c r="AH137" s="25"/>
+    </row>
+    <row r="138" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G138" s="23"/>
+      <c r="H138" s="24"/>
+      <c r="I138" s="24"/>
+      <c r="J138" s="25"/>
+      <c r="K138" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="L138" s="24"/>
+      <c r="M138" s="24"/>
+      <c r="N138" s="25"/>
+      <c r="O138" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="P138" s="24"/>
+      <c r="Q138" s="24"/>
+      <c r="R138" s="24"/>
+      <c r="S138" s="24"/>
+      <c r="T138" s="24"/>
+      <c r="U138" s="24"/>
+      <c r="V138" s="24"/>
+      <c r="W138" s="24"/>
+      <c r="X138" s="24"/>
+      <c r="Y138" s="24"/>
+      <c r="Z138" s="24"/>
+      <c r="AA138" s="24"/>
+      <c r="AB138" s="24"/>
+      <c r="AC138" s="24"/>
+      <c r="AD138" s="24"/>
+      <c r="AE138" s="24"/>
+      <c r="AF138" s="24"/>
+      <c r="AG138" s="24"/>
+      <c r="AH138" s="25"/>
+    </row>
+    <row r="139" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G139" s="26"/>
+      <c r="H139" s="27"/>
+      <c r="I139" s="27"/>
+      <c r="J139" s="31"/>
+      <c r="K139" s="27"/>
+      <c r="L139" s="27"/>
+      <c r="M139" s="27"/>
+      <c r="N139" s="31"/>
+      <c r="O139" s="27"/>
+      <c r="P139" s="27"/>
+      <c r="Q139" s="27"/>
+      <c r="R139" s="27"/>
+      <c r="S139" s="27"/>
+      <c r="T139" s="27"/>
+      <c r="U139" s="27"/>
+      <c r="V139" s="27"/>
+      <c r="W139" s="27"/>
+      <c r="X139" s="27"/>
+      <c r="Y139" s="27"/>
+      <c r="Z139" s="27"/>
+      <c r="AA139" s="27"/>
+      <c r="AB139" s="27"/>
+      <c r="AC139" s="27"/>
+      <c r="AD139" s="27"/>
+      <c r="AE139" s="27"/>
+      <c r="AF139" s="27"/>
+      <c r="AG139" s="27"/>
+      <c r="AH139" s="31"/>
+    </row>
+    <row r="140" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E140" s="16"/>
-      <c r="F140" s="18"/>
-      <c r="G140" s="18" t="s">
-        <v>162</v>
-      </c>
       <c r="H140" s="18"/>
       <c r="I140" s="18"/>
       <c r="J140" s="18"/>
@@ -5581,9 +5494,15 @@
       <c r="AH140" s="18"/>
       <c r="AI140" s="18"/>
     </row>
-    <row r="141" spans="5:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E141" s="16"/>
-      <c r="F141" s="18"/>
+      <c r="F141" s="22" t="str">
+        <f>$E$108&amp;"3."</f>
+        <v>7.3.4.4.3.</v>
+      </c>
+      <c r="G141" s="18" t="s">
+        <v>141</v>
+      </c>
       <c r="H141" s="18"/>
       <c r="I141" s="18"/>
       <c r="J141" s="18"/>
@@ -5613,12 +5532,10 @@
       <c r="AH141" s="18"/>
       <c r="AI141" s="18"/>
     </row>
-    <row r="142" spans="5:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E142" s="16"/>
       <c r="F142" s="18"/>
-      <c r="G142" s="18" t="s">
-        <v>163</v>
-      </c>
+      <c r="G142" s="18"/>
       <c r="H142" s="18"/>
       <c r="I142" s="18"/>
       <c r="J142" s="18"/>
@@ -5648,11 +5565,11 @@
       <c r="AH142" s="18"/>
       <c r="AI142" s="18"/>
     </row>
-    <row r="143" spans="5:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E143" s="16"/>
       <c r="F143" s="18"/>
       <c r="G143" s="18" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="H143" s="18"/>
       <c r="I143" s="18"/>
@@ -5683,10 +5600,12 @@
       <c r="AH143" s="18"/>
       <c r="AI143" s="18"/>
     </row>
-    <row r="144" spans="5:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E144" s="16"/>
       <c r="F144" s="18"/>
-      <c r="G144" s="18"/>
+      <c r="G144" s="18" t="s">
+        <v>160</v>
+      </c>
       <c r="H144" s="18"/>
       <c r="I144" s="18"/>
       <c r="J144" s="18"/>
@@ -5717,10 +5636,8 @@
       <c r="AI144" s="18"/>
     </row>
     <row r="145" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D145" s="16"/>
-      <c r="E145" s="18"/>
+      <c r="E145" s="16"/>
       <c r="F145" s="18"/>
-      <c r="G145" s="18"/>
       <c r="H145" s="18"/>
       <c r="I145" s="18"/>
       <c r="J145" s="18"/>
@@ -5751,655 +5668,637 @@
       <c r="AI145" s="18"/>
     </row>
     <row r="146" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E146" s="22" t="str">
-        <f>D75&amp;"5."</f>
+      <c r="E146" s="16"/>
+      <c r="F146" s="18"/>
+      <c r="G146" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="H146" s="18"/>
+      <c r="I146" s="18"/>
+      <c r="J146" s="18"/>
+      <c r="K146" s="18"/>
+      <c r="L146" s="18"/>
+      <c r="M146" s="18"/>
+      <c r="N146" s="18"/>
+      <c r="O146" s="18"/>
+      <c r="P146" s="18"/>
+      <c r="Q146" s="18"/>
+      <c r="R146" s="18"/>
+      <c r="S146" s="18"/>
+      <c r="T146" s="18"/>
+      <c r="U146" s="18"/>
+      <c r="V146" s="18"/>
+      <c r="W146" s="18"/>
+      <c r="X146" s="18"/>
+      <c r="Y146" s="18"/>
+      <c r="Z146" s="18"/>
+      <c r="AA146" s="18"/>
+      <c r="AB146" s="18"/>
+      <c r="AC146" s="18"/>
+      <c r="AD146" s="18"/>
+      <c r="AE146" s="18"/>
+      <c r="AF146" s="18"/>
+      <c r="AG146" s="18"/>
+      <c r="AH146" s="18"/>
+      <c r="AI146" s="18"/>
+    </row>
+    <row r="147" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E147" s="16"/>
+      <c r="F147" s="18"/>
+      <c r="G147" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="H147" s="18"/>
+      <c r="I147" s="18"/>
+      <c r="J147" s="18"/>
+      <c r="K147" s="18"/>
+      <c r="L147" s="18"/>
+      <c r="M147" s="18"/>
+      <c r="N147" s="18"/>
+      <c r="O147" s="18"/>
+      <c r="P147" s="18"/>
+      <c r="Q147" s="18"/>
+      <c r="R147" s="18"/>
+      <c r="S147" s="18"/>
+      <c r="T147" s="18"/>
+      <c r="U147" s="18"/>
+      <c r="V147" s="18"/>
+      <c r="W147" s="18"/>
+      <c r="X147" s="18"/>
+      <c r="Y147" s="18"/>
+      <c r="Z147" s="18"/>
+      <c r="AA147" s="18"/>
+      <c r="AB147" s="18"/>
+      <c r="AC147" s="18"/>
+      <c r="AD147" s="18"/>
+      <c r="AE147" s="18"/>
+      <c r="AF147" s="18"/>
+      <c r="AG147" s="18"/>
+      <c r="AH147" s="18"/>
+      <c r="AI147" s="18"/>
+    </row>
+    <row r="148" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E148" s="16"/>
+      <c r="F148" s="18"/>
+      <c r="G148" s="18"/>
+      <c r="H148" s="18"/>
+      <c r="I148" s="18"/>
+      <c r="J148" s="18"/>
+      <c r="K148" s="18"/>
+      <c r="L148" s="18"/>
+      <c r="M148" s="18"/>
+      <c r="N148" s="18"/>
+      <c r="O148" s="18"/>
+      <c r="P148" s="18"/>
+      <c r="Q148" s="18"/>
+      <c r="R148" s="18"/>
+      <c r="S148" s="18"/>
+      <c r="T148" s="18"/>
+      <c r="U148" s="18"/>
+      <c r="V148" s="18"/>
+      <c r="W148" s="18"/>
+      <c r="X148" s="18"/>
+      <c r="Y148" s="18"/>
+      <c r="Z148" s="18"/>
+      <c r="AA148" s="18"/>
+      <c r="AB148" s="18"/>
+      <c r="AC148" s="18"/>
+      <c r="AD148" s="18"/>
+      <c r="AE148" s="18"/>
+      <c r="AF148" s="18"/>
+      <c r="AG148" s="18"/>
+      <c r="AH148" s="18"/>
+      <c r="AI148" s="18"/>
+    </row>
+    <row r="149" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D149" s="16"/>
+      <c r="E149" s="18"/>
+      <c r="F149" s="18"/>
+      <c r="G149" s="18"/>
+      <c r="H149" s="18"/>
+      <c r="I149" s="18"/>
+      <c r="J149" s="18"/>
+      <c r="K149" s="18"/>
+      <c r="L149" s="18"/>
+      <c r="M149" s="18"/>
+      <c r="N149" s="18"/>
+      <c r="O149" s="18"/>
+      <c r="P149" s="18"/>
+      <c r="Q149" s="18"/>
+      <c r="R149" s="18"/>
+      <c r="S149" s="18"/>
+      <c r="T149" s="18"/>
+      <c r="U149" s="18"/>
+      <c r="V149" s="18"/>
+      <c r="W149" s="18"/>
+      <c r="X149" s="18"/>
+      <c r="Y149" s="18"/>
+      <c r="Z149" s="18"/>
+      <c r="AA149" s="18"/>
+      <c r="AB149" s="18"/>
+      <c r="AC149" s="18"/>
+      <c r="AD149" s="18"/>
+      <c r="AE149" s="18"/>
+      <c r="AF149" s="18"/>
+      <c r="AG149" s="18"/>
+      <c r="AH149" s="18"/>
+      <c r="AI149" s="18"/>
+    </row>
+    <row r="150" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E150" s="22" t="str">
+        <f>D79&amp;"5."</f>
         <v>7.3.4.5.</v>
       </c>
-      <c r="F146" s="17" t="s">
+      <c r="F150" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G146" s="17"/>
-      <c r="H146" s="17"/>
-      <c r="I146" s="17"/>
-      <c r="J146" s="17"/>
-      <c r="K146" s="17"/>
-      <c r="L146" s="17"/>
-      <c r="M146" s="17"/>
-      <c r="N146" s="17"/>
-      <c r="O146" s="17"/>
-      <c r="P146" s="17"/>
-      <c r="Q146" s="17"/>
-      <c r="R146" s="17"/>
-      <c r="S146" s="17"/>
-      <c r="T146" s="17"/>
-      <c r="U146" s="17"/>
-      <c r="V146" s="17"/>
-      <c r="W146" s="17"/>
-      <c r="X146" s="17"/>
-      <c r="Y146" s="17"/>
-      <c r="Z146" s="17"/>
-      <c r="AA146" s="17"/>
-      <c r="AB146" s="17"/>
-      <c r="AC146" s="17"/>
-      <c r="AD146" s="17"/>
-      <c r="AE146" s="17"/>
-      <c r="AF146" s="17"/>
-      <c r="AG146" s="17"/>
-      <c r="AH146" s="17"/>
-      <c r="AI146" s="17"/>
-    </row>
-    <row r="147" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E147" s="22"/>
-      <c r="F147" s="22" t="str">
-        <f>E146&amp;"1."</f>
+      <c r="G150" s="17"/>
+      <c r="H150" s="17"/>
+      <c r="I150" s="17"/>
+      <c r="J150" s="17"/>
+      <c r="K150" s="17"/>
+      <c r="L150" s="17"/>
+      <c r="M150" s="17"/>
+      <c r="N150" s="17"/>
+      <c r="O150" s="17"/>
+      <c r="P150" s="17"/>
+      <c r="Q150" s="17"/>
+      <c r="R150" s="17"/>
+      <c r="S150" s="17"/>
+      <c r="T150" s="17"/>
+      <c r="U150" s="17"/>
+      <c r="V150" s="17"/>
+      <c r="W150" s="17"/>
+      <c r="X150" s="17"/>
+      <c r="Y150" s="17"/>
+      <c r="Z150" s="17"/>
+      <c r="AA150" s="17"/>
+      <c r="AB150" s="17"/>
+      <c r="AC150" s="17"/>
+      <c r="AD150" s="17"/>
+      <c r="AE150" s="17"/>
+      <c r="AF150" s="17"/>
+      <c r="AG150" s="17"/>
+      <c r="AH150" s="17"/>
+      <c r="AI150" s="17"/>
+    </row>
+    <row r="151" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E151" s="22"/>
+      <c r="F151" s="22" t="str">
+        <f>E150&amp;"1."</f>
         <v>7.3.4.5.1.</v>
       </c>
-      <c r="G147" s="21" t="str">
-        <f>F146&amp;"機能概要"</f>
+      <c r="G151" s="21" t="str">
+        <f>F150&amp;"機能概要"</f>
         <v>データクリーニング機能概要</v>
       </c>
     </row>
-    <row r="148" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E148" s="22"/>
-      <c r="F148" s="22"/>
-      <c r="G148" s="21" t="s">
+    <row r="152" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E152" s="22"/>
+      <c r="F152" s="22"/>
+      <c r="G152" s="21" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="149" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E149" s="22"/>
-      <c r="F149" s="22"/>
-      <c r="G149" s="21" t="s">
+    <row r="153" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E153" s="22"/>
+      <c r="F153" s="22"/>
+      <c r="G153" s="21" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="150" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="151" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F151" s="22" t="str">
-        <f>E146&amp;"2."</f>
+    <row r="154" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F155" s="22" t="str">
+        <f>E150&amp;"2."</f>
         <v>7.3.4.5.2.</v>
       </c>
-      <c r="G151" s="21" t="str">
-        <f>F146&amp;"方法"</f>
+      <c r="G155" s="21" t="str">
+        <f>F150&amp;"方法"</f>
         <v>データクリーニング方法</v>
       </c>
     </row>
-    <row r="152" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G152" s="21" t="str">
-        <f>F146&amp;"を行う機能には、以下の方法がある。"</f>
+    <row r="156" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G156" s="21" t="str">
+        <f>F150&amp;"を行う機能には、以下の方法がある。"</f>
         <v>データクリーニングを行う機能には、以下の方法がある。</v>
       </c>
     </row>
-    <row r="153" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="154" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C154" s="20"/>
-      <c r="D154" s="20"/>
-      <c r="E154" s="20"/>
-      <c r="G154" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="H154" s="33"/>
-      <c r="I154" s="33"/>
-      <c r="J154" s="33"/>
-      <c r="K154" s="34"/>
-      <c r="L154" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="M154" s="33"/>
-      <c r="N154" s="33"/>
-      <c r="O154" s="33"/>
-      <c r="P154" s="33"/>
-      <c r="Q154" s="33"/>
-      <c r="R154" s="33"/>
-      <c r="S154" s="33"/>
-      <c r="T154" s="33"/>
-      <c r="U154" s="33"/>
-      <c r="V154" s="33"/>
-      <c r="W154" s="33"/>
-      <c r="X154" s="33"/>
-      <c r="Y154" s="33"/>
-      <c r="Z154" s="33"/>
-      <c r="AA154" s="33"/>
-      <c r="AB154" s="33"/>
-      <c r="AC154" s="33"/>
-      <c r="AD154" s="33"/>
-      <c r="AE154" s="33"/>
-      <c r="AF154" s="33"/>
-      <c r="AG154" s="33"/>
-      <c r="AH154" s="34"/>
-    </row>
-    <row r="155" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C155" s="20"/>
-      <c r="D155" s="20"/>
-      <c r="E155" s="20"/>
-      <c r="G155" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="H155" s="29"/>
-      <c r="I155" s="29"/>
-      <c r="J155" s="29"/>
-      <c r="K155" s="29"/>
-      <c r="L155" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="M155" s="29"/>
-      <c r="N155" s="29"/>
-      <c r="O155" s="29"/>
-      <c r="P155" s="29"/>
-      <c r="Q155" s="29"/>
-      <c r="R155" s="29"/>
-      <c r="S155" s="29"/>
-      <c r="T155" s="29"/>
-      <c r="U155" s="29"/>
-      <c r="V155" s="29"/>
-      <c r="W155" s="29"/>
-      <c r="X155" s="29"/>
-      <c r="Y155" s="29"/>
-      <c r="Z155" s="29"/>
-      <c r="AA155" s="29"/>
-      <c r="AB155" s="29"/>
-      <c r="AC155" s="29"/>
-      <c r="AD155" s="29"/>
-      <c r="AE155" s="29"/>
-      <c r="AF155" s="29"/>
-      <c r="AG155" s="29"/>
-      <c r="AH155" s="30"/>
-    </row>
-    <row r="156" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C156" s="20"/>
-      <c r="D156" s="20"/>
-      <c r="E156" s="20"/>
-      <c r="G156" s="23"/>
-      <c r="H156" s="24"/>
-      <c r="I156" s="24"/>
-      <c r="J156" s="24"/>
-      <c r="K156" s="24"/>
-      <c r="L156" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="M156" s="24"/>
-      <c r="N156" s="24"/>
-      <c r="O156" s="24"/>
-      <c r="P156" s="24"/>
-      <c r="Q156" s="24"/>
-      <c r="R156" s="24"/>
-      <c r="S156" s="24"/>
-      <c r="T156" s="24"/>
-      <c r="U156" s="24"/>
-      <c r="V156" s="24"/>
-      <c r="W156" s="24"/>
-      <c r="X156" s="24"/>
-      <c r="Y156" s="24"/>
-      <c r="Z156" s="24"/>
-      <c r="AA156" s="24"/>
-      <c r="AB156" s="24"/>
-      <c r="AC156" s="24"/>
-      <c r="AD156" s="24"/>
-      <c r="AE156" s="24"/>
-      <c r="AF156" s="24"/>
-      <c r="AG156" s="24"/>
-      <c r="AH156" s="25"/>
-    </row>
-    <row r="157" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C157" s="20"/>
-      <c r="D157" s="20"/>
-      <c r="E157" s="20"/>
-      <c r="G157" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="H157" s="29"/>
-      <c r="I157" s="29"/>
-      <c r="J157" s="29"/>
-      <c r="K157" s="29"/>
-      <c r="L157" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="M157" s="29"/>
-      <c r="N157" s="29"/>
-      <c r="O157" s="29"/>
-      <c r="P157" s="29"/>
-      <c r="Q157" s="29"/>
-      <c r="R157" s="29"/>
-      <c r="S157" s="29"/>
-      <c r="T157" s="29"/>
-      <c r="U157" s="29"/>
-      <c r="V157" s="29"/>
-      <c r="W157" s="29"/>
-      <c r="X157" s="29"/>
-      <c r="Y157" s="29"/>
-      <c r="Z157" s="29"/>
-      <c r="AA157" s="29"/>
-      <c r="AB157" s="29"/>
-      <c r="AC157" s="29"/>
-      <c r="AD157" s="29"/>
-      <c r="AE157" s="29"/>
-      <c r="AF157" s="29"/>
-      <c r="AG157" s="29"/>
-      <c r="AH157" s="30"/>
-    </row>
+    <row r="157" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="158" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C158" s="20"/>
       <c r="D158" s="20"/>
       <c r="E158" s="20"/>
-      <c r="G158" s="23"/>
-      <c r="H158" s="24"/>
-      <c r="I158" s="24"/>
-      <c r="J158" s="24"/>
-      <c r="K158" s="24"/>
-      <c r="L158" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="M158" s="24"/>
-      <c r="N158" s="24"/>
-      <c r="O158" s="24"/>
-      <c r="P158" s="24"/>
-      <c r="Q158" s="24"/>
-      <c r="R158" s="24"/>
-      <c r="S158" s="24"/>
-      <c r="T158" s="24"/>
-      <c r="U158" s="24"/>
-      <c r="V158" s="24"/>
-      <c r="W158" s="24"/>
-      <c r="X158" s="24"/>
-      <c r="Y158" s="24"/>
-      <c r="Z158" s="24"/>
-      <c r="AA158" s="24"/>
-      <c r="AB158" s="24"/>
-      <c r="AC158" s="24"/>
-      <c r="AD158" s="24"/>
-      <c r="AE158" s="24"/>
-      <c r="AF158" s="24"/>
-      <c r="AG158" s="24"/>
-      <c r="AH158" s="25"/>
+      <c r="G158" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="H158" s="33"/>
+      <c r="I158" s="33"/>
+      <c r="J158" s="33"/>
+      <c r="K158" s="34"/>
+      <c r="L158" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="M158" s="33"/>
+      <c r="N158" s="33"/>
+      <c r="O158" s="33"/>
+      <c r="P158" s="33"/>
+      <c r="Q158" s="33"/>
+      <c r="R158" s="33"/>
+      <c r="S158" s="33"/>
+      <c r="T158" s="33"/>
+      <c r="U158" s="33"/>
+      <c r="V158" s="33"/>
+      <c r="W158" s="33"/>
+      <c r="X158" s="33"/>
+      <c r="Y158" s="33"/>
+      <c r="Z158" s="33"/>
+      <c r="AA158" s="33"/>
+      <c r="AB158" s="33"/>
+      <c r="AC158" s="33"/>
+      <c r="AD158" s="33"/>
+      <c r="AE158" s="33"/>
+      <c r="AF158" s="33"/>
+      <c r="AG158" s="33"/>
+      <c r="AH158" s="34"/>
     </row>
     <row r="159" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C159" s="20"/>
       <c r="D159" s="20"/>
       <c r="E159" s="20"/>
-      <c r="G159" s="23"/>
-      <c r="H159" s="24"/>
-      <c r="I159" s="24"/>
-      <c r="J159" s="24"/>
-      <c r="K159" s="24"/>
-      <c r="L159" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="M159" s="24"/>
-      <c r="N159" s="24"/>
-      <c r="O159" s="24"/>
-      <c r="P159" s="24"/>
-      <c r="Q159" s="24"/>
-      <c r="R159" s="24"/>
-      <c r="S159" s="24"/>
-      <c r="T159" s="24"/>
-      <c r="U159" s="24"/>
-      <c r="V159" s="24"/>
-      <c r="W159" s="24"/>
-      <c r="X159" s="24"/>
-      <c r="Y159" s="24"/>
-      <c r="Z159" s="24"/>
-      <c r="AA159" s="24"/>
-      <c r="AB159" s="24"/>
-      <c r="AC159" s="24"/>
-      <c r="AD159" s="24"/>
-      <c r="AE159" s="24"/>
-      <c r="AF159" s="24"/>
-      <c r="AG159" s="24"/>
-      <c r="AH159" s="25"/>
+      <c r="G159" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="H159" s="29"/>
+      <c r="I159" s="29"/>
+      <c r="J159" s="29"/>
+      <c r="K159" s="29"/>
+      <c r="L159" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="M159" s="29"/>
+      <c r="N159" s="29"/>
+      <c r="O159" s="29"/>
+      <c r="P159" s="29"/>
+      <c r="Q159" s="29"/>
+      <c r="R159" s="29"/>
+      <c r="S159" s="29"/>
+      <c r="T159" s="29"/>
+      <c r="U159" s="29"/>
+      <c r="V159" s="29"/>
+      <c r="W159" s="29"/>
+      <c r="X159" s="29"/>
+      <c r="Y159" s="29"/>
+      <c r="Z159" s="29"/>
+      <c r="AA159" s="29"/>
+      <c r="AB159" s="29"/>
+      <c r="AC159" s="29"/>
+      <c r="AD159" s="29"/>
+      <c r="AE159" s="29"/>
+      <c r="AF159" s="29"/>
+      <c r="AG159" s="29"/>
+      <c r="AH159" s="30"/>
     </row>
     <row r="160" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C160" s="20"/>
       <c r="D160" s="20"/>
       <c r="E160" s="20"/>
-      <c r="G160" s="26"/>
-      <c r="H160" s="27"/>
-      <c r="I160" s="27"/>
-      <c r="J160" s="27"/>
-      <c r="K160" s="27"/>
-      <c r="L160" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="M160" s="27"/>
-      <c r="N160" s="27"/>
-      <c r="O160" s="27"/>
-      <c r="P160" s="27"/>
-      <c r="Q160" s="27"/>
-      <c r="R160" s="27"/>
-      <c r="S160" s="27"/>
-      <c r="T160" s="27"/>
-      <c r="U160" s="27"/>
-      <c r="V160" s="27"/>
-      <c r="W160" s="27"/>
-      <c r="X160" s="27"/>
-      <c r="Y160" s="27"/>
-      <c r="Z160" s="27"/>
-      <c r="AA160" s="27"/>
-      <c r="AB160" s="27"/>
-      <c r="AC160" s="27"/>
-      <c r="AD160" s="27"/>
-      <c r="AE160" s="27"/>
-      <c r="AF160" s="27"/>
-      <c r="AG160" s="27"/>
-      <c r="AH160" s="31"/>
+      <c r="G160" s="23"/>
+      <c r="H160" s="24"/>
+      <c r="I160" s="24"/>
+      <c r="J160" s="24"/>
+      <c r="K160" s="24"/>
+      <c r="L160" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="M160" s="24"/>
+      <c r="N160" s="24"/>
+      <c r="O160" s="24"/>
+      <c r="P160" s="24"/>
+      <c r="Q160" s="24"/>
+      <c r="R160" s="24"/>
+      <c r="S160" s="24"/>
+      <c r="T160" s="24"/>
+      <c r="U160" s="24"/>
+      <c r="V160" s="24"/>
+      <c r="W160" s="24"/>
+      <c r="X160" s="24"/>
+      <c r="Y160" s="24"/>
+      <c r="Z160" s="24"/>
+      <c r="AA160" s="24"/>
+      <c r="AB160" s="24"/>
+      <c r="AC160" s="24"/>
+      <c r="AD160" s="24"/>
+      <c r="AE160" s="24"/>
+      <c r="AF160" s="24"/>
+      <c r="AG160" s="24"/>
+      <c r="AH160" s="25"/>
     </row>
     <row r="161" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C161" s="20"/>
       <c r="D161" s="20"/>
       <c r="E161" s="20"/>
-      <c r="G161" s="24"/>
-      <c r="H161" s="24"/>
-      <c r="I161" s="24"/>
-      <c r="J161" s="24"/>
-      <c r="K161" s="24"/>
-      <c r="L161" s="24"/>
-      <c r="M161" s="24"/>
-      <c r="N161" s="24"/>
-      <c r="O161" s="24"/>
-      <c r="P161" s="24"/>
-      <c r="Q161" s="24"/>
-      <c r="R161" s="24"/>
-      <c r="S161" s="24"/>
-      <c r="T161" s="24"/>
-      <c r="U161" s="24"/>
-      <c r="V161" s="24"/>
-      <c r="W161" s="24"/>
-      <c r="X161" s="24"/>
-      <c r="Y161" s="24"/>
-      <c r="Z161" s="24"/>
-      <c r="AA161" s="24"/>
-      <c r="AB161" s="24"/>
-      <c r="AC161" s="24"/>
-      <c r="AD161" s="24"/>
-      <c r="AE161" s="24"/>
-      <c r="AF161" s="24"/>
-      <c r="AG161" s="24"/>
-      <c r="AH161" s="24"/>
-      <c r="AI161" s="24"/>
+      <c r="G161" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="H161" s="29"/>
+      <c r="I161" s="29"/>
+      <c r="J161" s="29"/>
+      <c r="K161" s="29"/>
+      <c r="L161" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="M161" s="29"/>
+      <c r="N161" s="29"/>
+      <c r="O161" s="29"/>
+      <c r="P161" s="29"/>
+      <c r="Q161" s="29"/>
+      <c r="R161" s="29"/>
+      <c r="S161" s="29"/>
+      <c r="T161" s="29"/>
+      <c r="U161" s="29"/>
+      <c r="V161" s="29"/>
+      <c r="W161" s="29"/>
+      <c r="X161" s="29"/>
+      <c r="Y161" s="29"/>
+      <c r="Z161" s="29"/>
+      <c r="AA161" s="29"/>
+      <c r="AB161" s="29"/>
+      <c r="AC161" s="29"/>
+      <c r="AD161" s="29"/>
+      <c r="AE161" s="29"/>
+      <c r="AF161" s="29"/>
+      <c r="AG161" s="29"/>
+      <c r="AH161" s="30"/>
     </row>
     <row r="162" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C162" s="20"/>
       <c r="D162" s="20"/>
       <c r="E162" s="20"/>
-      <c r="G162" s="21" t="s">
+      <c r="G162" s="23"/>
+      <c r="H162" s="24"/>
+      <c r="I162" s="24"/>
+      <c r="J162" s="24"/>
+      <c r="K162" s="24"/>
+      <c r="L162" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="M162" s="24"/>
+      <c r="N162" s="24"/>
+      <c r="O162" s="24"/>
+      <c r="P162" s="24"/>
+      <c r="Q162" s="24"/>
+      <c r="R162" s="24"/>
+      <c r="S162" s="24"/>
+      <c r="T162" s="24"/>
+      <c r="U162" s="24"/>
+      <c r="V162" s="24"/>
+      <c r="W162" s="24"/>
+      <c r="X162" s="24"/>
+      <c r="Y162" s="24"/>
+      <c r="Z162" s="24"/>
+      <c r="AA162" s="24"/>
+      <c r="AB162" s="24"/>
+      <c r="AC162" s="24"/>
+      <c r="AD162" s="24"/>
+      <c r="AE162" s="24"/>
+      <c r="AF162" s="24"/>
+      <c r="AG162" s="24"/>
+      <c r="AH162" s="25"/>
+    </row>
+    <row r="163" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C163" s="20"/>
+      <c r="D163" s="20"/>
+      <c r="E163" s="20"/>
+      <c r="G163" s="23"/>
+      <c r="H163" s="24"/>
+      <c r="I163" s="24"/>
+      <c r="J163" s="24"/>
+      <c r="K163" s="24"/>
+      <c r="L163" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="M163" s="24"/>
+      <c r="N163" s="24"/>
+      <c r="O163" s="24"/>
+      <c r="P163" s="24"/>
+      <c r="Q163" s="24"/>
+      <c r="R163" s="24"/>
+      <c r="S163" s="24"/>
+      <c r="T163" s="24"/>
+      <c r="U163" s="24"/>
+      <c r="V163" s="24"/>
+      <c r="W163" s="24"/>
+      <c r="X163" s="24"/>
+      <c r="Y163" s="24"/>
+      <c r="Z163" s="24"/>
+      <c r="AA163" s="24"/>
+      <c r="AB163" s="24"/>
+      <c r="AC163" s="24"/>
+      <c r="AD163" s="24"/>
+      <c r="AE163" s="24"/>
+      <c r="AF163" s="24"/>
+      <c r="AG163" s="24"/>
+      <c r="AH163" s="25"/>
+    </row>
+    <row r="164" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C164" s="20"/>
+      <c r="D164" s="20"/>
+      <c r="E164" s="20"/>
+      <c r="G164" s="26"/>
+      <c r="H164" s="27"/>
+      <c r="I164" s="27"/>
+      <c r="J164" s="27"/>
+      <c r="K164" s="27"/>
+      <c r="L164" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="M164" s="27"/>
+      <c r="N164" s="27"/>
+      <c r="O164" s="27"/>
+      <c r="P164" s="27"/>
+      <c r="Q164" s="27"/>
+      <c r="R164" s="27"/>
+      <c r="S164" s="27"/>
+      <c r="T164" s="27"/>
+      <c r="U164" s="27"/>
+      <c r="V164" s="27"/>
+      <c r="W164" s="27"/>
+      <c r="X164" s="27"/>
+      <c r="Y164" s="27"/>
+      <c r="Z164" s="27"/>
+      <c r="AA164" s="27"/>
+      <c r="AB164" s="27"/>
+      <c r="AC164" s="27"/>
+      <c r="AD164" s="27"/>
+      <c r="AE164" s="27"/>
+      <c r="AF164" s="27"/>
+      <c r="AG164" s="27"/>
+      <c r="AH164" s="31"/>
+    </row>
+    <row r="165" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C165" s="20"/>
+      <c r="D165" s="20"/>
+      <c r="E165" s="20"/>
+      <c r="G165" s="24"/>
+      <c r="H165" s="24"/>
+      <c r="I165" s="24"/>
+      <c r="J165" s="24"/>
+      <c r="K165" s="24"/>
+      <c r="L165" s="24"/>
+      <c r="M165" s="24"/>
+      <c r="N165" s="24"/>
+      <c r="O165" s="24"/>
+      <c r="P165" s="24"/>
+      <c r="Q165" s="24"/>
+      <c r="R165" s="24"/>
+      <c r="S165" s="24"/>
+      <c r="T165" s="24"/>
+      <c r="U165" s="24"/>
+      <c r="V165" s="24"/>
+      <c r="W165" s="24"/>
+      <c r="X165" s="24"/>
+      <c r="Y165" s="24"/>
+      <c r="Z165" s="24"/>
+      <c r="AA165" s="24"/>
+      <c r="AB165" s="24"/>
+      <c r="AC165" s="24"/>
+      <c r="AD165" s="24"/>
+      <c r="AE165" s="24"/>
+      <c r="AF165" s="24"/>
+      <c r="AG165" s="24"/>
+      <c r="AH165" s="24"/>
+      <c r="AI165" s="24"/>
+    </row>
+    <row r="166" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C166" s="20"/>
+      <c r="D166" s="20"/>
+      <c r="E166" s="20"/>
+      <c r="G166" s="21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="163" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G163" s="32" t="str">
-        <f>G154</f>
+    <row r="167" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G167" s="32" t="str">
+        <f>G158</f>
         <v>方法</v>
       </c>
-      <c r="H163" s="33"/>
-      <c r="I163" s="33"/>
-      <c r="J163" s="33"/>
-      <c r="K163" s="34"/>
-      <c r="L163" s="33" t="s">
+      <c r="H167" s="33"/>
+      <c r="I167" s="33"/>
+      <c r="J167" s="33"/>
+      <c r="K167" s="34"/>
+      <c r="L167" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="M163" s="33"/>
-      <c r="N163" s="33"/>
-      <c r="O163" s="34"/>
-      <c r="P163" s="33" t="s">
+      <c r="M167" s="33"/>
+      <c r="N167" s="33"/>
+      <c r="O167" s="34"/>
+      <c r="P167" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="Q163" s="33"/>
-      <c r="R163" s="33"/>
-      <c r="S163" s="33"/>
-      <c r="T163" s="33"/>
-      <c r="U163" s="33"/>
-      <c r="V163" s="33"/>
-      <c r="W163" s="33"/>
-      <c r="X163" s="33"/>
-      <c r="Y163" s="33"/>
-      <c r="Z163" s="33"/>
-      <c r="AA163" s="33"/>
-      <c r="AB163" s="33"/>
-      <c r="AC163" s="33"/>
-      <c r="AD163" s="33"/>
-      <c r="AE163" s="33"/>
-      <c r="AF163" s="33"/>
-      <c r="AG163" s="33"/>
-      <c r="AH163" s="34"/>
-    </row>
-    <row r="164" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G164" s="23" t="str">
-        <f>G155</f>
+      <c r="Q167" s="33"/>
+      <c r="R167" s="33"/>
+      <c r="S167" s="33"/>
+      <c r="T167" s="33"/>
+      <c r="U167" s="33"/>
+      <c r="V167" s="33"/>
+      <c r="W167" s="33"/>
+      <c r="X167" s="33"/>
+      <c r="Y167" s="33"/>
+      <c r="Z167" s="33"/>
+      <c r="AA167" s="33"/>
+      <c r="AB167" s="33"/>
+      <c r="AC167" s="33"/>
+      <c r="AD167" s="33"/>
+      <c r="AE167" s="33"/>
+      <c r="AF167" s="33"/>
+      <c r="AG167" s="33"/>
+      <c r="AH167" s="34"/>
+    </row>
+    <row r="168" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G168" s="23" t="str">
+        <f>G159</f>
         <v>物理削除</v>
       </c>
-      <c r="H164" s="24"/>
-      <c r="I164" s="24"/>
-      <c r="J164" s="24"/>
-      <c r="K164" s="25"/>
-      <c r="L164" s="24" t="s">
+      <c r="H168" s="24"/>
+      <c r="I168" s="24"/>
+      <c r="J168" s="24"/>
+      <c r="K168" s="25"/>
+      <c r="L168" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="M164" s="24"/>
-      <c r="N164" s="24"/>
-      <c r="O164" s="25"/>
-      <c r="P164" s="24" t="s">
+      <c r="M168" s="24"/>
+      <c r="N168" s="24"/>
+      <c r="O168" s="25"/>
+      <c r="P168" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="Q164" s="24"/>
-      <c r="R164" s="24"/>
-      <c r="S164" s="24"/>
-      <c r="T164" s="24"/>
-      <c r="U164" s="24"/>
-      <c r="V164" s="24"/>
-      <c r="W164" s="24"/>
-      <c r="X164" s="24"/>
-      <c r="Y164" s="24"/>
-      <c r="Z164" s="24"/>
-      <c r="AA164" s="24"/>
-      <c r="AB164" s="24"/>
-      <c r="AC164" s="24"/>
-      <c r="AD164" s="24"/>
-      <c r="AE164" s="24"/>
-      <c r="AF164" s="24"/>
-      <c r="AG164" s="24"/>
-      <c r="AH164" s="25"/>
-    </row>
-    <row r="165" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G165" s="45" t="str">
-        <f>G157</f>
+      <c r="Q168" s="24"/>
+      <c r="R168" s="24"/>
+      <c r="S168" s="24"/>
+      <c r="T168" s="24"/>
+      <c r="U168" s="24"/>
+      <c r="V168" s="24"/>
+      <c r="W168" s="24"/>
+      <c r="X168" s="24"/>
+      <c r="Y168" s="24"/>
+      <c r="Z168" s="24"/>
+      <c r="AA168" s="24"/>
+      <c r="AB168" s="24"/>
+      <c r="AC168" s="24"/>
+      <c r="AD168" s="24"/>
+      <c r="AE168" s="24"/>
+      <c r="AF168" s="24"/>
+      <c r="AG168" s="24"/>
+      <c r="AH168" s="25"/>
+    </row>
+    <row r="169" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G169" s="45" t="str">
+        <f>G161</f>
         <v>論理削除</v>
       </c>
-      <c r="H165" s="46"/>
-      <c r="I165" s="46"/>
-      <c r="J165" s="46"/>
-      <c r="K165" s="47"/>
-      <c r="L165" s="46" t="s">
+      <c r="H169" s="46"/>
+      <c r="I169" s="46"/>
+      <c r="J169" s="46"/>
+      <c r="K169" s="47"/>
+      <c r="L169" s="46" t="s">
         <v>109</v>
       </c>
-      <c r="M165" s="46"/>
-      <c r="N165" s="46"/>
-      <c r="O165" s="47"/>
-      <c r="P165" s="46" t="s">
+      <c r="M169" s="46"/>
+      <c r="N169" s="46"/>
+      <c r="O169" s="47"/>
+      <c r="P169" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="Q165" s="46"/>
-      <c r="R165" s="46"/>
-      <c r="S165" s="46"/>
-      <c r="T165" s="46"/>
-      <c r="U165" s="46"/>
-      <c r="V165" s="46"/>
-      <c r="W165" s="46"/>
-      <c r="X165" s="46"/>
-      <c r="Y165" s="46"/>
-      <c r="Z165" s="46"/>
-      <c r="AA165" s="46"/>
-      <c r="AB165" s="46"/>
-      <c r="AC165" s="46"/>
-      <c r="AD165" s="46"/>
-      <c r="AE165" s="46"/>
-      <c r="AF165" s="46"/>
-      <c r="AG165" s="46"/>
-      <c r="AH165" s="47"/>
-    </row>
-    <row r="166" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E166" s="16"/>
-      <c r="F166" s="18"/>
-      <c r="G166" s="18"/>
-      <c r="H166" s="18"/>
-      <c r="I166" s="18"/>
-      <c r="J166" s="18"/>
-      <c r="K166" s="18"/>
-      <c r="L166" s="18"/>
-      <c r="M166" s="18"/>
-      <c r="N166" s="18"/>
-      <c r="O166" s="18"/>
-      <c r="P166" s="18"/>
-      <c r="Q166" s="18"/>
-      <c r="R166" s="18"/>
-      <c r="S166" s="18"/>
-      <c r="T166" s="18"/>
-      <c r="U166" s="18"/>
-      <c r="V166" s="18"/>
-      <c r="W166" s="18"/>
-      <c r="X166" s="18"/>
-      <c r="Y166" s="18"/>
-      <c r="Z166" s="18"/>
-      <c r="AA166" s="18"/>
-      <c r="AB166" s="18"/>
-      <c r="AC166" s="18"/>
-      <c r="AD166" s="18"/>
-      <c r="AE166" s="18"/>
-      <c r="AF166" s="18"/>
-      <c r="AG166" s="18"/>
-      <c r="AH166" s="18"/>
-      <c r="AI166" s="18"/>
-    </row>
-    <row r="167" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D167" s="16"/>
-      <c r="E167" s="18"/>
-      <c r="F167" s="22" t="str">
-        <f>E146&amp;"3."</f>
-        <v>7.3.4.5.3.</v>
-      </c>
-      <c r="G167" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="H167" s="18"/>
-      <c r="I167" s="18"/>
-      <c r="J167" s="18"/>
-      <c r="K167" s="18"/>
-      <c r="L167" s="18"/>
-      <c r="M167" s="18"/>
-      <c r="N167" s="18"/>
-      <c r="O167" s="18"/>
-      <c r="P167" s="18"/>
-      <c r="Q167" s="18"/>
-      <c r="R167" s="18"/>
-      <c r="S167" s="18"/>
-      <c r="T167" s="18"/>
-      <c r="U167" s="18"/>
-      <c r="V167" s="18"/>
-      <c r="W167" s="18"/>
-      <c r="X167" s="18"/>
-      <c r="Y167" s="18"/>
-      <c r="Z167" s="18"/>
-      <c r="AA167" s="18"/>
-      <c r="AB167" s="18"/>
-      <c r="AC167" s="18"/>
-      <c r="AD167" s="18"/>
-      <c r="AE167" s="18"/>
-      <c r="AF167" s="18"/>
-      <c r="AG167" s="18"/>
-      <c r="AH167" s="18"/>
-      <c r="AI167" s="18"/>
-    </row>
-    <row r="168" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D168" s="16"/>
-      <c r="E168" s="18"/>
-      <c r="F168" s="21"/>
-      <c r="G168" s="21"/>
-      <c r="H168" s="18"/>
-      <c r="I168" s="18"/>
-      <c r="J168" s="18"/>
-      <c r="K168" s="18"/>
-      <c r="L168" s="18"/>
-      <c r="M168" s="18"/>
-      <c r="N168" s="18"/>
-      <c r="O168" s="18"/>
-      <c r="P168" s="18"/>
-      <c r="Q168" s="18"/>
-      <c r="R168" s="18"/>
-      <c r="S168" s="18"/>
-      <c r="T168" s="18"/>
-      <c r="U168" s="18"/>
-      <c r="V168" s="18"/>
-      <c r="W168" s="18"/>
-      <c r="X168" s="18"/>
-      <c r="Y168" s="18"/>
-      <c r="Z168" s="18"/>
-      <c r="AA168" s="18"/>
-      <c r="AB168" s="18"/>
-      <c r="AC168" s="18"/>
-      <c r="AD168" s="18"/>
-      <c r="AE168" s="18"/>
-      <c r="AF168" s="18"/>
-      <c r="AG168" s="18"/>
-      <c r="AH168" s="18"/>
-      <c r="AI168" s="18"/>
-    </row>
-    <row r="169" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D169" s="16"/>
-      <c r="E169" s="18"/>
-      <c r="F169" s="18"/>
-      <c r="G169" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="H169" s="37"/>
-      <c r="I169" s="37"/>
-      <c r="J169" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="K169" s="37"/>
-      <c r="L169" s="37"/>
-      <c r="M169" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="N169" s="37"/>
-      <c r="O169" s="37"/>
-      <c r="P169" s="37"/>
-      <c r="Q169" s="37"/>
-      <c r="R169" s="37"/>
-      <c r="S169" s="37"/>
-      <c r="T169" s="37"/>
-      <c r="U169" s="37"/>
-      <c r="V169" s="37"/>
-      <c r="W169" s="37"/>
-      <c r="X169" s="38"/>
-      <c r="Y169" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z169" s="37"/>
-      <c r="AA169" s="37"/>
-      <c r="AB169" s="37"/>
-      <c r="AC169" s="37"/>
-      <c r="AD169" s="37"/>
-      <c r="AE169" s="37"/>
-      <c r="AF169" s="37"/>
-      <c r="AG169" s="37"/>
-      <c r="AH169" s="38"/>
-      <c r="AI169" s="18"/>
-    </row>
-    <row r="170" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D170" s="16"/>
-      <c r="E170" s="18"/>
+      <c r="Q169" s="46"/>
+      <c r="R169" s="46"/>
+      <c r="S169" s="46"/>
+      <c r="T169" s="46"/>
+      <c r="U169" s="46"/>
+      <c r="V169" s="46"/>
+      <c r="W169" s="46"/>
+      <c r="X169" s="46"/>
+      <c r="Y169" s="46"/>
+      <c r="Z169" s="46"/>
+      <c r="AA169" s="46"/>
+      <c r="AB169" s="46"/>
+      <c r="AC169" s="46"/>
+      <c r="AD169" s="46"/>
+      <c r="AE169" s="46"/>
+      <c r="AF169" s="46"/>
+      <c r="AG169" s="46"/>
+      <c r="AH169" s="47"/>
+    </row>
+    <row r="170" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E170" s="16"/>
       <c r="F170" s="18"/>
-      <c r="G170" s="39" t="s">
-        <v>72</v>
-      </c>
+      <c r="G170" s="18"/>
       <c r="H170" s="18"/>
       <c r="I170" s="18"/>
-      <c r="J170" s="39" t="s">
-        <v>82</v>
-      </c>
+      <c r="J170" s="18"/>
       <c r="K170" s="18"/>
       <c r="L170" s="18"/>
-      <c r="M170" s="39" t="s">
-        <v>85</v>
-      </c>
+      <c r="M170" s="18"/>
       <c r="N170" s="18"/>
       <c r="O170" s="18"/>
       <c r="P170" s="18"/>
@@ -6410,10 +6309,8 @@
       <c r="U170" s="18"/>
       <c r="V170" s="18"/>
       <c r="W170" s="18"/>
-      <c r="X170" s="40"/>
-      <c r="Y170" s="18" t="s">
-        <v>89</v>
-      </c>
+      <c r="X170" s="18"/>
+      <c r="Y170" s="18"/>
       <c r="Z170" s="18"/>
       <c r="AA170" s="18"/>
       <c r="AB170" s="18"/>
@@ -6422,22 +6319,25 @@
       <c r="AE170" s="18"/>
       <c r="AF170" s="18"/>
       <c r="AG170" s="18"/>
-      <c r="AH170" s="40"/>
+      <c r="AH170" s="18"/>
       <c r="AI170" s="18"/>
     </row>
-    <row r="171" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D171" s="16"/>
       <c r="E171" s="18"/>
-      <c r="F171" s="18"/>
-      <c r="G171" s="39"/>
+      <c r="F171" s="22" t="str">
+        <f>E150&amp;"3."</f>
+        <v>7.3.4.5.3.</v>
+      </c>
+      <c r="G171" s="21" t="s">
+        <v>49</v>
+      </c>
       <c r="H171" s="18"/>
       <c r="I171" s="18"/>
-      <c r="J171" s="39"/>
+      <c r="J171" s="18"/>
       <c r="K171" s="18"/>
       <c r="L171" s="18"/>
-      <c r="M171" s="39" t="s">
-        <v>104</v>
-      </c>
+      <c r="M171" s="18"/>
       <c r="N171" s="18"/>
       <c r="O171" s="18"/>
       <c r="P171" s="18"/>
@@ -6448,7 +6348,7 @@
       <c r="U171" s="18"/>
       <c r="V171" s="18"/>
       <c r="W171" s="18"/>
-      <c r="X171" s="40"/>
+      <c r="X171" s="18"/>
       <c r="Y171" s="18"/>
       <c r="Z171" s="18"/>
       <c r="AA171" s="18"/>
@@ -6458,314 +6358,321 @@
       <c r="AE171" s="18"/>
       <c r="AF171" s="18"/>
       <c r="AG171" s="18"/>
-      <c r="AH171" s="40"/>
+      <c r="AH171" s="18"/>
       <c r="AI171" s="18"/>
     </row>
     <row r="172" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D172" s="16"/>
       <c r="E172" s="18"/>
-      <c r="F172" s="18"/>
-      <c r="G172" s="39"/>
+      <c r="F172" s="21"/>
+      <c r="G172" s="21"/>
       <c r="H172" s="18"/>
       <c r="I172" s="18"/>
-      <c r="J172" s="53" t="s">
-        <v>83</v>
-      </c>
-      <c r="K172" s="54"/>
-      <c r="L172" s="54"/>
-      <c r="M172" s="53" t="s">
-        <v>86</v>
-      </c>
-      <c r="N172" s="54"/>
-      <c r="O172" s="54"/>
-      <c r="P172" s="54"/>
-      <c r="Q172" s="54"/>
-      <c r="R172" s="54"/>
-      <c r="S172" s="54"/>
-      <c r="T172" s="54"/>
-      <c r="U172" s="54"/>
-      <c r="V172" s="54"/>
-      <c r="W172" s="54"/>
-      <c r="X172" s="55"/>
-      <c r="Y172" s="54" t="s">
-        <v>133</v>
-      </c>
-      <c r="Z172" s="54"/>
-      <c r="AA172" s="54"/>
-      <c r="AB172" s="54"/>
-      <c r="AC172" s="54"/>
-      <c r="AD172" s="54"/>
-      <c r="AE172" s="54"/>
-      <c r="AF172" s="54"/>
-      <c r="AG172" s="54"/>
-      <c r="AH172" s="55"/>
+      <c r="J172" s="18"/>
+      <c r="K172" s="18"/>
+      <c r="L172" s="18"/>
+      <c r="M172" s="18"/>
+      <c r="N172" s="18"/>
+      <c r="O172" s="18"/>
+      <c r="P172" s="18"/>
+      <c r="Q172" s="18"/>
+      <c r="R172" s="18"/>
+      <c r="S172" s="18"/>
+      <c r="T172" s="18"/>
+      <c r="U172" s="18"/>
+      <c r="V172" s="18"/>
+      <c r="W172" s="18"/>
+      <c r="X172" s="18"/>
+      <c r="Y172" s="18"/>
+      <c r="Z172" s="18"/>
+      <c r="AA172" s="18"/>
+      <c r="AB172" s="18"/>
+      <c r="AC172" s="18"/>
+      <c r="AD172" s="18"/>
+      <c r="AE172" s="18"/>
+      <c r="AF172" s="18"/>
+      <c r="AG172" s="18"/>
+      <c r="AH172" s="18"/>
       <c r="AI172" s="18"/>
     </row>
-    <row r="173" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D173" s="16"/>
       <c r="E173" s="18"/>
       <c r="F173" s="18"/>
-      <c r="G173" s="39"/>
-      <c r="H173" s="18"/>
-      <c r="I173" s="18"/>
-      <c r="J173" s="41"/>
-      <c r="K173" s="42"/>
-      <c r="L173" s="42"/>
-      <c r="M173" s="41"/>
-      <c r="N173" s="42"/>
-      <c r="O173" s="42"/>
-      <c r="P173" s="42"/>
-      <c r="Q173" s="42"/>
-      <c r="R173" s="42"/>
-      <c r="S173" s="42"/>
-      <c r="T173" s="42"/>
-      <c r="U173" s="42"/>
-      <c r="V173" s="42"/>
-      <c r="W173" s="42"/>
-      <c r="X173" s="43"/>
-      <c r="Y173" s="42" t="s">
-        <v>135</v>
-      </c>
-      <c r="Z173" s="42"/>
-      <c r="AA173" s="42"/>
-      <c r="AB173" s="42"/>
-      <c r="AC173" s="42"/>
-      <c r="AD173" s="42"/>
-      <c r="AE173" s="42"/>
-      <c r="AF173" s="42"/>
-      <c r="AG173" s="42"/>
-      <c r="AH173" s="43"/>
+      <c r="G173" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="H173" s="37"/>
+      <c r="I173" s="37"/>
+      <c r="J173" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="K173" s="37"/>
+      <c r="L173" s="37"/>
+      <c r="M173" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="N173" s="37"/>
+      <c r="O173" s="37"/>
+      <c r="P173" s="37"/>
+      <c r="Q173" s="37"/>
+      <c r="R173" s="37"/>
+      <c r="S173" s="37"/>
+      <c r="T173" s="37"/>
+      <c r="U173" s="37"/>
+      <c r="V173" s="37"/>
+      <c r="W173" s="37"/>
+      <c r="X173" s="38"/>
+      <c r="Y173" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z173" s="37"/>
+      <c r="AA173" s="37"/>
+      <c r="AB173" s="37"/>
+      <c r="AC173" s="37"/>
+      <c r="AD173" s="37"/>
+      <c r="AE173" s="37"/>
+      <c r="AF173" s="37"/>
+      <c r="AG173" s="37"/>
+      <c r="AH173" s="38"/>
       <c r="AI173" s="18"/>
     </row>
     <row r="174" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D174" s="16"/>
       <c r="E174" s="18"/>
       <c r="F174" s="18"/>
-      <c r="G174" s="39"/>
+      <c r="G174" s="39" t="s">
+        <v>72</v>
+      </c>
       <c r="H174" s="18"/>
       <c r="I174" s="18"/>
-      <c r="J174" s="53" t="s">
-        <v>84</v>
-      </c>
-      <c r="K174" s="54"/>
-      <c r="L174" s="54"/>
-      <c r="M174" s="53" t="s">
-        <v>87</v>
-      </c>
-      <c r="N174" s="54"/>
-      <c r="O174" s="54"/>
-      <c r="P174" s="54"/>
-      <c r="Q174" s="54"/>
-      <c r="R174" s="54"/>
-      <c r="S174" s="54"/>
-      <c r="T174" s="54"/>
-      <c r="U174" s="54"/>
-      <c r="V174" s="54"/>
-      <c r="W174" s="54"/>
-      <c r="X174" s="55"/>
-      <c r="Y174" s="53" t="s">
-        <v>134</v>
-      </c>
-      <c r="Z174" s="54"/>
-      <c r="AA174" s="54"/>
-      <c r="AB174" s="54"/>
-      <c r="AC174" s="54"/>
-      <c r="AD174" s="54"/>
-      <c r="AE174" s="54"/>
-      <c r="AF174" s="54"/>
-      <c r="AG174" s="54"/>
-      <c r="AH174" s="55"/>
+      <c r="J174" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="K174" s="18"/>
+      <c r="L174" s="18"/>
+      <c r="M174" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="N174" s="18"/>
+      <c r="O174" s="18"/>
+      <c r="P174" s="18"/>
+      <c r="Q174" s="18"/>
+      <c r="R174" s="18"/>
+      <c r="S174" s="18"/>
+      <c r="T174" s="18"/>
+      <c r="U174" s="18"/>
+      <c r="V174" s="18"/>
+      <c r="W174" s="18"/>
+      <c r="X174" s="40"/>
+      <c r="Y174" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z174" s="18"/>
+      <c r="AA174" s="18"/>
+      <c r="AB174" s="18"/>
+      <c r="AC174" s="18"/>
+      <c r="AD174" s="18"/>
+      <c r="AE174" s="18"/>
+      <c r="AF174" s="18"/>
+      <c r="AG174" s="18"/>
+      <c r="AH174" s="40"/>
       <c r="AI174" s="18"/>
     </row>
     <row r="175" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D175" s="16"/>
       <c r="E175" s="18"/>
       <c r="F175" s="18"/>
-      <c r="G175" s="41"/>
-      <c r="H175" s="42"/>
-      <c r="I175" s="42"/>
-      <c r="J175" s="41"/>
-      <c r="K175" s="42"/>
-      <c r="L175" s="42"/>
-      <c r="M175" s="41" t="s">
-        <v>88</v>
-      </c>
-      <c r="N175" s="42"/>
-      <c r="O175" s="42"/>
-      <c r="P175" s="42"/>
-      <c r="Q175" s="42"/>
-      <c r="R175" s="42"/>
-      <c r="S175" s="42"/>
-      <c r="T175" s="42"/>
-      <c r="U175" s="42"/>
-      <c r="V175" s="42"/>
-      <c r="W175" s="42"/>
-      <c r="X175" s="43"/>
-      <c r="Y175" s="41" t="s">
-        <v>135</v>
-      </c>
-      <c r="Z175" s="42"/>
-      <c r="AA175" s="42"/>
-      <c r="AB175" s="42"/>
-      <c r="AC175" s="42"/>
-      <c r="AD175" s="42"/>
-      <c r="AE175" s="42"/>
-      <c r="AF175" s="42"/>
-      <c r="AG175" s="42"/>
-      <c r="AH175" s="43"/>
+      <c r="G175" s="39"/>
+      <c r="H175" s="18"/>
+      <c r="I175" s="18"/>
+      <c r="J175" s="39"/>
+      <c r="K175" s="18"/>
+      <c r="L175" s="18"/>
+      <c r="M175" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="N175" s="18"/>
+      <c r="O175" s="18"/>
+      <c r="P175" s="18"/>
+      <c r="Q175" s="18"/>
+      <c r="R175" s="18"/>
+      <c r="S175" s="18"/>
+      <c r="T175" s="18"/>
+      <c r="U175" s="18"/>
+      <c r="V175" s="18"/>
+      <c r="W175" s="18"/>
+      <c r="X175" s="40"/>
+      <c r="Y175" s="18"/>
+      <c r="Z175" s="18"/>
+      <c r="AA175" s="18"/>
+      <c r="AB175" s="18"/>
+      <c r="AC175" s="18"/>
+      <c r="AD175" s="18"/>
+      <c r="AE175" s="18"/>
+      <c r="AF175" s="18"/>
+      <c r="AG175" s="18"/>
+      <c r="AH175" s="40"/>
       <c r="AI175" s="18"/>
     </row>
     <row r="176" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D176" s="16"/>
       <c r="E176" s="18"/>
       <c r="F176" s="18"/>
-      <c r="G176" s="18"/>
+      <c r="G176" s="39"/>
       <c r="H176" s="18"/>
       <c r="I176" s="18"/>
-      <c r="J176" s="18"/>
-      <c r="K176" s="18"/>
-      <c r="L176" s="18"/>
-      <c r="M176" s="18"/>
-      <c r="N176" s="18"/>
-      <c r="O176" s="18"/>
-      <c r="P176" s="18"/>
-      <c r="Q176" s="18"/>
-      <c r="R176" s="18"/>
-      <c r="S176" s="18"/>
-      <c r="T176" s="18"/>
-      <c r="U176" s="18"/>
-      <c r="V176" s="18"/>
-      <c r="W176" s="18"/>
-      <c r="X176" s="18"/>
-      <c r="Y176" s="18"/>
-      <c r="Z176" s="18"/>
-      <c r="AA176" s="18"/>
-      <c r="AB176" s="18"/>
-      <c r="AC176" s="18"/>
-      <c r="AD176" s="18"/>
-      <c r="AE176" s="18"/>
-      <c r="AF176" s="18"/>
-      <c r="AG176" s="18"/>
-      <c r="AH176" s="18"/>
+      <c r="J176" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="K176" s="54"/>
+      <c r="L176" s="54"/>
+      <c r="M176" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="N176" s="54"/>
+      <c r="O176" s="54"/>
+      <c r="P176" s="54"/>
+      <c r="Q176" s="54"/>
+      <c r="R176" s="54"/>
+      <c r="S176" s="54"/>
+      <c r="T176" s="54"/>
+      <c r="U176" s="54"/>
+      <c r="V176" s="54"/>
+      <c r="W176" s="54"/>
+      <c r="X176" s="55"/>
+      <c r="Y176" s="54" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z176" s="54"/>
+      <c r="AA176" s="54"/>
+      <c r="AB176" s="54"/>
+      <c r="AC176" s="54"/>
+      <c r="AD176" s="54"/>
+      <c r="AE176" s="54"/>
+      <c r="AF176" s="54"/>
+      <c r="AG176" s="54"/>
+      <c r="AH176" s="55"/>
       <c r="AI176" s="18"/>
     </row>
-    <row r="177" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D177" s="16"/>
       <c r="E177" s="18"/>
       <c r="F177" s="18"/>
-      <c r="G177" s="18"/>
+      <c r="G177" s="39"/>
       <c r="H177" s="18"/>
       <c r="I177" s="18"/>
-      <c r="J177" s="18"/>
-      <c r="K177" s="18"/>
-      <c r="L177" s="18"/>
-      <c r="M177" s="18"/>
-      <c r="N177" s="18"/>
-      <c r="O177" s="18"/>
-      <c r="P177" s="18"/>
-      <c r="Q177" s="18"/>
-      <c r="R177" s="18"/>
-      <c r="S177" s="18"/>
-      <c r="T177" s="18"/>
-      <c r="U177" s="18"/>
-      <c r="V177" s="18"/>
-      <c r="W177" s="18"/>
-      <c r="X177" s="18"/>
-      <c r="Y177" s="18"/>
-      <c r="Z177" s="18"/>
-      <c r="AA177" s="18"/>
-      <c r="AB177" s="18"/>
-      <c r="AC177" s="18"/>
-      <c r="AD177" s="18"/>
-      <c r="AE177" s="18"/>
-      <c r="AF177" s="18"/>
-      <c r="AG177" s="18"/>
-      <c r="AH177" s="18"/>
+      <c r="J177" s="41"/>
+      <c r="K177" s="42"/>
+      <c r="L177" s="42"/>
+      <c r="M177" s="41"/>
+      <c r="N177" s="42"/>
+      <c r="O177" s="42"/>
+      <c r="P177" s="42"/>
+      <c r="Q177" s="42"/>
+      <c r="R177" s="42"/>
+      <c r="S177" s="42"/>
+      <c r="T177" s="42"/>
+      <c r="U177" s="42"/>
+      <c r="V177" s="42"/>
+      <c r="W177" s="42"/>
+      <c r="X177" s="43"/>
+      <c r="Y177" s="42" t="s">
+        <v>133</v>
+      </c>
+      <c r="Z177" s="42"/>
+      <c r="AA177" s="42"/>
+      <c r="AB177" s="42"/>
+      <c r="AC177" s="42"/>
+      <c r="AD177" s="42"/>
+      <c r="AE177" s="42"/>
+      <c r="AF177" s="42"/>
+      <c r="AG177" s="42"/>
+      <c r="AH177" s="43"/>
       <c r="AI177" s="18"/>
     </row>
     <row r="178" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D178" s="22" t="str">
-        <f>$C$7&amp;"5."</f>
-        <v>7.3.5.</v>
-      </c>
-      <c r="E178" s="17" t="s">
-        <v>49</v>
-      </c>
+      <c r="D178" s="16"/>
+      <c r="E178" s="18"/>
       <c r="F178" s="18"/>
-      <c r="G178" s="18"/>
+      <c r="G178" s="39"/>
       <c r="H178" s="18"/>
       <c r="I178" s="18"/>
-      <c r="J178" s="18"/>
-      <c r="K178" s="18"/>
-      <c r="L178" s="18"/>
-      <c r="M178" s="18"/>
-      <c r="N178" s="18"/>
-      <c r="O178" s="18"/>
-      <c r="P178" s="18"/>
-      <c r="Q178" s="18"/>
-      <c r="R178" s="18"/>
-      <c r="S178" s="18"/>
-      <c r="T178" s="18"/>
-      <c r="U178" s="18"/>
-      <c r="V178" s="18"/>
-      <c r="W178" s="18"/>
-      <c r="X178" s="18"/>
-      <c r="Y178" s="18"/>
-      <c r="Z178" s="18"/>
-      <c r="AA178" s="18"/>
-      <c r="AB178" s="18"/>
-      <c r="AC178" s="18"/>
-      <c r="AD178" s="18"/>
-      <c r="AE178" s="18"/>
-      <c r="AF178" s="18"/>
-      <c r="AG178" s="18"/>
-      <c r="AH178" s="18"/>
+      <c r="J178" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="K178" s="54"/>
+      <c r="L178" s="54"/>
+      <c r="M178" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="N178" s="54"/>
+      <c r="O178" s="54"/>
+      <c r="P178" s="54"/>
+      <c r="Q178" s="54"/>
+      <c r="R178" s="54"/>
+      <c r="S178" s="54"/>
+      <c r="T178" s="54"/>
+      <c r="U178" s="54"/>
+      <c r="V178" s="54"/>
+      <c r="W178" s="54"/>
+      <c r="X178" s="55"/>
+      <c r="Y178" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z178" s="54"/>
+      <c r="AA178" s="54"/>
+      <c r="AB178" s="54"/>
+      <c r="AC178" s="54"/>
+      <c r="AD178" s="54"/>
+      <c r="AE178" s="54"/>
+      <c r="AF178" s="54"/>
+      <c r="AG178" s="54"/>
+      <c r="AH178" s="55"/>
       <c r="AI178" s="18"/>
     </row>
-    <row r="179" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C179" s="20"/>
-      <c r="D179" s="22"/>
+    <row r="179" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D179" s="16"/>
+      <c r="E179" s="18"/>
       <c r="F179" s="18"/>
-      <c r="G179" s="18"/>
-      <c r="H179" s="18"/>
-      <c r="I179" s="18"/>
-      <c r="J179" s="18"/>
-      <c r="K179" s="18"/>
-      <c r="L179" s="18"/>
-      <c r="M179" s="18"/>
-      <c r="N179" s="18"/>
-      <c r="O179" s="18"/>
-      <c r="P179" s="18"/>
-      <c r="Q179" s="18"/>
-      <c r="R179" s="18"/>
-      <c r="S179" s="18"/>
-      <c r="T179" s="18"/>
-      <c r="U179" s="18"/>
-      <c r="V179" s="18"/>
-      <c r="W179" s="18"/>
-      <c r="X179" s="18"/>
-      <c r="Y179" s="18"/>
-      <c r="Z179" s="18"/>
-      <c r="AA179" s="18"/>
-      <c r="AB179" s="18"/>
-      <c r="AC179" s="18"/>
-      <c r="AD179" s="18"/>
-      <c r="AE179" s="18"/>
-      <c r="AF179" s="18"/>
-      <c r="AG179" s="18"/>
-      <c r="AH179" s="18"/>
+      <c r="G179" s="41"/>
+      <c r="H179" s="42"/>
+      <c r="I179" s="42"/>
+      <c r="J179" s="41"/>
+      <c r="K179" s="42"/>
+      <c r="L179" s="42"/>
+      <c r="M179" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="N179" s="42"/>
+      <c r="O179" s="42"/>
+      <c r="P179" s="42"/>
+      <c r="Q179" s="42"/>
+      <c r="R179" s="42"/>
+      <c r="S179" s="42"/>
+      <c r="T179" s="42"/>
+      <c r="U179" s="42"/>
+      <c r="V179" s="42"/>
+      <c r="W179" s="42"/>
+      <c r="X179" s="43"/>
+      <c r="Y179" s="41" t="s">
+        <v>133</v>
+      </c>
+      <c r="Z179" s="42"/>
+      <c r="AA179" s="42"/>
+      <c r="AB179" s="42"/>
+      <c r="AC179" s="42"/>
+      <c r="AD179" s="42"/>
+      <c r="AE179" s="42"/>
+      <c r="AF179" s="42"/>
+      <c r="AG179" s="42"/>
+      <c r="AH179" s="43"/>
       <c r="AI179" s="18"/>
     </row>
-    <row r="180" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C180" s="20"/>
-      <c r="D180" s="22"/>
-      <c r="E180" s="22" t="str">
-        <f>$D$178&amp;"1."</f>
-        <v>7.3.5.1.</v>
-      </c>
-      <c r="F180" s="17" t="s">
-        <v>142</v>
-      </c>
+    <row r="180" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D180" s="16"/>
+      <c r="E180" s="18"/>
+      <c r="F180" s="18"/>
       <c r="G180" s="18"/>
       <c r="H180" s="18"/>
       <c r="I180" s="18"/>
@@ -6796,13 +6703,10 @@
       <c r="AH180" s="18"/>
       <c r="AI180" s="18"/>
     </row>
-    <row r="181" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C181" s="20"/>
-      <c r="D181" s="22"/>
-      <c r="E181" s="17"/>
-      <c r="F181" s="17" t="s">
-        <v>168</v>
-      </c>
+    <row r="181" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D181" s="16"/>
+      <c r="E181" s="18"/>
+      <c r="F181" s="18"/>
       <c r="G181" s="18"/>
       <c r="H181" s="18"/>
       <c r="I181" s="18"/>
@@ -6833,10 +6737,14 @@
       <c r="AH181" s="18"/>
       <c r="AI181" s="18"/>
     </row>
-    <row r="182" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C182" s="20"/>
-      <c r="D182" s="22"/>
-      <c r="E182" s="17"/>
+    <row r="182" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D182" s="22" t="str">
+        <f>$C$7&amp;"5."</f>
+        <v>7.3.5.</v>
+      </c>
+      <c r="E182" s="17" t="s">
+        <v>49</v>
+      </c>
       <c r="F182" s="18"/>
       <c r="G182" s="18"/>
       <c r="H182" s="18"/>
@@ -6868,24 +6776,170 @@
       <c r="AH182" s="18"/>
       <c r="AI182" s="18"/>
     </row>
-    <row r="183" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C183" s="20"/>
-      <c r="E183" s="22" t="str">
-        <f>$D$178&amp;"2."</f>
+      <c r="D183" s="22"/>
+      <c r="F183" s="18"/>
+      <c r="G183" s="18"/>
+      <c r="H183" s="18"/>
+      <c r="I183" s="18"/>
+      <c r="J183" s="18"/>
+      <c r="K183" s="18"/>
+      <c r="L183" s="18"/>
+      <c r="M183" s="18"/>
+      <c r="N183" s="18"/>
+      <c r="O183" s="18"/>
+      <c r="P183" s="18"/>
+      <c r="Q183" s="18"/>
+      <c r="R183" s="18"/>
+      <c r="S183" s="18"/>
+      <c r="T183" s="18"/>
+      <c r="U183" s="18"/>
+      <c r="V183" s="18"/>
+      <c r="W183" s="18"/>
+      <c r="X183" s="18"/>
+      <c r="Y183" s="18"/>
+      <c r="Z183" s="18"/>
+      <c r="AA183" s="18"/>
+      <c r="AB183" s="18"/>
+      <c r="AC183" s="18"/>
+      <c r="AD183" s="18"/>
+      <c r="AE183" s="18"/>
+      <c r="AF183" s="18"/>
+      <c r="AG183" s="18"/>
+      <c r="AH183" s="18"/>
+      <c r="AI183" s="18"/>
+    </row>
+    <row r="184" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C184" s="20"/>
+      <c r="D184" s="22"/>
+      <c r="E184" s="22" t="str">
+        <f>$D$182&amp;"1."</f>
+        <v>7.3.5.1.</v>
+      </c>
+      <c r="F184" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="G184" s="18"/>
+      <c r="H184" s="18"/>
+      <c r="I184" s="18"/>
+      <c r="J184" s="18"/>
+      <c r="K184" s="18"/>
+      <c r="L184" s="18"/>
+      <c r="M184" s="18"/>
+      <c r="N184" s="18"/>
+      <c r="O184" s="18"/>
+      <c r="P184" s="18"/>
+      <c r="Q184" s="18"/>
+      <c r="R184" s="18"/>
+      <c r="S184" s="18"/>
+      <c r="T184" s="18"/>
+      <c r="U184" s="18"/>
+      <c r="V184" s="18"/>
+      <c r="W184" s="18"/>
+      <c r="X184" s="18"/>
+      <c r="Y184" s="18"/>
+      <c r="Z184" s="18"/>
+      <c r="AA184" s="18"/>
+      <c r="AB184" s="18"/>
+      <c r="AC184" s="18"/>
+      <c r="AD184" s="18"/>
+      <c r="AE184" s="18"/>
+      <c r="AF184" s="18"/>
+      <c r="AG184" s="18"/>
+      <c r="AH184" s="18"/>
+      <c r="AI184" s="18"/>
+    </row>
+    <row r="185" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C185" s="20"/>
+      <c r="D185" s="22"/>
+      <c r="E185" s="17"/>
+      <c r="F185" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="G185" s="18"/>
+      <c r="H185" s="18"/>
+      <c r="I185" s="18"/>
+      <c r="J185" s="18"/>
+      <c r="K185" s="18"/>
+      <c r="L185" s="18"/>
+      <c r="M185" s="18"/>
+      <c r="N185" s="18"/>
+      <c r="O185" s="18"/>
+      <c r="P185" s="18"/>
+      <c r="Q185" s="18"/>
+      <c r="R185" s="18"/>
+      <c r="S185" s="18"/>
+      <c r="T185" s="18"/>
+      <c r="U185" s="18"/>
+      <c r="V185" s="18"/>
+      <c r="W185" s="18"/>
+      <c r="X185" s="18"/>
+      <c r="Y185" s="18"/>
+      <c r="Z185" s="18"/>
+      <c r="AA185" s="18"/>
+      <c r="AB185" s="18"/>
+      <c r="AC185" s="18"/>
+      <c r="AD185" s="18"/>
+      <c r="AE185" s="18"/>
+      <c r="AF185" s="18"/>
+      <c r="AG185" s="18"/>
+      <c r="AH185" s="18"/>
+      <c r="AI185" s="18"/>
+    </row>
+    <row r="186" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C186" s="20"/>
+      <c r="D186" s="22"/>
+      <c r="E186" s="17"/>
+      <c r="F186" s="18"/>
+      <c r="G186" s="18"/>
+      <c r="H186" s="18"/>
+      <c r="I186" s="18"/>
+      <c r="J186" s="18"/>
+      <c r="K186" s="18"/>
+      <c r="L186" s="18"/>
+      <c r="M186" s="18"/>
+      <c r="N186" s="18"/>
+      <c r="O186" s="18"/>
+      <c r="P186" s="18"/>
+      <c r="Q186" s="18"/>
+      <c r="R186" s="18"/>
+      <c r="S186" s="18"/>
+      <c r="T186" s="18"/>
+      <c r="U186" s="18"/>
+      <c r="V186" s="18"/>
+      <c r="W186" s="18"/>
+      <c r="X186" s="18"/>
+      <c r="Y186" s="18"/>
+      <c r="Z186" s="18"/>
+      <c r="AA186" s="18"/>
+      <c r="AB186" s="18"/>
+      <c r="AC186" s="18"/>
+      <c r="AD186" s="18"/>
+      <c r="AE186" s="18"/>
+      <c r="AF186" s="18"/>
+      <c r="AG186" s="18"/>
+      <c r="AH186" s="18"/>
+      <c r="AI186" s="18"/>
+    </row>
+    <row r="187" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C187" s="20"/>
+      <c r="E187" s="22" t="str">
+        <f>$D$182&amp;"2."</f>
         <v>7.3.5.2.</v>
       </c>
-      <c r="F183" s="17" t="s">
+      <c r="F187" s="17" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="184" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C184" s="20"/>
-      <c r="F184" s="4" t="s">
+    <row r="188" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C188" s="20"/>
+      <c r="F188" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="185" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C185" s="20"/>
+    <row r="189" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C189" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -6905,10 +6959,10 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="4" manualBreakCount="4">
-    <brk id="41" max="34" man="1"/>
-    <brk id="74" max="34" man="1"/>
-    <brk id="103" max="34" man="1"/>
-    <brk id="145" max="34" man="1"/>
+    <brk id="45" max="34" man="1"/>
+    <brk id="78" max="34" man="1"/>
+    <brk id="107" max="34" man="1"/>
+    <brk id="149" max="34" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.3DBアクセス処理.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.3DBアクセス処理.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D8BBFD-AAA5-4F37-9C75-8B66B4280C77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5FCA018-5F8C-4D67-8DB7-BD1F4F2B3DD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -278,9 +278,6 @@
   <si>
     <t>データクリーニング</t>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>務アプリケーションはクリーニング対象の削除要件に対応した実行SQLをコンフィグファイルに設定、またはコンフィグファイルを</t>
   </si>
   <si>
     <t>新規作成することで、コンフィグファイルに記載されているパラメータを削除条件としたデータクリーニングを実行可能とする。</t>
@@ -1416,6 +1413,13 @@
     </rPh>
     <rPh sb="34" eb="35">
       <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>業務アプリケーションはクリーニング対象の削除要件に対応した実行SQLをコンフィグファイルに設定、またはコンフィグファイルを</t>
+    <rPh sb="0" eb="2">
+      <t>ギョウム</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2248,7 +2252,7 @@
       </c>
       <c r="Q1" s="2"/>
       <c r="R1" s="62" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S1" s="63"/>
       <c r="T1" s="63"/>
@@ -2400,27 +2404,27 @@
     </row>
     <row r="11" spans="1:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F11" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F12" s="21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F13" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F14" s="21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F15" s="21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2436,12 +2440,12 @@
     </row>
     <row r="18" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F18" s="32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G18" s="33"/>
       <c r="H18" s="34"/>
       <c r="I18" s="33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J18" s="33"/>
       <c r="K18" s="33"/>
@@ -2473,12 +2477,12 @@
     </row>
     <row r="19" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F19" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G19" s="24"/>
       <c r="H19" s="25"/>
       <c r="I19" s="48" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J19" s="24"/>
       <c r="K19" s="24"/>
@@ -2486,7 +2490,7 @@
       <c r="M19" s="24"/>
       <c r="N19" s="25"/>
       <c r="O19" s="24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P19" s="24"/>
       <c r="Q19" s="24"/>
@@ -2510,12 +2514,12 @@
     </row>
     <row r="20" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F20" s="28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G20" s="29"/>
       <c r="H20" s="30"/>
       <c r="I20" s="49" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J20" s="29"/>
       <c r="K20" s="29"/>
@@ -2523,7 +2527,7 @@
       <c r="M20" s="29"/>
       <c r="N20" s="30"/>
       <c r="O20" s="44" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P20" s="29"/>
       <c r="Q20" s="29"/>
@@ -2556,7 +2560,7 @@
       <c r="M21" s="24"/>
       <c r="N21" s="25"/>
       <c r="O21" s="51" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P21" s="24"/>
       <c r="Q21" s="24"/>
@@ -2589,7 +2593,7 @@
       <c r="M22" s="27"/>
       <c r="N22" s="31"/>
       <c r="O22" s="27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P22" s="27"/>
       <c r="Q22" s="27"/>
@@ -2665,12 +2669,12 @@
     </row>
     <row r="27" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F27" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F28" s="21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="29" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2681,23 +2685,23 @@
     <row r="30" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="31" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F31" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="32" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F32" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="33" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F33" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="34" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="35" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F35" s="21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="36" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2713,7 +2717,7 @@
         <v>24</v>
       </c>
       <c r="G37" s="21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="38" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2745,12 +2749,12 @@
     </row>
     <row r="42" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F42" s="55" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="43" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F43" s="55" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="44" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2803,7 +2807,7 @@
         <v>7.3.3.1.</v>
       </c>
       <c r="F47" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G47" s="17"/>
       <c r="H47" s="17"/>
@@ -2839,7 +2843,7 @@
       <c r="D48" s="22"/>
       <c r="E48" s="17"/>
       <c r="F48" s="17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G48" s="17"/>
       <c r="H48" s="17"/>
@@ -2875,7 +2879,7 @@
       <c r="D49" s="22"/>
       <c r="E49" s="17"/>
       <c r="F49" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G49" s="17"/>
       <c r="H49" s="17"/>
@@ -2911,7 +2915,7 @@
       <c r="D50" s="22"/>
       <c r="E50" s="17"/>
       <c r="F50" s="17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G50" s="17"/>
       <c r="H50" s="17"/>
@@ -2982,7 +2986,7 @@
       <c r="E52" s="17"/>
       <c r="F52" s="17"/>
       <c r="G52" s="17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H52" s="17"/>
       <c r="I52" s="17"/>
@@ -3018,7 +3022,7 @@
       <c r="E53" s="17"/>
       <c r="F53" s="17"/>
       <c r="G53" s="17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H53" s="17"/>
       <c r="I53" s="17"/>
@@ -3054,7 +3058,7 @@
       <c r="E54" s="17"/>
       <c r="F54" s="17"/>
       <c r="G54" s="17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H54" s="17"/>
       <c r="I54" s="17"/>
@@ -3124,7 +3128,7 @@
       <c r="E56" s="17"/>
       <c r="F56" s="17"/>
       <c r="G56" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H56" s="17"/>
       <c r="I56" s="17"/>
@@ -3160,7 +3164,7 @@
       <c r="E57" s="17"/>
       <c r="F57" s="17"/>
       <c r="G57" s="17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H57" s="17"/>
       <c r="I57" s="17"/>
@@ -3196,7 +3200,7 @@
       <c r="E58" s="17"/>
       <c r="F58" s="17"/>
       <c r="G58" s="21" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H58" s="17"/>
       <c r="I58" s="17"/>
@@ -3232,7 +3236,7 @@
       <c r="E59" s="17"/>
       <c r="F59" s="17"/>
       <c r="G59" s="17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H59" s="17"/>
       <c r="I59" s="17"/>
@@ -3268,7 +3272,7 @@
       <c r="E60" s="17"/>
       <c r="F60" s="17"/>
       <c r="G60" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H60" s="17"/>
       <c r="I60" s="17"/>
@@ -3337,7 +3341,7 @@
       <c r="D62" s="22"/>
       <c r="E62" s="17"/>
       <c r="F62" s="17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G62" s="17"/>
       <c r="H62" s="17"/>
@@ -3373,7 +3377,7 @@
       <c r="D63" s="22"/>
       <c r="E63" s="17"/>
       <c r="F63" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G63" s="17"/>
       <c r="H63" s="17"/>
@@ -3443,7 +3447,7 @@
       <c r="D65" s="22"/>
       <c r="E65" s="17"/>
       <c r="F65" s="17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G65" s="17"/>
       <c r="H65" s="17"/>
@@ -3479,7 +3483,7 @@
       <c r="D66" s="22"/>
       <c r="E66" s="17"/>
       <c r="F66" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G66" s="17"/>
       <c r="H66" s="17"/>
@@ -3552,7 +3556,7 @@
         <v>7.3.3.2.</v>
       </c>
       <c r="F68" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G68" s="17"/>
       <c r="H68" s="17"/>
@@ -3588,7 +3592,7 @@
       <c r="D69" s="22"/>
       <c r="E69" s="17"/>
       <c r="F69" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G69" s="17"/>
       <c r="H69" s="17"/>
@@ -3624,7 +3628,7 @@
       <c r="D70" s="22"/>
       <c r="E70" s="17"/>
       <c r="F70" s="17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G70" s="17"/>
       <c r="H70" s="17"/>
@@ -3660,7 +3664,7 @@
       <c r="D71" s="22"/>
       <c r="E71" s="17"/>
       <c r="F71" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G71" s="17"/>
       <c r="H71" s="17"/>
@@ -3696,7 +3700,7 @@
       <c r="D72" s="22"/>
       <c r="E72" s="17"/>
       <c r="F72" s="21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G72" s="17"/>
       <c r="H72" s="17"/>
@@ -3732,7 +3736,7 @@
       <c r="D73" s="22"/>
       <c r="E73" s="17"/>
       <c r="F73" s="17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G73" s="17"/>
       <c r="H73" s="17"/>
@@ -3768,7 +3772,7 @@
       <c r="D74" s="22"/>
       <c r="E74" s="17"/>
       <c r="F74" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G74" s="17"/>
       <c r="H74" s="17"/>
@@ -3838,7 +3842,7 @@
       <c r="D76" s="22"/>
       <c r="E76" s="17"/>
       <c r="F76" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G76" s="17"/>
       <c r="H76" s="17"/>
@@ -3874,7 +3878,7 @@
       <c r="D77" s="22"/>
       <c r="E77" s="17"/>
       <c r="F77" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G77" s="17"/>
       <c r="H77" s="17"/>
@@ -3944,7 +3948,7 @@
       <c r="D79" s="22"/>
       <c r="E79" s="17"/>
       <c r="F79" s="17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G79" s="17"/>
       <c r="H79" s="17"/>
@@ -3980,7 +3984,7 @@
       <c r="D80" s="22"/>
       <c r="E80" s="17"/>
       <c r="F80" s="17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G80" s="17"/>
       <c r="H80" s="17"/>
@@ -4016,7 +4020,7 @@
       <c r="D81" s="22"/>
       <c r="E81" s="17"/>
       <c r="F81" s="17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G81" s="17"/>
       <c r="H81" s="17"/>
@@ -4089,7 +4093,7 @@
         <v>7.3.3.3.</v>
       </c>
       <c r="F83" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G83" s="17"/>
       <c r="H83" s="17"/>
@@ -4125,7 +4129,7 @@
       <c r="D84" s="22"/>
       <c r="E84" s="17"/>
       <c r="F84" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G84" s="17"/>
       <c r="H84" s="17"/>
@@ -4161,7 +4165,7 @@
       <c r="D85" s="22"/>
       <c r="E85" s="17"/>
       <c r="F85" s="21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G85" s="17"/>
       <c r="H85" s="17"/>
@@ -4197,7 +4201,7 @@
       <c r="D86" s="22"/>
       <c r="E86" s="17"/>
       <c r="F86" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G86" s="17"/>
       <c r="H86" s="17"/>
@@ -4233,7 +4237,7 @@
       <c r="D87" s="22"/>
       <c r="E87" s="17"/>
       <c r="F87" s="17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G87" s="17"/>
       <c r="H87" s="17"/>
@@ -4303,14 +4307,14 @@
       <c r="D89" s="22"/>
       <c r="E89" s="17"/>
       <c r="F89" s="21" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G89" s="17"/>
       <c r="H89" s="17"/>
       <c r="I89" s="17"/>
       <c r="J89" s="17"/>
       <c r="K89" s="17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L89" s="17"/>
       <c r="M89" s="17"/>
@@ -4375,7 +4379,7 @@
       <c r="D91" s="22"/>
       <c r="E91" s="17"/>
       <c r="F91" s="17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G91" s="17"/>
       <c r="H91" s="17"/>
@@ -4558,7 +4562,7 @@
         <v>7.3.4.1.1.</v>
       </c>
       <c r="G96" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="97" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4746,7 +4750,7 @@
       <c r="E102" s="18"/>
       <c r="F102" s="18"/>
       <c r="G102" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H102" s="18"/>
       <c r="I102" s="18"/>
@@ -4861,7 +4865,7 @@
     </row>
     <row r="106" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G106" s="32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H106" s="33"/>
       <c r="I106" s="33"/>
@@ -5050,12 +5054,12 @@
     </row>
     <row r="113" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G113" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="114" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G114" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="115" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5161,7 +5165,7 @@
       <c r="J120" s="29"/>
       <c r="K120" s="29"/>
       <c r="L120" s="28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M120" s="29"/>
       <c r="N120" s="29"/>
@@ -5196,7 +5200,7 @@
       <c r="J121" s="27"/>
       <c r="K121" s="27"/>
       <c r="L121" s="26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M121" s="27"/>
       <c r="N121" s="27"/>
@@ -5306,12 +5310,12 @@
     </row>
     <row r="125" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G125" s="21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="126" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G126" s="21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="127" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5374,7 +5378,7 @@
       <c r="D132" s="20"/>
       <c r="E132" s="20"/>
       <c r="G132" s="28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H132" s="29"/>
       <c r="I132" s="29"/>
@@ -5481,14 +5485,14 @@
       <c r="D135" s="20"/>
       <c r="E135" s="20"/>
       <c r="G135" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H135" s="29"/>
       <c r="I135" s="29"/>
       <c r="J135" s="29"/>
       <c r="K135" s="29"/>
       <c r="L135" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M135" s="29"/>
       <c r="N135" s="29"/>
@@ -5523,7 +5527,7 @@
       <c r="J136" s="24"/>
       <c r="K136" s="24"/>
       <c r="L136" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M136" s="24"/>
       <c r="N136" s="24"/>
@@ -5627,7 +5631,7 @@
     </row>
     <row r="140" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G140" s="32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H140" s="33"/>
       <c r="I140" s="33"/>
@@ -5638,7 +5642,7 @@
       <c r="L140" s="33"/>
       <c r="M140" s="34"/>
       <c r="N140" s="33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O140" s="33"/>
       <c r="P140" s="33"/>
@@ -5663,18 +5667,18 @@
     </row>
     <row r="141" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G141" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H141" s="24"/>
       <c r="I141" s="24"/>
       <c r="J141" s="24"/>
       <c r="K141" s="23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L141" s="24"/>
       <c r="M141" s="25"/>
       <c r="N141" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O141" s="24"/>
       <c r="P141" s="24"/>
@@ -5706,7 +5710,7 @@
       <c r="L142" s="24"/>
       <c r="M142" s="25"/>
       <c r="N142" s="24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O142" s="24"/>
       <c r="P142" s="24"/>
@@ -5738,7 +5742,7 @@
       <c r="L143" s="24"/>
       <c r="M143" s="25"/>
       <c r="N143" s="24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O143" s="24"/>
       <c r="P143" s="24"/>
@@ -5763,18 +5767,18 @@
     </row>
     <row r="144" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G144" s="28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H144" s="29"/>
       <c r="I144" s="29"/>
       <c r="J144" s="29"/>
       <c r="K144" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L144" s="29"/>
       <c r="M144" s="30"/>
       <c r="N144" s="29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O144" s="29"/>
       <c r="P144" s="29"/>
@@ -5806,7 +5810,7 @@
       <c r="L145" s="27"/>
       <c r="M145" s="31"/>
       <c r="N145" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O145" s="27"/>
       <c r="P145" s="27"/>
@@ -5867,7 +5871,7 @@
       <c r="D147" s="20"/>
       <c r="E147" s="20"/>
       <c r="G147" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="148" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5884,7 +5888,7 @@
       <c r="M148" s="33"/>
       <c r="N148" s="34"/>
       <c r="O148" s="33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P148" s="33"/>
       <c r="Q148" s="33"/>
@@ -5908,19 +5912,19 @@
     </row>
     <row r="149" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G149" s="23" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H149" s="24"/>
       <c r="I149" s="24"/>
       <c r="J149" s="25"/>
       <c r="K149" s="24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L149" s="24"/>
       <c r="M149" s="24"/>
       <c r="N149" s="25"/>
       <c r="O149" s="24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P149" s="24"/>
       <c r="Q149" s="24"/>
@@ -5948,13 +5952,13 @@
       <c r="I150" s="24"/>
       <c r="J150" s="25"/>
       <c r="K150" s="24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L150" s="24"/>
       <c r="M150" s="24"/>
       <c r="N150" s="25"/>
       <c r="O150" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P150" s="24"/>
       <c r="Q150" s="24"/>
@@ -5982,7 +5986,7 @@
       <c r="I151" s="27"/>
       <c r="J151" s="31"/>
       <c r="K151" s="27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L151" s="27"/>
       <c r="M151" s="27"/>
@@ -6010,19 +6014,19 @@
     </row>
     <row r="152" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G152" s="23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H152" s="24"/>
       <c r="I152" s="24"/>
       <c r="J152" s="25"/>
       <c r="K152" s="24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L152" s="24"/>
       <c r="M152" s="24"/>
       <c r="N152" s="25"/>
       <c r="O152" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P152" s="24"/>
       <c r="Q152" s="24"/>
@@ -6050,13 +6054,13 @@
       <c r="I153" s="24"/>
       <c r="J153" s="25"/>
       <c r="K153" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L153" s="24"/>
       <c r="M153" s="24"/>
       <c r="N153" s="25"/>
       <c r="O153" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P153" s="24"/>
       <c r="Q153" s="24"/>
@@ -6146,7 +6150,7 @@
         <v>7.3.4.4.3.</v>
       </c>
       <c r="G156" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H156" s="18"/>
       <c r="I156" s="18"/>
@@ -6214,7 +6218,7 @@
       <c r="E158" s="16"/>
       <c r="F158" s="18"/>
       <c r="G158" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H158" s="18"/>
       <c r="I158" s="18"/>
@@ -6249,7 +6253,7 @@
       <c r="E159" s="16"/>
       <c r="F159" s="18"/>
       <c r="G159" s="18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H159" s="18"/>
       <c r="I159" s="18"/>
@@ -6316,7 +6320,7 @@
       <c r="E161" s="16"/>
       <c r="F161" s="18"/>
       <c r="G161" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H161" s="18"/>
       <c r="I161" s="18"/>
@@ -6351,7 +6355,7 @@
       <c r="E162" s="16"/>
       <c r="F162" s="18"/>
       <c r="G162" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H162" s="18"/>
       <c r="I162" s="18"/>
@@ -6502,14 +6506,14 @@
       <c r="E167" s="22"/>
       <c r="F167" s="22"/>
       <c r="G167" s="21" t="s">
-        <v>50</v>
+        <v>182</v>
       </c>
     </row>
     <row r="168" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E168" s="22"/>
       <c r="F168" s="22"/>
       <c r="G168" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="169" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6572,14 +6576,14 @@
       <c r="D174" s="20"/>
       <c r="E174" s="20"/>
       <c r="G174" s="28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H174" s="29"/>
       <c r="I174" s="29"/>
       <c r="J174" s="29"/>
       <c r="K174" s="29"/>
       <c r="L174" s="28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M174" s="29"/>
       <c r="N174" s="29"/>
@@ -6614,7 +6618,7 @@
       <c r="J175" s="24"/>
       <c r="K175" s="24"/>
       <c r="L175" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M175" s="24"/>
       <c r="N175" s="24"/>
@@ -6644,14 +6648,14 @@
       <c r="D176" s="20"/>
       <c r="E176" s="20"/>
       <c r="G176" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H176" s="29"/>
       <c r="I176" s="29"/>
       <c r="J176" s="29"/>
       <c r="K176" s="29"/>
       <c r="L176" s="28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M176" s="29"/>
       <c r="N176" s="29"/>
@@ -6686,7 +6690,7 @@
       <c r="J177" s="24"/>
       <c r="K177" s="24"/>
       <c r="L177" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M177" s="24"/>
       <c r="N177" s="24"/>
@@ -6721,7 +6725,7 @@
       <c r="J178" s="24"/>
       <c r="K178" s="24"/>
       <c r="L178" s="23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M178" s="24"/>
       <c r="N178" s="24"/>
@@ -6756,7 +6760,7 @@
       <c r="J179" s="27"/>
       <c r="K179" s="27"/>
       <c r="L179" s="26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M179" s="27"/>
       <c r="N179" s="27"/>
@@ -6876,7 +6880,7 @@
       <c r="N183" s="24"/>
       <c r="O183" s="25"/>
       <c r="P183" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q183" s="24"/>
       <c r="R183" s="24"/>
@@ -6907,13 +6911,13 @@
       <c r="J184" s="46"/>
       <c r="K184" s="47"/>
       <c r="L184" s="46" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M184" s="46"/>
       <c r="N184" s="46"/>
       <c r="O184" s="47"/>
       <c r="P184" s="46" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q184" s="46"/>
       <c r="R184" s="46"/>
@@ -7045,17 +7049,17 @@
       <c r="E188" s="18"/>
       <c r="F188" s="18"/>
       <c r="G188" s="36" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H188" s="37"/>
       <c r="I188" s="37"/>
       <c r="J188" s="36" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K188" s="37"/>
       <c r="L188" s="37"/>
       <c r="M188" s="36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N188" s="37"/>
       <c r="O188" s="37"/>
@@ -7069,7 +7073,7 @@
       <c r="W188" s="37"/>
       <c r="X188" s="38"/>
       <c r="Y188" s="37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z188" s="37"/>
       <c r="AA188" s="37"/>
@@ -7087,17 +7091,17 @@
       <c r="E189" s="18"/>
       <c r="F189" s="18"/>
       <c r="G189" s="39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H189" s="18"/>
       <c r="I189" s="18"/>
       <c r="J189" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K189" s="18"/>
       <c r="L189" s="18"/>
       <c r="M189" s="39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N189" s="18"/>
       <c r="O189" s="18"/>
@@ -7111,7 +7115,7 @@
       <c r="W189" s="18"/>
       <c r="X189" s="40"/>
       <c r="Y189" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Z189" s="18"/>
       <c r="AA189" s="18"/>
@@ -7135,7 +7139,7 @@
       <c r="K190" s="18"/>
       <c r="L190" s="18"/>
       <c r="M190" s="39" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N190" s="18"/>
       <c r="O190" s="18"/>
@@ -7168,12 +7172,12 @@
       <c r="H191" s="18"/>
       <c r="I191" s="18"/>
       <c r="J191" s="52" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K191" s="53"/>
       <c r="L191" s="53"/>
       <c r="M191" s="52" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N191" s="53"/>
       <c r="O191" s="53"/>
@@ -7187,7 +7191,7 @@
       <c r="W191" s="53"/>
       <c r="X191" s="54"/>
       <c r="Y191" s="53" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Z191" s="53"/>
       <c r="AA191" s="53"/>
@@ -7223,7 +7227,7 @@
       <c r="W192" s="42"/>
       <c r="X192" s="43"/>
       <c r="Y192" s="42" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Z192" s="42"/>
       <c r="AA192" s="42"/>
@@ -7244,12 +7248,12 @@
       <c r="H193" s="18"/>
       <c r="I193" s="18"/>
       <c r="J193" s="52" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K193" s="53"/>
       <c r="L193" s="53"/>
       <c r="M193" s="52" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N193" s="53"/>
       <c r="O193" s="53"/>
@@ -7263,7 +7267,7 @@
       <c r="W193" s="53"/>
       <c r="X193" s="54"/>
       <c r="Y193" s="52" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Z193" s="53"/>
       <c r="AA193" s="53"/>
@@ -7287,7 +7291,7 @@
       <c r="K194" s="42"/>
       <c r="L194" s="42"/>
       <c r="M194" s="41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N194" s="42"/>
       <c r="O194" s="42"/>
@@ -7301,7 +7305,7 @@
       <c r="W194" s="42"/>
       <c r="X194" s="43"/>
       <c r="Y194" s="41" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Z194" s="42"/>
       <c r="AA194" s="42"/>
@@ -7463,7 +7467,7 @@
         <v>7.3.5.1.</v>
       </c>
       <c r="F199" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G199" s="18"/>
       <c r="H199" s="18"/>
@@ -7500,7 +7504,7 @@
       <c r="D200" s="22"/>
       <c r="E200" s="17"/>
       <c r="F200" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G200" s="18"/>
       <c r="H200" s="18"/>
@@ -7574,13 +7578,13 @@
         <v>7.3.5.2.</v>
       </c>
       <c r="F202" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="203" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C203" s="20"/>
       <c r="F203" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="204" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">

--- a/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.3DBアクセス処理.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.3DBアクセス処理.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5FCA018-5F8C-4D67-8DB7-BD1F4F2B3DD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47931E37-C0ED-476B-8F0B-28FBB22B85BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -858,22 +858,6 @@
   </si>
   <si>
     <t>更新が完了したタイミングでロックを解除する。</t>
-  </si>
-  <si>
-    <t>長期間運用する場合はDBのストレージを超過しないように、</t>
-    <rPh sb="0" eb="3">
-      <t>チョウキカン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ウンヨウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>チョウカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>定期的にバックアップや物理削除を行う必要がある。</t>
@@ -1420,6 +1404,25 @@
     <t>業務アプリケーションはクリーニング対象の削除要件に対応した実行SQLをコンフィグファイルに設定、またはコンフィグファイルを</t>
     <rPh sb="0" eb="2">
       <t>ギョウム</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>長期間運用する場合はDBのストレージ容量を超過しないように、</t>
+    <rPh sb="0" eb="3">
+      <t>チョウキカン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ウンヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヨウリョウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>チョウカ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2674,7 +2677,7 @@
     </row>
     <row r="28" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F28" s="21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2685,23 +2688,23 @@
     <row r="30" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="31" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F31" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="32" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F32" s="21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="33" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F33" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="34" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="35" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F35" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="36" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2717,7 +2720,7 @@
         <v>24</v>
       </c>
       <c r="G37" s="21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="38" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2749,12 +2752,12 @@
     </row>
     <row r="42" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F42" s="55" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="43" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F43" s="55" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="44" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2807,7 +2810,7 @@
         <v>7.3.3.1.</v>
       </c>
       <c r="F47" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G47" s="17"/>
       <c r="H47" s="17"/>
@@ -2843,7 +2846,7 @@
       <c r="D48" s="22"/>
       <c r="E48" s="17"/>
       <c r="F48" s="17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G48" s="17"/>
       <c r="H48" s="17"/>
@@ -2879,7 +2882,7 @@
       <c r="D49" s="22"/>
       <c r="E49" s="17"/>
       <c r="F49" s="17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G49" s="17"/>
       <c r="H49" s="17"/>
@@ -2915,7 +2918,7 @@
       <c r="D50" s="22"/>
       <c r="E50" s="17"/>
       <c r="F50" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G50" s="17"/>
       <c r="H50" s="17"/>
@@ -2986,7 +2989,7 @@
       <c r="E52" s="17"/>
       <c r="F52" s="17"/>
       <c r="G52" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H52" s="17"/>
       <c r="I52" s="17"/>
@@ -3022,7 +3025,7 @@
       <c r="E53" s="17"/>
       <c r="F53" s="17"/>
       <c r="G53" s="17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H53" s="17"/>
       <c r="I53" s="17"/>
@@ -3058,7 +3061,7 @@
       <c r="E54" s="17"/>
       <c r="F54" s="17"/>
       <c r="G54" s="17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H54" s="17"/>
       <c r="I54" s="17"/>
@@ -3128,7 +3131,7 @@
       <c r="E56" s="17"/>
       <c r="F56" s="17"/>
       <c r="G56" s="17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H56" s="17"/>
       <c r="I56" s="17"/>
@@ -3164,7 +3167,7 @@
       <c r="E57" s="17"/>
       <c r="F57" s="17"/>
       <c r="G57" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H57" s="17"/>
       <c r="I57" s="17"/>
@@ -3200,7 +3203,7 @@
       <c r="E58" s="17"/>
       <c r="F58" s="17"/>
       <c r="G58" s="21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H58" s="17"/>
       <c r="I58" s="17"/>
@@ -3236,7 +3239,7 @@
       <c r="E59" s="17"/>
       <c r="F59" s="17"/>
       <c r="G59" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H59" s="17"/>
       <c r="I59" s="17"/>
@@ -3272,7 +3275,7 @@
       <c r="E60" s="17"/>
       <c r="F60" s="17"/>
       <c r="G60" s="17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H60" s="17"/>
       <c r="I60" s="17"/>
@@ -3341,7 +3344,7 @@
       <c r="D62" s="22"/>
       <c r="E62" s="17"/>
       <c r="F62" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G62" s="17"/>
       <c r="H62" s="17"/>
@@ -3377,7 +3380,7 @@
       <c r="D63" s="22"/>
       <c r="E63" s="17"/>
       <c r="F63" s="17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G63" s="17"/>
       <c r="H63" s="17"/>
@@ -3447,7 +3450,7 @@
       <c r="D65" s="22"/>
       <c r="E65" s="17"/>
       <c r="F65" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G65" s="17"/>
       <c r="H65" s="17"/>
@@ -3483,7 +3486,7 @@
       <c r="D66" s="22"/>
       <c r="E66" s="17"/>
       <c r="F66" s="17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G66" s="17"/>
       <c r="H66" s="17"/>
@@ -3556,7 +3559,7 @@
         <v>7.3.3.2.</v>
       </c>
       <c r="F68" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G68" s="17"/>
       <c r="H68" s="17"/>
@@ -3592,7 +3595,7 @@
       <c r="D69" s="22"/>
       <c r="E69" s="17"/>
       <c r="F69" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G69" s="17"/>
       <c r="H69" s="17"/>
@@ -3628,7 +3631,7 @@
       <c r="D70" s="22"/>
       <c r="E70" s="17"/>
       <c r="F70" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G70" s="17"/>
       <c r="H70" s="17"/>
@@ -3664,7 +3667,7 @@
       <c r="D71" s="22"/>
       <c r="E71" s="17"/>
       <c r="F71" s="17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G71" s="17"/>
       <c r="H71" s="17"/>
@@ -3700,7 +3703,7 @@
       <c r="D72" s="22"/>
       <c r="E72" s="17"/>
       <c r="F72" s="21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G72" s="17"/>
       <c r="H72" s="17"/>
@@ -3736,7 +3739,7 @@
       <c r="D73" s="22"/>
       <c r="E73" s="17"/>
       <c r="F73" s="17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G73" s="17"/>
       <c r="H73" s="17"/>
@@ -3772,7 +3775,7 @@
       <c r="D74" s="22"/>
       <c r="E74" s="17"/>
       <c r="F74" s="17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G74" s="17"/>
       <c r="H74" s="17"/>
@@ -3842,7 +3845,7 @@
       <c r="D76" s="22"/>
       <c r="E76" s="17"/>
       <c r="F76" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G76" s="17"/>
       <c r="H76" s="17"/>
@@ -3878,7 +3881,7 @@
       <c r="D77" s="22"/>
       <c r="E77" s="17"/>
       <c r="F77" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G77" s="17"/>
       <c r="H77" s="17"/>
@@ -3948,7 +3951,7 @@
       <c r="D79" s="22"/>
       <c r="E79" s="17"/>
       <c r="F79" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G79" s="17"/>
       <c r="H79" s="17"/>
@@ -3984,7 +3987,7 @@
       <c r="D80" s="22"/>
       <c r="E80" s="17"/>
       <c r="F80" s="17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G80" s="17"/>
       <c r="H80" s="17"/>
@@ -4020,7 +4023,7 @@
       <c r="D81" s="22"/>
       <c r="E81" s="17"/>
       <c r="F81" s="17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G81" s="17"/>
       <c r="H81" s="17"/>
@@ -4093,7 +4096,7 @@
         <v>7.3.3.3.</v>
       </c>
       <c r="F83" s="17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G83" s="17"/>
       <c r="H83" s="17"/>
@@ -4129,7 +4132,7 @@
       <c r="D84" s="22"/>
       <c r="E84" s="17"/>
       <c r="F84" s="17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G84" s="17"/>
       <c r="H84" s="17"/>
@@ -4165,7 +4168,7 @@
       <c r="D85" s="22"/>
       <c r="E85" s="17"/>
       <c r="F85" s="21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G85" s="17"/>
       <c r="H85" s="17"/>
@@ -4201,7 +4204,7 @@
       <c r="D86" s="22"/>
       <c r="E86" s="17"/>
       <c r="F86" s="17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G86" s="17"/>
       <c r="H86" s="17"/>
@@ -4237,7 +4240,7 @@
       <c r="D87" s="22"/>
       <c r="E87" s="17"/>
       <c r="F87" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G87" s="17"/>
       <c r="H87" s="17"/>
@@ -4307,14 +4310,14 @@
       <c r="D89" s="22"/>
       <c r="E89" s="17"/>
       <c r="F89" s="21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G89" s="17"/>
       <c r="H89" s="17"/>
       <c r="I89" s="17"/>
       <c r="J89" s="17"/>
       <c r="K89" s="17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L89" s="17"/>
       <c r="M89" s="17"/>
@@ -4379,7 +4382,7 @@
       <c r="D91" s="22"/>
       <c r="E91" s="17"/>
       <c r="F91" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G91" s="17"/>
       <c r="H91" s="17"/>
@@ -4750,7 +4753,7 @@
       <c r="E102" s="18"/>
       <c r="F102" s="18"/>
       <c r="G102" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H102" s="18"/>
       <c r="I102" s="18"/>
@@ -5310,12 +5313,12 @@
     </row>
     <row r="125" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G125" s="21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="126" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G126" s="21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="127" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5678,7 +5681,7 @@
       <c r="L141" s="24"/>
       <c r="M141" s="25"/>
       <c r="N141" s="24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O141" s="24"/>
       <c r="P141" s="24"/>
@@ -5710,7 +5713,7 @@
       <c r="L142" s="24"/>
       <c r="M142" s="25"/>
       <c r="N142" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O142" s="24"/>
       <c r="P142" s="24"/>
@@ -5742,7 +5745,7 @@
       <c r="L143" s="24"/>
       <c r="M143" s="25"/>
       <c r="N143" s="24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O143" s="24"/>
       <c r="P143" s="24"/>
@@ -5871,7 +5874,7 @@
       <c r="D147" s="20"/>
       <c r="E147" s="20"/>
       <c r="G147" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="148" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5912,19 +5915,19 @@
     </row>
     <row r="149" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G149" s="23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H149" s="24"/>
       <c r="I149" s="24"/>
       <c r="J149" s="25"/>
       <c r="K149" s="24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L149" s="24"/>
       <c r="M149" s="24"/>
       <c r="N149" s="25"/>
       <c r="O149" s="24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P149" s="24"/>
       <c r="Q149" s="24"/>
@@ -5952,13 +5955,13 @@
       <c r="I150" s="24"/>
       <c r="J150" s="25"/>
       <c r="K150" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L150" s="24"/>
       <c r="M150" s="24"/>
       <c r="N150" s="25"/>
       <c r="O150" s="24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P150" s="24"/>
       <c r="Q150" s="24"/>
@@ -5986,7 +5989,7 @@
       <c r="I151" s="27"/>
       <c r="J151" s="31"/>
       <c r="K151" s="27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L151" s="27"/>
       <c r="M151" s="27"/>
@@ -6014,19 +6017,19 @@
     </row>
     <row r="152" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G152" s="23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H152" s="24"/>
       <c r="I152" s="24"/>
       <c r="J152" s="25"/>
       <c r="K152" s="24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L152" s="24"/>
       <c r="M152" s="24"/>
       <c r="N152" s="25"/>
       <c r="O152" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P152" s="24"/>
       <c r="Q152" s="24"/>
@@ -6054,13 +6057,13 @@
       <c r="I153" s="24"/>
       <c r="J153" s="25"/>
       <c r="K153" s="24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L153" s="24"/>
       <c r="M153" s="24"/>
       <c r="N153" s="25"/>
       <c r="O153" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P153" s="24"/>
       <c r="Q153" s="24"/>
@@ -6150,7 +6153,7 @@
         <v>7.3.4.4.3.</v>
       </c>
       <c r="G156" s="18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H156" s="18"/>
       <c r="I156" s="18"/>
@@ -6218,7 +6221,7 @@
       <c r="E158" s="16"/>
       <c r="F158" s="18"/>
       <c r="G158" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H158" s="18"/>
       <c r="I158" s="18"/>
@@ -6253,7 +6256,7 @@
       <c r="E159" s="16"/>
       <c r="F159" s="18"/>
       <c r="G159" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H159" s="18"/>
       <c r="I159" s="18"/>
@@ -6320,7 +6323,7 @@
       <c r="E161" s="16"/>
       <c r="F161" s="18"/>
       <c r="G161" s="18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H161" s="18"/>
       <c r="I161" s="18"/>
@@ -6355,7 +6358,7 @@
       <c r="E162" s="16"/>
       <c r="F162" s="18"/>
       <c r="G162" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H162" s="18"/>
       <c r="I162" s="18"/>
@@ -6506,7 +6509,7 @@
       <c r="E167" s="22"/>
       <c r="F167" s="22"/>
       <c r="G167" s="21" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="168" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6725,7 +6728,7 @@
       <c r="J178" s="24"/>
       <c r="K178" s="24"/>
       <c r="L178" s="23" t="s">
-        <v>111</v>
+        <v>182</v>
       </c>
       <c r="M178" s="24"/>
       <c r="N178" s="24"/>
@@ -6760,7 +6763,7 @@
       <c r="J179" s="27"/>
       <c r="K179" s="27"/>
       <c r="L179" s="26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M179" s="27"/>
       <c r="N179" s="27"/>
@@ -7467,7 +7470,7 @@
         <v>7.3.5.1.</v>
       </c>
       <c r="F199" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G199" s="18"/>
       <c r="H199" s="18"/>
@@ -7504,7 +7507,7 @@
       <c r="D200" s="22"/>
       <c r="E200" s="17"/>
       <c r="F200" s="17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G200" s="18"/>
       <c r="H200" s="18"/>

--- a/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.3DBアクセス処理.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.3DBアクセス処理.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47931E37-C0ED-476B-8F0B-28FBB22B85BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E0216D-5655-43BE-85F3-3564F8774F50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,9 +12,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'7.3.DBアクセス処理'!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'7.3.DBアクセス処理'!$A$1:$AI$204</definedName>
-    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'7.3.DBアクセス処理'!$A$1:$AI$197</definedName>
-    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'7.3.DBアクセス処理'!$A$1:$AI$197</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'7.3.DBアクセス処理'!$A$1:$AI$205</definedName>
+    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'7.3.DBアクセス処理'!$A$1:$AI$198</definedName>
+    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'7.3.DBアクセス処理'!$A$1:$AI$198</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="184">
   <si>
     <t>工程</t>
     <rPh sb="0" eb="2">
@@ -1423,6 +1423,28 @@
     </rPh>
     <rPh sb="21" eb="23">
       <t>チョウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>本システムでは、データクリーニングのための共通機能を作成してデータベースのデータ削除（データクリーニング）を行う。</t>
+    <rPh sb="0" eb="1">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>オコナ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2223,7 +2245,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI204"/>
+  <dimension ref="A1:AI205"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -6509,214 +6531,186 @@
       <c r="E167" s="22"/>
       <c r="F167" s="22"/>
       <c r="G167" s="21" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="168" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E168" s="22"/>
       <c r="F168" s="22"/>
       <c r="G168" s="21" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="169" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E169" s="22"/>
+      <c r="F169" s="22"/>
+      <c r="G169" s="21" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="169" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="170" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F170" s="22" t="str">
+    <row r="170" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F171" s="22" t="str">
         <f>E165&amp;"2."</f>
         <v>7.3.4.5.2.</v>
       </c>
-      <c r="G170" s="21" t="str">
+      <c r="G171" s="21" t="str">
         <f>F165&amp;"方法"</f>
         <v>データクリーニング方法</v>
       </c>
     </row>
-    <row r="171" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G171" s="21" t="str">
+    <row r="172" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G172" s="21" t="str">
         <f>F165&amp;"を行う機能には、以下の方法がある。"</f>
         <v>データクリーニングを行う機能には、以下の方法がある。</v>
       </c>
     </row>
-    <row r="172" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="173" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C173" s="20"/>
-      <c r="D173" s="20"/>
-      <c r="E173" s="20"/>
-      <c r="G173" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="H173" s="33"/>
-      <c r="I173" s="33"/>
-      <c r="J173" s="33"/>
-      <c r="K173" s="34"/>
-      <c r="L173" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="M173" s="33"/>
-      <c r="N173" s="33"/>
-      <c r="O173" s="33"/>
-      <c r="P173" s="33"/>
-      <c r="Q173" s="33"/>
-      <c r="R173" s="33"/>
-      <c r="S173" s="33"/>
-      <c r="T173" s="33"/>
-      <c r="U173" s="33"/>
-      <c r="V173" s="33"/>
-      <c r="W173" s="33"/>
-      <c r="X173" s="33"/>
-      <c r="Y173" s="33"/>
-      <c r="Z173" s="33"/>
-      <c r="AA173" s="33"/>
-      <c r="AB173" s="33"/>
-      <c r="AC173" s="33"/>
-      <c r="AD173" s="33"/>
-      <c r="AE173" s="33"/>
-      <c r="AF173" s="33"/>
-      <c r="AG173" s="33"/>
-      <c r="AH173" s="34"/>
-    </row>
+    <row r="173" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="174" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C174" s="20"/>
       <c r="D174" s="20"/>
       <c r="E174" s="20"/>
-      <c r="G174" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="H174" s="29"/>
-      <c r="I174" s="29"/>
-      <c r="J174" s="29"/>
-      <c r="K174" s="29"/>
-      <c r="L174" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="M174" s="29"/>
-      <c r="N174" s="29"/>
-      <c r="O174" s="29"/>
-      <c r="P174" s="29"/>
-      <c r="Q174" s="29"/>
-      <c r="R174" s="29"/>
-      <c r="S174" s="29"/>
-      <c r="T174" s="29"/>
-      <c r="U174" s="29"/>
-      <c r="V174" s="29"/>
-      <c r="W174" s="29"/>
-      <c r="X174" s="29"/>
-      <c r="Y174" s="29"/>
-      <c r="Z174" s="29"/>
-      <c r="AA174" s="29"/>
-      <c r="AB174" s="29"/>
-      <c r="AC174" s="29"/>
-      <c r="AD174" s="29"/>
-      <c r="AE174" s="29"/>
-      <c r="AF174" s="29"/>
-      <c r="AG174" s="29"/>
-      <c r="AH174" s="30"/>
+      <c r="G174" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="H174" s="33"/>
+      <c r="I174" s="33"/>
+      <c r="J174" s="33"/>
+      <c r="K174" s="34"/>
+      <c r="L174" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="M174" s="33"/>
+      <c r="N174" s="33"/>
+      <c r="O174" s="33"/>
+      <c r="P174" s="33"/>
+      <c r="Q174" s="33"/>
+      <c r="R174" s="33"/>
+      <c r="S174" s="33"/>
+      <c r="T174" s="33"/>
+      <c r="U174" s="33"/>
+      <c r="V174" s="33"/>
+      <c r="W174" s="33"/>
+      <c r="X174" s="33"/>
+      <c r="Y174" s="33"/>
+      <c r="Z174" s="33"/>
+      <c r="AA174" s="33"/>
+      <c r="AB174" s="33"/>
+      <c r="AC174" s="33"/>
+      <c r="AD174" s="33"/>
+      <c r="AE174" s="33"/>
+      <c r="AF174" s="33"/>
+      <c r="AG174" s="33"/>
+      <c r="AH174" s="34"/>
     </row>
     <row r="175" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C175" s="20"/>
       <c r="D175" s="20"/>
       <c r="E175" s="20"/>
-      <c r="G175" s="23"/>
-      <c r="H175" s="24"/>
-      <c r="I175" s="24"/>
-      <c r="J175" s="24"/>
-      <c r="K175" s="24"/>
-      <c r="L175" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="M175" s="24"/>
-      <c r="N175" s="24"/>
-      <c r="O175" s="24"/>
-      <c r="P175" s="24"/>
-      <c r="Q175" s="24"/>
-      <c r="R175" s="24"/>
-      <c r="S175" s="24"/>
-      <c r="T175" s="24"/>
-      <c r="U175" s="24"/>
-      <c r="V175" s="24"/>
-      <c r="W175" s="24"/>
-      <c r="X175" s="24"/>
-      <c r="Y175" s="24"/>
-      <c r="Z175" s="24"/>
-      <c r="AA175" s="24"/>
-      <c r="AB175" s="24"/>
-      <c r="AC175" s="24"/>
-      <c r="AD175" s="24"/>
-      <c r="AE175" s="24"/>
-      <c r="AF175" s="24"/>
-      <c r="AG175" s="24"/>
-      <c r="AH175" s="25"/>
+      <c r="G175" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="H175" s="29"/>
+      <c r="I175" s="29"/>
+      <c r="J175" s="29"/>
+      <c r="K175" s="29"/>
+      <c r="L175" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="M175" s="29"/>
+      <c r="N175" s="29"/>
+      <c r="O175" s="29"/>
+      <c r="P175" s="29"/>
+      <c r="Q175" s="29"/>
+      <c r="R175" s="29"/>
+      <c r="S175" s="29"/>
+      <c r="T175" s="29"/>
+      <c r="U175" s="29"/>
+      <c r="V175" s="29"/>
+      <c r="W175" s="29"/>
+      <c r="X175" s="29"/>
+      <c r="Y175" s="29"/>
+      <c r="Z175" s="29"/>
+      <c r="AA175" s="29"/>
+      <c r="AB175" s="29"/>
+      <c r="AC175" s="29"/>
+      <c r="AD175" s="29"/>
+      <c r="AE175" s="29"/>
+      <c r="AF175" s="29"/>
+      <c r="AG175" s="29"/>
+      <c r="AH175" s="30"/>
     </row>
     <row r="176" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C176" s="20"/>
       <c r="D176" s="20"/>
       <c r="E176" s="20"/>
-      <c r="G176" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="H176" s="29"/>
-      <c r="I176" s="29"/>
-      <c r="J176" s="29"/>
-      <c r="K176" s="29"/>
-      <c r="L176" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="M176" s="29"/>
-      <c r="N176" s="29"/>
-      <c r="O176" s="29"/>
-      <c r="P176" s="29"/>
-      <c r="Q176" s="29"/>
-      <c r="R176" s="29"/>
-      <c r="S176" s="29"/>
-      <c r="T176" s="29"/>
-      <c r="U176" s="29"/>
-      <c r="V176" s="29"/>
-      <c r="W176" s="29"/>
-      <c r="X176" s="29"/>
-      <c r="Y176" s="29"/>
-      <c r="Z176" s="29"/>
-      <c r="AA176" s="29"/>
-      <c r="AB176" s="29"/>
-      <c r="AC176" s="29"/>
-      <c r="AD176" s="29"/>
-      <c r="AE176" s="29"/>
-      <c r="AF176" s="29"/>
-      <c r="AG176" s="29"/>
-      <c r="AH176" s="30"/>
+      <c r="G176" s="23"/>
+      <c r="H176" s="24"/>
+      <c r="I176" s="24"/>
+      <c r="J176" s="24"/>
+      <c r="K176" s="24"/>
+      <c r="L176" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="M176" s="24"/>
+      <c r="N176" s="24"/>
+      <c r="O176" s="24"/>
+      <c r="P176" s="24"/>
+      <c r="Q176" s="24"/>
+      <c r="R176" s="24"/>
+      <c r="S176" s="24"/>
+      <c r="T176" s="24"/>
+      <c r="U176" s="24"/>
+      <c r="V176" s="24"/>
+      <c r="W176" s="24"/>
+      <c r="X176" s="24"/>
+      <c r="Y176" s="24"/>
+      <c r="Z176" s="24"/>
+      <c r="AA176" s="24"/>
+      <c r="AB176" s="24"/>
+      <c r="AC176" s="24"/>
+      <c r="AD176" s="24"/>
+      <c r="AE176" s="24"/>
+      <c r="AF176" s="24"/>
+      <c r="AG176" s="24"/>
+      <c r="AH176" s="25"/>
     </row>
     <row r="177" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C177" s="20"/>
       <c r="D177" s="20"/>
       <c r="E177" s="20"/>
-      <c r="G177" s="23"/>
-      <c r="H177" s="24"/>
-      <c r="I177" s="24"/>
-      <c r="J177" s="24"/>
-      <c r="K177" s="24"/>
-      <c r="L177" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="M177" s="24"/>
-      <c r="N177" s="24"/>
-      <c r="O177" s="24"/>
-      <c r="P177" s="24"/>
-      <c r="Q177" s="24"/>
-      <c r="R177" s="24"/>
-      <c r="S177" s="24"/>
-      <c r="T177" s="24"/>
-      <c r="U177" s="24"/>
-      <c r="V177" s="24"/>
-      <c r="W177" s="24"/>
-      <c r="X177" s="24"/>
-      <c r="Y177" s="24"/>
-      <c r="Z177" s="24"/>
-      <c r="AA177" s="24"/>
-      <c r="AB177" s="24"/>
-      <c r="AC177" s="24"/>
-      <c r="AD177" s="24"/>
-      <c r="AE177" s="24"/>
-      <c r="AF177" s="24"/>
-      <c r="AG177" s="24"/>
-      <c r="AH177" s="25"/>
+      <c r="G177" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="H177" s="29"/>
+      <c r="I177" s="29"/>
+      <c r="J177" s="29"/>
+      <c r="K177" s="29"/>
+      <c r="L177" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="M177" s="29"/>
+      <c r="N177" s="29"/>
+      <c r="O177" s="29"/>
+      <c r="P177" s="29"/>
+      <c r="Q177" s="29"/>
+      <c r="R177" s="29"/>
+      <c r="S177" s="29"/>
+      <c r="T177" s="29"/>
+      <c r="U177" s="29"/>
+      <c r="V177" s="29"/>
+      <c r="W177" s="29"/>
+      <c r="X177" s="29"/>
+      <c r="Y177" s="29"/>
+      <c r="Z177" s="29"/>
+      <c r="AA177" s="29"/>
+      <c r="AB177" s="29"/>
+      <c r="AC177" s="29"/>
+      <c r="AD177" s="29"/>
+      <c r="AE177" s="29"/>
+      <c r="AF177" s="29"/>
+      <c r="AG177" s="29"/>
+      <c r="AH177" s="30"/>
     </row>
     <row r="178" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C178" s="20"/>
@@ -6728,7 +6722,7 @@
       <c r="J178" s="24"/>
       <c r="K178" s="24"/>
       <c r="L178" s="23" t="s">
-        <v>182</v>
+        <v>56</v>
       </c>
       <c r="M178" s="24"/>
       <c r="N178" s="24"/>
@@ -6757,233 +6751,229 @@
       <c r="C179" s="20"/>
       <c r="D179" s="20"/>
       <c r="E179" s="20"/>
-      <c r="G179" s="26"/>
-      <c r="H179" s="27"/>
-      <c r="I179" s="27"/>
-      <c r="J179" s="27"/>
-      <c r="K179" s="27"/>
-      <c r="L179" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="M179" s="27"/>
-      <c r="N179" s="27"/>
-      <c r="O179" s="27"/>
-      <c r="P179" s="27"/>
-      <c r="Q179" s="27"/>
-      <c r="R179" s="27"/>
-      <c r="S179" s="27"/>
-      <c r="T179" s="27"/>
-      <c r="U179" s="27"/>
-      <c r="V179" s="27"/>
-      <c r="W179" s="27"/>
-      <c r="X179" s="27"/>
-      <c r="Y179" s="27"/>
-      <c r="Z179" s="27"/>
-      <c r="AA179" s="27"/>
-      <c r="AB179" s="27"/>
-      <c r="AC179" s="27"/>
-      <c r="AD179" s="27"/>
-      <c r="AE179" s="27"/>
-      <c r="AF179" s="27"/>
-      <c r="AG179" s="27"/>
-      <c r="AH179" s="31"/>
+      <c r="G179" s="23"/>
+      <c r="H179" s="24"/>
+      <c r="I179" s="24"/>
+      <c r="J179" s="24"/>
+      <c r="K179" s="24"/>
+      <c r="L179" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="M179" s="24"/>
+      <c r="N179" s="24"/>
+      <c r="O179" s="24"/>
+      <c r="P179" s="24"/>
+      <c r="Q179" s="24"/>
+      <c r="R179" s="24"/>
+      <c r="S179" s="24"/>
+      <c r="T179" s="24"/>
+      <c r="U179" s="24"/>
+      <c r="V179" s="24"/>
+      <c r="W179" s="24"/>
+      <c r="X179" s="24"/>
+      <c r="Y179" s="24"/>
+      <c r="Z179" s="24"/>
+      <c r="AA179" s="24"/>
+      <c r="AB179" s="24"/>
+      <c r="AC179" s="24"/>
+      <c r="AD179" s="24"/>
+      <c r="AE179" s="24"/>
+      <c r="AF179" s="24"/>
+      <c r="AG179" s="24"/>
+      <c r="AH179" s="25"/>
     </row>
     <row r="180" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C180" s="20"/>
       <c r="D180" s="20"/>
       <c r="E180" s="20"/>
-      <c r="G180" s="24"/>
-      <c r="H180" s="24"/>
-      <c r="I180" s="24"/>
-      <c r="J180" s="24"/>
-      <c r="K180" s="24"/>
-      <c r="L180" s="24"/>
-      <c r="M180" s="24"/>
-      <c r="N180" s="24"/>
-      <c r="O180" s="24"/>
-      <c r="P180" s="24"/>
-      <c r="Q180" s="24"/>
-      <c r="R180" s="24"/>
-      <c r="S180" s="24"/>
-      <c r="T180" s="24"/>
-      <c r="U180" s="24"/>
-      <c r="V180" s="24"/>
-      <c r="W180" s="24"/>
-      <c r="X180" s="24"/>
-      <c r="Y180" s="24"/>
-      <c r="Z180" s="24"/>
-      <c r="AA180" s="24"/>
-      <c r="AB180" s="24"/>
-      <c r="AC180" s="24"/>
-      <c r="AD180" s="24"/>
-      <c r="AE180" s="24"/>
-      <c r="AF180" s="24"/>
-      <c r="AG180" s="24"/>
-      <c r="AH180" s="24"/>
-      <c r="AI180" s="24"/>
+      <c r="G180" s="26"/>
+      <c r="H180" s="27"/>
+      <c r="I180" s="27"/>
+      <c r="J180" s="27"/>
+      <c r="K180" s="27"/>
+      <c r="L180" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="M180" s="27"/>
+      <c r="N180" s="27"/>
+      <c r="O180" s="27"/>
+      <c r="P180" s="27"/>
+      <c r="Q180" s="27"/>
+      <c r="R180" s="27"/>
+      <c r="S180" s="27"/>
+      <c r="T180" s="27"/>
+      <c r="U180" s="27"/>
+      <c r="V180" s="27"/>
+      <c r="W180" s="27"/>
+      <c r="X180" s="27"/>
+      <c r="Y180" s="27"/>
+      <c r="Z180" s="27"/>
+      <c r="AA180" s="27"/>
+      <c r="AB180" s="27"/>
+      <c r="AC180" s="27"/>
+      <c r="AD180" s="27"/>
+      <c r="AE180" s="27"/>
+      <c r="AF180" s="27"/>
+      <c r="AG180" s="27"/>
+      <c r="AH180" s="31"/>
     </row>
     <row r="181" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C181" s="20"/>
       <c r="D181" s="20"/>
       <c r="E181" s="20"/>
-      <c r="G181" s="21" t="s">
+      <c r="G181" s="24"/>
+      <c r="H181" s="24"/>
+      <c r="I181" s="24"/>
+      <c r="J181" s="24"/>
+      <c r="K181" s="24"/>
+      <c r="L181" s="24"/>
+      <c r="M181" s="24"/>
+      <c r="N181" s="24"/>
+      <c r="O181" s="24"/>
+      <c r="P181" s="24"/>
+      <c r="Q181" s="24"/>
+      <c r="R181" s="24"/>
+      <c r="S181" s="24"/>
+      <c r="T181" s="24"/>
+      <c r="U181" s="24"/>
+      <c r="V181" s="24"/>
+      <c r="W181" s="24"/>
+      <c r="X181" s="24"/>
+      <c r="Y181" s="24"/>
+      <c r="Z181" s="24"/>
+      <c r="AA181" s="24"/>
+      <c r="AB181" s="24"/>
+      <c r="AC181" s="24"/>
+      <c r="AD181" s="24"/>
+      <c r="AE181" s="24"/>
+      <c r="AF181" s="24"/>
+      <c r="AG181" s="24"/>
+      <c r="AH181" s="24"/>
+      <c r="AI181" s="24"/>
+    </row>
+    <row r="182" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C182" s="20"/>
+      <c r="D182" s="20"/>
+      <c r="E182" s="20"/>
+      <c r="G182" s="21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="182" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G182" s="32" t="str">
-        <f>G173</f>
+    <row r="183" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G183" s="32" t="str">
+        <f>G174</f>
         <v>方法</v>
       </c>
-      <c r="H182" s="33"/>
-      <c r="I182" s="33"/>
-      <c r="J182" s="33"/>
-      <c r="K182" s="34"/>
-      <c r="L182" s="33" t="s">
+      <c r="H183" s="33"/>
+      <c r="I183" s="33"/>
+      <c r="J183" s="33"/>
+      <c r="K183" s="34"/>
+      <c r="L183" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="M182" s="33"/>
-      <c r="N182" s="33"/>
-      <c r="O182" s="34"/>
-      <c r="P182" s="33" t="s">
+      <c r="M183" s="33"/>
+      <c r="N183" s="33"/>
+      <c r="O183" s="34"/>
+      <c r="P183" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="Q182" s="33"/>
-      <c r="R182" s="33"/>
-      <c r="S182" s="33"/>
-      <c r="T182" s="33"/>
-      <c r="U182" s="33"/>
-      <c r="V182" s="33"/>
-      <c r="W182" s="33"/>
-      <c r="X182" s="33"/>
-      <c r="Y182" s="33"/>
-      <c r="Z182" s="33"/>
-      <c r="AA182" s="33"/>
-      <c r="AB182" s="33"/>
-      <c r="AC182" s="33"/>
-      <c r="AD182" s="33"/>
-      <c r="AE182" s="33"/>
-      <c r="AF182" s="33"/>
-      <c r="AG182" s="33"/>
-      <c r="AH182" s="34"/>
-    </row>
-    <row r="183" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G183" s="23" t="str">
-        <f>G174</f>
+      <c r="Q183" s="33"/>
+      <c r="R183" s="33"/>
+      <c r="S183" s="33"/>
+      <c r="T183" s="33"/>
+      <c r="U183" s="33"/>
+      <c r="V183" s="33"/>
+      <c r="W183" s="33"/>
+      <c r="X183" s="33"/>
+      <c r="Y183" s="33"/>
+      <c r="Z183" s="33"/>
+      <c r="AA183" s="33"/>
+      <c r="AB183" s="33"/>
+      <c r="AC183" s="33"/>
+      <c r="AD183" s="33"/>
+      <c r="AE183" s="33"/>
+      <c r="AF183" s="33"/>
+      <c r="AG183" s="33"/>
+      <c r="AH183" s="34"/>
+    </row>
+    <row r="184" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G184" s="23" t="str">
+        <f>G175</f>
         <v>物理削除</v>
       </c>
-      <c r="H183" s="24"/>
-      <c r="I183" s="24"/>
-      <c r="J183" s="24"/>
-      <c r="K183" s="25"/>
-      <c r="L183" s="24" t="s">
+      <c r="H184" s="24"/>
+      <c r="I184" s="24"/>
+      <c r="J184" s="24"/>
+      <c r="K184" s="25"/>
+      <c r="L184" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="M183" s="24"/>
-      <c r="N183" s="24"/>
-      <c r="O183" s="25"/>
-      <c r="P183" s="24" t="s">
+      <c r="M184" s="24"/>
+      <c r="N184" s="24"/>
+      <c r="O184" s="25"/>
+      <c r="P184" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="Q183" s="24"/>
-      <c r="R183" s="24"/>
-      <c r="S183" s="24"/>
-      <c r="T183" s="24"/>
-      <c r="U183" s="24"/>
-      <c r="V183" s="24"/>
-      <c r="W183" s="24"/>
-      <c r="X183" s="24"/>
-      <c r="Y183" s="24"/>
-      <c r="Z183" s="24"/>
-      <c r="AA183" s="24"/>
-      <c r="AB183" s="24"/>
-      <c r="AC183" s="24"/>
-      <c r="AD183" s="24"/>
-      <c r="AE183" s="24"/>
-      <c r="AF183" s="24"/>
-      <c r="AG183" s="24"/>
-      <c r="AH183" s="25"/>
-    </row>
-    <row r="184" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G184" s="45" t="str">
-        <f>G176</f>
+      <c r="Q184" s="24"/>
+      <c r="R184" s="24"/>
+      <c r="S184" s="24"/>
+      <c r="T184" s="24"/>
+      <c r="U184" s="24"/>
+      <c r="V184" s="24"/>
+      <c r="W184" s="24"/>
+      <c r="X184" s="24"/>
+      <c r="Y184" s="24"/>
+      <c r="Z184" s="24"/>
+      <c r="AA184" s="24"/>
+      <c r="AB184" s="24"/>
+      <c r="AC184" s="24"/>
+      <c r="AD184" s="24"/>
+      <c r="AE184" s="24"/>
+      <c r="AF184" s="24"/>
+      <c r="AG184" s="24"/>
+      <c r="AH184" s="25"/>
+    </row>
+    <row r="185" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G185" s="45" t="str">
+        <f>G177</f>
         <v>論理削除</v>
       </c>
-      <c r="H184" s="46"/>
-      <c r="I184" s="46"/>
-      <c r="J184" s="46"/>
-      <c r="K184" s="47"/>
-      <c r="L184" s="46" t="s">
+      <c r="H185" s="46"/>
+      <c r="I185" s="46"/>
+      <c r="J185" s="46"/>
+      <c r="K185" s="47"/>
+      <c r="L185" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="M184" s="46"/>
-      <c r="N184" s="46"/>
-      <c r="O184" s="47"/>
-      <c r="P184" s="46" t="s">
+      <c r="M185" s="46"/>
+      <c r="N185" s="46"/>
+      <c r="O185" s="47"/>
+      <c r="P185" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="Q184" s="46"/>
-      <c r="R184" s="46"/>
-      <c r="S184" s="46"/>
-      <c r="T184" s="46"/>
-      <c r="U184" s="46"/>
-      <c r="V184" s="46"/>
-      <c r="W184" s="46"/>
-      <c r="X184" s="46"/>
-      <c r="Y184" s="46"/>
-      <c r="Z184" s="46"/>
-      <c r="AA184" s="46"/>
-      <c r="AB184" s="46"/>
-      <c r="AC184" s="46"/>
-      <c r="AD184" s="46"/>
-      <c r="AE184" s="46"/>
-      <c r="AF184" s="46"/>
-      <c r="AG184" s="46"/>
-      <c r="AH184" s="47"/>
-    </row>
-    <row r="185" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E185" s="16"/>
-      <c r="F185" s="18"/>
-      <c r="G185" s="18"/>
-      <c r="H185" s="18"/>
-      <c r="I185" s="18"/>
-      <c r="J185" s="18"/>
-      <c r="K185" s="18"/>
-      <c r="L185" s="18"/>
-      <c r="M185" s="18"/>
-      <c r="N185" s="18"/>
-      <c r="O185" s="18"/>
-      <c r="P185" s="18"/>
-      <c r="Q185" s="18"/>
-      <c r="R185" s="18"/>
-      <c r="S185" s="18"/>
-      <c r="T185" s="18"/>
-      <c r="U185" s="18"/>
-      <c r="V185" s="18"/>
-      <c r="W185" s="18"/>
-      <c r="X185" s="18"/>
-      <c r="Y185" s="18"/>
-      <c r="Z185" s="18"/>
-      <c r="AA185" s="18"/>
-      <c r="AB185" s="18"/>
-      <c r="AC185" s="18"/>
-      <c r="AD185" s="18"/>
-      <c r="AE185" s="18"/>
-      <c r="AF185" s="18"/>
-      <c r="AG185" s="18"/>
-      <c r="AH185" s="18"/>
-      <c r="AI185" s="18"/>
+      <c r="Q185" s="46"/>
+      <c r="R185" s="46"/>
+      <c r="S185" s="46"/>
+      <c r="T185" s="46"/>
+      <c r="U185" s="46"/>
+      <c r="V185" s="46"/>
+      <c r="W185" s="46"/>
+      <c r="X185" s="46"/>
+      <c r="Y185" s="46"/>
+      <c r="Z185" s="46"/>
+      <c r="AA185" s="46"/>
+      <c r="AB185" s="46"/>
+      <c r="AC185" s="46"/>
+      <c r="AD185" s="46"/>
+      <c r="AE185" s="46"/>
+      <c r="AF185" s="46"/>
+      <c r="AG185" s="46"/>
+      <c r="AH185" s="47"/>
     </row>
     <row r="186" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D186" s="16"/>
-      <c r="E186" s="18"/>
-      <c r="F186" s="22" t="str">
-        <f>E165&amp;"3."</f>
-        <v>7.3.4.5.3.</v>
-      </c>
-      <c r="G186" s="21" t="s">
-        <v>29</v>
-      </c>
+      <c r="E186" s="16"/>
+      <c r="F186" s="18"/>
+      <c r="G186" s="18"/>
       <c r="H186" s="18"/>
       <c r="I186" s="18"/>
       <c r="J186" s="18"/>
@@ -7013,11 +7003,16 @@
       <c r="AH186" s="18"/>
       <c r="AI186" s="18"/>
     </row>
-    <row r="187" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D187" s="16"/>
       <c r="E187" s="18"/>
-      <c r="F187" s="21"/>
-      <c r="G187" s="21"/>
+      <c r="F187" s="22" t="str">
+        <f>E165&amp;"3."</f>
+        <v>7.3.4.5.3.</v>
+      </c>
+      <c r="G187" s="21" t="s">
+        <v>29</v>
+      </c>
       <c r="H187" s="18"/>
       <c r="I187" s="18"/>
       <c r="J187" s="18"/>
@@ -7050,99 +7045,95 @@
     <row r="188" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D188" s="16"/>
       <c r="E188" s="18"/>
-      <c r="F188" s="18"/>
-      <c r="G188" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="H188" s="37"/>
-      <c r="I188" s="37"/>
-      <c r="J188" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="K188" s="37"/>
-      <c r="L188" s="37"/>
-      <c r="M188" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="N188" s="37"/>
-      <c r="O188" s="37"/>
-      <c r="P188" s="37"/>
-      <c r="Q188" s="37"/>
-      <c r="R188" s="37"/>
-      <c r="S188" s="37"/>
-      <c r="T188" s="37"/>
-      <c r="U188" s="37"/>
-      <c r="V188" s="37"/>
-      <c r="W188" s="37"/>
-      <c r="X188" s="38"/>
-      <c r="Y188" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z188" s="37"/>
-      <c r="AA188" s="37"/>
-      <c r="AB188" s="37"/>
-      <c r="AC188" s="37"/>
-      <c r="AD188" s="37"/>
-      <c r="AE188" s="37"/>
-      <c r="AF188" s="37"/>
-      <c r="AG188" s="37"/>
-      <c r="AH188" s="38"/>
+      <c r="F188" s="21"/>
+      <c r="G188" s="21"/>
+      <c r="H188" s="18"/>
+      <c r="I188" s="18"/>
+      <c r="J188" s="18"/>
+      <c r="K188" s="18"/>
+      <c r="L188" s="18"/>
+      <c r="M188" s="18"/>
+      <c r="N188" s="18"/>
+      <c r="O188" s="18"/>
+      <c r="P188" s="18"/>
+      <c r="Q188" s="18"/>
+      <c r="R188" s="18"/>
+      <c r="S188" s="18"/>
+      <c r="T188" s="18"/>
+      <c r="U188" s="18"/>
+      <c r="V188" s="18"/>
+      <c r="W188" s="18"/>
+      <c r="X188" s="18"/>
+      <c r="Y188" s="18"/>
+      <c r="Z188" s="18"/>
+      <c r="AA188" s="18"/>
+      <c r="AB188" s="18"/>
+      <c r="AC188" s="18"/>
+      <c r="AD188" s="18"/>
+      <c r="AE188" s="18"/>
+      <c r="AF188" s="18"/>
+      <c r="AG188" s="18"/>
+      <c r="AH188" s="18"/>
       <c r="AI188" s="18"/>
     </row>
     <row r="189" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D189" s="16"/>
       <c r="E189" s="18"/>
       <c r="F189" s="18"/>
-      <c r="G189" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="H189" s="18"/>
-      <c r="I189" s="18"/>
-      <c r="J189" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="K189" s="18"/>
-      <c r="L189" s="18"/>
-      <c r="M189" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="N189" s="18"/>
-      <c r="O189" s="18"/>
-      <c r="P189" s="18"/>
-      <c r="Q189" s="18"/>
-      <c r="R189" s="18"/>
-      <c r="S189" s="18"/>
-      <c r="T189" s="18"/>
-      <c r="U189" s="18"/>
-      <c r="V189" s="18"/>
-      <c r="W189" s="18"/>
-      <c r="X189" s="40"/>
-      <c r="Y189" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z189" s="18"/>
-      <c r="AA189" s="18"/>
-      <c r="AB189" s="18"/>
-      <c r="AC189" s="18"/>
-      <c r="AD189" s="18"/>
-      <c r="AE189" s="18"/>
-      <c r="AF189" s="18"/>
-      <c r="AG189" s="18"/>
-      <c r="AH189" s="40"/>
+      <c r="G189" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="H189" s="37"/>
+      <c r="I189" s="37"/>
+      <c r="J189" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="K189" s="37"/>
+      <c r="L189" s="37"/>
+      <c r="M189" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="N189" s="37"/>
+      <c r="O189" s="37"/>
+      <c r="P189" s="37"/>
+      <c r="Q189" s="37"/>
+      <c r="R189" s="37"/>
+      <c r="S189" s="37"/>
+      <c r="T189" s="37"/>
+      <c r="U189" s="37"/>
+      <c r="V189" s="37"/>
+      <c r="W189" s="37"/>
+      <c r="X189" s="38"/>
+      <c r="Y189" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z189" s="37"/>
+      <c r="AA189" s="37"/>
+      <c r="AB189" s="37"/>
+      <c r="AC189" s="37"/>
+      <c r="AD189" s="37"/>
+      <c r="AE189" s="37"/>
+      <c r="AF189" s="37"/>
+      <c r="AG189" s="37"/>
+      <c r="AH189" s="38"/>
       <c r="AI189" s="18"/>
     </row>
     <row r="190" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D190" s="16"/>
       <c r="E190" s="18"/>
       <c r="F190" s="18"/>
-      <c r="G190" s="39"/>
+      <c r="G190" s="39" t="s">
+        <v>51</v>
+      </c>
       <c r="H190" s="18"/>
       <c r="I190" s="18"/>
-      <c r="J190" s="39"/>
+      <c r="J190" s="39" t="s">
+        <v>61</v>
+      </c>
       <c r="K190" s="18"/>
       <c r="L190" s="18"/>
       <c r="M190" s="39" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="N190" s="18"/>
       <c r="O190" s="18"/>
@@ -7155,7 +7146,9 @@
       <c r="V190" s="18"/>
       <c r="W190" s="18"/>
       <c r="X190" s="40"/>
-      <c r="Y190" s="18"/>
+      <c r="Y190" s="18" t="s">
+        <v>68</v>
+      </c>
       <c r="Z190" s="18"/>
       <c r="AA190" s="18"/>
       <c r="AB190" s="18"/>
@@ -7174,185 +7167,187 @@
       <c r="G191" s="39"/>
       <c r="H191" s="18"/>
       <c r="I191" s="18"/>
-      <c r="J191" s="52" t="s">
-        <v>62</v>
-      </c>
-      <c r="K191" s="53"/>
-      <c r="L191" s="53"/>
-      <c r="M191" s="52" t="s">
-        <v>65</v>
-      </c>
-      <c r="N191" s="53"/>
-      <c r="O191" s="53"/>
-      <c r="P191" s="53"/>
-      <c r="Q191" s="53"/>
-      <c r="R191" s="53"/>
-      <c r="S191" s="53"/>
-      <c r="T191" s="53"/>
-      <c r="U191" s="53"/>
-      <c r="V191" s="53"/>
-      <c r="W191" s="53"/>
-      <c r="X191" s="54"/>
-      <c r="Y191" s="53" t="s">
-        <v>104</v>
-      </c>
-      <c r="Z191" s="53"/>
-      <c r="AA191" s="53"/>
-      <c r="AB191" s="53"/>
-      <c r="AC191" s="53"/>
-      <c r="AD191" s="53"/>
-      <c r="AE191" s="53"/>
-      <c r="AF191" s="53"/>
-      <c r="AG191" s="53"/>
-      <c r="AH191" s="54"/>
+      <c r="J191" s="39"/>
+      <c r="K191" s="18"/>
+      <c r="L191" s="18"/>
+      <c r="M191" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="N191" s="18"/>
+      <c r="O191" s="18"/>
+      <c r="P191" s="18"/>
+      <c r="Q191" s="18"/>
+      <c r="R191" s="18"/>
+      <c r="S191" s="18"/>
+      <c r="T191" s="18"/>
+      <c r="U191" s="18"/>
+      <c r="V191" s="18"/>
+      <c r="W191" s="18"/>
+      <c r="X191" s="40"/>
+      <c r="Y191" s="18"/>
+      <c r="Z191" s="18"/>
+      <c r="AA191" s="18"/>
+      <c r="AB191" s="18"/>
+      <c r="AC191" s="18"/>
+      <c r="AD191" s="18"/>
+      <c r="AE191" s="18"/>
+      <c r="AF191" s="18"/>
+      <c r="AG191" s="18"/>
+      <c r="AH191" s="40"/>
       <c r="AI191" s="18"/>
     </row>
-    <row r="192" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D192" s="16"/>
       <c r="E192" s="18"/>
       <c r="F192" s="18"/>
       <c r="G192" s="39"/>
       <c r="H192" s="18"/>
       <c r="I192" s="18"/>
-      <c r="J192" s="41"/>
-      <c r="K192" s="42"/>
-      <c r="L192" s="42"/>
-      <c r="M192" s="41"/>
-      <c r="N192" s="42"/>
-      <c r="O192" s="42"/>
-      <c r="P192" s="42"/>
-      <c r="Q192" s="42"/>
-      <c r="R192" s="42"/>
-      <c r="S192" s="42"/>
-      <c r="T192" s="42"/>
-      <c r="U192" s="42"/>
-      <c r="V192" s="42"/>
-      <c r="W192" s="42"/>
-      <c r="X192" s="43"/>
-      <c r="Y192" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="Z192" s="42"/>
-      <c r="AA192" s="42"/>
-      <c r="AB192" s="42"/>
-      <c r="AC192" s="42"/>
-      <c r="AD192" s="42"/>
-      <c r="AE192" s="42"/>
-      <c r="AF192" s="42"/>
-      <c r="AG192" s="42"/>
-      <c r="AH192" s="43"/>
+      <c r="J192" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="K192" s="53"/>
+      <c r="L192" s="53"/>
+      <c r="M192" s="52" t="s">
+        <v>65</v>
+      </c>
+      <c r="N192" s="53"/>
+      <c r="O192" s="53"/>
+      <c r="P192" s="53"/>
+      <c r="Q192" s="53"/>
+      <c r="R192" s="53"/>
+      <c r="S192" s="53"/>
+      <c r="T192" s="53"/>
+      <c r="U192" s="53"/>
+      <c r="V192" s="53"/>
+      <c r="W192" s="53"/>
+      <c r="X192" s="54"/>
+      <c r="Y192" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z192" s="53"/>
+      <c r="AA192" s="53"/>
+      <c r="AB192" s="53"/>
+      <c r="AC192" s="53"/>
+      <c r="AD192" s="53"/>
+      <c r="AE192" s="53"/>
+      <c r="AF192" s="53"/>
+      <c r="AG192" s="53"/>
+      <c r="AH192" s="54"/>
       <c r="AI192" s="18"/>
     </row>
-    <row r="193" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D193" s="16"/>
       <c r="E193" s="18"/>
       <c r="F193" s="18"/>
       <c r="G193" s="39"/>
       <c r="H193" s="18"/>
       <c r="I193" s="18"/>
-      <c r="J193" s="52" t="s">
-        <v>63</v>
-      </c>
-      <c r="K193" s="53"/>
-      <c r="L193" s="53"/>
-      <c r="M193" s="52" t="s">
-        <v>66</v>
-      </c>
-      <c r="N193" s="53"/>
-      <c r="O193" s="53"/>
-      <c r="P193" s="53"/>
-      <c r="Q193" s="53"/>
-      <c r="R193" s="53"/>
-      <c r="S193" s="53"/>
-      <c r="T193" s="53"/>
-      <c r="U193" s="53"/>
-      <c r="V193" s="53"/>
-      <c r="W193" s="53"/>
-      <c r="X193" s="54"/>
-      <c r="Y193" s="52" t="s">
-        <v>105</v>
-      </c>
-      <c r="Z193" s="53"/>
-      <c r="AA193" s="53"/>
-      <c r="AB193" s="53"/>
-      <c r="AC193" s="53"/>
-      <c r="AD193" s="53"/>
-      <c r="AE193" s="53"/>
-      <c r="AF193" s="53"/>
-      <c r="AG193" s="53"/>
-      <c r="AH193" s="54"/>
+      <c r="J193" s="41"/>
+      <c r="K193" s="42"/>
+      <c r="L193" s="42"/>
+      <c r="M193" s="41"/>
+      <c r="N193" s="42"/>
+      <c r="O193" s="42"/>
+      <c r="P193" s="42"/>
+      <c r="Q193" s="42"/>
+      <c r="R193" s="42"/>
+      <c r="S193" s="42"/>
+      <c r="T193" s="42"/>
+      <c r="U193" s="42"/>
+      <c r="V193" s="42"/>
+      <c r="W193" s="42"/>
+      <c r="X193" s="43"/>
+      <c r="Y193" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z193" s="42"/>
+      <c r="AA193" s="42"/>
+      <c r="AB193" s="42"/>
+      <c r="AC193" s="42"/>
+      <c r="AD193" s="42"/>
+      <c r="AE193" s="42"/>
+      <c r="AF193" s="42"/>
+      <c r="AG193" s="42"/>
+      <c r="AH193" s="43"/>
       <c r="AI193" s="18"/>
     </row>
     <row r="194" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D194" s="16"/>
       <c r="E194" s="18"/>
       <c r="F194" s="18"/>
-      <c r="G194" s="41"/>
-      <c r="H194" s="42"/>
-      <c r="I194" s="42"/>
-      <c r="J194" s="41"/>
-      <c r="K194" s="42"/>
-      <c r="L194" s="42"/>
-      <c r="M194" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="N194" s="42"/>
-      <c r="O194" s="42"/>
-      <c r="P194" s="42"/>
-      <c r="Q194" s="42"/>
-      <c r="R194" s="42"/>
-      <c r="S194" s="42"/>
-      <c r="T194" s="42"/>
-      <c r="U194" s="42"/>
-      <c r="V194" s="42"/>
-      <c r="W194" s="42"/>
-      <c r="X194" s="43"/>
-      <c r="Y194" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="Z194" s="42"/>
-      <c r="AA194" s="42"/>
-      <c r="AB194" s="42"/>
-      <c r="AC194" s="42"/>
-      <c r="AD194" s="42"/>
-      <c r="AE194" s="42"/>
-      <c r="AF194" s="42"/>
-      <c r="AG194" s="42"/>
-      <c r="AH194" s="43"/>
+      <c r="G194" s="39"/>
+      <c r="H194" s="18"/>
+      <c r="I194" s="18"/>
+      <c r="J194" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="K194" s="53"/>
+      <c r="L194" s="53"/>
+      <c r="M194" s="52" t="s">
+        <v>66</v>
+      </c>
+      <c r="N194" s="53"/>
+      <c r="O194" s="53"/>
+      <c r="P194" s="53"/>
+      <c r="Q194" s="53"/>
+      <c r="R194" s="53"/>
+      <c r="S194" s="53"/>
+      <c r="T194" s="53"/>
+      <c r="U194" s="53"/>
+      <c r="V194" s="53"/>
+      <c r="W194" s="53"/>
+      <c r="X194" s="54"/>
+      <c r="Y194" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z194" s="53"/>
+      <c r="AA194" s="53"/>
+      <c r="AB194" s="53"/>
+      <c r="AC194" s="53"/>
+      <c r="AD194" s="53"/>
+      <c r="AE194" s="53"/>
+      <c r="AF194" s="53"/>
+      <c r="AG194" s="53"/>
+      <c r="AH194" s="54"/>
       <c r="AI194" s="18"/>
     </row>
     <row r="195" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D195" s="16"/>
       <c r="E195" s="18"/>
       <c r="F195" s="18"/>
-      <c r="G195" s="18"/>
-      <c r="H195" s="18"/>
-      <c r="I195" s="18"/>
-      <c r="J195" s="18"/>
-      <c r="K195" s="18"/>
-      <c r="L195" s="18"/>
-      <c r="M195" s="18"/>
-      <c r="N195" s="18"/>
-      <c r="O195" s="18"/>
-      <c r="P195" s="18"/>
-      <c r="Q195" s="18"/>
-      <c r="R195" s="18"/>
-      <c r="S195" s="18"/>
-      <c r="T195" s="18"/>
-      <c r="U195" s="18"/>
-      <c r="V195" s="18"/>
-      <c r="W195" s="18"/>
-      <c r="X195" s="18"/>
-      <c r="Y195" s="18"/>
-      <c r="Z195" s="18"/>
-      <c r="AA195" s="18"/>
-      <c r="AB195" s="18"/>
-      <c r="AC195" s="18"/>
-      <c r="AD195" s="18"/>
-      <c r="AE195" s="18"/>
-      <c r="AF195" s="18"/>
-      <c r="AG195" s="18"/>
-      <c r="AH195" s="18"/>
+      <c r="G195" s="41"/>
+      <c r="H195" s="42"/>
+      <c r="I195" s="42"/>
+      <c r="J195" s="41"/>
+      <c r="K195" s="42"/>
+      <c r="L195" s="42"/>
+      <c r="M195" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="N195" s="42"/>
+      <c r="O195" s="42"/>
+      <c r="P195" s="42"/>
+      <c r="Q195" s="42"/>
+      <c r="R195" s="42"/>
+      <c r="S195" s="42"/>
+      <c r="T195" s="42"/>
+      <c r="U195" s="42"/>
+      <c r="V195" s="42"/>
+      <c r="W195" s="42"/>
+      <c r="X195" s="43"/>
+      <c r="Y195" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z195" s="42"/>
+      <c r="AA195" s="42"/>
+      <c r="AB195" s="42"/>
+      <c r="AC195" s="42"/>
+      <c r="AD195" s="42"/>
+      <c r="AE195" s="42"/>
+      <c r="AF195" s="42"/>
+      <c r="AG195" s="42"/>
+      <c r="AH195" s="43"/>
       <c r="AI195" s="18"/>
     </row>
     <row r="196" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -7390,13 +7385,8 @@
       <c r="AI196" s="18"/>
     </row>
     <row r="197" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D197" s="22" t="str">
-        <f>$C$7&amp;"5."</f>
-        <v>7.3.5.</v>
-      </c>
-      <c r="E197" s="17" t="s">
-        <v>29</v>
-      </c>
+      <c r="D197" s="16"/>
+      <c r="E197" s="18"/>
       <c r="F197" s="18"/>
       <c r="G197" s="18"/>
       <c r="H197" s="18"/>
@@ -7428,9 +7418,14 @@
       <c r="AH197" s="18"/>
       <c r="AI197" s="18"/>
     </row>
-    <row r="198" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C198" s="20"/>
-      <c r="D198" s="22"/>
+    <row r="198" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D198" s="22" t="str">
+        <f>$C$7&amp;"5."</f>
+        <v>7.3.5.</v>
+      </c>
+      <c r="E198" s="17" t="s">
+        <v>29</v>
+      </c>
       <c r="F198" s="18"/>
       <c r="G198" s="18"/>
       <c r="H198" s="18"/>
@@ -7465,13 +7460,7 @@
     <row r="199" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C199" s="20"/>
       <c r="D199" s="22"/>
-      <c r="E199" s="22" t="str">
-        <f>$D$197&amp;"1."</f>
-        <v>7.3.5.1.</v>
-      </c>
-      <c r="F199" s="17" t="s">
-        <v>112</v>
-      </c>
+      <c r="F199" s="18"/>
       <c r="G199" s="18"/>
       <c r="H199" s="18"/>
       <c r="I199" s="18"/>
@@ -7505,9 +7494,12 @@
     <row r="200" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C200" s="20"/>
       <c r="D200" s="22"/>
-      <c r="E200" s="17"/>
+      <c r="E200" s="22" t="str">
+        <f>$D$198&amp;"1."</f>
+        <v>7.3.5.1.</v>
+      </c>
       <c r="F200" s="17" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="G200" s="18"/>
       <c r="H200" s="18"/>
@@ -7543,7 +7535,9 @@
       <c r="C201" s="20"/>
       <c r="D201" s="22"/>
       <c r="E201" s="17"/>
-      <c r="F201" s="18"/>
+      <c r="F201" s="17" t="s">
+        <v>138</v>
+      </c>
       <c r="G201" s="18"/>
       <c r="H201" s="18"/>
       <c r="I201" s="18"/>
@@ -7574,24 +7568,59 @@
       <c r="AH201" s="18"/>
       <c r="AI201" s="18"/>
     </row>
-    <row r="202" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="202" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C202" s="20"/>
-      <c r="E202" s="22" t="str">
-        <f>$D$197&amp;"2."</f>
-        <v>7.3.5.2.</v>
-      </c>
-      <c r="F202" s="17" t="s">
-        <v>84</v>
-      </c>
+      <c r="D202" s="22"/>
+      <c r="E202" s="17"/>
+      <c r="F202" s="18"/>
+      <c r="G202" s="18"/>
+      <c r="H202" s="18"/>
+      <c r="I202" s="18"/>
+      <c r="J202" s="18"/>
+      <c r="K202" s="18"/>
+      <c r="L202" s="18"/>
+      <c r="M202" s="18"/>
+      <c r="N202" s="18"/>
+      <c r="O202" s="18"/>
+      <c r="P202" s="18"/>
+      <c r="Q202" s="18"/>
+      <c r="R202" s="18"/>
+      <c r="S202" s="18"/>
+      <c r="T202" s="18"/>
+      <c r="U202" s="18"/>
+      <c r="V202" s="18"/>
+      <c r="W202" s="18"/>
+      <c r="X202" s="18"/>
+      <c r="Y202" s="18"/>
+      <c r="Z202" s="18"/>
+      <c r="AA202" s="18"/>
+      <c r="AB202" s="18"/>
+      <c r="AC202" s="18"/>
+      <c r="AD202" s="18"/>
+      <c r="AE202" s="18"/>
+      <c r="AF202" s="18"/>
+      <c r="AG202" s="18"/>
+      <c r="AH202" s="18"/>
+      <c r="AI202" s="18"/>
     </row>
     <row r="203" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C203" s="20"/>
-      <c r="F203" s="4" t="s">
-        <v>85</v>
+      <c r="E203" s="22" t="str">
+        <f>$D$198&amp;"2."</f>
+        <v>7.3.5.2.</v>
+      </c>
+      <c r="F203" s="17" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="204" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C204" s="20"/>
+      <c r="F204" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="205" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C205" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.3DBアクセス処理.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.3DBアクセス処理.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E0216D-5655-43BE-85F3-3564F8774F50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F92CB52-F2AA-4227-92EB-D6A91F97516F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="185">
   <si>
     <t>工程</t>
     <rPh sb="0" eb="2">
@@ -1445,6 +1445,16 @@
     </rPh>
     <rPh sb="54" eb="55">
       <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>削除対象となるフラグの状態</t>
+    <rPh sb="0" eb="4">
+      <t>サクジョタイショウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジョウタイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -7337,7 +7347,7 @@
       <c r="W195" s="42"/>
       <c r="X195" s="43"/>
       <c r="Y195" s="41" t="s">
-        <v>106</v>
+        <v>184</v>
       </c>
       <c r="Z195" s="42"/>
       <c r="AA195" s="42"/>

--- a/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.3DBアクセス処理.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.3DBアクセス処理.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F92CB52-F2AA-4227-92EB-D6A91F97516F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF0AFFB-2744-44BA-9115-8F0B651108B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -536,13 +536,6 @@
   </si>
   <si>
     <t>不特定多数のユーザが参照機能など短いトランザクションを多く生成するため。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>手段</t>
-    <rPh sb="0" eb="2">
-      <t>シュダン</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1455,6 +1448,13 @@
     </rPh>
     <rPh sb="11" eb="13">
       <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>管理方式</t>
+    <rPh sb="0" eb="4">
+      <t>カンリホウシキ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2287,7 +2287,7 @@
       </c>
       <c r="Q1" s="2"/>
       <c r="R1" s="62" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S1" s="63"/>
       <c r="T1" s="63"/>
@@ -2439,27 +2439,27 @@
     </row>
     <row r="11" spans="1:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F11" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F12" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F13" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F14" s="21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F15" s="21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2469,18 +2469,18 @@
         <v>7.3.1.2.</v>
       </c>
       <c r="F17" s="21" t="str">
-        <f>$E$9&amp;"手段"</f>
-        <v>コネクション手段</v>
+        <f>$E$9&amp;"管理"</f>
+        <v>コネクション管理</v>
       </c>
     </row>
     <row r="18" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F18" s="32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G18" s="33"/>
       <c r="H18" s="34"/>
       <c r="I18" s="33" t="s">
-        <v>73</v>
+        <v>184</v>
       </c>
       <c r="J18" s="33"/>
       <c r="K18" s="33"/>
@@ -2517,7 +2517,7 @@
       <c r="G19" s="24"/>
       <c r="H19" s="25"/>
       <c r="I19" s="48" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J19" s="24"/>
       <c r="K19" s="24"/>
@@ -2554,7 +2554,7 @@
       <c r="G20" s="29"/>
       <c r="H20" s="30"/>
       <c r="I20" s="49" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J20" s="29"/>
       <c r="K20" s="29"/>
@@ -2562,7 +2562,7 @@
       <c r="M20" s="29"/>
       <c r="N20" s="30"/>
       <c r="O20" s="44" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P20" s="29"/>
       <c r="Q20" s="29"/>
@@ -2595,7 +2595,7 @@
       <c r="M21" s="24"/>
       <c r="N21" s="25"/>
       <c r="O21" s="51" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P21" s="24"/>
       <c r="Q21" s="24"/>
@@ -2628,7 +2628,7 @@
       <c r="M22" s="27"/>
       <c r="N22" s="31"/>
       <c r="O22" s="27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P22" s="27"/>
       <c r="Q22" s="27"/>
@@ -2704,12 +2704,12 @@
     </row>
     <row r="27" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F27" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F28" s="21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="29" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2720,23 +2720,23 @@
     <row r="30" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="31" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F31" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="32" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F32" s="21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F33" s="21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="34" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="35" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F35" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="36" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2752,7 +2752,7 @@
         <v>24</v>
       </c>
       <c r="G37" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="38" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2784,12 +2784,12 @@
     </row>
     <row r="42" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F42" s="55" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="43" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F43" s="55" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="44" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2842,7 +2842,7 @@
         <v>7.3.3.1.</v>
       </c>
       <c r="F47" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G47" s="17"/>
       <c r="H47" s="17"/>
@@ -2878,7 +2878,7 @@
       <c r="D48" s="22"/>
       <c r="E48" s="17"/>
       <c r="F48" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G48" s="17"/>
       <c r="H48" s="17"/>
@@ -2914,7 +2914,7 @@
       <c r="D49" s="22"/>
       <c r="E49" s="17"/>
       <c r="F49" s="17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G49" s="17"/>
       <c r="H49" s="17"/>
@@ -2950,7 +2950,7 @@
       <c r="D50" s="22"/>
       <c r="E50" s="17"/>
       <c r="F50" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G50" s="17"/>
       <c r="H50" s="17"/>
@@ -3021,7 +3021,7 @@
       <c r="E52" s="17"/>
       <c r="F52" s="17"/>
       <c r="G52" s="17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H52" s="17"/>
       <c r="I52" s="17"/>
@@ -3057,7 +3057,7 @@
       <c r="E53" s="17"/>
       <c r="F53" s="17"/>
       <c r="G53" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H53" s="17"/>
       <c r="I53" s="17"/>
@@ -3093,7 +3093,7 @@
       <c r="E54" s="17"/>
       <c r="F54" s="17"/>
       <c r="G54" s="17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H54" s="17"/>
       <c r="I54" s="17"/>
@@ -3163,7 +3163,7 @@
       <c r="E56" s="17"/>
       <c r="F56" s="17"/>
       <c r="G56" s="17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H56" s="17"/>
       <c r="I56" s="17"/>
@@ -3199,7 +3199,7 @@
       <c r="E57" s="17"/>
       <c r="F57" s="17"/>
       <c r="G57" s="17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H57" s="17"/>
       <c r="I57" s="17"/>
@@ -3235,7 +3235,7 @@
       <c r="E58" s="17"/>
       <c r="F58" s="17"/>
       <c r="G58" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H58" s="17"/>
       <c r="I58" s="17"/>
@@ -3271,7 +3271,7 @@
       <c r="E59" s="17"/>
       <c r="F59" s="17"/>
       <c r="G59" s="17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H59" s="17"/>
       <c r="I59" s="17"/>
@@ -3307,7 +3307,7 @@
       <c r="E60" s="17"/>
       <c r="F60" s="17"/>
       <c r="G60" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H60" s="17"/>
       <c r="I60" s="17"/>
@@ -3376,7 +3376,7 @@
       <c r="D62" s="22"/>
       <c r="E62" s="17"/>
       <c r="F62" s="17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G62" s="17"/>
       <c r="H62" s="17"/>
@@ -3412,7 +3412,7 @@
       <c r="D63" s="22"/>
       <c r="E63" s="17"/>
       <c r="F63" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G63" s="17"/>
       <c r="H63" s="17"/>
@@ -3482,7 +3482,7 @@
       <c r="D65" s="22"/>
       <c r="E65" s="17"/>
       <c r="F65" s="17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G65" s="17"/>
       <c r="H65" s="17"/>
@@ -3518,7 +3518,7 @@
       <c r="D66" s="22"/>
       <c r="E66" s="17"/>
       <c r="F66" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G66" s="17"/>
       <c r="H66" s="17"/>
@@ -3591,7 +3591,7 @@
         <v>7.3.3.2.</v>
       </c>
       <c r="F68" s="17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G68" s="17"/>
       <c r="H68" s="17"/>
@@ -3627,7 +3627,7 @@
       <c r="D69" s="22"/>
       <c r="E69" s="17"/>
       <c r="F69" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G69" s="17"/>
       <c r="H69" s="17"/>
@@ -3663,7 +3663,7 @@
       <c r="D70" s="22"/>
       <c r="E70" s="17"/>
       <c r="F70" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G70" s="17"/>
       <c r="H70" s="17"/>
@@ -3699,7 +3699,7 @@
       <c r="D71" s="22"/>
       <c r="E71" s="17"/>
       <c r="F71" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G71" s="17"/>
       <c r="H71" s="17"/>
@@ -3735,7 +3735,7 @@
       <c r="D72" s="22"/>
       <c r="E72" s="17"/>
       <c r="F72" s="21" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G72" s="17"/>
       <c r="H72" s="17"/>
@@ -3771,7 +3771,7 @@
       <c r="D73" s="22"/>
       <c r="E73" s="17"/>
       <c r="F73" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G73" s="17"/>
       <c r="H73" s="17"/>
@@ -3807,7 +3807,7 @@
       <c r="D74" s="22"/>
       <c r="E74" s="17"/>
       <c r="F74" s="17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G74" s="17"/>
       <c r="H74" s="17"/>
@@ -3877,7 +3877,7 @@
       <c r="D76" s="22"/>
       <c r="E76" s="17"/>
       <c r="F76" s="17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G76" s="17"/>
       <c r="H76" s="17"/>
@@ -3913,7 +3913,7 @@
       <c r="D77" s="22"/>
       <c r="E77" s="17"/>
       <c r="F77" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G77" s="17"/>
       <c r="H77" s="17"/>
@@ -3983,7 +3983,7 @@
       <c r="D79" s="22"/>
       <c r="E79" s="17"/>
       <c r="F79" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G79" s="17"/>
       <c r="H79" s="17"/>
@@ -4019,7 +4019,7 @@
       <c r="D80" s="22"/>
       <c r="E80" s="17"/>
       <c r="F80" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G80" s="17"/>
       <c r="H80" s="17"/>
@@ -4055,7 +4055,7 @@
       <c r="D81" s="22"/>
       <c r="E81" s="17"/>
       <c r="F81" s="17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G81" s="17"/>
       <c r="H81" s="17"/>
@@ -4128,7 +4128,7 @@
         <v>7.3.3.3.</v>
       </c>
       <c r="F83" s="17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G83" s="17"/>
       <c r="H83" s="17"/>
@@ -4164,7 +4164,7 @@
       <c r="D84" s="22"/>
       <c r="E84" s="17"/>
       <c r="F84" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G84" s="17"/>
       <c r="H84" s="17"/>
@@ -4200,7 +4200,7 @@
       <c r="D85" s="22"/>
       <c r="E85" s="17"/>
       <c r="F85" s="21" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G85" s="17"/>
       <c r="H85" s="17"/>
@@ -4236,7 +4236,7 @@
       <c r="D86" s="22"/>
       <c r="E86" s="17"/>
       <c r="F86" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G86" s="17"/>
       <c r="H86" s="17"/>
@@ -4272,7 +4272,7 @@
       <c r="D87" s="22"/>
       <c r="E87" s="17"/>
       <c r="F87" s="17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G87" s="17"/>
       <c r="H87" s="17"/>
@@ -4342,14 +4342,14 @@
       <c r="D89" s="22"/>
       <c r="E89" s="17"/>
       <c r="F89" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G89" s="17"/>
       <c r="H89" s="17"/>
       <c r="I89" s="17"/>
       <c r="J89" s="17"/>
       <c r="K89" s="17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L89" s="17"/>
       <c r="M89" s="17"/>
@@ -4414,7 +4414,7 @@
       <c r="D91" s="22"/>
       <c r="E91" s="17"/>
       <c r="F91" s="17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G91" s="17"/>
       <c r="H91" s="17"/>
@@ -4597,7 +4597,7 @@
         <v>7.3.4.1.1.</v>
       </c>
       <c r="G96" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="97" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4785,7 +4785,7 @@
       <c r="E102" s="18"/>
       <c r="F102" s="18"/>
       <c r="G102" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H102" s="18"/>
       <c r="I102" s="18"/>
@@ -4900,7 +4900,7 @@
     </row>
     <row r="106" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G106" s="32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H106" s="33"/>
       <c r="I106" s="33"/>
@@ -5089,12 +5089,12 @@
     </row>
     <row r="113" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G113" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="114" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G114" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="115" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5200,7 +5200,7 @@
       <c r="J120" s="29"/>
       <c r="K120" s="29"/>
       <c r="L120" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M120" s="29"/>
       <c r="N120" s="29"/>
@@ -5235,7 +5235,7 @@
       <c r="J121" s="27"/>
       <c r="K121" s="27"/>
       <c r="L121" s="26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M121" s="27"/>
       <c r="N121" s="27"/>
@@ -5345,12 +5345,12 @@
     </row>
     <row r="125" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G125" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="126" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G126" s="21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="127" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5413,7 +5413,7 @@
       <c r="D132" s="20"/>
       <c r="E132" s="20"/>
       <c r="G132" s="28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H132" s="29"/>
       <c r="I132" s="29"/>
@@ -5520,14 +5520,14 @@
       <c r="D135" s="20"/>
       <c r="E135" s="20"/>
       <c r="G135" s="28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H135" s="29"/>
       <c r="I135" s="29"/>
       <c r="J135" s="29"/>
       <c r="K135" s="29"/>
       <c r="L135" s="28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M135" s="29"/>
       <c r="N135" s="29"/>
@@ -5562,7 +5562,7 @@
       <c r="J136" s="24"/>
       <c r="K136" s="24"/>
       <c r="L136" s="23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M136" s="24"/>
       <c r="N136" s="24"/>
@@ -5666,7 +5666,7 @@
     </row>
     <row r="140" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G140" s="32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H140" s="33"/>
       <c r="I140" s="33"/>
@@ -5677,7 +5677,7 @@
       <c r="L140" s="33"/>
       <c r="M140" s="34"/>
       <c r="N140" s="33" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O140" s="33"/>
       <c r="P140" s="33"/>
@@ -5702,18 +5702,18 @@
     </row>
     <row r="141" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G141" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H141" s="24"/>
       <c r="I141" s="24"/>
       <c r="J141" s="24"/>
       <c r="K141" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L141" s="24"/>
       <c r="M141" s="25"/>
       <c r="N141" s="24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O141" s="24"/>
       <c r="P141" s="24"/>
@@ -5745,7 +5745,7 @@
       <c r="L142" s="24"/>
       <c r="M142" s="25"/>
       <c r="N142" s="24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O142" s="24"/>
       <c r="P142" s="24"/>
@@ -5777,7 +5777,7 @@
       <c r="L143" s="24"/>
       <c r="M143" s="25"/>
       <c r="N143" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O143" s="24"/>
       <c r="P143" s="24"/>
@@ -5802,18 +5802,18 @@
     </row>
     <row r="144" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G144" s="28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H144" s="29"/>
       <c r="I144" s="29"/>
       <c r="J144" s="29"/>
       <c r="K144" s="28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L144" s="29"/>
       <c r="M144" s="30"/>
       <c r="N144" s="29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O144" s="29"/>
       <c r="P144" s="29"/>
@@ -5845,7 +5845,7 @@
       <c r="L145" s="27"/>
       <c r="M145" s="31"/>
       <c r="N145" s="27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O145" s="27"/>
       <c r="P145" s="27"/>
@@ -5906,7 +5906,7 @@
       <c r="D147" s="20"/>
       <c r="E147" s="20"/>
       <c r="G147" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="148" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5923,7 +5923,7 @@
       <c r="M148" s="33"/>
       <c r="N148" s="34"/>
       <c r="O148" s="33" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P148" s="33"/>
       <c r="Q148" s="33"/>
@@ -5947,19 +5947,19 @@
     </row>
     <row r="149" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G149" s="23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H149" s="24"/>
       <c r="I149" s="24"/>
       <c r="J149" s="25"/>
       <c r="K149" s="24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L149" s="24"/>
       <c r="M149" s="24"/>
       <c r="N149" s="25"/>
       <c r="O149" s="24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P149" s="24"/>
       <c r="Q149" s="24"/>
@@ -5987,13 +5987,13 @@
       <c r="I150" s="24"/>
       <c r="J150" s="25"/>
       <c r="K150" s="24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L150" s="24"/>
       <c r="M150" s="24"/>
       <c r="N150" s="25"/>
       <c r="O150" s="24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P150" s="24"/>
       <c r="Q150" s="24"/>
@@ -6021,7 +6021,7 @@
       <c r="I151" s="27"/>
       <c r="J151" s="31"/>
       <c r="K151" s="27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L151" s="27"/>
       <c r="M151" s="27"/>
@@ -6049,19 +6049,19 @@
     </row>
     <row r="152" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G152" s="23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H152" s="24"/>
       <c r="I152" s="24"/>
       <c r="J152" s="25"/>
       <c r="K152" s="24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L152" s="24"/>
       <c r="M152" s="24"/>
       <c r="N152" s="25"/>
       <c r="O152" s="24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P152" s="24"/>
       <c r="Q152" s="24"/>
@@ -6089,13 +6089,13 @@
       <c r="I153" s="24"/>
       <c r="J153" s="25"/>
       <c r="K153" s="24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L153" s="24"/>
       <c r="M153" s="24"/>
       <c r="N153" s="25"/>
       <c r="O153" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P153" s="24"/>
       <c r="Q153" s="24"/>
@@ -6185,7 +6185,7 @@
         <v>7.3.4.4.3.</v>
       </c>
       <c r="G156" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H156" s="18"/>
       <c r="I156" s="18"/>
@@ -6253,7 +6253,7 @@
       <c r="E158" s="16"/>
       <c r="F158" s="18"/>
       <c r="G158" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H158" s="18"/>
       <c r="I158" s="18"/>
@@ -6288,7 +6288,7 @@
       <c r="E159" s="16"/>
       <c r="F159" s="18"/>
       <c r="G159" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H159" s="18"/>
       <c r="I159" s="18"/>
@@ -6355,7 +6355,7 @@
       <c r="E161" s="16"/>
       <c r="F161" s="18"/>
       <c r="G161" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H161" s="18"/>
       <c r="I161" s="18"/>
@@ -6390,7 +6390,7 @@
       <c r="E162" s="16"/>
       <c r="F162" s="18"/>
       <c r="G162" s="18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H162" s="18"/>
       <c r="I162" s="18"/>
@@ -6541,14 +6541,14 @@
       <c r="E167" s="22"/>
       <c r="F167" s="22"/>
       <c r="G167" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="168" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E168" s="22"/>
       <c r="F168" s="22"/>
       <c r="G168" s="21" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="169" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6767,7 +6767,7 @@
       <c r="J179" s="24"/>
       <c r="K179" s="24"/>
       <c r="L179" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M179" s="24"/>
       <c r="N179" s="24"/>
@@ -6802,7 +6802,7 @@
       <c r="J180" s="27"/>
       <c r="K180" s="27"/>
       <c r="L180" s="26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M180" s="27"/>
       <c r="N180" s="27"/>
@@ -6922,7 +6922,7 @@
       <c r="N184" s="24"/>
       <c r="O184" s="25"/>
       <c r="P184" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Q184" s="24"/>
       <c r="R184" s="24"/>
@@ -6953,7 +6953,7 @@
       <c r="J185" s="46"/>
       <c r="K185" s="47"/>
       <c r="L185" s="46" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M185" s="46"/>
       <c r="N185" s="46"/>
@@ -7181,7 +7181,7 @@
       <c r="K191" s="18"/>
       <c r="L191" s="18"/>
       <c r="M191" s="39" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N191" s="18"/>
       <c r="O191" s="18"/>
@@ -7233,7 +7233,7 @@
       <c r="W192" s="53"/>
       <c r="X192" s="54"/>
       <c r="Y192" s="53" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Z192" s="53"/>
       <c r="AA192" s="53"/>
@@ -7269,7 +7269,7 @@
       <c r="W193" s="42"/>
       <c r="X193" s="43"/>
       <c r="Y193" s="42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Z193" s="42"/>
       <c r="AA193" s="42"/>
@@ -7309,7 +7309,7 @@
       <c r="W194" s="53"/>
       <c r="X194" s="54"/>
       <c r="Y194" s="52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Z194" s="53"/>
       <c r="AA194" s="53"/>
@@ -7347,7 +7347,7 @@
       <c r="W195" s="42"/>
       <c r="X195" s="43"/>
       <c r="Y195" s="41" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Z195" s="42"/>
       <c r="AA195" s="42"/>
@@ -7509,7 +7509,7 @@
         <v>7.3.5.1.</v>
       </c>
       <c r="F200" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G200" s="18"/>
       <c r="H200" s="18"/>
@@ -7546,7 +7546,7 @@
       <c r="D201" s="22"/>
       <c r="E201" s="17"/>
       <c r="F201" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G201" s="18"/>
       <c r="H201" s="18"/>
@@ -7620,13 +7620,13 @@
         <v>7.3.5.2.</v>
       </c>
       <c r="F203" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="204" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C204" s="20"/>
       <c r="F204" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="205" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">

--- a/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.3DBアクセス処理.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.3DBアクセス処理.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF0AFFB-2744-44BA-9115-8F0B651108B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{292C3367-626D-48A3-A560-D365C0C4BDD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1420,28 +1420,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>本システムでは、データクリーニングのための共通機能を作成してデータベースのデータ削除（データクリーニング）を行う。</t>
-    <rPh sb="0" eb="1">
-      <t>ホン</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>キョウツウ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="54" eb="55">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>削除対象となるフラグの状態</t>
     <rPh sb="0" eb="4">
       <t>サクジョタイショウ</t>
@@ -1455,6 +1433,28 @@
     <t>管理方式</t>
     <rPh sb="0" eb="4">
       <t>カンリホウシキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>本システムでは、データクリーニングのための共通機能を作成してデータベースのデータ削除を行う。</t>
+    <rPh sb="0" eb="1">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>オコナ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2480,7 +2480,7 @@
       <c r="G18" s="33"/>
       <c r="H18" s="34"/>
       <c r="I18" s="33" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J18" s="33"/>
       <c r="K18" s="33"/>
@@ -6541,7 +6541,7 @@
       <c r="E167" s="22"/>
       <c r="F167" s="22"/>
       <c r="G167" s="21" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="168" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -7347,7 +7347,7 @@
       <c r="W195" s="42"/>
       <c r="X195" s="43"/>
       <c r="Y195" s="41" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Z195" s="42"/>
       <c r="AA195" s="42"/>

--- a/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.3DBアクセス処理.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.3DBアクセス処理.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{292C3367-626D-48A3-A560-D365C0C4BDD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{128143A2-28AB-4414-B72B-99A922458AAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,9 +12,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'7.3.DBアクセス処理'!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'7.3.DBアクセス処理'!$A$1:$AI$205</definedName>
-    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'7.3.DBアクセス処理'!$A$1:$AI$198</definedName>
-    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'7.3.DBアクセス処理'!$A$1:$AI$198</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'7.3.DBアクセス処理'!$A$1:$AI$198</definedName>
+    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'7.3.DBアクセス処理'!$A$1:$AI$191</definedName>
+    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'7.3.DBアクセス処理'!$A$1:$AI$191</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="179">
   <si>
     <t>工程</t>
     <rPh sb="0" eb="2">
@@ -1211,50 +1211,11 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>SQLを直接送信する方式に比べ、性能面、セキュリティ双方の面で以下のメリットがある。</t>
-  </si>
-  <si>
     <t>プリペアードステートメントとは埋め込みパラメータを含むSQLのテンプレート（プリペアードステートメント）とそこに埋め込まれる</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>各パラメータの値を、データベースに送信し実行する方式である。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>同じプリペアードステートメントを使用しSQLを複数回実行する場合、プリペアードステートメントでは、データベースによる実行計画の</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>作成が１度しか行われない為、毎回SQL文を構成する場合に比べてデータベース側の負荷が低減できる。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>また、SQL文の送信回数が減ることにより、ネットワークI/Oの負荷低減にもつながる。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>SQL文をプログラム側で構成する場合、パラメータを連結する際にSQLの特殊文字が適切にエスケープされないことによってプログラムの</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>本来の意図と異なるSQL文を実行してしまう危険性がある（SQLインジェクション）。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>プリペアードステートメントを使用した場合、埋め込みパラメータの値は、各データベースに依存したネイティブ(バイナリ)形式で</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>送信され、データベース側でそれをSQL文に連結することは無い。これにより、パラメータを経由したSQLインジェクションの成立を</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>防ぐことが可能である。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>また、プリペアードステートメントのSQL文自体がプログラム内で動的に作成されることを防ぐために、外部の静的ファイルに記述された</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1456,6 +1417,61 @@
     <rPh sb="43" eb="44">
       <t>オコナ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SQLの解析負荷を下げることができる。</t>
+    <rPh sb="4" eb="6">
+      <t>カイセキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>サ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プリペアードステートメントを用いると、同じSQLに対しては初回に作成された実行計画が再利用されるため、</t>
+    <rPh sb="14" eb="15">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ショカイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="37" eb="41">
+      <t>ジッコウケイカク</t>
+    </rPh>
+    <rPh sb="42" eb="45">
+      <t>サイリヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>また、SQLのテンプレートとパラメータを分離してデータベースに送信するため、SQLインジェクションの対策となる。</t>
+    <rPh sb="20" eb="22">
+      <t>ブンリ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>タイサク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>さらに、プリペアードステートメントのSQL文自体がプログラム内で動的に作成されることを防ぐために、外部の静的ファイルに記述された</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2255,7 +2271,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI205"/>
+  <dimension ref="A1:AI198"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -2480,7 +2496,7 @@
       <c r="G18" s="33"/>
       <c r="H18" s="34"/>
       <c r="I18" s="33" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="J18" s="33"/>
       <c r="K18" s="33"/>
@@ -2878,7 +2894,7 @@
       <c r="D48" s="22"/>
       <c r="E48" s="17"/>
       <c r="F48" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G48" s="17"/>
       <c r="H48" s="17"/>
@@ -2914,7 +2930,7 @@
       <c r="D49" s="22"/>
       <c r="E49" s="17"/>
       <c r="F49" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G49" s="17"/>
       <c r="H49" s="17"/>
@@ -2949,9 +2965,7 @@
     <row r="50" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D50" s="22"/>
       <c r="E50" s="17"/>
-      <c r="F50" s="17" t="s">
-        <v>145</v>
-      </c>
+      <c r="F50" s="17"/>
       <c r="G50" s="17"/>
       <c r="H50" s="17"/>
       <c r="I50" s="17"/>
@@ -2985,7 +2999,9 @@
     <row r="51" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D51" s="22"/>
       <c r="E51" s="17"/>
-      <c r="F51" s="17"/>
+      <c r="F51" s="17" t="s">
+        <v>176</v>
+      </c>
       <c r="G51" s="17"/>
       <c r="H51" s="17"/>
       <c r="I51" s="17"/>
@@ -3019,10 +3035,10 @@
     <row r="52" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D52" s="22"/>
       <c r="E52" s="17"/>
-      <c r="F52" s="17"/>
-      <c r="G52" s="17" t="s">
-        <v>148</v>
-      </c>
+      <c r="F52" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="G52" s="17"/>
       <c r="H52" s="17"/>
       <c r="I52" s="17"/>
       <c r="J52" s="17"/>
@@ -3054,11 +3070,11 @@
     </row>
     <row r="53" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D53" s="22"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="17"/>
-      <c r="G53" s="17" t="s">
-        <v>149</v>
-      </c>
+      <c r="E53" s="22"/>
+      <c r="F53" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="G53" s="17"/>
       <c r="H53" s="17"/>
       <c r="I53" s="17"/>
       <c r="J53" s="17"/>
@@ -3090,11 +3106,9 @@
     </row>
     <row r="54" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D54" s="22"/>
-      <c r="E54" s="17"/>
+      <c r="E54" s="22"/>
       <c r="F54" s="17"/>
-      <c r="G54" s="17" t="s">
-        <v>150</v>
-      </c>
+      <c r="G54" s="17"/>
       <c r="H54" s="17"/>
       <c r="I54" s="17"/>
       <c r="J54" s="17"/>
@@ -3127,7 +3141,9 @@
     <row r="55" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D55" s="22"/>
       <c r="E55" s="17"/>
-      <c r="F55" s="17"/>
+      <c r="F55" s="17" t="s">
+        <v>178</v>
+      </c>
       <c r="G55" s="17"/>
       <c r="H55" s="17"/>
       <c r="I55" s="17"/>
@@ -3161,10 +3177,10 @@
     <row r="56" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D56" s="22"/>
       <c r="E56" s="17"/>
-      <c r="F56" s="17"/>
-      <c r="G56" s="17" t="s">
-        <v>151</v>
-      </c>
+      <c r="F56" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="G56" s="17"/>
       <c r="H56" s="17"/>
       <c r="I56" s="17"/>
       <c r="J56" s="17"/>
@@ -3198,9 +3214,7 @@
       <c r="D57" s="22"/>
       <c r="E57" s="17"/>
       <c r="F57" s="17"/>
-      <c r="G57" s="17" t="s">
-        <v>152</v>
-      </c>
+      <c r="G57" s="17"/>
       <c r="H57" s="17"/>
       <c r="I57" s="17"/>
       <c r="J57" s="17"/>
@@ -3233,10 +3247,10 @@
     <row r="58" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D58" s="22"/>
       <c r="E58" s="17"/>
-      <c r="F58" s="17"/>
-      <c r="G58" s="21" t="s">
-        <v>153</v>
-      </c>
+      <c r="F58" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="G58" s="17"/>
       <c r="H58" s="17"/>
       <c r="I58" s="17"/>
       <c r="J58" s="17"/>
@@ -3269,10 +3283,10 @@
     <row r="59" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D59" s="22"/>
       <c r="E59" s="17"/>
-      <c r="F59" s="17"/>
-      <c r="G59" s="17" t="s">
-        <v>154</v>
-      </c>
+      <c r="F59" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="G59" s="17"/>
       <c r="H59" s="17"/>
       <c r="I59" s="17"/>
       <c r="J59" s="17"/>
@@ -3306,9 +3320,7 @@
       <c r="D60" s="22"/>
       <c r="E60" s="17"/>
       <c r="F60" s="17"/>
-      <c r="G60" s="17" t="s">
-        <v>155</v>
-      </c>
+      <c r="G60" s="17"/>
       <c r="H60" s="17"/>
       <c r="I60" s="17"/>
       <c r="J60" s="17"/>
@@ -3340,8 +3352,13 @@
     </row>
     <row r="61" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D61" s="22"/>
-      <c r="E61" s="17"/>
-      <c r="F61" s="17"/>
+      <c r="E61" s="22" t="str">
+        <f>$D$46&amp;"2."</f>
+        <v>7.3.3.2.</v>
+      </c>
+      <c r="F61" s="17" t="s">
+        <v>150</v>
+      </c>
       <c r="G61" s="17"/>
       <c r="H61" s="17"/>
       <c r="I61" s="17"/>
@@ -3376,7 +3393,7 @@
       <c r="D62" s="22"/>
       <c r="E62" s="17"/>
       <c r="F62" s="17" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="G62" s="17"/>
       <c r="H62" s="17"/>
@@ -3412,7 +3429,7 @@
       <c r="D63" s="22"/>
       <c r="E63" s="17"/>
       <c r="F63" s="17" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G63" s="17"/>
       <c r="H63" s="17"/>
@@ -3447,7 +3464,9 @@
     <row r="64" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D64" s="22"/>
       <c r="E64" s="17"/>
-      <c r="F64" s="17"/>
+      <c r="F64" s="17" t="s">
+        <v>153</v>
+      </c>
       <c r="G64" s="17"/>
       <c r="H64" s="17"/>
       <c r="I64" s="17"/>
@@ -3481,8 +3500,8 @@
     <row r="65" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D65" s="22"/>
       <c r="E65" s="17"/>
-      <c r="F65" s="17" t="s">
-        <v>158</v>
+      <c r="F65" s="21" t="s">
+        <v>154</v>
       </c>
       <c r="G65" s="17"/>
       <c r="H65" s="17"/>
@@ -3518,7 +3537,7 @@
       <c r="D66" s="22"/>
       <c r="E66" s="17"/>
       <c r="F66" s="17" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G66" s="17"/>
       <c r="H66" s="17"/>
@@ -3553,7 +3572,9 @@
     <row r="67" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D67" s="22"/>
       <c r="E67" s="17"/>
-      <c r="F67" s="17"/>
+      <c r="F67" s="17" t="s">
+        <v>156</v>
+      </c>
       <c r="G67" s="17"/>
       <c r="H67" s="17"/>
       <c r="I67" s="17"/>
@@ -3586,13 +3607,8 @@
     </row>
     <row r="68" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D68" s="22"/>
-      <c r="E68" s="22" t="str">
-        <f>$D$46&amp;"2."</f>
-        <v>7.3.3.2.</v>
-      </c>
-      <c r="F68" s="17" t="s">
-        <v>160</v>
-      </c>
+      <c r="E68" s="17"/>
+      <c r="F68" s="17"/>
       <c r="G68" s="17"/>
       <c r="H68" s="17"/>
       <c r="I68" s="17"/>
@@ -3627,7 +3643,7 @@
       <c r="D69" s="22"/>
       <c r="E69" s="17"/>
       <c r="F69" s="17" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G69" s="17"/>
       <c r="H69" s="17"/>
@@ -3663,7 +3679,7 @@
       <c r="D70" s="22"/>
       <c r="E70" s="17"/>
       <c r="F70" s="17" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G70" s="17"/>
       <c r="H70" s="17"/>
@@ -3698,9 +3714,7 @@
     <row r="71" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D71" s="22"/>
       <c r="E71" s="17"/>
-      <c r="F71" s="17" t="s">
-        <v>163</v>
-      </c>
+      <c r="F71" s="17"/>
       <c r="G71" s="17"/>
       <c r="H71" s="17"/>
       <c r="I71" s="17"/>
@@ -3734,8 +3748,8 @@
     <row r="72" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D72" s="22"/>
       <c r="E72" s="17"/>
-      <c r="F72" s="21" t="s">
-        <v>164</v>
+      <c r="F72" s="17" t="s">
+        <v>159</v>
       </c>
       <c r="G72" s="17"/>
       <c r="H72" s="17"/>
@@ -3771,7 +3785,7 @@
       <c r="D73" s="22"/>
       <c r="E73" s="17"/>
       <c r="F73" s="17" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="G73" s="17"/>
       <c r="H73" s="17"/>
@@ -3807,7 +3821,7 @@
       <c r="D74" s="22"/>
       <c r="E74" s="17"/>
       <c r="F74" s="17" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="G74" s="17"/>
       <c r="H74" s="17"/>
@@ -3875,9 +3889,12 @@
     </row>
     <row r="76" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D76" s="22"/>
-      <c r="E76" s="17"/>
+      <c r="E76" s="22" t="str">
+        <f>$D$46&amp;"3."</f>
+        <v>7.3.3.3.</v>
+      </c>
       <c r="F76" s="17" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="G76" s="17"/>
       <c r="H76" s="17"/>
@@ -3913,7 +3930,7 @@
       <c r="D77" s="22"/>
       <c r="E77" s="17"/>
       <c r="F77" s="17" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G77" s="17"/>
       <c r="H77" s="17"/>
@@ -3948,7 +3965,9 @@
     <row r="78" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D78" s="22"/>
       <c r="E78" s="17"/>
-      <c r="F78" s="17"/>
+      <c r="F78" s="21" t="s">
+        <v>165</v>
+      </c>
       <c r="G78" s="17"/>
       <c r="H78" s="17"/>
       <c r="I78" s="17"/>
@@ -3983,7 +4002,7 @@
       <c r="D79" s="22"/>
       <c r="E79" s="17"/>
       <c r="F79" s="17" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G79" s="17"/>
       <c r="H79" s="17"/>
@@ -4019,7 +4038,7 @@
       <c r="D80" s="22"/>
       <c r="E80" s="17"/>
       <c r="F80" s="17" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G80" s="17"/>
       <c r="H80" s="17"/>
@@ -4054,9 +4073,7 @@
     <row r="81" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D81" s="22"/>
       <c r="E81" s="17"/>
-      <c r="F81" s="17" t="s">
-        <v>171</v>
-      </c>
+      <c r="F81" s="17"/>
       <c r="G81" s="17"/>
       <c r="H81" s="17"/>
       <c r="I81" s="17"/>
@@ -4090,12 +4107,16 @@
     <row r="82" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D82" s="22"/>
       <c r="E82" s="17"/>
-      <c r="F82" s="17"/>
+      <c r="F82" s="21" t="s">
+        <v>168</v>
+      </c>
       <c r="G82" s="17"/>
       <c r="H82" s="17"/>
       <c r="I82" s="17"/>
       <c r="J82" s="17"/>
-      <c r="K82" s="17"/>
+      <c r="K82" s="17" t="s">
+        <v>169</v>
+      </c>
       <c r="L82" s="17"/>
       <c r="M82" s="17"/>
       <c r="N82" s="17"/>
@@ -4123,13 +4144,8 @@
     </row>
     <row r="83" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D83" s="22"/>
-      <c r="E83" s="22" t="str">
-        <f>$D$46&amp;"3."</f>
-        <v>7.3.3.3.</v>
-      </c>
-      <c r="F83" s="17" t="s">
-        <v>172</v>
-      </c>
+      <c r="E83" s="17"/>
+      <c r="F83" s="17"/>
       <c r="G83" s="17"/>
       <c r="H83" s="17"/>
       <c r="I83" s="17"/>
@@ -4164,7 +4180,7 @@
       <c r="D84" s="22"/>
       <c r="E84" s="17"/>
       <c r="F84" s="17" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="G84" s="17"/>
       <c r="H84" s="17"/>
@@ -4199,9 +4215,7 @@
     <row r="85" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D85" s="22"/>
       <c r="E85" s="17"/>
-      <c r="F85" s="21" t="s">
-        <v>175</v>
-      </c>
+      <c r="F85" s="17"/>
       <c r="G85" s="17"/>
       <c r="H85" s="17"/>
       <c r="I85" s="17"/>
@@ -4233,47 +4247,48 @@
       <c r="AI85" s="17"/>
     </row>
     <row r="86" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D86" s="22"/>
-      <c r="E86" s="17"/>
-      <c r="F86" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="G86" s="17"/>
-      <c r="H86" s="17"/>
-      <c r="I86" s="17"/>
-      <c r="J86" s="17"/>
-      <c r="K86" s="17"/>
-      <c r="L86" s="17"/>
-      <c r="M86" s="17"/>
-      <c r="N86" s="17"/>
-      <c r="O86" s="17"/>
-      <c r="P86" s="17"/>
-      <c r="Q86" s="17"/>
-      <c r="R86" s="17"/>
-      <c r="S86" s="17"/>
-      <c r="T86" s="17"/>
-      <c r="U86" s="17"/>
-      <c r="V86" s="17"/>
-      <c r="W86" s="17"/>
-      <c r="X86" s="17"/>
-      <c r="Y86" s="17"/>
-      <c r="Z86" s="17"/>
-      <c r="AA86" s="17"/>
-      <c r="AB86" s="17"/>
-      <c r="AC86" s="17"/>
-      <c r="AD86" s="17"/>
-      <c r="AE86" s="17"/>
-      <c r="AF86" s="17"/>
-      <c r="AG86" s="17"/>
-      <c r="AH86" s="17"/>
-      <c r="AI86" s="17"/>
+      <c r="D86" s="16"/>
+      <c r="E86" s="18"/>
+      <c r="F86" s="18"/>
+      <c r="G86" s="18"/>
+      <c r="H86" s="18"/>
+      <c r="I86" s="18"/>
+      <c r="J86" s="18"/>
+      <c r="K86" s="18"/>
+      <c r="L86" s="18"/>
+      <c r="M86" s="18"/>
+      <c r="N86" s="18"/>
+      <c r="O86" s="18"/>
+      <c r="P86" s="18"/>
+      <c r="Q86" s="18"/>
+      <c r="R86" s="18"/>
+      <c r="S86" s="18"/>
+      <c r="T86" s="18"/>
+      <c r="U86" s="18"/>
+      <c r="V86" s="18"/>
+      <c r="W86" s="18"/>
+      <c r="X86" s="18"/>
+      <c r="Y86" s="18"/>
+      <c r="Z86" s="18"/>
+      <c r="AA86" s="18"/>
+      <c r="AB86" s="18"/>
+      <c r="AC86" s="18"/>
+      <c r="AD86" s="18"/>
+      <c r="AE86" s="18"/>
+      <c r="AF86" s="18"/>
+      <c r="AG86" s="18"/>
+      <c r="AH86" s="18"/>
+      <c r="AI86" s="18"/>
     </row>
     <row r="87" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D87" s="22"/>
-      <c r="E87" s="17"/>
-      <c r="F87" s="17" t="s">
-        <v>177</v>
-      </c>
+      <c r="D87" s="22" t="str">
+        <f>$C$7&amp;"4."</f>
+        <v>7.3.4.</v>
+      </c>
+      <c r="E87" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F87" s="17"/>
       <c r="G87" s="17"/>
       <c r="H87" s="17"/>
       <c r="I87" s="17"/>
@@ -4305,9 +4320,13 @@
       <c r="AI87" s="17"/>
     </row>
     <row r="88" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D88" s="22"/>
-      <c r="E88" s="17"/>
-      <c r="F88" s="17"/>
+      <c r="E88" s="22" t="str">
+        <f>D87&amp;"1."</f>
+        <v>7.3.4.1.</v>
+      </c>
+      <c r="F88" s="17" t="s">
+        <v>28</v>
+      </c>
       <c r="G88" s="17"/>
       <c r="H88" s="17"/>
       <c r="I88" s="17"/>
@@ -4339,152 +4358,129 @@
       <c r="AI88" s="17"/>
     </row>
     <row r="89" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D89" s="22"/>
-      <c r="E89" s="17"/>
-      <c r="F89" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="G89" s="17"/>
-      <c r="H89" s="17"/>
-      <c r="I89" s="17"/>
-      <c r="J89" s="17"/>
-      <c r="K89" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="L89" s="17"/>
-      <c r="M89" s="17"/>
-      <c r="N89" s="17"/>
-      <c r="O89" s="17"/>
-      <c r="P89" s="17"/>
-      <c r="Q89" s="17"/>
-      <c r="R89" s="17"/>
-      <c r="S89" s="17"/>
-      <c r="T89" s="17"/>
-      <c r="U89" s="17"/>
-      <c r="V89" s="17"/>
-      <c r="W89" s="17"/>
-      <c r="X89" s="17"/>
-      <c r="Y89" s="17"/>
-      <c r="Z89" s="17"/>
-      <c r="AA89" s="17"/>
-      <c r="AB89" s="17"/>
-      <c r="AC89" s="17"/>
-      <c r="AD89" s="17"/>
-      <c r="AE89" s="17"/>
-      <c r="AF89" s="17"/>
-      <c r="AG89" s="17"/>
-      <c r="AH89" s="17"/>
-      <c r="AI89" s="17"/>
+      <c r="F89" s="22" t="str">
+        <f>E88&amp;"1."</f>
+        <v>7.3.4.1.1.</v>
+      </c>
+      <c r="G89" s="20" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="90" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D90" s="22"/>
-      <c r="E90" s="17"/>
-      <c r="F90" s="17"/>
-      <c r="G90" s="17"/>
-      <c r="H90" s="17"/>
-      <c r="I90" s="17"/>
-      <c r="J90" s="17"/>
-      <c r="K90" s="17"/>
-      <c r="L90" s="17"/>
-      <c r="M90" s="17"/>
-      <c r="N90" s="17"/>
-      <c r="O90" s="17"/>
-      <c r="P90" s="17"/>
-      <c r="Q90" s="17"/>
-      <c r="R90" s="17"/>
-      <c r="S90" s="17"/>
-      <c r="T90" s="17"/>
-      <c r="U90" s="17"/>
-      <c r="V90" s="17"/>
-      <c r="W90" s="17"/>
-      <c r="X90" s="17"/>
-      <c r="Y90" s="17"/>
-      <c r="Z90" s="17"/>
-      <c r="AA90" s="17"/>
-      <c r="AB90" s="17"/>
-      <c r="AC90" s="17"/>
-      <c r="AD90" s="17"/>
-      <c r="AE90" s="17"/>
-      <c r="AF90" s="17"/>
-      <c r="AG90" s="17"/>
-      <c r="AH90" s="17"/>
-      <c r="AI90" s="17"/>
+      <c r="D90" s="16"/>
+      <c r="E90" s="18"/>
+      <c r="F90" s="18"/>
+      <c r="G90" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="H90" s="18"/>
+      <c r="I90" s="18"/>
+      <c r="J90" s="18"/>
+      <c r="K90" s="18"/>
+      <c r="L90" s="18"/>
+      <c r="M90" s="18"/>
+      <c r="N90" s="18"/>
+      <c r="O90" s="18"/>
+      <c r="P90" s="18"/>
+      <c r="Q90" s="18"/>
+      <c r="R90" s="18"/>
+      <c r="S90" s="18"/>
+      <c r="T90" s="18"/>
+      <c r="U90" s="18"/>
+      <c r="V90" s="18"/>
+      <c r="W90" s="18"/>
+      <c r="X90" s="18"/>
+      <c r="Y90" s="18"/>
+      <c r="Z90" s="18"/>
+      <c r="AA90" s="18"/>
+      <c r="AB90" s="18"/>
+      <c r="AC90" s="18"/>
+      <c r="AD90" s="18"/>
+      <c r="AE90" s="18"/>
+      <c r="AF90" s="18"/>
+      <c r="AG90" s="18"/>
+      <c r="AH90" s="18"/>
+      <c r="AI90" s="16"/>
     </row>
     <row r="91" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D91" s="22"/>
-      <c r="E91" s="17"/>
-      <c r="F91" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="G91" s="17"/>
-      <c r="H91" s="17"/>
-      <c r="I91" s="17"/>
-      <c r="J91" s="17"/>
-      <c r="K91" s="17"/>
-      <c r="L91" s="17"/>
-      <c r="M91" s="17"/>
-      <c r="N91" s="17"/>
-      <c r="O91" s="17"/>
-      <c r="P91" s="17"/>
-      <c r="Q91" s="17"/>
-      <c r="R91" s="17"/>
-      <c r="S91" s="17"/>
-      <c r="T91" s="17"/>
-      <c r="U91" s="17"/>
-      <c r="V91" s="17"/>
-      <c r="W91" s="17"/>
-      <c r="X91" s="17"/>
-      <c r="Y91" s="17"/>
-      <c r="Z91" s="17"/>
-      <c r="AA91" s="17"/>
-      <c r="AB91" s="17"/>
-      <c r="AC91" s="17"/>
-      <c r="AD91" s="17"/>
-      <c r="AE91" s="17"/>
-      <c r="AF91" s="17"/>
-      <c r="AG91" s="17"/>
-      <c r="AH91" s="17"/>
-      <c r="AI91" s="17"/>
-    </row>
-    <row r="92" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D92" s="22"/>
-      <c r="E92" s="17"/>
-      <c r="F92" s="17"/>
-      <c r="G92" s="17"/>
-      <c r="H92" s="17"/>
-      <c r="I92" s="17"/>
-      <c r="J92" s="17"/>
-      <c r="K92" s="17"/>
-      <c r="L92" s="17"/>
-      <c r="M92" s="17"/>
-      <c r="N92" s="17"/>
-      <c r="O92" s="17"/>
-      <c r="P92" s="17"/>
-      <c r="Q92" s="17"/>
-      <c r="R92" s="17"/>
-      <c r="S92" s="17"/>
-      <c r="T92" s="17"/>
-      <c r="U92" s="17"/>
-      <c r="V92" s="17"/>
-      <c r="W92" s="17"/>
-      <c r="X92" s="17"/>
-      <c r="Y92" s="17"/>
-      <c r="Z92" s="17"/>
-      <c r="AA92" s="17"/>
-      <c r="AB92" s="17"/>
-      <c r="AC92" s="17"/>
-      <c r="AD92" s="17"/>
-      <c r="AE92" s="17"/>
-      <c r="AF92" s="17"/>
-      <c r="AG92" s="17"/>
-      <c r="AH92" s="17"/>
-      <c r="AI92" s="17"/>
+      <c r="D91" s="16"/>
+      <c r="E91" s="18"/>
+      <c r="F91" s="18"/>
+      <c r="G91" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="H91" s="18"/>
+      <c r="I91" s="18"/>
+      <c r="J91" s="18"/>
+      <c r="K91" s="18"/>
+      <c r="L91" s="18"/>
+      <c r="M91" s="18"/>
+      <c r="N91" s="18"/>
+      <c r="O91" s="18"/>
+      <c r="P91" s="18"/>
+      <c r="Q91" s="18"/>
+      <c r="R91" s="18"/>
+      <c r="S91" s="18"/>
+      <c r="T91" s="18"/>
+      <c r="U91" s="18"/>
+      <c r="V91" s="18"/>
+      <c r="W91" s="18"/>
+      <c r="X91" s="18"/>
+      <c r="Y91" s="18"/>
+      <c r="Z91" s="18"/>
+      <c r="AA91" s="18"/>
+      <c r="AB91" s="18"/>
+      <c r="AC91" s="18"/>
+      <c r="AD91" s="18"/>
+      <c r="AE91" s="18"/>
+      <c r="AF91" s="18"/>
+      <c r="AG91" s="18"/>
+      <c r="AH91" s="18"/>
+      <c r="AI91" s="16"/>
+    </row>
+    <row r="92" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D92" s="16"/>
+      <c r="E92" s="19"/>
+      <c r="F92" s="18"/>
+      <c r="G92" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="H92" s="18"/>
+      <c r="I92" s="18"/>
+      <c r="J92" s="18"/>
+      <c r="K92" s="18"/>
+      <c r="L92" s="18"/>
+      <c r="M92" s="18"/>
+      <c r="N92" s="18"/>
+      <c r="O92" s="18"/>
+      <c r="P92" s="18"/>
+      <c r="Q92" s="18"/>
+      <c r="R92" s="18"/>
+      <c r="S92" s="18"/>
+      <c r="T92" s="18"/>
+      <c r="U92" s="18"/>
+      <c r="V92" s="18"/>
+      <c r="W92" s="18"/>
+      <c r="X92" s="18"/>
+      <c r="Y92" s="18"/>
+      <c r="Z92" s="18"/>
+      <c r="AA92" s="18"/>
+      <c r="AB92" s="18"/>
+      <c r="AC92" s="18"/>
+      <c r="AD92" s="18"/>
+      <c r="AE92" s="18"/>
+      <c r="AF92" s="18"/>
+      <c r="AG92" s="18"/>
+      <c r="AH92" s="18"/>
+      <c r="AI92" s="16"/>
     </row>
     <row r="93" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D93" s="16"/>
-      <c r="E93" s="18"/>
+      <c r="E93" s="19"/>
       <c r="F93" s="18"/>
-      <c r="G93" s="18"/>
+      <c r="G93" s="18" t="s">
+        <v>34</v>
+      </c>
       <c r="H93" s="18"/>
       <c r="I93" s="18"/>
       <c r="J93" s="18"/>
@@ -4512,245 +4508,235 @@
       <c r="AF93" s="18"/>
       <c r="AG93" s="18"/>
       <c r="AH93" s="18"/>
-      <c r="AI93" s="18"/>
-    </row>
-    <row r="94" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D94" s="22" t="str">
-        <f>$C$7&amp;"4."</f>
-        <v>7.3.4.</v>
-      </c>
-      <c r="E94" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="F94" s="17"/>
-      <c r="G94" s="17"/>
-      <c r="H94" s="17"/>
-      <c r="I94" s="17"/>
-      <c r="J94" s="17"/>
-      <c r="K94" s="17"/>
-      <c r="L94" s="17"/>
-      <c r="M94" s="17"/>
-      <c r="N94" s="17"/>
-      <c r="O94" s="17"/>
-      <c r="P94" s="17"/>
-      <c r="Q94" s="17"/>
-      <c r="R94" s="17"/>
-      <c r="S94" s="17"/>
-      <c r="T94" s="17"/>
-      <c r="U94" s="17"/>
-      <c r="V94" s="17"/>
-      <c r="W94" s="17"/>
-      <c r="X94" s="17"/>
-      <c r="Y94" s="17"/>
-      <c r="Z94" s="17"/>
-      <c r="AA94" s="17"/>
-      <c r="AB94" s="17"/>
-      <c r="AC94" s="17"/>
-      <c r="AD94" s="17"/>
-      <c r="AE94" s="17"/>
-      <c r="AF94" s="17"/>
-      <c r="AG94" s="17"/>
-      <c r="AH94" s="17"/>
-      <c r="AI94" s="17"/>
-    </row>
-    <row r="95" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E95" s="22" t="str">
-        <f>D94&amp;"1."</f>
-        <v>7.3.4.1.</v>
-      </c>
-      <c r="F95" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="G95" s="17"/>
-      <c r="H95" s="17"/>
-      <c r="I95" s="17"/>
-      <c r="J95" s="17"/>
-      <c r="K95" s="17"/>
-      <c r="L95" s="17"/>
-      <c r="M95" s="17"/>
-      <c r="N95" s="17"/>
-      <c r="O95" s="17"/>
-      <c r="P95" s="17"/>
-      <c r="Q95" s="17"/>
-      <c r="R95" s="17"/>
-      <c r="S95" s="17"/>
-      <c r="T95" s="17"/>
-      <c r="U95" s="17"/>
-      <c r="V95" s="17"/>
-      <c r="W95" s="17"/>
-      <c r="X95" s="17"/>
-      <c r="Y95" s="17"/>
-      <c r="Z95" s="17"/>
-      <c r="AA95" s="17"/>
-      <c r="AB95" s="17"/>
-      <c r="AC95" s="17"/>
-      <c r="AD95" s="17"/>
-      <c r="AE95" s="17"/>
-      <c r="AF95" s="17"/>
-      <c r="AG95" s="17"/>
-      <c r="AH95" s="17"/>
-      <c r="AI95" s="17"/>
+      <c r="AI93" s="16"/>
+    </row>
+    <row r="94" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D94" s="16"/>
+      <c r="E94" s="18"/>
+      <c r="F94" s="18"/>
+      <c r="G94" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="H94" s="18"/>
+      <c r="I94" s="18"/>
+      <c r="J94" s="18"/>
+      <c r="K94" s="18"/>
+      <c r="L94" s="18"/>
+      <c r="M94" s="18"/>
+      <c r="N94" s="18"/>
+      <c r="O94" s="18"/>
+      <c r="P94" s="18"/>
+      <c r="Q94" s="18"/>
+      <c r="R94" s="18"/>
+      <c r="S94" s="18"/>
+      <c r="T94" s="18"/>
+      <c r="U94" s="18"/>
+      <c r="V94" s="18"/>
+      <c r="W94" s="18"/>
+      <c r="X94" s="18"/>
+      <c r="Y94" s="18"/>
+      <c r="Z94" s="18"/>
+      <c r="AA94" s="18"/>
+      <c r="AB94" s="18"/>
+      <c r="AC94" s="18"/>
+      <c r="AD94" s="18"/>
+      <c r="AE94" s="18"/>
+      <c r="AF94" s="18"/>
+      <c r="AG94" s="18"/>
+      <c r="AH94" s="18"/>
+      <c r="AI94" s="16"/>
+    </row>
+    <row r="95" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D95" s="16"/>
+      <c r="E95" s="18"/>
+      <c r="F95" s="18"/>
+      <c r="G95" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="H95" s="18"/>
+      <c r="I95" s="18"/>
+      <c r="J95" s="18"/>
+      <c r="K95" s="18"/>
+      <c r="L95" s="18"/>
+      <c r="M95" s="18"/>
+      <c r="N95" s="18"/>
+      <c r="O95" s="18"/>
+      <c r="P95" s="18"/>
+      <c r="Q95" s="18"/>
+      <c r="R95" s="18"/>
+      <c r="S95" s="18"/>
+      <c r="T95" s="18"/>
+      <c r="U95" s="18"/>
+      <c r="V95" s="18"/>
+      <c r="W95" s="18"/>
+      <c r="X95" s="18"/>
+      <c r="Y95" s="18"/>
+      <c r="Z95" s="18"/>
+      <c r="AA95" s="18"/>
+      <c r="AB95" s="18"/>
+      <c r="AC95" s="18"/>
+      <c r="AD95" s="18"/>
+      <c r="AE95" s="18"/>
+      <c r="AF95" s="18"/>
+      <c r="AG95" s="18"/>
+      <c r="AH95" s="18"/>
+      <c r="AI95" s="16"/>
     </row>
     <row r="96" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F96" s="22" t="str">
-        <f>E95&amp;"1."</f>
-        <v>7.3.4.1.1.</v>
-      </c>
-      <c r="G96" s="20" t="s">
-        <v>75</v>
-      </c>
+      <c r="D96" s="16"/>
+      <c r="E96" s="18"/>
+      <c r="F96" s="18"/>
+      <c r="G96" s="18"/>
+      <c r="H96" s="18"/>
+      <c r="I96" s="18"/>
+      <c r="J96" s="18"/>
+      <c r="K96" s="18"/>
+      <c r="L96" s="18"/>
+      <c r="M96" s="18"/>
+      <c r="N96" s="18"/>
+      <c r="O96" s="18"/>
+      <c r="P96" s="18"/>
+      <c r="Q96" s="18"/>
+      <c r="R96" s="18"/>
+      <c r="S96" s="18"/>
+      <c r="T96" s="18"/>
+      <c r="U96" s="18"/>
+      <c r="V96" s="18"/>
+      <c r="W96" s="18"/>
+      <c r="X96" s="18"/>
+      <c r="Y96" s="18"/>
+      <c r="Z96" s="18"/>
+      <c r="AA96" s="18"/>
+      <c r="AB96" s="18"/>
+      <c r="AC96" s="18"/>
+      <c r="AD96" s="18"/>
+      <c r="AE96" s="18"/>
+      <c r="AF96" s="18"/>
+      <c r="AG96" s="18"/>
+      <c r="AH96" s="18"/>
+      <c r="AI96" s="16"/>
     </row>
     <row r="97" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D97" s="16"/>
-      <c r="E97" s="18"/>
-      <c r="F97" s="18"/>
-      <c r="G97" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="H97" s="18"/>
-      <c r="I97" s="18"/>
-      <c r="J97" s="18"/>
-      <c r="K97" s="18"/>
-      <c r="L97" s="18"/>
-      <c r="M97" s="18"/>
-      <c r="N97" s="18"/>
-      <c r="O97" s="18"/>
-      <c r="P97" s="18"/>
-      <c r="Q97" s="18"/>
-      <c r="R97" s="18"/>
-      <c r="S97" s="18"/>
-      <c r="T97" s="18"/>
-      <c r="U97" s="18"/>
-      <c r="V97" s="18"/>
-      <c r="W97" s="18"/>
-      <c r="X97" s="18"/>
-      <c r="Y97" s="18"/>
-      <c r="Z97" s="18"/>
-      <c r="AA97" s="18"/>
-      <c r="AB97" s="18"/>
-      <c r="AC97" s="18"/>
-      <c r="AD97" s="18"/>
-      <c r="AE97" s="18"/>
-      <c r="AF97" s="18"/>
-      <c r="AG97" s="18"/>
-      <c r="AH97" s="18"/>
-      <c r="AI97" s="16"/>
+      <c r="E97" s="22" t="str">
+        <f>D87&amp;"2."</f>
+        <v>7.3.4.2.</v>
+      </c>
+      <c r="F97" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G97" s="17"/>
+      <c r="H97" s="17"/>
+      <c r="I97" s="17"/>
+      <c r="J97" s="17"/>
+      <c r="K97" s="17"/>
+      <c r="L97" s="17"/>
+      <c r="M97" s="17"/>
+      <c r="N97" s="17"/>
+      <c r="O97" s="17"/>
+      <c r="P97" s="17"/>
+      <c r="Q97" s="17"/>
+      <c r="R97" s="17"/>
+      <c r="S97" s="17"/>
+      <c r="T97" s="17"/>
+      <c r="U97" s="17"/>
+      <c r="V97" s="17"/>
+      <c r="W97" s="17"/>
+      <c r="X97" s="17"/>
+      <c r="Y97" s="17"/>
+      <c r="Z97" s="17"/>
+      <c r="AA97" s="17"/>
+      <c r="AB97" s="17"/>
+      <c r="AC97" s="17"/>
+      <c r="AD97" s="17"/>
+      <c r="AE97" s="17"/>
+      <c r="AF97" s="17"/>
+      <c r="AG97" s="17"/>
+      <c r="AH97" s="17"/>
+      <c r="AI97" s="17"/>
     </row>
     <row r="98" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D98" s="16"/>
-      <c r="E98" s="18"/>
-      <c r="F98" s="18"/>
-      <c r="G98" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="H98" s="18"/>
-      <c r="I98" s="18"/>
-      <c r="J98" s="18"/>
-      <c r="K98" s="18"/>
-      <c r="L98" s="18"/>
-      <c r="M98" s="18"/>
-      <c r="N98" s="18"/>
-      <c r="O98" s="18"/>
-      <c r="P98" s="18"/>
-      <c r="Q98" s="18"/>
-      <c r="R98" s="18"/>
-      <c r="S98" s="18"/>
-      <c r="T98" s="18"/>
-      <c r="U98" s="18"/>
-      <c r="V98" s="18"/>
-      <c r="W98" s="18"/>
-      <c r="X98" s="18"/>
-      <c r="Y98" s="18"/>
-      <c r="Z98" s="18"/>
-      <c r="AA98" s="18"/>
-      <c r="AB98" s="18"/>
-      <c r="AC98" s="18"/>
-      <c r="AD98" s="18"/>
-      <c r="AE98" s="18"/>
-      <c r="AF98" s="18"/>
-      <c r="AG98" s="18"/>
-      <c r="AH98" s="18"/>
-      <c r="AI98" s="16"/>
-    </row>
-    <row r="99" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D99" s="16"/>
-      <c r="E99" s="19"/>
-      <c r="F99" s="18"/>
-      <c r="G99" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="H99" s="18"/>
-      <c r="I99" s="18"/>
-      <c r="J99" s="18"/>
-      <c r="K99" s="18"/>
-      <c r="L99" s="18"/>
-      <c r="M99" s="18"/>
-      <c r="N99" s="18"/>
-      <c r="O99" s="18"/>
-      <c r="P99" s="18"/>
-      <c r="Q99" s="18"/>
-      <c r="R99" s="18"/>
-      <c r="S99" s="18"/>
-      <c r="T99" s="18"/>
-      <c r="U99" s="18"/>
-      <c r="V99" s="18"/>
-      <c r="W99" s="18"/>
-      <c r="X99" s="18"/>
-      <c r="Y99" s="18"/>
-      <c r="Z99" s="18"/>
-      <c r="AA99" s="18"/>
-      <c r="AB99" s="18"/>
-      <c r="AC99" s="18"/>
-      <c r="AD99" s="18"/>
-      <c r="AE99" s="18"/>
-      <c r="AF99" s="18"/>
-      <c r="AG99" s="18"/>
-      <c r="AH99" s="18"/>
-      <c r="AI99" s="16"/>
+      <c r="F98" s="22" t="str">
+        <f>E97&amp;"1."</f>
+        <v>7.3.4.2.1.</v>
+      </c>
+      <c r="G98" s="21" t="str">
+        <f>F97&amp;"方法"</f>
+        <v>トランザクション分離レベル方法</v>
+      </c>
+    </row>
+    <row r="99" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G99" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="H99" s="33"/>
+      <c r="I99" s="33"/>
+      <c r="J99" s="34"/>
+      <c r="K99" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="L99" s="33"/>
+      <c r="M99" s="33"/>
+      <c r="N99" s="33"/>
+      <c r="O99" s="33"/>
+      <c r="P99" s="33"/>
+      <c r="Q99" s="33"/>
+      <c r="R99" s="33"/>
+      <c r="S99" s="33"/>
+      <c r="T99" s="33"/>
+      <c r="U99" s="33"/>
+      <c r="V99" s="33"/>
+      <c r="W99" s="33"/>
+      <c r="X99" s="33"/>
+      <c r="Y99" s="33"/>
+      <c r="Z99" s="33"/>
+      <c r="AA99" s="33"/>
+      <c r="AB99" s="33"/>
+      <c r="AC99" s="33"/>
+      <c r="AD99" s="33"/>
+      <c r="AE99" s="33"/>
+      <c r="AF99" s="33"/>
+      <c r="AG99" s="33"/>
+      <c r="AH99" s="34"/>
     </row>
     <row r="100" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D100" s="16"/>
-      <c r="E100" s="19"/>
-      <c r="F100" s="18"/>
-      <c r="G100" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="H100" s="18"/>
-      <c r="I100" s="18"/>
-      <c r="J100" s="18"/>
-      <c r="K100" s="18"/>
-      <c r="L100" s="18"/>
-      <c r="M100" s="18"/>
-      <c r="N100" s="18"/>
-      <c r="O100" s="18"/>
-      <c r="P100" s="18"/>
-      <c r="Q100" s="18"/>
-      <c r="R100" s="18"/>
-      <c r="S100" s="18"/>
-      <c r="T100" s="18"/>
-      <c r="U100" s="18"/>
-      <c r="V100" s="18"/>
-      <c r="W100" s="18"/>
-      <c r="X100" s="18"/>
-      <c r="Y100" s="18"/>
-      <c r="Z100" s="18"/>
-      <c r="AA100" s="18"/>
-      <c r="AB100" s="18"/>
-      <c r="AC100" s="18"/>
-      <c r="AD100" s="18"/>
-      <c r="AE100" s="18"/>
-      <c r="AF100" s="18"/>
-      <c r="AG100" s="18"/>
-      <c r="AH100" s="18"/>
-      <c r="AI100" s="16"/>
+      <c r="G100" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="H100" s="46"/>
+      <c r="I100" s="46"/>
+      <c r="J100" s="47"/>
+      <c r="K100" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="L100" s="46"/>
+      <c r="M100" s="46"/>
+      <c r="N100" s="46"/>
+      <c r="O100" s="46"/>
+      <c r="P100" s="46"/>
+      <c r="Q100" s="46"/>
+      <c r="R100" s="46"/>
+      <c r="S100" s="46"/>
+      <c r="T100" s="46"/>
+      <c r="U100" s="46"/>
+      <c r="V100" s="46"/>
+      <c r="W100" s="46"/>
+      <c r="X100" s="46"/>
+      <c r="Y100" s="46"/>
+      <c r="Z100" s="46"/>
+      <c r="AA100" s="46"/>
+      <c r="AB100" s="46"/>
+      <c r="AC100" s="46"/>
+      <c r="AD100" s="46"/>
+      <c r="AE100" s="46"/>
+      <c r="AF100" s="46"/>
+      <c r="AG100" s="46"/>
+      <c r="AH100" s="47"/>
     </row>
     <row r="101" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D101" s="16"/>
-      <c r="E101" s="18"/>
+      <c r="C101" s="21"/>
+      <c r="E101" s="16"/>
       <c r="F101" s="18"/>
-      <c r="G101" s="18" t="s">
-        <v>30</v>
-      </c>
+      <c r="G101" s="18"/>
       <c r="H101" s="18"/>
       <c r="I101" s="18"/>
       <c r="J101" s="18"/>
@@ -4784,9 +4770,7 @@
       <c r="D102" s="16"/>
       <c r="E102" s="18"/>
       <c r="F102" s="18"/>
-      <c r="G102" s="18" t="s">
-        <v>136</v>
-      </c>
+      <c r="G102" s="18"/>
       <c r="H102" s="18"/>
       <c r="I102" s="18"/>
       <c r="J102" s="18"/>
@@ -4813,687 +4797,690 @@
       <c r="AE102" s="18"/>
       <c r="AF102" s="18"/>
       <c r="AG102" s="18"/>
-      <c r="AH102" s="18"/>
-      <c r="AI102" s="16"/>
+      <c r="AH102" s="16"/>
     </row>
     <row r="103" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D103" s="16"/>
-      <c r="E103" s="18"/>
-      <c r="F103" s="18"/>
-      <c r="G103" s="18"/>
-      <c r="H103" s="18"/>
-      <c r="I103" s="18"/>
-      <c r="J103" s="18"/>
-      <c r="K103" s="18"/>
-      <c r="L103" s="18"/>
-      <c r="M103" s="18"/>
-      <c r="N103" s="18"/>
-      <c r="O103" s="18"/>
-      <c r="P103" s="18"/>
-      <c r="Q103" s="18"/>
-      <c r="R103" s="18"/>
-      <c r="S103" s="18"/>
-      <c r="T103" s="18"/>
-      <c r="U103" s="18"/>
-      <c r="V103" s="18"/>
-      <c r="W103" s="18"/>
-      <c r="X103" s="18"/>
-      <c r="Y103" s="18"/>
-      <c r="Z103" s="18"/>
-      <c r="AA103" s="18"/>
-      <c r="AB103" s="18"/>
-      <c r="AC103" s="18"/>
-      <c r="AD103" s="18"/>
-      <c r="AE103" s="18"/>
-      <c r="AF103" s="18"/>
-      <c r="AG103" s="18"/>
-      <c r="AH103" s="18"/>
-      <c r="AI103" s="16"/>
+      <c r="E103" s="22" t="str">
+        <f>D87&amp;"3."</f>
+        <v>7.3.4.3.</v>
+      </c>
+      <c r="F103" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="G103" s="17"/>
+      <c r="H103" s="17"/>
+      <c r="I103" s="17"/>
+      <c r="J103" s="17"/>
+      <c r="K103" s="17"/>
+      <c r="L103" s="17"/>
+      <c r="M103" s="17"/>
+      <c r="N103" s="17"/>
+      <c r="O103" s="17"/>
+      <c r="P103" s="17"/>
+      <c r="Q103" s="17"/>
+      <c r="R103" s="17"/>
+      <c r="S103" s="17"/>
+      <c r="T103" s="17"/>
+      <c r="U103" s="17"/>
+      <c r="V103" s="17"/>
+      <c r="W103" s="17"/>
+      <c r="X103" s="17"/>
+      <c r="Y103" s="17"/>
+      <c r="Z103" s="17"/>
+      <c r="AA103" s="17"/>
+      <c r="AB103" s="17"/>
+      <c r="AC103" s="17"/>
+      <c r="AD103" s="17"/>
+      <c r="AE103" s="17"/>
+      <c r="AF103" s="17"/>
+      <c r="AG103" s="17"/>
+      <c r="AH103" s="17"/>
+      <c r="AI103" s="17"/>
     </row>
     <row r="104" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E104" s="22" t="str">
-        <f>D94&amp;"2."</f>
-        <v>7.3.4.2.</v>
-      </c>
-      <c r="F104" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="G104" s="17"/>
-      <c r="H104" s="17"/>
-      <c r="I104" s="17"/>
-      <c r="J104" s="17"/>
-      <c r="K104" s="17"/>
-      <c r="L104" s="17"/>
-      <c r="M104" s="17"/>
-      <c r="N104" s="17"/>
-      <c r="O104" s="17"/>
-      <c r="P104" s="17"/>
-      <c r="Q104" s="17"/>
-      <c r="R104" s="17"/>
-      <c r="S104" s="17"/>
-      <c r="T104" s="17"/>
-      <c r="U104" s="17"/>
-      <c r="V104" s="17"/>
-      <c r="W104" s="17"/>
-      <c r="X104" s="17"/>
-      <c r="Y104" s="17"/>
-      <c r="Z104" s="17"/>
-      <c r="AA104" s="17"/>
-      <c r="AB104" s="17"/>
-      <c r="AC104" s="17"/>
-      <c r="AD104" s="17"/>
-      <c r="AE104" s="17"/>
-      <c r="AF104" s="17"/>
-      <c r="AG104" s="17"/>
-      <c r="AH104" s="17"/>
-      <c r="AI104" s="17"/>
+      <c r="E104" s="22"/>
+      <c r="F104" s="22" t="str">
+        <f>E103&amp;"1."</f>
+        <v>7.3.4.3.1.</v>
+      </c>
+      <c r="G104" s="21" t="str">
+        <f>F103&amp;"機能概要"</f>
+        <v>処理タイムアウト機能概要</v>
+      </c>
     </row>
     <row r="105" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F105" s="22" t="str">
-        <f>E104&amp;"1."</f>
-        <v>7.3.4.2.1.</v>
-      </c>
-      <c r="G105" s="21" t="str">
-        <f>F104&amp;"方法"</f>
-        <v>トランザクション分離レベル方法</v>
+      <c r="G105" s="21" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="106" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G106" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="H106" s="33"/>
-      <c r="I106" s="33"/>
-      <c r="J106" s="34"/>
-      <c r="K106" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="L106" s="33"/>
-      <c r="M106" s="33"/>
-      <c r="N106" s="33"/>
-      <c r="O106" s="33"/>
-      <c r="P106" s="33"/>
-      <c r="Q106" s="33"/>
-      <c r="R106" s="33"/>
-      <c r="S106" s="33"/>
-      <c r="T106" s="33"/>
-      <c r="U106" s="33"/>
-      <c r="V106" s="33"/>
-      <c r="W106" s="33"/>
-      <c r="X106" s="33"/>
-      <c r="Y106" s="33"/>
-      <c r="Z106" s="33"/>
-      <c r="AA106" s="33"/>
-      <c r="AB106" s="33"/>
-      <c r="AC106" s="33"/>
-      <c r="AD106" s="33"/>
-      <c r="AE106" s="33"/>
-      <c r="AF106" s="33"/>
-      <c r="AG106" s="33"/>
-      <c r="AH106" s="34"/>
+      <c r="G106" s="21" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="107" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G107" s="45" t="s">
-        <v>36</v>
-      </c>
-      <c r="H107" s="46"/>
-      <c r="I107" s="46"/>
-      <c r="J107" s="47"/>
-      <c r="K107" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="L107" s="46"/>
-      <c r="M107" s="46"/>
-      <c r="N107" s="46"/>
-      <c r="O107" s="46"/>
-      <c r="P107" s="46"/>
-      <c r="Q107" s="46"/>
-      <c r="R107" s="46"/>
-      <c r="S107" s="46"/>
-      <c r="T107" s="46"/>
-      <c r="U107" s="46"/>
-      <c r="V107" s="46"/>
-      <c r="W107" s="46"/>
-      <c r="X107" s="46"/>
-      <c r="Y107" s="46"/>
-      <c r="Z107" s="46"/>
-      <c r="AA107" s="46"/>
-      <c r="AB107" s="46"/>
-      <c r="AC107" s="46"/>
-      <c r="AD107" s="46"/>
-      <c r="AE107" s="46"/>
-      <c r="AF107" s="46"/>
-      <c r="AG107" s="46"/>
-      <c r="AH107" s="47"/>
-    </row>
-    <row r="108" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C108" s="21"/>
-      <c r="E108" s="16"/>
-      <c r="F108" s="18"/>
-      <c r="G108" s="18"/>
-      <c r="H108" s="18"/>
-      <c r="I108" s="18"/>
-      <c r="J108" s="18"/>
-      <c r="K108" s="18"/>
-      <c r="L108" s="18"/>
-      <c r="M108" s="18"/>
-      <c r="N108" s="18"/>
-      <c r="O108" s="18"/>
-      <c r="P108" s="18"/>
-      <c r="Q108" s="18"/>
-      <c r="R108" s="18"/>
-      <c r="S108" s="18"/>
-      <c r="T108" s="18"/>
-      <c r="U108" s="18"/>
-      <c r="V108" s="18"/>
-      <c r="W108" s="18"/>
-      <c r="X108" s="18"/>
-      <c r="Y108" s="18"/>
-      <c r="Z108" s="18"/>
-      <c r="AA108" s="18"/>
-      <c r="AB108" s="18"/>
-      <c r="AC108" s="18"/>
-      <c r="AD108" s="18"/>
-      <c r="AE108" s="18"/>
-      <c r="AF108" s="18"/>
-      <c r="AG108" s="18"/>
-      <c r="AH108" s="18"/>
-      <c r="AI108" s="16"/>
-    </row>
-    <row r="109" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D109" s="16"/>
-      <c r="E109" s="18"/>
-      <c r="F109" s="18"/>
-      <c r="G109" s="18"/>
-      <c r="H109" s="18"/>
-      <c r="I109" s="18"/>
-      <c r="J109" s="18"/>
-      <c r="K109" s="18"/>
-      <c r="L109" s="18"/>
-      <c r="M109" s="18"/>
-      <c r="N109" s="18"/>
-      <c r="O109" s="18"/>
-      <c r="P109" s="18"/>
-      <c r="Q109" s="18"/>
-      <c r="R109" s="18"/>
-      <c r="S109" s="18"/>
-      <c r="T109" s="18"/>
-      <c r="U109" s="18"/>
-      <c r="V109" s="18"/>
-      <c r="W109" s="18"/>
-      <c r="X109" s="18"/>
-      <c r="Y109" s="18"/>
-      <c r="Z109" s="18"/>
-      <c r="AA109" s="18"/>
-      <c r="AB109" s="18"/>
-      <c r="AC109" s="18"/>
-      <c r="AD109" s="18"/>
-      <c r="AE109" s="18"/>
-      <c r="AF109" s="18"/>
-      <c r="AG109" s="18"/>
-      <c r="AH109" s="16"/>
+      <c r="G107" s="21" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="108" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F109" s="22" t="str">
+        <f>E103&amp;"2."</f>
+        <v>7.3.4.3.2.</v>
+      </c>
+      <c r="G109" s="21" t="str">
+        <f>F103&amp;"方法"</f>
+        <v>処理タイムアウト方法</v>
+      </c>
     </row>
     <row r="110" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E110" s="22" t="str">
-        <f>D94&amp;"3."</f>
-        <v>7.3.4.3.</v>
-      </c>
-      <c r="F110" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="G110" s="17"/>
-      <c r="H110" s="17"/>
-      <c r="I110" s="17"/>
-      <c r="J110" s="17"/>
-      <c r="K110" s="17"/>
-      <c r="L110" s="17"/>
-      <c r="M110" s="17"/>
-      <c r="N110" s="17"/>
-      <c r="O110" s="17"/>
-      <c r="P110" s="17"/>
-      <c r="Q110" s="17"/>
-      <c r="R110" s="17"/>
-      <c r="S110" s="17"/>
-      <c r="T110" s="17"/>
-      <c r="U110" s="17"/>
-      <c r="V110" s="17"/>
-      <c r="W110" s="17"/>
-      <c r="X110" s="17"/>
-      <c r="Y110" s="17"/>
-      <c r="Z110" s="17"/>
-      <c r="AA110" s="17"/>
-      <c r="AB110" s="17"/>
-      <c r="AC110" s="17"/>
-      <c r="AD110" s="17"/>
-      <c r="AE110" s="17"/>
-      <c r="AF110" s="17"/>
-      <c r="AG110" s="17"/>
-      <c r="AH110" s="17"/>
-      <c r="AI110" s="17"/>
+      <c r="G110" s="21" t="str">
+        <f>F103&amp;"を行う機能には、以下の方法がある。これらは原則全て使用される。"</f>
+        <v>処理タイムアウトを行う機能には、以下の方法がある。これらは原則全て使用される。</v>
+      </c>
     </row>
     <row r="111" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E111" s="22"/>
-      <c r="F111" s="22" t="str">
-        <f>E110&amp;"1."</f>
-        <v>7.3.4.3.1.</v>
-      </c>
-      <c r="G111" s="21" t="str">
-        <f>F110&amp;"機能概要"</f>
-        <v>処理タイムアウト機能概要</v>
-      </c>
+      <c r="C111" s="20"/>
+      <c r="D111" s="20"/>
+      <c r="E111" s="20"/>
+      <c r="G111" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="H111" s="33"/>
+      <c r="I111" s="33"/>
+      <c r="J111" s="33"/>
+      <c r="K111" s="34"/>
+      <c r="L111" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="M111" s="33"/>
+      <c r="N111" s="33"/>
+      <c r="O111" s="33"/>
+      <c r="P111" s="33"/>
+      <c r="Q111" s="33"/>
+      <c r="R111" s="33"/>
+      <c r="S111" s="33"/>
+      <c r="T111" s="33"/>
+      <c r="U111" s="33"/>
+      <c r="V111" s="33"/>
+      <c r="W111" s="33"/>
+      <c r="X111" s="33"/>
+      <c r="Y111" s="33"/>
+      <c r="Z111" s="33"/>
+      <c r="AA111" s="33"/>
+      <c r="AB111" s="33"/>
+      <c r="AC111" s="33"/>
+      <c r="AD111" s="33"/>
+      <c r="AE111" s="33"/>
+      <c r="AF111" s="33"/>
+      <c r="AG111" s="33"/>
+      <c r="AH111" s="34"/>
     </row>
     <row r="112" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G112" s="21" t="s">
-        <v>40</v>
-      </c>
+      <c r="C112" s="20"/>
+      <c r="D112" s="20"/>
+      <c r="E112" s="20"/>
+      <c r="G112" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="H112" s="29"/>
+      <c r="I112" s="29"/>
+      <c r="J112" s="29"/>
+      <c r="K112" s="29"/>
+      <c r="L112" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="M112" s="29"/>
+      <c r="N112" s="29"/>
+      <c r="O112" s="29"/>
+      <c r="P112" s="29"/>
+      <c r="Q112" s="29"/>
+      <c r="R112" s="29"/>
+      <c r="S112" s="29"/>
+      <c r="T112" s="29"/>
+      <c r="U112" s="29"/>
+      <c r="V112" s="29"/>
+      <c r="W112" s="29"/>
+      <c r="X112" s="29"/>
+      <c r="Y112" s="29"/>
+      <c r="Z112" s="29"/>
+      <c r="AA112" s="29"/>
+      <c r="AB112" s="29"/>
+      <c r="AC112" s="29"/>
+      <c r="AD112" s="29"/>
+      <c r="AE112" s="29"/>
+      <c r="AF112" s="29"/>
+      <c r="AG112" s="29"/>
+      <c r="AH112" s="30"/>
     </row>
     <row r="113" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G113" s="21" t="s">
-        <v>101</v>
-      </c>
+      <c r="C113" s="20"/>
+      <c r="D113" s="20"/>
+      <c r="E113" s="20"/>
+      <c r="G113" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="H113" s="29"/>
+      <c r="I113" s="29"/>
+      <c r="J113" s="29"/>
+      <c r="K113" s="29"/>
+      <c r="L113" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="M113" s="29"/>
+      <c r="N113" s="29"/>
+      <c r="O113" s="29"/>
+      <c r="P113" s="29"/>
+      <c r="Q113" s="29"/>
+      <c r="R113" s="29"/>
+      <c r="S113" s="29"/>
+      <c r="T113" s="29"/>
+      <c r="U113" s="29"/>
+      <c r="V113" s="29"/>
+      <c r="W113" s="29"/>
+      <c r="X113" s="29"/>
+      <c r="Y113" s="29"/>
+      <c r="Z113" s="29"/>
+      <c r="AA113" s="29"/>
+      <c r="AB113" s="29"/>
+      <c r="AC113" s="29"/>
+      <c r="AD113" s="29"/>
+      <c r="AE113" s="29"/>
+      <c r="AF113" s="29"/>
+      <c r="AG113" s="29"/>
+      <c r="AH113" s="30"/>
     </row>
     <row r="114" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G114" s="21" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="115" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="C114" s="20"/>
+      <c r="D114" s="20"/>
+      <c r="E114" s="20"/>
+      <c r="G114" s="26"/>
+      <c r="H114" s="27"/>
+      <c r="I114" s="27"/>
+      <c r="J114" s="27"/>
+      <c r="K114" s="27"/>
+      <c r="L114" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="M114" s="27"/>
+      <c r="N114" s="27"/>
+      <c r="O114" s="27"/>
+      <c r="P114" s="27"/>
+      <c r="Q114" s="27"/>
+      <c r="R114" s="27"/>
+      <c r="S114" s="27"/>
+      <c r="T114" s="27"/>
+      <c r="U114" s="27"/>
+      <c r="V114" s="27"/>
+      <c r="W114" s="27"/>
+      <c r="X114" s="27"/>
+      <c r="Y114" s="27"/>
+      <c r="Z114" s="27"/>
+      <c r="AA114" s="27"/>
+      <c r="AB114" s="27"/>
+      <c r="AC114" s="27"/>
+      <c r="AD114" s="27"/>
+      <c r="AE114" s="27"/>
+      <c r="AF114" s="27"/>
+      <c r="AG114" s="27"/>
+      <c r="AH114" s="31"/>
+    </row>
+    <row r="115" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D115" s="16"/>
+      <c r="E115" s="18"/>
+      <c r="F115" s="18"/>
+      <c r="G115" s="18"/>
+      <c r="H115" s="18"/>
+      <c r="I115" s="18"/>
+      <c r="J115" s="18"/>
+      <c r="K115" s="18"/>
+      <c r="L115" s="18"/>
+      <c r="M115" s="18"/>
+      <c r="N115" s="18"/>
+      <c r="O115" s="18"/>
+      <c r="P115" s="18"/>
+      <c r="Q115" s="18"/>
+      <c r="R115" s="18"/>
+      <c r="S115" s="18"/>
+      <c r="T115" s="18"/>
+      <c r="U115" s="18"/>
+      <c r="V115" s="18"/>
+      <c r="W115" s="18"/>
+      <c r="X115" s="18"/>
+      <c r="Y115" s="18"/>
+      <c r="Z115" s="18"/>
+      <c r="AA115" s="18"/>
+      <c r="AB115" s="18"/>
+      <c r="AC115" s="18"/>
+      <c r="AD115" s="18"/>
+      <c r="AE115" s="18"/>
+      <c r="AF115" s="18"/>
+      <c r="AG115" s="18"/>
+      <c r="AH115" s="18"/>
+      <c r="AI115" s="18"/>
+    </row>
     <row r="116" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F116" s="22" t="str">
-        <f>E110&amp;"2."</f>
-        <v>7.3.4.3.2.</v>
-      </c>
-      <c r="G116" s="21" t="str">
-        <f>F110&amp;"方法"</f>
-        <v>処理タイムアウト方法</v>
-      </c>
+      <c r="E116" s="22" t="str">
+        <f>D87&amp;"4."</f>
+        <v>7.3.4.4.</v>
+      </c>
+      <c r="F116" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="G116" s="17"/>
+      <c r="H116" s="17"/>
+      <c r="I116" s="17"/>
+      <c r="J116" s="17"/>
+      <c r="K116" s="17"/>
+      <c r="L116" s="17"/>
+      <c r="M116" s="17"/>
+      <c r="N116" s="17"/>
+      <c r="O116" s="17"/>
+      <c r="P116" s="17"/>
+      <c r="Q116" s="17"/>
+      <c r="R116" s="17"/>
+      <c r="S116" s="17"/>
+      <c r="T116" s="17"/>
+      <c r="U116" s="17"/>
+      <c r="V116" s="17"/>
+      <c r="W116" s="17"/>
+      <c r="X116" s="17"/>
+      <c r="Y116" s="17"/>
+      <c r="Z116" s="17"/>
+      <c r="AA116" s="17"/>
+      <c r="AB116" s="17"/>
+      <c r="AC116" s="17"/>
+      <c r="AD116" s="17"/>
+      <c r="AE116" s="17"/>
+      <c r="AF116" s="17"/>
+      <c r="AG116" s="17"/>
+      <c r="AH116" s="17"/>
+      <c r="AI116" s="17"/>
     </row>
     <row r="117" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E117" s="22"/>
+      <c r="F117" s="22" t="str">
+        <f>$E$116&amp;"1."</f>
+        <v>7.3.4.4.1.</v>
+      </c>
       <c r="G117" s="21" t="str">
-        <f>F110&amp;"を行う機能には、以下の方法がある。これらは原則全て使用される。"</f>
-        <v>処理タイムアウトを行う機能には、以下の方法がある。これらは原則全て使用される。</v>
+        <f>F116&amp;"機能概要"</f>
+        <v>排他制御機能概要</v>
       </c>
     </row>
     <row r="118" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C118" s="20"/>
-      <c r="D118" s="20"/>
-      <c r="E118" s="20"/>
-      <c r="G118" s="32" t="s">
+      <c r="G118" s="21" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="119" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G119" s="21" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="120" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F121" s="22" t="str">
+        <f>$E$116&amp;"2."</f>
+        <v>7.3.4.4.2.</v>
+      </c>
+      <c r="G121" s="21" t="str">
+        <f>F116&amp;"方法"</f>
+        <v>排他制御方法</v>
+      </c>
+    </row>
+    <row r="122" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G122" s="21" t="str">
+        <f>F116&amp;"を行う機能には、以下の方法がある。"</f>
+        <v>排他制御を行う機能には、以下の方法がある。</v>
+      </c>
+    </row>
+    <row r="123" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C124" s="20"/>
+      <c r="D124" s="20"/>
+      <c r="E124" s="20"/>
+      <c r="G124" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="H118" s="33"/>
-      <c r="I118" s="33"/>
-      <c r="J118" s="33"/>
-      <c r="K118" s="34"/>
-      <c r="L118" s="33" t="s">
+      <c r="H124" s="33"/>
+      <c r="I124" s="33"/>
+      <c r="J124" s="33"/>
+      <c r="K124" s="34"/>
+      <c r="L124" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="M118" s="33"/>
-      <c r="N118" s="33"/>
-      <c r="O118" s="33"/>
-      <c r="P118" s="33"/>
-      <c r="Q118" s="33"/>
-      <c r="R118" s="33"/>
-      <c r="S118" s="33"/>
-      <c r="T118" s="33"/>
-      <c r="U118" s="33"/>
-      <c r="V118" s="33"/>
-      <c r="W118" s="33"/>
-      <c r="X118" s="33"/>
-      <c r="Y118" s="33"/>
-      <c r="Z118" s="33"/>
-      <c r="AA118" s="33"/>
-      <c r="AB118" s="33"/>
-      <c r="AC118" s="33"/>
-      <c r="AD118" s="33"/>
-      <c r="AE118" s="33"/>
-      <c r="AF118" s="33"/>
-      <c r="AG118" s="33"/>
-      <c r="AH118" s="34"/>
-    </row>
-    <row r="119" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C119" s="20"/>
-      <c r="D119" s="20"/>
-      <c r="E119" s="20"/>
-      <c r="G119" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="H119" s="29"/>
-      <c r="I119" s="29"/>
-      <c r="J119" s="29"/>
-      <c r="K119" s="29"/>
-      <c r="L119" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="M119" s="29"/>
-      <c r="N119" s="29"/>
-      <c r="O119" s="29"/>
-      <c r="P119" s="29"/>
-      <c r="Q119" s="29"/>
-      <c r="R119" s="29"/>
-      <c r="S119" s="29"/>
-      <c r="T119" s="29"/>
-      <c r="U119" s="29"/>
-      <c r="V119" s="29"/>
-      <c r="W119" s="29"/>
-      <c r="X119" s="29"/>
-      <c r="Y119" s="29"/>
-      <c r="Z119" s="29"/>
-      <c r="AA119" s="29"/>
-      <c r="AB119" s="29"/>
-      <c r="AC119" s="29"/>
-      <c r="AD119" s="29"/>
-      <c r="AE119" s="29"/>
-      <c r="AF119" s="29"/>
-      <c r="AG119" s="29"/>
-      <c r="AH119" s="30"/>
-    </row>
-    <row r="120" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C120" s="20"/>
-      <c r="D120" s="20"/>
-      <c r="E120" s="20"/>
-      <c r="G120" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="H120" s="29"/>
-      <c r="I120" s="29"/>
-      <c r="J120" s="29"/>
-      <c r="K120" s="29"/>
-      <c r="L120" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="M120" s="29"/>
-      <c r="N120" s="29"/>
-      <c r="O120" s="29"/>
-      <c r="P120" s="29"/>
-      <c r="Q120" s="29"/>
-      <c r="R120" s="29"/>
-      <c r="S120" s="29"/>
-      <c r="T120" s="29"/>
-      <c r="U120" s="29"/>
-      <c r="V120" s="29"/>
-      <c r="W120" s="29"/>
-      <c r="X120" s="29"/>
-      <c r="Y120" s="29"/>
-      <c r="Z120" s="29"/>
-      <c r="AA120" s="29"/>
-      <c r="AB120" s="29"/>
-      <c r="AC120" s="29"/>
-      <c r="AD120" s="29"/>
-      <c r="AE120" s="29"/>
-      <c r="AF120" s="29"/>
-      <c r="AG120" s="29"/>
-      <c r="AH120" s="30"/>
-    </row>
-    <row r="121" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C121" s="20"/>
-      <c r="D121" s="20"/>
-      <c r="E121" s="20"/>
-      <c r="G121" s="26"/>
-      <c r="H121" s="27"/>
-      <c r="I121" s="27"/>
-      <c r="J121" s="27"/>
-      <c r="K121" s="27"/>
-      <c r="L121" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="M121" s="27"/>
-      <c r="N121" s="27"/>
-      <c r="O121" s="27"/>
-      <c r="P121" s="27"/>
-      <c r="Q121" s="27"/>
-      <c r="R121" s="27"/>
-      <c r="S121" s="27"/>
-      <c r="T121" s="27"/>
-      <c r="U121" s="27"/>
-      <c r="V121" s="27"/>
-      <c r="W121" s="27"/>
-      <c r="X121" s="27"/>
-      <c r="Y121" s="27"/>
-      <c r="Z121" s="27"/>
-      <c r="AA121" s="27"/>
-      <c r="AB121" s="27"/>
-      <c r="AC121" s="27"/>
-      <c r="AD121" s="27"/>
-      <c r="AE121" s="27"/>
-      <c r="AF121" s="27"/>
-      <c r="AG121" s="27"/>
-      <c r="AH121" s="31"/>
-    </row>
-    <row r="122" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D122" s="16"/>
-      <c r="E122" s="18"/>
-      <c r="F122" s="18"/>
-      <c r="G122" s="18"/>
-      <c r="H122" s="18"/>
-      <c r="I122" s="18"/>
-      <c r="J122" s="18"/>
-      <c r="K122" s="18"/>
-      <c r="L122" s="18"/>
-      <c r="M122" s="18"/>
-      <c r="N122" s="18"/>
-      <c r="O122" s="18"/>
-      <c r="P122" s="18"/>
-      <c r="Q122" s="18"/>
-      <c r="R122" s="18"/>
-      <c r="S122" s="18"/>
-      <c r="T122" s="18"/>
-      <c r="U122" s="18"/>
-      <c r="V122" s="18"/>
-      <c r="W122" s="18"/>
-      <c r="X122" s="18"/>
-      <c r="Y122" s="18"/>
-      <c r="Z122" s="18"/>
-      <c r="AA122" s="18"/>
-      <c r="AB122" s="18"/>
-      <c r="AC122" s="18"/>
-      <c r="AD122" s="18"/>
-      <c r="AE122" s="18"/>
-      <c r="AF122" s="18"/>
-      <c r="AG122" s="18"/>
-      <c r="AH122" s="18"/>
-      <c r="AI122" s="18"/>
-    </row>
-    <row r="123" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E123" s="22" t="str">
-        <f>D94&amp;"4."</f>
-        <v>7.3.4.4.</v>
-      </c>
-      <c r="F123" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="G123" s="17"/>
-      <c r="H123" s="17"/>
-      <c r="I123" s="17"/>
-      <c r="J123" s="17"/>
-      <c r="K123" s="17"/>
-      <c r="L123" s="17"/>
-      <c r="M123" s="17"/>
-      <c r="N123" s="17"/>
-      <c r="O123" s="17"/>
-      <c r="P123" s="17"/>
-      <c r="Q123" s="17"/>
-      <c r="R123" s="17"/>
-      <c r="S123" s="17"/>
-      <c r="T123" s="17"/>
-      <c r="U123" s="17"/>
-      <c r="V123" s="17"/>
-      <c r="W123" s="17"/>
-      <c r="X123" s="17"/>
-      <c r="Y123" s="17"/>
-      <c r="Z123" s="17"/>
-      <c r="AA123" s="17"/>
-      <c r="AB123" s="17"/>
-      <c r="AC123" s="17"/>
-      <c r="AD123" s="17"/>
-      <c r="AE123" s="17"/>
-      <c r="AF123" s="17"/>
-      <c r="AG123" s="17"/>
-      <c r="AH123" s="17"/>
-      <c r="AI123" s="17"/>
-    </row>
-    <row r="124" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E124" s="22"/>
-      <c r="F124" s="22" t="str">
-        <f>$E$123&amp;"1."</f>
-        <v>7.3.4.4.1.</v>
-      </c>
-      <c r="G124" s="21" t="str">
-        <f>F123&amp;"機能概要"</f>
-        <v>排他制御機能概要</v>
-      </c>
+      <c r="M124" s="33"/>
+      <c r="N124" s="33"/>
+      <c r="O124" s="33"/>
+      <c r="P124" s="33"/>
+      <c r="Q124" s="33"/>
+      <c r="R124" s="33"/>
+      <c r="S124" s="33"/>
+      <c r="T124" s="33"/>
+      <c r="U124" s="33"/>
+      <c r="V124" s="33"/>
+      <c r="W124" s="33"/>
+      <c r="X124" s="33"/>
+      <c r="Y124" s="33"/>
+      <c r="Z124" s="33"/>
+      <c r="AA124" s="33"/>
+      <c r="AB124" s="33"/>
+      <c r="AC124" s="33"/>
+      <c r="AD124" s="33"/>
+      <c r="AE124" s="33"/>
+      <c r="AF124" s="33"/>
+      <c r="AG124" s="33"/>
+      <c r="AH124" s="34"/>
     </row>
     <row r="125" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G125" s="21" t="s">
-        <v>113</v>
-      </c>
+      <c r="C125" s="20"/>
+      <c r="D125" s="20"/>
+      <c r="E125" s="20"/>
+      <c r="G125" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="H125" s="29"/>
+      <c r="I125" s="29"/>
+      <c r="J125" s="29"/>
+      <c r="K125" s="29"/>
+      <c r="L125" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="M125" s="29"/>
+      <c r="N125" s="29"/>
+      <c r="O125" s="29"/>
+      <c r="P125" s="29"/>
+      <c r="Q125" s="29"/>
+      <c r="R125" s="29"/>
+      <c r="S125" s="29"/>
+      <c r="T125" s="29"/>
+      <c r="U125" s="29"/>
+      <c r="V125" s="29"/>
+      <c r="W125" s="29"/>
+      <c r="X125" s="29"/>
+      <c r="Y125" s="29"/>
+      <c r="Z125" s="29"/>
+      <c r="AA125" s="29"/>
+      <c r="AB125" s="29"/>
+      <c r="AC125" s="29"/>
+      <c r="AD125" s="29"/>
+      <c r="AE125" s="29"/>
+      <c r="AF125" s="29"/>
+      <c r="AG125" s="29"/>
+      <c r="AH125" s="30"/>
     </row>
     <row r="126" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G126" s="21" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="127" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="C126" s="20"/>
+      <c r="D126" s="20"/>
+      <c r="E126" s="20"/>
+      <c r="G126" s="23"/>
+      <c r="H126" s="24"/>
+      <c r="I126" s="24"/>
+      <c r="J126" s="24"/>
+      <c r="K126" s="24"/>
+      <c r="L126" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M126" s="24"/>
+      <c r="N126" s="24"/>
+      <c r="O126" s="24"/>
+      <c r="P126" s="24"/>
+      <c r="Q126" s="24"/>
+      <c r="R126" s="24"/>
+      <c r="S126" s="24"/>
+      <c r="T126" s="24"/>
+      <c r="U126" s="24"/>
+      <c r="V126" s="24"/>
+      <c r="W126" s="24"/>
+      <c r="X126" s="24"/>
+      <c r="Y126" s="24"/>
+      <c r="Z126" s="24"/>
+      <c r="AA126" s="24"/>
+      <c r="AB126" s="24"/>
+      <c r="AC126" s="24"/>
+      <c r="AD126" s="24"/>
+      <c r="AE126" s="24"/>
+      <c r="AF126" s="24"/>
+      <c r="AG126" s="24"/>
+      <c r="AH126" s="25"/>
+    </row>
+    <row r="127" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C127" s="20"/>
+      <c r="D127" s="20"/>
+      <c r="E127" s="20"/>
+      <c r="G127" s="23"/>
+      <c r="H127" s="24"/>
+      <c r="I127" s="24"/>
+      <c r="J127" s="24"/>
+      <c r="K127" s="24"/>
+      <c r="L127" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="M127" s="24"/>
+      <c r="N127" s="24"/>
+      <c r="O127" s="24"/>
+      <c r="P127" s="24"/>
+      <c r="Q127" s="24"/>
+      <c r="R127" s="24"/>
+      <c r="S127" s="24"/>
+      <c r="T127" s="24"/>
+      <c r="U127" s="24"/>
+      <c r="V127" s="24"/>
+      <c r="W127" s="24"/>
+      <c r="X127" s="24"/>
+      <c r="Y127" s="24"/>
+      <c r="Z127" s="24"/>
+      <c r="AA127" s="24"/>
+      <c r="AB127" s="24"/>
+      <c r="AC127" s="24"/>
+      <c r="AD127" s="24"/>
+      <c r="AE127" s="24"/>
+      <c r="AF127" s="24"/>
+      <c r="AG127" s="24"/>
+      <c r="AH127" s="25"/>
+    </row>
     <row r="128" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F128" s="22" t="str">
-        <f>$E$123&amp;"2."</f>
-        <v>7.3.4.4.2.</v>
-      </c>
-      <c r="G128" s="21" t="str">
-        <f>F123&amp;"方法"</f>
-        <v>排他制御方法</v>
-      </c>
+      <c r="C128" s="20"/>
+      <c r="D128" s="20"/>
+      <c r="E128" s="20"/>
+      <c r="G128" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="H128" s="29"/>
+      <c r="I128" s="29"/>
+      <c r="J128" s="29"/>
+      <c r="K128" s="29"/>
+      <c r="L128" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="M128" s="29"/>
+      <c r="N128" s="29"/>
+      <c r="O128" s="29"/>
+      <c r="P128" s="29"/>
+      <c r="Q128" s="29"/>
+      <c r="R128" s="29"/>
+      <c r="S128" s="29"/>
+      <c r="T128" s="29"/>
+      <c r="U128" s="29"/>
+      <c r="V128" s="29"/>
+      <c r="W128" s="29"/>
+      <c r="X128" s="29"/>
+      <c r="Y128" s="29"/>
+      <c r="Z128" s="29"/>
+      <c r="AA128" s="29"/>
+      <c r="AB128" s="29"/>
+      <c r="AC128" s="29"/>
+      <c r="AD128" s="29"/>
+      <c r="AE128" s="29"/>
+      <c r="AF128" s="29"/>
+      <c r="AG128" s="29"/>
+      <c r="AH128" s="30"/>
     </row>
     <row r="129" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G129" s="21" t="str">
-        <f>F123&amp;"を行う機能には、以下の方法がある。"</f>
-        <v>排他制御を行う機能には、以下の方法がある。</v>
-      </c>
-    </row>
-    <row r="130" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="C129" s="20"/>
+      <c r="D129" s="20"/>
+      <c r="E129" s="20"/>
+      <c r="G129" s="23"/>
+      <c r="H129" s="24"/>
+      <c r="I129" s="24"/>
+      <c r="J129" s="24"/>
+      <c r="K129" s="24"/>
+      <c r="L129" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="M129" s="24"/>
+      <c r="N129" s="24"/>
+      <c r="O129" s="24"/>
+      <c r="P129" s="24"/>
+      <c r="Q129" s="24"/>
+      <c r="R129" s="24"/>
+      <c r="S129" s="24"/>
+      <c r="T129" s="24"/>
+      <c r="U129" s="24"/>
+      <c r="V129" s="24"/>
+      <c r="W129" s="24"/>
+      <c r="X129" s="24"/>
+      <c r="Y129" s="24"/>
+      <c r="Z129" s="24"/>
+      <c r="AA129" s="24"/>
+      <c r="AB129" s="24"/>
+      <c r="AC129" s="24"/>
+      <c r="AD129" s="24"/>
+      <c r="AE129" s="24"/>
+      <c r="AF129" s="24"/>
+      <c r="AG129" s="24"/>
+      <c r="AH129" s="25"/>
+    </row>
+    <row r="130" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C130" s="20"/>
+      <c r="D130" s="20"/>
+      <c r="E130" s="20"/>
+      <c r="G130" s="26"/>
+      <c r="H130" s="27"/>
+      <c r="I130" s="27"/>
+      <c r="J130" s="27"/>
+      <c r="K130" s="27"/>
+      <c r="L130" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="M130" s="27"/>
+      <c r="N130" s="27"/>
+      <c r="O130" s="27"/>
+      <c r="P130" s="27"/>
+      <c r="Q130" s="27"/>
+      <c r="R130" s="27"/>
+      <c r="S130" s="27"/>
+      <c r="T130" s="27"/>
+      <c r="U130" s="27"/>
+      <c r="V130" s="27"/>
+      <c r="W130" s="27"/>
+      <c r="X130" s="27"/>
+      <c r="Y130" s="27"/>
+      <c r="Z130" s="27"/>
+      <c r="AA130" s="27"/>
+      <c r="AB130" s="27"/>
+      <c r="AC130" s="27"/>
+      <c r="AD130" s="27"/>
+      <c r="AE130" s="27"/>
+      <c r="AF130" s="27"/>
+      <c r="AG130" s="27"/>
+      <c r="AH130" s="31"/>
+    </row>
     <row r="131" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C131" s="20"/>
       <c r="D131" s="20"/>
       <c r="E131" s="20"/>
-      <c r="G131" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="H131" s="33"/>
-      <c r="I131" s="33"/>
-      <c r="J131" s="33"/>
-      <c r="K131" s="34"/>
-      <c r="L131" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="M131" s="33"/>
-      <c r="N131" s="33"/>
-      <c r="O131" s="33"/>
-      <c r="P131" s="33"/>
-      <c r="Q131" s="33"/>
-      <c r="R131" s="33"/>
-      <c r="S131" s="33"/>
-      <c r="T131" s="33"/>
-      <c r="U131" s="33"/>
-      <c r="V131" s="33"/>
-      <c r="W131" s="33"/>
-      <c r="X131" s="33"/>
-      <c r="Y131" s="33"/>
-      <c r="Z131" s="33"/>
-      <c r="AA131" s="33"/>
-      <c r="AB131" s="33"/>
-      <c r="AC131" s="33"/>
-      <c r="AD131" s="33"/>
-      <c r="AE131" s="33"/>
-      <c r="AF131" s="33"/>
-      <c r="AG131" s="33"/>
-      <c r="AH131" s="34"/>
+      <c r="G131" s="24"/>
+      <c r="H131" s="24"/>
+      <c r="I131" s="24"/>
+      <c r="J131" s="24"/>
+      <c r="K131" s="24"/>
+      <c r="L131" s="24"/>
+      <c r="M131" s="24"/>
+      <c r="N131" s="24"/>
+      <c r="O131" s="24"/>
+      <c r="P131" s="24"/>
+      <c r="Q131" s="24"/>
+      <c r="R131" s="24"/>
+      <c r="S131" s="24"/>
+      <c r="T131" s="24"/>
+      <c r="U131" s="24"/>
+      <c r="V131" s="24"/>
+      <c r="W131" s="24"/>
+      <c r="X131" s="24"/>
+      <c r="Y131" s="24"/>
+      <c r="Z131" s="24"/>
+      <c r="AA131" s="24"/>
+      <c r="AB131" s="24"/>
+      <c r="AC131" s="24"/>
+      <c r="AD131" s="24"/>
+      <c r="AE131" s="24"/>
+      <c r="AF131" s="24"/>
+      <c r="AG131" s="24"/>
+      <c r="AH131" s="24"/>
+      <c r="AI131" s="24"/>
     </row>
     <row r="132" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C132" s="20"/>
       <c r="D132" s="20"/>
       <c r="E132" s="20"/>
-      <c r="G132" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="H132" s="29"/>
-      <c r="I132" s="29"/>
-      <c r="J132" s="29"/>
-      <c r="K132" s="29"/>
-      <c r="L132" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="M132" s="29"/>
-      <c r="N132" s="29"/>
-      <c r="O132" s="29"/>
-      <c r="P132" s="29"/>
-      <c r="Q132" s="29"/>
-      <c r="R132" s="29"/>
-      <c r="S132" s="29"/>
-      <c r="T132" s="29"/>
-      <c r="U132" s="29"/>
-      <c r="V132" s="29"/>
-      <c r="W132" s="29"/>
-      <c r="X132" s="29"/>
-      <c r="Y132" s="29"/>
-      <c r="Z132" s="29"/>
-      <c r="AA132" s="29"/>
-      <c r="AB132" s="29"/>
-      <c r="AC132" s="29"/>
-      <c r="AD132" s="29"/>
-      <c r="AE132" s="29"/>
-      <c r="AF132" s="29"/>
-      <c r="AG132" s="29"/>
-      <c r="AH132" s="30"/>
+      <c r="G132" s="21" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="133" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C133" s="20"/>
-      <c r="D133" s="20"/>
-      <c r="E133" s="20"/>
-      <c r="G133" s="23"/>
-      <c r="H133" s="24"/>
-      <c r="I133" s="24"/>
-      <c r="J133" s="24"/>
-      <c r="K133" s="24"/>
-      <c r="L133" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="M133" s="24"/>
-      <c r="N133" s="24"/>
-      <c r="O133" s="24"/>
-      <c r="P133" s="24"/>
-      <c r="Q133" s="24"/>
-      <c r="R133" s="24"/>
-      <c r="S133" s="24"/>
-      <c r="T133" s="24"/>
-      <c r="U133" s="24"/>
-      <c r="V133" s="24"/>
-      <c r="W133" s="24"/>
-      <c r="X133" s="24"/>
-      <c r="Y133" s="24"/>
-      <c r="Z133" s="24"/>
-      <c r="AA133" s="24"/>
-      <c r="AB133" s="24"/>
-      <c r="AC133" s="24"/>
-      <c r="AD133" s="24"/>
-      <c r="AE133" s="24"/>
-      <c r="AF133" s="24"/>
-      <c r="AG133" s="24"/>
-      <c r="AH133" s="25"/>
+      <c r="G133" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="H133" s="33"/>
+      <c r="I133" s="33"/>
+      <c r="J133" s="33"/>
+      <c r="K133" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="L133" s="33"/>
+      <c r="M133" s="34"/>
+      <c r="N133" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="O133" s="33"/>
+      <c r="P133" s="33"/>
+      <c r="Q133" s="33"/>
+      <c r="R133" s="33"/>
+      <c r="S133" s="33"/>
+      <c r="T133" s="33"/>
+      <c r="U133" s="33"/>
+      <c r="V133" s="33"/>
+      <c r="W133" s="33"/>
+      <c r="X133" s="33"/>
+      <c r="Y133" s="33"/>
+      <c r="Z133" s="33"/>
+      <c r="AA133" s="33"/>
+      <c r="AB133" s="33"/>
+      <c r="AC133" s="33"/>
+      <c r="AD133" s="33"/>
+      <c r="AE133" s="33"/>
+      <c r="AF133" s="33"/>
+      <c r="AG133" s="33"/>
+      <c r="AH133" s="34"/>
     </row>
     <row r="134" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C134" s="20"/>
-      <c r="D134" s="20"/>
-      <c r="E134" s="20"/>
-      <c r="G134" s="23"/>
+      <c r="G134" s="23" t="s">
+        <v>77</v>
+      </c>
       <c r="H134" s="24"/>
       <c r="I134" s="24"/>
       <c r="J134" s="24"/>
-      <c r="K134" s="24"/>
-      <c r="L134" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="M134" s="24"/>
-      <c r="N134" s="24"/>
+      <c r="K134" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="L134" s="24"/>
+      <c r="M134" s="25"/>
+      <c r="N134" s="24" t="s">
+        <v>115</v>
+      </c>
       <c r="O134" s="24"/>
       <c r="P134" s="24"/>
       <c r="Q134" s="24"/>
@@ -5516,56 +5503,48 @@
       <c r="AH134" s="25"/>
     </row>
     <row r="135" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C135" s="20"/>
-      <c r="D135" s="20"/>
-      <c r="E135" s="20"/>
-      <c r="G135" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="H135" s="29"/>
-      <c r="I135" s="29"/>
-      <c r="J135" s="29"/>
-      <c r="K135" s="29"/>
-      <c r="L135" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="M135" s="29"/>
-      <c r="N135" s="29"/>
-      <c r="O135" s="29"/>
-      <c r="P135" s="29"/>
-      <c r="Q135" s="29"/>
-      <c r="R135" s="29"/>
-      <c r="S135" s="29"/>
-      <c r="T135" s="29"/>
-      <c r="U135" s="29"/>
-      <c r="V135" s="29"/>
-      <c r="W135" s="29"/>
-      <c r="X135" s="29"/>
-      <c r="Y135" s="29"/>
-      <c r="Z135" s="29"/>
-      <c r="AA135" s="29"/>
-      <c r="AB135" s="29"/>
-      <c r="AC135" s="29"/>
-      <c r="AD135" s="29"/>
-      <c r="AE135" s="29"/>
-      <c r="AF135" s="29"/>
-      <c r="AG135" s="29"/>
-      <c r="AH135" s="30"/>
+      <c r="G135" s="23"/>
+      <c r="H135" s="24"/>
+      <c r="I135" s="24"/>
+      <c r="J135" s="24"/>
+      <c r="K135" s="23"/>
+      <c r="L135" s="24"/>
+      <c r="M135" s="25"/>
+      <c r="N135" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="O135" s="24"/>
+      <c r="P135" s="24"/>
+      <c r="Q135" s="24"/>
+      <c r="R135" s="24"/>
+      <c r="S135" s="24"/>
+      <c r="T135" s="24"/>
+      <c r="U135" s="24"/>
+      <c r="V135" s="24"/>
+      <c r="W135" s="24"/>
+      <c r="X135" s="24"/>
+      <c r="Y135" s="24"/>
+      <c r="Z135" s="24"/>
+      <c r="AA135" s="24"/>
+      <c r="AB135" s="24"/>
+      <c r="AC135" s="24"/>
+      <c r="AD135" s="24"/>
+      <c r="AE135" s="24"/>
+      <c r="AF135" s="24"/>
+      <c r="AG135" s="24"/>
+      <c r="AH135" s="25"/>
     </row>
     <row r="136" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C136" s="20"/>
-      <c r="D136" s="20"/>
-      <c r="E136" s="20"/>
       <c r="G136" s="23"/>
       <c r="H136" s="24"/>
       <c r="I136" s="24"/>
       <c r="J136" s="24"/>
-      <c r="K136" s="24"/>
-      <c r="L136" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="M136" s="24"/>
-      <c r="N136" s="24"/>
+      <c r="K136" s="23"/>
+      <c r="L136" s="24"/>
+      <c r="M136" s="25"/>
+      <c r="N136" s="24" t="s">
+        <v>117</v>
+      </c>
       <c r="O136" s="24"/>
       <c r="P136" s="24"/>
       <c r="Q136" s="24"/>
@@ -5588,166 +5567,166 @@
       <c r="AH136" s="25"/>
     </row>
     <row r="137" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C137" s="20"/>
-      <c r="D137" s="20"/>
-      <c r="E137" s="20"/>
-      <c r="G137" s="26"/>
-      <c r="H137" s="27"/>
-      <c r="I137" s="27"/>
-      <c r="J137" s="27"/>
-      <c r="K137" s="27"/>
-      <c r="L137" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="M137" s="27"/>
-      <c r="N137" s="27"/>
-      <c r="O137" s="27"/>
-      <c r="P137" s="27"/>
-      <c r="Q137" s="27"/>
-      <c r="R137" s="27"/>
-      <c r="S137" s="27"/>
-      <c r="T137" s="27"/>
-      <c r="U137" s="27"/>
-      <c r="V137" s="27"/>
-      <c r="W137" s="27"/>
-      <c r="X137" s="27"/>
-      <c r="Y137" s="27"/>
-      <c r="Z137" s="27"/>
-      <c r="AA137" s="27"/>
-      <c r="AB137" s="27"/>
-      <c r="AC137" s="27"/>
-      <c r="AD137" s="27"/>
-      <c r="AE137" s="27"/>
-      <c r="AF137" s="27"/>
-      <c r="AG137" s="27"/>
-      <c r="AH137" s="31"/>
+      <c r="G137" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="H137" s="29"/>
+      <c r="I137" s="29"/>
+      <c r="J137" s="29"/>
+      <c r="K137" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="L137" s="29"/>
+      <c r="M137" s="30"/>
+      <c r="N137" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="O137" s="29"/>
+      <c r="P137" s="29"/>
+      <c r="Q137" s="29"/>
+      <c r="R137" s="29"/>
+      <c r="S137" s="29"/>
+      <c r="T137" s="29"/>
+      <c r="U137" s="29"/>
+      <c r="V137" s="29"/>
+      <c r="W137" s="29"/>
+      <c r="X137" s="29"/>
+      <c r="Y137" s="29"/>
+      <c r="Z137" s="29"/>
+      <c r="AA137" s="29"/>
+      <c r="AB137" s="29"/>
+      <c r="AC137" s="29"/>
+      <c r="AD137" s="29"/>
+      <c r="AE137" s="29"/>
+      <c r="AF137" s="29"/>
+      <c r="AG137" s="29"/>
+      <c r="AH137" s="30"/>
     </row>
     <row r="138" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C138" s="20"/>
-      <c r="D138" s="20"/>
-      <c r="E138" s="20"/>
-      <c r="G138" s="24"/>
-      <c r="H138" s="24"/>
-      <c r="I138" s="24"/>
-      <c r="J138" s="24"/>
-      <c r="K138" s="24"/>
-      <c r="L138" s="24"/>
-      <c r="M138" s="24"/>
-      <c r="N138" s="24"/>
-      <c r="O138" s="24"/>
-      <c r="P138" s="24"/>
-      <c r="Q138" s="24"/>
-      <c r="R138" s="24"/>
-      <c r="S138" s="24"/>
-      <c r="T138" s="24"/>
-      <c r="U138" s="24"/>
-      <c r="V138" s="24"/>
-      <c r="W138" s="24"/>
-      <c r="X138" s="24"/>
-      <c r="Y138" s="24"/>
-      <c r="Z138" s="24"/>
-      <c r="AA138" s="24"/>
-      <c r="AB138" s="24"/>
-      <c r="AC138" s="24"/>
-      <c r="AD138" s="24"/>
-      <c r="AE138" s="24"/>
-      <c r="AF138" s="24"/>
-      <c r="AG138" s="24"/>
-      <c r="AH138" s="24"/>
-      <c r="AI138" s="24"/>
+      <c r="G138" s="26"/>
+      <c r="H138" s="27"/>
+      <c r="I138" s="27"/>
+      <c r="J138" s="27"/>
+      <c r="K138" s="26"/>
+      <c r="L138" s="27"/>
+      <c r="M138" s="31"/>
+      <c r="N138" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="O138" s="27"/>
+      <c r="P138" s="27"/>
+      <c r="Q138" s="27"/>
+      <c r="R138" s="27"/>
+      <c r="S138" s="27"/>
+      <c r="T138" s="27"/>
+      <c r="U138" s="27"/>
+      <c r="V138" s="27"/>
+      <c r="W138" s="27"/>
+      <c r="X138" s="27"/>
+      <c r="Y138" s="27"/>
+      <c r="Z138" s="27"/>
+      <c r="AA138" s="27"/>
+      <c r="AB138" s="27"/>
+      <c r="AC138" s="27"/>
+      <c r="AD138" s="27"/>
+      <c r="AE138" s="27"/>
+      <c r="AF138" s="27"/>
+      <c r="AG138" s="27"/>
+      <c r="AH138" s="31"/>
     </row>
     <row r="139" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C139" s="20"/>
-      <c r="D139" s="20"/>
-      <c r="E139" s="20"/>
-      <c r="G139" s="21" t="s">
-        <v>16</v>
-      </c>
+      <c r="E139" s="16"/>
+      <c r="F139" s="18"/>
+      <c r="G139" s="18"/>
+      <c r="H139" s="18"/>
+      <c r="I139" s="18"/>
+      <c r="J139" s="18"/>
+      <c r="K139" s="18"/>
+      <c r="L139" s="18"/>
+      <c r="M139" s="18"/>
+      <c r="N139" s="18"/>
+      <c r="O139" s="18"/>
+      <c r="P139" s="18"/>
+      <c r="Q139" s="18"/>
+      <c r="R139" s="18"/>
+      <c r="S139" s="18"/>
+      <c r="T139" s="18"/>
+      <c r="U139" s="18"/>
+      <c r="V139" s="18"/>
+      <c r="W139" s="18"/>
+      <c r="X139" s="18"/>
+      <c r="Y139" s="18"/>
+      <c r="Z139" s="18"/>
+      <c r="AA139" s="18"/>
+      <c r="AB139" s="18"/>
+      <c r="AC139" s="18"/>
+      <c r="AD139" s="18"/>
+      <c r="AE139" s="18"/>
+      <c r="AF139" s="18"/>
+      <c r="AG139" s="18"/>
+      <c r="AH139" s="18"/>
+      <c r="AI139" s="18"/>
     </row>
     <row r="140" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G140" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="H140" s="33"/>
-      <c r="I140" s="33"/>
-      <c r="J140" s="33"/>
-      <c r="K140" s="32" t="s">
+      <c r="C140" s="20"/>
+      <c r="D140" s="20"/>
+      <c r="E140" s="20"/>
+      <c r="G140" s="21" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="141" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G141" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="H141" s="33"/>
+      <c r="I141" s="33"/>
+      <c r="J141" s="34"/>
+      <c r="K141" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="L140" s="33"/>
-      <c r="M140" s="34"/>
-      <c r="N140" s="33" t="s">
+      <c r="L141" s="33"/>
+      <c r="M141" s="33"/>
+      <c r="N141" s="34"/>
+      <c r="O141" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="O140" s="33"/>
-      <c r="P140" s="33"/>
-      <c r="Q140" s="33"/>
-      <c r="R140" s="33"/>
-      <c r="S140" s="33"/>
-      <c r="T140" s="33"/>
-      <c r="U140" s="33"/>
-      <c r="V140" s="33"/>
-      <c r="W140" s="33"/>
-      <c r="X140" s="33"/>
-      <c r="Y140" s="33"/>
-      <c r="Z140" s="33"/>
-      <c r="AA140" s="33"/>
-      <c r="AB140" s="33"/>
-      <c r="AC140" s="33"/>
-      <c r="AD140" s="33"/>
-      <c r="AE140" s="33"/>
-      <c r="AF140" s="33"/>
-      <c r="AG140" s="33"/>
-      <c r="AH140" s="34"/>
-    </row>
-    <row r="141" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G141" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="H141" s="24"/>
-      <c r="I141" s="24"/>
-      <c r="J141" s="24"/>
-      <c r="K141" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="L141" s="24"/>
-      <c r="M141" s="25"/>
-      <c r="N141" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="O141" s="24"/>
-      <c r="P141" s="24"/>
-      <c r="Q141" s="24"/>
-      <c r="R141" s="24"/>
-      <c r="S141" s="24"/>
-      <c r="T141" s="24"/>
-      <c r="U141" s="24"/>
-      <c r="V141" s="24"/>
-      <c r="W141" s="24"/>
-      <c r="X141" s="24"/>
-      <c r="Y141" s="24"/>
-      <c r="Z141" s="24"/>
-      <c r="AA141" s="24"/>
-      <c r="AB141" s="24"/>
-      <c r="AC141" s="24"/>
-      <c r="AD141" s="24"/>
-      <c r="AE141" s="24"/>
-      <c r="AF141" s="24"/>
-      <c r="AG141" s="24"/>
-      <c r="AH141" s="25"/>
+      <c r="P141" s="33"/>
+      <c r="Q141" s="33"/>
+      <c r="R141" s="33"/>
+      <c r="S141" s="33"/>
+      <c r="T141" s="33"/>
+      <c r="U141" s="33"/>
+      <c r="V141" s="33"/>
+      <c r="W141" s="33"/>
+      <c r="X141" s="33"/>
+      <c r="Y141" s="33"/>
+      <c r="Z141" s="33"/>
+      <c r="AA141" s="33"/>
+      <c r="AB141" s="33"/>
+      <c r="AC141" s="33"/>
+      <c r="AD141" s="33"/>
+      <c r="AE141" s="33"/>
+      <c r="AF141" s="33"/>
+      <c r="AG141" s="33"/>
+      <c r="AH141" s="34"/>
     </row>
     <row r="142" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G142" s="23"/>
+      <c r="G142" s="23" t="s">
+        <v>119</v>
+      </c>
       <c r="H142" s="24"/>
       <c r="I142" s="24"/>
-      <c r="J142" s="24"/>
-      <c r="K142" s="23"/>
+      <c r="J142" s="25"/>
+      <c r="K142" s="24" t="s">
+        <v>118</v>
+      </c>
       <c r="L142" s="24"/>
-      <c r="M142" s="25"/>
-      <c r="N142" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="O142" s="24"/>
+      <c r="M142" s="24"/>
+      <c r="N142" s="25"/>
+      <c r="O142" s="24" t="s">
+        <v>120</v>
+      </c>
       <c r="P142" s="24"/>
       <c r="Q142" s="24"/>
       <c r="R142" s="24"/>
@@ -5772,14 +5751,16 @@
       <c r="G143" s="23"/>
       <c r="H143" s="24"/>
       <c r="I143" s="24"/>
-      <c r="J143" s="24"/>
-      <c r="K143" s="23"/>
+      <c r="J143" s="25"/>
+      <c r="K143" s="24" t="s">
+        <v>122</v>
+      </c>
       <c r="L143" s="24"/>
-      <c r="M143" s="25"/>
-      <c r="N143" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="O143" s="24"/>
+      <c r="M143" s="24"/>
+      <c r="N143" s="25"/>
+      <c r="O143" s="24" t="s">
+        <v>121</v>
+      </c>
       <c r="P143" s="24"/>
       <c r="Q143" s="24"/>
       <c r="R143" s="24"/>
@@ -5801,354 +5782,382 @@
       <c r="AH143" s="25"/>
     </row>
     <row r="144" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G144" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="H144" s="29"/>
-      <c r="I144" s="29"/>
-      <c r="J144" s="29"/>
-      <c r="K144" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="L144" s="29"/>
-      <c r="M144" s="30"/>
-      <c r="N144" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="O144" s="29"/>
-      <c r="P144" s="29"/>
-      <c r="Q144" s="29"/>
-      <c r="R144" s="29"/>
-      <c r="S144" s="29"/>
-      <c r="T144" s="29"/>
-      <c r="U144" s="29"/>
-      <c r="V144" s="29"/>
-      <c r="W144" s="29"/>
-      <c r="X144" s="29"/>
-      <c r="Y144" s="29"/>
-      <c r="Z144" s="29"/>
-      <c r="AA144" s="29"/>
-      <c r="AB144" s="29"/>
-      <c r="AC144" s="29"/>
-      <c r="AD144" s="29"/>
-      <c r="AE144" s="29"/>
-      <c r="AF144" s="29"/>
-      <c r="AG144" s="29"/>
-      <c r="AH144" s="30"/>
-    </row>
-    <row r="145" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G145" s="26"/>
-      <c r="H145" s="27"/>
-      <c r="I145" s="27"/>
-      <c r="J145" s="27"/>
-      <c r="K145" s="26"/>
-      <c r="L145" s="27"/>
-      <c r="M145" s="31"/>
-      <c r="N145" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="O145" s="27"/>
-      <c r="P145" s="27"/>
-      <c r="Q145" s="27"/>
-      <c r="R145" s="27"/>
-      <c r="S145" s="27"/>
-      <c r="T145" s="27"/>
-      <c r="U145" s="27"/>
-      <c r="V145" s="27"/>
-      <c r="W145" s="27"/>
-      <c r="X145" s="27"/>
-      <c r="Y145" s="27"/>
-      <c r="Z145" s="27"/>
-      <c r="AA145" s="27"/>
-      <c r="AB145" s="27"/>
-      <c r="AC145" s="27"/>
-      <c r="AD145" s="27"/>
-      <c r="AE145" s="27"/>
-      <c r="AF145" s="27"/>
-      <c r="AG145" s="27"/>
-      <c r="AH145" s="31"/>
-    </row>
-    <row r="146" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E146" s="16"/>
-      <c r="F146" s="18"/>
-      <c r="G146" s="18"/>
-      <c r="H146" s="18"/>
-      <c r="I146" s="18"/>
-      <c r="J146" s="18"/>
-      <c r="K146" s="18"/>
-      <c r="L146" s="18"/>
-      <c r="M146" s="18"/>
-      <c r="N146" s="18"/>
-      <c r="O146" s="18"/>
-      <c r="P146" s="18"/>
-      <c r="Q146" s="18"/>
-      <c r="R146" s="18"/>
-      <c r="S146" s="18"/>
-      <c r="T146" s="18"/>
-      <c r="U146" s="18"/>
-      <c r="V146" s="18"/>
-      <c r="W146" s="18"/>
-      <c r="X146" s="18"/>
-      <c r="Y146" s="18"/>
-      <c r="Z146" s="18"/>
-      <c r="AA146" s="18"/>
-      <c r="AB146" s="18"/>
-      <c r="AC146" s="18"/>
-      <c r="AD146" s="18"/>
-      <c r="AE146" s="18"/>
-      <c r="AF146" s="18"/>
-      <c r="AG146" s="18"/>
-      <c r="AH146" s="18"/>
-      <c r="AI146" s="18"/>
-    </row>
-    <row r="147" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C147" s="20"/>
-      <c r="D147" s="20"/>
-      <c r="E147" s="20"/>
-      <c r="G147" s="21" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="148" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G148" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="H148" s="33"/>
-      <c r="I148" s="33"/>
-      <c r="J148" s="34"/>
-      <c r="K148" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="L148" s="33"/>
-      <c r="M148" s="33"/>
-      <c r="N148" s="34"/>
-      <c r="O148" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="P148" s="33"/>
-      <c r="Q148" s="33"/>
-      <c r="R148" s="33"/>
-      <c r="S148" s="33"/>
-      <c r="T148" s="33"/>
-      <c r="U148" s="33"/>
-      <c r="V148" s="33"/>
-      <c r="W148" s="33"/>
-      <c r="X148" s="33"/>
-      <c r="Y148" s="33"/>
-      <c r="Z148" s="33"/>
-      <c r="AA148" s="33"/>
-      <c r="AB148" s="33"/>
-      <c r="AC148" s="33"/>
-      <c r="AD148" s="33"/>
-      <c r="AE148" s="33"/>
-      <c r="AF148" s="33"/>
-      <c r="AG148" s="33"/>
-      <c r="AH148" s="34"/>
-    </row>
-    <row r="149" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G149" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="H149" s="24"/>
-      <c r="I149" s="24"/>
-      <c r="J149" s="25"/>
-      <c r="K149" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="L149" s="24"/>
-      <c r="M149" s="24"/>
-      <c r="N149" s="25"/>
-      <c r="O149" s="24" t="s">
-        <v>120</v>
-      </c>
-      <c r="P149" s="24"/>
-      <c r="Q149" s="24"/>
-      <c r="R149" s="24"/>
-      <c r="S149" s="24"/>
-      <c r="T149" s="24"/>
-      <c r="U149" s="24"/>
-      <c r="V149" s="24"/>
-      <c r="W149" s="24"/>
-      <c r="X149" s="24"/>
-      <c r="Y149" s="24"/>
-      <c r="Z149" s="24"/>
-      <c r="AA149" s="24"/>
-      <c r="AB149" s="24"/>
-      <c r="AC149" s="24"/>
-      <c r="AD149" s="24"/>
-      <c r="AE149" s="24"/>
-      <c r="AF149" s="24"/>
-      <c r="AG149" s="24"/>
-      <c r="AH149" s="25"/>
-    </row>
-    <row r="150" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G150" s="23"/>
-      <c r="H150" s="24"/>
-      <c r="I150" s="24"/>
-      <c r="J150" s="25"/>
-      <c r="K150" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="L150" s="24"/>
-      <c r="M150" s="24"/>
-      <c r="N150" s="25"/>
-      <c r="O150" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="P150" s="24"/>
-      <c r="Q150" s="24"/>
-      <c r="R150" s="24"/>
-      <c r="S150" s="24"/>
-      <c r="T150" s="24"/>
-      <c r="U150" s="24"/>
-      <c r="V150" s="24"/>
-      <c r="W150" s="24"/>
-      <c r="X150" s="24"/>
-      <c r="Y150" s="24"/>
-      <c r="Z150" s="24"/>
-      <c r="AA150" s="24"/>
-      <c r="AB150" s="24"/>
-      <c r="AC150" s="24"/>
-      <c r="AD150" s="24"/>
-      <c r="AE150" s="24"/>
-      <c r="AF150" s="24"/>
-      <c r="AG150" s="24"/>
-      <c r="AH150" s="25"/>
-    </row>
-    <row r="151" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G151" s="26"/>
-      <c r="H151" s="27"/>
-      <c r="I151" s="27"/>
-      <c r="J151" s="31"/>
-      <c r="K151" s="27" t="s">
+      <c r="G144" s="26"/>
+      <c r="H144" s="27"/>
+      <c r="I144" s="27"/>
+      <c r="J144" s="31"/>
+      <c r="K144" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="L151" s="27"/>
-      <c r="M151" s="27"/>
-      <c r="N151" s="31"/>
-      <c r="O151" s="27"/>
-      <c r="P151" s="27"/>
-      <c r="Q151" s="27"/>
-      <c r="R151" s="27"/>
-      <c r="S151" s="27"/>
-      <c r="T151" s="27"/>
-      <c r="U151" s="27"/>
-      <c r="V151" s="27"/>
-      <c r="W151" s="27"/>
-      <c r="X151" s="27"/>
-      <c r="Y151" s="27"/>
-      <c r="Z151" s="27"/>
-      <c r="AA151" s="27"/>
-      <c r="AB151" s="27"/>
-      <c r="AC151" s="27"/>
-      <c r="AD151" s="27"/>
-      <c r="AE151" s="27"/>
-      <c r="AF151" s="27"/>
-      <c r="AG151" s="27"/>
-      <c r="AH151" s="31"/>
-    </row>
-    <row r="152" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G152" s="23" t="s">
+      <c r="L144" s="27"/>
+      <c r="M144" s="27"/>
+      <c r="N144" s="31"/>
+      <c r="O144" s="27"/>
+      <c r="P144" s="27"/>
+      <c r="Q144" s="27"/>
+      <c r="R144" s="27"/>
+      <c r="S144" s="27"/>
+      <c r="T144" s="27"/>
+      <c r="U144" s="27"/>
+      <c r="V144" s="27"/>
+      <c r="W144" s="27"/>
+      <c r="X144" s="27"/>
+      <c r="Y144" s="27"/>
+      <c r="Z144" s="27"/>
+      <c r="AA144" s="27"/>
+      <c r="AB144" s="27"/>
+      <c r="AC144" s="27"/>
+      <c r="AD144" s="27"/>
+      <c r="AE144" s="27"/>
+      <c r="AF144" s="27"/>
+      <c r="AG144" s="27"/>
+      <c r="AH144" s="31"/>
+    </row>
+    <row r="145" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G145" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="H152" s="24"/>
-      <c r="I152" s="24"/>
-      <c r="J152" s="25"/>
-      <c r="K152" s="24" t="s">
+      <c r="H145" s="24"/>
+      <c r="I145" s="24"/>
+      <c r="J145" s="25"/>
+      <c r="K145" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="L152" s="24"/>
-      <c r="M152" s="24"/>
-      <c r="N152" s="25"/>
-      <c r="O152" s="24" t="s">
+      <c r="L145" s="24"/>
+      <c r="M145" s="24"/>
+      <c r="N145" s="25"/>
+      <c r="O145" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="P152" s="24"/>
-      <c r="Q152" s="24"/>
-      <c r="R152" s="24"/>
-      <c r="S152" s="24"/>
-      <c r="T152" s="24"/>
-      <c r="U152" s="24"/>
-      <c r="V152" s="24"/>
-      <c r="W152" s="24"/>
-      <c r="X152" s="24"/>
-      <c r="Y152" s="24"/>
-      <c r="Z152" s="24"/>
-      <c r="AA152" s="24"/>
-      <c r="AB152" s="24"/>
-      <c r="AC152" s="24"/>
-      <c r="AD152" s="24"/>
-      <c r="AE152" s="24"/>
-      <c r="AF152" s="24"/>
-      <c r="AG152" s="24"/>
-      <c r="AH152" s="25"/>
-    </row>
-    <row r="153" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G153" s="23"/>
-      <c r="H153" s="24"/>
-      <c r="I153" s="24"/>
-      <c r="J153" s="25"/>
-      <c r="K153" s="24" t="s">
+      <c r="P145" s="24"/>
+      <c r="Q145" s="24"/>
+      <c r="R145" s="24"/>
+      <c r="S145" s="24"/>
+      <c r="T145" s="24"/>
+      <c r="U145" s="24"/>
+      <c r="V145" s="24"/>
+      <c r="W145" s="24"/>
+      <c r="X145" s="24"/>
+      <c r="Y145" s="24"/>
+      <c r="Z145" s="24"/>
+      <c r="AA145" s="24"/>
+      <c r="AB145" s="24"/>
+      <c r="AC145" s="24"/>
+      <c r="AD145" s="24"/>
+      <c r="AE145" s="24"/>
+      <c r="AF145" s="24"/>
+      <c r="AG145" s="24"/>
+      <c r="AH145" s="25"/>
+    </row>
+    <row r="146" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G146" s="23"/>
+      <c r="H146" s="24"/>
+      <c r="I146" s="24"/>
+      <c r="J146" s="25"/>
+      <c r="K146" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="L153" s="24"/>
-      <c r="M153" s="24"/>
-      <c r="N153" s="25"/>
-      <c r="O153" s="24" t="s">
+      <c r="L146" s="24"/>
+      <c r="M146" s="24"/>
+      <c r="N146" s="25"/>
+      <c r="O146" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="P153" s="24"/>
-      <c r="Q153" s="24"/>
-      <c r="R153" s="24"/>
-      <c r="S153" s="24"/>
-      <c r="T153" s="24"/>
-      <c r="U153" s="24"/>
-      <c r="V153" s="24"/>
-      <c r="W153" s="24"/>
-      <c r="X153" s="24"/>
-      <c r="Y153" s="24"/>
-      <c r="Z153" s="24"/>
-      <c r="AA153" s="24"/>
-      <c r="AB153" s="24"/>
-      <c r="AC153" s="24"/>
-      <c r="AD153" s="24"/>
-      <c r="AE153" s="24"/>
-      <c r="AF153" s="24"/>
-      <c r="AG153" s="24"/>
-      <c r="AH153" s="25"/>
-    </row>
-    <row r="154" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G154" s="26"/>
-      <c r="H154" s="27"/>
-      <c r="I154" s="27"/>
-      <c r="J154" s="31"/>
-      <c r="K154" s="27"/>
-      <c r="L154" s="27"/>
-      <c r="M154" s="27"/>
-      <c r="N154" s="31"/>
-      <c r="O154" s="27"/>
-      <c r="P154" s="27"/>
-      <c r="Q154" s="27"/>
-      <c r="R154" s="27"/>
-      <c r="S154" s="27"/>
-      <c r="T154" s="27"/>
-      <c r="U154" s="27"/>
-      <c r="V154" s="27"/>
-      <c r="W154" s="27"/>
-      <c r="X154" s="27"/>
-      <c r="Y154" s="27"/>
-      <c r="Z154" s="27"/>
-      <c r="AA154" s="27"/>
-      <c r="AB154" s="27"/>
-      <c r="AC154" s="27"/>
-      <c r="AD154" s="27"/>
-      <c r="AE154" s="27"/>
-      <c r="AF154" s="27"/>
-      <c r="AG154" s="27"/>
-      <c r="AH154" s="31"/>
-    </row>
-    <row r="155" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P146" s="24"/>
+      <c r="Q146" s="24"/>
+      <c r="R146" s="24"/>
+      <c r="S146" s="24"/>
+      <c r="T146" s="24"/>
+      <c r="U146" s="24"/>
+      <c r="V146" s="24"/>
+      <c r="W146" s="24"/>
+      <c r="X146" s="24"/>
+      <c r="Y146" s="24"/>
+      <c r="Z146" s="24"/>
+      <c r="AA146" s="24"/>
+      <c r="AB146" s="24"/>
+      <c r="AC146" s="24"/>
+      <c r="AD146" s="24"/>
+      <c r="AE146" s="24"/>
+      <c r="AF146" s="24"/>
+      <c r="AG146" s="24"/>
+      <c r="AH146" s="25"/>
+    </row>
+    <row r="147" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G147" s="26"/>
+      <c r="H147" s="27"/>
+      <c r="I147" s="27"/>
+      <c r="J147" s="31"/>
+      <c r="K147" s="27"/>
+      <c r="L147" s="27"/>
+      <c r="M147" s="27"/>
+      <c r="N147" s="31"/>
+      <c r="O147" s="27"/>
+      <c r="P147" s="27"/>
+      <c r="Q147" s="27"/>
+      <c r="R147" s="27"/>
+      <c r="S147" s="27"/>
+      <c r="T147" s="27"/>
+      <c r="U147" s="27"/>
+      <c r="V147" s="27"/>
+      <c r="W147" s="27"/>
+      <c r="X147" s="27"/>
+      <c r="Y147" s="27"/>
+      <c r="Z147" s="27"/>
+      <c r="AA147" s="27"/>
+      <c r="AB147" s="27"/>
+      <c r="AC147" s="27"/>
+      <c r="AD147" s="27"/>
+      <c r="AE147" s="27"/>
+      <c r="AF147" s="27"/>
+      <c r="AG147" s="27"/>
+      <c r="AH147" s="31"/>
+    </row>
+    <row r="148" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E148" s="16"/>
+      <c r="H148" s="18"/>
+      <c r="I148" s="18"/>
+      <c r="J148" s="18"/>
+      <c r="K148" s="18"/>
+      <c r="L148" s="18"/>
+      <c r="M148" s="18"/>
+      <c r="N148" s="18"/>
+      <c r="O148" s="18"/>
+      <c r="P148" s="18"/>
+      <c r="Q148" s="18"/>
+      <c r="R148" s="18"/>
+      <c r="S148" s="18"/>
+      <c r="T148" s="18"/>
+      <c r="U148" s="18"/>
+      <c r="V148" s="18"/>
+      <c r="W148" s="18"/>
+      <c r="X148" s="18"/>
+      <c r="Y148" s="18"/>
+      <c r="Z148" s="18"/>
+      <c r="AA148" s="18"/>
+      <c r="AB148" s="18"/>
+      <c r="AC148" s="18"/>
+      <c r="AD148" s="18"/>
+      <c r="AE148" s="18"/>
+      <c r="AF148" s="18"/>
+      <c r="AG148" s="18"/>
+      <c r="AH148" s="18"/>
+      <c r="AI148" s="18"/>
+    </row>
+    <row r="149" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E149" s="16"/>
+      <c r="F149" s="22" t="str">
+        <f>$E$116&amp;"3."</f>
+        <v>7.3.4.4.3.</v>
+      </c>
+      <c r="G149" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="H149" s="18"/>
+      <c r="I149" s="18"/>
+      <c r="J149" s="18"/>
+      <c r="K149" s="18"/>
+      <c r="L149" s="18"/>
+      <c r="M149" s="18"/>
+      <c r="N149" s="18"/>
+      <c r="O149" s="18"/>
+      <c r="P149" s="18"/>
+      <c r="Q149" s="18"/>
+      <c r="R149" s="18"/>
+      <c r="S149" s="18"/>
+      <c r="T149" s="18"/>
+      <c r="U149" s="18"/>
+      <c r="V149" s="18"/>
+      <c r="W149" s="18"/>
+      <c r="X149" s="18"/>
+      <c r="Y149" s="18"/>
+      <c r="Z149" s="18"/>
+      <c r="AA149" s="18"/>
+      <c r="AB149" s="18"/>
+      <c r="AC149" s="18"/>
+      <c r="AD149" s="18"/>
+      <c r="AE149" s="18"/>
+      <c r="AF149" s="18"/>
+      <c r="AG149" s="18"/>
+      <c r="AH149" s="18"/>
+      <c r="AI149" s="18"/>
+    </row>
+    <row r="150" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E150" s="16"/>
+      <c r="F150" s="18"/>
+      <c r="G150" s="18"/>
+      <c r="H150" s="18"/>
+      <c r="I150" s="18"/>
+      <c r="J150" s="18"/>
+      <c r="K150" s="18"/>
+      <c r="L150" s="18"/>
+      <c r="M150" s="18"/>
+      <c r="N150" s="18"/>
+      <c r="O150" s="18"/>
+      <c r="P150" s="18"/>
+      <c r="Q150" s="18"/>
+      <c r="R150" s="18"/>
+      <c r="S150" s="18"/>
+      <c r="T150" s="18"/>
+      <c r="U150" s="18"/>
+      <c r="V150" s="18"/>
+      <c r="W150" s="18"/>
+      <c r="X150" s="18"/>
+      <c r="Y150" s="18"/>
+      <c r="Z150" s="18"/>
+      <c r="AA150" s="18"/>
+      <c r="AB150" s="18"/>
+      <c r="AC150" s="18"/>
+      <c r="AD150" s="18"/>
+      <c r="AE150" s="18"/>
+      <c r="AF150" s="18"/>
+      <c r="AG150" s="18"/>
+      <c r="AH150" s="18"/>
+      <c r="AI150" s="18"/>
+    </row>
+    <row r="151" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E151" s="16"/>
+      <c r="F151" s="18"/>
+      <c r="G151" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="H151" s="18"/>
+      <c r="I151" s="18"/>
+      <c r="J151" s="18"/>
+      <c r="K151" s="18"/>
+      <c r="L151" s="18"/>
+      <c r="M151" s="18"/>
+      <c r="N151" s="18"/>
+      <c r="O151" s="18"/>
+      <c r="P151" s="18"/>
+      <c r="Q151" s="18"/>
+      <c r="R151" s="18"/>
+      <c r="S151" s="18"/>
+      <c r="T151" s="18"/>
+      <c r="U151" s="18"/>
+      <c r="V151" s="18"/>
+      <c r="W151" s="18"/>
+      <c r="X151" s="18"/>
+      <c r="Y151" s="18"/>
+      <c r="Z151" s="18"/>
+      <c r="AA151" s="18"/>
+      <c r="AB151" s="18"/>
+      <c r="AC151" s="18"/>
+      <c r="AD151" s="18"/>
+      <c r="AE151" s="18"/>
+      <c r="AF151" s="18"/>
+      <c r="AG151" s="18"/>
+      <c r="AH151" s="18"/>
+      <c r="AI151" s="18"/>
+    </row>
+    <row r="152" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E152" s="16"/>
+      <c r="F152" s="18"/>
+      <c r="G152" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="H152" s="18"/>
+      <c r="I152" s="18"/>
+      <c r="J152" s="18"/>
+      <c r="K152" s="18"/>
+      <c r="L152" s="18"/>
+      <c r="M152" s="18"/>
+      <c r="N152" s="18"/>
+      <c r="O152" s="18"/>
+      <c r="P152" s="18"/>
+      <c r="Q152" s="18"/>
+      <c r="R152" s="18"/>
+      <c r="S152" s="18"/>
+      <c r="T152" s="18"/>
+      <c r="U152" s="18"/>
+      <c r="V152" s="18"/>
+      <c r="W152" s="18"/>
+      <c r="X152" s="18"/>
+      <c r="Y152" s="18"/>
+      <c r="Z152" s="18"/>
+      <c r="AA152" s="18"/>
+      <c r="AB152" s="18"/>
+      <c r="AC152" s="18"/>
+      <c r="AD152" s="18"/>
+      <c r="AE152" s="18"/>
+      <c r="AF152" s="18"/>
+      <c r="AG152" s="18"/>
+      <c r="AH152" s="18"/>
+      <c r="AI152" s="18"/>
+    </row>
+    <row r="153" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E153" s="16"/>
+      <c r="F153" s="18"/>
+      <c r="H153" s="18"/>
+      <c r="I153" s="18"/>
+      <c r="J153" s="18"/>
+      <c r="K153" s="18"/>
+      <c r="L153" s="18"/>
+      <c r="M153" s="18"/>
+      <c r="N153" s="18"/>
+      <c r="O153" s="18"/>
+      <c r="P153" s="18"/>
+      <c r="Q153" s="18"/>
+      <c r="R153" s="18"/>
+      <c r="S153" s="18"/>
+      <c r="T153" s="18"/>
+      <c r="U153" s="18"/>
+      <c r="V153" s="18"/>
+      <c r="W153" s="18"/>
+      <c r="X153" s="18"/>
+      <c r="Y153" s="18"/>
+      <c r="Z153" s="18"/>
+      <c r="AA153" s="18"/>
+      <c r="AB153" s="18"/>
+      <c r="AC153" s="18"/>
+      <c r="AD153" s="18"/>
+      <c r="AE153" s="18"/>
+      <c r="AF153" s="18"/>
+      <c r="AG153" s="18"/>
+      <c r="AH153" s="18"/>
+      <c r="AI153" s="18"/>
+    </row>
+    <row r="154" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E154" s="16"/>
+      <c r="F154" s="18"/>
+      <c r="G154" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="H154" s="18"/>
+      <c r="I154" s="18"/>
+      <c r="J154" s="18"/>
+      <c r="K154" s="18"/>
+      <c r="L154" s="18"/>
+      <c r="M154" s="18"/>
+      <c r="N154" s="18"/>
+      <c r="O154" s="18"/>
+      <c r="P154" s="18"/>
+      <c r="Q154" s="18"/>
+      <c r="R154" s="18"/>
+      <c r="S154" s="18"/>
+      <c r="T154" s="18"/>
+      <c r="U154" s="18"/>
+      <c r="V154" s="18"/>
+      <c r="W154" s="18"/>
+      <c r="X154" s="18"/>
+      <c r="Y154" s="18"/>
+      <c r="Z154" s="18"/>
+      <c r="AA154" s="18"/>
+      <c r="AB154" s="18"/>
+      <c r="AC154" s="18"/>
+      <c r="AD154" s="18"/>
+      <c r="AE154" s="18"/>
+      <c r="AF154" s="18"/>
+      <c r="AG154" s="18"/>
+      <c r="AH154" s="18"/>
+      <c r="AI154" s="18"/>
+    </row>
+    <row r="155" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E155" s="16"/>
+      <c r="F155" s="18"/>
+      <c r="G155" s="18" t="s">
+        <v>133</v>
+      </c>
       <c r="H155" s="18"/>
       <c r="I155" s="18"/>
       <c r="J155" s="18"/>
@@ -6178,15 +6187,10 @@
       <c r="AH155" s="18"/>
       <c r="AI155" s="18"/>
     </row>
-    <row r="156" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E156" s="16"/>
-      <c r="F156" s="22" t="str">
-        <f>$E$123&amp;"3."</f>
-        <v>7.3.4.4.3.</v>
-      </c>
-      <c r="G156" s="18" t="s">
-        <v>112</v>
-      </c>
+      <c r="F156" s="18"/>
+      <c r="G156" s="18"/>
       <c r="H156" s="18"/>
       <c r="I156" s="18"/>
       <c r="J156" s="18"/>
@@ -6216,8 +6220,9 @@
       <c r="AH156" s="18"/>
       <c r="AI156" s="18"/>
     </row>
-    <row r="157" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E157" s="16"/>
+    <row r="157" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D157" s="16"/>
+      <c r="E157" s="18"/>
       <c r="F157" s="18"/>
       <c r="G157" s="18"/>
       <c r="H157" s="18"/>
@@ -6249,902 +6254,923 @@
       <c r="AH157" s="18"/>
       <c r="AI157" s="18"/>
     </row>
-    <row r="158" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E158" s="16"/>
-      <c r="F158" s="18"/>
-      <c r="G158" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="H158" s="18"/>
-      <c r="I158" s="18"/>
-      <c r="J158" s="18"/>
-      <c r="K158" s="18"/>
-      <c r="L158" s="18"/>
-      <c r="M158" s="18"/>
-      <c r="N158" s="18"/>
-      <c r="O158" s="18"/>
-      <c r="P158" s="18"/>
-      <c r="Q158" s="18"/>
-      <c r="R158" s="18"/>
-      <c r="S158" s="18"/>
-      <c r="T158" s="18"/>
-      <c r="U158" s="18"/>
-      <c r="V158" s="18"/>
-      <c r="W158" s="18"/>
-      <c r="X158" s="18"/>
-      <c r="Y158" s="18"/>
-      <c r="Z158" s="18"/>
-      <c r="AA158" s="18"/>
-      <c r="AB158" s="18"/>
-      <c r="AC158" s="18"/>
-      <c r="AD158" s="18"/>
-      <c r="AE158" s="18"/>
-      <c r="AF158" s="18"/>
-      <c r="AG158" s="18"/>
-      <c r="AH158" s="18"/>
-      <c r="AI158" s="18"/>
-    </row>
-    <row r="159" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E159" s="16"/>
-      <c r="F159" s="18"/>
-      <c r="G159" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="H159" s="18"/>
-      <c r="I159" s="18"/>
-      <c r="J159" s="18"/>
-      <c r="K159" s="18"/>
-      <c r="L159" s="18"/>
-      <c r="M159" s="18"/>
-      <c r="N159" s="18"/>
-      <c r="O159" s="18"/>
-      <c r="P159" s="18"/>
-      <c r="Q159" s="18"/>
-      <c r="R159" s="18"/>
-      <c r="S159" s="18"/>
-      <c r="T159" s="18"/>
-      <c r="U159" s="18"/>
-      <c r="V159" s="18"/>
-      <c r="W159" s="18"/>
-      <c r="X159" s="18"/>
-      <c r="Y159" s="18"/>
-      <c r="Z159" s="18"/>
-      <c r="AA159" s="18"/>
-      <c r="AB159" s="18"/>
-      <c r="AC159" s="18"/>
-      <c r="AD159" s="18"/>
-      <c r="AE159" s="18"/>
-      <c r="AF159" s="18"/>
-      <c r="AG159" s="18"/>
-      <c r="AH159" s="18"/>
-      <c r="AI159" s="18"/>
-    </row>
-    <row r="160" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E160" s="16"/>
-      <c r="F160" s="18"/>
-      <c r="H160" s="18"/>
-      <c r="I160" s="18"/>
-      <c r="J160" s="18"/>
-      <c r="K160" s="18"/>
-      <c r="L160" s="18"/>
-      <c r="M160" s="18"/>
-      <c r="N160" s="18"/>
-      <c r="O160" s="18"/>
-      <c r="P160" s="18"/>
-      <c r="Q160" s="18"/>
-      <c r="R160" s="18"/>
-      <c r="S160" s="18"/>
-      <c r="T160" s="18"/>
-      <c r="U160" s="18"/>
-      <c r="V160" s="18"/>
-      <c r="W160" s="18"/>
-      <c r="X160" s="18"/>
-      <c r="Y160" s="18"/>
-      <c r="Z160" s="18"/>
-      <c r="AA160" s="18"/>
-      <c r="AB160" s="18"/>
-      <c r="AC160" s="18"/>
-      <c r="AD160" s="18"/>
-      <c r="AE160" s="18"/>
-      <c r="AF160" s="18"/>
-      <c r="AG160" s="18"/>
-      <c r="AH160" s="18"/>
-      <c r="AI160" s="18"/>
+    <row r="158" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E158" s="22" t="str">
+        <f>D87&amp;"5."</f>
+        <v>7.3.4.5.</v>
+      </c>
+      <c r="F158" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="G158" s="17"/>
+      <c r="H158" s="17"/>
+      <c r="I158" s="17"/>
+      <c r="J158" s="17"/>
+      <c r="K158" s="17"/>
+      <c r="L158" s="17"/>
+      <c r="M158" s="17"/>
+      <c r="N158" s="17"/>
+      <c r="O158" s="17"/>
+      <c r="P158" s="17"/>
+      <c r="Q158" s="17"/>
+      <c r="R158" s="17"/>
+      <c r="S158" s="17"/>
+      <c r="T158" s="17"/>
+      <c r="U158" s="17"/>
+      <c r="V158" s="17"/>
+      <c r="W158" s="17"/>
+      <c r="X158" s="17"/>
+      <c r="Y158" s="17"/>
+      <c r="Z158" s="17"/>
+      <c r="AA158" s="17"/>
+      <c r="AB158" s="17"/>
+      <c r="AC158" s="17"/>
+      <c r="AD158" s="17"/>
+      <c r="AE158" s="17"/>
+      <c r="AF158" s="17"/>
+      <c r="AG158" s="17"/>
+      <c r="AH158" s="17"/>
+      <c r="AI158" s="17"/>
+    </row>
+    <row r="159" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E159" s="22"/>
+      <c r="F159" s="22" t="str">
+        <f>E158&amp;"1."</f>
+        <v>7.3.4.5.1.</v>
+      </c>
+      <c r="G159" s="21" t="str">
+        <f>F158&amp;"機能概要"</f>
+        <v>データクリーニング機能概要</v>
+      </c>
+    </row>
+    <row r="160" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E160" s="22"/>
+      <c r="F160" s="22"/>
+      <c r="G160" s="21" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="161" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E161" s="16"/>
-      <c r="F161" s="18"/>
-      <c r="G161" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="H161" s="18"/>
-      <c r="I161" s="18"/>
-      <c r="J161" s="18"/>
-      <c r="K161" s="18"/>
-      <c r="L161" s="18"/>
-      <c r="M161" s="18"/>
-      <c r="N161" s="18"/>
-      <c r="O161" s="18"/>
-      <c r="P161" s="18"/>
-      <c r="Q161" s="18"/>
-      <c r="R161" s="18"/>
-      <c r="S161" s="18"/>
-      <c r="T161" s="18"/>
-      <c r="U161" s="18"/>
-      <c r="V161" s="18"/>
-      <c r="W161" s="18"/>
-      <c r="X161" s="18"/>
-      <c r="Y161" s="18"/>
-      <c r="Z161" s="18"/>
-      <c r="AA161" s="18"/>
-      <c r="AB161" s="18"/>
-      <c r="AC161" s="18"/>
-      <c r="AD161" s="18"/>
-      <c r="AE161" s="18"/>
-      <c r="AF161" s="18"/>
-      <c r="AG161" s="18"/>
-      <c r="AH161" s="18"/>
-      <c r="AI161" s="18"/>
+      <c r="E161" s="22"/>
+      <c r="F161" s="22"/>
+      <c r="G161" s="21" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="162" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E162" s="16"/>
-      <c r="F162" s="18"/>
-      <c r="G162" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="H162" s="18"/>
-      <c r="I162" s="18"/>
-      <c r="J162" s="18"/>
-      <c r="K162" s="18"/>
-      <c r="L162" s="18"/>
-      <c r="M162" s="18"/>
-      <c r="N162" s="18"/>
-      <c r="O162" s="18"/>
-      <c r="P162" s="18"/>
-      <c r="Q162" s="18"/>
-      <c r="R162" s="18"/>
-      <c r="S162" s="18"/>
-      <c r="T162" s="18"/>
-      <c r="U162" s="18"/>
-      <c r="V162" s="18"/>
-      <c r="W162" s="18"/>
-      <c r="X162" s="18"/>
-      <c r="Y162" s="18"/>
-      <c r="Z162" s="18"/>
-      <c r="AA162" s="18"/>
-      <c r="AB162" s="18"/>
-      <c r="AC162" s="18"/>
-      <c r="AD162" s="18"/>
-      <c r="AE162" s="18"/>
-      <c r="AF162" s="18"/>
-      <c r="AG162" s="18"/>
-      <c r="AH162" s="18"/>
-      <c r="AI162" s="18"/>
-    </row>
-    <row r="163" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E163" s="16"/>
-      <c r="F163" s="18"/>
-      <c r="G163" s="18"/>
-      <c r="H163" s="18"/>
-      <c r="I163" s="18"/>
-      <c r="J163" s="18"/>
-      <c r="K163" s="18"/>
-      <c r="L163" s="18"/>
-      <c r="M163" s="18"/>
-      <c r="N163" s="18"/>
-      <c r="O163" s="18"/>
-      <c r="P163" s="18"/>
-      <c r="Q163" s="18"/>
-      <c r="R163" s="18"/>
-      <c r="S163" s="18"/>
-      <c r="T163" s="18"/>
-      <c r="U163" s="18"/>
-      <c r="V163" s="18"/>
-      <c r="W163" s="18"/>
-      <c r="X163" s="18"/>
-      <c r="Y163" s="18"/>
-      <c r="Z163" s="18"/>
-      <c r="AA163" s="18"/>
-      <c r="AB163" s="18"/>
-      <c r="AC163" s="18"/>
-      <c r="AD163" s="18"/>
-      <c r="AE163" s="18"/>
-      <c r="AF163" s="18"/>
-      <c r="AG163" s="18"/>
-      <c r="AH163" s="18"/>
-      <c r="AI163" s="18"/>
-    </row>
+      <c r="E162" s="22"/>
+      <c r="F162" s="22"/>
+      <c r="G162" s="21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="163" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="164" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D164" s="16"/>
-      <c r="E164" s="18"/>
-      <c r="F164" s="18"/>
-      <c r="G164" s="18"/>
-      <c r="H164" s="18"/>
-      <c r="I164" s="18"/>
-      <c r="J164" s="18"/>
-      <c r="K164" s="18"/>
-      <c r="L164" s="18"/>
-      <c r="M164" s="18"/>
-      <c r="N164" s="18"/>
-      <c r="O164" s="18"/>
-      <c r="P164" s="18"/>
-      <c r="Q164" s="18"/>
-      <c r="R164" s="18"/>
-      <c r="S164" s="18"/>
-      <c r="T164" s="18"/>
-      <c r="U164" s="18"/>
-      <c r="V164" s="18"/>
-      <c r="W164" s="18"/>
-      <c r="X164" s="18"/>
-      <c r="Y164" s="18"/>
-      <c r="Z164" s="18"/>
-      <c r="AA164" s="18"/>
-      <c r="AB164" s="18"/>
-      <c r="AC164" s="18"/>
-      <c r="AD164" s="18"/>
-      <c r="AE164" s="18"/>
-      <c r="AF164" s="18"/>
-      <c r="AG164" s="18"/>
-      <c r="AH164" s="18"/>
-      <c r="AI164" s="18"/>
+      <c r="F164" s="22" t="str">
+        <f>E158&amp;"2."</f>
+        <v>7.3.4.5.2.</v>
+      </c>
+      <c r="G164" s="21" t="str">
+        <f>F158&amp;"方法"</f>
+        <v>データクリーニング方法</v>
+      </c>
     </row>
     <row r="165" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E165" s="22" t="str">
-        <f>D94&amp;"5."</f>
-        <v>7.3.4.5.</v>
-      </c>
-      <c r="F165" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="G165" s="17"/>
-      <c r="H165" s="17"/>
-      <c r="I165" s="17"/>
-      <c r="J165" s="17"/>
-      <c r="K165" s="17"/>
-      <c r="L165" s="17"/>
-      <c r="M165" s="17"/>
-      <c r="N165" s="17"/>
-      <c r="O165" s="17"/>
-      <c r="P165" s="17"/>
-      <c r="Q165" s="17"/>
-      <c r="R165" s="17"/>
-      <c r="S165" s="17"/>
-      <c r="T165" s="17"/>
-      <c r="U165" s="17"/>
-      <c r="V165" s="17"/>
-      <c r="W165" s="17"/>
-      <c r="X165" s="17"/>
-      <c r="Y165" s="17"/>
-      <c r="Z165" s="17"/>
-      <c r="AA165" s="17"/>
-      <c r="AB165" s="17"/>
-      <c r="AC165" s="17"/>
-      <c r="AD165" s="17"/>
-      <c r="AE165" s="17"/>
-      <c r="AF165" s="17"/>
-      <c r="AG165" s="17"/>
-      <c r="AH165" s="17"/>
-      <c r="AI165" s="17"/>
-    </row>
-    <row r="166" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E166" s="22"/>
-      <c r="F166" s="22" t="str">
-        <f>E165&amp;"1."</f>
-        <v>7.3.4.5.1.</v>
-      </c>
-      <c r="G166" s="21" t="str">
-        <f>F165&amp;"機能概要"</f>
-        <v>データクリーニング機能概要</v>
-      </c>
-    </row>
+      <c r="G165" s="21" t="str">
+        <f>F158&amp;"を行う機能には、以下の方法がある。"</f>
+        <v>データクリーニングを行う機能には、以下の方法がある。</v>
+      </c>
+    </row>
+    <row r="166" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="167" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E167" s="22"/>
-      <c r="F167" s="22"/>
-      <c r="G167" s="21" t="s">
-        <v>184</v>
-      </c>
+      <c r="C167" s="20"/>
+      <c r="D167" s="20"/>
+      <c r="E167" s="20"/>
+      <c r="G167" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="H167" s="33"/>
+      <c r="I167" s="33"/>
+      <c r="J167" s="33"/>
+      <c r="K167" s="34"/>
+      <c r="L167" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="M167" s="33"/>
+      <c r="N167" s="33"/>
+      <c r="O167" s="33"/>
+      <c r="P167" s="33"/>
+      <c r="Q167" s="33"/>
+      <c r="R167" s="33"/>
+      <c r="S167" s="33"/>
+      <c r="T167" s="33"/>
+      <c r="U167" s="33"/>
+      <c r="V167" s="33"/>
+      <c r="W167" s="33"/>
+      <c r="X167" s="33"/>
+      <c r="Y167" s="33"/>
+      <c r="Z167" s="33"/>
+      <c r="AA167" s="33"/>
+      <c r="AB167" s="33"/>
+      <c r="AC167" s="33"/>
+      <c r="AD167" s="33"/>
+      <c r="AE167" s="33"/>
+      <c r="AF167" s="33"/>
+      <c r="AG167" s="33"/>
+      <c r="AH167" s="34"/>
     </row>
     <row r="168" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E168" s="22"/>
-      <c r="F168" s="22"/>
-      <c r="G168" s="21" t="s">
-        <v>180</v>
-      </c>
+      <c r="C168" s="20"/>
+      <c r="D168" s="20"/>
+      <c r="E168" s="20"/>
+      <c r="G168" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="H168" s="29"/>
+      <c r="I168" s="29"/>
+      <c r="J168" s="29"/>
+      <c r="K168" s="29"/>
+      <c r="L168" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="M168" s="29"/>
+      <c r="N168" s="29"/>
+      <c r="O168" s="29"/>
+      <c r="P168" s="29"/>
+      <c r="Q168" s="29"/>
+      <c r="R168" s="29"/>
+      <c r="S168" s="29"/>
+      <c r="T168" s="29"/>
+      <c r="U168" s="29"/>
+      <c r="V168" s="29"/>
+      <c r="W168" s="29"/>
+      <c r="X168" s="29"/>
+      <c r="Y168" s="29"/>
+      <c r="Z168" s="29"/>
+      <c r="AA168" s="29"/>
+      <c r="AB168" s="29"/>
+      <c r="AC168" s="29"/>
+      <c r="AD168" s="29"/>
+      <c r="AE168" s="29"/>
+      <c r="AF168" s="29"/>
+      <c r="AG168" s="29"/>
+      <c r="AH168" s="30"/>
     </row>
     <row r="169" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E169" s="22"/>
-      <c r="F169" s="22"/>
-      <c r="G169" s="21" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="170" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="C169" s="20"/>
+      <c r="D169" s="20"/>
+      <c r="E169" s="20"/>
+      <c r="G169" s="23"/>
+      <c r="H169" s="24"/>
+      <c r="I169" s="24"/>
+      <c r="J169" s="24"/>
+      <c r="K169" s="24"/>
+      <c r="L169" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="M169" s="24"/>
+      <c r="N169" s="24"/>
+      <c r="O169" s="24"/>
+      <c r="P169" s="24"/>
+      <c r="Q169" s="24"/>
+      <c r="R169" s="24"/>
+      <c r="S169" s="24"/>
+      <c r="T169" s="24"/>
+      <c r="U169" s="24"/>
+      <c r="V169" s="24"/>
+      <c r="W169" s="24"/>
+      <c r="X169" s="24"/>
+      <c r="Y169" s="24"/>
+      <c r="Z169" s="24"/>
+      <c r="AA169" s="24"/>
+      <c r="AB169" s="24"/>
+      <c r="AC169" s="24"/>
+      <c r="AD169" s="24"/>
+      <c r="AE169" s="24"/>
+      <c r="AF169" s="24"/>
+      <c r="AG169" s="24"/>
+      <c r="AH169" s="25"/>
+    </row>
+    <row r="170" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C170" s="20"/>
+      <c r="D170" s="20"/>
+      <c r="E170" s="20"/>
+      <c r="G170" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="H170" s="29"/>
+      <c r="I170" s="29"/>
+      <c r="J170" s="29"/>
+      <c r="K170" s="29"/>
+      <c r="L170" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="M170" s="29"/>
+      <c r="N170" s="29"/>
+      <c r="O170" s="29"/>
+      <c r="P170" s="29"/>
+      <c r="Q170" s="29"/>
+      <c r="R170" s="29"/>
+      <c r="S170" s="29"/>
+      <c r="T170" s="29"/>
+      <c r="U170" s="29"/>
+      <c r="V170" s="29"/>
+      <c r="W170" s="29"/>
+      <c r="X170" s="29"/>
+      <c r="Y170" s="29"/>
+      <c r="Z170" s="29"/>
+      <c r="AA170" s="29"/>
+      <c r="AB170" s="29"/>
+      <c r="AC170" s="29"/>
+      <c r="AD170" s="29"/>
+      <c r="AE170" s="29"/>
+      <c r="AF170" s="29"/>
+      <c r="AG170" s="29"/>
+      <c r="AH170" s="30"/>
+    </row>
     <row r="171" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F171" s="22" t="str">
-        <f>E165&amp;"2."</f>
-        <v>7.3.4.5.2.</v>
-      </c>
-      <c r="G171" s="21" t="str">
-        <f>F165&amp;"方法"</f>
-        <v>データクリーニング方法</v>
-      </c>
+      <c r="C171" s="20"/>
+      <c r="D171" s="20"/>
+      <c r="E171" s="20"/>
+      <c r="G171" s="23"/>
+      <c r="H171" s="24"/>
+      <c r="I171" s="24"/>
+      <c r="J171" s="24"/>
+      <c r="K171" s="24"/>
+      <c r="L171" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="M171" s="24"/>
+      <c r="N171" s="24"/>
+      <c r="O171" s="24"/>
+      <c r="P171" s="24"/>
+      <c r="Q171" s="24"/>
+      <c r="R171" s="24"/>
+      <c r="S171" s="24"/>
+      <c r="T171" s="24"/>
+      <c r="U171" s="24"/>
+      <c r="V171" s="24"/>
+      <c r="W171" s="24"/>
+      <c r="X171" s="24"/>
+      <c r="Y171" s="24"/>
+      <c r="Z171" s="24"/>
+      <c r="AA171" s="24"/>
+      <c r="AB171" s="24"/>
+      <c r="AC171" s="24"/>
+      <c r="AD171" s="24"/>
+      <c r="AE171" s="24"/>
+      <c r="AF171" s="24"/>
+      <c r="AG171" s="24"/>
+      <c r="AH171" s="25"/>
     </row>
     <row r="172" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G172" s="21" t="str">
-        <f>F165&amp;"を行う機能には、以下の方法がある。"</f>
-        <v>データクリーニングを行う機能には、以下の方法がある。</v>
-      </c>
-    </row>
-    <row r="173" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="C172" s="20"/>
+      <c r="D172" s="20"/>
+      <c r="E172" s="20"/>
+      <c r="G172" s="23"/>
+      <c r="H172" s="24"/>
+      <c r="I172" s="24"/>
+      <c r="J172" s="24"/>
+      <c r="K172" s="24"/>
+      <c r="L172" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="M172" s="24"/>
+      <c r="N172" s="24"/>
+      <c r="O172" s="24"/>
+      <c r="P172" s="24"/>
+      <c r="Q172" s="24"/>
+      <c r="R172" s="24"/>
+      <c r="S172" s="24"/>
+      <c r="T172" s="24"/>
+      <c r="U172" s="24"/>
+      <c r="V172" s="24"/>
+      <c r="W172" s="24"/>
+      <c r="X172" s="24"/>
+      <c r="Y172" s="24"/>
+      <c r="Z172" s="24"/>
+      <c r="AA172" s="24"/>
+      <c r="AB172" s="24"/>
+      <c r="AC172" s="24"/>
+      <c r="AD172" s="24"/>
+      <c r="AE172" s="24"/>
+      <c r="AF172" s="24"/>
+      <c r="AG172" s="24"/>
+      <c r="AH172" s="25"/>
+    </row>
+    <row r="173" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C173" s="20"/>
+      <c r="D173" s="20"/>
+      <c r="E173" s="20"/>
+      <c r="G173" s="26"/>
+      <c r="H173" s="27"/>
+      <c r="I173" s="27"/>
+      <c r="J173" s="27"/>
+      <c r="K173" s="27"/>
+      <c r="L173" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="M173" s="27"/>
+      <c r="N173" s="27"/>
+      <c r="O173" s="27"/>
+      <c r="P173" s="27"/>
+      <c r="Q173" s="27"/>
+      <c r="R173" s="27"/>
+      <c r="S173" s="27"/>
+      <c r="T173" s="27"/>
+      <c r="U173" s="27"/>
+      <c r="V173" s="27"/>
+      <c r="W173" s="27"/>
+      <c r="X173" s="27"/>
+      <c r="Y173" s="27"/>
+      <c r="Z173" s="27"/>
+      <c r="AA173" s="27"/>
+      <c r="AB173" s="27"/>
+      <c r="AC173" s="27"/>
+      <c r="AD173" s="27"/>
+      <c r="AE173" s="27"/>
+      <c r="AF173" s="27"/>
+      <c r="AG173" s="27"/>
+      <c r="AH173" s="31"/>
+    </row>
     <row r="174" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C174" s="20"/>
       <c r="D174" s="20"/>
       <c r="E174" s="20"/>
-      <c r="G174" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="H174" s="33"/>
-      <c r="I174" s="33"/>
-      <c r="J174" s="33"/>
-      <c r="K174" s="34"/>
-      <c r="L174" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="M174" s="33"/>
-      <c r="N174" s="33"/>
-      <c r="O174" s="33"/>
-      <c r="P174" s="33"/>
-      <c r="Q174" s="33"/>
-      <c r="R174" s="33"/>
-      <c r="S174" s="33"/>
-      <c r="T174" s="33"/>
-      <c r="U174" s="33"/>
-      <c r="V174" s="33"/>
-      <c r="W174" s="33"/>
-      <c r="X174" s="33"/>
-      <c r="Y174" s="33"/>
-      <c r="Z174" s="33"/>
-      <c r="AA174" s="33"/>
-      <c r="AB174" s="33"/>
-      <c r="AC174" s="33"/>
-      <c r="AD174" s="33"/>
-      <c r="AE174" s="33"/>
-      <c r="AF174" s="33"/>
-      <c r="AG174" s="33"/>
-      <c r="AH174" s="34"/>
+      <c r="G174" s="24"/>
+      <c r="H174" s="24"/>
+      <c r="I174" s="24"/>
+      <c r="J174" s="24"/>
+      <c r="K174" s="24"/>
+      <c r="L174" s="24"/>
+      <c r="M174" s="24"/>
+      <c r="N174" s="24"/>
+      <c r="O174" s="24"/>
+      <c r="P174" s="24"/>
+      <c r="Q174" s="24"/>
+      <c r="R174" s="24"/>
+      <c r="S174" s="24"/>
+      <c r="T174" s="24"/>
+      <c r="U174" s="24"/>
+      <c r="V174" s="24"/>
+      <c r="W174" s="24"/>
+      <c r="X174" s="24"/>
+      <c r="Y174" s="24"/>
+      <c r="Z174" s="24"/>
+      <c r="AA174" s="24"/>
+      <c r="AB174" s="24"/>
+      <c r="AC174" s="24"/>
+      <c r="AD174" s="24"/>
+      <c r="AE174" s="24"/>
+      <c r="AF174" s="24"/>
+      <c r="AG174" s="24"/>
+      <c r="AH174" s="24"/>
+      <c r="AI174" s="24"/>
     </row>
     <row r="175" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C175" s="20"/>
       <c r="D175" s="20"/>
       <c r="E175" s="20"/>
-      <c r="G175" s="28" t="s">
+      <c r="G175" s="21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="176" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G176" s="32" t="str">
+        <f>G167</f>
+        <v>方法</v>
+      </c>
+      <c r="H176" s="33"/>
+      <c r="I176" s="33"/>
+      <c r="J176" s="33"/>
+      <c r="K176" s="34"/>
+      <c r="L176" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="M176" s="33"/>
+      <c r="N176" s="33"/>
+      <c r="O176" s="34"/>
+      <c r="P176" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q176" s="33"/>
+      <c r="R176" s="33"/>
+      <c r="S176" s="33"/>
+      <c r="T176" s="33"/>
+      <c r="U176" s="33"/>
+      <c r="V176" s="33"/>
+      <c r="W176" s="33"/>
+      <c r="X176" s="33"/>
+      <c r="Y176" s="33"/>
+      <c r="Z176" s="33"/>
+      <c r="AA176" s="33"/>
+      <c r="AB176" s="33"/>
+      <c r="AC176" s="33"/>
+      <c r="AD176" s="33"/>
+      <c r="AE176" s="33"/>
+      <c r="AF176" s="33"/>
+      <c r="AG176" s="33"/>
+      <c r="AH176" s="34"/>
+    </row>
+    <row r="177" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G177" s="23" t="str">
+        <f>G168</f>
+        <v>物理削除</v>
+      </c>
+      <c r="H177" s="24"/>
+      <c r="I177" s="24"/>
+      <c r="J177" s="24"/>
+      <c r="K177" s="25"/>
+      <c r="L177" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="M177" s="24"/>
+      <c r="N177" s="24"/>
+      <c r="O177" s="25"/>
+      <c r="P177" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q177" s="24"/>
+      <c r="R177" s="24"/>
+      <c r="S177" s="24"/>
+      <c r="T177" s="24"/>
+      <c r="U177" s="24"/>
+      <c r="V177" s="24"/>
+      <c r="W177" s="24"/>
+      <c r="X177" s="24"/>
+      <c r="Y177" s="24"/>
+      <c r="Z177" s="24"/>
+      <c r="AA177" s="24"/>
+      <c r="AB177" s="24"/>
+      <c r="AC177" s="24"/>
+      <c r="AD177" s="24"/>
+      <c r="AE177" s="24"/>
+      <c r="AF177" s="24"/>
+      <c r="AG177" s="24"/>
+      <c r="AH177" s="25"/>
+    </row>
+    <row r="178" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G178" s="45" t="str">
+        <f>G170</f>
+        <v>論理削除</v>
+      </c>
+      <c r="H178" s="46"/>
+      <c r="I178" s="46"/>
+      <c r="J178" s="46"/>
+      <c r="K178" s="47"/>
+      <c r="L178" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="M178" s="46"/>
+      <c r="N178" s="46"/>
+      <c r="O178" s="47"/>
+      <c r="P178" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q178" s="46"/>
+      <c r="R178" s="46"/>
+      <c r="S178" s="46"/>
+      <c r="T178" s="46"/>
+      <c r="U178" s="46"/>
+      <c r="V178" s="46"/>
+      <c r="W178" s="46"/>
+      <c r="X178" s="46"/>
+      <c r="Y178" s="46"/>
+      <c r="Z178" s="46"/>
+      <c r="AA178" s="46"/>
+      <c r="AB178" s="46"/>
+      <c r="AC178" s="46"/>
+      <c r="AD178" s="46"/>
+      <c r="AE178" s="46"/>
+      <c r="AF178" s="46"/>
+      <c r="AG178" s="46"/>
+      <c r="AH178" s="47"/>
+    </row>
+    <row r="179" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E179" s="16"/>
+      <c r="F179" s="18"/>
+      <c r="G179" s="18"/>
+      <c r="H179" s="18"/>
+      <c r="I179" s="18"/>
+      <c r="J179" s="18"/>
+      <c r="K179" s="18"/>
+      <c r="L179" s="18"/>
+      <c r="M179" s="18"/>
+      <c r="N179" s="18"/>
+      <c r="O179" s="18"/>
+      <c r="P179" s="18"/>
+      <c r="Q179" s="18"/>
+      <c r="R179" s="18"/>
+      <c r="S179" s="18"/>
+      <c r="T179" s="18"/>
+      <c r="U179" s="18"/>
+      <c r="V179" s="18"/>
+      <c r="W179" s="18"/>
+      <c r="X179" s="18"/>
+      <c r="Y179" s="18"/>
+      <c r="Z179" s="18"/>
+      <c r="AA179" s="18"/>
+      <c r="AB179" s="18"/>
+      <c r="AC179" s="18"/>
+      <c r="AD179" s="18"/>
+      <c r="AE179" s="18"/>
+      <c r="AF179" s="18"/>
+      <c r="AG179" s="18"/>
+      <c r="AH179" s="18"/>
+      <c r="AI179" s="18"/>
+    </row>
+    <row r="180" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D180" s="16"/>
+      <c r="E180" s="18"/>
+      <c r="F180" s="22" t="str">
+        <f>E158&amp;"3."</f>
+        <v>7.3.4.5.3.</v>
+      </c>
+      <c r="G180" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="H180" s="18"/>
+      <c r="I180" s="18"/>
+      <c r="J180" s="18"/>
+      <c r="K180" s="18"/>
+      <c r="L180" s="18"/>
+      <c r="M180" s="18"/>
+      <c r="N180" s="18"/>
+      <c r="O180" s="18"/>
+      <c r="P180" s="18"/>
+      <c r="Q180" s="18"/>
+      <c r="R180" s="18"/>
+      <c r="S180" s="18"/>
+      <c r="T180" s="18"/>
+      <c r="U180" s="18"/>
+      <c r="V180" s="18"/>
+      <c r="W180" s="18"/>
+      <c r="X180" s="18"/>
+      <c r="Y180" s="18"/>
+      <c r="Z180" s="18"/>
+      <c r="AA180" s="18"/>
+      <c r="AB180" s="18"/>
+      <c r="AC180" s="18"/>
+      <c r="AD180" s="18"/>
+      <c r="AE180" s="18"/>
+      <c r="AF180" s="18"/>
+      <c r="AG180" s="18"/>
+      <c r="AH180" s="18"/>
+      <c r="AI180" s="18"/>
+    </row>
+    <row r="181" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D181" s="16"/>
+      <c r="E181" s="18"/>
+      <c r="F181" s="21"/>
+      <c r="G181" s="21"/>
+      <c r="H181" s="18"/>
+      <c r="I181" s="18"/>
+      <c r="J181" s="18"/>
+      <c r="K181" s="18"/>
+      <c r="L181" s="18"/>
+      <c r="M181" s="18"/>
+      <c r="N181" s="18"/>
+      <c r="O181" s="18"/>
+      <c r="P181" s="18"/>
+      <c r="Q181" s="18"/>
+      <c r="R181" s="18"/>
+      <c r="S181" s="18"/>
+      <c r="T181" s="18"/>
+      <c r="U181" s="18"/>
+      <c r="V181" s="18"/>
+      <c r="W181" s="18"/>
+      <c r="X181" s="18"/>
+      <c r="Y181" s="18"/>
+      <c r="Z181" s="18"/>
+      <c r="AA181" s="18"/>
+      <c r="AB181" s="18"/>
+      <c r="AC181" s="18"/>
+      <c r="AD181" s="18"/>
+      <c r="AE181" s="18"/>
+      <c r="AF181" s="18"/>
+      <c r="AG181" s="18"/>
+      <c r="AH181" s="18"/>
+      <c r="AI181" s="18"/>
+    </row>
+    <row r="182" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D182" s="16"/>
+      <c r="E182" s="18"/>
+      <c r="F182" s="18"/>
+      <c r="G182" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="H182" s="37"/>
+      <c r="I182" s="37"/>
+      <c r="J182" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="K182" s="37"/>
+      <c r="L182" s="37"/>
+      <c r="M182" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="N182" s="37"/>
+      <c r="O182" s="37"/>
+      <c r="P182" s="37"/>
+      <c r="Q182" s="37"/>
+      <c r="R182" s="37"/>
+      <c r="S182" s="37"/>
+      <c r="T182" s="37"/>
+      <c r="U182" s="37"/>
+      <c r="V182" s="37"/>
+      <c r="W182" s="37"/>
+      <c r="X182" s="38"/>
+      <c r="Y182" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z182" s="37"/>
+      <c r="AA182" s="37"/>
+      <c r="AB182" s="37"/>
+      <c r="AC182" s="37"/>
+      <c r="AD182" s="37"/>
+      <c r="AE182" s="37"/>
+      <c r="AF182" s="37"/>
+      <c r="AG182" s="37"/>
+      <c r="AH182" s="38"/>
+      <c r="AI182" s="18"/>
+    </row>
+    <row r="183" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D183" s="16"/>
+      <c r="E183" s="18"/>
+      <c r="F183" s="18"/>
+      <c r="G183" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="H175" s="29"/>
-      <c r="I175" s="29"/>
-      <c r="J175" s="29"/>
-      <c r="K175" s="29"/>
-      <c r="L175" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="M175" s="29"/>
-      <c r="N175" s="29"/>
-      <c r="O175" s="29"/>
-      <c r="P175" s="29"/>
-      <c r="Q175" s="29"/>
-      <c r="R175" s="29"/>
-      <c r="S175" s="29"/>
-      <c r="T175" s="29"/>
-      <c r="U175" s="29"/>
-      <c r="V175" s="29"/>
-      <c r="W175" s="29"/>
-      <c r="X175" s="29"/>
-      <c r="Y175" s="29"/>
-      <c r="Z175" s="29"/>
-      <c r="AA175" s="29"/>
-      <c r="AB175" s="29"/>
-      <c r="AC175" s="29"/>
-      <c r="AD175" s="29"/>
-      <c r="AE175" s="29"/>
-      <c r="AF175" s="29"/>
-      <c r="AG175" s="29"/>
-      <c r="AH175" s="30"/>
-    </row>
-    <row r="176" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C176" s="20"/>
-      <c r="D176" s="20"/>
-      <c r="E176" s="20"/>
-      <c r="G176" s="23"/>
-      <c r="H176" s="24"/>
-      <c r="I176" s="24"/>
-      <c r="J176" s="24"/>
-      <c r="K176" s="24"/>
-      <c r="L176" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="M176" s="24"/>
-      <c r="N176" s="24"/>
-      <c r="O176" s="24"/>
-      <c r="P176" s="24"/>
-      <c r="Q176" s="24"/>
-      <c r="R176" s="24"/>
-      <c r="S176" s="24"/>
-      <c r="T176" s="24"/>
-      <c r="U176" s="24"/>
-      <c r="V176" s="24"/>
-      <c r="W176" s="24"/>
-      <c r="X176" s="24"/>
-      <c r="Y176" s="24"/>
-      <c r="Z176" s="24"/>
-      <c r="AA176" s="24"/>
-      <c r="AB176" s="24"/>
-      <c r="AC176" s="24"/>
-      <c r="AD176" s="24"/>
-      <c r="AE176" s="24"/>
-      <c r="AF176" s="24"/>
-      <c r="AG176" s="24"/>
-      <c r="AH176" s="25"/>
-    </row>
-    <row r="177" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C177" s="20"/>
-      <c r="D177" s="20"/>
-      <c r="E177" s="20"/>
-      <c r="G177" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="H177" s="29"/>
-      <c r="I177" s="29"/>
-      <c r="J177" s="29"/>
-      <c r="K177" s="29"/>
-      <c r="L177" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="M177" s="29"/>
-      <c r="N177" s="29"/>
-      <c r="O177" s="29"/>
-      <c r="P177" s="29"/>
-      <c r="Q177" s="29"/>
-      <c r="R177" s="29"/>
-      <c r="S177" s="29"/>
-      <c r="T177" s="29"/>
-      <c r="U177" s="29"/>
-      <c r="V177" s="29"/>
-      <c r="W177" s="29"/>
-      <c r="X177" s="29"/>
-      <c r="Y177" s="29"/>
-      <c r="Z177" s="29"/>
-      <c r="AA177" s="29"/>
-      <c r="AB177" s="29"/>
-      <c r="AC177" s="29"/>
-      <c r="AD177" s="29"/>
-      <c r="AE177" s="29"/>
-      <c r="AF177" s="29"/>
-      <c r="AG177" s="29"/>
-      <c r="AH177" s="30"/>
-    </row>
-    <row r="178" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C178" s="20"/>
-      <c r="D178" s="20"/>
-      <c r="E178" s="20"/>
-      <c r="G178" s="23"/>
-      <c r="H178" s="24"/>
-      <c r="I178" s="24"/>
-      <c r="J178" s="24"/>
-      <c r="K178" s="24"/>
-      <c r="L178" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="M178" s="24"/>
-      <c r="N178" s="24"/>
-      <c r="O178" s="24"/>
-      <c r="P178" s="24"/>
-      <c r="Q178" s="24"/>
-      <c r="R178" s="24"/>
-      <c r="S178" s="24"/>
-      <c r="T178" s="24"/>
-      <c r="U178" s="24"/>
-      <c r="V178" s="24"/>
-      <c r="W178" s="24"/>
-      <c r="X178" s="24"/>
-      <c r="Y178" s="24"/>
-      <c r="Z178" s="24"/>
-      <c r="AA178" s="24"/>
-      <c r="AB178" s="24"/>
-      <c r="AC178" s="24"/>
-      <c r="AD178" s="24"/>
-      <c r="AE178" s="24"/>
-      <c r="AF178" s="24"/>
-      <c r="AG178" s="24"/>
-      <c r="AH178" s="25"/>
-    </row>
-    <row r="179" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C179" s="20"/>
-      <c r="D179" s="20"/>
-      <c r="E179" s="20"/>
-      <c r="G179" s="23"/>
-      <c r="H179" s="24"/>
-      <c r="I179" s="24"/>
-      <c r="J179" s="24"/>
-      <c r="K179" s="24"/>
-      <c r="L179" s="23" t="s">
-        <v>181</v>
-      </c>
-      <c r="M179" s="24"/>
-      <c r="N179" s="24"/>
-      <c r="O179" s="24"/>
-      <c r="P179" s="24"/>
-      <c r="Q179" s="24"/>
-      <c r="R179" s="24"/>
-      <c r="S179" s="24"/>
-      <c r="T179" s="24"/>
-      <c r="U179" s="24"/>
-      <c r="V179" s="24"/>
-      <c r="W179" s="24"/>
-      <c r="X179" s="24"/>
-      <c r="Y179" s="24"/>
-      <c r="Z179" s="24"/>
-      <c r="AA179" s="24"/>
-      <c r="AB179" s="24"/>
-      <c r="AC179" s="24"/>
-      <c r="AD179" s="24"/>
-      <c r="AE179" s="24"/>
-      <c r="AF179" s="24"/>
-      <c r="AG179" s="24"/>
-      <c r="AH179" s="25"/>
-    </row>
-    <row r="180" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C180" s="20"/>
-      <c r="D180" s="20"/>
-      <c r="E180" s="20"/>
-      <c r="G180" s="26"/>
-      <c r="H180" s="27"/>
-      <c r="I180" s="27"/>
-      <c r="J180" s="27"/>
-      <c r="K180" s="27"/>
-      <c r="L180" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="M180" s="27"/>
-      <c r="N180" s="27"/>
-      <c r="O180" s="27"/>
-      <c r="P180" s="27"/>
-      <c r="Q180" s="27"/>
-      <c r="R180" s="27"/>
-      <c r="S180" s="27"/>
-      <c r="T180" s="27"/>
-      <c r="U180" s="27"/>
-      <c r="V180" s="27"/>
-      <c r="W180" s="27"/>
-      <c r="X180" s="27"/>
-      <c r="Y180" s="27"/>
-      <c r="Z180" s="27"/>
-      <c r="AA180" s="27"/>
-      <c r="AB180" s="27"/>
-      <c r="AC180" s="27"/>
-      <c r="AD180" s="27"/>
-      <c r="AE180" s="27"/>
-      <c r="AF180" s="27"/>
-      <c r="AG180" s="27"/>
-      <c r="AH180" s="31"/>
-    </row>
-    <row r="181" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C181" s="20"/>
-      <c r="D181" s="20"/>
-      <c r="E181" s="20"/>
-      <c r="G181" s="24"/>
-      <c r="H181" s="24"/>
-      <c r="I181" s="24"/>
-      <c r="J181" s="24"/>
-      <c r="K181" s="24"/>
-      <c r="L181" s="24"/>
-      <c r="M181" s="24"/>
-      <c r="N181" s="24"/>
-      <c r="O181" s="24"/>
-      <c r="P181" s="24"/>
-      <c r="Q181" s="24"/>
-      <c r="R181" s="24"/>
-      <c r="S181" s="24"/>
-      <c r="T181" s="24"/>
-      <c r="U181" s="24"/>
-      <c r="V181" s="24"/>
-      <c r="W181" s="24"/>
-      <c r="X181" s="24"/>
-      <c r="Y181" s="24"/>
-      <c r="Z181" s="24"/>
-      <c r="AA181" s="24"/>
-      <c r="AB181" s="24"/>
-      <c r="AC181" s="24"/>
-      <c r="AD181" s="24"/>
-      <c r="AE181" s="24"/>
-      <c r="AF181" s="24"/>
-      <c r="AG181" s="24"/>
-      <c r="AH181" s="24"/>
-      <c r="AI181" s="24"/>
-    </row>
-    <row r="182" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C182" s="20"/>
-      <c r="D182" s="20"/>
-      <c r="E182" s="20"/>
-      <c r="G182" s="21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="183" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G183" s="32" t="str">
-        <f>G174</f>
-        <v>方法</v>
-      </c>
-      <c r="H183" s="33"/>
-      <c r="I183" s="33"/>
-      <c r="J183" s="33"/>
-      <c r="K183" s="34"/>
-      <c r="L183" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="M183" s="33"/>
-      <c r="N183" s="33"/>
-      <c r="O183" s="34"/>
-      <c r="P183" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q183" s="33"/>
-      <c r="R183" s="33"/>
-      <c r="S183" s="33"/>
-      <c r="T183" s="33"/>
-      <c r="U183" s="33"/>
-      <c r="V183" s="33"/>
-      <c r="W183" s="33"/>
-      <c r="X183" s="33"/>
-      <c r="Y183" s="33"/>
-      <c r="Z183" s="33"/>
-      <c r="AA183" s="33"/>
-      <c r="AB183" s="33"/>
-      <c r="AC183" s="33"/>
-      <c r="AD183" s="33"/>
-      <c r="AE183" s="33"/>
-      <c r="AF183" s="33"/>
-      <c r="AG183" s="33"/>
-      <c r="AH183" s="34"/>
-    </row>
-    <row r="184" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G184" s="23" t="str">
-        <f>G175</f>
-        <v>物理削除</v>
-      </c>
-      <c r="H184" s="24"/>
-      <c r="I184" s="24"/>
-      <c r="J184" s="24"/>
-      <c r="K184" s="25"/>
-      <c r="L184" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="M184" s="24"/>
-      <c r="N184" s="24"/>
-      <c r="O184" s="25"/>
-      <c r="P184" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q184" s="24"/>
-      <c r="R184" s="24"/>
-      <c r="S184" s="24"/>
-      <c r="T184" s="24"/>
-      <c r="U184" s="24"/>
-      <c r="V184" s="24"/>
-      <c r="W184" s="24"/>
-      <c r="X184" s="24"/>
-      <c r="Y184" s="24"/>
-      <c r="Z184" s="24"/>
-      <c r="AA184" s="24"/>
-      <c r="AB184" s="24"/>
-      <c r="AC184" s="24"/>
-      <c r="AD184" s="24"/>
-      <c r="AE184" s="24"/>
-      <c r="AF184" s="24"/>
-      <c r="AG184" s="24"/>
-      <c r="AH184" s="25"/>
-    </row>
-    <row r="185" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G185" s="45" t="str">
-        <f>G177</f>
-        <v>論理削除</v>
-      </c>
-      <c r="H185" s="46"/>
-      <c r="I185" s="46"/>
-      <c r="J185" s="46"/>
-      <c r="K185" s="47"/>
-      <c r="L185" s="46" t="s">
-        <v>87</v>
-      </c>
-      <c r="M185" s="46"/>
-      <c r="N185" s="46"/>
-      <c r="O185" s="47"/>
-      <c r="P185" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q185" s="46"/>
-      <c r="R185" s="46"/>
-      <c r="S185" s="46"/>
-      <c r="T185" s="46"/>
-      <c r="U185" s="46"/>
-      <c r="V185" s="46"/>
-      <c r="W185" s="46"/>
-      <c r="X185" s="46"/>
-      <c r="Y185" s="46"/>
-      <c r="Z185" s="46"/>
-      <c r="AA185" s="46"/>
-      <c r="AB185" s="46"/>
-      <c r="AC185" s="46"/>
-      <c r="AD185" s="46"/>
-      <c r="AE185" s="46"/>
-      <c r="AF185" s="46"/>
-      <c r="AG185" s="46"/>
-      <c r="AH185" s="47"/>
+      <c r="H183" s="18"/>
+      <c r="I183" s="18"/>
+      <c r="J183" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="K183" s="18"/>
+      <c r="L183" s="18"/>
+      <c r="M183" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="N183" s="18"/>
+      <c r="O183" s="18"/>
+      <c r="P183" s="18"/>
+      <c r="Q183" s="18"/>
+      <c r="R183" s="18"/>
+      <c r="S183" s="18"/>
+      <c r="T183" s="18"/>
+      <c r="U183" s="18"/>
+      <c r="V183" s="18"/>
+      <c r="W183" s="18"/>
+      <c r="X183" s="40"/>
+      <c r="Y183" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z183" s="18"/>
+      <c r="AA183" s="18"/>
+      <c r="AB183" s="18"/>
+      <c r="AC183" s="18"/>
+      <c r="AD183" s="18"/>
+      <c r="AE183" s="18"/>
+      <c r="AF183" s="18"/>
+      <c r="AG183" s="18"/>
+      <c r="AH183" s="40"/>
+      <c r="AI183" s="18"/>
+    </row>
+    <row r="184" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D184" s="16"/>
+      <c r="E184" s="18"/>
+      <c r="F184" s="18"/>
+      <c r="G184" s="39"/>
+      <c r="H184" s="18"/>
+      <c r="I184" s="18"/>
+      <c r="J184" s="39"/>
+      <c r="K184" s="18"/>
+      <c r="L184" s="18"/>
+      <c r="M184" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="N184" s="18"/>
+      <c r="O184" s="18"/>
+      <c r="P184" s="18"/>
+      <c r="Q184" s="18"/>
+      <c r="R184" s="18"/>
+      <c r="S184" s="18"/>
+      <c r="T184" s="18"/>
+      <c r="U184" s="18"/>
+      <c r="V184" s="18"/>
+      <c r="W184" s="18"/>
+      <c r="X184" s="40"/>
+      <c r="Y184" s="18"/>
+      <c r="Z184" s="18"/>
+      <c r="AA184" s="18"/>
+      <c r="AB184" s="18"/>
+      <c r="AC184" s="18"/>
+      <c r="AD184" s="18"/>
+      <c r="AE184" s="18"/>
+      <c r="AF184" s="18"/>
+      <c r="AG184" s="18"/>
+      <c r="AH184" s="40"/>
+      <c r="AI184" s="18"/>
+    </row>
+    <row r="185" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D185" s="16"/>
+      <c r="E185" s="18"/>
+      <c r="F185" s="18"/>
+      <c r="G185" s="39"/>
+      <c r="H185" s="18"/>
+      <c r="I185" s="18"/>
+      <c r="J185" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="K185" s="53"/>
+      <c r="L185" s="53"/>
+      <c r="M185" s="52" t="s">
+        <v>65</v>
+      </c>
+      <c r="N185" s="53"/>
+      <c r="O185" s="53"/>
+      <c r="P185" s="53"/>
+      <c r="Q185" s="53"/>
+      <c r="R185" s="53"/>
+      <c r="S185" s="53"/>
+      <c r="T185" s="53"/>
+      <c r="U185" s="53"/>
+      <c r="V185" s="53"/>
+      <c r="W185" s="53"/>
+      <c r="X185" s="54"/>
+      <c r="Y185" s="53" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z185" s="53"/>
+      <c r="AA185" s="53"/>
+      <c r="AB185" s="53"/>
+      <c r="AC185" s="53"/>
+      <c r="AD185" s="53"/>
+      <c r="AE185" s="53"/>
+      <c r="AF185" s="53"/>
+      <c r="AG185" s="53"/>
+      <c r="AH185" s="54"/>
+      <c r="AI185" s="18"/>
     </row>
     <row r="186" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E186" s="16"/>
+      <c r="D186" s="16"/>
+      <c r="E186" s="18"/>
       <c r="F186" s="18"/>
-      <c r="G186" s="18"/>
+      <c r="G186" s="39"/>
       <c r="H186" s="18"/>
       <c r="I186" s="18"/>
-      <c r="J186" s="18"/>
-      <c r="K186" s="18"/>
-      <c r="L186" s="18"/>
-      <c r="M186" s="18"/>
-      <c r="N186" s="18"/>
-      <c r="O186" s="18"/>
-      <c r="P186" s="18"/>
-      <c r="Q186" s="18"/>
-      <c r="R186" s="18"/>
-      <c r="S186" s="18"/>
-      <c r="T186" s="18"/>
-      <c r="U186" s="18"/>
-      <c r="V186" s="18"/>
-      <c r="W186" s="18"/>
-      <c r="X186" s="18"/>
-      <c r="Y186" s="18"/>
-      <c r="Z186" s="18"/>
-      <c r="AA186" s="18"/>
-      <c r="AB186" s="18"/>
-      <c r="AC186" s="18"/>
-      <c r="AD186" s="18"/>
-      <c r="AE186" s="18"/>
-      <c r="AF186" s="18"/>
-      <c r="AG186" s="18"/>
-      <c r="AH186" s="18"/>
+      <c r="J186" s="41"/>
+      <c r="K186" s="42"/>
+      <c r="L186" s="42"/>
+      <c r="M186" s="41"/>
+      <c r="N186" s="42"/>
+      <c r="O186" s="42"/>
+      <c r="P186" s="42"/>
+      <c r="Q186" s="42"/>
+      <c r="R186" s="42"/>
+      <c r="S186" s="42"/>
+      <c r="T186" s="42"/>
+      <c r="U186" s="42"/>
+      <c r="V186" s="42"/>
+      <c r="W186" s="42"/>
+      <c r="X186" s="43"/>
+      <c r="Y186" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z186" s="42"/>
+      <c r="AA186" s="42"/>
+      <c r="AB186" s="42"/>
+      <c r="AC186" s="42"/>
+      <c r="AD186" s="42"/>
+      <c r="AE186" s="42"/>
+      <c r="AF186" s="42"/>
+      <c r="AG186" s="42"/>
+      <c r="AH186" s="43"/>
       <c r="AI186" s="18"/>
     </row>
-    <row r="187" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D187" s="16"/>
       <c r="E187" s="18"/>
-      <c r="F187" s="22" t="str">
-        <f>E165&amp;"3."</f>
-        <v>7.3.4.5.3.</v>
-      </c>
-      <c r="G187" s="21" t="s">
-        <v>29</v>
-      </c>
+      <c r="F187" s="18"/>
+      <c r="G187" s="39"/>
       <c r="H187" s="18"/>
       <c r="I187" s="18"/>
-      <c r="J187" s="18"/>
-      <c r="K187" s="18"/>
-      <c r="L187" s="18"/>
-      <c r="M187" s="18"/>
-      <c r="N187" s="18"/>
-      <c r="O187" s="18"/>
-      <c r="P187" s="18"/>
-      <c r="Q187" s="18"/>
-      <c r="R187" s="18"/>
-      <c r="S187" s="18"/>
-      <c r="T187" s="18"/>
-      <c r="U187" s="18"/>
-      <c r="V187" s="18"/>
-      <c r="W187" s="18"/>
-      <c r="X187" s="18"/>
-      <c r="Y187" s="18"/>
-      <c r="Z187" s="18"/>
-      <c r="AA187" s="18"/>
-      <c r="AB187" s="18"/>
-      <c r="AC187" s="18"/>
-      <c r="AD187" s="18"/>
-      <c r="AE187" s="18"/>
-      <c r="AF187" s="18"/>
-      <c r="AG187" s="18"/>
-      <c r="AH187" s="18"/>
+      <c r="J187" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="K187" s="53"/>
+      <c r="L187" s="53"/>
+      <c r="M187" s="52" t="s">
+        <v>66</v>
+      </c>
+      <c r="N187" s="53"/>
+      <c r="O187" s="53"/>
+      <c r="P187" s="53"/>
+      <c r="Q187" s="53"/>
+      <c r="R187" s="53"/>
+      <c r="S187" s="53"/>
+      <c r="T187" s="53"/>
+      <c r="U187" s="53"/>
+      <c r="V187" s="53"/>
+      <c r="W187" s="53"/>
+      <c r="X187" s="54"/>
+      <c r="Y187" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z187" s="53"/>
+      <c r="AA187" s="53"/>
+      <c r="AB187" s="53"/>
+      <c r="AC187" s="53"/>
+      <c r="AD187" s="53"/>
+      <c r="AE187" s="53"/>
+      <c r="AF187" s="53"/>
+      <c r="AG187" s="53"/>
+      <c r="AH187" s="54"/>
       <c r="AI187" s="18"/>
     </row>
     <row r="188" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D188" s="16"/>
       <c r="E188" s="18"/>
-      <c r="F188" s="21"/>
-      <c r="G188" s="21"/>
-      <c r="H188" s="18"/>
-      <c r="I188" s="18"/>
-      <c r="J188" s="18"/>
-      <c r="K188" s="18"/>
-      <c r="L188" s="18"/>
-      <c r="M188" s="18"/>
-      <c r="N188" s="18"/>
-      <c r="O188" s="18"/>
-      <c r="P188" s="18"/>
-      <c r="Q188" s="18"/>
-      <c r="R188" s="18"/>
-      <c r="S188" s="18"/>
-      <c r="T188" s="18"/>
-      <c r="U188" s="18"/>
-      <c r="V188" s="18"/>
-      <c r="W188" s="18"/>
-      <c r="X188" s="18"/>
-      <c r="Y188" s="18"/>
-      <c r="Z188" s="18"/>
-      <c r="AA188" s="18"/>
-      <c r="AB188" s="18"/>
-      <c r="AC188" s="18"/>
-      <c r="AD188" s="18"/>
-      <c r="AE188" s="18"/>
-      <c r="AF188" s="18"/>
-      <c r="AG188" s="18"/>
-      <c r="AH188" s="18"/>
+      <c r="F188" s="18"/>
+      <c r="G188" s="41"/>
+      <c r="H188" s="42"/>
+      <c r="I188" s="42"/>
+      <c r="J188" s="41"/>
+      <c r="K188" s="42"/>
+      <c r="L188" s="42"/>
+      <c r="M188" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="N188" s="42"/>
+      <c r="O188" s="42"/>
+      <c r="P188" s="42"/>
+      <c r="Q188" s="42"/>
+      <c r="R188" s="42"/>
+      <c r="S188" s="42"/>
+      <c r="T188" s="42"/>
+      <c r="U188" s="42"/>
+      <c r="V188" s="42"/>
+      <c r="W188" s="42"/>
+      <c r="X188" s="43"/>
+      <c r="Y188" s="41" t="s">
+        <v>172</v>
+      </c>
+      <c r="Z188" s="42"/>
+      <c r="AA188" s="42"/>
+      <c r="AB188" s="42"/>
+      <c r="AC188" s="42"/>
+      <c r="AD188" s="42"/>
+      <c r="AE188" s="42"/>
+      <c r="AF188" s="42"/>
+      <c r="AG188" s="42"/>
+      <c r="AH188" s="43"/>
       <c r="AI188" s="18"/>
     </row>
     <row r="189" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D189" s="16"/>
       <c r="E189" s="18"/>
       <c r="F189" s="18"/>
-      <c r="G189" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="H189" s="37"/>
-      <c r="I189" s="37"/>
-      <c r="J189" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="K189" s="37"/>
-      <c r="L189" s="37"/>
-      <c r="M189" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="N189" s="37"/>
-      <c r="O189" s="37"/>
-      <c r="P189" s="37"/>
-      <c r="Q189" s="37"/>
-      <c r="R189" s="37"/>
-      <c r="S189" s="37"/>
-      <c r="T189" s="37"/>
-      <c r="U189" s="37"/>
-      <c r="V189" s="37"/>
-      <c r="W189" s="37"/>
-      <c r="X189" s="38"/>
-      <c r="Y189" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z189" s="37"/>
-      <c r="AA189" s="37"/>
-      <c r="AB189" s="37"/>
-      <c r="AC189" s="37"/>
-      <c r="AD189" s="37"/>
-      <c r="AE189" s="37"/>
-      <c r="AF189" s="37"/>
-      <c r="AG189" s="37"/>
-      <c r="AH189" s="38"/>
+      <c r="G189" s="18"/>
+      <c r="H189" s="18"/>
+      <c r="I189" s="18"/>
+      <c r="J189" s="18"/>
+      <c r="K189" s="18"/>
+      <c r="L189" s="18"/>
+      <c r="M189" s="18"/>
+      <c r="N189" s="18"/>
+      <c r="O189" s="18"/>
+      <c r="P189" s="18"/>
+      <c r="Q189" s="18"/>
+      <c r="R189" s="18"/>
+      <c r="S189" s="18"/>
+      <c r="T189" s="18"/>
+      <c r="U189" s="18"/>
+      <c r="V189" s="18"/>
+      <c r="W189" s="18"/>
+      <c r="X189" s="18"/>
+      <c r="Y189" s="18"/>
+      <c r="Z189" s="18"/>
+      <c r="AA189" s="18"/>
+      <c r="AB189" s="18"/>
+      <c r="AC189" s="18"/>
+      <c r="AD189" s="18"/>
+      <c r="AE189" s="18"/>
+      <c r="AF189" s="18"/>
+      <c r="AG189" s="18"/>
+      <c r="AH189" s="18"/>
       <c r="AI189" s="18"/>
     </row>
     <row r="190" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D190" s="16"/>
       <c r="E190" s="18"/>
       <c r="F190" s="18"/>
-      <c r="G190" s="39" t="s">
-        <v>51</v>
-      </c>
+      <c r="G190" s="18"/>
       <c r="H190" s="18"/>
       <c r="I190" s="18"/>
-      <c r="J190" s="39" t="s">
-        <v>61</v>
-      </c>
+      <c r="J190" s="18"/>
       <c r="K190" s="18"/>
       <c r="L190" s="18"/>
-      <c r="M190" s="39" t="s">
-        <v>64</v>
-      </c>
+      <c r="M190" s="18"/>
       <c r="N190" s="18"/>
       <c r="O190" s="18"/>
       <c r="P190" s="18"/>
@@ -7155,10 +7181,8 @@
       <c r="U190" s="18"/>
       <c r="V190" s="18"/>
       <c r="W190" s="18"/>
-      <c r="X190" s="40"/>
-      <c r="Y190" s="18" t="s">
-        <v>68</v>
-      </c>
+      <c r="X190" s="18"/>
+      <c r="Y190" s="18"/>
       <c r="Z190" s="18"/>
       <c r="AA190" s="18"/>
       <c r="AB190" s="18"/>
@@ -7167,22 +7191,25 @@
       <c r="AE190" s="18"/>
       <c r="AF190" s="18"/>
       <c r="AG190" s="18"/>
-      <c r="AH190" s="40"/>
+      <c r="AH190" s="18"/>
       <c r="AI190" s="18"/>
     </row>
     <row r="191" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D191" s="16"/>
-      <c r="E191" s="18"/>
+      <c r="D191" s="22" t="str">
+        <f>$C$7&amp;"5."</f>
+        <v>7.3.5.</v>
+      </c>
+      <c r="E191" s="17" t="s">
+        <v>29</v>
+      </c>
       <c r="F191" s="18"/>
-      <c r="G191" s="39"/>
+      <c r="G191" s="18"/>
       <c r="H191" s="18"/>
       <c r="I191" s="18"/>
-      <c r="J191" s="39"/>
+      <c r="J191" s="18"/>
       <c r="K191" s="18"/>
       <c r="L191" s="18"/>
-      <c r="M191" s="39" t="s">
-        <v>82</v>
-      </c>
+      <c r="M191" s="18"/>
       <c r="N191" s="18"/>
       <c r="O191" s="18"/>
       <c r="P191" s="18"/>
@@ -7193,7 +7220,7 @@
       <c r="U191" s="18"/>
       <c r="V191" s="18"/>
       <c r="W191" s="18"/>
-      <c r="X191" s="40"/>
+      <c r="X191" s="18"/>
       <c r="Y191" s="18"/>
       <c r="Z191" s="18"/>
       <c r="AA191" s="18"/>
@@ -7203,434 +7230,173 @@
       <c r="AE191" s="18"/>
       <c r="AF191" s="18"/>
       <c r="AG191" s="18"/>
-      <c r="AH191" s="40"/>
+      <c r="AH191" s="18"/>
       <c r="AI191" s="18"/>
     </row>
-    <row r="192" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D192" s="16"/>
-      <c r="E192" s="18"/>
+    <row r="192" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C192" s="20"/>
+      <c r="D192" s="22"/>
       <c r="F192" s="18"/>
-      <c r="G192" s="39"/>
+      <c r="G192" s="18"/>
       <c r="H192" s="18"/>
       <c r="I192" s="18"/>
-      <c r="J192" s="52" t="s">
-        <v>62</v>
-      </c>
-      <c r="K192" s="53"/>
-      <c r="L192" s="53"/>
-      <c r="M192" s="52" t="s">
-        <v>65</v>
-      </c>
-      <c r="N192" s="53"/>
-      <c r="O192" s="53"/>
-      <c r="P192" s="53"/>
-      <c r="Q192" s="53"/>
-      <c r="R192" s="53"/>
-      <c r="S192" s="53"/>
-      <c r="T192" s="53"/>
-      <c r="U192" s="53"/>
-      <c r="V192" s="53"/>
-      <c r="W192" s="53"/>
-      <c r="X192" s="54"/>
-      <c r="Y192" s="53" t="s">
-        <v>103</v>
-      </c>
-      <c r="Z192" s="53"/>
-      <c r="AA192" s="53"/>
-      <c r="AB192" s="53"/>
-      <c r="AC192" s="53"/>
-      <c r="AD192" s="53"/>
-      <c r="AE192" s="53"/>
-      <c r="AF192" s="53"/>
-      <c r="AG192" s="53"/>
-      <c r="AH192" s="54"/>
+      <c r="J192" s="18"/>
+      <c r="K192" s="18"/>
+      <c r="L192" s="18"/>
+      <c r="M192" s="18"/>
+      <c r="N192" s="18"/>
+      <c r="O192" s="18"/>
+      <c r="P192" s="18"/>
+      <c r="Q192" s="18"/>
+      <c r="R192" s="18"/>
+      <c r="S192" s="18"/>
+      <c r="T192" s="18"/>
+      <c r="U192" s="18"/>
+      <c r="V192" s="18"/>
+      <c r="W192" s="18"/>
+      <c r="X192" s="18"/>
+      <c r="Y192" s="18"/>
+      <c r="Z192" s="18"/>
+      <c r="AA192" s="18"/>
+      <c r="AB192" s="18"/>
+      <c r="AC192" s="18"/>
+      <c r="AD192" s="18"/>
+      <c r="AE192" s="18"/>
+      <c r="AF192" s="18"/>
+      <c r="AG192" s="18"/>
+      <c r="AH192" s="18"/>
       <c r="AI192" s="18"/>
     </row>
     <row r="193" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D193" s="16"/>
-      <c r="E193" s="18"/>
-      <c r="F193" s="18"/>
-      <c r="G193" s="39"/>
+      <c r="C193" s="20"/>
+      <c r="D193" s="22"/>
+      <c r="E193" s="22" t="str">
+        <f>$D$191&amp;"1."</f>
+        <v>7.3.5.1.</v>
+      </c>
+      <c r="F193" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="G193" s="18"/>
       <c r="H193" s="18"/>
       <c r="I193" s="18"/>
-      <c r="J193" s="41"/>
-      <c r="K193" s="42"/>
-      <c r="L193" s="42"/>
-      <c r="M193" s="41"/>
-      <c r="N193" s="42"/>
-      <c r="O193" s="42"/>
-      <c r="P193" s="42"/>
-      <c r="Q193" s="42"/>
-      <c r="R193" s="42"/>
-      <c r="S193" s="42"/>
-      <c r="T193" s="42"/>
-      <c r="U193" s="42"/>
-      <c r="V193" s="42"/>
-      <c r="W193" s="42"/>
-      <c r="X193" s="43"/>
-      <c r="Y193" s="42" t="s">
-        <v>105</v>
-      </c>
-      <c r="Z193" s="42"/>
-      <c r="AA193" s="42"/>
-      <c r="AB193" s="42"/>
-      <c r="AC193" s="42"/>
-      <c r="AD193" s="42"/>
-      <c r="AE193" s="42"/>
-      <c r="AF193" s="42"/>
-      <c r="AG193" s="42"/>
-      <c r="AH193" s="43"/>
+      <c r="J193" s="18"/>
+      <c r="K193" s="18"/>
+      <c r="L193" s="18"/>
+      <c r="M193" s="18"/>
+      <c r="N193" s="18"/>
+      <c r="O193" s="18"/>
+      <c r="P193" s="18"/>
+      <c r="Q193" s="18"/>
+      <c r="R193" s="18"/>
+      <c r="S193" s="18"/>
+      <c r="T193" s="18"/>
+      <c r="U193" s="18"/>
+      <c r="V193" s="18"/>
+      <c r="W193" s="18"/>
+      <c r="X193" s="18"/>
+      <c r="Y193" s="18"/>
+      <c r="Z193" s="18"/>
+      <c r="AA193" s="18"/>
+      <c r="AB193" s="18"/>
+      <c r="AC193" s="18"/>
+      <c r="AD193" s="18"/>
+      <c r="AE193" s="18"/>
+      <c r="AF193" s="18"/>
+      <c r="AG193" s="18"/>
+      <c r="AH193" s="18"/>
       <c r="AI193" s="18"/>
     </row>
-    <row r="194" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D194" s="16"/>
-      <c r="E194" s="18"/>
-      <c r="F194" s="18"/>
-      <c r="G194" s="39"/>
+    <row r="194" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C194" s="20"/>
+      <c r="D194" s="22"/>
+      <c r="E194" s="17"/>
+      <c r="F194" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="G194" s="18"/>
       <c r="H194" s="18"/>
       <c r="I194" s="18"/>
-      <c r="J194" s="52" t="s">
-        <v>63</v>
-      </c>
-      <c r="K194" s="53"/>
-      <c r="L194" s="53"/>
-      <c r="M194" s="52" t="s">
-        <v>66</v>
-      </c>
-      <c r="N194" s="53"/>
-      <c r="O194" s="53"/>
-      <c r="P194" s="53"/>
-      <c r="Q194" s="53"/>
-      <c r="R194" s="53"/>
-      <c r="S194" s="53"/>
-      <c r="T194" s="53"/>
-      <c r="U194" s="53"/>
-      <c r="V194" s="53"/>
-      <c r="W194" s="53"/>
-      <c r="X194" s="54"/>
-      <c r="Y194" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="Z194" s="53"/>
-      <c r="AA194" s="53"/>
-      <c r="AB194" s="53"/>
-      <c r="AC194" s="53"/>
-      <c r="AD194" s="53"/>
-      <c r="AE194" s="53"/>
-      <c r="AF194" s="53"/>
-      <c r="AG194" s="53"/>
-      <c r="AH194" s="54"/>
+      <c r="J194" s="18"/>
+      <c r="K194" s="18"/>
+      <c r="L194" s="18"/>
+      <c r="M194" s="18"/>
+      <c r="N194" s="18"/>
+      <c r="O194" s="18"/>
+      <c r="P194" s="18"/>
+      <c r="Q194" s="18"/>
+      <c r="R194" s="18"/>
+      <c r="S194" s="18"/>
+      <c r="T194" s="18"/>
+      <c r="U194" s="18"/>
+      <c r="V194" s="18"/>
+      <c r="W194" s="18"/>
+      <c r="X194" s="18"/>
+      <c r="Y194" s="18"/>
+      <c r="Z194" s="18"/>
+      <c r="AA194" s="18"/>
+      <c r="AB194" s="18"/>
+      <c r="AC194" s="18"/>
+      <c r="AD194" s="18"/>
+      <c r="AE194" s="18"/>
+      <c r="AF194" s="18"/>
+      <c r="AG194" s="18"/>
+      <c r="AH194" s="18"/>
       <c r="AI194" s="18"/>
     </row>
-    <row r="195" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D195" s="16"/>
-      <c r="E195" s="18"/>
+    <row r="195" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C195" s="20"/>
+      <c r="D195" s="22"/>
+      <c r="E195" s="17"/>
       <c r="F195" s="18"/>
-      <c r="G195" s="41"/>
-      <c r="H195" s="42"/>
-      <c r="I195" s="42"/>
-      <c r="J195" s="41"/>
-      <c r="K195" s="42"/>
-      <c r="L195" s="42"/>
-      <c r="M195" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="N195" s="42"/>
-      <c r="O195" s="42"/>
-      <c r="P195" s="42"/>
-      <c r="Q195" s="42"/>
-      <c r="R195" s="42"/>
-      <c r="S195" s="42"/>
-      <c r="T195" s="42"/>
-      <c r="U195" s="42"/>
-      <c r="V195" s="42"/>
-      <c r="W195" s="42"/>
-      <c r="X195" s="43"/>
-      <c r="Y195" s="41" t="s">
-        <v>182</v>
-      </c>
-      <c r="Z195" s="42"/>
-      <c r="AA195" s="42"/>
-      <c r="AB195" s="42"/>
-      <c r="AC195" s="42"/>
-      <c r="AD195" s="42"/>
-      <c r="AE195" s="42"/>
-      <c r="AF195" s="42"/>
-      <c r="AG195" s="42"/>
-      <c r="AH195" s="43"/>
+      <c r="G195" s="18"/>
+      <c r="H195" s="18"/>
+      <c r="I195" s="18"/>
+      <c r="J195" s="18"/>
+      <c r="K195" s="18"/>
+      <c r="L195" s="18"/>
+      <c r="M195" s="18"/>
+      <c r="N195" s="18"/>
+      <c r="O195" s="18"/>
+      <c r="P195" s="18"/>
+      <c r="Q195" s="18"/>
+      <c r="R195" s="18"/>
+      <c r="S195" s="18"/>
+      <c r="T195" s="18"/>
+      <c r="U195" s="18"/>
+      <c r="V195" s="18"/>
+      <c r="W195" s="18"/>
+      <c r="X195" s="18"/>
+      <c r="Y195" s="18"/>
+      <c r="Z195" s="18"/>
+      <c r="AA195" s="18"/>
+      <c r="AB195" s="18"/>
+      <c r="AC195" s="18"/>
+      <c r="AD195" s="18"/>
+      <c r="AE195" s="18"/>
+      <c r="AF195" s="18"/>
+      <c r="AG195" s="18"/>
+      <c r="AH195" s="18"/>
       <c r="AI195" s="18"/>
     </row>
     <row r="196" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D196" s="16"/>
-      <c r="E196" s="18"/>
-      <c r="F196" s="18"/>
-      <c r="G196" s="18"/>
-      <c r="H196" s="18"/>
-      <c r="I196" s="18"/>
-      <c r="J196" s="18"/>
-      <c r="K196" s="18"/>
-      <c r="L196" s="18"/>
-      <c r="M196" s="18"/>
-      <c r="N196" s="18"/>
-      <c r="O196" s="18"/>
-      <c r="P196" s="18"/>
-      <c r="Q196" s="18"/>
-      <c r="R196" s="18"/>
-      <c r="S196" s="18"/>
-      <c r="T196" s="18"/>
-      <c r="U196" s="18"/>
-      <c r="V196" s="18"/>
-      <c r="W196" s="18"/>
-      <c r="X196" s="18"/>
-      <c r="Y196" s="18"/>
-      <c r="Z196" s="18"/>
-      <c r="AA196" s="18"/>
-      <c r="AB196" s="18"/>
-      <c r="AC196" s="18"/>
-      <c r="AD196" s="18"/>
-      <c r="AE196" s="18"/>
-      <c r="AF196" s="18"/>
-      <c r="AG196" s="18"/>
-      <c r="AH196" s="18"/>
-      <c r="AI196" s="18"/>
+      <c r="C196" s="20"/>
+      <c r="E196" s="22" t="str">
+        <f>$D$191&amp;"2."</f>
+        <v>7.3.5.2.</v>
+      </c>
+      <c r="F196" s="17" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="197" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D197" s="16"/>
-      <c r="E197" s="18"/>
-      <c r="F197" s="18"/>
-      <c r="G197" s="18"/>
-      <c r="H197" s="18"/>
-      <c r="I197" s="18"/>
-      <c r="J197" s="18"/>
-      <c r="K197" s="18"/>
-      <c r="L197" s="18"/>
-      <c r="M197" s="18"/>
-      <c r="N197" s="18"/>
-      <c r="O197" s="18"/>
-      <c r="P197" s="18"/>
-      <c r="Q197" s="18"/>
-      <c r="R197" s="18"/>
-      <c r="S197" s="18"/>
-      <c r="T197" s="18"/>
-      <c r="U197" s="18"/>
-      <c r="V197" s="18"/>
-      <c r="W197" s="18"/>
-      <c r="X197" s="18"/>
-      <c r="Y197" s="18"/>
-      <c r="Z197" s="18"/>
-      <c r="AA197" s="18"/>
-      <c r="AB197" s="18"/>
-      <c r="AC197" s="18"/>
-      <c r="AD197" s="18"/>
-      <c r="AE197" s="18"/>
-      <c r="AF197" s="18"/>
-      <c r="AG197" s="18"/>
-      <c r="AH197" s="18"/>
-      <c r="AI197" s="18"/>
+      <c r="C197" s="20"/>
+      <c r="F197" s="4" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="198" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D198" s="22" t="str">
-        <f>$C$7&amp;"5."</f>
-        <v>7.3.5.</v>
-      </c>
-      <c r="E198" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="F198" s="18"/>
-      <c r="G198" s="18"/>
-      <c r="H198" s="18"/>
-      <c r="I198" s="18"/>
-      <c r="J198" s="18"/>
-      <c r="K198" s="18"/>
-      <c r="L198" s="18"/>
-      <c r="M198" s="18"/>
-      <c r="N198" s="18"/>
-      <c r="O198" s="18"/>
-      <c r="P198" s="18"/>
-      <c r="Q198" s="18"/>
-      <c r="R198" s="18"/>
-      <c r="S198" s="18"/>
-      <c r="T198" s="18"/>
-      <c r="U198" s="18"/>
-      <c r="V198" s="18"/>
-      <c r="W198" s="18"/>
-      <c r="X198" s="18"/>
-      <c r="Y198" s="18"/>
-      <c r="Z198" s="18"/>
-      <c r="AA198" s="18"/>
-      <c r="AB198" s="18"/>
-      <c r="AC198" s="18"/>
-      <c r="AD198" s="18"/>
-      <c r="AE198" s="18"/>
-      <c r="AF198" s="18"/>
-      <c r="AG198" s="18"/>
-      <c r="AH198" s="18"/>
-      <c r="AI198" s="18"/>
-    </row>
-    <row r="199" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C199" s="20"/>
-      <c r="D199" s="22"/>
-      <c r="F199" s="18"/>
-      <c r="G199" s="18"/>
-      <c r="H199" s="18"/>
-      <c r="I199" s="18"/>
-      <c r="J199" s="18"/>
-      <c r="K199" s="18"/>
-      <c r="L199" s="18"/>
-      <c r="M199" s="18"/>
-      <c r="N199" s="18"/>
-      <c r="O199" s="18"/>
-      <c r="P199" s="18"/>
-      <c r="Q199" s="18"/>
-      <c r="R199" s="18"/>
-      <c r="S199" s="18"/>
-      <c r="T199" s="18"/>
-      <c r="U199" s="18"/>
-      <c r="V199" s="18"/>
-      <c r="W199" s="18"/>
-      <c r="X199" s="18"/>
-      <c r="Y199" s="18"/>
-      <c r="Z199" s="18"/>
-      <c r="AA199" s="18"/>
-      <c r="AB199" s="18"/>
-      <c r="AC199" s="18"/>
-      <c r="AD199" s="18"/>
-      <c r="AE199" s="18"/>
-      <c r="AF199" s="18"/>
-      <c r="AG199" s="18"/>
-      <c r="AH199" s="18"/>
-      <c r="AI199" s="18"/>
-    </row>
-    <row r="200" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C200" s="20"/>
-      <c r="D200" s="22"/>
-      <c r="E200" s="22" t="str">
-        <f>$D$198&amp;"1."</f>
-        <v>7.3.5.1.</v>
-      </c>
-      <c r="F200" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="G200" s="18"/>
-      <c r="H200" s="18"/>
-      <c r="I200" s="18"/>
-      <c r="J200" s="18"/>
-      <c r="K200" s="18"/>
-      <c r="L200" s="18"/>
-      <c r="M200" s="18"/>
-      <c r="N200" s="18"/>
-      <c r="O200" s="18"/>
-      <c r="P200" s="18"/>
-      <c r="Q200" s="18"/>
-      <c r="R200" s="18"/>
-      <c r="S200" s="18"/>
-      <c r="T200" s="18"/>
-      <c r="U200" s="18"/>
-      <c r="V200" s="18"/>
-      <c r="W200" s="18"/>
-      <c r="X200" s="18"/>
-      <c r="Y200" s="18"/>
-      <c r="Z200" s="18"/>
-      <c r="AA200" s="18"/>
-      <c r="AB200" s="18"/>
-      <c r="AC200" s="18"/>
-      <c r="AD200" s="18"/>
-      <c r="AE200" s="18"/>
-      <c r="AF200" s="18"/>
-      <c r="AG200" s="18"/>
-      <c r="AH200" s="18"/>
-      <c r="AI200" s="18"/>
-    </row>
-    <row r="201" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C201" s="20"/>
-      <c r="D201" s="22"/>
-      <c r="E201" s="17"/>
-      <c r="F201" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="G201" s="18"/>
-      <c r="H201" s="18"/>
-      <c r="I201" s="18"/>
-      <c r="J201" s="18"/>
-      <c r="K201" s="18"/>
-      <c r="L201" s="18"/>
-      <c r="M201" s="18"/>
-      <c r="N201" s="18"/>
-      <c r="O201" s="18"/>
-      <c r="P201" s="18"/>
-      <c r="Q201" s="18"/>
-      <c r="R201" s="18"/>
-      <c r="S201" s="18"/>
-      <c r="T201" s="18"/>
-      <c r="U201" s="18"/>
-      <c r="V201" s="18"/>
-      <c r="W201" s="18"/>
-      <c r="X201" s="18"/>
-      <c r="Y201" s="18"/>
-      <c r="Z201" s="18"/>
-      <c r="AA201" s="18"/>
-      <c r="AB201" s="18"/>
-      <c r="AC201" s="18"/>
-      <c r="AD201" s="18"/>
-      <c r="AE201" s="18"/>
-      <c r="AF201" s="18"/>
-      <c r="AG201" s="18"/>
-      <c r="AH201" s="18"/>
-      <c r="AI201" s="18"/>
-    </row>
-    <row r="202" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C202" s="20"/>
-      <c r="D202" s="22"/>
-      <c r="E202" s="17"/>
-      <c r="F202" s="18"/>
-      <c r="G202" s="18"/>
-      <c r="H202" s="18"/>
-      <c r="I202" s="18"/>
-      <c r="J202" s="18"/>
-      <c r="K202" s="18"/>
-      <c r="L202" s="18"/>
-      <c r="M202" s="18"/>
-      <c r="N202" s="18"/>
-      <c r="O202" s="18"/>
-      <c r="P202" s="18"/>
-      <c r="Q202" s="18"/>
-      <c r="R202" s="18"/>
-      <c r="S202" s="18"/>
-      <c r="T202" s="18"/>
-      <c r="U202" s="18"/>
-      <c r="V202" s="18"/>
-      <c r="W202" s="18"/>
-      <c r="X202" s="18"/>
-      <c r="Y202" s="18"/>
-      <c r="Z202" s="18"/>
-      <c r="AA202" s="18"/>
-      <c r="AB202" s="18"/>
-      <c r="AC202" s="18"/>
-      <c r="AD202" s="18"/>
-      <c r="AE202" s="18"/>
-      <c r="AF202" s="18"/>
-      <c r="AG202" s="18"/>
-      <c r="AH202" s="18"/>
-      <c r="AI202" s="18"/>
-    </row>
-    <row r="203" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C203" s="20"/>
-      <c r="E203" s="22" t="str">
-        <f>$D$198&amp;"2."</f>
-        <v>7.3.5.2.</v>
-      </c>
-      <c r="F203" s="17" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="204" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C204" s="20"/>
-      <c r="F204" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="205" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C205" s="20"/>
+      <c r="C198" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -7651,10 +7417,10 @@
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="5" manualBreakCount="5">
     <brk id="44" max="34" man="1"/>
-    <brk id="67" max="34" man="1"/>
-    <brk id="93" max="34" man="1"/>
-    <brk id="122" max="34" man="1"/>
-    <brk id="164" max="34" man="1"/>
+    <brk id="60" max="34" man="1"/>
+    <brk id="86" max="34" man="1"/>
+    <brk id="115" max="34" man="1"/>
+    <brk id="157" max="34" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.3DBアクセス処理.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.3DBアクセス処理.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{128143A2-28AB-4414-B72B-99A922458AAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{176C7F3E-DA87-49ED-B5B2-BAD6E39A2248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,9 +12,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'7.3.DBアクセス処理'!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'7.3.DBアクセス処理'!$A$1:$AI$198</definedName>
-    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'7.3.DBアクセス処理'!$A$1:$AI$191</definedName>
-    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'7.3.DBアクセス処理'!$A$1:$AI$191</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'7.3.DBアクセス処理'!$A$1:$AI$190</definedName>
+    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'7.3.DBアクセス処理'!$A$1:$AI$189</definedName>
+    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'7.3.DBアクセス処理'!$A$1:$AI$189</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="175">
   <si>
     <t>工程</t>
     <rPh sb="0" eb="2">
@@ -624,50 +624,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>バキューム・統計情報</t>
-    <rPh sb="6" eb="8">
-      <t>トウケイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>自動バキュームを行う。自動バキューム時に統計情報の更新も行われる。このため、アプリケーションでは制御を行わない。</t>
-    <rPh sb="0" eb="2">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>トウケイ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>セイギョ</t>
-    </rPh>
-    <rPh sb="51" eb="52">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>プロセス単位で作成</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -869,13 +825,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>RDBMS製品</t>
-    <rPh sb="5" eb="7">
-      <t>セイヒン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>排他制御単位</t>
     <rPh sb="0" eb="2">
       <t>ハイタ</t>
@@ -1133,16 +1082,6 @@
     <t>また、トランザクションスコープは、1リクエスト処理内で完結することとする。</t>
     <rPh sb="23" eb="25">
       <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>本PJではDBにはPostgreSQLを使用する。</t>
-    <rPh sb="0" eb="1">
-      <t>ホン</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>シヨウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2271,7 +2210,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI198"/>
+  <dimension ref="A1:AI190"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -2303,7 +2242,7 @@
       </c>
       <c r="Q1" s="2"/>
       <c r="R1" s="62" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="S1" s="63"/>
       <c r="T1" s="63"/>
@@ -2455,27 +2394,27 @@
     </row>
     <row r="11" spans="1:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F11" s="21" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F12" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F13" s="21" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F14" s="21" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F15" s="21" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2496,7 +2435,7 @@
       <c r="G18" s="33"/>
       <c r="H18" s="34"/>
       <c r="I18" s="33" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="J18" s="33"/>
       <c r="K18" s="33"/>
@@ -2570,7 +2509,7 @@
       <c r="G20" s="29"/>
       <c r="H20" s="30"/>
       <c r="I20" s="49" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J20" s="29"/>
       <c r="K20" s="29"/>
@@ -2578,7 +2517,7 @@
       <c r="M20" s="29"/>
       <c r="N20" s="30"/>
       <c r="O20" s="44" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="P20" s="29"/>
       <c r="Q20" s="29"/>
@@ -2611,7 +2550,7 @@
       <c r="M21" s="24"/>
       <c r="N21" s="25"/>
       <c r="O21" s="51" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P21" s="24"/>
       <c r="Q21" s="24"/>
@@ -2644,7 +2583,7 @@
       <c r="M22" s="27"/>
       <c r="N22" s="31"/>
       <c r="O22" s="27" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="P22" s="27"/>
       <c r="Q22" s="27"/>
@@ -2720,12 +2659,12 @@
     </row>
     <row r="27" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F27" s="21" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F28" s="21" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="29" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2736,23 +2675,23 @@
     <row r="30" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="31" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F31" s="21" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="32" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F32" s="21" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="33" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F33" s="21" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="34" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="35" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F35" s="21" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="36" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2768,7 +2707,7 @@
         <v>24</v>
       </c>
       <c r="G37" s="21" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="38" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2800,12 +2739,12 @@
     </row>
     <row r="42" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F42" s="55" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="43" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F43" s="55" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="44" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2858,7 +2797,7 @@
         <v>7.3.3.1.</v>
       </c>
       <c r="F47" s="17" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G47" s="17"/>
       <c r="H47" s="17"/>
@@ -2894,7 +2833,7 @@
       <c r="D48" s="22"/>
       <c r="E48" s="17"/>
       <c r="F48" s="17" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="G48" s="17"/>
       <c r="H48" s="17"/>
@@ -2930,7 +2869,7 @@
       <c r="D49" s="22"/>
       <c r="E49" s="17"/>
       <c r="F49" s="17" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G49" s="17"/>
       <c r="H49" s="17"/>
@@ -3000,7 +2939,7 @@
       <c r="D51" s="22"/>
       <c r="E51" s="17"/>
       <c r="F51" s="17" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G51" s="17"/>
       <c r="H51" s="17"/>
@@ -3036,7 +2975,7 @@
       <c r="D52" s="22"/>
       <c r="E52" s="17"/>
       <c r="F52" s="17" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="G52" s="17"/>
       <c r="H52" s="17"/>
@@ -3072,7 +3011,7 @@
       <c r="D53" s="22"/>
       <c r="E53" s="22"/>
       <c r="F53" s="17" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G53" s="17"/>
       <c r="H53" s="17"/>
@@ -3142,7 +3081,7 @@
       <c r="D55" s="22"/>
       <c r="E55" s="17"/>
       <c r="F55" s="17" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G55" s="17"/>
       <c r="H55" s="17"/>
@@ -3178,7 +3117,7 @@
       <c r="D56" s="22"/>
       <c r="E56" s="17"/>
       <c r="F56" s="17" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G56" s="17"/>
       <c r="H56" s="17"/>
@@ -3248,7 +3187,7 @@
       <c r="D58" s="22"/>
       <c r="E58" s="17"/>
       <c r="F58" s="17" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G58" s="17"/>
       <c r="H58" s="17"/>
@@ -3284,7 +3223,7 @@
       <c r="D59" s="22"/>
       <c r="E59" s="17"/>
       <c r="F59" s="17" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G59" s="17"/>
       <c r="H59" s="17"/>
@@ -3357,7 +3296,7 @@
         <v>7.3.3.2.</v>
       </c>
       <c r="F61" s="17" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G61" s="17"/>
       <c r="H61" s="17"/>
@@ -3393,7 +3332,7 @@
       <c r="D62" s="22"/>
       <c r="E62" s="17"/>
       <c r="F62" s="17" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G62" s="17"/>
       <c r="H62" s="17"/>
@@ -3429,7 +3368,7 @@
       <c r="D63" s="22"/>
       <c r="E63" s="17"/>
       <c r="F63" s="17" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G63" s="17"/>
       <c r="H63" s="17"/>
@@ -3465,7 +3404,7 @@
       <c r="D64" s="22"/>
       <c r="E64" s="17"/>
       <c r="F64" s="17" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G64" s="17"/>
       <c r="H64" s="17"/>
@@ -3501,7 +3440,7 @@
       <c r="D65" s="22"/>
       <c r="E65" s="17"/>
       <c r="F65" s="21" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G65" s="17"/>
       <c r="H65" s="17"/>
@@ -3537,7 +3476,7 @@
       <c r="D66" s="22"/>
       <c r="E66" s="17"/>
       <c r="F66" s="17" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="G66" s="17"/>
       <c r="H66" s="17"/>
@@ -3573,7 +3512,7 @@
       <c r="D67" s="22"/>
       <c r="E67" s="17"/>
       <c r="F67" s="17" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G67" s="17"/>
       <c r="H67" s="17"/>
@@ -3643,7 +3582,7 @@
       <c r="D69" s="22"/>
       <c r="E69" s="17"/>
       <c r="F69" s="17" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G69" s="17"/>
       <c r="H69" s="17"/>
@@ -3679,7 +3618,7 @@
       <c r="D70" s="22"/>
       <c r="E70" s="17"/>
       <c r="F70" s="17" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G70" s="17"/>
       <c r="H70" s="17"/>
@@ -3749,7 +3688,7 @@
       <c r="D72" s="22"/>
       <c r="E72" s="17"/>
       <c r="F72" s="17" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G72" s="17"/>
       <c r="H72" s="17"/>
@@ -3785,7 +3724,7 @@
       <c r="D73" s="22"/>
       <c r="E73" s="17"/>
       <c r="F73" s="17" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G73" s="17"/>
       <c r="H73" s="17"/>
@@ -3821,7 +3760,7 @@
       <c r="D74" s="22"/>
       <c r="E74" s="17"/>
       <c r="F74" s="17" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G74" s="17"/>
       <c r="H74" s="17"/>
@@ -3894,7 +3833,7 @@
         <v>7.3.3.3.</v>
       </c>
       <c r="F76" s="17" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G76" s="17"/>
       <c r="H76" s="17"/>
@@ -3930,7 +3869,7 @@
       <c r="D77" s="22"/>
       <c r="E77" s="17"/>
       <c r="F77" s="17" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G77" s="17"/>
       <c r="H77" s="17"/>
@@ -3966,7 +3905,7 @@
       <c r="D78" s="22"/>
       <c r="E78" s="17"/>
       <c r="F78" s="21" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G78" s="17"/>
       <c r="H78" s="17"/>
@@ -4002,7 +3941,7 @@
       <c r="D79" s="22"/>
       <c r="E79" s="17"/>
       <c r="F79" s="17" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G79" s="17"/>
       <c r="H79" s="17"/>
@@ -4038,7 +3977,7 @@
       <c r="D80" s="22"/>
       <c r="E80" s="17"/>
       <c r="F80" s="17" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="G80" s="17"/>
       <c r="H80" s="17"/>
@@ -4108,14 +4047,14 @@
       <c r="D82" s="22"/>
       <c r="E82" s="17"/>
       <c r="F82" s="21" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G82" s="17"/>
       <c r="H82" s="17"/>
       <c r="I82" s="17"/>
       <c r="J82" s="17"/>
       <c r="K82" s="17" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="L82" s="17"/>
       <c r="M82" s="17"/>
@@ -4180,7 +4119,7 @@
       <c r="D84" s="22"/>
       <c r="E84" s="17"/>
       <c r="F84" s="17" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G84" s="17"/>
       <c r="H84" s="17"/>
@@ -4551,7 +4490,7 @@
       <c r="E95" s="18"/>
       <c r="F95" s="18"/>
       <c r="G95" s="18" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H95" s="18"/>
       <c r="I95" s="18"/>
@@ -4855,12 +4794,12 @@
     </row>
     <row r="106" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G106" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="107" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G107" s="21" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="108" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4966,7 +4905,7 @@
       <c r="J113" s="29"/>
       <c r="K113" s="29"/>
       <c r="L113" s="28" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="M113" s="29"/>
       <c r="N113" s="29"/>
@@ -5001,7 +4940,7 @@
       <c r="J114" s="27"/>
       <c r="K114" s="27"/>
       <c r="L114" s="26" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M114" s="27"/>
       <c r="N114" s="27"/>
@@ -5111,12 +5050,12 @@
     </row>
     <row r="118" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G118" s="21" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="119" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G119" s="21" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="120" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5179,7 +5118,7 @@
       <c r="D125" s="20"/>
       <c r="E125" s="20"/>
       <c r="G125" s="28" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H125" s="29"/>
       <c r="I125" s="29"/>
@@ -5286,14 +5225,14 @@
       <c r="D128" s="20"/>
       <c r="E128" s="20"/>
       <c r="G128" s="28" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H128" s="29"/>
       <c r="I128" s="29"/>
       <c r="J128" s="29"/>
       <c r="K128" s="29"/>
       <c r="L128" s="28" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M128" s="29"/>
       <c r="N128" s="29"/>
@@ -5328,7 +5267,7 @@
       <c r="J129" s="24"/>
       <c r="K129" s="24"/>
       <c r="L129" s="23" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M129" s="24"/>
       <c r="N129" s="24"/>
@@ -5474,12 +5413,12 @@
       <c r="I134" s="24"/>
       <c r="J134" s="24"/>
       <c r="K134" s="23" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L134" s="24"/>
       <c r="M134" s="25"/>
       <c r="N134" s="24" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="O134" s="24"/>
       <c r="P134" s="24"/>
@@ -5511,7 +5450,7 @@
       <c r="L135" s="24"/>
       <c r="M135" s="25"/>
       <c r="N135" s="24" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="O135" s="24"/>
       <c r="P135" s="24"/>
@@ -5543,7 +5482,7 @@
       <c r="L136" s="24"/>
       <c r="M136" s="25"/>
       <c r="N136" s="24" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="O136" s="24"/>
       <c r="P136" s="24"/>
@@ -5574,7 +5513,7 @@
       <c r="I137" s="29"/>
       <c r="J137" s="29"/>
       <c r="K137" s="28" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L137" s="29"/>
       <c r="M137" s="30"/>
@@ -5611,7 +5550,7 @@
       <c r="L138" s="27"/>
       <c r="M138" s="31"/>
       <c r="N138" s="27" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O138" s="27"/>
       <c r="P138" s="27"/>
@@ -5672,7 +5611,7 @@
       <c r="D140" s="20"/>
       <c r="E140" s="20"/>
       <c r="G140" s="21" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="141" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5713,19 +5652,19 @@
     </row>
     <row r="142" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G142" s="23" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H142" s="24"/>
       <c r="I142" s="24"/>
       <c r="J142" s="25"/>
       <c r="K142" s="24" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="L142" s="24"/>
       <c r="M142" s="24"/>
       <c r="N142" s="25"/>
       <c r="O142" s="24" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="P142" s="24"/>
       <c r="Q142" s="24"/>
@@ -5753,13 +5692,13 @@
       <c r="I143" s="24"/>
       <c r="J143" s="25"/>
       <c r="K143" s="24" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="L143" s="24"/>
       <c r="M143" s="24"/>
       <c r="N143" s="25"/>
       <c r="O143" s="24" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="P143" s="24"/>
       <c r="Q143" s="24"/>
@@ -5787,7 +5726,7 @@
       <c r="I144" s="27"/>
       <c r="J144" s="31"/>
       <c r="K144" s="27" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="L144" s="27"/>
       <c r="M144" s="27"/>
@@ -5815,19 +5754,19 @@
     </row>
     <row r="145" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G145" s="23" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H145" s="24"/>
       <c r="I145" s="24"/>
       <c r="J145" s="25"/>
       <c r="K145" s="24" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="L145" s="24"/>
       <c r="M145" s="24"/>
       <c r="N145" s="25"/>
       <c r="O145" s="24" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="P145" s="24"/>
       <c r="Q145" s="24"/>
@@ -5855,13 +5794,13 @@
       <c r="I146" s="24"/>
       <c r="J146" s="25"/>
       <c r="K146" s="24" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="L146" s="24"/>
       <c r="M146" s="24"/>
       <c r="N146" s="25"/>
       <c r="O146" s="24" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="P146" s="24"/>
       <c r="Q146" s="24"/>
@@ -5951,7 +5890,7 @@
         <v>7.3.4.4.3.</v>
       </c>
       <c r="G149" s="18" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H149" s="18"/>
       <c r="I149" s="18"/>
@@ -6019,7 +5958,7 @@
       <c r="E151" s="16"/>
       <c r="F151" s="18"/>
       <c r="G151" s="18" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H151" s="18"/>
       <c r="I151" s="18"/>
@@ -6054,7 +5993,7 @@
       <c r="E152" s="16"/>
       <c r="F152" s="18"/>
       <c r="G152" s="18" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H152" s="18"/>
       <c r="I152" s="18"/>
@@ -6121,7 +6060,7 @@
       <c r="E154" s="16"/>
       <c r="F154" s="18"/>
       <c r="G154" s="18" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H154" s="18"/>
       <c r="I154" s="18"/>
@@ -6156,7 +6095,7 @@
       <c r="E155" s="16"/>
       <c r="F155" s="18"/>
       <c r="G155" s="18" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H155" s="18"/>
       <c r="I155" s="18"/>
@@ -6307,14 +6246,14 @@
       <c r="E160" s="22"/>
       <c r="F160" s="22"/>
       <c r="G160" s="21" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="161" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E161" s="22"/>
       <c r="F161" s="22"/>
       <c r="G161" s="21" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="162" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6533,7 +6472,7 @@
       <c r="J172" s="24"/>
       <c r="K172" s="24"/>
       <c r="L172" s="23" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="M172" s="24"/>
       <c r="N172" s="24"/>
@@ -6568,7 +6507,7 @@
       <c r="J173" s="27"/>
       <c r="K173" s="27"/>
       <c r="L173" s="26" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M173" s="27"/>
       <c r="N173" s="27"/>
@@ -6688,7 +6627,7 @@
       <c r="N177" s="24"/>
       <c r="O177" s="25"/>
       <c r="P177" s="24" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Q177" s="24"/>
       <c r="R177" s="24"/>
@@ -6719,7 +6658,7 @@
       <c r="J178" s="46"/>
       <c r="K178" s="47"/>
       <c r="L178" s="46" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M178" s="46"/>
       <c r="N178" s="46"/>
@@ -6999,7 +6938,7 @@
       <c r="W185" s="53"/>
       <c r="X185" s="54"/>
       <c r="Y185" s="53" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="Z185" s="53"/>
       <c r="AA185" s="53"/>
@@ -7035,7 +6974,7 @@
       <c r="W186" s="42"/>
       <c r="X186" s="43"/>
       <c r="Y186" s="42" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="Z186" s="42"/>
       <c r="AA186" s="42"/>
@@ -7075,7 +7014,7 @@
       <c r="W187" s="53"/>
       <c r="X187" s="54"/>
       <c r="Y187" s="52" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="Z187" s="53"/>
       <c r="AA187" s="53"/>
@@ -7113,7 +7052,7 @@
       <c r="W188" s="42"/>
       <c r="X188" s="43"/>
       <c r="Y188" s="41" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="Z188" s="42"/>
       <c r="AA188" s="42"/>
@@ -7161,242 +7100,7 @@
       <c r="AI189" s="18"/>
     </row>
     <row r="190" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D190" s="16"/>
-      <c r="E190" s="18"/>
-      <c r="F190" s="18"/>
-      <c r="G190" s="18"/>
-      <c r="H190" s="18"/>
-      <c r="I190" s="18"/>
-      <c r="J190" s="18"/>
-      <c r="K190" s="18"/>
-      <c r="L190" s="18"/>
-      <c r="M190" s="18"/>
-      <c r="N190" s="18"/>
-      <c r="O190" s="18"/>
-      <c r="P190" s="18"/>
-      <c r="Q190" s="18"/>
-      <c r="R190" s="18"/>
-      <c r="S190" s="18"/>
-      <c r="T190" s="18"/>
-      <c r="U190" s="18"/>
-      <c r="V190" s="18"/>
-      <c r="W190" s="18"/>
-      <c r="X190" s="18"/>
-      <c r="Y190" s="18"/>
-      <c r="Z190" s="18"/>
-      <c r="AA190" s="18"/>
-      <c r="AB190" s="18"/>
-      <c r="AC190" s="18"/>
-      <c r="AD190" s="18"/>
-      <c r="AE190" s="18"/>
-      <c r="AF190" s="18"/>
-      <c r="AG190" s="18"/>
-      <c r="AH190" s="18"/>
-      <c r="AI190" s="18"/>
-    </row>
-    <row r="191" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D191" s="22" t="str">
-        <f>$C$7&amp;"5."</f>
-        <v>7.3.5.</v>
-      </c>
-      <c r="E191" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="F191" s="18"/>
-      <c r="G191" s="18"/>
-      <c r="H191" s="18"/>
-      <c r="I191" s="18"/>
-      <c r="J191" s="18"/>
-      <c r="K191" s="18"/>
-      <c r="L191" s="18"/>
-      <c r="M191" s="18"/>
-      <c r="N191" s="18"/>
-      <c r="O191" s="18"/>
-      <c r="P191" s="18"/>
-      <c r="Q191" s="18"/>
-      <c r="R191" s="18"/>
-      <c r="S191" s="18"/>
-      <c r="T191" s="18"/>
-      <c r="U191" s="18"/>
-      <c r="V191" s="18"/>
-      <c r="W191" s="18"/>
-      <c r="X191" s="18"/>
-      <c r="Y191" s="18"/>
-      <c r="Z191" s="18"/>
-      <c r="AA191" s="18"/>
-      <c r="AB191" s="18"/>
-      <c r="AC191" s="18"/>
-      <c r="AD191" s="18"/>
-      <c r="AE191" s="18"/>
-      <c r="AF191" s="18"/>
-      <c r="AG191" s="18"/>
-      <c r="AH191" s="18"/>
-      <c r="AI191" s="18"/>
-    </row>
-    <row r="192" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C192" s="20"/>
-      <c r="D192" s="22"/>
-      <c r="F192" s="18"/>
-      <c r="G192" s="18"/>
-      <c r="H192" s="18"/>
-      <c r="I192" s="18"/>
-      <c r="J192" s="18"/>
-      <c r="K192" s="18"/>
-      <c r="L192" s="18"/>
-      <c r="M192" s="18"/>
-      <c r="N192" s="18"/>
-      <c r="O192" s="18"/>
-      <c r="P192" s="18"/>
-      <c r="Q192" s="18"/>
-      <c r="R192" s="18"/>
-      <c r="S192" s="18"/>
-      <c r="T192" s="18"/>
-      <c r="U192" s="18"/>
-      <c r="V192" s="18"/>
-      <c r="W192" s="18"/>
-      <c r="X192" s="18"/>
-      <c r="Y192" s="18"/>
-      <c r="Z192" s="18"/>
-      <c r="AA192" s="18"/>
-      <c r="AB192" s="18"/>
-      <c r="AC192" s="18"/>
-      <c r="AD192" s="18"/>
-      <c r="AE192" s="18"/>
-      <c r="AF192" s="18"/>
-      <c r="AG192" s="18"/>
-      <c r="AH192" s="18"/>
-      <c r="AI192" s="18"/>
-    </row>
-    <row r="193" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C193" s="20"/>
-      <c r="D193" s="22"/>
-      <c r="E193" s="22" t="str">
-        <f>$D$191&amp;"1."</f>
-        <v>7.3.5.1.</v>
-      </c>
-      <c r="F193" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="G193" s="18"/>
-      <c r="H193" s="18"/>
-      <c r="I193" s="18"/>
-      <c r="J193" s="18"/>
-      <c r="K193" s="18"/>
-      <c r="L193" s="18"/>
-      <c r="M193" s="18"/>
-      <c r="N193" s="18"/>
-      <c r="O193" s="18"/>
-      <c r="P193" s="18"/>
-      <c r="Q193" s="18"/>
-      <c r="R193" s="18"/>
-      <c r="S193" s="18"/>
-      <c r="T193" s="18"/>
-      <c r="U193" s="18"/>
-      <c r="V193" s="18"/>
-      <c r="W193" s="18"/>
-      <c r="X193" s="18"/>
-      <c r="Y193" s="18"/>
-      <c r="Z193" s="18"/>
-      <c r="AA193" s="18"/>
-      <c r="AB193" s="18"/>
-      <c r="AC193" s="18"/>
-      <c r="AD193" s="18"/>
-      <c r="AE193" s="18"/>
-      <c r="AF193" s="18"/>
-      <c r="AG193" s="18"/>
-      <c r="AH193" s="18"/>
-      <c r="AI193" s="18"/>
-    </row>
-    <row r="194" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C194" s="20"/>
-      <c r="D194" s="22"/>
-      <c r="E194" s="17"/>
-      <c r="F194" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="G194" s="18"/>
-      <c r="H194" s="18"/>
-      <c r="I194" s="18"/>
-      <c r="J194" s="18"/>
-      <c r="K194" s="18"/>
-      <c r="L194" s="18"/>
-      <c r="M194" s="18"/>
-      <c r="N194" s="18"/>
-      <c r="O194" s="18"/>
-      <c r="P194" s="18"/>
-      <c r="Q194" s="18"/>
-      <c r="R194" s="18"/>
-      <c r="S194" s="18"/>
-      <c r="T194" s="18"/>
-      <c r="U194" s="18"/>
-      <c r="V194" s="18"/>
-      <c r="W194" s="18"/>
-      <c r="X194" s="18"/>
-      <c r="Y194" s="18"/>
-      <c r="Z194" s="18"/>
-      <c r="AA194" s="18"/>
-      <c r="AB194" s="18"/>
-      <c r="AC194" s="18"/>
-      <c r="AD194" s="18"/>
-      <c r="AE194" s="18"/>
-      <c r="AF194" s="18"/>
-      <c r="AG194" s="18"/>
-      <c r="AH194" s="18"/>
-      <c r="AI194" s="18"/>
-    </row>
-    <row r="195" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C195" s="20"/>
-      <c r="D195" s="22"/>
-      <c r="E195" s="17"/>
-      <c r="F195" s="18"/>
-      <c r="G195" s="18"/>
-      <c r="H195" s="18"/>
-      <c r="I195" s="18"/>
-      <c r="J195" s="18"/>
-      <c r="K195" s="18"/>
-      <c r="L195" s="18"/>
-      <c r="M195" s="18"/>
-      <c r="N195" s="18"/>
-      <c r="O195" s="18"/>
-      <c r="P195" s="18"/>
-      <c r="Q195" s="18"/>
-      <c r="R195" s="18"/>
-      <c r="S195" s="18"/>
-      <c r="T195" s="18"/>
-      <c r="U195" s="18"/>
-      <c r="V195" s="18"/>
-      <c r="W195" s="18"/>
-      <c r="X195" s="18"/>
-      <c r="Y195" s="18"/>
-      <c r="Z195" s="18"/>
-      <c r="AA195" s="18"/>
-      <c r="AB195" s="18"/>
-      <c r="AC195" s="18"/>
-      <c r="AD195" s="18"/>
-      <c r="AE195" s="18"/>
-      <c r="AF195" s="18"/>
-      <c r="AG195" s="18"/>
-      <c r="AH195" s="18"/>
-      <c r="AI195" s="18"/>
-    </row>
-    <row r="196" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C196" s="20"/>
-      <c r="E196" s="22" t="str">
-        <f>$D$191&amp;"2."</f>
-        <v>7.3.5.2.</v>
-      </c>
-      <c r="F196" s="17" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="197" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C197" s="20"/>
-      <c r="F197" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="198" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C198" s="20"/>
+      <c r="C190" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.3DBアクセス処理.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.3DBアクセス処理.xlsx
@@ -1,9 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{176C7F3E-DA87-49ED-B5B2-BAD6E39A2248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\gitbucket\Fintan\application-architecture-sample\nablarch_sample\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1DF82B0-739C-486A-8322-75C9A418955D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,9 +17,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'7.3.DBアクセス処理'!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'7.3.DBアクセス処理'!$A$1:$AI$190</definedName>
-    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'7.3.DBアクセス処理'!$A$1:$AI$189</definedName>
-    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'7.3.DBアクセス処理'!$A$1:$AI$189</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'7.3.DBアクセス処理'!$A$1:$AI$189</definedName>
+    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'7.3.DBアクセス処理'!$A$1:$AI$188</definedName>
+    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'7.3.DBアクセス処理'!$A$1:$AI$188</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -173,16 +178,6 @@
     </rPh>
     <rPh sb="12" eb="14">
       <t>シュウリョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>PJ固有の要件</t>
-    <rPh sb="2" eb="4">
-      <t>コユウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヨウケン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1411,6 +1406,25 @@
   </si>
   <si>
     <t>さらに、プリペアードステートメントのSQL文自体がプログラム内で動的に作成されることを防ぐために、外部の静的ファイルに記述された</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>物理削除は以下の方針で実施する。</t>
+    <rPh sb="0" eb="2">
+      <t>ブツリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ホウシン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジッシ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2207,10 +2221,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+  <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI190"/>
+  <dimension ref="A1:AI189"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -2242,7 +2256,7 @@
       </c>
       <c r="Q1" s="2"/>
       <c r="R1" s="62" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="S1" s="63"/>
       <c r="T1" s="63"/>
@@ -2394,27 +2408,27 @@
     </row>
     <row r="11" spans="1:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F11" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F12" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F13" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F14" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F15" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2430,12 +2444,12 @@
     </row>
     <row r="18" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F18" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G18" s="33"/>
       <c r="H18" s="34"/>
       <c r="I18" s="33" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J18" s="33"/>
       <c r="K18" s="33"/>
@@ -2467,12 +2481,12 @@
     </row>
     <row r="19" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F19" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G19" s="24"/>
       <c r="H19" s="25"/>
       <c r="I19" s="48" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J19" s="24"/>
       <c r="K19" s="24"/>
@@ -2480,7 +2494,7 @@
       <c r="M19" s="24"/>
       <c r="N19" s="25"/>
       <c r="O19" s="24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P19" s="24"/>
       <c r="Q19" s="24"/>
@@ -2504,12 +2518,12 @@
     </row>
     <row r="20" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F20" s="28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G20" s="29"/>
       <c r="H20" s="30"/>
       <c r="I20" s="49" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J20" s="29"/>
       <c r="K20" s="29"/>
@@ -2517,7 +2531,7 @@
       <c r="M20" s="29"/>
       <c r="N20" s="30"/>
       <c r="O20" s="44" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P20" s="29"/>
       <c r="Q20" s="29"/>
@@ -2550,7 +2564,7 @@
       <c r="M21" s="24"/>
       <c r="N21" s="25"/>
       <c r="O21" s="51" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P21" s="24"/>
       <c r="Q21" s="24"/>
@@ -2583,7 +2597,7 @@
       <c r="M22" s="27"/>
       <c r="N22" s="31"/>
       <c r="O22" s="27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P22" s="27"/>
       <c r="Q22" s="27"/>
@@ -2659,12 +2673,12 @@
     </row>
     <row r="27" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F27" s="21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F28" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="29" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2675,23 +2689,23 @@
     <row r="30" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="31" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F31" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="32" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F32" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="33" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F33" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="34" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="35" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F35" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="36" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2707,7 +2721,7 @@
         <v>24</v>
       </c>
       <c r="G37" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="38" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2739,12 +2753,12 @@
     </row>
     <row r="42" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F42" s="55" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="43" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F43" s="55" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="44" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2797,7 +2811,7 @@
         <v>7.3.3.1.</v>
       </c>
       <c r="F47" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G47" s="17"/>
       <c r="H47" s="17"/>
@@ -2833,7 +2847,7 @@
       <c r="D48" s="22"/>
       <c r="E48" s="17"/>
       <c r="F48" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G48" s="17"/>
       <c r="H48" s="17"/>
@@ -2869,7 +2883,7 @@
       <c r="D49" s="22"/>
       <c r="E49" s="17"/>
       <c r="F49" s="17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G49" s="17"/>
       <c r="H49" s="17"/>
@@ -2939,7 +2953,7 @@
       <c r="D51" s="22"/>
       <c r="E51" s="17"/>
       <c r="F51" s="17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G51" s="17"/>
       <c r="H51" s="17"/>
@@ -2975,7 +2989,7 @@
       <c r="D52" s="22"/>
       <c r="E52" s="17"/>
       <c r="F52" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G52" s="17"/>
       <c r="H52" s="17"/>
@@ -3011,7 +3025,7 @@
       <c r="D53" s="22"/>
       <c r="E53" s="22"/>
       <c r="F53" s="17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G53" s="17"/>
       <c r="H53" s="17"/>
@@ -3081,7 +3095,7 @@
       <c r="D55" s="22"/>
       <c r="E55" s="17"/>
       <c r="F55" s="17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G55" s="17"/>
       <c r="H55" s="17"/>
@@ -3117,7 +3131,7 @@
       <c r="D56" s="22"/>
       <c r="E56" s="17"/>
       <c r="F56" s="17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G56" s="17"/>
       <c r="H56" s="17"/>
@@ -3187,7 +3201,7 @@
       <c r="D58" s="22"/>
       <c r="E58" s="17"/>
       <c r="F58" s="17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G58" s="17"/>
       <c r="H58" s="17"/>
@@ -3223,7 +3237,7 @@
       <c r="D59" s="22"/>
       <c r="E59" s="17"/>
       <c r="F59" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G59" s="17"/>
       <c r="H59" s="17"/>
@@ -3296,7 +3310,7 @@
         <v>7.3.3.2.</v>
       </c>
       <c r="F61" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G61" s="17"/>
       <c r="H61" s="17"/>
@@ -3332,7 +3346,7 @@
       <c r="D62" s="22"/>
       <c r="E62" s="17"/>
       <c r="F62" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G62" s="17"/>
       <c r="H62" s="17"/>
@@ -3368,7 +3382,7 @@
       <c r="D63" s="22"/>
       <c r="E63" s="17"/>
       <c r="F63" s="17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G63" s="17"/>
       <c r="H63" s="17"/>
@@ -3404,7 +3418,7 @@
       <c r="D64" s="22"/>
       <c r="E64" s="17"/>
       <c r="F64" s="17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G64" s="17"/>
       <c r="H64" s="17"/>
@@ -3440,7 +3454,7 @@
       <c r="D65" s="22"/>
       <c r="E65" s="17"/>
       <c r="F65" s="21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G65" s="17"/>
       <c r="H65" s="17"/>
@@ -3476,7 +3490,7 @@
       <c r="D66" s="22"/>
       <c r="E66" s="17"/>
       <c r="F66" s="17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G66" s="17"/>
       <c r="H66" s="17"/>
@@ -3512,7 +3526,7 @@
       <c r="D67" s="22"/>
       <c r="E67" s="17"/>
       <c r="F67" s="17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G67" s="17"/>
       <c r="H67" s="17"/>
@@ -3582,7 +3596,7 @@
       <c r="D69" s="22"/>
       <c r="E69" s="17"/>
       <c r="F69" s="17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G69" s="17"/>
       <c r="H69" s="17"/>
@@ -3618,7 +3632,7 @@
       <c r="D70" s="22"/>
       <c r="E70" s="17"/>
       <c r="F70" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G70" s="17"/>
       <c r="H70" s="17"/>
@@ -3688,7 +3702,7 @@
       <c r="D72" s="22"/>
       <c r="E72" s="17"/>
       <c r="F72" s="17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G72" s="17"/>
       <c r="H72" s="17"/>
@@ -3724,7 +3738,7 @@
       <c r="D73" s="22"/>
       <c r="E73" s="17"/>
       <c r="F73" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G73" s="17"/>
       <c r="H73" s="17"/>
@@ -3760,7 +3774,7 @@
       <c r="D74" s="22"/>
       <c r="E74" s="17"/>
       <c r="F74" s="17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G74" s="17"/>
       <c r="H74" s="17"/>
@@ -3833,7 +3847,7 @@
         <v>7.3.3.3.</v>
       </c>
       <c r="F76" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G76" s="17"/>
       <c r="H76" s="17"/>
@@ -3869,7 +3883,7 @@
       <c r="D77" s="22"/>
       <c r="E77" s="17"/>
       <c r="F77" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G77" s="17"/>
       <c r="H77" s="17"/>
@@ -3905,7 +3919,7 @@
       <c r="D78" s="22"/>
       <c r="E78" s="17"/>
       <c r="F78" s="21" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G78" s="17"/>
       <c r="H78" s="17"/>
@@ -3941,7 +3955,7 @@
       <c r="D79" s="22"/>
       <c r="E79" s="17"/>
       <c r="F79" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G79" s="17"/>
       <c r="H79" s="17"/>
@@ -3977,7 +3991,7 @@
       <c r="D80" s="22"/>
       <c r="E80" s="17"/>
       <c r="F80" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G80" s="17"/>
       <c r="H80" s="17"/>
@@ -4047,14 +4061,14 @@
       <c r="D82" s="22"/>
       <c r="E82" s="17"/>
       <c r="F82" s="21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G82" s="17"/>
       <c r="H82" s="17"/>
       <c r="I82" s="17"/>
       <c r="J82" s="17"/>
       <c r="K82" s="17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L82" s="17"/>
       <c r="M82" s="17"/>
@@ -4119,7 +4133,7 @@
       <c r="D84" s="22"/>
       <c r="E84" s="17"/>
       <c r="F84" s="17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G84" s="17"/>
       <c r="H84" s="17"/>
@@ -4302,7 +4316,7 @@
         <v>7.3.4.1.1.</v>
       </c>
       <c r="G89" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="90" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4310,7 +4324,7 @@
       <c r="E90" s="18"/>
       <c r="F90" s="18"/>
       <c r="G90" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H90" s="18"/>
       <c r="I90" s="18"/>
@@ -4346,7 +4360,7 @@
       <c r="E91" s="18"/>
       <c r="F91" s="18"/>
       <c r="G91" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H91" s="18"/>
       <c r="I91" s="18"/>
@@ -4382,7 +4396,7 @@
       <c r="E92" s="19"/>
       <c r="F92" s="18"/>
       <c r="G92" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H92" s="18"/>
       <c r="I92" s="18"/>
@@ -4418,7 +4432,7 @@
       <c r="E93" s="19"/>
       <c r="F93" s="18"/>
       <c r="G93" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H93" s="18"/>
       <c r="I93" s="18"/>
@@ -4454,7 +4468,7 @@
       <c r="E94" s="18"/>
       <c r="F94" s="18"/>
       <c r="G94" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H94" s="18"/>
       <c r="I94" s="18"/>
@@ -4490,7 +4504,7 @@
       <c r="E95" s="18"/>
       <c r="F95" s="18"/>
       <c r="G95" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H95" s="18"/>
       <c r="I95" s="18"/>
@@ -4561,7 +4575,7 @@
         <v>7.3.4.2.</v>
       </c>
       <c r="F97" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G97" s="17"/>
       <c r="H97" s="17"/>
@@ -4605,13 +4619,13 @@
     </row>
     <row r="99" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G99" s="32" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H99" s="33"/>
       <c r="I99" s="33"/>
       <c r="J99" s="34"/>
       <c r="K99" s="33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L99" s="33"/>
       <c r="M99" s="33"/>
@@ -4639,13 +4653,13 @@
     </row>
     <row r="100" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G100" s="45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H100" s="46"/>
       <c r="I100" s="46"/>
       <c r="J100" s="47"/>
       <c r="K100" s="46" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L100" s="46"/>
       <c r="M100" s="46"/>
@@ -4744,7 +4758,7 @@
         <v>7.3.4.3.</v>
       </c>
       <c r="F103" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G103" s="17"/>
       <c r="H103" s="17"/>
@@ -4789,17 +4803,17 @@
     </row>
     <row r="105" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G105" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="106" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G106" s="21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="107" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G107" s="21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="108" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4861,14 +4875,14 @@
       <c r="D112" s="20"/>
       <c r="E112" s="20"/>
       <c r="G112" s="28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H112" s="29"/>
       <c r="I112" s="29"/>
       <c r="J112" s="29"/>
       <c r="K112" s="29"/>
       <c r="L112" s="28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M112" s="29"/>
       <c r="N112" s="29"/>
@@ -4898,14 +4912,14 @@
       <c r="D113" s="20"/>
       <c r="E113" s="20"/>
       <c r="G113" s="28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H113" s="29"/>
       <c r="I113" s="29"/>
       <c r="J113" s="29"/>
       <c r="K113" s="29"/>
       <c r="L113" s="28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M113" s="29"/>
       <c r="N113" s="29"/>
@@ -4940,7 +4954,7 @@
       <c r="J114" s="27"/>
       <c r="K114" s="27"/>
       <c r="L114" s="26" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M114" s="27"/>
       <c r="N114" s="27"/>
@@ -5005,7 +5019,7 @@
         <v>7.3.4.4.</v>
       </c>
       <c r="F116" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G116" s="17"/>
       <c r="H116" s="17"/>
@@ -5050,12 +5064,12 @@
     </row>
     <row r="118" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G118" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="119" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G119" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="120" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5118,14 +5132,14 @@
       <c r="D125" s="20"/>
       <c r="E125" s="20"/>
       <c r="G125" s="28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H125" s="29"/>
       <c r="I125" s="29"/>
       <c r="J125" s="29"/>
       <c r="K125" s="29"/>
       <c r="L125" s="28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M125" s="29"/>
       <c r="N125" s="29"/>
@@ -5160,7 +5174,7 @@
       <c r="J126" s="24"/>
       <c r="K126" s="24"/>
       <c r="L126" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M126" s="24"/>
       <c r="N126" s="24"/>
@@ -5195,7 +5209,7 @@
       <c r="J127" s="24"/>
       <c r="K127" s="24"/>
       <c r="L127" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M127" s="24"/>
       <c r="N127" s="24"/>
@@ -5225,14 +5239,14 @@
       <c r="D128" s="20"/>
       <c r="E128" s="20"/>
       <c r="G128" s="28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H128" s="29"/>
       <c r="I128" s="29"/>
       <c r="J128" s="29"/>
       <c r="K128" s="29"/>
       <c r="L128" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M128" s="29"/>
       <c r="N128" s="29"/>
@@ -5267,7 +5281,7 @@
       <c r="J129" s="24"/>
       <c r="K129" s="24"/>
       <c r="L129" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M129" s="24"/>
       <c r="N129" s="24"/>
@@ -5302,7 +5316,7 @@
       <c r="J130" s="27"/>
       <c r="K130" s="27"/>
       <c r="L130" s="26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M130" s="27"/>
       <c r="N130" s="27"/>
@@ -5371,7 +5385,7 @@
     </row>
     <row r="133" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G133" s="32" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H133" s="33"/>
       <c r="I133" s="33"/>
@@ -5382,7 +5396,7 @@
       <c r="L133" s="33"/>
       <c r="M133" s="34"/>
       <c r="N133" s="33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O133" s="33"/>
       <c r="P133" s="33"/>
@@ -5407,18 +5421,18 @@
     </row>
     <row r="134" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G134" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H134" s="24"/>
       <c r="I134" s="24"/>
       <c r="J134" s="24"/>
       <c r="K134" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L134" s="24"/>
       <c r="M134" s="25"/>
       <c r="N134" s="24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O134" s="24"/>
       <c r="P134" s="24"/>
@@ -5450,7 +5464,7 @@
       <c r="L135" s="24"/>
       <c r="M135" s="25"/>
       <c r="N135" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O135" s="24"/>
       <c r="P135" s="24"/>
@@ -5482,7 +5496,7 @@
       <c r="L136" s="24"/>
       <c r="M136" s="25"/>
       <c r="N136" s="24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O136" s="24"/>
       <c r="P136" s="24"/>
@@ -5507,18 +5521,18 @@
     </row>
     <row r="137" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G137" s="28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H137" s="29"/>
       <c r="I137" s="29"/>
       <c r="J137" s="29"/>
       <c r="K137" s="28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L137" s="29"/>
       <c r="M137" s="30"/>
       <c r="N137" s="29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O137" s="29"/>
       <c r="P137" s="29"/>
@@ -5550,7 +5564,7 @@
       <c r="L138" s="27"/>
       <c r="M138" s="31"/>
       <c r="N138" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O138" s="27"/>
       <c r="P138" s="27"/>
@@ -5611,7 +5625,7 @@
       <c r="D140" s="20"/>
       <c r="E140" s="20"/>
       <c r="G140" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="141" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5628,7 +5642,7 @@
       <c r="M141" s="33"/>
       <c r="N141" s="34"/>
       <c r="O141" s="33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P141" s="33"/>
       <c r="Q141" s="33"/>
@@ -5652,19 +5666,19 @@
     </row>
     <row r="142" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G142" s="23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H142" s="24"/>
       <c r="I142" s="24"/>
       <c r="J142" s="25"/>
       <c r="K142" s="24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L142" s="24"/>
       <c r="M142" s="24"/>
       <c r="N142" s="25"/>
       <c r="O142" s="24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P142" s="24"/>
       <c r="Q142" s="24"/>
@@ -5692,13 +5706,13 @@
       <c r="I143" s="24"/>
       <c r="J143" s="25"/>
       <c r="K143" s="24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L143" s="24"/>
       <c r="M143" s="24"/>
       <c r="N143" s="25"/>
       <c r="O143" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P143" s="24"/>
       <c r="Q143" s="24"/>
@@ -5726,7 +5740,7 @@
       <c r="I144" s="27"/>
       <c r="J144" s="31"/>
       <c r="K144" s="27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L144" s="27"/>
       <c r="M144" s="27"/>
@@ -5754,19 +5768,19 @@
     </row>
     <row r="145" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G145" s="23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H145" s="24"/>
       <c r="I145" s="24"/>
       <c r="J145" s="25"/>
       <c r="K145" s="24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L145" s="24"/>
       <c r="M145" s="24"/>
       <c r="N145" s="25"/>
       <c r="O145" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P145" s="24"/>
       <c r="Q145" s="24"/>
@@ -5794,13 +5808,13 @@
       <c r="I146" s="24"/>
       <c r="J146" s="25"/>
       <c r="K146" s="24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L146" s="24"/>
       <c r="M146" s="24"/>
       <c r="N146" s="25"/>
       <c r="O146" s="24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P146" s="24"/>
       <c r="Q146" s="24"/>
@@ -5890,7 +5904,7 @@
         <v>7.3.4.4.3.</v>
       </c>
       <c r="G149" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H149" s="18"/>
       <c r="I149" s="18"/>
@@ -5958,7 +5972,7 @@
       <c r="E151" s="16"/>
       <c r="F151" s="18"/>
       <c r="G151" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H151" s="18"/>
       <c r="I151" s="18"/>
@@ -5993,7 +6007,7 @@
       <c r="E152" s="16"/>
       <c r="F152" s="18"/>
       <c r="G152" s="18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H152" s="18"/>
       <c r="I152" s="18"/>
@@ -6060,7 +6074,7 @@
       <c r="E154" s="16"/>
       <c r="F154" s="18"/>
       <c r="G154" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H154" s="18"/>
       <c r="I154" s="18"/>
@@ -6095,7 +6109,7 @@
       <c r="E155" s="16"/>
       <c r="F155" s="18"/>
       <c r="G155" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H155" s="18"/>
       <c r="I155" s="18"/>
@@ -6199,7 +6213,7 @@
         <v>7.3.4.5.</v>
       </c>
       <c r="F158" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G158" s="17"/>
       <c r="H158" s="17"/>
@@ -6246,21 +6260,21 @@
       <c r="E160" s="22"/>
       <c r="F160" s="22"/>
       <c r="G160" s="21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="161" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E161" s="22"/>
       <c r="F161" s="22"/>
       <c r="G161" s="21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="162" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E162" s="22"/>
       <c r="F162" s="22"/>
       <c r="G162" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="163" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6323,14 +6337,14 @@
       <c r="D168" s="20"/>
       <c r="E168" s="20"/>
       <c r="G168" s="28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H168" s="29"/>
       <c r="I168" s="29"/>
       <c r="J168" s="29"/>
       <c r="K168" s="29"/>
       <c r="L168" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M168" s="29"/>
       <c r="N168" s="29"/>
@@ -6365,7 +6379,7 @@
       <c r="J169" s="24"/>
       <c r="K169" s="24"/>
       <c r="L169" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M169" s="24"/>
       <c r="N169" s="24"/>
@@ -6395,14 +6409,14 @@
       <c r="D170" s="20"/>
       <c r="E170" s="20"/>
       <c r="G170" s="28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H170" s="29"/>
       <c r="I170" s="29"/>
       <c r="J170" s="29"/>
       <c r="K170" s="29"/>
       <c r="L170" s="28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M170" s="29"/>
       <c r="N170" s="29"/>
@@ -6437,7 +6451,7 @@
       <c r="J171" s="24"/>
       <c r="K171" s="24"/>
       <c r="L171" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M171" s="24"/>
       <c r="N171" s="24"/>
@@ -6472,7 +6486,7 @@
       <c r="J172" s="24"/>
       <c r="K172" s="24"/>
       <c r="L172" s="23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M172" s="24"/>
       <c r="N172" s="24"/>
@@ -6507,7 +6521,7 @@
       <c r="J173" s="27"/>
       <c r="K173" s="27"/>
       <c r="L173" s="26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M173" s="27"/>
       <c r="N173" s="27"/>
@@ -6627,7 +6641,7 @@
       <c r="N177" s="24"/>
       <c r="O177" s="25"/>
       <c r="P177" s="24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q177" s="24"/>
       <c r="R177" s="24"/>
@@ -6658,13 +6672,13 @@
       <c r="J178" s="46"/>
       <c r="K178" s="47"/>
       <c r="L178" s="46" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M178" s="46"/>
       <c r="N178" s="46"/>
       <c r="O178" s="47"/>
       <c r="P178" s="46" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q178" s="46"/>
       <c r="R178" s="46"/>
@@ -6721,12 +6735,9 @@
     <row r="180" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D180" s="16"/>
       <c r="E180" s="18"/>
-      <c r="F180" s="22" t="str">
-        <f>E158&amp;"3."</f>
-        <v>7.3.4.5.3.</v>
-      </c>
+      <c r="F180" s="22"/>
       <c r="G180" s="21" t="s">
-        <v>29</v>
+        <v>174</v>
       </c>
       <c r="H180" s="18"/>
       <c r="I180" s="18"/>
@@ -6760,95 +6771,99 @@
     <row r="181" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D181" s="16"/>
       <c r="E181" s="18"/>
-      <c r="F181" s="21"/>
-      <c r="G181" s="21"/>
-      <c r="H181" s="18"/>
-      <c r="I181" s="18"/>
-      <c r="J181" s="18"/>
-      <c r="K181" s="18"/>
-      <c r="L181" s="18"/>
-      <c r="M181" s="18"/>
-      <c r="N181" s="18"/>
-      <c r="O181" s="18"/>
-      <c r="P181" s="18"/>
-      <c r="Q181" s="18"/>
-      <c r="R181" s="18"/>
-      <c r="S181" s="18"/>
-      <c r="T181" s="18"/>
-      <c r="U181" s="18"/>
-      <c r="V181" s="18"/>
-      <c r="W181" s="18"/>
-      <c r="X181" s="18"/>
-      <c r="Y181" s="18"/>
-      <c r="Z181" s="18"/>
-      <c r="AA181" s="18"/>
-      <c r="AB181" s="18"/>
-      <c r="AC181" s="18"/>
-      <c r="AD181" s="18"/>
-      <c r="AE181" s="18"/>
-      <c r="AF181" s="18"/>
-      <c r="AG181" s="18"/>
-      <c r="AH181" s="18"/>
+      <c r="F181" s="18"/>
+      <c r="G181" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="H181" s="37"/>
+      <c r="I181" s="37"/>
+      <c r="J181" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="K181" s="37"/>
+      <c r="L181" s="37"/>
+      <c r="M181" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="N181" s="37"/>
+      <c r="O181" s="37"/>
+      <c r="P181" s="37"/>
+      <c r="Q181" s="37"/>
+      <c r="R181" s="37"/>
+      <c r="S181" s="37"/>
+      <c r="T181" s="37"/>
+      <c r="U181" s="37"/>
+      <c r="V181" s="37"/>
+      <c r="W181" s="37"/>
+      <c r="X181" s="38"/>
+      <c r="Y181" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z181" s="37"/>
+      <c r="AA181" s="37"/>
+      <c r="AB181" s="37"/>
+      <c r="AC181" s="37"/>
+      <c r="AD181" s="37"/>
+      <c r="AE181" s="37"/>
+      <c r="AF181" s="37"/>
+      <c r="AG181" s="37"/>
+      <c r="AH181" s="38"/>
       <c r="AI181" s="18"/>
     </row>
     <row r="182" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D182" s="16"/>
       <c r="E182" s="18"/>
       <c r="F182" s="18"/>
-      <c r="G182" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="H182" s="37"/>
-      <c r="I182" s="37"/>
-      <c r="J182" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="K182" s="37"/>
-      <c r="L182" s="37"/>
-      <c r="M182" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="N182" s="37"/>
-      <c r="O182" s="37"/>
-      <c r="P182" s="37"/>
-      <c r="Q182" s="37"/>
-      <c r="R182" s="37"/>
-      <c r="S182" s="37"/>
-      <c r="T182" s="37"/>
-      <c r="U182" s="37"/>
-      <c r="V182" s="37"/>
-      <c r="W182" s="37"/>
-      <c r="X182" s="38"/>
-      <c r="Y182" s="37" t="s">
+      <c r="G182" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="H182" s="18"/>
+      <c r="I182" s="18"/>
+      <c r="J182" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="Z182" s="37"/>
-      <c r="AA182" s="37"/>
-      <c r="AB182" s="37"/>
-      <c r="AC182" s="37"/>
-      <c r="AD182" s="37"/>
-      <c r="AE182" s="37"/>
-      <c r="AF182" s="37"/>
-      <c r="AG182" s="37"/>
-      <c r="AH182" s="38"/>
+      <c r="K182" s="18"/>
+      <c r="L182" s="18"/>
+      <c r="M182" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="N182" s="18"/>
+      <c r="O182" s="18"/>
+      <c r="P182" s="18"/>
+      <c r="Q182" s="18"/>
+      <c r="R182" s="18"/>
+      <c r="S182" s="18"/>
+      <c r="T182" s="18"/>
+      <c r="U182" s="18"/>
+      <c r="V182" s="18"/>
+      <c r="W182" s="18"/>
+      <c r="X182" s="40"/>
+      <c r="Y182" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z182" s="18"/>
+      <c r="AA182" s="18"/>
+      <c r="AB182" s="18"/>
+      <c r="AC182" s="18"/>
+      <c r="AD182" s="18"/>
+      <c r="AE182" s="18"/>
+      <c r="AF182" s="18"/>
+      <c r="AG182" s="18"/>
+      <c r="AH182" s="40"/>
       <c r="AI182" s="18"/>
     </row>
     <row r="183" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D183" s="16"/>
       <c r="E183" s="18"/>
       <c r="F183" s="18"/>
-      <c r="G183" s="39" t="s">
-        <v>51</v>
-      </c>
+      <c r="G183" s="39"/>
       <c r="H183" s="18"/>
       <c r="I183" s="18"/>
-      <c r="J183" s="39" t="s">
-        <v>61</v>
-      </c>
+      <c r="J183" s="39"/>
       <c r="K183" s="18"/>
       <c r="L183" s="18"/>
       <c r="M183" s="39" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="N183" s="18"/>
       <c r="O183" s="18"/>
@@ -6861,9 +6876,7 @@
       <c r="V183" s="18"/>
       <c r="W183" s="18"/>
       <c r="X183" s="40"/>
-      <c r="Y183" s="18" t="s">
-        <v>68</v>
-      </c>
+      <c r="Y183" s="18"/>
       <c r="Z183" s="18"/>
       <c r="AA183" s="18"/>
       <c r="AB183" s="18"/>
@@ -6882,225 +6895,189 @@
       <c r="G184" s="39"/>
       <c r="H184" s="18"/>
       <c r="I184" s="18"/>
-      <c r="J184" s="39"/>
-      <c r="K184" s="18"/>
-      <c r="L184" s="18"/>
-      <c r="M184" s="39" t="s">
-        <v>82</v>
-      </c>
-      <c r="N184" s="18"/>
-      <c r="O184" s="18"/>
-      <c r="P184" s="18"/>
-      <c r="Q184" s="18"/>
-      <c r="R184" s="18"/>
-      <c r="S184" s="18"/>
-      <c r="T184" s="18"/>
-      <c r="U184" s="18"/>
-      <c r="V184" s="18"/>
-      <c r="W184" s="18"/>
-      <c r="X184" s="40"/>
-      <c r="Y184" s="18"/>
-      <c r="Z184" s="18"/>
-      <c r="AA184" s="18"/>
-      <c r="AB184" s="18"/>
-      <c r="AC184" s="18"/>
-      <c r="AD184" s="18"/>
-      <c r="AE184" s="18"/>
-      <c r="AF184" s="18"/>
-      <c r="AG184" s="18"/>
-      <c r="AH184" s="40"/>
+      <c r="J184" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="K184" s="53"/>
+      <c r="L184" s="53"/>
+      <c r="M184" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="N184" s="53"/>
+      <c r="O184" s="53"/>
+      <c r="P184" s="53"/>
+      <c r="Q184" s="53"/>
+      <c r="R184" s="53"/>
+      <c r="S184" s="53"/>
+      <c r="T184" s="53"/>
+      <c r="U184" s="53"/>
+      <c r="V184" s="53"/>
+      <c r="W184" s="53"/>
+      <c r="X184" s="54"/>
+      <c r="Y184" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z184" s="53"/>
+      <c r="AA184" s="53"/>
+      <c r="AB184" s="53"/>
+      <c r="AC184" s="53"/>
+      <c r="AD184" s="53"/>
+      <c r="AE184" s="53"/>
+      <c r="AF184" s="53"/>
+      <c r="AG184" s="53"/>
+      <c r="AH184" s="54"/>
       <c r="AI184" s="18"/>
     </row>
-    <row r="185" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D185" s="16"/>
       <c r="E185" s="18"/>
       <c r="F185" s="18"/>
       <c r="G185" s="39"/>
       <c r="H185" s="18"/>
       <c r="I185" s="18"/>
-      <c r="J185" s="52" t="s">
-        <v>62</v>
-      </c>
-      <c r="K185" s="53"/>
-      <c r="L185" s="53"/>
-      <c r="M185" s="52" t="s">
-        <v>65</v>
-      </c>
-      <c r="N185" s="53"/>
-      <c r="O185" s="53"/>
-      <c r="P185" s="53"/>
-      <c r="Q185" s="53"/>
-      <c r="R185" s="53"/>
-      <c r="S185" s="53"/>
-      <c r="T185" s="53"/>
-      <c r="U185" s="53"/>
-      <c r="V185" s="53"/>
-      <c r="W185" s="53"/>
-      <c r="X185" s="54"/>
-      <c r="Y185" s="53" t="s">
-        <v>101</v>
-      </c>
-      <c r="Z185" s="53"/>
-      <c r="AA185" s="53"/>
-      <c r="AB185" s="53"/>
-      <c r="AC185" s="53"/>
-      <c r="AD185" s="53"/>
-      <c r="AE185" s="53"/>
-      <c r="AF185" s="53"/>
-      <c r="AG185" s="53"/>
-      <c r="AH185" s="54"/>
+      <c r="J185" s="41"/>
+      <c r="K185" s="42"/>
+      <c r="L185" s="42"/>
+      <c r="M185" s="41"/>
+      <c r="N185" s="42"/>
+      <c r="O185" s="42"/>
+      <c r="P185" s="42"/>
+      <c r="Q185" s="42"/>
+      <c r="R185" s="42"/>
+      <c r="S185" s="42"/>
+      <c r="T185" s="42"/>
+      <c r="U185" s="42"/>
+      <c r="V185" s="42"/>
+      <c r="W185" s="42"/>
+      <c r="X185" s="43"/>
+      <c r="Y185" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z185" s="42"/>
+      <c r="AA185" s="42"/>
+      <c r="AB185" s="42"/>
+      <c r="AC185" s="42"/>
+      <c r="AD185" s="42"/>
+      <c r="AE185" s="42"/>
+      <c r="AF185" s="42"/>
+      <c r="AG185" s="42"/>
+      <c r="AH185" s="43"/>
       <c r="AI185" s="18"/>
     </row>
-    <row r="186" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D186" s="16"/>
       <c r="E186" s="18"/>
       <c r="F186" s="18"/>
       <c r="G186" s="39"/>
       <c r="H186" s="18"/>
       <c r="I186" s="18"/>
-      <c r="J186" s="41"/>
-      <c r="K186" s="42"/>
-      <c r="L186" s="42"/>
-      <c r="M186" s="41"/>
-      <c r="N186" s="42"/>
-      <c r="O186" s="42"/>
-      <c r="P186" s="42"/>
-      <c r="Q186" s="42"/>
-      <c r="R186" s="42"/>
-      <c r="S186" s="42"/>
-      <c r="T186" s="42"/>
-      <c r="U186" s="42"/>
-      <c r="V186" s="42"/>
-      <c r="W186" s="42"/>
-      <c r="X186" s="43"/>
-      <c r="Y186" s="42" t="s">
-        <v>103</v>
-      </c>
-      <c r="Z186" s="42"/>
-      <c r="AA186" s="42"/>
-      <c r="AB186" s="42"/>
-      <c r="AC186" s="42"/>
-      <c r="AD186" s="42"/>
-      <c r="AE186" s="42"/>
-      <c r="AF186" s="42"/>
-      <c r="AG186" s="42"/>
-      <c r="AH186" s="43"/>
+      <c r="J186" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="K186" s="53"/>
+      <c r="L186" s="53"/>
+      <c r="M186" s="52" t="s">
+        <v>65</v>
+      </c>
+      <c r="N186" s="53"/>
+      <c r="O186" s="53"/>
+      <c r="P186" s="53"/>
+      <c r="Q186" s="53"/>
+      <c r="R186" s="53"/>
+      <c r="S186" s="53"/>
+      <c r="T186" s="53"/>
+      <c r="U186" s="53"/>
+      <c r="V186" s="53"/>
+      <c r="W186" s="53"/>
+      <c r="X186" s="54"/>
+      <c r="Y186" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z186" s="53"/>
+      <c r="AA186" s="53"/>
+      <c r="AB186" s="53"/>
+      <c r="AC186" s="53"/>
+      <c r="AD186" s="53"/>
+      <c r="AE186" s="53"/>
+      <c r="AF186" s="53"/>
+      <c r="AG186" s="53"/>
+      <c r="AH186" s="54"/>
       <c r="AI186" s="18"/>
     </row>
     <row r="187" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D187" s="16"/>
       <c r="E187" s="18"/>
       <c r="F187" s="18"/>
-      <c r="G187" s="39"/>
-      <c r="H187" s="18"/>
-      <c r="I187" s="18"/>
-      <c r="J187" s="52" t="s">
-        <v>63</v>
-      </c>
-      <c r="K187" s="53"/>
-      <c r="L187" s="53"/>
-      <c r="M187" s="52" t="s">
+      <c r="G187" s="41"/>
+      <c r="H187" s="42"/>
+      <c r="I187" s="42"/>
+      <c r="J187" s="41"/>
+      <c r="K187" s="42"/>
+      <c r="L187" s="42"/>
+      <c r="M187" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="N187" s="53"/>
-      <c r="O187" s="53"/>
-      <c r="P187" s="53"/>
-      <c r="Q187" s="53"/>
-      <c r="R187" s="53"/>
-      <c r="S187" s="53"/>
-      <c r="T187" s="53"/>
-      <c r="U187" s="53"/>
-      <c r="V187" s="53"/>
-      <c r="W187" s="53"/>
-      <c r="X187" s="54"/>
-      <c r="Y187" s="52" t="s">
-        <v>102</v>
-      </c>
-      <c r="Z187" s="53"/>
-      <c r="AA187" s="53"/>
-      <c r="AB187" s="53"/>
-      <c r="AC187" s="53"/>
-      <c r="AD187" s="53"/>
-      <c r="AE187" s="53"/>
-      <c r="AF187" s="53"/>
-      <c r="AG187" s="53"/>
-      <c r="AH187" s="54"/>
+      <c r="N187" s="42"/>
+      <c r="O187" s="42"/>
+      <c r="P187" s="42"/>
+      <c r="Q187" s="42"/>
+      <c r="R187" s="42"/>
+      <c r="S187" s="42"/>
+      <c r="T187" s="42"/>
+      <c r="U187" s="42"/>
+      <c r="V187" s="42"/>
+      <c r="W187" s="42"/>
+      <c r="X187" s="43"/>
+      <c r="Y187" s="41" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z187" s="42"/>
+      <c r="AA187" s="42"/>
+      <c r="AB187" s="42"/>
+      <c r="AC187" s="42"/>
+      <c r="AD187" s="42"/>
+      <c r="AE187" s="42"/>
+      <c r="AF187" s="42"/>
+      <c r="AG187" s="42"/>
+      <c r="AH187" s="43"/>
       <c r="AI187" s="18"/>
     </row>
     <row r="188" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D188" s="16"/>
       <c r="E188" s="18"/>
       <c r="F188" s="18"/>
-      <c r="G188" s="41"/>
-      <c r="H188" s="42"/>
-      <c r="I188" s="42"/>
-      <c r="J188" s="41"/>
-      <c r="K188" s="42"/>
-      <c r="L188" s="42"/>
-      <c r="M188" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="N188" s="42"/>
-      <c r="O188" s="42"/>
-      <c r="P188" s="42"/>
-      <c r="Q188" s="42"/>
-      <c r="R188" s="42"/>
-      <c r="S188" s="42"/>
-      <c r="T188" s="42"/>
-      <c r="U188" s="42"/>
-      <c r="V188" s="42"/>
-      <c r="W188" s="42"/>
-      <c r="X188" s="43"/>
-      <c r="Y188" s="41" t="s">
-        <v>168</v>
-      </c>
-      <c r="Z188" s="42"/>
-      <c r="AA188" s="42"/>
-      <c r="AB188" s="42"/>
-      <c r="AC188" s="42"/>
-      <c r="AD188" s="42"/>
-      <c r="AE188" s="42"/>
-      <c r="AF188" s="42"/>
-      <c r="AG188" s="42"/>
-      <c r="AH188" s="43"/>
+      <c r="G188" s="18"/>
+      <c r="H188" s="18"/>
+      <c r="I188" s="18"/>
+      <c r="J188" s="18"/>
+      <c r="K188" s="18"/>
+      <c r="L188" s="18"/>
+      <c r="M188" s="18"/>
+      <c r="N188" s="18"/>
+      <c r="O188" s="18"/>
+      <c r="P188" s="18"/>
+      <c r="Q188" s="18"/>
+      <c r="R188" s="18"/>
+      <c r="S188" s="18"/>
+      <c r="T188" s="18"/>
+      <c r="U188" s="18"/>
+      <c r="V188" s="18"/>
+      <c r="W188" s="18"/>
+      <c r="X188" s="18"/>
+      <c r="Y188" s="18"/>
+      <c r="Z188" s="18"/>
+      <c r="AA188" s="18"/>
+      <c r="AB188" s="18"/>
+      <c r="AC188" s="18"/>
+      <c r="AD188" s="18"/>
+      <c r="AE188" s="18"/>
+      <c r="AF188" s="18"/>
+      <c r="AG188" s="18"/>
+      <c r="AH188" s="18"/>
       <c r="AI188" s="18"/>
     </row>
     <row r="189" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D189" s="16"/>
-      <c r="E189" s="18"/>
-      <c r="F189" s="18"/>
-      <c r="G189" s="18"/>
-      <c r="H189" s="18"/>
-      <c r="I189" s="18"/>
-      <c r="J189" s="18"/>
-      <c r="K189" s="18"/>
-      <c r="L189" s="18"/>
-      <c r="M189" s="18"/>
-      <c r="N189" s="18"/>
-      <c r="O189" s="18"/>
-      <c r="P189" s="18"/>
-      <c r="Q189" s="18"/>
-      <c r="R189" s="18"/>
-      <c r="S189" s="18"/>
-      <c r="T189" s="18"/>
-      <c r="U189" s="18"/>
-      <c r="V189" s="18"/>
-      <c r="W189" s="18"/>
-      <c r="X189" s="18"/>
-      <c r="Y189" s="18"/>
-      <c r="Z189" s="18"/>
-      <c r="AA189" s="18"/>
-      <c r="AB189" s="18"/>
-      <c r="AC189" s="18"/>
-      <c r="AD189" s="18"/>
-      <c r="AE189" s="18"/>
-      <c r="AF189" s="18"/>
-      <c r="AG189" s="18"/>
-      <c r="AH189" s="18"/>
-      <c r="AI189" s="18"/>
-    </row>
-    <row r="190" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C190" s="20"/>
+      <c r="C189" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.3DBアクセス処理.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.3DBアクセス処理.xlsx
@@ -1,9 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{292C3367-626D-48A3-A560-D365C0C4BDD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\gitbucket\Fintan\application-architecture-sample\nablarch_sample\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1DF82B0-739C-486A-8322-75C9A418955D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,9 +17,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'7.3.DBアクセス処理'!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'7.3.DBアクセス処理'!$A$1:$AI$205</definedName>
-    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'7.3.DBアクセス処理'!$A$1:$AI$198</definedName>
-    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'7.3.DBアクセス処理'!$A$1:$AI$198</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'7.3.DBアクセス処理'!$A$1:$AI$189</definedName>
+    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'7.3.DBアクセス処理'!$A$1:$AI$188</definedName>
+    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'7.3.DBアクセス処理'!$A$1:$AI$188</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="175">
   <si>
     <t>工程</t>
     <rPh sb="0" eb="2">
@@ -177,16 +182,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>PJ固有の要件</t>
-    <rPh sb="2" eb="4">
-      <t>コユウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヨウケン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Nablarchのトランザクション管理機能では、透過的トランザクションをサポートしており、これを利用してトランザクション制御を行う。</t>
   </si>
   <si>
@@ -624,50 +619,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>バキューム・統計情報</t>
-    <rPh sb="6" eb="8">
-      <t>トウケイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>自動バキュームを行う。自動バキューム時に統計情報の更新も行われる。このため、アプリケーションでは制御を行わない。</t>
-    <rPh sb="0" eb="2">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>トウケイ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>セイギョ</t>
-    </rPh>
-    <rPh sb="51" eb="52">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>プロセス単位で作成</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -869,13 +820,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>RDBMS製品</t>
-    <rPh sb="5" eb="7">
-      <t>セイヒン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>排他制御単位</t>
     <rPh sb="0" eb="2">
       <t>ハイタ</t>
@@ -1137,16 +1081,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>本PJではDBにはPostgreSQLを使用する。</t>
-    <rPh sb="0" eb="1">
-      <t>ホン</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>データベースサーバのホスト名およびポート番号</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1211,50 +1145,11 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>SQLを直接送信する方式に比べ、性能面、セキュリティ双方の面で以下のメリットがある。</t>
-  </si>
-  <si>
     <t>プリペアードステートメントとは埋め込みパラメータを含むSQLのテンプレート（プリペアードステートメント）とそこに埋め込まれる</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>各パラメータの値を、データベースに送信し実行する方式である。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>同じプリペアードステートメントを使用しSQLを複数回実行する場合、プリペアードステートメントでは、データベースによる実行計画の</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>作成が１度しか行われない為、毎回SQL文を構成する場合に比べてデータベース側の負荷が低減できる。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>また、SQL文の送信回数が減ることにより、ネットワークI/Oの負荷低減にもつながる。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>SQL文をプログラム側で構成する場合、パラメータを連結する際にSQLの特殊文字が適切にエスケープされないことによってプログラムの</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>本来の意図と異なるSQL文を実行してしまう危険性がある（SQLインジェクション）。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>プリペアードステートメントを使用した場合、埋め込みパラメータの値は、各データベースに依存したネイティブ(バイナリ)形式で</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>送信され、データベース側でそれをSQL文に連結することは無い。これにより、パラメータを経由したSQLインジェクションの成立を</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>防ぐことが可能である。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>また、プリペアードステートメントのSQL文自体がプログラム内で動的に作成されることを防ぐために、外部の静的ファイルに記述された</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1455,6 +1350,80 @@
     </rPh>
     <rPh sb="43" eb="44">
       <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SQLの解析負荷を下げることができる。</t>
+    <rPh sb="4" eb="6">
+      <t>カイセキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>サ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プリペアードステートメントを用いると、同じSQLに対しては初回に作成された実行計画が再利用されるため、</t>
+    <rPh sb="14" eb="15">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ショカイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="37" eb="41">
+      <t>ジッコウケイカク</t>
+    </rPh>
+    <rPh sb="42" eb="45">
+      <t>サイリヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>また、SQLのテンプレートとパラメータを分離してデータベースに送信するため、SQLインジェクションの対策となる。</t>
+    <rPh sb="20" eb="22">
+      <t>ブンリ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>タイサク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>さらに、プリペアードステートメントのSQL文自体がプログラム内で動的に作成されることを防ぐために、外部の静的ファイルに記述された</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>物理削除は以下の方針で実施する。</t>
+    <rPh sb="0" eb="2">
+      <t>ブツリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ホウシン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジッシ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2252,10 +2221,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+  <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI205"/>
+  <dimension ref="A1:AI189"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -2287,7 +2256,7 @@
       </c>
       <c r="Q1" s="2"/>
       <c r="R1" s="62" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="S1" s="63"/>
       <c r="T1" s="63"/>
@@ -2439,27 +2408,27 @@
     </row>
     <row r="11" spans="1:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F11" s="21" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F12" s="21" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F13" s="21" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F14" s="21" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F15" s="21" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2475,12 +2444,12 @@
     </row>
     <row r="18" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F18" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G18" s="33"/>
       <c r="H18" s="34"/>
       <c r="I18" s="33" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="J18" s="33"/>
       <c r="K18" s="33"/>
@@ -2512,12 +2481,12 @@
     </row>
     <row r="19" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F19" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G19" s="24"/>
       <c r="H19" s="25"/>
       <c r="I19" s="48" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J19" s="24"/>
       <c r="K19" s="24"/>
@@ -2525,7 +2494,7 @@
       <c r="M19" s="24"/>
       <c r="N19" s="25"/>
       <c r="O19" s="24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P19" s="24"/>
       <c r="Q19" s="24"/>
@@ -2549,12 +2518,12 @@
     </row>
     <row r="20" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F20" s="28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G20" s="29"/>
       <c r="H20" s="30"/>
       <c r="I20" s="49" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J20" s="29"/>
       <c r="K20" s="29"/>
@@ -2562,7 +2531,7 @@
       <c r="M20" s="29"/>
       <c r="N20" s="30"/>
       <c r="O20" s="44" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="P20" s="29"/>
       <c r="Q20" s="29"/>
@@ -2595,7 +2564,7 @@
       <c r="M21" s="24"/>
       <c r="N21" s="25"/>
       <c r="O21" s="51" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="P21" s="24"/>
       <c r="Q21" s="24"/>
@@ -2628,7 +2597,7 @@
       <c r="M22" s="27"/>
       <c r="N22" s="31"/>
       <c r="O22" s="27" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="P22" s="27"/>
       <c r="Q22" s="27"/>
@@ -2704,12 +2673,12 @@
     </row>
     <row r="27" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F27" s="21" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F28" s="21" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="29" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2720,23 +2689,23 @@
     <row r="30" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="31" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F31" s="21" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="32" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F32" s="21" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="33" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F33" s="21" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="34" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="35" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F35" s="21" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="36" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2752,7 +2721,7 @@
         <v>24</v>
       </c>
       <c r="G37" s="21" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="38" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2784,12 +2753,12 @@
     </row>
     <row r="42" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F42" s="55" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="43" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F43" s="55" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="44" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2842,7 +2811,7 @@
         <v>7.3.3.1.</v>
       </c>
       <c r="F47" s="17" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="G47" s="17"/>
       <c r="H47" s="17"/>
@@ -2878,7 +2847,7 @@
       <c r="D48" s="22"/>
       <c r="E48" s="17"/>
       <c r="F48" s="17" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="G48" s="17"/>
       <c r="H48" s="17"/>
@@ -2914,7 +2883,7 @@
       <c r="D49" s="22"/>
       <c r="E49" s="17"/>
       <c r="F49" s="17" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="G49" s="17"/>
       <c r="H49" s="17"/>
@@ -2949,9 +2918,7 @@
     <row r="50" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D50" s="22"/>
       <c r="E50" s="17"/>
-      <c r="F50" s="17" t="s">
-        <v>145</v>
-      </c>
+      <c r="F50" s="17"/>
       <c r="G50" s="17"/>
       <c r="H50" s="17"/>
       <c r="I50" s="17"/>
@@ -2985,7 +2952,9 @@
     <row r="51" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D51" s="22"/>
       <c r="E51" s="17"/>
-      <c r="F51" s="17"/>
+      <c r="F51" s="17" t="s">
+        <v>171</v>
+      </c>
       <c r="G51" s="17"/>
       <c r="H51" s="17"/>
       <c r="I51" s="17"/>
@@ -3019,10 +2988,10 @@
     <row r="52" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D52" s="22"/>
       <c r="E52" s="17"/>
-      <c r="F52" s="17"/>
-      <c r="G52" s="17" t="s">
-        <v>148</v>
-      </c>
+      <c r="F52" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="G52" s="17"/>
       <c r="H52" s="17"/>
       <c r="I52" s="17"/>
       <c r="J52" s="17"/>
@@ -3054,11 +3023,11 @@
     </row>
     <row r="53" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D53" s="22"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="17"/>
-      <c r="G53" s="17" t="s">
-        <v>149</v>
-      </c>
+      <c r="E53" s="22"/>
+      <c r="F53" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="G53" s="17"/>
       <c r="H53" s="17"/>
       <c r="I53" s="17"/>
       <c r="J53" s="17"/>
@@ -3090,11 +3059,9 @@
     </row>
     <row r="54" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D54" s="22"/>
-      <c r="E54" s="17"/>
+      <c r="E54" s="22"/>
       <c r="F54" s="17"/>
-      <c r="G54" s="17" t="s">
-        <v>150</v>
-      </c>
+      <c r="G54" s="17"/>
       <c r="H54" s="17"/>
       <c r="I54" s="17"/>
       <c r="J54" s="17"/>
@@ -3127,7 +3094,9 @@
     <row r="55" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D55" s="22"/>
       <c r="E55" s="17"/>
-      <c r="F55" s="17"/>
+      <c r="F55" s="17" t="s">
+        <v>173</v>
+      </c>
       <c r="G55" s="17"/>
       <c r="H55" s="17"/>
       <c r="I55" s="17"/>
@@ -3161,10 +3130,10 @@
     <row r="56" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D56" s="22"/>
       <c r="E56" s="17"/>
-      <c r="F56" s="17"/>
-      <c r="G56" s="17" t="s">
-        <v>151</v>
-      </c>
+      <c r="F56" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="G56" s="17"/>
       <c r="H56" s="17"/>
       <c r="I56" s="17"/>
       <c r="J56" s="17"/>
@@ -3198,9 +3167,7 @@
       <c r="D57" s="22"/>
       <c r="E57" s="17"/>
       <c r="F57" s="17"/>
-      <c r="G57" s="17" t="s">
-        <v>152</v>
-      </c>
+      <c r="G57" s="17"/>
       <c r="H57" s="17"/>
       <c r="I57" s="17"/>
       <c r="J57" s="17"/>
@@ -3233,10 +3200,10 @@
     <row r="58" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D58" s="22"/>
       <c r="E58" s="17"/>
-      <c r="F58" s="17"/>
-      <c r="G58" s="21" t="s">
-        <v>153</v>
-      </c>
+      <c r="F58" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="G58" s="17"/>
       <c r="H58" s="17"/>
       <c r="I58" s="17"/>
       <c r="J58" s="17"/>
@@ -3269,10 +3236,10 @@
     <row r="59" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D59" s="22"/>
       <c r="E59" s="17"/>
-      <c r="F59" s="17"/>
-      <c r="G59" s="17" t="s">
-        <v>154</v>
-      </c>
+      <c r="F59" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="G59" s="17"/>
       <c r="H59" s="17"/>
       <c r="I59" s="17"/>
       <c r="J59" s="17"/>
@@ -3306,9 +3273,7 @@
       <c r="D60" s="22"/>
       <c r="E60" s="17"/>
       <c r="F60" s="17"/>
-      <c r="G60" s="17" t="s">
-        <v>155</v>
-      </c>
+      <c r="G60" s="17"/>
       <c r="H60" s="17"/>
       <c r="I60" s="17"/>
       <c r="J60" s="17"/>
@@ -3340,8 +3305,13 @@
     </row>
     <row r="61" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D61" s="22"/>
-      <c r="E61" s="17"/>
-      <c r="F61" s="17"/>
+      <c r="E61" s="22" t="str">
+        <f>$D$46&amp;"2."</f>
+        <v>7.3.3.2.</v>
+      </c>
+      <c r="F61" s="17" t="s">
+        <v>145</v>
+      </c>
       <c r="G61" s="17"/>
       <c r="H61" s="17"/>
       <c r="I61" s="17"/>
@@ -3376,7 +3346,7 @@
       <c r="D62" s="22"/>
       <c r="E62" s="17"/>
       <c r="F62" s="17" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="G62" s="17"/>
       <c r="H62" s="17"/>
@@ -3412,7 +3382,7 @@
       <c r="D63" s="22"/>
       <c r="E63" s="17"/>
       <c r="F63" s="17" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="G63" s="17"/>
       <c r="H63" s="17"/>
@@ -3447,7 +3417,9 @@
     <row r="64" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D64" s="22"/>
       <c r="E64" s="17"/>
-      <c r="F64" s="17"/>
+      <c r="F64" s="17" t="s">
+        <v>148</v>
+      </c>
       <c r="G64" s="17"/>
       <c r="H64" s="17"/>
       <c r="I64" s="17"/>
@@ -3481,8 +3453,8 @@
     <row r="65" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D65" s="22"/>
       <c r="E65" s="17"/>
-      <c r="F65" s="17" t="s">
-        <v>158</v>
+      <c r="F65" s="21" t="s">
+        <v>149</v>
       </c>
       <c r="G65" s="17"/>
       <c r="H65" s="17"/>
@@ -3518,7 +3490,7 @@
       <c r="D66" s="22"/>
       <c r="E66" s="17"/>
       <c r="F66" s="17" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="G66" s="17"/>
       <c r="H66" s="17"/>
@@ -3553,7 +3525,9 @@
     <row r="67" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D67" s="22"/>
       <c r="E67" s="17"/>
-      <c r="F67" s="17"/>
+      <c r="F67" s="17" t="s">
+        <v>151</v>
+      </c>
       <c r="G67" s="17"/>
       <c r="H67" s="17"/>
       <c r="I67" s="17"/>
@@ -3586,13 +3560,8 @@
     </row>
     <row r="68" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D68" s="22"/>
-      <c r="E68" s="22" t="str">
-        <f>$D$46&amp;"2."</f>
-        <v>7.3.3.2.</v>
-      </c>
-      <c r="F68" s="17" t="s">
-        <v>160</v>
-      </c>
+      <c r="E68" s="17"/>
+      <c r="F68" s="17"/>
       <c r="G68" s="17"/>
       <c r="H68" s="17"/>
       <c r="I68" s="17"/>
@@ -3627,7 +3596,7 @@
       <c r="D69" s="22"/>
       <c r="E69" s="17"/>
       <c r="F69" s="17" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="G69" s="17"/>
       <c r="H69" s="17"/>
@@ -3663,7 +3632,7 @@
       <c r="D70" s="22"/>
       <c r="E70" s="17"/>
       <c r="F70" s="17" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="G70" s="17"/>
       <c r="H70" s="17"/>
@@ -3698,9 +3667,7 @@
     <row r="71" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D71" s="22"/>
       <c r="E71" s="17"/>
-      <c r="F71" s="17" t="s">
-        <v>163</v>
-      </c>
+      <c r="F71" s="17"/>
       <c r="G71" s="17"/>
       <c r="H71" s="17"/>
       <c r="I71" s="17"/>
@@ -3734,8 +3701,8 @@
     <row r="72" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D72" s="22"/>
       <c r="E72" s="17"/>
-      <c r="F72" s="21" t="s">
-        <v>164</v>
+      <c r="F72" s="17" t="s">
+        <v>154</v>
       </c>
       <c r="G72" s="17"/>
       <c r="H72" s="17"/>
@@ -3771,7 +3738,7 @@
       <c r="D73" s="22"/>
       <c r="E73" s="17"/>
       <c r="F73" s="17" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="G73" s="17"/>
       <c r="H73" s="17"/>
@@ -3807,7 +3774,7 @@
       <c r="D74" s="22"/>
       <c r="E74" s="17"/>
       <c r="F74" s="17" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="G74" s="17"/>
       <c r="H74" s="17"/>
@@ -3875,9 +3842,12 @@
     </row>
     <row r="76" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D76" s="22"/>
-      <c r="E76" s="17"/>
+      <c r="E76" s="22" t="str">
+        <f>$D$46&amp;"3."</f>
+        <v>7.3.3.3.</v>
+      </c>
       <c r="F76" s="17" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="G76" s="17"/>
       <c r="H76" s="17"/>
@@ -3913,7 +3883,7 @@
       <c r="D77" s="22"/>
       <c r="E77" s="17"/>
       <c r="F77" s="17" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="G77" s="17"/>
       <c r="H77" s="17"/>
@@ -3948,7 +3918,9 @@
     <row r="78" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D78" s="22"/>
       <c r="E78" s="17"/>
-      <c r="F78" s="17"/>
+      <c r="F78" s="21" t="s">
+        <v>160</v>
+      </c>
       <c r="G78" s="17"/>
       <c r="H78" s="17"/>
       <c r="I78" s="17"/>
@@ -3983,7 +3955,7 @@
       <c r="D79" s="22"/>
       <c r="E79" s="17"/>
       <c r="F79" s="17" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="G79" s="17"/>
       <c r="H79" s="17"/>
@@ -4019,7 +3991,7 @@
       <c r="D80" s="22"/>
       <c r="E80" s="17"/>
       <c r="F80" s="17" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="G80" s="17"/>
       <c r="H80" s="17"/>
@@ -4054,9 +4026,7 @@
     <row r="81" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D81" s="22"/>
       <c r="E81" s="17"/>
-      <c r="F81" s="17" t="s">
-        <v>171</v>
-      </c>
+      <c r="F81" s="17"/>
       <c r="G81" s="17"/>
       <c r="H81" s="17"/>
       <c r="I81" s="17"/>
@@ -4090,12 +4060,16 @@
     <row r="82" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D82" s="22"/>
       <c r="E82" s="17"/>
-      <c r="F82" s="17"/>
+      <c r="F82" s="21" t="s">
+        <v>163</v>
+      </c>
       <c r="G82" s="17"/>
       <c r="H82" s="17"/>
       <c r="I82" s="17"/>
       <c r="J82" s="17"/>
-      <c r="K82" s="17"/>
+      <c r="K82" s="17" t="s">
+        <v>164</v>
+      </c>
       <c r="L82" s="17"/>
       <c r="M82" s="17"/>
       <c r="N82" s="17"/>
@@ -4123,13 +4097,8 @@
     </row>
     <row r="83" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D83" s="22"/>
-      <c r="E83" s="22" t="str">
-        <f>$D$46&amp;"3."</f>
-        <v>7.3.3.3.</v>
-      </c>
-      <c r="F83" s="17" t="s">
-        <v>172</v>
-      </c>
+      <c r="E83" s="17"/>
+      <c r="F83" s="17"/>
       <c r="G83" s="17"/>
       <c r="H83" s="17"/>
       <c r="I83" s="17"/>
@@ -4164,7 +4133,7 @@
       <c r="D84" s="22"/>
       <c r="E84" s="17"/>
       <c r="F84" s="17" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="G84" s="17"/>
       <c r="H84" s="17"/>
@@ -4199,9 +4168,7 @@
     <row r="85" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D85" s="22"/>
       <c r="E85" s="17"/>
-      <c r="F85" s="21" t="s">
-        <v>175</v>
-      </c>
+      <c r="F85" s="17"/>
       <c r="G85" s="17"/>
       <c r="H85" s="17"/>
       <c r="I85" s="17"/>
@@ -4233,47 +4200,48 @@
       <c r="AI85" s="17"/>
     </row>
     <row r="86" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D86" s="22"/>
-      <c r="E86" s="17"/>
-      <c r="F86" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="G86" s="17"/>
-      <c r="H86" s="17"/>
-      <c r="I86" s="17"/>
-      <c r="J86" s="17"/>
-      <c r="K86" s="17"/>
-      <c r="L86" s="17"/>
-      <c r="M86" s="17"/>
-      <c r="N86" s="17"/>
-      <c r="O86" s="17"/>
-      <c r="P86" s="17"/>
-      <c r="Q86" s="17"/>
-      <c r="R86" s="17"/>
-      <c r="S86" s="17"/>
-      <c r="T86" s="17"/>
-      <c r="U86" s="17"/>
-      <c r="V86" s="17"/>
-      <c r="W86" s="17"/>
-      <c r="X86" s="17"/>
-      <c r="Y86" s="17"/>
-      <c r="Z86" s="17"/>
-      <c r="AA86" s="17"/>
-      <c r="AB86" s="17"/>
-      <c r="AC86" s="17"/>
-      <c r="AD86" s="17"/>
-      <c r="AE86" s="17"/>
-      <c r="AF86" s="17"/>
-      <c r="AG86" s="17"/>
-      <c r="AH86" s="17"/>
-      <c r="AI86" s="17"/>
+      <c r="D86" s="16"/>
+      <c r="E86" s="18"/>
+      <c r="F86" s="18"/>
+      <c r="G86" s="18"/>
+      <c r="H86" s="18"/>
+      <c r="I86" s="18"/>
+      <c r="J86" s="18"/>
+      <c r="K86" s="18"/>
+      <c r="L86" s="18"/>
+      <c r="M86" s="18"/>
+      <c r="N86" s="18"/>
+      <c r="O86" s="18"/>
+      <c r="P86" s="18"/>
+      <c r="Q86" s="18"/>
+      <c r="R86" s="18"/>
+      <c r="S86" s="18"/>
+      <c r="T86" s="18"/>
+      <c r="U86" s="18"/>
+      <c r="V86" s="18"/>
+      <c r="W86" s="18"/>
+      <c r="X86" s="18"/>
+      <c r="Y86" s="18"/>
+      <c r="Z86" s="18"/>
+      <c r="AA86" s="18"/>
+      <c r="AB86" s="18"/>
+      <c r="AC86" s="18"/>
+      <c r="AD86" s="18"/>
+      <c r="AE86" s="18"/>
+      <c r="AF86" s="18"/>
+      <c r="AG86" s="18"/>
+      <c r="AH86" s="18"/>
+      <c r="AI86" s="18"/>
     </row>
     <row r="87" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D87" s="22"/>
-      <c r="E87" s="17"/>
-      <c r="F87" s="17" t="s">
-        <v>177</v>
-      </c>
+      <c r="D87" s="22" t="str">
+        <f>$C$7&amp;"4."</f>
+        <v>7.3.4.</v>
+      </c>
+      <c r="E87" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F87" s="17"/>
       <c r="G87" s="17"/>
       <c r="H87" s="17"/>
       <c r="I87" s="17"/>
@@ -4305,9 +4273,13 @@
       <c r="AI87" s="17"/>
     </row>
     <row r="88" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D88" s="22"/>
-      <c r="E88" s="17"/>
-      <c r="F88" s="17"/>
+      <c r="E88" s="22" t="str">
+        <f>D87&amp;"1."</f>
+        <v>7.3.4.1.</v>
+      </c>
+      <c r="F88" s="17" t="s">
+        <v>28</v>
+      </c>
       <c r="G88" s="17"/>
       <c r="H88" s="17"/>
       <c r="I88" s="17"/>
@@ -4339,152 +4311,129 @@
       <c r="AI88" s="17"/>
     </row>
     <row r="89" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D89" s="22"/>
-      <c r="E89" s="17"/>
-      <c r="F89" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="G89" s="17"/>
-      <c r="H89" s="17"/>
-      <c r="I89" s="17"/>
-      <c r="J89" s="17"/>
-      <c r="K89" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="L89" s="17"/>
-      <c r="M89" s="17"/>
-      <c r="N89" s="17"/>
-      <c r="O89" s="17"/>
-      <c r="P89" s="17"/>
-      <c r="Q89" s="17"/>
-      <c r="R89" s="17"/>
-      <c r="S89" s="17"/>
-      <c r="T89" s="17"/>
-      <c r="U89" s="17"/>
-      <c r="V89" s="17"/>
-      <c r="W89" s="17"/>
-      <c r="X89" s="17"/>
-      <c r="Y89" s="17"/>
-      <c r="Z89" s="17"/>
-      <c r="AA89" s="17"/>
-      <c r="AB89" s="17"/>
-      <c r="AC89" s="17"/>
-      <c r="AD89" s="17"/>
-      <c r="AE89" s="17"/>
-      <c r="AF89" s="17"/>
-      <c r="AG89" s="17"/>
-      <c r="AH89" s="17"/>
-      <c r="AI89" s="17"/>
+      <c r="F89" s="22" t="str">
+        <f>E88&amp;"1."</f>
+        <v>7.3.4.1.1.</v>
+      </c>
+      <c r="G89" s="20" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="90" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D90" s="22"/>
-      <c r="E90" s="17"/>
-      <c r="F90" s="17"/>
-      <c r="G90" s="17"/>
-      <c r="H90" s="17"/>
-      <c r="I90" s="17"/>
-      <c r="J90" s="17"/>
-      <c r="K90" s="17"/>
-      <c r="L90" s="17"/>
-      <c r="M90" s="17"/>
-      <c r="N90" s="17"/>
-      <c r="O90" s="17"/>
-      <c r="P90" s="17"/>
-      <c r="Q90" s="17"/>
-      <c r="R90" s="17"/>
-      <c r="S90" s="17"/>
-      <c r="T90" s="17"/>
-      <c r="U90" s="17"/>
-      <c r="V90" s="17"/>
-      <c r="W90" s="17"/>
-      <c r="X90" s="17"/>
-      <c r="Y90" s="17"/>
-      <c r="Z90" s="17"/>
-      <c r="AA90" s="17"/>
-      <c r="AB90" s="17"/>
-      <c r="AC90" s="17"/>
-      <c r="AD90" s="17"/>
-      <c r="AE90" s="17"/>
-      <c r="AF90" s="17"/>
-      <c r="AG90" s="17"/>
-      <c r="AH90" s="17"/>
-      <c r="AI90" s="17"/>
+      <c r="D90" s="16"/>
+      <c r="E90" s="18"/>
+      <c r="F90" s="18"/>
+      <c r="G90" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="H90" s="18"/>
+      <c r="I90" s="18"/>
+      <c r="J90" s="18"/>
+      <c r="K90" s="18"/>
+      <c r="L90" s="18"/>
+      <c r="M90" s="18"/>
+      <c r="N90" s="18"/>
+      <c r="O90" s="18"/>
+      <c r="P90" s="18"/>
+      <c r="Q90" s="18"/>
+      <c r="R90" s="18"/>
+      <c r="S90" s="18"/>
+      <c r="T90" s="18"/>
+      <c r="U90" s="18"/>
+      <c r="V90" s="18"/>
+      <c r="W90" s="18"/>
+      <c r="X90" s="18"/>
+      <c r="Y90" s="18"/>
+      <c r="Z90" s="18"/>
+      <c r="AA90" s="18"/>
+      <c r="AB90" s="18"/>
+      <c r="AC90" s="18"/>
+      <c r="AD90" s="18"/>
+      <c r="AE90" s="18"/>
+      <c r="AF90" s="18"/>
+      <c r="AG90" s="18"/>
+      <c r="AH90" s="18"/>
+      <c r="AI90" s="16"/>
     </row>
     <row r="91" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D91" s="22"/>
-      <c r="E91" s="17"/>
-      <c r="F91" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="G91" s="17"/>
-      <c r="H91" s="17"/>
-      <c r="I91" s="17"/>
-      <c r="J91" s="17"/>
-      <c r="K91" s="17"/>
-      <c r="L91" s="17"/>
-      <c r="M91" s="17"/>
-      <c r="N91" s="17"/>
-      <c r="O91" s="17"/>
-      <c r="P91" s="17"/>
-      <c r="Q91" s="17"/>
-      <c r="R91" s="17"/>
-      <c r="S91" s="17"/>
-      <c r="T91" s="17"/>
-      <c r="U91" s="17"/>
-      <c r="V91" s="17"/>
-      <c r="W91" s="17"/>
-      <c r="X91" s="17"/>
-      <c r="Y91" s="17"/>
-      <c r="Z91" s="17"/>
-      <c r="AA91" s="17"/>
-      <c r="AB91" s="17"/>
-      <c r="AC91" s="17"/>
-      <c r="AD91" s="17"/>
-      <c r="AE91" s="17"/>
-      <c r="AF91" s="17"/>
-      <c r="AG91" s="17"/>
-      <c r="AH91" s="17"/>
-      <c r="AI91" s="17"/>
-    </row>
-    <row r="92" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D92" s="22"/>
-      <c r="E92" s="17"/>
-      <c r="F92" s="17"/>
-      <c r="G92" s="17"/>
-      <c r="H92" s="17"/>
-      <c r="I92" s="17"/>
-      <c r="J92" s="17"/>
-      <c r="K92" s="17"/>
-      <c r="L92" s="17"/>
-      <c r="M92" s="17"/>
-      <c r="N92" s="17"/>
-      <c r="O92" s="17"/>
-      <c r="P92" s="17"/>
-      <c r="Q92" s="17"/>
-      <c r="R92" s="17"/>
-      <c r="S92" s="17"/>
-      <c r="T92" s="17"/>
-      <c r="U92" s="17"/>
-      <c r="V92" s="17"/>
-      <c r="W92" s="17"/>
-      <c r="X92" s="17"/>
-      <c r="Y92" s="17"/>
-      <c r="Z92" s="17"/>
-      <c r="AA92" s="17"/>
-      <c r="AB92" s="17"/>
-      <c r="AC92" s="17"/>
-      <c r="AD92" s="17"/>
-      <c r="AE92" s="17"/>
-      <c r="AF92" s="17"/>
-      <c r="AG92" s="17"/>
-      <c r="AH92" s="17"/>
-      <c r="AI92" s="17"/>
+      <c r="D91" s="16"/>
+      <c r="E91" s="18"/>
+      <c r="F91" s="18"/>
+      <c r="G91" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="H91" s="18"/>
+      <c r="I91" s="18"/>
+      <c r="J91" s="18"/>
+      <c r="K91" s="18"/>
+      <c r="L91" s="18"/>
+      <c r="M91" s="18"/>
+      <c r="N91" s="18"/>
+      <c r="O91" s="18"/>
+      <c r="P91" s="18"/>
+      <c r="Q91" s="18"/>
+      <c r="R91" s="18"/>
+      <c r="S91" s="18"/>
+      <c r="T91" s="18"/>
+      <c r="U91" s="18"/>
+      <c r="V91" s="18"/>
+      <c r="W91" s="18"/>
+      <c r="X91" s="18"/>
+      <c r="Y91" s="18"/>
+      <c r="Z91" s="18"/>
+      <c r="AA91" s="18"/>
+      <c r="AB91" s="18"/>
+      <c r="AC91" s="18"/>
+      <c r="AD91" s="18"/>
+      <c r="AE91" s="18"/>
+      <c r="AF91" s="18"/>
+      <c r="AG91" s="18"/>
+      <c r="AH91" s="18"/>
+      <c r="AI91" s="16"/>
+    </row>
+    <row r="92" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D92" s="16"/>
+      <c r="E92" s="19"/>
+      <c r="F92" s="18"/>
+      <c r="G92" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="H92" s="18"/>
+      <c r="I92" s="18"/>
+      <c r="J92" s="18"/>
+      <c r="K92" s="18"/>
+      <c r="L92" s="18"/>
+      <c r="M92" s="18"/>
+      <c r="N92" s="18"/>
+      <c r="O92" s="18"/>
+      <c r="P92" s="18"/>
+      <c r="Q92" s="18"/>
+      <c r="R92" s="18"/>
+      <c r="S92" s="18"/>
+      <c r="T92" s="18"/>
+      <c r="U92" s="18"/>
+      <c r="V92" s="18"/>
+      <c r="W92" s="18"/>
+      <c r="X92" s="18"/>
+      <c r="Y92" s="18"/>
+      <c r="Z92" s="18"/>
+      <c r="AA92" s="18"/>
+      <c r="AB92" s="18"/>
+      <c r="AC92" s="18"/>
+      <c r="AD92" s="18"/>
+      <c r="AE92" s="18"/>
+      <c r="AF92" s="18"/>
+      <c r="AG92" s="18"/>
+      <c r="AH92" s="18"/>
+      <c r="AI92" s="16"/>
     </row>
     <row r="93" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D93" s="16"/>
-      <c r="E93" s="18"/>
+      <c r="E93" s="19"/>
       <c r="F93" s="18"/>
-      <c r="G93" s="18"/>
+      <c r="G93" s="18" t="s">
+        <v>33</v>
+      </c>
       <c r="H93" s="18"/>
       <c r="I93" s="18"/>
       <c r="J93" s="18"/>
@@ -4512,245 +4461,235 @@
       <c r="AF93" s="18"/>
       <c r="AG93" s="18"/>
       <c r="AH93" s="18"/>
-      <c r="AI93" s="18"/>
-    </row>
-    <row r="94" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D94" s="22" t="str">
-        <f>$C$7&amp;"4."</f>
-        <v>7.3.4.</v>
-      </c>
-      <c r="E94" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="F94" s="17"/>
-      <c r="G94" s="17"/>
-      <c r="H94" s="17"/>
-      <c r="I94" s="17"/>
-      <c r="J94" s="17"/>
-      <c r="K94" s="17"/>
-      <c r="L94" s="17"/>
-      <c r="M94" s="17"/>
-      <c r="N94" s="17"/>
-      <c r="O94" s="17"/>
-      <c r="P94" s="17"/>
-      <c r="Q94" s="17"/>
-      <c r="R94" s="17"/>
-      <c r="S94" s="17"/>
-      <c r="T94" s="17"/>
-      <c r="U94" s="17"/>
-      <c r="V94" s="17"/>
-      <c r="W94" s="17"/>
-      <c r="X94" s="17"/>
-      <c r="Y94" s="17"/>
-      <c r="Z94" s="17"/>
-      <c r="AA94" s="17"/>
-      <c r="AB94" s="17"/>
-      <c r="AC94" s="17"/>
-      <c r="AD94" s="17"/>
-      <c r="AE94" s="17"/>
-      <c r="AF94" s="17"/>
-      <c r="AG94" s="17"/>
-      <c r="AH94" s="17"/>
-      <c r="AI94" s="17"/>
-    </row>
-    <row r="95" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E95" s="22" t="str">
-        <f>D94&amp;"1."</f>
-        <v>7.3.4.1.</v>
-      </c>
-      <c r="F95" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="G95" s="17"/>
-      <c r="H95" s="17"/>
-      <c r="I95" s="17"/>
-      <c r="J95" s="17"/>
-      <c r="K95" s="17"/>
-      <c r="L95" s="17"/>
-      <c r="M95" s="17"/>
-      <c r="N95" s="17"/>
-      <c r="O95" s="17"/>
-      <c r="P95" s="17"/>
-      <c r="Q95" s="17"/>
-      <c r="R95" s="17"/>
-      <c r="S95" s="17"/>
-      <c r="T95" s="17"/>
-      <c r="U95" s="17"/>
-      <c r="V95" s="17"/>
-      <c r="W95" s="17"/>
-      <c r="X95" s="17"/>
-      <c r="Y95" s="17"/>
-      <c r="Z95" s="17"/>
-      <c r="AA95" s="17"/>
-      <c r="AB95" s="17"/>
-      <c r="AC95" s="17"/>
-      <c r="AD95" s="17"/>
-      <c r="AE95" s="17"/>
-      <c r="AF95" s="17"/>
-      <c r="AG95" s="17"/>
-      <c r="AH95" s="17"/>
-      <c r="AI95" s="17"/>
+      <c r="AI93" s="16"/>
+    </row>
+    <row r="94" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D94" s="16"/>
+      <c r="E94" s="18"/>
+      <c r="F94" s="18"/>
+      <c r="G94" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="H94" s="18"/>
+      <c r="I94" s="18"/>
+      <c r="J94" s="18"/>
+      <c r="K94" s="18"/>
+      <c r="L94" s="18"/>
+      <c r="M94" s="18"/>
+      <c r="N94" s="18"/>
+      <c r="O94" s="18"/>
+      <c r="P94" s="18"/>
+      <c r="Q94" s="18"/>
+      <c r="R94" s="18"/>
+      <c r="S94" s="18"/>
+      <c r="T94" s="18"/>
+      <c r="U94" s="18"/>
+      <c r="V94" s="18"/>
+      <c r="W94" s="18"/>
+      <c r="X94" s="18"/>
+      <c r="Y94" s="18"/>
+      <c r="Z94" s="18"/>
+      <c r="AA94" s="18"/>
+      <c r="AB94" s="18"/>
+      <c r="AC94" s="18"/>
+      <c r="AD94" s="18"/>
+      <c r="AE94" s="18"/>
+      <c r="AF94" s="18"/>
+      <c r="AG94" s="18"/>
+      <c r="AH94" s="18"/>
+      <c r="AI94" s="16"/>
+    </row>
+    <row r="95" spans="4:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D95" s="16"/>
+      <c r="E95" s="18"/>
+      <c r="F95" s="18"/>
+      <c r="G95" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="H95" s="18"/>
+      <c r="I95" s="18"/>
+      <c r="J95" s="18"/>
+      <c r="K95" s="18"/>
+      <c r="L95" s="18"/>
+      <c r="M95" s="18"/>
+      <c r="N95" s="18"/>
+      <c r="O95" s="18"/>
+      <c r="P95" s="18"/>
+      <c r="Q95" s="18"/>
+      <c r="R95" s="18"/>
+      <c r="S95" s="18"/>
+      <c r="T95" s="18"/>
+      <c r="U95" s="18"/>
+      <c r="V95" s="18"/>
+      <c r="W95" s="18"/>
+      <c r="X95" s="18"/>
+      <c r="Y95" s="18"/>
+      <c r="Z95" s="18"/>
+      <c r="AA95" s="18"/>
+      <c r="AB95" s="18"/>
+      <c r="AC95" s="18"/>
+      <c r="AD95" s="18"/>
+      <c r="AE95" s="18"/>
+      <c r="AF95" s="18"/>
+      <c r="AG95" s="18"/>
+      <c r="AH95" s="18"/>
+      <c r="AI95" s="16"/>
     </row>
     <row r="96" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F96" s="22" t="str">
-        <f>E95&amp;"1."</f>
-        <v>7.3.4.1.1.</v>
-      </c>
-      <c r="G96" s="20" t="s">
-        <v>75</v>
-      </c>
+      <c r="D96" s="16"/>
+      <c r="E96" s="18"/>
+      <c r="F96" s="18"/>
+      <c r="G96" s="18"/>
+      <c r="H96" s="18"/>
+      <c r="I96" s="18"/>
+      <c r="J96" s="18"/>
+      <c r="K96" s="18"/>
+      <c r="L96" s="18"/>
+      <c r="M96" s="18"/>
+      <c r="N96" s="18"/>
+      <c r="O96" s="18"/>
+      <c r="P96" s="18"/>
+      <c r="Q96" s="18"/>
+      <c r="R96" s="18"/>
+      <c r="S96" s="18"/>
+      <c r="T96" s="18"/>
+      <c r="U96" s="18"/>
+      <c r="V96" s="18"/>
+      <c r="W96" s="18"/>
+      <c r="X96" s="18"/>
+      <c r="Y96" s="18"/>
+      <c r="Z96" s="18"/>
+      <c r="AA96" s="18"/>
+      <c r="AB96" s="18"/>
+      <c r="AC96" s="18"/>
+      <c r="AD96" s="18"/>
+      <c r="AE96" s="18"/>
+      <c r="AF96" s="18"/>
+      <c r="AG96" s="18"/>
+      <c r="AH96" s="18"/>
+      <c r="AI96" s="16"/>
     </row>
     <row r="97" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D97" s="16"/>
-      <c r="E97" s="18"/>
-      <c r="F97" s="18"/>
-      <c r="G97" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="H97" s="18"/>
-      <c r="I97" s="18"/>
-      <c r="J97" s="18"/>
-      <c r="K97" s="18"/>
-      <c r="L97" s="18"/>
-      <c r="M97" s="18"/>
-      <c r="N97" s="18"/>
-      <c r="O97" s="18"/>
-      <c r="P97" s="18"/>
-      <c r="Q97" s="18"/>
-      <c r="R97" s="18"/>
-      <c r="S97" s="18"/>
-      <c r="T97" s="18"/>
-      <c r="U97" s="18"/>
-      <c r="V97" s="18"/>
-      <c r="W97" s="18"/>
-      <c r="X97" s="18"/>
-      <c r="Y97" s="18"/>
-      <c r="Z97" s="18"/>
-      <c r="AA97" s="18"/>
-      <c r="AB97" s="18"/>
-      <c r="AC97" s="18"/>
-      <c r="AD97" s="18"/>
-      <c r="AE97" s="18"/>
-      <c r="AF97" s="18"/>
-      <c r="AG97" s="18"/>
-      <c r="AH97" s="18"/>
-      <c r="AI97" s="16"/>
+      <c r="E97" s="22" t="str">
+        <f>D87&amp;"2."</f>
+        <v>7.3.4.2.</v>
+      </c>
+      <c r="F97" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G97" s="17"/>
+      <c r="H97" s="17"/>
+      <c r="I97" s="17"/>
+      <c r="J97" s="17"/>
+      <c r="K97" s="17"/>
+      <c r="L97" s="17"/>
+      <c r="M97" s="17"/>
+      <c r="N97" s="17"/>
+      <c r="O97" s="17"/>
+      <c r="P97" s="17"/>
+      <c r="Q97" s="17"/>
+      <c r="R97" s="17"/>
+      <c r="S97" s="17"/>
+      <c r="T97" s="17"/>
+      <c r="U97" s="17"/>
+      <c r="V97" s="17"/>
+      <c r="W97" s="17"/>
+      <c r="X97" s="17"/>
+      <c r="Y97" s="17"/>
+      <c r="Z97" s="17"/>
+      <c r="AA97" s="17"/>
+      <c r="AB97" s="17"/>
+      <c r="AC97" s="17"/>
+      <c r="AD97" s="17"/>
+      <c r="AE97" s="17"/>
+      <c r="AF97" s="17"/>
+      <c r="AG97" s="17"/>
+      <c r="AH97" s="17"/>
+      <c r="AI97" s="17"/>
     </row>
     <row r="98" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D98" s="16"/>
-      <c r="E98" s="18"/>
-      <c r="F98" s="18"/>
-      <c r="G98" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="H98" s="18"/>
-      <c r="I98" s="18"/>
-      <c r="J98" s="18"/>
-      <c r="K98" s="18"/>
-      <c r="L98" s="18"/>
-      <c r="M98" s="18"/>
-      <c r="N98" s="18"/>
-      <c r="O98" s="18"/>
-      <c r="P98" s="18"/>
-      <c r="Q98" s="18"/>
-      <c r="R98" s="18"/>
-      <c r="S98" s="18"/>
-      <c r="T98" s="18"/>
-      <c r="U98" s="18"/>
-      <c r="V98" s="18"/>
-      <c r="W98" s="18"/>
-      <c r="X98" s="18"/>
-      <c r="Y98" s="18"/>
-      <c r="Z98" s="18"/>
-      <c r="AA98" s="18"/>
-      <c r="AB98" s="18"/>
-      <c r="AC98" s="18"/>
-      <c r="AD98" s="18"/>
-      <c r="AE98" s="18"/>
-      <c r="AF98" s="18"/>
-      <c r="AG98" s="18"/>
-      <c r="AH98" s="18"/>
-      <c r="AI98" s="16"/>
-    </row>
-    <row r="99" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D99" s="16"/>
-      <c r="E99" s="19"/>
-      <c r="F99" s="18"/>
-      <c r="G99" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="H99" s="18"/>
-      <c r="I99" s="18"/>
-      <c r="J99" s="18"/>
-      <c r="K99" s="18"/>
-      <c r="L99" s="18"/>
-      <c r="M99" s="18"/>
-      <c r="N99" s="18"/>
-      <c r="O99" s="18"/>
-      <c r="P99" s="18"/>
-      <c r="Q99" s="18"/>
-      <c r="R99" s="18"/>
-      <c r="S99" s="18"/>
-      <c r="T99" s="18"/>
-      <c r="U99" s="18"/>
-      <c r="V99" s="18"/>
-      <c r="W99" s="18"/>
-      <c r="X99" s="18"/>
-      <c r="Y99" s="18"/>
-      <c r="Z99" s="18"/>
-      <c r="AA99" s="18"/>
-      <c r="AB99" s="18"/>
-      <c r="AC99" s="18"/>
-      <c r="AD99" s="18"/>
-      <c r="AE99" s="18"/>
-      <c r="AF99" s="18"/>
-      <c r="AG99" s="18"/>
-      <c r="AH99" s="18"/>
-      <c r="AI99" s="16"/>
+      <c r="F98" s="22" t="str">
+        <f>E97&amp;"1."</f>
+        <v>7.3.4.2.1.</v>
+      </c>
+      <c r="G98" s="21" t="str">
+        <f>F97&amp;"方法"</f>
+        <v>トランザクション分離レベル方法</v>
+      </c>
+    </row>
+    <row r="99" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G99" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="H99" s="33"/>
+      <c r="I99" s="33"/>
+      <c r="J99" s="34"/>
+      <c r="K99" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="L99" s="33"/>
+      <c r="M99" s="33"/>
+      <c r="N99" s="33"/>
+      <c r="O99" s="33"/>
+      <c r="P99" s="33"/>
+      <c r="Q99" s="33"/>
+      <c r="R99" s="33"/>
+      <c r="S99" s="33"/>
+      <c r="T99" s="33"/>
+      <c r="U99" s="33"/>
+      <c r="V99" s="33"/>
+      <c r="W99" s="33"/>
+      <c r="X99" s="33"/>
+      <c r="Y99" s="33"/>
+      <c r="Z99" s="33"/>
+      <c r="AA99" s="33"/>
+      <c r="AB99" s="33"/>
+      <c r="AC99" s="33"/>
+      <c r="AD99" s="33"/>
+      <c r="AE99" s="33"/>
+      <c r="AF99" s="33"/>
+      <c r="AG99" s="33"/>
+      <c r="AH99" s="34"/>
     </row>
     <row r="100" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D100" s="16"/>
-      <c r="E100" s="19"/>
-      <c r="F100" s="18"/>
-      <c r="G100" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="H100" s="18"/>
-      <c r="I100" s="18"/>
-      <c r="J100" s="18"/>
-      <c r="K100" s="18"/>
-      <c r="L100" s="18"/>
-      <c r="M100" s="18"/>
-      <c r="N100" s="18"/>
-      <c r="O100" s="18"/>
-      <c r="P100" s="18"/>
-      <c r="Q100" s="18"/>
-      <c r="R100" s="18"/>
-      <c r="S100" s="18"/>
-      <c r="T100" s="18"/>
-      <c r="U100" s="18"/>
-      <c r="V100" s="18"/>
-      <c r="W100" s="18"/>
-      <c r="X100" s="18"/>
-      <c r="Y100" s="18"/>
-      <c r="Z100" s="18"/>
-      <c r="AA100" s="18"/>
-      <c r="AB100" s="18"/>
-      <c r="AC100" s="18"/>
-      <c r="AD100" s="18"/>
-      <c r="AE100" s="18"/>
-      <c r="AF100" s="18"/>
-      <c r="AG100" s="18"/>
-      <c r="AH100" s="18"/>
-      <c r="AI100" s="16"/>
+      <c r="G100" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="H100" s="46"/>
+      <c r="I100" s="46"/>
+      <c r="J100" s="47"/>
+      <c r="K100" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="L100" s="46"/>
+      <c r="M100" s="46"/>
+      <c r="N100" s="46"/>
+      <c r="O100" s="46"/>
+      <c r="P100" s="46"/>
+      <c r="Q100" s="46"/>
+      <c r="R100" s="46"/>
+      <c r="S100" s="46"/>
+      <c r="T100" s="46"/>
+      <c r="U100" s="46"/>
+      <c r="V100" s="46"/>
+      <c r="W100" s="46"/>
+      <c r="X100" s="46"/>
+      <c r="Y100" s="46"/>
+      <c r="Z100" s="46"/>
+      <c r="AA100" s="46"/>
+      <c r="AB100" s="46"/>
+      <c r="AC100" s="46"/>
+      <c r="AD100" s="46"/>
+      <c r="AE100" s="46"/>
+      <c r="AF100" s="46"/>
+      <c r="AG100" s="46"/>
+      <c r="AH100" s="47"/>
     </row>
     <row r="101" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D101" s="16"/>
-      <c r="E101" s="18"/>
+      <c r="C101" s="21"/>
+      <c r="E101" s="16"/>
       <c r="F101" s="18"/>
-      <c r="G101" s="18" t="s">
-        <v>30</v>
-      </c>
+      <c r="G101" s="18"/>
       <c r="H101" s="18"/>
       <c r="I101" s="18"/>
       <c r="J101" s="18"/>
@@ -4784,9 +4723,7 @@
       <c r="D102" s="16"/>
       <c r="E102" s="18"/>
       <c r="F102" s="18"/>
-      <c r="G102" s="18" t="s">
-        <v>136</v>
-      </c>
+      <c r="G102" s="18"/>
       <c r="H102" s="18"/>
       <c r="I102" s="18"/>
       <c r="J102" s="18"/>
@@ -4813,687 +4750,690 @@
       <c r="AE102" s="18"/>
       <c r="AF102" s="18"/>
       <c r="AG102" s="18"/>
-      <c r="AH102" s="18"/>
-      <c r="AI102" s="16"/>
+      <c r="AH102" s="16"/>
     </row>
     <row r="103" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D103" s="16"/>
-      <c r="E103" s="18"/>
-      <c r="F103" s="18"/>
-      <c r="G103" s="18"/>
-      <c r="H103" s="18"/>
-      <c r="I103" s="18"/>
-      <c r="J103" s="18"/>
-      <c r="K103" s="18"/>
-      <c r="L103" s="18"/>
-      <c r="M103" s="18"/>
-      <c r="N103" s="18"/>
-      <c r="O103" s="18"/>
-      <c r="P103" s="18"/>
-      <c r="Q103" s="18"/>
-      <c r="R103" s="18"/>
-      <c r="S103" s="18"/>
-      <c r="T103" s="18"/>
-      <c r="U103" s="18"/>
-      <c r="V103" s="18"/>
-      <c r="W103" s="18"/>
-      <c r="X103" s="18"/>
-      <c r="Y103" s="18"/>
-      <c r="Z103" s="18"/>
-      <c r="AA103" s="18"/>
-      <c r="AB103" s="18"/>
-      <c r="AC103" s="18"/>
-      <c r="AD103" s="18"/>
-      <c r="AE103" s="18"/>
-      <c r="AF103" s="18"/>
-      <c r="AG103" s="18"/>
-      <c r="AH103" s="18"/>
-      <c r="AI103" s="16"/>
+      <c r="E103" s="22" t="str">
+        <f>D87&amp;"3."</f>
+        <v>7.3.4.3.</v>
+      </c>
+      <c r="F103" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="G103" s="17"/>
+      <c r="H103" s="17"/>
+      <c r="I103" s="17"/>
+      <c r="J103" s="17"/>
+      <c r="K103" s="17"/>
+      <c r="L103" s="17"/>
+      <c r="M103" s="17"/>
+      <c r="N103" s="17"/>
+      <c r="O103" s="17"/>
+      <c r="P103" s="17"/>
+      <c r="Q103" s="17"/>
+      <c r="R103" s="17"/>
+      <c r="S103" s="17"/>
+      <c r="T103" s="17"/>
+      <c r="U103" s="17"/>
+      <c r="V103" s="17"/>
+      <c r="W103" s="17"/>
+      <c r="X103" s="17"/>
+      <c r="Y103" s="17"/>
+      <c r="Z103" s="17"/>
+      <c r="AA103" s="17"/>
+      <c r="AB103" s="17"/>
+      <c r="AC103" s="17"/>
+      <c r="AD103" s="17"/>
+      <c r="AE103" s="17"/>
+      <c r="AF103" s="17"/>
+      <c r="AG103" s="17"/>
+      <c r="AH103" s="17"/>
+      <c r="AI103" s="17"/>
     </row>
     <row r="104" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E104" s="22" t="str">
-        <f>D94&amp;"2."</f>
-        <v>7.3.4.2.</v>
-      </c>
-      <c r="F104" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="G104" s="17"/>
-      <c r="H104" s="17"/>
-      <c r="I104" s="17"/>
-      <c r="J104" s="17"/>
-      <c r="K104" s="17"/>
-      <c r="L104" s="17"/>
-      <c r="M104" s="17"/>
-      <c r="N104" s="17"/>
-      <c r="O104" s="17"/>
-      <c r="P104" s="17"/>
-      <c r="Q104" s="17"/>
-      <c r="R104" s="17"/>
-      <c r="S104" s="17"/>
-      <c r="T104" s="17"/>
-      <c r="U104" s="17"/>
-      <c r="V104" s="17"/>
-      <c r="W104" s="17"/>
-      <c r="X104" s="17"/>
-      <c r="Y104" s="17"/>
-      <c r="Z104" s="17"/>
-      <c r="AA104" s="17"/>
-      <c r="AB104" s="17"/>
-      <c r="AC104" s="17"/>
-      <c r="AD104" s="17"/>
-      <c r="AE104" s="17"/>
-      <c r="AF104" s="17"/>
-      <c r="AG104" s="17"/>
-      <c r="AH104" s="17"/>
-      <c r="AI104" s="17"/>
+      <c r="E104" s="22"/>
+      <c r="F104" s="22" t="str">
+        <f>E103&amp;"1."</f>
+        <v>7.3.4.3.1.</v>
+      </c>
+      <c r="G104" s="21" t="str">
+        <f>F103&amp;"機能概要"</f>
+        <v>処理タイムアウト機能概要</v>
+      </c>
     </row>
     <row r="105" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F105" s="22" t="str">
-        <f>E104&amp;"1."</f>
-        <v>7.3.4.2.1.</v>
-      </c>
-      <c r="G105" s="21" t="str">
-        <f>F104&amp;"方法"</f>
-        <v>トランザクション分離レベル方法</v>
+      <c r="G105" s="21" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="106" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G106" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="H106" s="33"/>
-      <c r="I106" s="33"/>
-      <c r="J106" s="34"/>
-      <c r="K106" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="L106" s="33"/>
-      <c r="M106" s="33"/>
-      <c r="N106" s="33"/>
-      <c r="O106" s="33"/>
-      <c r="P106" s="33"/>
-      <c r="Q106" s="33"/>
-      <c r="R106" s="33"/>
-      <c r="S106" s="33"/>
-      <c r="T106" s="33"/>
-      <c r="U106" s="33"/>
-      <c r="V106" s="33"/>
-      <c r="W106" s="33"/>
-      <c r="X106" s="33"/>
-      <c r="Y106" s="33"/>
-      <c r="Z106" s="33"/>
-      <c r="AA106" s="33"/>
-      <c r="AB106" s="33"/>
-      <c r="AC106" s="33"/>
-      <c r="AD106" s="33"/>
-      <c r="AE106" s="33"/>
-      <c r="AF106" s="33"/>
-      <c r="AG106" s="33"/>
-      <c r="AH106" s="34"/>
+      <c r="G106" s="21" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="107" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G107" s="45" t="s">
-        <v>36</v>
-      </c>
-      <c r="H107" s="46"/>
-      <c r="I107" s="46"/>
-      <c r="J107" s="47"/>
-      <c r="K107" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="L107" s="46"/>
-      <c r="M107" s="46"/>
-      <c r="N107" s="46"/>
-      <c r="O107" s="46"/>
-      <c r="P107" s="46"/>
-      <c r="Q107" s="46"/>
-      <c r="R107" s="46"/>
-      <c r="S107" s="46"/>
-      <c r="T107" s="46"/>
-      <c r="U107" s="46"/>
-      <c r="V107" s="46"/>
-      <c r="W107" s="46"/>
-      <c r="X107" s="46"/>
-      <c r="Y107" s="46"/>
-      <c r="Z107" s="46"/>
-      <c r="AA107" s="46"/>
-      <c r="AB107" s="46"/>
-      <c r="AC107" s="46"/>
-      <c r="AD107" s="46"/>
-      <c r="AE107" s="46"/>
-      <c r="AF107" s="46"/>
-      <c r="AG107" s="46"/>
-      <c r="AH107" s="47"/>
-    </row>
-    <row r="108" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C108" s="21"/>
-      <c r="E108" s="16"/>
-      <c r="F108" s="18"/>
-      <c r="G108" s="18"/>
-      <c r="H108" s="18"/>
-      <c r="I108" s="18"/>
-      <c r="J108" s="18"/>
-      <c r="K108" s="18"/>
-      <c r="L108" s="18"/>
-      <c r="M108" s="18"/>
-      <c r="N108" s="18"/>
-      <c r="O108" s="18"/>
-      <c r="P108" s="18"/>
-      <c r="Q108" s="18"/>
-      <c r="R108" s="18"/>
-      <c r="S108" s="18"/>
-      <c r="T108" s="18"/>
-      <c r="U108" s="18"/>
-      <c r="V108" s="18"/>
-      <c r="W108" s="18"/>
-      <c r="X108" s="18"/>
-      <c r="Y108" s="18"/>
-      <c r="Z108" s="18"/>
-      <c r="AA108" s="18"/>
-      <c r="AB108" s="18"/>
-      <c r="AC108" s="18"/>
-      <c r="AD108" s="18"/>
-      <c r="AE108" s="18"/>
-      <c r="AF108" s="18"/>
-      <c r="AG108" s="18"/>
-      <c r="AH108" s="18"/>
-      <c r="AI108" s="16"/>
-    </row>
-    <row r="109" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D109" s="16"/>
-      <c r="E109" s="18"/>
-      <c r="F109" s="18"/>
-      <c r="G109" s="18"/>
-      <c r="H109" s="18"/>
-      <c r="I109" s="18"/>
-      <c r="J109" s="18"/>
-      <c r="K109" s="18"/>
-      <c r="L109" s="18"/>
-      <c r="M109" s="18"/>
-      <c r="N109" s="18"/>
-      <c r="O109" s="18"/>
-      <c r="P109" s="18"/>
-      <c r="Q109" s="18"/>
-      <c r="R109" s="18"/>
-      <c r="S109" s="18"/>
-      <c r="T109" s="18"/>
-      <c r="U109" s="18"/>
-      <c r="V109" s="18"/>
-      <c r="W109" s="18"/>
-      <c r="X109" s="18"/>
-      <c r="Y109" s="18"/>
-      <c r="Z109" s="18"/>
-      <c r="AA109" s="18"/>
-      <c r="AB109" s="18"/>
-      <c r="AC109" s="18"/>
-      <c r="AD109" s="18"/>
-      <c r="AE109" s="18"/>
-      <c r="AF109" s="18"/>
-      <c r="AG109" s="18"/>
-      <c r="AH109" s="16"/>
+      <c r="G107" s="21" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="108" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F109" s="22" t="str">
+        <f>E103&amp;"2."</f>
+        <v>7.3.4.3.2.</v>
+      </c>
+      <c r="G109" s="21" t="str">
+        <f>F103&amp;"方法"</f>
+        <v>処理タイムアウト方法</v>
+      </c>
     </row>
     <row r="110" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E110" s="22" t="str">
-        <f>D94&amp;"3."</f>
-        <v>7.3.4.3.</v>
-      </c>
-      <c r="F110" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="G110" s="17"/>
-      <c r="H110" s="17"/>
-      <c r="I110" s="17"/>
-      <c r="J110" s="17"/>
-      <c r="K110" s="17"/>
-      <c r="L110" s="17"/>
-      <c r="M110" s="17"/>
-      <c r="N110" s="17"/>
-      <c r="O110" s="17"/>
-      <c r="P110" s="17"/>
-      <c r="Q110" s="17"/>
-      <c r="R110" s="17"/>
-      <c r="S110" s="17"/>
-      <c r="T110" s="17"/>
-      <c r="U110" s="17"/>
-      <c r="V110" s="17"/>
-      <c r="W110" s="17"/>
-      <c r="X110" s="17"/>
-      <c r="Y110" s="17"/>
-      <c r="Z110" s="17"/>
-      <c r="AA110" s="17"/>
-      <c r="AB110" s="17"/>
-      <c r="AC110" s="17"/>
-      <c r="AD110" s="17"/>
-      <c r="AE110" s="17"/>
-      <c r="AF110" s="17"/>
-      <c r="AG110" s="17"/>
-      <c r="AH110" s="17"/>
-      <c r="AI110" s="17"/>
+      <c r="G110" s="21" t="str">
+        <f>F103&amp;"を行う機能には、以下の方法がある。これらは原則全て使用される。"</f>
+        <v>処理タイムアウトを行う機能には、以下の方法がある。これらは原則全て使用される。</v>
+      </c>
     </row>
     <row r="111" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E111" s="22"/>
-      <c r="F111" s="22" t="str">
-        <f>E110&amp;"1."</f>
-        <v>7.3.4.3.1.</v>
-      </c>
-      <c r="G111" s="21" t="str">
-        <f>F110&amp;"機能概要"</f>
-        <v>処理タイムアウト機能概要</v>
-      </c>
+      <c r="C111" s="20"/>
+      <c r="D111" s="20"/>
+      <c r="E111" s="20"/>
+      <c r="G111" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="H111" s="33"/>
+      <c r="I111" s="33"/>
+      <c r="J111" s="33"/>
+      <c r="K111" s="34"/>
+      <c r="L111" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="M111" s="33"/>
+      <c r="N111" s="33"/>
+      <c r="O111" s="33"/>
+      <c r="P111" s="33"/>
+      <c r="Q111" s="33"/>
+      <c r="R111" s="33"/>
+      <c r="S111" s="33"/>
+      <c r="T111" s="33"/>
+      <c r="U111" s="33"/>
+      <c r="V111" s="33"/>
+      <c r="W111" s="33"/>
+      <c r="X111" s="33"/>
+      <c r="Y111" s="33"/>
+      <c r="Z111" s="33"/>
+      <c r="AA111" s="33"/>
+      <c r="AB111" s="33"/>
+      <c r="AC111" s="33"/>
+      <c r="AD111" s="33"/>
+      <c r="AE111" s="33"/>
+      <c r="AF111" s="33"/>
+      <c r="AG111" s="33"/>
+      <c r="AH111" s="34"/>
     </row>
     <row r="112" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G112" s="21" t="s">
+      <c r="C112" s="20"/>
+      <c r="D112" s="20"/>
+      <c r="E112" s="20"/>
+      <c r="G112" s="28" t="s">
         <v>40</v>
       </c>
+      <c r="H112" s="29"/>
+      <c r="I112" s="29"/>
+      <c r="J112" s="29"/>
+      <c r="K112" s="29"/>
+      <c r="L112" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="M112" s="29"/>
+      <c r="N112" s="29"/>
+      <c r="O112" s="29"/>
+      <c r="P112" s="29"/>
+      <c r="Q112" s="29"/>
+      <c r="R112" s="29"/>
+      <c r="S112" s="29"/>
+      <c r="T112" s="29"/>
+      <c r="U112" s="29"/>
+      <c r="V112" s="29"/>
+      <c r="W112" s="29"/>
+      <c r="X112" s="29"/>
+      <c r="Y112" s="29"/>
+      <c r="Z112" s="29"/>
+      <c r="AA112" s="29"/>
+      <c r="AB112" s="29"/>
+      <c r="AC112" s="29"/>
+      <c r="AD112" s="29"/>
+      <c r="AE112" s="29"/>
+      <c r="AF112" s="29"/>
+      <c r="AG112" s="29"/>
+      <c r="AH112" s="30"/>
     </row>
     <row r="113" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G113" s="21" t="s">
-        <v>101</v>
-      </c>
+      <c r="C113" s="20"/>
+      <c r="D113" s="20"/>
+      <c r="E113" s="20"/>
+      <c r="G113" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="H113" s="29"/>
+      <c r="I113" s="29"/>
+      <c r="J113" s="29"/>
+      <c r="K113" s="29"/>
+      <c r="L113" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="M113" s="29"/>
+      <c r="N113" s="29"/>
+      <c r="O113" s="29"/>
+      <c r="P113" s="29"/>
+      <c r="Q113" s="29"/>
+      <c r="R113" s="29"/>
+      <c r="S113" s="29"/>
+      <c r="T113" s="29"/>
+      <c r="U113" s="29"/>
+      <c r="V113" s="29"/>
+      <c r="W113" s="29"/>
+      <c r="X113" s="29"/>
+      <c r="Y113" s="29"/>
+      <c r="Z113" s="29"/>
+      <c r="AA113" s="29"/>
+      <c r="AB113" s="29"/>
+      <c r="AC113" s="29"/>
+      <c r="AD113" s="29"/>
+      <c r="AE113" s="29"/>
+      <c r="AF113" s="29"/>
+      <c r="AG113" s="29"/>
+      <c r="AH113" s="30"/>
     </row>
     <row r="114" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G114" s="21" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="115" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="C114" s="20"/>
+      <c r="D114" s="20"/>
+      <c r="E114" s="20"/>
+      <c r="G114" s="26"/>
+      <c r="H114" s="27"/>
+      <c r="I114" s="27"/>
+      <c r="J114" s="27"/>
+      <c r="K114" s="27"/>
+      <c r="L114" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="M114" s="27"/>
+      <c r="N114" s="27"/>
+      <c r="O114" s="27"/>
+      <c r="P114" s="27"/>
+      <c r="Q114" s="27"/>
+      <c r="R114" s="27"/>
+      <c r="S114" s="27"/>
+      <c r="T114" s="27"/>
+      <c r="U114" s="27"/>
+      <c r="V114" s="27"/>
+      <c r="W114" s="27"/>
+      <c r="X114" s="27"/>
+      <c r="Y114" s="27"/>
+      <c r="Z114" s="27"/>
+      <c r="AA114" s="27"/>
+      <c r="AB114" s="27"/>
+      <c r="AC114" s="27"/>
+      <c r="AD114" s="27"/>
+      <c r="AE114" s="27"/>
+      <c r="AF114" s="27"/>
+      <c r="AG114" s="27"/>
+      <c r="AH114" s="31"/>
+    </row>
+    <row r="115" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D115" s="16"/>
+      <c r="E115" s="18"/>
+      <c r="F115" s="18"/>
+      <c r="G115" s="18"/>
+      <c r="H115" s="18"/>
+      <c r="I115" s="18"/>
+      <c r="J115" s="18"/>
+      <c r="K115" s="18"/>
+      <c r="L115" s="18"/>
+      <c r="M115" s="18"/>
+      <c r="N115" s="18"/>
+      <c r="O115" s="18"/>
+      <c r="P115" s="18"/>
+      <c r="Q115" s="18"/>
+      <c r="R115" s="18"/>
+      <c r="S115" s="18"/>
+      <c r="T115" s="18"/>
+      <c r="U115" s="18"/>
+      <c r="V115" s="18"/>
+      <c r="W115" s="18"/>
+      <c r="X115" s="18"/>
+      <c r="Y115" s="18"/>
+      <c r="Z115" s="18"/>
+      <c r="AA115" s="18"/>
+      <c r="AB115" s="18"/>
+      <c r="AC115" s="18"/>
+      <c r="AD115" s="18"/>
+      <c r="AE115" s="18"/>
+      <c r="AF115" s="18"/>
+      <c r="AG115" s="18"/>
+      <c r="AH115" s="18"/>
+      <c r="AI115" s="18"/>
+    </row>
     <row r="116" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F116" s="22" t="str">
-        <f>E110&amp;"2."</f>
-        <v>7.3.4.3.2.</v>
-      </c>
-      <c r="G116" s="21" t="str">
-        <f>F110&amp;"方法"</f>
-        <v>処理タイムアウト方法</v>
-      </c>
+      <c r="E116" s="22" t="str">
+        <f>D87&amp;"4."</f>
+        <v>7.3.4.4.</v>
+      </c>
+      <c r="F116" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="G116" s="17"/>
+      <c r="H116" s="17"/>
+      <c r="I116" s="17"/>
+      <c r="J116" s="17"/>
+      <c r="K116" s="17"/>
+      <c r="L116" s="17"/>
+      <c r="M116" s="17"/>
+      <c r="N116" s="17"/>
+      <c r="O116" s="17"/>
+      <c r="P116" s="17"/>
+      <c r="Q116" s="17"/>
+      <c r="R116" s="17"/>
+      <c r="S116" s="17"/>
+      <c r="T116" s="17"/>
+      <c r="U116" s="17"/>
+      <c r="V116" s="17"/>
+      <c r="W116" s="17"/>
+      <c r="X116" s="17"/>
+      <c r="Y116" s="17"/>
+      <c r="Z116" s="17"/>
+      <c r="AA116" s="17"/>
+      <c r="AB116" s="17"/>
+      <c r="AC116" s="17"/>
+      <c r="AD116" s="17"/>
+      <c r="AE116" s="17"/>
+      <c r="AF116" s="17"/>
+      <c r="AG116" s="17"/>
+      <c r="AH116" s="17"/>
+      <c r="AI116" s="17"/>
     </row>
     <row r="117" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E117" s="22"/>
+      <c r="F117" s="22" t="str">
+        <f>$E$116&amp;"1."</f>
+        <v>7.3.4.4.1.</v>
+      </c>
       <c r="G117" s="21" t="str">
-        <f>F110&amp;"を行う機能には、以下の方法がある。これらは原則全て使用される。"</f>
-        <v>処理タイムアウトを行う機能には、以下の方法がある。これらは原則全て使用される。</v>
+        <f>F116&amp;"機能概要"</f>
+        <v>排他制御機能概要</v>
       </c>
     </row>
     <row r="118" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C118" s="20"/>
-      <c r="D118" s="20"/>
-      <c r="E118" s="20"/>
-      <c r="G118" s="32" t="s">
+      <c r="G118" s="21" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="119" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G119" s="21" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="120" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F121" s="22" t="str">
+        <f>$E$116&amp;"2."</f>
+        <v>7.3.4.4.2.</v>
+      </c>
+      <c r="G121" s="21" t="str">
+        <f>F116&amp;"方法"</f>
+        <v>排他制御方法</v>
+      </c>
+    </row>
+    <row r="122" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G122" s="21" t="str">
+        <f>F116&amp;"を行う機能には、以下の方法がある。"</f>
+        <v>排他制御を行う機能には、以下の方法がある。</v>
+      </c>
+    </row>
+    <row r="123" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C124" s="20"/>
+      <c r="D124" s="20"/>
+      <c r="E124" s="20"/>
+      <c r="G124" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="H118" s="33"/>
-      <c r="I118" s="33"/>
-      <c r="J118" s="33"/>
-      <c r="K118" s="34"/>
-      <c r="L118" s="33" t="s">
+      <c r="H124" s="33"/>
+      <c r="I124" s="33"/>
+      <c r="J124" s="33"/>
+      <c r="K124" s="34"/>
+      <c r="L124" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="M118" s="33"/>
-      <c r="N118" s="33"/>
-      <c r="O118" s="33"/>
-      <c r="P118" s="33"/>
-      <c r="Q118" s="33"/>
-      <c r="R118" s="33"/>
-      <c r="S118" s="33"/>
-      <c r="T118" s="33"/>
-      <c r="U118" s="33"/>
-      <c r="V118" s="33"/>
-      <c r="W118" s="33"/>
-      <c r="X118" s="33"/>
-      <c r="Y118" s="33"/>
-      <c r="Z118" s="33"/>
-      <c r="AA118" s="33"/>
-      <c r="AB118" s="33"/>
-      <c r="AC118" s="33"/>
-      <c r="AD118" s="33"/>
-      <c r="AE118" s="33"/>
-      <c r="AF118" s="33"/>
-      <c r="AG118" s="33"/>
-      <c r="AH118" s="34"/>
-    </row>
-    <row r="119" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C119" s="20"/>
-      <c r="D119" s="20"/>
-      <c r="E119" s="20"/>
-      <c r="G119" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="H119" s="29"/>
-      <c r="I119" s="29"/>
-      <c r="J119" s="29"/>
-      <c r="K119" s="29"/>
-      <c r="L119" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="M119" s="29"/>
-      <c r="N119" s="29"/>
-      <c r="O119" s="29"/>
-      <c r="P119" s="29"/>
-      <c r="Q119" s="29"/>
-      <c r="R119" s="29"/>
-      <c r="S119" s="29"/>
-      <c r="T119" s="29"/>
-      <c r="U119" s="29"/>
-      <c r="V119" s="29"/>
-      <c r="W119" s="29"/>
-      <c r="X119" s="29"/>
-      <c r="Y119" s="29"/>
-      <c r="Z119" s="29"/>
-      <c r="AA119" s="29"/>
-      <c r="AB119" s="29"/>
-      <c r="AC119" s="29"/>
-      <c r="AD119" s="29"/>
-      <c r="AE119" s="29"/>
-      <c r="AF119" s="29"/>
-      <c r="AG119" s="29"/>
-      <c r="AH119" s="30"/>
-    </row>
-    <row r="120" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C120" s="20"/>
-      <c r="D120" s="20"/>
-      <c r="E120" s="20"/>
-      <c r="G120" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="H120" s="29"/>
-      <c r="I120" s="29"/>
-      <c r="J120" s="29"/>
-      <c r="K120" s="29"/>
-      <c r="L120" s="28" t="s">
+      <c r="M124" s="33"/>
+      <c r="N124" s="33"/>
+      <c r="O124" s="33"/>
+      <c r="P124" s="33"/>
+      <c r="Q124" s="33"/>
+      <c r="R124" s="33"/>
+      <c r="S124" s="33"/>
+      <c r="T124" s="33"/>
+      <c r="U124" s="33"/>
+      <c r="V124" s="33"/>
+      <c r="W124" s="33"/>
+      <c r="X124" s="33"/>
+      <c r="Y124" s="33"/>
+      <c r="Z124" s="33"/>
+      <c r="AA124" s="33"/>
+      <c r="AB124" s="33"/>
+      <c r="AC124" s="33"/>
+      <c r="AD124" s="33"/>
+      <c r="AE124" s="33"/>
+      <c r="AF124" s="33"/>
+      <c r="AG124" s="33"/>
+      <c r="AH124" s="34"/>
+    </row>
+    <row r="125" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C125" s="20"/>
+      <c r="D125" s="20"/>
+      <c r="E125" s="20"/>
+      <c r="G125" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="H125" s="29"/>
+      <c r="I125" s="29"/>
+      <c r="J125" s="29"/>
+      <c r="K125" s="29"/>
+      <c r="L125" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="M125" s="29"/>
+      <c r="N125" s="29"/>
+      <c r="O125" s="29"/>
+      <c r="P125" s="29"/>
+      <c r="Q125" s="29"/>
+      <c r="R125" s="29"/>
+      <c r="S125" s="29"/>
+      <c r="T125" s="29"/>
+      <c r="U125" s="29"/>
+      <c r="V125" s="29"/>
+      <c r="W125" s="29"/>
+      <c r="X125" s="29"/>
+      <c r="Y125" s="29"/>
+      <c r="Z125" s="29"/>
+      <c r="AA125" s="29"/>
+      <c r="AB125" s="29"/>
+      <c r="AC125" s="29"/>
+      <c r="AD125" s="29"/>
+      <c r="AE125" s="29"/>
+      <c r="AF125" s="29"/>
+      <c r="AG125" s="29"/>
+      <c r="AH125" s="30"/>
+    </row>
+    <row r="126" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C126" s="20"/>
+      <c r="D126" s="20"/>
+      <c r="E126" s="20"/>
+      <c r="G126" s="23"/>
+      <c r="H126" s="24"/>
+      <c r="I126" s="24"/>
+      <c r="J126" s="24"/>
+      <c r="K126" s="24"/>
+      <c r="L126" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="M126" s="24"/>
+      <c r="N126" s="24"/>
+      <c r="O126" s="24"/>
+      <c r="P126" s="24"/>
+      <c r="Q126" s="24"/>
+      <c r="R126" s="24"/>
+      <c r="S126" s="24"/>
+      <c r="T126" s="24"/>
+      <c r="U126" s="24"/>
+      <c r="V126" s="24"/>
+      <c r="W126" s="24"/>
+      <c r="X126" s="24"/>
+      <c r="Y126" s="24"/>
+      <c r="Z126" s="24"/>
+      <c r="AA126" s="24"/>
+      <c r="AB126" s="24"/>
+      <c r="AC126" s="24"/>
+      <c r="AD126" s="24"/>
+      <c r="AE126" s="24"/>
+      <c r="AF126" s="24"/>
+      <c r="AG126" s="24"/>
+      <c r="AH126" s="25"/>
+    </row>
+    <row r="127" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C127" s="20"/>
+      <c r="D127" s="20"/>
+      <c r="E127" s="20"/>
+      <c r="G127" s="23"/>
+      <c r="H127" s="24"/>
+      <c r="I127" s="24"/>
+      <c r="J127" s="24"/>
+      <c r="K127" s="24"/>
+      <c r="L127" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M127" s="24"/>
+      <c r="N127" s="24"/>
+      <c r="O127" s="24"/>
+      <c r="P127" s="24"/>
+      <c r="Q127" s="24"/>
+      <c r="R127" s="24"/>
+      <c r="S127" s="24"/>
+      <c r="T127" s="24"/>
+      <c r="U127" s="24"/>
+      <c r="V127" s="24"/>
+      <c r="W127" s="24"/>
+      <c r="X127" s="24"/>
+      <c r="Y127" s="24"/>
+      <c r="Z127" s="24"/>
+      <c r="AA127" s="24"/>
+      <c r="AB127" s="24"/>
+      <c r="AC127" s="24"/>
+      <c r="AD127" s="24"/>
+      <c r="AE127" s="24"/>
+      <c r="AF127" s="24"/>
+      <c r="AG127" s="24"/>
+      <c r="AH127" s="25"/>
+    </row>
+    <row r="128" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C128" s="20"/>
+      <c r="D128" s="20"/>
+      <c r="E128" s="20"/>
+      <c r="G128" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="H128" s="29"/>
+      <c r="I128" s="29"/>
+      <c r="J128" s="29"/>
+      <c r="K128" s="29"/>
+      <c r="L128" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="M128" s="29"/>
+      <c r="N128" s="29"/>
+      <c r="O128" s="29"/>
+      <c r="P128" s="29"/>
+      <c r="Q128" s="29"/>
+      <c r="R128" s="29"/>
+      <c r="S128" s="29"/>
+      <c r="T128" s="29"/>
+      <c r="U128" s="29"/>
+      <c r="V128" s="29"/>
+      <c r="W128" s="29"/>
+      <c r="X128" s="29"/>
+      <c r="Y128" s="29"/>
+      <c r="Z128" s="29"/>
+      <c r="AA128" s="29"/>
+      <c r="AB128" s="29"/>
+      <c r="AC128" s="29"/>
+      <c r="AD128" s="29"/>
+      <c r="AE128" s="29"/>
+      <c r="AF128" s="29"/>
+      <c r="AG128" s="29"/>
+      <c r="AH128" s="30"/>
+    </row>
+    <row r="129" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C129" s="20"/>
+      <c r="D129" s="20"/>
+      <c r="E129" s="20"/>
+      <c r="G129" s="23"/>
+      <c r="H129" s="24"/>
+      <c r="I129" s="24"/>
+      <c r="J129" s="24"/>
+      <c r="K129" s="24"/>
+      <c r="L129" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="M120" s="29"/>
-      <c r="N120" s="29"/>
-      <c r="O120" s="29"/>
-      <c r="P120" s="29"/>
-      <c r="Q120" s="29"/>
-      <c r="R120" s="29"/>
-      <c r="S120" s="29"/>
-      <c r="T120" s="29"/>
-      <c r="U120" s="29"/>
-      <c r="V120" s="29"/>
-      <c r="W120" s="29"/>
-      <c r="X120" s="29"/>
-      <c r="Y120" s="29"/>
-      <c r="Z120" s="29"/>
-      <c r="AA120" s="29"/>
-      <c r="AB120" s="29"/>
-      <c r="AC120" s="29"/>
-      <c r="AD120" s="29"/>
-      <c r="AE120" s="29"/>
-      <c r="AF120" s="29"/>
-      <c r="AG120" s="29"/>
-      <c r="AH120" s="30"/>
-    </row>
-    <row r="121" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C121" s="20"/>
-      <c r="D121" s="20"/>
-      <c r="E121" s="20"/>
-      <c r="G121" s="26"/>
-      <c r="H121" s="27"/>
-      <c r="I121" s="27"/>
-      <c r="J121" s="27"/>
-      <c r="K121" s="27"/>
-      <c r="L121" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="M121" s="27"/>
-      <c r="N121" s="27"/>
-      <c r="O121" s="27"/>
-      <c r="P121" s="27"/>
-      <c r="Q121" s="27"/>
-      <c r="R121" s="27"/>
-      <c r="S121" s="27"/>
-      <c r="T121" s="27"/>
-      <c r="U121" s="27"/>
-      <c r="V121" s="27"/>
-      <c r="W121" s="27"/>
-      <c r="X121" s="27"/>
-      <c r="Y121" s="27"/>
-      <c r="Z121" s="27"/>
-      <c r="AA121" s="27"/>
-      <c r="AB121" s="27"/>
-      <c r="AC121" s="27"/>
-      <c r="AD121" s="27"/>
-      <c r="AE121" s="27"/>
-      <c r="AF121" s="27"/>
-      <c r="AG121" s="27"/>
-      <c r="AH121" s="31"/>
-    </row>
-    <row r="122" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D122" s="16"/>
-      <c r="E122" s="18"/>
-      <c r="F122" s="18"/>
-      <c r="G122" s="18"/>
-      <c r="H122" s="18"/>
-      <c r="I122" s="18"/>
-      <c r="J122" s="18"/>
-      <c r="K122" s="18"/>
-      <c r="L122" s="18"/>
-      <c r="M122" s="18"/>
-      <c r="N122" s="18"/>
-      <c r="O122" s="18"/>
-      <c r="P122" s="18"/>
-      <c r="Q122" s="18"/>
-      <c r="R122" s="18"/>
-      <c r="S122" s="18"/>
-      <c r="T122" s="18"/>
-      <c r="U122" s="18"/>
-      <c r="V122" s="18"/>
-      <c r="W122" s="18"/>
-      <c r="X122" s="18"/>
-      <c r="Y122" s="18"/>
-      <c r="Z122" s="18"/>
-      <c r="AA122" s="18"/>
-      <c r="AB122" s="18"/>
-      <c r="AC122" s="18"/>
-      <c r="AD122" s="18"/>
-      <c r="AE122" s="18"/>
-      <c r="AF122" s="18"/>
-      <c r="AG122" s="18"/>
-      <c r="AH122" s="18"/>
-      <c r="AI122" s="18"/>
-    </row>
-    <row r="123" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E123" s="22" t="str">
-        <f>D94&amp;"4."</f>
-        <v>7.3.4.4.</v>
-      </c>
-      <c r="F123" s="17" t="s">
+      <c r="M129" s="24"/>
+      <c r="N129" s="24"/>
+      <c r="O129" s="24"/>
+      <c r="P129" s="24"/>
+      <c r="Q129" s="24"/>
+      <c r="R129" s="24"/>
+      <c r="S129" s="24"/>
+      <c r="T129" s="24"/>
+      <c r="U129" s="24"/>
+      <c r="V129" s="24"/>
+      <c r="W129" s="24"/>
+      <c r="X129" s="24"/>
+      <c r="Y129" s="24"/>
+      <c r="Z129" s="24"/>
+      <c r="AA129" s="24"/>
+      <c r="AB129" s="24"/>
+      <c r="AC129" s="24"/>
+      <c r="AD129" s="24"/>
+      <c r="AE129" s="24"/>
+      <c r="AF129" s="24"/>
+      <c r="AG129" s="24"/>
+      <c r="AH129" s="25"/>
+    </row>
+    <row r="130" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C130" s="20"/>
+      <c r="D130" s="20"/>
+      <c r="E130" s="20"/>
+      <c r="G130" s="26"/>
+      <c r="H130" s="27"/>
+      <c r="I130" s="27"/>
+      <c r="J130" s="27"/>
+      <c r="K130" s="27"/>
+      <c r="L130" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="G123" s="17"/>
-      <c r="H123" s="17"/>
-      <c r="I123" s="17"/>
-      <c r="J123" s="17"/>
-      <c r="K123" s="17"/>
-      <c r="L123" s="17"/>
-      <c r="M123" s="17"/>
-      <c r="N123" s="17"/>
-      <c r="O123" s="17"/>
-      <c r="P123" s="17"/>
-      <c r="Q123" s="17"/>
-      <c r="R123" s="17"/>
-      <c r="S123" s="17"/>
-      <c r="T123" s="17"/>
-      <c r="U123" s="17"/>
-      <c r="V123" s="17"/>
-      <c r="W123" s="17"/>
-      <c r="X123" s="17"/>
-      <c r="Y123" s="17"/>
-      <c r="Z123" s="17"/>
-      <c r="AA123" s="17"/>
-      <c r="AB123" s="17"/>
-      <c r="AC123" s="17"/>
-      <c r="AD123" s="17"/>
-      <c r="AE123" s="17"/>
-      <c r="AF123" s="17"/>
-      <c r="AG123" s="17"/>
-      <c r="AH123" s="17"/>
-      <c r="AI123" s="17"/>
-    </row>
-    <row r="124" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E124" s="22"/>
-      <c r="F124" s="22" t="str">
-        <f>$E$123&amp;"1."</f>
-        <v>7.3.4.4.1.</v>
-      </c>
-      <c r="G124" s="21" t="str">
-        <f>F123&amp;"機能概要"</f>
-        <v>排他制御機能概要</v>
-      </c>
-    </row>
-    <row r="125" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G125" s="21" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="126" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G126" s="21" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="127" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="128" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F128" s="22" t="str">
-        <f>$E$123&amp;"2."</f>
-        <v>7.3.4.4.2.</v>
-      </c>
-      <c r="G128" s="21" t="str">
-        <f>F123&amp;"方法"</f>
-        <v>排他制御方法</v>
-      </c>
-    </row>
-    <row r="129" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G129" s="21" t="str">
-        <f>F123&amp;"を行う機能には、以下の方法がある。"</f>
-        <v>排他制御を行う機能には、以下の方法がある。</v>
-      </c>
-    </row>
-    <row r="130" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="M130" s="27"/>
+      <c r="N130" s="27"/>
+      <c r="O130" s="27"/>
+      <c r="P130" s="27"/>
+      <c r="Q130" s="27"/>
+      <c r="R130" s="27"/>
+      <c r="S130" s="27"/>
+      <c r="T130" s="27"/>
+      <c r="U130" s="27"/>
+      <c r="V130" s="27"/>
+      <c r="W130" s="27"/>
+      <c r="X130" s="27"/>
+      <c r="Y130" s="27"/>
+      <c r="Z130" s="27"/>
+      <c r="AA130" s="27"/>
+      <c r="AB130" s="27"/>
+      <c r="AC130" s="27"/>
+      <c r="AD130" s="27"/>
+      <c r="AE130" s="27"/>
+      <c r="AF130" s="27"/>
+      <c r="AG130" s="27"/>
+      <c r="AH130" s="31"/>
+    </row>
     <row r="131" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C131" s="20"/>
       <c r="D131" s="20"/>
       <c r="E131" s="20"/>
-      <c r="G131" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="H131" s="33"/>
-      <c r="I131" s="33"/>
-      <c r="J131" s="33"/>
-      <c r="K131" s="34"/>
-      <c r="L131" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="M131" s="33"/>
-      <c r="N131" s="33"/>
-      <c r="O131" s="33"/>
-      <c r="P131" s="33"/>
-      <c r="Q131" s="33"/>
-      <c r="R131" s="33"/>
-      <c r="S131" s="33"/>
-      <c r="T131" s="33"/>
-      <c r="U131" s="33"/>
-      <c r="V131" s="33"/>
-      <c r="W131" s="33"/>
-      <c r="X131" s="33"/>
-      <c r="Y131" s="33"/>
-      <c r="Z131" s="33"/>
-      <c r="AA131" s="33"/>
-      <c r="AB131" s="33"/>
-      <c r="AC131" s="33"/>
-      <c r="AD131" s="33"/>
-      <c r="AE131" s="33"/>
-      <c r="AF131" s="33"/>
-      <c r="AG131" s="33"/>
-      <c r="AH131" s="34"/>
+      <c r="G131" s="24"/>
+      <c r="H131" s="24"/>
+      <c r="I131" s="24"/>
+      <c r="J131" s="24"/>
+      <c r="K131" s="24"/>
+      <c r="L131" s="24"/>
+      <c r="M131" s="24"/>
+      <c r="N131" s="24"/>
+      <c r="O131" s="24"/>
+      <c r="P131" s="24"/>
+      <c r="Q131" s="24"/>
+      <c r="R131" s="24"/>
+      <c r="S131" s="24"/>
+      <c r="T131" s="24"/>
+      <c r="U131" s="24"/>
+      <c r="V131" s="24"/>
+      <c r="W131" s="24"/>
+      <c r="X131" s="24"/>
+      <c r="Y131" s="24"/>
+      <c r="Z131" s="24"/>
+      <c r="AA131" s="24"/>
+      <c r="AB131" s="24"/>
+      <c r="AC131" s="24"/>
+      <c r="AD131" s="24"/>
+      <c r="AE131" s="24"/>
+      <c r="AF131" s="24"/>
+      <c r="AG131" s="24"/>
+      <c r="AH131" s="24"/>
+      <c r="AI131" s="24"/>
     </row>
     <row r="132" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C132" s="20"/>
       <c r="D132" s="20"/>
       <c r="E132" s="20"/>
-      <c r="G132" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="H132" s="29"/>
-      <c r="I132" s="29"/>
-      <c r="J132" s="29"/>
-      <c r="K132" s="29"/>
-      <c r="L132" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="M132" s="29"/>
-      <c r="N132" s="29"/>
-      <c r="O132" s="29"/>
-      <c r="P132" s="29"/>
-      <c r="Q132" s="29"/>
-      <c r="R132" s="29"/>
-      <c r="S132" s="29"/>
-      <c r="T132" s="29"/>
-      <c r="U132" s="29"/>
-      <c r="V132" s="29"/>
-      <c r="W132" s="29"/>
-      <c r="X132" s="29"/>
-      <c r="Y132" s="29"/>
-      <c r="Z132" s="29"/>
-      <c r="AA132" s="29"/>
-      <c r="AB132" s="29"/>
-      <c r="AC132" s="29"/>
-      <c r="AD132" s="29"/>
-      <c r="AE132" s="29"/>
-      <c r="AF132" s="29"/>
-      <c r="AG132" s="29"/>
-      <c r="AH132" s="30"/>
+      <c r="G132" s="21" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="133" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C133" s="20"/>
-      <c r="D133" s="20"/>
-      <c r="E133" s="20"/>
-      <c r="G133" s="23"/>
-      <c r="H133" s="24"/>
-      <c r="I133" s="24"/>
-      <c r="J133" s="24"/>
-      <c r="K133" s="24"/>
-      <c r="L133" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="M133" s="24"/>
-      <c r="N133" s="24"/>
-      <c r="O133" s="24"/>
-      <c r="P133" s="24"/>
-      <c r="Q133" s="24"/>
-      <c r="R133" s="24"/>
-      <c r="S133" s="24"/>
-      <c r="T133" s="24"/>
-      <c r="U133" s="24"/>
-      <c r="V133" s="24"/>
-      <c r="W133" s="24"/>
-      <c r="X133" s="24"/>
-      <c r="Y133" s="24"/>
-      <c r="Z133" s="24"/>
-      <c r="AA133" s="24"/>
-      <c r="AB133" s="24"/>
-      <c r="AC133" s="24"/>
-      <c r="AD133" s="24"/>
-      <c r="AE133" s="24"/>
-      <c r="AF133" s="24"/>
-      <c r="AG133" s="24"/>
-      <c r="AH133" s="25"/>
+      <c r="G133" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="H133" s="33"/>
+      <c r="I133" s="33"/>
+      <c r="J133" s="33"/>
+      <c r="K133" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="L133" s="33"/>
+      <c r="M133" s="34"/>
+      <c r="N133" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="O133" s="33"/>
+      <c r="P133" s="33"/>
+      <c r="Q133" s="33"/>
+      <c r="R133" s="33"/>
+      <c r="S133" s="33"/>
+      <c r="T133" s="33"/>
+      <c r="U133" s="33"/>
+      <c r="V133" s="33"/>
+      <c r="W133" s="33"/>
+      <c r="X133" s="33"/>
+      <c r="Y133" s="33"/>
+      <c r="Z133" s="33"/>
+      <c r="AA133" s="33"/>
+      <c r="AB133" s="33"/>
+      <c r="AC133" s="33"/>
+      <c r="AD133" s="33"/>
+      <c r="AE133" s="33"/>
+      <c r="AF133" s="33"/>
+      <c r="AG133" s="33"/>
+      <c r="AH133" s="34"/>
     </row>
     <row r="134" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C134" s="20"/>
-      <c r="D134" s="20"/>
-      <c r="E134" s="20"/>
-      <c r="G134" s="23"/>
+      <c r="G134" s="23" t="s">
+        <v>76</v>
+      </c>
       <c r="H134" s="24"/>
       <c r="I134" s="24"/>
       <c r="J134" s="24"/>
-      <c r="K134" s="24"/>
-      <c r="L134" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="M134" s="24"/>
-      <c r="N134" s="24"/>
+      <c r="K134" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="L134" s="24"/>
+      <c r="M134" s="25"/>
+      <c r="N134" s="24" t="s">
+        <v>111</v>
+      </c>
       <c r="O134" s="24"/>
       <c r="P134" s="24"/>
       <c r="Q134" s="24"/>
@@ -5516,56 +5456,48 @@
       <c r="AH134" s="25"/>
     </row>
     <row r="135" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C135" s="20"/>
-      <c r="D135" s="20"/>
-      <c r="E135" s="20"/>
-      <c r="G135" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="H135" s="29"/>
-      <c r="I135" s="29"/>
-      <c r="J135" s="29"/>
-      <c r="K135" s="29"/>
-      <c r="L135" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="M135" s="29"/>
-      <c r="N135" s="29"/>
-      <c r="O135" s="29"/>
-      <c r="P135" s="29"/>
-      <c r="Q135" s="29"/>
-      <c r="R135" s="29"/>
-      <c r="S135" s="29"/>
-      <c r="T135" s="29"/>
-      <c r="U135" s="29"/>
-      <c r="V135" s="29"/>
-      <c r="W135" s="29"/>
-      <c r="X135" s="29"/>
-      <c r="Y135" s="29"/>
-      <c r="Z135" s="29"/>
-      <c r="AA135" s="29"/>
-      <c r="AB135" s="29"/>
-      <c r="AC135" s="29"/>
-      <c r="AD135" s="29"/>
-      <c r="AE135" s="29"/>
-      <c r="AF135" s="29"/>
-      <c r="AG135" s="29"/>
-      <c r="AH135" s="30"/>
+      <c r="G135" s="23"/>
+      <c r="H135" s="24"/>
+      <c r="I135" s="24"/>
+      <c r="J135" s="24"/>
+      <c r="K135" s="23"/>
+      <c r="L135" s="24"/>
+      <c r="M135" s="25"/>
+      <c r="N135" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="O135" s="24"/>
+      <c r="P135" s="24"/>
+      <c r="Q135" s="24"/>
+      <c r="R135" s="24"/>
+      <c r="S135" s="24"/>
+      <c r="T135" s="24"/>
+      <c r="U135" s="24"/>
+      <c r="V135" s="24"/>
+      <c r="W135" s="24"/>
+      <c r="X135" s="24"/>
+      <c r="Y135" s="24"/>
+      <c r="Z135" s="24"/>
+      <c r="AA135" s="24"/>
+      <c r="AB135" s="24"/>
+      <c r="AC135" s="24"/>
+      <c r="AD135" s="24"/>
+      <c r="AE135" s="24"/>
+      <c r="AF135" s="24"/>
+      <c r="AG135" s="24"/>
+      <c r="AH135" s="25"/>
     </row>
     <row r="136" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C136" s="20"/>
-      <c r="D136" s="20"/>
-      <c r="E136" s="20"/>
       <c r="G136" s="23"/>
       <c r="H136" s="24"/>
       <c r="I136" s="24"/>
       <c r="J136" s="24"/>
-      <c r="K136" s="24"/>
-      <c r="L136" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="M136" s="24"/>
-      <c r="N136" s="24"/>
+      <c r="K136" s="23"/>
+      <c r="L136" s="24"/>
+      <c r="M136" s="25"/>
+      <c r="N136" s="24" t="s">
+        <v>113</v>
+      </c>
       <c r="O136" s="24"/>
       <c r="P136" s="24"/>
       <c r="Q136" s="24"/>
@@ -5588,166 +5520,166 @@
       <c r="AH136" s="25"/>
     </row>
     <row r="137" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C137" s="20"/>
-      <c r="D137" s="20"/>
-      <c r="E137" s="20"/>
-      <c r="G137" s="26"/>
-      <c r="H137" s="27"/>
-      <c r="I137" s="27"/>
-      <c r="J137" s="27"/>
-      <c r="K137" s="27"/>
-      <c r="L137" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="M137" s="27"/>
-      <c r="N137" s="27"/>
-      <c r="O137" s="27"/>
-      <c r="P137" s="27"/>
-      <c r="Q137" s="27"/>
-      <c r="R137" s="27"/>
-      <c r="S137" s="27"/>
-      <c r="T137" s="27"/>
-      <c r="U137" s="27"/>
-      <c r="V137" s="27"/>
-      <c r="W137" s="27"/>
-      <c r="X137" s="27"/>
-      <c r="Y137" s="27"/>
-      <c r="Z137" s="27"/>
-      <c r="AA137" s="27"/>
-      <c r="AB137" s="27"/>
-      <c r="AC137" s="27"/>
-      <c r="AD137" s="27"/>
-      <c r="AE137" s="27"/>
-      <c r="AF137" s="27"/>
-      <c r="AG137" s="27"/>
-      <c r="AH137" s="31"/>
+      <c r="G137" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="H137" s="29"/>
+      <c r="I137" s="29"/>
+      <c r="J137" s="29"/>
+      <c r="K137" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="L137" s="29"/>
+      <c r="M137" s="30"/>
+      <c r="N137" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="O137" s="29"/>
+      <c r="P137" s="29"/>
+      <c r="Q137" s="29"/>
+      <c r="R137" s="29"/>
+      <c r="S137" s="29"/>
+      <c r="T137" s="29"/>
+      <c r="U137" s="29"/>
+      <c r="V137" s="29"/>
+      <c r="W137" s="29"/>
+      <c r="X137" s="29"/>
+      <c r="Y137" s="29"/>
+      <c r="Z137" s="29"/>
+      <c r="AA137" s="29"/>
+      <c r="AB137" s="29"/>
+      <c r="AC137" s="29"/>
+      <c r="AD137" s="29"/>
+      <c r="AE137" s="29"/>
+      <c r="AF137" s="29"/>
+      <c r="AG137" s="29"/>
+      <c r="AH137" s="30"/>
     </row>
     <row r="138" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C138" s="20"/>
-      <c r="D138" s="20"/>
-      <c r="E138" s="20"/>
-      <c r="G138" s="24"/>
-      <c r="H138" s="24"/>
-      <c r="I138" s="24"/>
-      <c r="J138" s="24"/>
-      <c r="K138" s="24"/>
-      <c r="L138" s="24"/>
-      <c r="M138" s="24"/>
-      <c r="N138" s="24"/>
-      <c r="O138" s="24"/>
-      <c r="P138" s="24"/>
-      <c r="Q138" s="24"/>
-      <c r="R138" s="24"/>
-      <c r="S138" s="24"/>
-      <c r="T138" s="24"/>
-      <c r="U138" s="24"/>
-      <c r="V138" s="24"/>
-      <c r="W138" s="24"/>
-      <c r="X138" s="24"/>
-      <c r="Y138" s="24"/>
-      <c r="Z138" s="24"/>
-      <c r="AA138" s="24"/>
-      <c r="AB138" s="24"/>
-      <c r="AC138" s="24"/>
-      <c r="AD138" s="24"/>
-      <c r="AE138" s="24"/>
-      <c r="AF138" s="24"/>
-      <c r="AG138" s="24"/>
-      <c r="AH138" s="24"/>
-      <c r="AI138" s="24"/>
+      <c r="G138" s="26"/>
+      <c r="H138" s="27"/>
+      <c r="I138" s="27"/>
+      <c r="J138" s="27"/>
+      <c r="K138" s="26"/>
+      <c r="L138" s="27"/>
+      <c r="M138" s="31"/>
+      <c r="N138" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="O138" s="27"/>
+      <c r="P138" s="27"/>
+      <c r="Q138" s="27"/>
+      <c r="R138" s="27"/>
+      <c r="S138" s="27"/>
+      <c r="T138" s="27"/>
+      <c r="U138" s="27"/>
+      <c r="V138" s="27"/>
+      <c r="W138" s="27"/>
+      <c r="X138" s="27"/>
+      <c r="Y138" s="27"/>
+      <c r="Z138" s="27"/>
+      <c r="AA138" s="27"/>
+      <c r="AB138" s="27"/>
+      <c r="AC138" s="27"/>
+      <c r="AD138" s="27"/>
+      <c r="AE138" s="27"/>
+      <c r="AF138" s="27"/>
+      <c r="AG138" s="27"/>
+      <c r="AH138" s="31"/>
     </row>
     <row r="139" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C139" s="20"/>
-      <c r="D139" s="20"/>
-      <c r="E139" s="20"/>
-      <c r="G139" s="21" t="s">
-        <v>16</v>
-      </c>
+      <c r="E139" s="16"/>
+      <c r="F139" s="18"/>
+      <c r="G139" s="18"/>
+      <c r="H139" s="18"/>
+      <c r="I139" s="18"/>
+      <c r="J139" s="18"/>
+      <c r="K139" s="18"/>
+      <c r="L139" s="18"/>
+      <c r="M139" s="18"/>
+      <c r="N139" s="18"/>
+      <c r="O139" s="18"/>
+      <c r="P139" s="18"/>
+      <c r="Q139" s="18"/>
+      <c r="R139" s="18"/>
+      <c r="S139" s="18"/>
+      <c r="T139" s="18"/>
+      <c r="U139" s="18"/>
+      <c r="V139" s="18"/>
+      <c r="W139" s="18"/>
+      <c r="X139" s="18"/>
+      <c r="Y139" s="18"/>
+      <c r="Z139" s="18"/>
+      <c r="AA139" s="18"/>
+      <c r="AB139" s="18"/>
+      <c r="AC139" s="18"/>
+      <c r="AD139" s="18"/>
+      <c r="AE139" s="18"/>
+      <c r="AF139" s="18"/>
+      <c r="AG139" s="18"/>
+      <c r="AH139" s="18"/>
+      <c r="AI139" s="18"/>
     </row>
     <row r="140" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G140" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="H140" s="33"/>
-      <c r="I140" s="33"/>
-      <c r="J140" s="33"/>
-      <c r="K140" s="32" t="s">
+      <c r="C140" s="20"/>
+      <c r="D140" s="20"/>
+      <c r="E140" s="20"/>
+      <c r="G140" s="21" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="141" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G141" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="H141" s="33"/>
+      <c r="I141" s="33"/>
+      <c r="J141" s="34"/>
+      <c r="K141" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="L140" s="33"/>
-      <c r="M140" s="34"/>
-      <c r="N140" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="O140" s="33"/>
-      <c r="P140" s="33"/>
-      <c r="Q140" s="33"/>
-      <c r="R140" s="33"/>
-      <c r="S140" s="33"/>
-      <c r="T140" s="33"/>
-      <c r="U140" s="33"/>
-      <c r="V140" s="33"/>
-      <c r="W140" s="33"/>
-      <c r="X140" s="33"/>
-      <c r="Y140" s="33"/>
-      <c r="Z140" s="33"/>
-      <c r="AA140" s="33"/>
-      <c r="AB140" s="33"/>
-      <c r="AC140" s="33"/>
-      <c r="AD140" s="33"/>
-      <c r="AE140" s="33"/>
-      <c r="AF140" s="33"/>
-      <c r="AG140" s="33"/>
-      <c r="AH140" s="34"/>
-    </row>
-    <row r="141" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G141" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="H141" s="24"/>
-      <c r="I141" s="24"/>
-      <c r="J141" s="24"/>
-      <c r="K141" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="L141" s="24"/>
-      <c r="M141" s="25"/>
-      <c r="N141" s="24" t="s">
+      <c r="L141" s="33"/>
+      <c r="M141" s="33"/>
+      <c r="N141" s="34"/>
+      <c r="O141" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="P141" s="33"/>
+      <c r="Q141" s="33"/>
+      <c r="R141" s="33"/>
+      <c r="S141" s="33"/>
+      <c r="T141" s="33"/>
+      <c r="U141" s="33"/>
+      <c r="V141" s="33"/>
+      <c r="W141" s="33"/>
+      <c r="X141" s="33"/>
+      <c r="Y141" s="33"/>
+      <c r="Z141" s="33"/>
+      <c r="AA141" s="33"/>
+      <c r="AB141" s="33"/>
+      <c r="AC141" s="33"/>
+      <c r="AD141" s="33"/>
+      <c r="AE141" s="33"/>
+      <c r="AF141" s="33"/>
+      <c r="AG141" s="33"/>
+      <c r="AH141" s="34"/>
+    </row>
+    <row r="142" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G142" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="O141" s="24"/>
-      <c r="P141" s="24"/>
-      <c r="Q141" s="24"/>
-      <c r="R141" s="24"/>
-      <c r="S141" s="24"/>
-      <c r="T141" s="24"/>
-      <c r="U141" s="24"/>
-      <c r="V141" s="24"/>
-      <c r="W141" s="24"/>
-      <c r="X141" s="24"/>
-      <c r="Y141" s="24"/>
-      <c r="Z141" s="24"/>
-      <c r="AA141" s="24"/>
-      <c r="AB141" s="24"/>
-      <c r="AC141" s="24"/>
-      <c r="AD141" s="24"/>
-      <c r="AE141" s="24"/>
-      <c r="AF141" s="24"/>
-      <c r="AG141" s="24"/>
-      <c r="AH141" s="25"/>
-    </row>
-    <row r="142" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G142" s="23"/>
       <c r="H142" s="24"/>
       <c r="I142" s="24"/>
-      <c r="J142" s="24"/>
-      <c r="K142" s="23"/>
+      <c r="J142" s="25"/>
+      <c r="K142" s="24" t="s">
+        <v>114</v>
+      </c>
       <c r="L142" s="24"/>
-      <c r="M142" s="25"/>
-      <c r="N142" s="24" t="s">
+      <c r="M142" s="24"/>
+      <c r="N142" s="25"/>
+      <c r="O142" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="O142" s="24"/>
       <c r="P142" s="24"/>
       <c r="Q142" s="24"/>
       <c r="R142" s="24"/>
@@ -5772,14 +5704,16 @@
       <c r="G143" s="23"/>
       <c r="H143" s="24"/>
       <c r="I143" s="24"/>
-      <c r="J143" s="24"/>
-      <c r="K143" s="23"/>
+      <c r="J143" s="25"/>
+      <c r="K143" s="24" t="s">
+        <v>118</v>
+      </c>
       <c r="L143" s="24"/>
-      <c r="M143" s="25"/>
-      <c r="N143" s="24" t="s">
+      <c r="M143" s="24"/>
+      <c r="N143" s="25"/>
+      <c r="O143" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="O143" s="24"/>
       <c r="P143" s="24"/>
       <c r="Q143" s="24"/>
       <c r="R143" s="24"/>
@@ -5801,354 +5735,382 @@
       <c r="AH143" s="25"/>
     </row>
     <row r="144" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G144" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="H144" s="29"/>
-      <c r="I144" s="29"/>
-      <c r="J144" s="29"/>
-      <c r="K144" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="L144" s="29"/>
-      <c r="M144" s="30"/>
-      <c r="N144" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="O144" s="29"/>
-      <c r="P144" s="29"/>
-      <c r="Q144" s="29"/>
-      <c r="R144" s="29"/>
-      <c r="S144" s="29"/>
-      <c r="T144" s="29"/>
-      <c r="U144" s="29"/>
-      <c r="V144" s="29"/>
-      <c r="W144" s="29"/>
-      <c r="X144" s="29"/>
-      <c r="Y144" s="29"/>
-      <c r="Z144" s="29"/>
-      <c r="AA144" s="29"/>
-      <c r="AB144" s="29"/>
-      <c r="AC144" s="29"/>
-      <c r="AD144" s="29"/>
-      <c r="AE144" s="29"/>
-      <c r="AF144" s="29"/>
-      <c r="AG144" s="29"/>
-      <c r="AH144" s="30"/>
-    </row>
-    <row r="145" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G145" s="26"/>
-      <c r="H145" s="27"/>
-      <c r="I145" s="27"/>
-      <c r="J145" s="27"/>
-      <c r="K145" s="26"/>
-      <c r="L145" s="27"/>
-      <c r="M145" s="31"/>
-      <c r="N145" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="O145" s="27"/>
-      <c r="P145" s="27"/>
-      <c r="Q145" s="27"/>
-      <c r="R145" s="27"/>
-      <c r="S145" s="27"/>
-      <c r="T145" s="27"/>
-      <c r="U145" s="27"/>
-      <c r="V145" s="27"/>
-      <c r="W145" s="27"/>
-      <c r="X145" s="27"/>
-      <c r="Y145" s="27"/>
-      <c r="Z145" s="27"/>
-      <c r="AA145" s="27"/>
-      <c r="AB145" s="27"/>
-      <c r="AC145" s="27"/>
-      <c r="AD145" s="27"/>
-      <c r="AE145" s="27"/>
-      <c r="AF145" s="27"/>
-      <c r="AG145" s="27"/>
-      <c r="AH145" s="31"/>
-    </row>
-    <row r="146" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E146" s="16"/>
-      <c r="F146" s="18"/>
-      <c r="G146" s="18"/>
-      <c r="H146" s="18"/>
-      <c r="I146" s="18"/>
-      <c r="J146" s="18"/>
-      <c r="K146" s="18"/>
-      <c r="L146" s="18"/>
-      <c r="M146" s="18"/>
-      <c r="N146" s="18"/>
-      <c r="O146" s="18"/>
-      <c r="P146" s="18"/>
-      <c r="Q146" s="18"/>
-      <c r="R146" s="18"/>
-      <c r="S146" s="18"/>
-      <c r="T146" s="18"/>
-      <c r="U146" s="18"/>
-      <c r="V146" s="18"/>
-      <c r="W146" s="18"/>
-      <c r="X146" s="18"/>
-      <c r="Y146" s="18"/>
-      <c r="Z146" s="18"/>
-      <c r="AA146" s="18"/>
-      <c r="AB146" s="18"/>
-      <c r="AC146" s="18"/>
-      <c r="AD146" s="18"/>
-      <c r="AE146" s="18"/>
-      <c r="AF146" s="18"/>
-      <c r="AG146" s="18"/>
-      <c r="AH146" s="18"/>
-      <c r="AI146" s="18"/>
-    </row>
-    <row r="147" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C147" s="20"/>
-      <c r="D147" s="20"/>
-      <c r="E147" s="20"/>
-      <c r="G147" s="21" t="s">
+      <c r="G144" s="26"/>
+      <c r="H144" s="27"/>
+      <c r="I144" s="27"/>
+      <c r="J144" s="31"/>
+      <c r="K144" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="L144" s="27"/>
+      <c r="M144" s="27"/>
+      <c r="N144" s="31"/>
+      <c r="O144" s="27"/>
+      <c r="P144" s="27"/>
+      <c r="Q144" s="27"/>
+      <c r="R144" s="27"/>
+      <c r="S144" s="27"/>
+      <c r="T144" s="27"/>
+      <c r="U144" s="27"/>
+      <c r="V144" s="27"/>
+      <c r="W144" s="27"/>
+      <c r="X144" s="27"/>
+      <c r="Y144" s="27"/>
+      <c r="Z144" s="27"/>
+      <c r="AA144" s="27"/>
+      <c r="AB144" s="27"/>
+      <c r="AC144" s="27"/>
+      <c r="AD144" s="27"/>
+      <c r="AE144" s="27"/>
+      <c r="AF144" s="27"/>
+      <c r="AG144" s="27"/>
+      <c r="AH144" s="31"/>
+    </row>
+    <row r="145" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G145" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="H145" s="24"/>
+      <c r="I145" s="24"/>
+      <c r="J145" s="25"/>
+      <c r="K145" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="L145" s="24"/>
+      <c r="M145" s="24"/>
+      <c r="N145" s="25"/>
+      <c r="O145" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="P145" s="24"/>
+      <c r="Q145" s="24"/>
+      <c r="R145" s="24"/>
+      <c r="S145" s="24"/>
+      <c r="T145" s="24"/>
+      <c r="U145" s="24"/>
+      <c r="V145" s="24"/>
+      <c r="W145" s="24"/>
+      <c r="X145" s="24"/>
+      <c r="Y145" s="24"/>
+      <c r="Z145" s="24"/>
+      <c r="AA145" s="24"/>
+      <c r="AB145" s="24"/>
+      <c r="AC145" s="24"/>
+      <c r="AD145" s="24"/>
+      <c r="AE145" s="24"/>
+      <c r="AF145" s="24"/>
+      <c r="AG145" s="24"/>
+      <c r="AH145" s="25"/>
+    </row>
+    <row r="146" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G146" s="23"/>
+      <c r="H146" s="24"/>
+      <c r="I146" s="24"/>
+      <c r="J146" s="25"/>
+      <c r="K146" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="L146" s="24"/>
+      <c r="M146" s="24"/>
+      <c r="N146" s="25"/>
+      <c r="O146" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="P146" s="24"/>
+      <c r="Q146" s="24"/>
+      <c r="R146" s="24"/>
+      <c r="S146" s="24"/>
+      <c r="T146" s="24"/>
+      <c r="U146" s="24"/>
+      <c r="V146" s="24"/>
+      <c r="W146" s="24"/>
+      <c r="X146" s="24"/>
+      <c r="Y146" s="24"/>
+      <c r="Z146" s="24"/>
+      <c r="AA146" s="24"/>
+      <c r="AB146" s="24"/>
+      <c r="AC146" s="24"/>
+      <c r="AD146" s="24"/>
+      <c r="AE146" s="24"/>
+      <c r="AF146" s="24"/>
+      <c r="AG146" s="24"/>
+      <c r="AH146" s="25"/>
+    </row>
+    <row r="147" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G147" s="26"/>
+      <c r="H147" s="27"/>
+      <c r="I147" s="27"/>
+      <c r="J147" s="31"/>
+      <c r="K147" s="27"/>
+      <c r="L147" s="27"/>
+      <c r="M147" s="27"/>
+      <c r="N147" s="31"/>
+      <c r="O147" s="27"/>
+      <c r="P147" s="27"/>
+      <c r="Q147" s="27"/>
+      <c r="R147" s="27"/>
+      <c r="S147" s="27"/>
+      <c r="T147" s="27"/>
+      <c r="U147" s="27"/>
+      <c r="V147" s="27"/>
+      <c r="W147" s="27"/>
+      <c r="X147" s="27"/>
+      <c r="Y147" s="27"/>
+      <c r="Z147" s="27"/>
+      <c r="AA147" s="27"/>
+      <c r="AB147" s="27"/>
+      <c r="AC147" s="27"/>
+      <c r="AD147" s="27"/>
+      <c r="AE147" s="27"/>
+      <c r="AF147" s="27"/>
+      <c r="AG147" s="27"/>
+      <c r="AH147" s="31"/>
+    </row>
+    <row r="148" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E148" s="16"/>
+      <c r="H148" s="18"/>
+      <c r="I148" s="18"/>
+      <c r="J148" s="18"/>
+      <c r="K148" s="18"/>
+      <c r="L148" s="18"/>
+      <c r="M148" s="18"/>
+      <c r="N148" s="18"/>
+      <c r="O148" s="18"/>
+      <c r="P148" s="18"/>
+      <c r="Q148" s="18"/>
+      <c r="R148" s="18"/>
+      <c r="S148" s="18"/>
+      <c r="T148" s="18"/>
+      <c r="U148" s="18"/>
+      <c r="V148" s="18"/>
+      <c r="W148" s="18"/>
+      <c r="X148" s="18"/>
+      <c r="Y148" s="18"/>
+      <c r="Z148" s="18"/>
+      <c r="AA148" s="18"/>
+      <c r="AB148" s="18"/>
+      <c r="AC148" s="18"/>
+      <c r="AD148" s="18"/>
+      <c r="AE148" s="18"/>
+      <c r="AF148" s="18"/>
+      <c r="AG148" s="18"/>
+      <c r="AH148" s="18"/>
+      <c r="AI148" s="18"/>
+    </row>
+    <row r="149" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E149" s="16"/>
+      <c r="F149" s="22" t="str">
+        <f>$E$116&amp;"3."</f>
+        <v>7.3.4.4.3.</v>
+      </c>
+      <c r="G149" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="H149" s="18"/>
+      <c r="I149" s="18"/>
+      <c r="J149" s="18"/>
+      <c r="K149" s="18"/>
+      <c r="L149" s="18"/>
+      <c r="M149" s="18"/>
+      <c r="N149" s="18"/>
+      <c r="O149" s="18"/>
+      <c r="P149" s="18"/>
+      <c r="Q149" s="18"/>
+      <c r="R149" s="18"/>
+      <c r="S149" s="18"/>
+      <c r="T149" s="18"/>
+      <c r="U149" s="18"/>
+      <c r="V149" s="18"/>
+      <c r="W149" s="18"/>
+      <c r="X149" s="18"/>
+      <c r="Y149" s="18"/>
+      <c r="Z149" s="18"/>
+      <c r="AA149" s="18"/>
+      <c r="AB149" s="18"/>
+      <c r="AC149" s="18"/>
+      <c r="AD149" s="18"/>
+      <c r="AE149" s="18"/>
+      <c r="AF149" s="18"/>
+      <c r="AG149" s="18"/>
+      <c r="AH149" s="18"/>
+      <c r="AI149" s="18"/>
+    </row>
+    <row r="150" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E150" s="16"/>
+      <c r="F150" s="18"/>
+      <c r="G150" s="18"/>
+      <c r="H150" s="18"/>
+      <c r="I150" s="18"/>
+      <c r="J150" s="18"/>
+      <c r="K150" s="18"/>
+      <c r="L150" s="18"/>
+      <c r="M150" s="18"/>
+      <c r="N150" s="18"/>
+      <c r="O150" s="18"/>
+      <c r="P150" s="18"/>
+      <c r="Q150" s="18"/>
+      <c r="R150" s="18"/>
+      <c r="S150" s="18"/>
+      <c r="T150" s="18"/>
+      <c r="U150" s="18"/>
+      <c r="V150" s="18"/>
+      <c r="W150" s="18"/>
+      <c r="X150" s="18"/>
+      <c r="Y150" s="18"/>
+      <c r="Z150" s="18"/>
+      <c r="AA150" s="18"/>
+      <c r="AB150" s="18"/>
+      <c r="AC150" s="18"/>
+      <c r="AD150" s="18"/>
+      <c r="AE150" s="18"/>
+      <c r="AF150" s="18"/>
+      <c r="AG150" s="18"/>
+      <c r="AH150" s="18"/>
+      <c r="AI150" s="18"/>
+    </row>
+    <row r="151" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E151" s="16"/>
+      <c r="F151" s="18"/>
+      <c r="G151" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="H151" s="18"/>
+      <c r="I151" s="18"/>
+      <c r="J151" s="18"/>
+      <c r="K151" s="18"/>
+      <c r="L151" s="18"/>
+      <c r="M151" s="18"/>
+      <c r="N151" s="18"/>
+      <c r="O151" s="18"/>
+      <c r="P151" s="18"/>
+      <c r="Q151" s="18"/>
+      <c r="R151" s="18"/>
+      <c r="S151" s="18"/>
+      <c r="T151" s="18"/>
+      <c r="U151" s="18"/>
+      <c r="V151" s="18"/>
+      <c r="W151" s="18"/>
+      <c r="X151" s="18"/>
+      <c r="Y151" s="18"/>
+      <c r="Z151" s="18"/>
+      <c r="AA151" s="18"/>
+      <c r="AB151" s="18"/>
+      <c r="AC151" s="18"/>
+      <c r="AD151" s="18"/>
+      <c r="AE151" s="18"/>
+      <c r="AF151" s="18"/>
+      <c r="AG151" s="18"/>
+      <c r="AH151" s="18"/>
+      <c r="AI151" s="18"/>
+    </row>
+    <row r="152" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E152" s="16"/>
+      <c r="F152" s="18"/>
+      <c r="G152" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="H152" s="18"/>
+      <c r="I152" s="18"/>
+      <c r="J152" s="18"/>
+      <c r="K152" s="18"/>
+      <c r="L152" s="18"/>
+      <c r="M152" s="18"/>
+      <c r="N152" s="18"/>
+      <c r="O152" s="18"/>
+      <c r="P152" s="18"/>
+      <c r="Q152" s="18"/>
+      <c r="R152" s="18"/>
+      <c r="S152" s="18"/>
+      <c r="T152" s="18"/>
+      <c r="U152" s="18"/>
+      <c r="V152" s="18"/>
+      <c r="W152" s="18"/>
+      <c r="X152" s="18"/>
+      <c r="Y152" s="18"/>
+      <c r="Z152" s="18"/>
+      <c r="AA152" s="18"/>
+      <c r="AB152" s="18"/>
+      <c r="AC152" s="18"/>
+      <c r="AD152" s="18"/>
+      <c r="AE152" s="18"/>
+      <c r="AF152" s="18"/>
+      <c r="AG152" s="18"/>
+      <c r="AH152" s="18"/>
+      <c r="AI152" s="18"/>
+    </row>
+    <row r="153" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E153" s="16"/>
+      <c r="F153" s="18"/>
+      <c r="H153" s="18"/>
+      <c r="I153" s="18"/>
+      <c r="J153" s="18"/>
+      <c r="K153" s="18"/>
+      <c r="L153" s="18"/>
+      <c r="M153" s="18"/>
+      <c r="N153" s="18"/>
+      <c r="O153" s="18"/>
+      <c r="P153" s="18"/>
+      <c r="Q153" s="18"/>
+      <c r="R153" s="18"/>
+      <c r="S153" s="18"/>
+      <c r="T153" s="18"/>
+      <c r="U153" s="18"/>
+      <c r="V153" s="18"/>
+      <c r="W153" s="18"/>
+      <c r="X153" s="18"/>
+      <c r="Y153" s="18"/>
+      <c r="Z153" s="18"/>
+      <c r="AA153" s="18"/>
+      <c r="AB153" s="18"/>
+      <c r="AC153" s="18"/>
+      <c r="AD153" s="18"/>
+      <c r="AE153" s="18"/>
+      <c r="AF153" s="18"/>
+      <c r="AG153" s="18"/>
+      <c r="AH153" s="18"/>
+      <c r="AI153" s="18"/>
+    </row>
+    <row r="154" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E154" s="16"/>
+      <c r="F154" s="18"/>
+      <c r="G154" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="H154" s="18"/>
+      <c r="I154" s="18"/>
+      <c r="J154" s="18"/>
+      <c r="K154" s="18"/>
+      <c r="L154" s="18"/>
+      <c r="M154" s="18"/>
+      <c r="N154" s="18"/>
+      <c r="O154" s="18"/>
+      <c r="P154" s="18"/>
+      <c r="Q154" s="18"/>
+      <c r="R154" s="18"/>
+      <c r="S154" s="18"/>
+      <c r="T154" s="18"/>
+      <c r="U154" s="18"/>
+      <c r="V154" s="18"/>
+      <c r="W154" s="18"/>
+      <c r="X154" s="18"/>
+      <c r="Y154" s="18"/>
+      <c r="Z154" s="18"/>
+      <c r="AA154" s="18"/>
+      <c r="AB154" s="18"/>
+      <c r="AC154" s="18"/>
+      <c r="AD154" s="18"/>
+      <c r="AE154" s="18"/>
+      <c r="AF154" s="18"/>
+      <c r="AG154" s="18"/>
+      <c r="AH154" s="18"/>
+      <c r="AI154" s="18"/>
+    </row>
+    <row r="155" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E155" s="16"/>
+      <c r="F155" s="18"/>
+      <c r="G155" s="18" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="148" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G148" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="H148" s="33"/>
-      <c r="I148" s="33"/>
-      <c r="J148" s="34"/>
-      <c r="K148" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="L148" s="33"/>
-      <c r="M148" s="33"/>
-      <c r="N148" s="34"/>
-      <c r="O148" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="P148" s="33"/>
-      <c r="Q148" s="33"/>
-      <c r="R148" s="33"/>
-      <c r="S148" s="33"/>
-      <c r="T148" s="33"/>
-      <c r="U148" s="33"/>
-      <c r="V148" s="33"/>
-      <c r="W148" s="33"/>
-      <c r="X148" s="33"/>
-      <c r="Y148" s="33"/>
-      <c r="Z148" s="33"/>
-      <c r="AA148" s="33"/>
-      <c r="AB148" s="33"/>
-      <c r="AC148" s="33"/>
-      <c r="AD148" s="33"/>
-      <c r="AE148" s="33"/>
-      <c r="AF148" s="33"/>
-      <c r="AG148" s="33"/>
-      <c r="AH148" s="34"/>
-    </row>
-    <row r="149" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G149" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="H149" s="24"/>
-      <c r="I149" s="24"/>
-      <c r="J149" s="25"/>
-      <c r="K149" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="L149" s="24"/>
-      <c r="M149" s="24"/>
-      <c r="N149" s="25"/>
-      <c r="O149" s="24" t="s">
-        <v>120</v>
-      </c>
-      <c r="P149" s="24"/>
-      <c r="Q149" s="24"/>
-      <c r="R149" s="24"/>
-      <c r="S149" s="24"/>
-      <c r="T149" s="24"/>
-      <c r="U149" s="24"/>
-      <c r="V149" s="24"/>
-      <c r="W149" s="24"/>
-      <c r="X149" s="24"/>
-      <c r="Y149" s="24"/>
-      <c r="Z149" s="24"/>
-      <c r="AA149" s="24"/>
-      <c r="AB149" s="24"/>
-      <c r="AC149" s="24"/>
-      <c r="AD149" s="24"/>
-      <c r="AE149" s="24"/>
-      <c r="AF149" s="24"/>
-      <c r="AG149" s="24"/>
-      <c r="AH149" s="25"/>
-    </row>
-    <row r="150" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G150" s="23"/>
-      <c r="H150" s="24"/>
-      <c r="I150" s="24"/>
-      <c r="J150" s="25"/>
-      <c r="K150" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="L150" s="24"/>
-      <c r="M150" s="24"/>
-      <c r="N150" s="25"/>
-      <c r="O150" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="P150" s="24"/>
-      <c r="Q150" s="24"/>
-      <c r="R150" s="24"/>
-      <c r="S150" s="24"/>
-      <c r="T150" s="24"/>
-      <c r="U150" s="24"/>
-      <c r="V150" s="24"/>
-      <c r="W150" s="24"/>
-      <c r="X150" s="24"/>
-      <c r="Y150" s="24"/>
-      <c r="Z150" s="24"/>
-      <c r="AA150" s="24"/>
-      <c r="AB150" s="24"/>
-      <c r="AC150" s="24"/>
-      <c r="AD150" s="24"/>
-      <c r="AE150" s="24"/>
-      <c r="AF150" s="24"/>
-      <c r="AG150" s="24"/>
-      <c r="AH150" s="25"/>
-    </row>
-    <row r="151" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G151" s="26"/>
-      <c r="H151" s="27"/>
-      <c r="I151" s="27"/>
-      <c r="J151" s="31"/>
-      <c r="K151" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="L151" s="27"/>
-      <c r="M151" s="27"/>
-      <c r="N151" s="31"/>
-      <c r="O151" s="27"/>
-      <c r="P151" s="27"/>
-      <c r="Q151" s="27"/>
-      <c r="R151" s="27"/>
-      <c r="S151" s="27"/>
-      <c r="T151" s="27"/>
-      <c r="U151" s="27"/>
-      <c r="V151" s="27"/>
-      <c r="W151" s="27"/>
-      <c r="X151" s="27"/>
-      <c r="Y151" s="27"/>
-      <c r="Z151" s="27"/>
-      <c r="AA151" s="27"/>
-      <c r="AB151" s="27"/>
-      <c r="AC151" s="27"/>
-      <c r="AD151" s="27"/>
-      <c r="AE151" s="27"/>
-      <c r="AF151" s="27"/>
-      <c r="AG151" s="27"/>
-      <c r="AH151" s="31"/>
-    </row>
-    <row r="152" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G152" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="H152" s="24"/>
-      <c r="I152" s="24"/>
-      <c r="J152" s="25"/>
-      <c r="K152" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="L152" s="24"/>
-      <c r="M152" s="24"/>
-      <c r="N152" s="25"/>
-      <c r="O152" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="P152" s="24"/>
-      <c r="Q152" s="24"/>
-      <c r="R152" s="24"/>
-      <c r="S152" s="24"/>
-      <c r="T152" s="24"/>
-      <c r="U152" s="24"/>
-      <c r="V152" s="24"/>
-      <c r="W152" s="24"/>
-      <c r="X152" s="24"/>
-      <c r="Y152" s="24"/>
-      <c r="Z152" s="24"/>
-      <c r="AA152" s="24"/>
-      <c r="AB152" s="24"/>
-      <c r="AC152" s="24"/>
-      <c r="AD152" s="24"/>
-      <c r="AE152" s="24"/>
-      <c r="AF152" s="24"/>
-      <c r="AG152" s="24"/>
-      <c r="AH152" s="25"/>
-    </row>
-    <row r="153" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G153" s="23"/>
-      <c r="H153" s="24"/>
-      <c r="I153" s="24"/>
-      <c r="J153" s="25"/>
-      <c r="K153" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="L153" s="24"/>
-      <c r="M153" s="24"/>
-      <c r="N153" s="25"/>
-      <c r="O153" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="P153" s="24"/>
-      <c r="Q153" s="24"/>
-      <c r="R153" s="24"/>
-      <c r="S153" s="24"/>
-      <c r="T153" s="24"/>
-      <c r="U153" s="24"/>
-      <c r="V153" s="24"/>
-      <c r="W153" s="24"/>
-      <c r="X153" s="24"/>
-      <c r="Y153" s="24"/>
-      <c r="Z153" s="24"/>
-      <c r="AA153" s="24"/>
-      <c r="AB153" s="24"/>
-      <c r="AC153" s="24"/>
-      <c r="AD153" s="24"/>
-      <c r="AE153" s="24"/>
-      <c r="AF153" s="24"/>
-      <c r="AG153" s="24"/>
-      <c r="AH153" s="25"/>
-    </row>
-    <row r="154" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G154" s="26"/>
-      <c r="H154" s="27"/>
-      <c r="I154" s="27"/>
-      <c r="J154" s="31"/>
-      <c r="K154" s="27"/>
-      <c r="L154" s="27"/>
-      <c r="M154" s="27"/>
-      <c r="N154" s="31"/>
-      <c r="O154" s="27"/>
-      <c r="P154" s="27"/>
-      <c r="Q154" s="27"/>
-      <c r="R154" s="27"/>
-      <c r="S154" s="27"/>
-      <c r="T154" s="27"/>
-      <c r="U154" s="27"/>
-      <c r="V154" s="27"/>
-      <c r="W154" s="27"/>
-      <c r="X154" s="27"/>
-      <c r="Y154" s="27"/>
-      <c r="Z154" s="27"/>
-      <c r="AA154" s="27"/>
-      <c r="AB154" s="27"/>
-      <c r="AC154" s="27"/>
-      <c r="AD154" s="27"/>
-      <c r="AE154" s="27"/>
-      <c r="AF154" s="27"/>
-      <c r="AG154" s="27"/>
-      <c r="AH154" s="31"/>
-    </row>
-    <row r="155" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E155" s="16"/>
       <c r="H155" s="18"/>
       <c r="I155" s="18"/>
       <c r="J155" s="18"/>
@@ -6178,15 +6140,10 @@
       <c r="AH155" s="18"/>
       <c r="AI155" s="18"/>
     </row>
-    <row r="156" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E156" s="16"/>
-      <c r="F156" s="22" t="str">
-        <f>$E$123&amp;"3."</f>
-        <v>7.3.4.4.3.</v>
-      </c>
-      <c r="G156" s="18" t="s">
-        <v>112</v>
-      </c>
+      <c r="F156" s="18"/>
+      <c r="G156" s="18"/>
       <c r="H156" s="18"/>
       <c r="I156" s="18"/>
       <c r="J156" s="18"/>
@@ -6216,8 +6173,9 @@
       <c r="AH156" s="18"/>
       <c r="AI156" s="18"/>
     </row>
-    <row r="157" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E157" s="16"/>
+    <row r="157" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D157" s="16"/>
+      <c r="E157" s="18"/>
       <c r="F157" s="18"/>
       <c r="G157" s="18"/>
       <c r="H157" s="18"/>
@@ -6249,814 +6207,846 @@
       <c r="AH157" s="18"/>
       <c r="AI157" s="18"/>
     </row>
-    <row r="158" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E158" s="16"/>
-      <c r="F158" s="18"/>
-      <c r="G158" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="H158" s="18"/>
-      <c r="I158" s="18"/>
-      <c r="J158" s="18"/>
-      <c r="K158" s="18"/>
-      <c r="L158" s="18"/>
-      <c r="M158" s="18"/>
-      <c r="N158" s="18"/>
-      <c r="O158" s="18"/>
-      <c r="P158" s="18"/>
-      <c r="Q158" s="18"/>
-      <c r="R158" s="18"/>
-      <c r="S158" s="18"/>
-      <c r="T158" s="18"/>
-      <c r="U158" s="18"/>
-      <c r="V158" s="18"/>
-      <c r="W158" s="18"/>
-      <c r="X158" s="18"/>
-      <c r="Y158" s="18"/>
-      <c r="Z158" s="18"/>
-      <c r="AA158" s="18"/>
-      <c r="AB158" s="18"/>
-      <c r="AC158" s="18"/>
-      <c r="AD158" s="18"/>
-      <c r="AE158" s="18"/>
-      <c r="AF158" s="18"/>
-      <c r="AG158" s="18"/>
-      <c r="AH158" s="18"/>
-      <c r="AI158" s="18"/>
-    </row>
-    <row r="159" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E159" s="16"/>
-      <c r="F159" s="18"/>
-      <c r="G159" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="H159" s="18"/>
-      <c r="I159" s="18"/>
-      <c r="J159" s="18"/>
-      <c r="K159" s="18"/>
-      <c r="L159" s="18"/>
-      <c r="M159" s="18"/>
-      <c r="N159" s="18"/>
-      <c r="O159" s="18"/>
-      <c r="P159" s="18"/>
-      <c r="Q159" s="18"/>
-      <c r="R159" s="18"/>
-      <c r="S159" s="18"/>
-      <c r="T159" s="18"/>
-      <c r="U159" s="18"/>
-      <c r="V159" s="18"/>
-      <c r="W159" s="18"/>
-      <c r="X159" s="18"/>
-      <c r="Y159" s="18"/>
-      <c r="Z159" s="18"/>
-      <c r="AA159" s="18"/>
-      <c r="AB159" s="18"/>
-      <c r="AC159" s="18"/>
-      <c r="AD159" s="18"/>
-      <c r="AE159" s="18"/>
-      <c r="AF159" s="18"/>
-      <c r="AG159" s="18"/>
-      <c r="AH159" s="18"/>
-      <c r="AI159" s="18"/>
-    </row>
-    <row r="160" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E160" s="16"/>
-      <c r="F160" s="18"/>
-      <c r="H160" s="18"/>
-      <c r="I160" s="18"/>
-      <c r="J160" s="18"/>
-      <c r="K160" s="18"/>
-      <c r="L160" s="18"/>
-      <c r="M160" s="18"/>
-      <c r="N160" s="18"/>
-      <c r="O160" s="18"/>
-      <c r="P160" s="18"/>
-      <c r="Q160" s="18"/>
-      <c r="R160" s="18"/>
-      <c r="S160" s="18"/>
-      <c r="T160" s="18"/>
-      <c r="U160" s="18"/>
-      <c r="V160" s="18"/>
-      <c r="W160" s="18"/>
-      <c r="X160" s="18"/>
-      <c r="Y160" s="18"/>
-      <c r="Z160" s="18"/>
-      <c r="AA160" s="18"/>
-      <c r="AB160" s="18"/>
-      <c r="AC160" s="18"/>
-      <c r="AD160" s="18"/>
-      <c r="AE160" s="18"/>
-      <c r="AF160" s="18"/>
-      <c r="AG160" s="18"/>
-      <c r="AH160" s="18"/>
-      <c r="AI160" s="18"/>
+    <row r="158" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E158" s="22" t="str">
+        <f>D87&amp;"5."</f>
+        <v>7.3.4.5.</v>
+      </c>
+      <c r="F158" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="G158" s="17"/>
+      <c r="H158" s="17"/>
+      <c r="I158" s="17"/>
+      <c r="J158" s="17"/>
+      <c r="K158" s="17"/>
+      <c r="L158" s="17"/>
+      <c r="M158" s="17"/>
+      <c r="N158" s="17"/>
+      <c r="O158" s="17"/>
+      <c r="P158" s="17"/>
+      <c r="Q158" s="17"/>
+      <c r="R158" s="17"/>
+      <c r="S158" s="17"/>
+      <c r="T158" s="17"/>
+      <c r="U158" s="17"/>
+      <c r="V158" s="17"/>
+      <c r="W158" s="17"/>
+      <c r="X158" s="17"/>
+      <c r="Y158" s="17"/>
+      <c r="Z158" s="17"/>
+      <c r="AA158" s="17"/>
+      <c r="AB158" s="17"/>
+      <c r="AC158" s="17"/>
+      <c r="AD158" s="17"/>
+      <c r="AE158" s="17"/>
+      <c r="AF158" s="17"/>
+      <c r="AG158" s="17"/>
+      <c r="AH158" s="17"/>
+      <c r="AI158" s="17"/>
+    </row>
+    <row r="159" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E159" s="22"/>
+      <c r="F159" s="22" t="str">
+        <f>E158&amp;"1."</f>
+        <v>7.3.4.5.1.</v>
+      </c>
+      <c r="G159" s="21" t="str">
+        <f>F158&amp;"機能概要"</f>
+        <v>データクリーニング機能概要</v>
+      </c>
+    </row>
+    <row r="160" spans="4:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E160" s="22"/>
+      <c r="F160" s="22"/>
+      <c r="G160" s="21" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="161" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E161" s="16"/>
-      <c r="F161" s="18"/>
-      <c r="G161" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="H161" s="18"/>
-      <c r="I161" s="18"/>
-      <c r="J161" s="18"/>
-      <c r="K161" s="18"/>
-      <c r="L161" s="18"/>
-      <c r="M161" s="18"/>
-      <c r="N161" s="18"/>
-      <c r="O161" s="18"/>
-      <c r="P161" s="18"/>
-      <c r="Q161" s="18"/>
-      <c r="R161" s="18"/>
-      <c r="S161" s="18"/>
-      <c r="T161" s="18"/>
-      <c r="U161" s="18"/>
-      <c r="V161" s="18"/>
-      <c r="W161" s="18"/>
-      <c r="X161" s="18"/>
-      <c r="Y161" s="18"/>
-      <c r="Z161" s="18"/>
-      <c r="AA161" s="18"/>
-      <c r="AB161" s="18"/>
-      <c r="AC161" s="18"/>
-      <c r="AD161" s="18"/>
-      <c r="AE161" s="18"/>
-      <c r="AF161" s="18"/>
-      <c r="AG161" s="18"/>
-      <c r="AH161" s="18"/>
-      <c r="AI161" s="18"/>
+      <c r="E161" s="22"/>
+      <c r="F161" s="22"/>
+      <c r="G161" s="21" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="162" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E162" s="16"/>
-      <c r="F162" s="18"/>
-      <c r="G162" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="H162" s="18"/>
-      <c r="I162" s="18"/>
-      <c r="J162" s="18"/>
-      <c r="K162" s="18"/>
-      <c r="L162" s="18"/>
-      <c r="M162" s="18"/>
-      <c r="N162" s="18"/>
-      <c r="O162" s="18"/>
-      <c r="P162" s="18"/>
-      <c r="Q162" s="18"/>
-      <c r="R162" s="18"/>
-      <c r="S162" s="18"/>
-      <c r="T162" s="18"/>
-      <c r="U162" s="18"/>
-      <c r="V162" s="18"/>
-      <c r="W162" s="18"/>
-      <c r="X162" s="18"/>
-      <c r="Y162" s="18"/>
-      <c r="Z162" s="18"/>
-      <c r="AA162" s="18"/>
-      <c r="AB162" s="18"/>
-      <c r="AC162" s="18"/>
-      <c r="AD162" s="18"/>
-      <c r="AE162" s="18"/>
-      <c r="AF162" s="18"/>
-      <c r="AG162" s="18"/>
-      <c r="AH162" s="18"/>
-      <c r="AI162" s="18"/>
-    </row>
-    <row r="163" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E163" s="16"/>
-      <c r="F163" s="18"/>
-      <c r="G163" s="18"/>
-      <c r="H163" s="18"/>
-      <c r="I163" s="18"/>
-      <c r="J163" s="18"/>
-      <c r="K163" s="18"/>
-      <c r="L163" s="18"/>
-      <c r="M163" s="18"/>
-      <c r="N163" s="18"/>
-      <c r="O163" s="18"/>
-      <c r="P163" s="18"/>
-      <c r="Q163" s="18"/>
-      <c r="R163" s="18"/>
-      <c r="S163" s="18"/>
-      <c r="T163" s="18"/>
-      <c r="U163" s="18"/>
-      <c r="V163" s="18"/>
-      <c r="W163" s="18"/>
-      <c r="X163" s="18"/>
-      <c r="Y163" s="18"/>
-      <c r="Z163" s="18"/>
-      <c r="AA163" s="18"/>
-      <c r="AB163" s="18"/>
-      <c r="AC163" s="18"/>
-      <c r="AD163" s="18"/>
-      <c r="AE163" s="18"/>
-      <c r="AF163" s="18"/>
-      <c r="AG163" s="18"/>
-      <c r="AH163" s="18"/>
-      <c r="AI163" s="18"/>
-    </row>
+      <c r="E162" s="22"/>
+      <c r="F162" s="22"/>
+      <c r="G162" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="163" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="164" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D164" s="16"/>
-      <c r="E164" s="18"/>
-      <c r="F164" s="18"/>
-      <c r="G164" s="18"/>
-      <c r="H164" s="18"/>
-      <c r="I164" s="18"/>
-      <c r="J164" s="18"/>
-      <c r="K164" s="18"/>
-      <c r="L164" s="18"/>
-      <c r="M164" s="18"/>
-      <c r="N164" s="18"/>
-      <c r="O164" s="18"/>
-      <c r="P164" s="18"/>
-      <c r="Q164" s="18"/>
-      <c r="R164" s="18"/>
-      <c r="S164" s="18"/>
-      <c r="T164" s="18"/>
-      <c r="U164" s="18"/>
-      <c r="V164" s="18"/>
-      <c r="W164" s="18"/>
-      <c r="X164" s="18"/>
-      <c r="Y164" s="18"/>
-      <c r="Z164" s="18"/>
-      <c r="AA164" s="18"/>
-      <c r="AB164" s="18"/>
-      <c r="AC164" s="18"/>
-      <c r="AD164" s="18"/>
-      <c r="AE164" s="18"/>
-      <c r="AF164" s="18"/>
-      <c r="AG164" s="18"/>
-      <c r="AH164" s="18"/>
-      <c r="AI164" s="18"/>
+      <c r="F164" s="22" t="str">
+        <f>E158&amp;"2."</f>
+        <v>7.3.4.5.2.</v>
+      </c>
+      <c r="G164" s="21" t="str">
+        <f>F158&amp;"方法"</f>
+        <v>データクリーニング方法</v>
+      </c>
     </row>
     <row r="165" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E165" s="22" t="str">
-        <f>D94&amp;"5."</f>
-        <v>7.3.4.5.</v>
-      </c>
-      <c r="F165" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="G165" s="17"/>
-      <c r="H165" s="17"/>
-      <c r="I165" s="17"/>
-      <c r="J165" s="17"/>
-      <c r="K165" s="17"/>
-      <c r="L165" s="17"/>
-      <c r="M165" s="17"/>
-      <c r="N165" s="17"/>
-      <c r="O165" s="17"/>
-      <c r="P165" s="17"/>
-      <c r="Q165" s="17"/>
-      <c r="R165" s="17"/>
-      <c r="S165" s="17"/>
-      <c r="T165" s="17"/>
-      <c r="U165" s="17"/>
-      <c r="V165" s="17"/>
-      <c r="W165" s="17"/>
-      <c r="X165" s="17"/>
-      <c r="Y165" s="17"/>
-      <c r="Z165" s="17"/>
-      <c r="AA165" s="17"/>
-      <c r="AB165" s="17"/>
-      <c r="AC165" s="17"/>
-      <c r="AD165" s="17"/>
-      <c r="AE165" s="17"/>
-      <c r="AF165" s="17"/>
-      <c r="AG165" s="17"/>
-      <c r="AH165" s="17"/>
-      <c r="AI165" s="17"/>
-    </row>
-    <row r="166" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E166" s="22"/>
-      <c r="F166" s="22" t="str">
-        <f>E165&amp;"1."</f>
-        <v>7.3.4.5.1.</v>
-      </c>
-      <c r="G166" s="21" t="str">
-        <f>F165&amp;"機能概要"</f>
-        <v>データクリーニング機能概要</v>
-      </c>
-    </row>
+      <c r="G165" s="21" t="str">
+        <f>F158&amp;"を行う機能には、以下の方法がある。"</f>
+        <v>データクリーニングを行う機能には、以下の方法がある。</v>
+      </c>
+    </row>
+    <row r="166" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="167" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E167" s="22"/>
-      <c r="F167" s="22"/>
-      <c r="G167" s="21" t="s">
-        <v>184</v>
-      </c>
+      <c r="C167" s="20"/>
+      <c r="D167" s="20"/>
+      <c r="E167" s="20"/>
+      <c r="G167" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="H167" s="33"/>
+      <c r="I167" s="33"/>
+      <c r="J167" s="33"/>
+      <c r="K167" s="34"/>
+      <c r="L167" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="M167" s="33"/>
+      <c r="N167" s="33"/>
+      <c r="O167" s="33"/>
+      <c r="P167" s="33"/>
+      <c r="Q167" s="33"/>
+      <c r="R167" s="33"/>
+      <c r="S167" s="33"/>
+      <c r="T167" s="33"/>
+      <c r="U167" s="33"/>
+      <c r="V167" s="33"/>
+      <c r="W167" s="33"/>
+      <c r="X167" s="33"/>
+      <c r="Y167" s="33"/>
+      <c r="Z167" s="33"/>
+      <c r="AA167" s="33"/>
+      <c r="AB167" s="33"/>
+      <c r="AC167" s="33"/>
+      <c r="AD167" s="33"/>
+      <c r="AE167" s="33"/>
+      <c r="AF167" s="33"/>
+      <c r="AG167" s="33"/>
+      <c r="AH167" s="34"/>
     </row>
     <row r="168" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E168" s="22"/>
-      <c r="F168" s="22"/>
-      <c r="G168" s="21" t="s">
-        <v>180</v>
-      </c>
+      <c r="C168" s="20"/>
+      <c r="D168" s="20"/>
+      <c r="E168" s="20"/>
+      <c r="G168" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="H168" s="29"/>
+      <c r="I168" s="29"/>
+      <c r="J168" s="29"/>
+      <c r="K168" s="29"/>
+      <c r="L168" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="M168" s="29"/>
+      <c r="N168" s="29"/>
+      <c r="O168" s="29"/>
+      <c r="P168" s="29"/>
+      <c r="Q168" s="29"/>
+      <c r="R168" s="29"/>
+      <c r="S168" s="29"/>
+      <c r="T168" s="29"/>
+      <c r="U168" s="29"/>
+      <c r="V168" s="29"/>
+      <c r="W168" s="29"/>
+      <c r="X168" s="29"/>
+      <c r="Y168" s="29"/>
+      <c r="Z168" s="29"/>
+      <c r="AA168" s="29"/>
+      <c r="AB168" s="29"/>
+      <c r="AC168" s="29"/>
+      <c r="AD168" s="29"/>
+      <c r="AE168" s="29"/>
+      <c r="AF168" s="29"/>
+      <c r="AG168" s="29"/>
+      <c r="AH168" s="30"/>
     </row>
     <row r="169" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E169" s="22"/>
-      <c r="F169" s="22"/>
-      <c r="G169" s="21" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="170" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="C169" s="20"/>
+      <c r="D169" s="20"/>
+      <c r="E169" s="20"/>
+      <c r="G169" s="23"/>
+      <c r="H169" s="24"/>
+      <c r="I169" s="24"/>
+      <c r="J169" s="24"/>
+      <c r="K169" s="24"/>
+      <c r="L169" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="M169" s="24"/>
+      <c r="N169" s="24"/>
+      <c r="O169" s="24"/>
+      <c r="P169" s="24"/>
+      <c r="Q169" s="24"/>
+      <c r="R169" s="24"/>
+      <c r="S169" s="24"/>
+      <c r="T169" s="24"/>
+      <c r="U169" s="24"/>
+      <c r="V169" s="24"/>
+      <c r="W169" s="24"/>
+      <c r="X169" s="24"/>
+      <c r="Y169" s="24"/>
+      <c r="Z169" s="24"/>
+      <c r="AA169" s="24"/>
+      <c r="AB169" s="24"/>
+      <c r="AC169" s="24"/>
+      <c r="AD169" s="24"/>
+      <c r="AE169" s="24"/>
+      <c r="AF169" s="24"/>
+      <c r="AG169" s="24"/>
+      <c r="AH169" s="25"/>
+    </row>
+    <row r="170" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C170" s="20"/>
+      <c r="D170" s="20"/>
+      <c r="E170" s="20"/>
+      <c r="G170" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="H170" s="29"/>
+      <c r="I170" s="29"/>
+      <c r="J170" s="29"/>
+      <c r="K170" s="29"/>
+      <c r="L170" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="M170" s="29"/>
+      <c r="N170" s="29"/>
+      <c r="O170" s="29"/>
+      <c r="P170" s="29"/>
+      <c r="Q170" s="29"/>
+      <c r="R170" s="29"/>
+      <c r="S170" s="29"/>
+      <c r="T170" s="29"/>
+      <c r="U170" s="29"/>
+      <c r="V170" s="29"/>
+      <c r="W170" s="29"/>
+      <c r="X170" s="29"/>
+      <c r="Y170" s="29"/>
+      <c r="Z170" s="29"/>
+      <c r="AA170" s="29"/>
+      <c r="AB170" s="29"/>
+      <c r="AC170" s="29"/>
+      <c r="AD170" s="29"/>
+      <c r="AE170" s="29"/>
+      <c r="AF170" s="29"/>
+      <c r="AG170" s="29"/>
+      <c r="AH170" s="30"/>
+    </row>
     <row r="171" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F171" s="22" t="str">
-        <f>E165&amp;"2."</f>
-        <v>7.3.4.5.2.</v>
-      </c>
-      <c r="G171" s="21" t="str">
-        <f>F165&amp;"方法"</f>
-        <v>データクリーニング方法</v>
-      </c>
+      <c r="C171" s="20"/>
+      <c r="D171" s="20"/>
+      <c r="E171" s="20"/>
+      <c r="G171" s="23"/>
+      <c r="H171" s="24"/>
+      <c r="I171" s="24"/>
+      <c r="J171" s="24"/>
+      <c r="K171" s="24"/>
+      <c r="L171" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="M171" s="24"/>
+      <c r="N171" s="24"/>
+      <c r="O171" s="24"/>
+      <c r="P171" s="24"/>
+      <c r="Q171" s="24"/>
+      <c r="R171" s="24"/>
+      <c r="S171" s="24"/>
+      <c r="T171" s="24"/>
+      <c r="U171" s="24"/>
+      <c r="V171" s="24"/>
+      <c r="W171" s="24"/>
+      <c r="X171" s="24"/>
+      <c r="Y171" s="24"/>
+      <c r="Z171" s="24"/>
+      <c r="AA171" s="24"/>
+      <c r="AB171" s="24"/>
+      <c r="AC171" s="24"/>
+      <c r="AD171" s="24"/>
+      <c r="AE171" s="24"/>
+      <c r="AF171" s="24"/>
+      <c r="AG171" s="24"/>
+      <c r="AH171" s="25"/>
     </row>
     <row r="172" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G172" s="21" t="str">
-        <f>F165&amp;"を行う機能には、以下の方法がある。"</f>
-        <v>データクリーニングを行う機能には、以下の方法がある。</v>
-      </c>
-    </row>
-    <row r="173" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="C172" s="20"/>
+      <c r="D172" s="20"/>
+      <c r="E172" s="20"/>
+      <c r="G172" s="23"/>
+      <c r="H172" s="24"/>
+      <c r="I172" s="24"/>
+      <c r="J172" s="24"/>
+      <c r="K172" s="24"/>
+      <c r="L172" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="M172" s="24"/>
+      <c r="N172" s="24"/>
+      <c r="O172" s="24"/>
+      <c r="P172" s="24"/>
+      <c r="Q172" s="24"/>
+      <c r="R172" s="24"/>
+      <c r="S172" s="24"/>
+      <c r="T172" s="24"/>
+      <c r="U172" s="24"/>
+      <c r="V172" s="24"/>
+      <c r="W172" s="24"/>
+      <c r="X172" s="24"/>
+      <c r="Y172" s="24"/>
+      <c r="Z172" s="24"/>
+      <c r="AA172" s="24"/>
+      <c r="AB172" s="24"/>
+      <c r="AC172" s="24"/>
+      <c r="AD172" s="24"/>
+      <c r="AE172" s="24"/>
+      <c r="AF172" s="24"/>
+      <c r="AG172" s="24"/>
+      <c r="AH172" s="25"/>
+    </row>
+    <row r="173" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C173" s="20"/>
+      <c r="D173" s="20"/>
+      <c r="E173" s="20"/>
+      <c r="G173" s="26"/>
+      <c r="H173" s="27"/>
+      <c r="I173" s="27"/>
+      <c r="J173" s="27"/>
+      <c r="K173" s="27"/>
+      <c r="L173" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="M173" s="27"/>
+      <c r="N173" s="27"/>
+      <c r="O173" s="27"/>
+      <c r="P173" s="27"/>
+      <c r="Q173" s="27"/>
+      <c r="R173" s="27"/>
+      <c r="S173" s="27"/>
+      <c r="T173" s="27"/>
+      <c r="U173" s="27"/>
+      <c r="V173" s="27"/>
+      <c r="W173" s="27"/>
+      <c r="X173" s="27"/>
+      <c r="Y173" s="27"/>
+      <c r="Z173" s="27"/>
+      <c r="AA173" s="27"/>
+      <c r="AB173" s="27"/>
+      <c r="AC173" s="27"/>
+      <c r="AD173" s="27"/>
+      <c r="AE173" s="27"/>
+      <c r="AF173" s="27"/>
+      <c r="AG173" s="27"/>
+      <c r="AH173" s="31"/>
+    </row>
     <row r="174" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C174" s="20"/>
       <c r="D174" s="20"/>
       <c r="E174" s="20"/>
-      <c r="G174" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="H174" s="33"/>
-      <c r="I174" s="33"/>
-      <c r="J174" s="33"/>
-      <c r="K174" s="34"/>
-      <c r="L174" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="M174" s="33"/>
-      <c r="N174" s="33"/>
-      <c r="O174" s="33"/>
-      <c r="P174" s="33"/>
-      <c r="Q174" s="33"/>
-      <c r="R174" s="33"/>
-      <c r="S174" s="33"/>
-      <c r="T174" s="33"/>
-      <c r="U174" s="33"/>
-      <c r="V174" s="33"/>
-      <c r="W174" s="33"/>
-      <c r="X174" s="33"/>
-      <c r="Y174" s="33"/>
-      <c r="Z174" s="33"/>
-      <c r="AA174" s="33"/>
-      <c r="AB174" s="33"/>
-      <c r="AC174" s="33"/>
-      <c r="AD174" s="33"/>
-      <c r="AE174" s="33"/>
-      <c r="AF174" s="33"/>
-      <c r="AG174" s="33"/>
-      <c r="AH174" s="34"/>
+      <c r="G174" s="24"/>
+      <c r="H174" s="24"/>
+      <c r="I174" s="24"/>
+      <c r="J174" s="24"/>
+      <c r="K174" s="24"/>
+      <c r="L174" s="24"/>
+      <c r="M174" s="24"/>
+      <c r="N174" s="24"/>
+      <c r="O174" s="24"/>
+      <c r="P174" s="24"/>
+      <c r="Q174" s="24"/>
+      <c r="R174" s="24"/>
+      <c r="S174" s="24"/>
+      <c r="T174" s="24"/>
+      <c r="U174" s="24"/>
+      <c r="V174" s="24"/>
+      <c r="W174" s="24"/>
+      <c r="X174" s="24"/>
+      <c r="Y174" s="24"/>
+      <c r="Z174" s="24"/>
+      <c r="AA174" s="24"/>
+      <c r="AB174" s="24"/>
+      <c r="AC174" s="24"/>
+      <c r="AD174" s="24"/>
+      <c r="AE174" s="24"/>
+      <c r="AF174" s="24"/>
+      <c r="AG174" s="24"/>
+      <c r="AH174" s="24"/>
+      <c r="AI174" s="24"/>
     </row>
     <row r="175" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C175" s="20"/>
       <c r="D175" s="20"/>
       <c r="E175" s="20"/>
-      <c r="G175" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="H175" s="29"/>
-      <c r="I175" s="29"/>
-      <c r="J175" s="29"/>
-      <c r="K175" s="29"/>
-      <c r="L175" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="M175" s="29"/>
-      <c r="N175" s="29"/>
-      <c r="O175" s="29"/>
-      <c r="P175" s="29"/>
-      <c r="Q175" s="29"/>
-      <c r="R175" s="29"/>
-      <c r="S175" s="29"/>
-      <c r="T175" s="29"/>
-      <c r="U175" s="29"/>
-      <c r="V175" s="29"/>
-      <c r="W175" s="29"/>
-      <c r="X175" s="29"/>
-      <c r="Y175" s="29"/>
-      <c r="Z175" s="29"/>
-      <c r="AA175" s="29"/>
-      <c r="AB175" s="29"/>
-      <c r="AC175" s="29"/>
-      <c r="AD175" s="29"/>
-      <c r="AE175" s="29"/>
-      <c r="AF175" s="29"/>
-      <c r="AG175" s="29"/>
-      <c r="AH175" s="30"/>
+      <c r="G175" s="21" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="176" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C176" s="20"/>
-      <c r="D176" s="20"/>
-      <c r="E176" s="20"/>
-      <c r="G176" s="23"/>
-      <c r="H176" s="24"/>
-      <c r="I176" s="24"/>
-      <c r="J176" s="24"/>
-      <c r="K176" s="24"/>
-      <c r="L176" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="M176" s="24"/>
-      <c r="N176" s="24"/>
-      <c r="O176" s="24"/>
-      <c r="P176" s="24"/>
-      <c r="Q176" s="24"/>
-      <c r="R176" s="24"/>
-      <c r="S176" s="24"/>
-      <c r="T176" s="24"/>
-      <c r="U176" s="24"/>
-      <c r="V176" s="24"/>
-      <c r="W176" s="24"/>
-      <c r="X176" s="24"/>
-      <c r="Y176" s="24"/>
-      <c r="Z176" s="24"/>
-      <c r="AA176" s="24"/>
-      <c r="AB176" s="24"/>
-      <c r="AC176" s="24"/>
-      <c r="AD176" s="24"/>
-      <c r="AE176" s="24"/>
-      <c r="AF176" s="24"/>
-      <c r="AG176" s="24"/>
-      <c r="AH176" s="25"/>
+      <c r="G176" s="32" t="str">
+        <f>G167</f>
+        <v>方法</v>
+      </c>
+      <c r="H176" s="33"/>
+      <c r="I176" s="33"/>
+      <c r="J176" s="33"/>
+      <c r="K176" s="34"/>
+      <c r="L176" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="M176" s="33"/>
+      <c r="N176" s="33"/>
+      <c r="O176" s="34"/>
+      <c r="P176" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q176" s="33"/>
+      <c r="R176" s="33"/>
+      <c r="S176" s="33"/>
+      <c r="T176" s="33"/>
+      <c r="U176" s="33"/>
+      <c r="V176" s="33"/>
+      <c r="W176" s="33"/>
+      <c r="X176" s="33"/>
+      <c r="Y176" s="33"/>
+      <c r="Z176" s="33"/>
+      <c r="AA176" s="33"/>
+      <c r="AB176" s="33"/>
+      <c r="AC176" s="33"/>
+      <c r="AD176" s="33"/>
+      <c r="AE176" s="33"/>
+      <c r="AF176" s="33"/>
+      <c r="AG176" s="33"/>
+      <c r="AH176" s="34"/>
     </row>
     <row r="177" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C177" s="20"/>
-      <c r="D177" s="20"/>
-      <c r="E177" s="20"/>
-      <c r="G177" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="H177" s="29"/>
-      <c r="I177" s="29"/>
-      <c r="J177" s="29"/>
-      <c r="K177" s="29"/>
-      <c r="L177" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="M177" s="29"/>
-      <c r="N177" s="29"/>
-      <c r="O177" s="29"/>
-      <c r="P177" s="29"/>
-      <c r="Q177" s="29"/>
-      <c r="R177" s="29"/>
-      <c r="S177" s="29"/>
-      <c r="T177" s="29"/>
-      <c r="U177" s="29"/>
-      <c r="V177" s="29"/>
-      <c r="W177" s="29"/>
-      <c r="X177" s="29"/>
-      <c r="Y177" s="29"/>
-      <c r="Z177" s="29"/>
-      <c r="AA177" s="29"/>
-      <c r="AB177" s="29"/>
-      <c r="AC177" s="29"/>
-      <c r="AD177" s="29"/>
-      <c r="AE177" s="29"/>
-      <c r="AF177" s="29"/>
-      <c r="AG177" s="29"/>
-      <c r="AH177" s="30"/>
+      <c r="G177" s="23" t="str">
+        <f>G168</f>
+        <v>物理削除</v>
+      </c>
+      <c r="H177" s="24"/>
+      <c r="I177" s="24"/>
+      <c r="J177" s="24"/>
+      <c r="K177" s="25"/>
+      <c r="L177" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="M177" s="24"/>
+      <c r="N177" s="24"/>
+      <c r="O177" s="25"/>
+      <c r="P177" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q177" s="24"/>
+      <c r="R177" s="24"/>
+      <c r="S177" s="24"/>
+      <c r="T177" s="24"/>
+      <c r="U177" s="24"/>
+      <c r="V177" s="24"/>
+      <c r="W177" s="24"/>
+      <c r="X177" s="24"/>
+      <c r="Y177" s="24"/>
+      <c r="Z177" s="24"/>
+      <c r="AA177" s="24"/>
+      <c r="AB177" s="24"/>
+      <c r="AC177" s="24"/>
+      <c r="AD177" s="24"/>
+      <c r="AE177" s="24"/>
+      <c r="AF177" s="24"/>
+      <c r="AG177" s="24"/>
+      <c r="AH177" s="25"/>
     </row>
     <row r="178" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C178" s="20"/>
-      <c r="D178" s="20"/>
-      <c r="E178" s="20"/>
-      <c r="G178" s="23"/>
-      <c r="H178" s="24"/>
-      <c r="I178" s="24"/>
-      <c r="J178" s="24"/>
-      <c r="K178" s="24"/>
-      <c r="L178" s="23" t="s">
+      <c r="G178" s="45" t="str">
+        <f>G170</f>
+        <v>論理削除</v>
+      </c>
+      <c r="H178" s="46"/>
+      <c r="I178" s="46"/>
+      <c r="J178" s="46"/>
+      <c r="K178" s="47"/>
+      <c r="L178" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="M178" s="46"/>
+      <c r="N178" s="46"/>
+      <c r="O178" s="47"/>
+      <c r="P178" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q178" s="46"/>
+      <c r="R178" s="46"/>
+      <c r="S178" s="46"/>
+      <c r="T178" s="46"/>
+      <c r="U178" s="46"/>
+      <c r="V178" s="46"/>
+      <c r="W178" s="46"/>
+      <c r="X178" s="46"/>
+      <c r="Y178" s="46"/>
+      <c r="Z178" s="46"/>
+      <c r="AA178" s="46"/>
+      <c r="AB178" s="46"/>
+      <c r="AC178" s="46"/>
+      <c r="AD178" s="46"/>
+      <c r="AE178" s="46"/>
+      <c r="AF178" s="46"/>
+      <c r="AG178" s="46"/>
+      <c r="AH178" s="47"/>
+    </row>
+    <row r="179" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E179" s="16"/>
+      <c r="F179" s="18"/>
+      <c r="G179" s="18"/>
+      <c r="H179" s="18"/>
+      <c r="I179" s="18"/>
+      <c r="J179" s="18"/>
+      <c r="K179" s="18"/>
+      <c r="L179" s="18"/>
+      <c r="M179" s="18"/>
+      <c r="N179" s="18"/>
+      <c r="O179" s="18"/>
+      <c r="P179" s="18"/>
+      <c r="Q179" s="18"/>
+      <c r="R179" s="18"/>
+      <c r="S179" s="18"/>
+      <c r="T179" s="18"/>
+      <c r="U179" s="18"/>
+      <c r="V179" s="18"/>
+      <c r="W179" s="18"/>
+      <c r="X179" s="18"/>
+      <c r="Y179" s="18"/>
+      <c r="Z179" s="18"/>
+      <c r="AA179" s="18"/>
+      <c r="AB179" s="18"/>
+      <c r="AC179" s="18"/>
+      <c r="AD179" s="18"/>
+      <c r="AE179" s="18"/>
+      <c r="AF179" s="18"/>
+      <c r="AG179" s="18"/>
+      <c r="AH179" s="18"/>
+      <c r="AI179" s="18"/>
+    </row>
+    <row r="180" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D180" s="16"/>
+      <c r="E180" s="18"/>
+      <c r="F180" s="22"/>
+      <c r="G180" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="H180" s="18"/>
+      <c r="I180" s="18"/>
+      <c r="J180" s="18"/>
+      <c r="K180" s="18"/>
+      <c r="L180" s="18"/>
+      <c r="M180" s="18"/>
+      <c r="N180" s="18"/>
+      <c r="O180" s="18"/>
+      <c r="P180" s="18"/>
+      <c r="Q180" s="18"/>
+      <c r="R180" s="18"/>
+      <c r="S180" s="18"/>
+      <c r="T180" s="18"/>
+      <c r="U180" s="18"/>
+      <c r="V180" s="18"/>
+      <c r="W180" s="18"/>
+      <c r="X180" s="18"/>
+      <c r="Y180" s="18"/>
+      <c r="Z180" s="18"/>
+      <c r="AA180" s="18"/>
+      <c r="AB180" s="18"/>
+      <c r="AC180" s="18"/>
+      <c r="AD180" s="18"/>
+      <c r="AE180" s="18"/>
+      <c r="AF180" s="18"/>
+      <c r="AG180" s="18"/>
+      <c r="AH180" s="18"/>
+      <c r="AI180" s="18"/>
+    </row>
+    <row r="181" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D181" s="16"/>
+      <c r="E181" s="18"/>
+      <c r="F181" s="18"/>
+      <c r="G181" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="M178" s="24"/>
-      <c r="N178" s="24"/>
-      <c r="O178" s="24"/>
-      <c r="P178" s="24"/>
-      <c r="Q178" s="24"/>
-      <c r="R178" s="24"/>
-      <c r="S178" s="24"/>
-      <c r="T178" s="24"/>
-      <c r="U178" s="24"/>
-      <c r="V178" s="24"/>
-      <c r="W178" s="24"/>
-      <c r="X178" s="24"/>
-      <c r="Y178" s="24"/>
-      <c r="Z178" s="24"/>
-      <c r="AA178" s="24"/>
-      <c r="AB178" s="24"/>
-      <c r="AC178" s="24"/>
-      <c r="AD178" s="24"/>
-      <c r="AE178" s="24"/>
-      <c r="AF178" s="24"/>
-      <c r="AG178" s="24"/>
-      <c r="AH178" s="25"/>
-    </row>
-    <row r="179" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C179" s="20"/>
-      <c r="D179" s="20"/>
-      <c r="E179" s="20"/>
-      <c r="G179" s="23"/>
-      <c r="H179" s="24"/>
-      <c r="I179" s="24"/>
-      <c r="J179" s="24"/>
-      <c r="K179" s="24"/>
-      <c r="L179" s="23" t="s">
-        <v>181</v>
-      </c>
-      <c r="M179" s="24"/>
-      <c r="N179" s="24"/>
-      <c r="O179" s="24"/>
-      <c r="P179" s="24"/>
-      <c r="Q179" s="24"/>
-      <c r="R179" s="24"/>
-      <c r="S179" s="24"/>
-      <c r="T179" s="24"/>
-      <c r="U179" s="24"/>
-      <c r="V179" s="24"/>
-      <c r="W179" s="24"/>
-      <c r="X179" s="24"/>
-      <c r="Y179" s="24"/>
-      <c r="Z179" s="24"/>
-      <c r="AA179" s="24"/>
-      <c r="AB179" s="24"/>
-      <c r="AC179" s="24"/>
-      <c r="AD179" s="24"/>
-      <c r="AE179" s="24"/>
-      <c r="AF179" s="24"/>
-      <c r="AG179" s="24"/>
-      <c r="AH179" s="25"/>
-    </row>
-    <row r="180" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C180" s="20"/>
-      <c r="D180" s="20"/>
-      <c r="E180" s="20"/>
-      <c r="G180" s="26"/>
-      <c r="H180" s="27"/>
-      <c r="I180" s="27"/>
-      <c r="J180" s="27"/>
-      <c r="K180" s="27"/>
-      <c r="L180" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="M180" s="27"/>
-      <c r="N180" s="27"/>
-      <c r="O180" s="27"/>
-      <c r="P180" s="27"/>
-      <c r="Q180" s="27"/>
-      <c r="R180" s="27"/>
-      <c r="S180" s="27"/>
-      <c r="T180" s="27"/>
-      <c r="U180" s="27"/>
-      <c r="V180" s="27"/>
-      <c r="W180" s="27"/>
-      <c r="X180" s="27"/>
-      <c r="Y180" s="27"/>
-      <c r="Z180" s="27"/>
-      <c r="AA180" s="27"/>
-      <c r="AB180" s="27"/>
-      <c r="AC180" s="27"/>
-      <c r="AD180" s="27"/>
-      <c r="AE180" s="27"/>
-      <c r="AF180" s="27"/>
-      <c r="AG180" s="27"/>
-      <c r="AH180" s="31"/>
-    </row>
-    <row r="181" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C181" s="20"/>
-      <c r="D181" s="20"/>
-      <c r="E181" s="20"/>
-      <c r="G181" s="24"/>
-      <c r="H181" s="24"/>
-      <c r="I181" s="24"/>
-      <c r="J181" s="24"/>
-      <c r="K181" s="24"/>
-      <c r="L181" s="24"/>
-      <c r="M181" s="24"/>
-      <c r="N181" s="24"/>
-      <c r="O181" s="24"/>
-      <c r="P181" s="24"/>
-      <c r="Q181" s="24"/>
-      <c r="R181" s="24"/>
-      <c r="S181" s="24"/>
-      <c r="T181" s="24"/>
-      <c r="U181" s="24"/>
-      <c r="V181" s="24"/>
-      <c r="W181" s="24"/>
-      <c r="X181" s="24"/>
-      <c r="Y181" s="24"/>
-      <c r="Z181" s="24"/>
-      <c r="AA181" s="24"/>
-      <c r="AB181" s="24"/>
-      <c r="AC181" s="24"/>
-      <c r="AD181" s="24"/>
-      <c r="AE181" s="24"/>
-      <c r="AF181" s="24"/>
-      <c r="AG181" s="24"/>
-      <c r="AH181" s="24"/>
-      <c r="AI181" s="24"/>
-    </row>
-    <row r="182" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C182" s="20"/>
-      <c r="D182" s="20"/>
-      <c r="E182" s="20"/>
-      <c r="G182" s="21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="183" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G183" s="32" t="str">
-        <f>G174</f>
-        <v>方法</v>
-      </c>
-      <c r="H183" s="33"/>
-      <c r="I183" s="33"/>
-      <c r="J183" s="33"/>
-      <c r="K183" s="34"/>
-      <c r="L183" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="M183" s="33"/>
-      <c r="N183" s="33"/>
-      <c r="O183" s="34"/>
-      <c r="P183" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q183" s="33"/>
-      <c r="R183" s="33"/>
-      <c r="S183" s="33"/>
-      <c r="T183" s="33"/>
-      <c r="U183" s="33"/>
-      <c r="V183" s="33"/>
-      <c r="W183" s="33"/>
-      <c r="X183" s="33"/>
-      <c r="Y183" s="33"/>
-      <c r="Z183" s="33"/>
-      <c r="AA183" s="33"/>
-      <c r="AB183" s="33"/>
-      <c r="AC183" s="33"/>
-      <c r="AD183" s="33"/>
-      <c r="AE183" s="33"/>
-      <c r="AF183" s="33"/>
-      <c r="AG183" s="33"/>
-      <c r="AH183" s="34"/>
-    </row>
-    <row r="184" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G184" s="23" t="str">
-        <f>G175</f>
-        <v>物理削除</v>
-      </c>
-      <c r="H184" s="24"/>
-      <c r="I184" s="24"/>
-      <c r="J184" s="24"/>
-      <c r="K184" s="25"/>
-      <c r="L184" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="M184" s="24"/>
-      <c r="N184" s="24"/>
-      <c r="O184" s="25"/>
-      <c r="P184" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q184" s="24"/>
-      <c r="R184" s="24"/>
-      <c r="S184" s="24"/>
-      <c r="T184" s="24"/>
-      <c r="U184" s="24"/>
-      <c r="V184" s="24"/>
-      <c r="W184" s="24"/>
-      <c r="X184" s="24"/>
-      <c r="Y184" s="24"/>
-      <c r="Z184" s="24"/>
-      <c r="AA184" s="24"/>
-      <c r="AB184" s="24"/>
-      <c r="AC184" s="24"/>
-      <c r="AD184" s="24"/>
-      <c r="AE184" s="24"/>
-      <c r="AF184" s="24"/>
-      <c r="AG184" s="24"/>
-      <c r="AH184" s="25"/>
+      <c r="H181" s="37"/>
+      <c r="I181" s="37"/>
+      <c r="J181" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="K181" s="37"/>
+      <c r="L181" s="37"/>
+      <c r="M181" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="N181" s="37"/>
+      <c r="O181" s="37"/>
+      <c r="P181" s="37"/>
+      <c r="Q181" s="37"/>
+      <c r="R181" s="37"/>
+      <c r="S181" s="37"/>
+      <c r="T181" s="37"/>
+      <c r="U181" s="37"/>
+      <c r="V181" s="37"/>
+      <c r="W181" s="37"/>
+      <c r="X181" s="38"/>
+      <c r="Y181" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z181" s="37"/>
+      <c r="AA181" s="37"/>
+      <c r="AB181" s="37"/>
+      <c r="AC181" s="37"/>
+      <c r="AD181" s="37"/>
+      <c r="AE181" s="37"/>
+      <c r="AF181" s="37"/>
+      <c r="AG181" s="37"/>
+      <c r="AH181" s="38"/>
+      <c r="AI181" s="18"/>
+    </row>
+    <row r="182" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D182" s="16"/>
+      <c r="E182" s="18"/>
+      <c r="F182" s="18"/>
+      <c r="G182" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="H182" s="18"/>
+      <c r="I182" s="18"/>
+      <c r="J182" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="K182" s="18"/>
+      <c r="L182" s="18"/>
+      <c r="M182" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="N182" s="18"/>
+      <c r="O182" s="18"/>
+      <c r="P182" s="18"/>
+      <c r="Q182" s="18"/>
+      <c r="R182" s="18"/>
+      <c r="S182" s="18"/>
+      <c r="T182" s="18"/>
+      <c r="U182" s="18"/>
+      <c r="V182" s="18"/>
+      <c r="W182" s="18"/>
+      <c r="X182" s="40"/>
+      <c r="Y182" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z182" s="18"/>
+      <c r="AA182" s="18"/>
+      <c r="AB182" s="18"/>
+      <c r="AC182" s="18"/>
+      <c r="AD182" s="18"/>
+      <c r="AE182" s="18"/>
+      <c r="AF182" s="18"/>
+      <c r="AG182" s="18"/>
+      <c r="AH182" s="40"/>
+      <c r="AI182" s="18"/>
+    </row>
+    <row r="183" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D183" s="16"/>
+      <c r="E183" s="18"/>
+      <c r="F183" s="18"/>
+      <c r="G183" s="39"/>
+      <c r="H183" s="18"/>
+      <c r="I183" s="18"/>
+      <c r="J183" s="39"/>
+      <c r="K183" s="18"/>
+      <c r="L183" s="18"/>
+      <c r="M183" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="N183" s="18"/>
+      <c r="O183" s="18"/>
+      <c r="P183" s="18"/>
+      <c r="Q183" s="18"/>
+      <c r="R183" s="18"/>
+      <c r="S183" s="18"/>
+      <c r="T183" s="18"/>
+      <c r="U183" s="18"/>
+      <c r="V183" s="18"/>
+      <c r="W183" s="18"/>
+      <c r="X183" s="40"/>
+      <c r="Y183" s="18"/>
+      <c r="Z183" s="18"/>
+      <c r="AA183" s="18"/>
+      <c r="AB183" s="18"/>
+      <c r="AC183" s="18"/>
+      <c r="AD183" s="18"/>
+      <c r="AE183" s="18"/>
+      <c r="AF183" s="18"/>
+      <c r="AG183" s="18"/>
+      <c r="AH183" s="40"/>
+      <c r="AI183" s="18"/>
+    </row>
+    <row r="184" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D184" s="16"/>
+      <c r="E184" s="18"/>
+      <c r="F184" s="18"/>
+      <c r="G184" s="39"/>
+      <c r="H184" s="18"/>
+      <c r="I184" s="18"/>
+      <c r="J184" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="K184" s="53"/>
+      <c r="L184" s="53"/>
+      <c r="M184" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="N184" s="53"/>
+      <c r="O184" s="53"/>
+      <c r="P184" s="53"/>
+      <c r="Q184" s="53"/>
+      <c r="R184" s="53"/>
+      <c r="S184" s="53"/>
+      <c r="T184" s="53"/>
+      <c r="U184" s="53"/>
+      <c r="V184" s="53"/>
+      <c r="W184" s="53"/>
+      <c r="X184" s="54"/>
+      <c r="Y184" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z184" s="53"/>
+      <c r="AA184" s="53"/>
+      <c r="AB184" s="53"/>
+      <c r="AC184" s="53"/>
+      <c r="AD184" s="53"/>
+      <c r="AE184" s="53"/>
+      <c r="AF184" s="53"/>
+      <c r="AG184" s="53"/>
+      <c r="AH184" s="54"/>
+      <c r="AI184" s="18"/>
     </row>
     <row r="185" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G185" s="45" t="str">
-        <f>G177</f>
-        <v>論理削除</v>
-      </c>
-      <c r="H185" s="46"/>
-      <c r="I185" s="46"/>
-      <c r="J185" s="46"/>
-      <c r="K185" s="47"/>
-      <c r="L185" s="46" t="s">
-        <v>87</v>
-      </c>
-      <c r="M185" s="46"/>
-      <c r="N185" s="46"/>
-      <c r="O185" s="47"/>
-      <c r="P185" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q185" s="46"/>
-      <c r="R185" s="46"/>
-      <c r="S185" s="46"/>
-      <c r="T185" s="46"/>
-      <c r="U185" s="46"/>
-      <c r="V185" s="46"/>
-      <c r="W185" s="46"/>
-      <c r="X185" s="46"/>
-      <c r="Y185" s="46"/>
-      <c r="Z185" s="46"/>
-      <c r="AA185" s="46"/>
-      <c r="AB185" s="46"/>
-      <c r="AC185" s="46"/>
-      <c r="AD185" s="46"/>
-      <c r="AE185" s="46"/>
-      <c r="AF185" s="46"/>
-      <c r="AG185" s="46"/>
-      <c r="AH185" s="47"/>
-    </row>
-    <row r="186" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E186" s="16"/>
+      <c r="D185" s="16"/>
+      <c r="E185" s="18"/>
+      <c r="F185" s="18"/>
+      <c r="G185" s="39"/>
+      <c r="H185" s="18"/>
+      <c r="I185" s="18"/>
+      <c r="J185" s="41"/>
+      <c r="K185" s="42"/>
+      <c r="L185" s="42"/>
+      <c r="M185" s="41"/>
+      <c r="N185" s="42"/>
+      <c r="O185" s="42"/>
+      <c r="P185" s="42"/>
+      <c r="Q185" s="42"/>
+      <c r="R185" s="42"/>
+      <c r="S185" s="42"/>
+      <c r="T185" s="42"/>
+      <c r="U185" s="42"/>
+      <c r="V185" s="42"/>
+      <c r="W185" s="42"/>
+      <c r="X185" s="43"/>
+      <c r="Y185" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z185" s="42"/>
+      <c r="AA185" s="42"/>
+      <c r="AB185" s="42"/>
+      <c r="AC185" s="42"/>
+      <c r="AD185" s="42"/>
+      <c r="AE185" s="42"/>
+      <c r="AF185" s="42"/>
+      <c r="AG185" s="42"/>
+      <c r="AH185" s="43"/>
+      <c r="AI185" s="18"/>
+    </row>
+    <row r="186" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D186" s="16"/>
+      <c r="E186" s="18"/>
       <c r="F186" s="18"/>
-      <c r="G186" s="18"/>
+      <c r="G186" s="39"/>
       <c r="H186" s="18"/>
       <c r="I186" s="18"/>
-      <c r="J186" s="18"/>
-      <c r="K186" s="18"/>
-      <c r="L186" s="18"/>
-      <c r="M186" s="18"/>
-      <c r="N186" s="18"/>
-      <c r="O186" s="18"/>
-      <c r="P186" s="18"/>
-      <c r="Q186" s="18"/>
-      <c r="R186" s="18"/>
-      <c r="S186" s="18"/>
-      <c r="T186" s="18"/>
-      <c r="U186" s="18"/>
-      <c r="V186" s="18"/>
-      <c r="W186" s="18"/>
-      <c r="X186" s="18"/>
-      <c r="Y186" s="18"/>
-      <c r="Z186" s="18"/>
-      <c r="AA186" s="18"/>
-      <c r="AB186" s="18"/>
-      <c r="AC186" s="18"/>
-      <c r="AD186" s="18"/>
-      <c r="AE186" s="18"/>
-      <c r="AF186" s="18"/>
-      <c r="AG186" s="18"/>
-      <c r="AH186" s="18"/>
+      <c r="J186" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="K186" s="53"/>
+      <c r="L186" s="53"/>
+      <c r="M186" s="52" t="s">
+        <v>65</v>
+      </c>
+      <c r="N186" s="53"/>
+      <c r="O186" s="53"/>
+      <c r="P186" s="53"/>
+      <c r="Q186" s="53"/>
+      <c r="R186" s="53"/>
+      <c r="S186" s="53"/>
+      <c r="T186" s="53"/>
+      <c r="U186" s="53"/>
+      <c r="V186" s="53"/>
+      <c r="W186" s="53"/>
+      <c r="X186" s="54"/>
+      <c r="Y186" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z186" s="53"/>
+      <c r="AA186" s="53"/>
+      <c r="AB186" s="53"/>
+      <c r="AC186" s="53"/>
+      <c r="AD186" s="53"/>
+      <c r="AE186" s="53"/>
+      <c r="AF186" s="53"/>
+      <c r="AG186" s="53"/>
+      <c r="AH186" s="54"/>
       <c r="AI186" s="18"/>
     </row>
-    <row r="187" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D187" s="16"/>
       <c r="E187" s="18"/>
-      <c r="F187" s="22" t="str">
-        <f>E165&amp;"3."</f>
-        <v>7.3.4.5.3.</v>
-      </c>
-      <c r="G187" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="H187" s="18"/>
-      <c r="I187" s="18"/>
-      <c r="J187" s="18"/>
-      <c r="K187" s="18"/>
-      <c r="L187" s="18"/>
-      <c r="M187" s="18"/>
-      <c r="N187" s="18"/>
-      <c r="O187" s="18"/>
-      <c r="P187" s="18"/>
-      <c r="Q187" s="18"/>
-      <c r="R187" s="18"/>
-      <c r="S187" s="18"/>
-      <c r="T187" s="18"/>
-      <c r="U187" s="18"/>
-      <c r="V187" s="18"/>
-      <c r="W187" s="18"/>
-      <c r="X187" s="18"/>
-      <c r="Y187" s="18"/>
-      <c r="Z187" s="18"/>
-      <c r="AA187" s="18"/>
-      <c r="AB187" s="18"/>
-      <c r="AC187" s="18"/>
-      <c r="AD187" s="18"/>
-      <c r="AE187" s="18"/>
-      <c r="AF187" s="18"/>
-      <c r="AG187" s="18"/>
-      <c r="AH187" s="18"/>
+      <c r="F187" s="18"/>
+      <c r="G187" s="41"/>
+      <c r="H187" s="42"/>
+      <c r="I187" s="42"/>
+      <c r="J187" s="41"/>
+      <c r="K187" s="42"/>
+      <c r="L187" s="42"/>
+      <c r="M187" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="N187" s="42"/>
+      <c r="O187" s="42"/>
+      <c r="P187" s="42"/>
+      <c r="Q187" s="42"/>
+      <c r="R187" s="42"/>
+      <c r="S187" s="42"/>
+      <c r="T187" s="42"/>
+      <c r="U187" s="42"/>
+      <c r="V187" s="42"/>
+      <c r="W187" s="42"/>
+      <c r="X187" s="43"/>
+      <c r="Y187" s="41" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z187" s="42"/>
+      <c r="AA187" s="42"/>
+      <c r="AB187" s="42"/>
+      <c r="AC187" s="42"/>
+      <c r="AD187" s="42"/>
+      <c r="AE187" s="42"/>
+      <c r="AF187" s="42"/>
+      <c r="AG187" s="42"/>
+      <c r="AH187" s="43"/>
       <c r="AI187" s="18"/>
     </row>
     <row r="188" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D188" s="16"/>
       <c r="E188" s="18"/>
-      <c r="F188" s="21"/>
-      <c r="G188" s="21"/>
+      <c r="F188" s="18"/>
+      <c r="G188" s="18"/>
       <c r="H188" s="18"/>
       <c r="I188" s="18"/>
       <c r="J188" s="18"/>
@@ -7087,550 +7077,7 @@
       <c r="AI188" s="18"/>
     </row>
     <row r="189" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D189" s="16"/>
-      <c r="E189" s="18"/>
-      <c r="F189" s="18"/>
-      <c r="G189" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="H189" s="37"/>
-      <c r="I189" s="37"/>
-      <c r="J189" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="K189" s="37"/>
-      <c r="L189" s="37"/>
-      <c r="M189" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="N189" s="37"/>
-      <c r="O189" s="37"/>
-      <c r="P189" s="37"/>
-      <c r="Q189" s="37"/>
-      <c r="R189" s="37"/>
-      <c r="S189" s="37"/>
-      <c r="T189" s="37"/>
-      <c r="U189" s="37"/>
-      <c r="V189" s="37"/>
-      <c r="W189" s="37"/>
-      <c r="X189" s="38"/>
-      <c r="Y189" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z189" s="37"/>
-      <c r="AA189" s="37"/>
-      <c r="AB189" s="37"/>
-      <c r="AC189" s="37"/>
-      <c r="AD189" s="37"/>
-      <c r="AE189" s="37"/>
-      <c r="AF189" s="37"/>
-      <c r="AG189" s="37"/>
-      <c r="AH189" s="38"/>
-      <c r="AI189" s="18"/>
-    </row>
-    <row r="190" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D190" s="16"/>
-      <c r="E190" s="18"/>
-      <c r="F190" s="18"/>
-      <c r="G190" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="H190" s="18"/>
-      <c r="I190" s="18"/>
-      <c r="J190" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="K190" s="18"/>
-      <c r="L190" s="18"/>
-      <c r="M190" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="N190" s="18"/>
-      <c r="O190" s="18"/>
-      <c r="P190" s="18"/>
-      <c r="Q190" s="18"/>
-      <c r="R190" s="18"/>
-      <c r="S190" s="18"/>
-      <c r="T190" s="18"/>
-      <c r="U190" s="18"/>
-      <c r="V190" s="18"/>
-      <c r="W190" s="18"/>
-      <c r="X190" s="40"/>
-      <c r="Y190" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z190" s="18"/>
-      <c r="AA190" s="18"/>
-      <c r="AB190" s="18"/>
-      <c r="AC190" s="18"/>
-      <c r="AD190" s="18"/>
-      <c r="AE190" s="18"/>
-      <c r="AF190" s="18"/>
-      <c r="AG190" s="18"/>
-      <c r="AH190" s="40"/>
-      <c r="AI190" s="18"/>
-    </row>
-    <row r="191" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D191" s="16"/>
-      <c r="E191" s="18"/>
-      <c r="F191" s="18"/>
-      <c r="G191" s="39"/>
-      <c r="H191" s="18"/>
-      <c r="I191" s="18"/>
-      <c r="J191" s="39"/>
-      <c r="K191" s="18"/>
-      <c r="L191" s="18"/>
-      <c r="M191" s="39" t="s">
-        <v>82</v>
-      </c>
-      <c r="N191" s="18"/>
-      <c r="O191" s="18"/>
-      <c r="P191" s="18"/>
-      <c r="Q191" s="18"/>
-      <c r="R191" s="18"/>
-      <c r="S191" s="18"/>
-      <c r="T191" s="18"/>
-      <c r="U191" s="18"/>
-      <c r="V191" s="18"/>
-      <c r="W191" s="18"/>
-      <c r="X191" s="40"/>
-      <c r="Y191" s="18"/>
-      <c r="Z191" s="18"/>
-      <c r="AA191" s="18"/>
-      <c r="AB191" s="18"/>
-      <c r="AC191" s="18"/>
-      <c r="AD191" s="18"/>
-      <c r="AE191" s="18"/>
-      <c r="AF191" s="18"/>
-      <c r="AG191" s="18"/>
-      <c r="AH191" s="40"/>
-      <c r="AI191" s="18"/>
-    </row>
-    <row r="192" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D192" s="16"/>
-      <c r="E192" s="18"/>
-      <c r="F192" s="18"/>
-      <c r="G192" s="39"/>
-      <c r="H192" s="18"/>
-      <c r="I192" s="18"/>
-      <c r="J192" s="52" t="s">
-        <v>62</v>
-      </c>
-      <c r="K192" s="53"/>
-      <c r="L192" s="53"/>
-      <c r="M192" s="52" t="s">
-        <v>65</v>
-      </c>
-      <c r="N192" s="53"/>
-      <c r="O192" s="53"/>
-      <c r="P192" s="53"/>
-      <c r="Q192" s="53"/>
-      <c r="R192" s="53"/>
-      <c r="S192" s="53"/>
-      <c r="T192" s="53"/>
-      <c r="U192" s="53"/>
-      <c r="V192" s="53"/>
-      <c r="W192" s="53"/>
-      <c r="X192" s="54"/>
-      <c r="Y192" s="53" t="s">
-        <v>103</v>
-      </c>
-      <c r="Z192" s="53"/>
-      <c r="AA192" s="53"/>
-      <c r="AB192" s="53"/>
-      <c r="AC192" s="53"/>
-      <c r="AD192" s="53"/>
-      <c r="AE192" s="53"/>
-      <c r="AF192" s="53"/>
-      <c r="AG192" s="53"/>
-      <c r="AH192" s="54"/>
-      <c r="AI192" s="18"/>
-    </row>
-    <row r="193" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D193" s="16"/>
-      <c r="E193" s="18"/>
-      <c r="F193" s="18"/>
-      <c r="G193" s="39"/>
-      <c r="H193" s="18"/>
-      <c r="I193" s="18"/>
-      <c r="J193" s="41"/>
-      <c r="K193" s="42"/>
-      <c r="L193" s="42"/>
-      <c r="M193" s="41"/>
-      <c r="N193" s="42"/>
-      <c r="O193" s="42"/>
-      <c r="P193" s="42"/>
-      <c r="Q193" s="42"/>
-      <c r="R193" s="42"/>
-      <c r="S193" s="42"/>
-      <c r="T193" s="42"/>
-      <c r="U193" s="42"/>
-      <c r="V193" s="42"/>
-      <c r="W193" s="42"/>
-      <c r="X193" s="43"/>
-      <c r="Y193" s="42" t="s">
-        <v>105</v>
-      </c>
-      <c r="Z193" s="42"/>
-      <c r="AA193" s="42"/>
-      <c r="AB193" s="42"/>
-      <c r="AC193" s="42"/>
-      <c r="AD193" s="42"/>
-      <c r="AE193" s="42"/>
-      <c r="AF193" s="42"/>
-      <c r="AG193" s="42"/>
-      <c r="AH193" s="43"/>
-      <c r="AI193" s="18"/>
-    </row>
-    <row r="194" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D194" s="16"/>
-      <c r="E194" s="18"/>
-      <c r="F194" s="18"/>
-      <c r="G194" s="39"/>
-      <c r="H194" s="18"/>
-      <c r="I194" s="18"/>
-      <c r="J194" s="52" t="s">
-        <v>63</v>
-      </c>
-      <c r="K194" s="53"/>
-      <c r="L194" s="53"/>
-      <c r="M194" s="52" t="s">
-        <v>66</v>
-      </c>
-      <c r="N194" s="53"/>
-      <c r="O194" s="53"/>
-      <c r="P194" s="53"/>
-      <c r="Q194" s="53"/>
-      <c r="R194" s="53"/>
-      <c r="S194" s="53"/>
-      <c r="T194" s="53"/>
-      <c r="U194" s="53"/>
-      <c r="V194" s="53"/>
-      <c r="W194" s="53"/>
-      <c r="X194" s="54"/>
-      <c r="Y194" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="Z194" s="53"/>
-      <c r="AA194" s="53"/>
-      <c r="AB194" s="53"/>
-      <c r="AC194" s="53"/>
-      <c r="AD194" s="53"/>
-      <c r="AE194" s="53"/>
-      <c r="AF194" s="53"/>
-      <c r="AG194" s="53"/>
-      <c r="AH194" s="54"/>
-      <c r="AI194" s="18"/>
-    </row>
-    <row r="195" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D195" s="16"/>
-      <c r="E195" s="18"/>
-      <c r="F195" s="18"/>
-      <c r="G195" s="41"/>
-      <c r="H195" s="42"/>
-      <c r="I195" s="42"/>
-      <c r="J195" s="41"/>
-      <c r="K195" s="42"/>
-      <c r="L195" s="42"/>
-      <c r="M195" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="N195" s="42"/>
-      <c r="O195" s="42"/>
-      <c r="P195" s="42"/>
-      <c r="Q195" s="42"/>
-      <c r="R195" s="42"/>
-      <c r="S195" s="42"/>
-      <c r="T195" s="42"/>
-      <c r="U195" s="42"/>
-      <c r="V195" s="42"/>
-      <c r="W195" s="42"/>
-      <c r="X195" s="43"/>
-      <c r="Y195" s="41" t="s">
-        <v>182</v>
-      </c>
-      <c r="Z195" s="42"/>
-      <c r="AA195" s="42"/>
-      <c r="AB195" s="42"/>
-      <c r="AC195" s="42"/>
-      <c r="AD195" s="42"/>
-      <c r="AE195" s="42"/>
-      <c r="AF195" s="42"/>
-      <c r="AG195" s="42"/>
-      <c r="AH195" s="43"/>
-      <c r="AI195" s="18"/>
-    </row>
-    <row r="196" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D196" s="16"/>
-      <c r="E196" s="18"/>
-      <c r="F196" s="18"/>
-      <c r="G196" s="18"/>
-      <c r="H196" s="18"/>
-      <c r="I196" s="18"/>
-      <c r="J196" s="18"/>
-      <c r="K196" s="18"/>
-      <c r="L196" s="18"/>
-      <c r="M196" s="18"/>
-      <c r="N196" s="18"/>
-      <c r="O196" s="18"/>
-      <c r="P196" s="18"/>
-      <c r="Q196" s="18"/>
-      <c r="R196" s="18"/>
-      <c r="S196" s="18"/>
-      <c r="T196" s="18"/>
-      <c r="U196" s="18"/>
-      <c r="V196" s="18"/>
-      <c r="W196" s="18"/>
-      <c r="X196" s="18"/>
-      <c r="Y196" s="18"/>
-      <c r="Z196" s="18"/>
-      <c r="AA196" s="18"/>
-      <c r="AB196" s="18"/>
-      <c r="AC196" s="18"/>
-      <c r="AD196" s="18"/>
-      <c r="AE196" s="18"/>
-      <c r="AF196" s="18"/>
-      <c r="AG196" s="18"/>
-      <c r="AH196" s="18"/>
-      <c r="AI196" s="18"/>
-    </row>
-    <row r="197" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D197" s="16"/>
-      <c r="E197" s="18"/>
-      <c r="F197" s="18"/>
-      <c r="G197" s="18"/>
-      <c r="H197" s="18"/>
-      <c r="I197" s="18"/>
-      <c r="J197" s="18"/>
-      <c r="K197" s="18"/>
-      <c r="L197" s="18"/>
-      <c r="M197" s="18"/>
-      <c r="N197" s="18"/>
-      <c r="O197" s="18"/>
-      <c r="P197" s="18"/>
-      <c r="Q197" s="18"/>
-      <c r="R197" s="18"/>
-      <c r="S197" s="18"/>
-      <c r="T197" s="18"/>
-      <c r="U197" s="18"/>
-      <c r="V197" s="18"/>
-      <c r="W197" s="18"/>
-      <c r="X197" s="18"/>
-      <c r="Y197" s="18"/>
-      <c r="Z197" s="18"/>
-      <c r="AA197" s="18"/>
-      <c r="AB197" s="18"/>
-      <c r="AC197" s="18"/>
-      <c r="AD197" s="18"/>
-      <c r="AE197" s="18"/>
-      <c r="AF197" s="18"/>
-      <c r="AG197" s="18"/>
-      <c r="AH197" s="18"/>
-      <c r="AI197" s="18"/>
-    </row>
-    <row r="198" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D198" s="22" t="str">
-        <f>$C$7&amp;"5."</f>
-        <v>7.3.5.</v>
-      </c>
-      <c r="E198" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="F198" s="18"/>
-      <c r="G198" s="18"/>
-      <c r="H198" s="18"/>
-      <c r="I198" s="18"/>
-      <c r="J198" s="18"/>
-      <c r="K198" s="18"/>
-      <c r="L198" s="18"/>
-      <c r="M198" s="18"/>
-      <c r="N198" s="18"/>
-      <c r="O198" s="18"/>
-      <c r="P198" s="18"/>
-      <c r="Q198" s="18"/>
-      <c r="R198" s="18"/>
-      <c r="S198" s="18"/>
-      <c r="T198" s="18"/>
-      <c r="U198" s="18"/>
-      <c r="V198" s="18"/>
-      <c r="W198" s="18"/>
-      <c r="X198" s="18"/>
-      <c r="Y198" s="18"/>
-      <c r="Z198" s="18"/>
-      <c r="AA198" s="18"/>
-      <c r="AB198" s="18"/>
-      <c r="AC198" s="18"/>
-      <c r="AD198" s="18"/>
-      <c r="AE198" s="18"/>
-      <c r="AF198" s="18"/>
-      <c r="AG198" s="18"/>
-      <c r="AH198" s="18"/>
-      <c r="AI198" s="18"/>
-    </row>
-    <row r="199" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C199" s="20"/>
-      <c r="D199" s="22"/>
-      <c r="F199" s="18"/>
-      <c r="G199" s="18"/>
-      <c r="H199" s="18"/>
-      <c r="I199" s="18"/>
-      <c r="J199" s="18"/>
-      <c r="K199" s="18"/>
-      <c r="L199" s="18"/>
-      <c r="M199" s="18"/>
-      <c r="N199" s="18"/>
-      <c r="O199" s="18"/>
-      <c r="P199" s="18"/>
-      <c r="Q199" s="18"/>
-      <c r="R199" s="18"/>
-      <c r="S199" s="18"/>
-      <c r="T199" s="18"/>
-      <c r="U199" s="18"/>
-      <c r="V199" s="18"/>
-      <c r="W199" s="18"/>
-      <c r="X199" s="18"/>
-      <c r="Y199" s="18"/>
-      <c r="Z199" s="18"/>
-      <c r="AA199" s="18"/>
-      <c r="AB199" s="18"/>
-      <c r="AC199" s="18"/>
-      <c r="AD199" s="18"/>
-      <c r="AE199" s="18"/>
-      <c r="AF199" s="18"/>
-      <c r="AG199" s="18"/>
-      <c r="AH199" s="18"/>
-      <c r="AI199" s="18"/>
-    </row>
-    <row r="200" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C200" s="20"/>
-      <c r="D200" s="22"/>
-      <c r="E200" s="22" t="str">
-        <f>$D$198&amp;"1."</f>
-        <v>7.3.5.1.</v>
-      </c>
-      <c r="F200" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="G200" s="18"/>
-      <c r="H200" s="18"/>
-      <c r="I200" s="18"/>
-      <c r="J200" s="18"/>
-      <c r="K200" s="18"/>
-      <c r="L200" s="18"/>
-      <c r="M200" s="18"/>
-      <c r="N200" s="18"/>
-      <c r="O200" s="18"/>
-      <c r="P200" s="18"/>
-      <c r="Q200" s="18"/>
-      <c r="R200" s="18"/>
-      <c r="S200" s="18"/>
-      <c r="T200" s="18"/>
-      <c r="U200" s="18"/>
-      <c r="V200" s="18"/>
-      <c r="W200" s="18"/>
-      <c r="X200" s="18"/>
-      <c r="Y200" s="18"/>
-      <c r="Z200" s="18"/>
-      <c r="AA200" s="18"/>
-      <c r="AB200" s="18"/>
-      <c r="AC200" s="18"/>
-      <c r="AD200" s="18"/>
-      <c r="AE200" s="18"/>
-      <c r="AF200" s="18"/>
-      <c r="AG200" s="18"/>
-      <c r="AH200" s="18"/>
-      <c r="AI200" s="18"/>
-    </row>
-    <row r="201" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C201" s="20"/>
-      <c r="D201" s="22"/>
-      <c r="E201" s="17"/>
-      <c r="F201" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="G201" s="18"/>
-      <c r="H201" s="18"/>
-      <c r="I201" s="18"/>
-      <c r="J201" s="18"/>
-      <c r="K201" s="18"/>
-      <c r="L201" s="18"/>
-      <c r="M201" s="18"/>
-      <c r="N201" s="18"/>
-      <c r="O201" s="18"/>
-      <c r="P201" s="18"/>
-      <c r="Q201" s="18"/>
-      <c r="R201" s="18"/>
-      <c r="S201" s="18"/>
-      <c r="T201" s="18"/>
-      <c r="U201" s="18"/>
-      <c r="V201" s="18"/>
-      <c r="W201" s="18"/>
-      <c r="X201" s="18"/>
-      <c r="Y201" s="18"/>
-      <c r="Z201" s="18"/>
-      <c r="AA201" s="18"/>
-      <c r="AB201" s="18"/>
-      <c r="AC201" s="18"/>
-      <c r="AD201" s="18"/>
-      <c r="AE201" s="18"/>
-      <c r="AF201" s="18"/>
-      <c r="AG201" s="18"/>
-      <c r="AH201" s="18"/>
-      <c r="AI201" s="18"/>
-    </row>
-    <row r="202" spans="3:35" s="21" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C202" s="20"/>
-      <c r="D202" s="22"/>
-      <c r="E202" s="17"/>
-      <c r="F202" s="18"/>
-      <c r="G202" s="18"/>
-      <c r="H202" s="18"/>
-      <c r="I202" s="18"/>
-      <c r="J202" s="18"/>
-      <c r="K202" s="18"/>
-      <c r="L202" s="18"/>
-      <c r="M202" s="18"/>
-      <c r="N202" s="18"/>
-      <c r="O202" s="18"/>
-      <c r="P202" s="18"/>
-      <c r="Q202" s="18"/>
-      <c r="R202" s="18"/>
-      <c r="S202" s="18"/>
-      <c r="T202" s="18"/>
-      <c r="U202" s="18"/>
-      <c r="V202" s="18"/>
-      <c r="W202" s="18"/>
-      <c r="X202" s="18"/>
-      <c r="Y202" s="18"/>
-      <c r="Z202" s="18"/>
-      <c r="AA202" s="18"/>
-      <c r="AB202" s="18"/>
-      <c r="AC202" s="18"/>
-      <c r="AD202" s="18"/>
-      <c r="AE202" s="18"/>
-      <c r="AF202" s="18"/>
-      <c r="AG202" s="18"/>
-      <c r="AH202" s="18"/>
-      <c r="AI202" s="18"/>
-    </row>
-    <row r="203" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C203" s="20"/>
-      <c r="E203" s="22" t="str">
-        <f>$D$198&amp;"2."</f>
-        <v>7.3.5.2.</v>
-      </c>
-      <c r="F203" s="17" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="204" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C204" s="20"/>
-      <c r="F204" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="205" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C205" s="20"/>
+      <c r="C189" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -7651,10 +7098,10 @@
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="5" manualBreakCount="5">
     <brk id="44" max="34" man="1"/>
-    <brk id="67" max="34" man="1"/>
-    <brk id="93" max="34" man="1"/>
-    <brk id="122" max="34" man="1"/>
-    <brk id="164" max="34" man="1"/>
+    <brk id="60" max="34" man="1"/>
+    <brk id="86" max="34" man="1"/>
+    <brk id="115" max="34" man="1"/>
+    <brk id="157" max="34" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>